--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="308">
   <si>
     <t>P891</t>
   </si>
@@ -121,10 +121,130 @@
     <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
   </si>
   <si>
-    <t>133728635</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - COFFS HARBOUR</t>
+    <t>133768489</t>
+  </si>
+  <si>
+    <t>CALVARY MATER HOSPITAL - WARATAH</t>
+  </si>
+  <si>
+    <t>89092302</t>
+  </si>
+  <si>
+    <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
+  </si>
+  <si>
+    <t>4595323</t>
+  </si>
+  <si>
+    <t>WARATAH</t>
+  </si>
+  <si>
+    <t>717042396</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>4595328</t>
+  </si>
+  <si>
+    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
+  </si>
+  <si>
+    <t>NEWCASTLE</t>
+  </si>
+  <si>
+    <t>64437133</t>
+  </si>
+  <si>
+    <t>Dota(Tyr3)-Octreotate (GMP-Dotatate) 1mg</t>
+  </si>
+  <si>
+    <t>133789926</t>
+  </si>
+  <si>
+    <t>ST JOHN OF GOD HEALTH CARE</t>
+  </si>
+  <si>
+    <t>80727543</t>
+  </si>
+  <si>
+    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
+  </si>
+  <si>
+    <t>3018198</t>
+  </si>
+  <si>
+    <t>WENDOUREE VILLAGE</t>
+  </si>
+  <si>
+    <t>717063191</t>
+  </si>
+  <si>
+    <t>020050</t>
+  </si>
+  <si>
+    <t>133791215</t>
+  </si>
+  <si>
+    <t>HUNTER IMAGING GROUP TAMWORTH</t>
+  </si>
+  <si>
+    <t>1340431</t>
+  </si>
+  <si>
+    <t>TAMWORTH</t>
+  </si>
+  <si>
+    <t>717057074</t>
+  </si>
+  <si>
+    <t>4596223</t>
+  </si>
+  <si>
+    <t>HUNTER IMAGING GROUP PTY LIMITED</t>
+  </si>
+  <si>
+    <t>ADAMSTOWN</t>
+  </si>
+  <si>
+    <t>02112548</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133791216</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING - EASTWOOD</t>
+  </si>
+  <si>
+    <t>80802544</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>3387737</t>
+  </si>
+  <si>
+    <t>EASTWOOD</t>
+  </si>
+  <si>
+    <t>717058364</t>
+  </si>
+  <si>
+    <t>010050</t>
+  </si>
+  <si>
+    <t>4595823</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>GOSFORD</t>
   </si>
   <si>
     <t>03250768</t>
@@ -133,16 +253,28 @@
     <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
   </si>
   <si>
-    <t>3021085</t>
-  </si>
-  <si>
-    <t>COFFS HARBOUR</t>
-  </si>
-  <si>
-    <t>717050204</t>
-  </si>
-  <si>
-    <t>020050</t>
+    <t>133792514</t>
+  </si>
+  <si>
+    <t>GYMPIE RADIOLOGY</t>
+  </si>
+  <si>
+    <t>2766077</t>
+  </si>
+  <si>
+    <t>GYMPIE</t>
+  </si>
+  <si>
+    <t>717058118</t>
+  </si>
+  <si>
+    <t>020041</t>
+  </si>
+  <si>
+    <t>133777633</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - WAGGA WAGGA</t>
   </si>
   <si>
     <t>87234487</t>
@@ -151,49 +283,133 @@
     <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
   </si>
   <si>
-    <t>133768489</t>
-  </si>
-  <si>
-    <t>CALVARY MATER HOSPITAL - WARATAH</t>
-  </si>
-  <si>
-    <t>89092302</t>
-  </si>
-  <si>
-    <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
-  </si>
-  <si>
-    <t>4595323</t>
-  </si>
-  <si>
-    <t>WARATAH</t>
-  </si>
-  <si>
-    <t>717042396</t>
-  </si>
-  <si>
-    <t>010130</t>
-  </si>
-  <si>
-    <t>4595328</t>
-  </si>
-  <si>
-    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
-  </si>
-  <si>
-    <t>NEWCASTLE</t>
-  </si>
-  <si>
-    <t>64437133</t>
-  </si>
-  <si>
-    <t>Dota(Tyr3)-Octreotate (GMP-Dotatate) 1mg</t>
-  </si>
-  <si>
-    <t>133772485</t>
-  </si>
-  <si>
-    <t>Prince Of Wales Hospital</t>
+    <t>4595953</t>
+  </si>
+  <si>
+    <t>WAGGA WAGGA</t>
+  </si>
+  <si>
+    <t>717058117</t>
+  </si>
+  <si>
+    <t>86617501</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,PAS,60",MC,WLD</t>
+  </si>
+  <si>
+    <t>64424260</t>
+  </si>
+  <si>
+    <t>LabEAZY Cassette- 68Ga PSMA Peptides</t>
+  </si>
+  <si>
+    <t>64425232</t>
+  </si>
+  <si>
+    <t>Reagent Set 68Ga-labeled peptides</t>
+  </si>
+  <si>
+    <t>133781434</t>
+  </si>
+  <si>
+    <t>LUMUS IMAGING TWEED HEADS SOUTH</t>
+  </si>
+  <si>
+    <t>02112555</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4730239</t>
+  </si>
+  <si>
+    <t>TWEED HEADS SOUTH</t>
+  </si>
+  <si>
+    <t>717058079</t>
+  </si>
+  <si>
+    <t>4595468</t>
+  </si>
+  <si>
+    <t>QLD DIAGNOSTIC IMAGING PTY LTD</t>
+  </si>
+  <si>
+    <t>ST LEONARDS</t>
+  </si>
+  <si>
+    <t>133781435</t>
+  </si>
+  <si>
+    <t>MONASH HEALTH- MONASH MEDICAL CTR</t>
+  </si>
+  <si>
+    <t>82212737</t>
+  </si>
+  <si>
+    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
+  </si>
+  <si>
+    <t>4595650</t>
+  </si>
+  <si>
+    <t>SCORESBY</t>
+  </si>
+  <si>
+    <t>717061611</t>
+  </si>
+  <si>
+    <t>4595649</t>
+  </si>
+  <si>
+    <t>MONASH HEALTH</t>
+  </si>
+  <si>
+    <t>CHELTENHAM</t>
+  </si>
+  <si>
+    <t>133783130</t>
+  </si>
+  <si>
+    <t>MANNING BASE HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595325</t>
+  </si>
+  <si>
+    <t>TAREE</t>
+  </si>
+  <si>
+    <t>717062486</t>
+  </si>
+  <si>
+    <t>133783131</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES</t>
+  </si>
+  <si>
+    <t>64436641</t>
+  </si>
+  <si>
+    <t>DKFZ-PSMA-11 (GMP) 1MG</t>
+  </si>
+  <si>
+    <t>4595117</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>717062739</t>
+  </si>
+  <si>
+    <t>4595462</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES (VIC)</t>
   </si>
   <si>
     <t>86566621</t>
@@ -202,34 +418,214 @@
     <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
   </si>
   <si>
-    <t>Randwick</t>
-  </si>
-  <si>
-    <t>717050293</t>
-  </si>
-  <si>
-    <t>133778086</t>
-  </si>
-  <si>
-    <t>CASTLEREAGH IMAGING</t>
-  </si>
-  <si>
-    <t>87238504</t>
-  </si>
-  <si>
-    <t>TUBE,EXT,SINGLE,WLD1</t>
-  </si>
-  <si>
-    <t>3019451</t>
-  </si>
-  <si>
-    <t>ST. LEONARDS</t>
-  </si>
-  <si>
-    <t>717052191</t>
-  </si>
-  <si>
-    <t>010050</t>
+    <t>133789685</t>
+  </si>
+  <si>
+    <t>SUNSHINE COAST UNIVERSITY HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595790</t>
+  </si>
+  <si>
+    <t>BIRTINYA</t>
+  </si>
+  <si>
+    <t>717058573</t>
+  </si>
+  <si>
+    <t>4595794</t>
+  </si>
+  <si>
+    <t>SUNSHINE COAST HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>SUNSHINE COAST MC</t>
+  </si>
+  <si>
+    <t>133789686</t>
+  </si>
+  <si>
+    <t>LYELL MCEWIN HEALTH SERVICE</t>
+  </si>
+  <si>
+    <t>4595506</t>
+  </si>
+  <si>
+    <t>ELIZABETH VALE</t>
+  </si>
+  <si>
+    <t>717061892</t>
+  </si>
+  <si>
+    <t>4595446</t>
+  </si>
+  <si>
+    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>133789687</t>
+  </si>
+  <si>
+    <t>FLINDERS MEDICAL CENTRE</t>
+  </si>
+  <si>
+    <t>4699953</t>
+  </si>
+  <si>
+    <t>BEDFORD PARK</t>
+  </si>
+  <si>
+    <t>717062574</t>
+  </si>
+  <si>
+    <t>86594226</t>
+  </si>
+  <si>
+    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>133789925</t>
+  </si>
+  <si>
+    <t>SPECTRUM MEDICAL IMAGING-ALEXANDRIA</t>
+  </si>
+  <si>
+    <t>4595198</t>
+  </si>
+  <si>
+    <t>ALEXANDRIA</t>
+  </si>
+  <si>
+    <t>717058363</t>
+  </si>
+  <si>
+    <t>3397516</t>
+  </si>
+  <si>
+    <t>SPECTRUM MEDICAL IMAGING SERVICES</t>
+  </si>
+  <si>
+    <t>LIVERPOOL</t>
+  </si>
+  <si>
+    <t>133789927</t>
+  </si>
+  <si>
+    <t>PRINCESS ALEXANDRA HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596272</t>
+  </si>
+  <si>
+    <t>WOOLLOONGABBA</t>
+  </si>
+  <si>
+    <t>717063300</t>
+  </si>
+  <si>
+    <t>4595416</t>
+  </si>
+  <si>
+    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>EIGHT MILE PLAINS</t>
+  </si>
+  <si>
+    <t>87621529</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133791592</t>
+  </si>
+  <si>
+    <t>QSCAN MACKAY</t>
+  </si>
+  <si>
+    <t>1067603</t>
+  </si>
+  <si>
+    <t>NORTH MACKAY</t>
+  </si>
+  <si>
+    <t>717062514</t>
+  </si>
+  <si>
+    <t>030130</t>
+  </si>
+  <si>
+    <t>4596133</t>
+  </si>
+  <si>
+    <t>QSCAN SERVICES PTY LTD</t>
+  </si>
+  <si>
+    <t>CLAYFIELD</t>
+  </si>
+  <si>
+    <t>133792513</t>
+  </si>
+  <si>
+    <t>FRANKSTON HOSPITAL</t>
+  </si>
+  <si>
+    <t>4675190</t>
+  </si>
+  <si>
+    <t>FRANKSTON</t>
+  </si>
+  <si>
+    <t>717058373</t>
+  </si>
+  <si>
+    <t>4628393</t>
+  </si>
+  <si>
+    <t>PENINSULA HEALTH</t>
+  </si>
+  <si>
+    <t>133796518</t>
+  </si>
+  <si>
+    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
+  </si>
+  <si>
+    <t>4670712</t>
+  </si>
+  <si>
+    <t>DERRIMUT</t>
+  </si>
+  <si>
+    <t>717063330</t>
+  </si>
+  <si>
+    <t>4670709</t>
+  </si>
+  <si>
+    <t>HEALTHSHARE VICTORIA</t>
+  </si>
+  <si>
+    <t>MELBOURNE</t>
+  </si>
+  <si>
+    <t>133796689</t>
+  </si>
+  <si>
+    <t>CASTLEREAGH IMAGING - NEPEAN HEALTH</t>
+  </si>
+  <si>
+    <t>4757668</t>
+  </si>
+  <si>
+    <t>KINGSWOOD</t>
+  </si>
+  <si>
+    <t>717059223</t>
   </si>
   <si>
     <t>4595574</t>
@@ -241,61 +637,49 @@
     <t>WESTMEAD</t>
   </si>
   <si>
-    <t>133778979</t>
-  </si>
-  <si>
-    <t>MURRAY BRIDGE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4553048</t>
-  </si>
-  <si>
-    <t>MURRAY BRIDGE</t>
-  </si>
-  <si>
-    <t>717051456</t>
-  </si>
-  <si>
-    <t>4595446</t>
-  </si>
-  <si>
-    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>ADELAIDE</t>
-  </si>
-  <si>
-    <t>87078752</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,D,SPK,FLS3,150ML,WLD</t>
-  </si>
-  <si>
-    <t>87078760</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
-  </si>
-  <si>
-    <t>133781653</t>
-  </si>
-  <si>
-    <t>SHIRE MEDICAL IMAGING PTY LTD</t>
-  </si>
-  <si>
-    <t>86698188</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>4543220</t>
-  </si>
-  <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>717047889</t>
+    <t>133796690</t>
+  </si>
+  <si>
+    <t>BENSON RADIOLOGY - ASHFORD</t>
+  </si>
+  <si>
+    <t>4596260</t>
+  </si>
+  <si>
+    <t>ASHFORD</t>
+  </si>
+  <si>
+    <t>717059593</t>
+  </si>
+  <si>
+    <t>4596200</t>
+  </si>
+  <si>
+    <t>BENSON RADIOLOGY</t>
+  </si>
+  <si>
+    <t>NORTH ADELAIDE</t>
+  </si>
+  <si>
+    <t>133796691</t>
+  </si>
+  <si>
+    <t>MET MaitlandHospDock 550001</t>
+  </si>
+  <si>
+    <t>4687593</t>
+  </si>
+  <si>
+    <t>Metford</t>
+  </si>
+  <si>
+    <t>717060775</t>
+  </si>
+  <si>
+    <t>133796693</t>
+  </si>
+  <si>
+    <t>COMMUNITY IMAGING EMPLOYMENT</t>
   </si>
   <si>
     <t>86698242</t>
@@ -304,442 +688,61 @@
     <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
   </si>
   <si>
-    <t>133781727</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - FOREST LAKE</t>
-  </si>
-  <si>
-    <t>4104037</t>
-  </si>
-  <si>
-    <t>FOREST LAKE</t>
-  </si>
-  <si>
-    <t>717052702</t>
-  </si>
-  <si>
-    <t>133782009</t>
-  </si>
-  <si>
-    <t>ST GEORGE PRIVATE HOSPITAL</t>
-  </si>
-  <si>
-    <t>80727543</t>
-  </si>
-  <si>
-    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
-  </si>
-  <si>
-    <t>3019869</t>
-  </si>
-  <si>
-    <t>KOGARAH</t>
-  </si>
-  <si>
-    <t>717051970</t>
-  </si>
-  <si>
-    <t>4595466</t>
-  </si>
-  <si>
-    <t>RAMSAY HEALTH CARE</t>
-  </si>
-  <si>
-    <t>ST KILDA ROAD</t>
-  </si>
-  <si>
-    <t>133783085</t>
-  </si>
-  <si>
-    <t>BALLARAT HEALTH SERVICES</t>
-  </si>
-  <si>
-    <t>3308543</t>
-  </si>
-  <si>
-    <t>SOUTH BALLARAT</t>
-  </si>
-  <si>
-    <t>717052945</t>
-  </si>
-  <si>
-    <t>133764212</t>
-  </si>
-  <si>
-    <t>BENSON RADIOLOGY</t>
-  </si>
-  <si>
-    <t>917128</t>
-  </si>
-  <si>
-    <t>Hampstead Gardens</t>
-  </si>
-  <si>
-    <t>717043027</t>
-  </si>
-  <si>
-    <t>4596200</t>
-  </si>
-  <si>
-    <t>NORTH ADELAIDE</t>
-  </si>
-  <si>
-    <t>133772044</t>
-  </si>
-  <si>
-    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
-  </si>
-  <si>
-    <t>4670712</t>
-  </si>
-  <si>
-    <t>DERRIMUT</t>
-  </si>
-  <si>
-    <t>717052156</t>
-  </si>
-  <si>
-    <t>4670709</t>
-  </si>
-  <si>
-    <t>HEALTHSHARE VICTORIA</t>
-  </si>
-  <si>
-    <t>MELBOURNE</t>
-  </si>
-  <si>
-    <t>133772045</t>
-  </si>
-  <si>
-    <t>ROYAL PRINCE ALFRED HOSPITAL</t>
-  </si>
-  <si>
-    <t>86617439</t>
-  </si>
-  <si>
-    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595813</t>
-  </si>
-  <si>
-    <t>CAMPERDOWN</t>
-  </si>
-  <si>
-    <t>717052334</t>
-  </si>
-  <si>
-    <t>4595817</t>
-  </si>
-  <si>
-    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
-  </si>
-  <si>
-    <t>PARRAMATTA</t>
-  </si>
-  <si>
-    <t>133776885</t>
-  </si>
-  <si>
-    <t>GOLD COAST UNIVERSITY HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595660</t>
-  </si>
-  <si>
-    <t>SOUTHPORT</t>
-  </si>
-  <si>
-    <t>717052241</t>
-  </si>
-  <si>
-    <t>4595661</t>
-  </si>
-  <si>
-    <t>GOLD COAST HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>86617501</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,PAS,60",MC,WLD</t>
-  </si>
-  <si>
-    <t>133778443</t>
-  </si>
-  <si>
-    <t>717049049</t>
-  </si>
-  <si>
-    <t>133778444</t>
-  </si>
-  <si>
-    <t>MET MaitlandHospDock 550001</t>
-  </si>
-  <si>
-    <t>4687593</t>
-  </si>
-  <si>
-    <t>Metford</t>
-  </si>
-  <si>
-    <t>717052483</t>
-  </si>
-  <si>
-    <t>133778445</t>
-  </si>
-  <si>
-    <t>86566656</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,SNGL,ANGIO,65",PIV,MC,WLD</t>
-  </si>
-  <si>
-    <t>717053083</t>
-  </si>
-  <si>
-    <t>132494</t>
-  </si>
-  <si>
-    <t>THE ROYAL MELBOURNE HOSPITAL</t>
-  </si>
-  <si>
-    <t>PARKVILLE</t>
-  </si>
-  <si>
-    <t>86574160</t>
-  </si>
-  <si>
-    <t>ASSY,HAND CONTROLLER,AVANTA,MC,WLD</t>
-  </si>
-  <si>
-    <t>133779205</t>
-  </si>
-  <si>
-    <t>82212737</t>
-  </si>
-  <si>
-    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
-  </si>
-  <si>
-    <t>717053042</t>
-  </si>
-  <si>
-    <t>133779753</t>
-  </si>
-  <si>
-    <t>PRINCESS ALEXANDRA HOSPITAL</t>
-  </si>
-  <si>
-    <t>02112548</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4596272</t>
-  </si>
-  <si>
-    <t>WOOLLOONGABBA</t>
-  </si>
-  <si>
-    <t>717049814</t>
-  </si>
-  <si>
-    <t>4595416</t>
-  </si>
-  <si>
-    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>EIGHT MILE PLAINS</t>
-  </si>
-  <si>
-    <t>133781998</t>
-  </si>
-  <si>
-    <t>EH DISTRIBUTION CENTRE</t>
-  </si>
-  <si>
-    <t>86835444</t>
-  </si>
-  <si>
-    <t>MRXPERION,KIT,SYR,MR,PFA,JA,FINAL</t>
-  </si>
-  <si>
-    <t>4595201</t>
-  </si>
-  <si>
-    <t>RINGWOOD</t>
-  </si>
-  <si>
-    <t>717052173</t>
-  </si>
-  <si>
-    <t>4595192</t>
-  </si>
-  <si>
-    <t>EASTERN HEALTH</t>
-  </si>
-  <si>
-    <t>BOX HILL</t>
-  </si>
-  <si>
-    <t>133782099</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - CALVARY HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595905</t>
-  </si>
-  <si>
-    <t>LENAH VALLEY</t>
-  </si>
-  <si>
-    <t>717049208</t>
-  </si>
-  <si>
-    <t>133782909</t>
-  </si>
-  <si>
-    <t>JOHN HUNTER HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595241</t>
-  </si>
-  <si>
-    <t>NEW LAMBTON HEIGHTS</t>
-  </si>
-  <si>
-    <t>717052553</t>
-  </si>
-  <si>
-    <t>133783086</t>
-  </si>
-  <si>
-    <t>ROYAL PRINCE ALFRED HOSPITAL RPAH</t>
-  </si>
-  <si>
-    <t>940998</t>
-  </si>
-  <si>
-    <t>717053021</t>
-  </si>
-  <si>
-    <t>86698226</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,SNGL,60",QFT,MC,WLD</t>
-  </si>
-  <si>
-    <t>133782379</t>
-  </si>
-  <si>
-    <t>Perth Radiological Clinic - Armadal</t>
-  </si>
-  <si>
-    <t>87236072</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,WLD1</t>
-  </si>
-  <si>
-    <t>4595271</t>
-  </si>
-  <si>
-    <t>Armadale</t>
-  </si>
-  <si>
-    <t>717045347</t>
-  </si>
-  <si>
-    <t>050230</t>
-  </si>
-  <si>
-    <t>4595291</t>
-  </si>
-  <si>
-    <t>PERTHRADCLINIC LTD</t>
-  </si>
-  <si>
-    <t>MIRRABOOKA</t>
-  </si>
-  <si>
-    <t>87235971</t>
-  </si>
-  <si>
-    <t>TUBE,EXT,DUAL,WLD1</t>
-  </si>
-  <si>
-    <t>133772042</t>
-  </si>
-  <si>
-    <t>PERTH RAD CLINIC LTD - INNALOO</t>
-  </si>
-  <si>
-    <t>4595274</t>
-  </si>
-  <si>
-    <t>INNALOO</t>
-  </si>
-  <si>
-    <t>717045519</t>
+    <t>4595581</t>
+  </si>
+  <si>
+    <t>ERINA</t>
+  </si>
+  <si>
+    <t>717063063</t>
+  </si>
+  <si>
+    <t>3019005</t>
+  </si>
+  <si>
+    <t>PENRITH</t>
+  </si>
+  <si>
+    <t>133781437</t>
+  </si>
+  <si>
+    <t>SKG RADIOLOGY - CURRAMBINE</t>
+  </si>
+  <si>
+    <t>4595060</t>
+  </si>
+  <si>
+    <t>CURRAMBINE</t>
+  </si>
+  <si>
+    <t>717063120</t>
   </si>
   <si>
     <t>010530</t>
   </si>
   <si>
-    <t>133781102</t>
-  </si>
-  <si>
-    <t>ROYAL DARWIN HOSPITAL</t>
-  </si>
-  <si>
-    <t>3310461</t>
-  </si>
-  <si>
-    <t>TIWI</t>
-  </si>
-  <si>
-    <t>717054103</t>
-  </si>
-  <si>
-    <t>133781654</t>
-  </si>
-  <si>
-    <t>HOBART PRIVATE HOSPITAL</t>
-  </si>
-  <si>
-    <t>3016843</t>
-  </si>
-  <si>
-    <t>HOBART</t>
-  </si>
-  <si>
-    <t>717048399</t>
-  </si>
-  <si>
-    <t>4595617</t>
-  </si>
-  <si>
-    <t>HEALTHSCOPE LTD</t>
-  </si>
-  <si>
-    <t>133782908</t>
-  </si>
-  <si>
-    <t>PERTH RAD CLINIC LTD - BETHESDA</t>
-  </si>
-  <si>
-    <t>4595278</t>
-  </si>
-  <si>
-    <t>Bethesda</t>
-  </si>
-  <si>
-    <t>717052475</t>
+    <t>4595069</t>
+  </si>
+  <si>
+    <t>SKG RADIOLOGY</t>
+  </si>
+  <si>
+    <t>WEST PERTH</t>
+  </si>
+  <si>
+    <t>133796488</t>
+  </si>
+  <si>
+    <t>FIONA STANLEY HOSPITAL</t>
+  </si>
+  <si>
+    <t>1253935</t>
+  </si>
+  <si>
+    <t>MURDOCH</t>
+  </si>
+  <si>
+    <t>717063190</t>
   </si>
   <si>
     <t>P8SW</t>
@@ -829,24 +832,6 @@
     <t>ASSY,CABLE,HEAD EXT,75 FT.,(SINGLE/DUAL)</t>
   </si>
   <si>
-    <t>133767420</t>
-  </si>
-  <si>
-    <t>Bayer Radiology (AU12 Service Hub)</t>
-  </si>
-  <si>
-    <t>86100134</t>
-  </si>
-  <si>
-    <t>PWRSPLY,EXT,12V,75W,IT</t>
-  </si>
-  <si>
-    <t>Rydalmere</t>
-  </si>
-  <si>
-    <t>2172547458</t>
-  </si>
-  <si>
     <t>133772948</t>
   </si>
   <si>
@@ -878,9 +863,6 @@
   </si>
   <si>
     <t>STRAIN RELIEF,BLACK,CLAMSHELL</t>
-  </si>
-  <si>
-    <t>133772901</t>
   </si>
   <si>
     <t>Shipping Point/Receiving Pt</t>
@@ -1057,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,7 +1058,7 @@
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="6" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="15" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="21" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="19" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15" customWidth="1"/>
     <col min="14" max="14" bestFit="1" width="6" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="21" customWidth="1"/>
@@ -1093,76 +1075,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="P1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="T1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1481,10 +1463,10 @@
         <v>39</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1514,19 +1496,19 @@
         <v>45401</v>
       </c>
       <c r="R6" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="S6" t="s">
         <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s">
         <v>14</v>
@@ -1549,16 +1531,16 @@
         <v>45401</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -1588,19 +1570,19 @@
         <v>45401</v>
       </c>
       <c r="R7" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="S7" t="s">
         <v>43</v>
       </c>
       <c r="T7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W7" t="s">
         <v>14</v>
@@ -1614,25 +1596,25 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -1641,10 +1623,10 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -1653,28 +1635,28 @@
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P8" t="s">
         <v>30</v>
       </c>
       <c r="Q8" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="R8" s="2">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="S8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" t="s">
         <v>53</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" t="s">
         <v>54</v>
-      </c>
-      <c r="U8" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" t="s">
-        <v>56</v>
       </c>
       <c r="W8" t="s">
         <v>14</v>
@@ -1688,25 +1670,25 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -1715,10 +1697,10 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -1727,28 +1709,28 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s">
         <v>30</v>
       </c>
       <c r="Q9" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="R9" s="2">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="W9" t="s">
         <v>14</v>
@@ -1762,37 +1744,37 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45404</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="L10" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45401</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" t="s">
-        <v>63</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -1801,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>45404</v>
+      </c>
+      <c r="R10" s="2">
+        <v>45406</v>
+      </c>
+      <c r="S10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10" t="s">
         <v>64</v>
-      </c>
-      <c r="P10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>45401</v>
-      </c>
-      <c r="R10" s="2">
-        <v>45401</v>
-      </c>
-      <c r="S10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" t="s">
-        <v>33</v>
       </c>
       <c r="W10" t="s">
         <v>14</v>
@@ -1836,25 +1818,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -1863,10 +1845,10 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -1875,28 +1857,28 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s">
         <v>30</v>
       </c>
       <c r="Q11" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="R11" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="S11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s">
         <v>14</v>
@@ -1910,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -1937,10 +1919,10 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -1949,28 +1931,28 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s">
         <v>30</v>
       </c>
       <c r="Q12" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="R12" s="2">
         <v>45405</v>
       </c>
       <c r="S12" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s">
         <v>14</v>
@@ -1984,25 +1966,25 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -2011,10 +1993,10 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -2023,25 +2005,25 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
         <v>30</v>
       </c>
       <c r="Q13" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="R13" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="S13" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="T13" t="s">
+        <v>82</v>
+      </c>
+      <c r="U13" t="s">
         <v>81</v>
-      </c>
-      <c r="U13" t="s">
-        <v>82</v>
       </c>
       <c r="V13" t="s">
         <v>83</v>
@@ -2058,25 +2040,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2085,10 +2067,10 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -2097,25 +2079,25 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
         <v>30</v>
       </c>
       <c r="Q14" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="R14" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="S14" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="T14" t="s">
+        <v>82</v>
+      </c>
+      <c r="U14" t="s">
         <v>81</v>
-      </c>
-      <c r="U14" t="s">
-        <v>82</v>
       </c>
       <c r="V14" t="s">
         <v>83</v>
@@ -2132,37 +2114,37 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="2">
-        <v>45401</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
+      <c r="L15" t="s">
         <v>91</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>80</v>
-      </c>
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" t="s">
-        <v>93</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -2171,28 +2153,28 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P15" t="s">
         <v>30</v>
       </c>
       <c r="Q15" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="R15" s="2">
-        <v>45404</v>
+        <v>45408</v>
       </c>
       <c r="S15" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="T15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -2206,25 +2188,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2233,10 +2215,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2245,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P16" t="s">
         <v>30</v>
       </c>
       <c r="Q16" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="R16" s="2">
-        <v>45404</v>
+        <v>45408</v>
       </c>
       <c r="S16" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="T16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2280,25 +2262,25 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2307,10 +2289,10 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2319,28 +2301,28 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P17" t="s">
         <v>30</v>
       </c>
       <c r="Q17" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="R17" s="2">
-        <v>45404</v>
+        <v>45408</v>
       </c>
       <c r="S17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="T17" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="U17" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="V17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2354,25 +2336,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2381,10 +2363,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2393,28 +2375,28 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="P18" t="s">
         <v>30</v>
       </c>
       <c r="Q18" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="R18" s="2">
-        <v>45404</v>
+        <v>45408</v>
       </c>
       <c r="S18" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="T18" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="U18" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="V18" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2428,25 +2410,25 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="G19" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2455,10 +2437,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2467,28 +2449,28 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="P19" t="s">
         <v>30</v>
       </c>
       <c r="Q19" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="R19" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S19" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T19" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="U19" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="V19" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2502,25 +2484,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="G20" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2529,10 +2511,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2541,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="P20" t="s">
         <v>30</v>
       </c>
       <c r="Q20" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R20" s="2">
         <v>45406</v>
       </c>
       <c r="S20" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="T20" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="U20" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="V20" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2576,25 +2558,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="G21" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2603,10 +2585,10 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="L21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -2615,28 +2597,28 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="P21" t="s">
         <v>30</v>
       </c>
       <c r="Q21" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R21" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T21" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="U21" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="V21" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2650,25 +2632,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D22" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2677,10 +2659,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2689,28 +2671,28 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="P22" t="s">
         <v>30</v>
       </c>
       <c r="Q22" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R22" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="U22" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="V22" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2724,25 +2706,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D23" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="G23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -2751,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -2763,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="P23" t="s">
         <v>30</v>
       </c>
       <c r="Q23" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R23" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T23" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="U23" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="V23" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2798,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D24" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="G24" s="3">
         <v>4</v>
@@ -2825,10 +2807,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -2837,28 +2819,28 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="P24" t="s">
         <v>30</v>
       </c>
       <c r="Q24" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R24" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T24" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="U24" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="V24" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -2872,25 +2854,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E25" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="2">
-        <v>45404</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
       <c r="F25" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="G25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -2899,10 +2881,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -2911,28 +2893,28 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="P25" t="s">
         <v>30</v>
       </c>
       <c r="Q25" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R25" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="U25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="V25" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -2946,25 +2928,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D26" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G26" s="3">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H26" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -2973,10 +2955,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="L26" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -2985,28 +2967,28 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="P26" t="s">
         <v>30</v>
       </c>
       <c r="Q26" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R26" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="T26" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="V26" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -3020,25 +3002,25 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="D27" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3047,10 +3029,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="L27" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -3059,28 +3041,28 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="P27" t="s">
         <v>30</v>
       </c>
       <c r="Q27" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R27" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="T27" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="U27" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="V27" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -3094,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H28" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3121,10 +3103,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -3133,28 +3115,28 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P28" t="s">
         <v>30</v>
       </c>
       <c r="Q28" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R28" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="T28" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="U28" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="V28" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -3168,25 +3150,25 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D29" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E29" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="G29" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H29" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3195,10 +3177,10 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="L29" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -3207,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="P29" t="s">
         <v>30</v>
       </c>
       <c r="Q29" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R29" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="T29" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="U29" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="V29" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3242,25 +3224,25 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D30" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="G30" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H30" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3269,10 +3251,10 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="L30" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3281,28 +3263,28 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="P30" t="s">
         <v>30</v>
       </c>
       <c r="Q30" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R30" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="T30" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="U30" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="V30" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3316,25 +3298,25 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D31" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="G31" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H31" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3343,10 +3325,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="L31" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3355,28 +3337,28 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="P31" t="s">
         <v>30</v>
       </c>
       <c r="Q31" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R31" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T31" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="U31" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="V31" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3390,25 +3372,25 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="D32" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="G32" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3417,10 +3399,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3429,28 +3411,28 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="P32" t="s">
         <v>30</v>
       </c>
       <c r="Q32" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R32" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T32" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="U32" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="V32" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3464,25 +3446,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D33" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="G33" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3491,10 +3473,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="L33" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3503,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="P33" t="s">
         <v>30</v>
       </c>
       <c r="Q33" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R33" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T33" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="V33" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3538,25 +3520,25 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="D34" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="G34" s="3">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H34" s="3">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3565,10 +3547,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="L34" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3577,28 +3559,28 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="P34" t="s">
         <v>30</v>
       </c>
       <c r="Q34" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R34" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T34" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="U34" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="V34" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3612,25 +3594,25 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D35" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="G35" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H35" s="3">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3639,10 +3621,10 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -3651,28 +3633,28 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="P35" t="s">
         <v>30</v>
       </c>
       <c r="Q35" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R35" s="2">
-        <v>45405</v>
+        <v>45411</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="T35" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="U35" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="V35" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3686,25 +3668,25 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="D36" s="2">
         <v>45405</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="G36" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H36" s="3">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3713,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="L36" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -3725,7 +3707,7 @@
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="P36" t="s">
         <v>30</v>
@@ -3734,19 +3716,19 @@
         <v>45405</v>
       </c>
       <c r="R36" s="2">
-        <v>45413</v>
+        <v>45411</v>
       </c>
       <c r="S36" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="T36" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="U36" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="V36" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -3760,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="D37" s="2">
         <v>45405</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="G37" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" s="3">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3787,10 +3769,10 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="L37" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -3799,7 +3781,7 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="P37" t="s">
         <v>30</v>
@@ -3808,19 +3790,19 @@
         <v>45405</v>
       </c>
       <c r="R37" s="2">
-        <v>45413</v>
+        <v>45411</v>
       </c>
       <c r="S37" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="T37" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="U37" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="V37" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -3834,25 +3816,25 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D38" s="2">
         <v>45405</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="G38" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H38" s="3">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -3861,10 +3843,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L38" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -3873,7 +3855,7 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="P38" t="s">
         <v>30</v>
@@ -3882,19 +3864,19 @@
         <v>45405</v>
       </c>
       <c r="R38" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="S38" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="T38" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="U38" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="V38" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -3908,25 +3890,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="D39" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="E39" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="F39" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -3935,10 +3917,10 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -3947,28 +3929,28 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="P39" t="s">
         <v>30</v>
       </c>
       <c r="Q39" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="R39" s="2">
-        <v>45412</v>
+        <v>45406</v>
       </c>
       <c r="S39" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="T39" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="U39" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="V39" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
@@ -3982,25 +3964,25 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="D40" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G40" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H40" s="3">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4009,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="L40" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="M40" t="s">
         <v>9</v>
@@ -4021,28 +4003,28 @@
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="P40" t="s">
         <v>30</v>
       </c>
       <c r="Q40" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="R40" s="2">
-        <v>45412</v>
+        <v>45406</v>
       </c>
       <c r="S40" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="T40" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="U40" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="V40" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -4056,25 +4038,25 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D41" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
       </c>
       <c r="H41" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4083,10 +4065,10 @@
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="L41" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="M41" t="s">
         <v>9</v>
@@ -4095,28 +4077,28 @@
         <v>10</v>
       </c>
       <c r="O41" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="P41" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q41" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="R41" s="2">
-        <v>45412</v>
+        <v>45406</v>
       </c>
       <c r="S41" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="T41" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="U41" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="V41" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -4130,25 +4112,25 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="C42" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D42" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H42" s="3">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4157,10 +4139,10 @@
         <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="L42" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="M42" t="s">
         <v>9</v>
@@ -4169,28 +4151,28 @@
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="P42" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q42" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="R42" s="2">
-        <v>45412</v>
+        <v>45406</v>
       </c>
       <c r="S42" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="T42" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="U42" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="V42" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -4204,25 +4186,25 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D43" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="G43" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H43" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4231,10 +4213,10 @@
         <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="L43" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="M43" t="s">
         <v>9</v>
@@ -4243,28 +4225,28 @@
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="P43" t="s">
         <v>30</v>
       </c>
       <c r="Q43" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="R43" s="2">
-        <v>45412</v>
+        <v>45408</v>
       </c>
       <c r="S43" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="T43" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="U43" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="V43" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="W43" t="s">
         <v>14</v>
@@ -4278,25 +4260,25 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="D44" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="G44" s="3">
         <v>3</v>
       </c>
       <c r="H44" s="3">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4305,10 +4287,10 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="L44" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="M44" t="s">
         <v>9</v>
@@ -4317,28 +4299,28 @@
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="P44" t="s">
         <v>30</v>
       </c>
       <c r="Q44" s="2">
-        <v>45411</v>
+        <v>45405</v>
       </c>
       <c r="R44" s="2">
-        <v>45412</v>
+        <v>45408</v>
       </c>
       <c r="S44" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="T44" t="s">
+        <v>213</v>
+      </c>
+      <c r="U44" t="s">
+        <v>214</v>
+      </c>
+      <c r="V44" t="s">
         <v>215</v>
-      </c>
-      <c r="U44" t="s">
-        <v>216</v>
-      </c>
-      <c r="V44" t="s">
-        <v>217</v>
       </c>
       <c r="W44" t="s">
         <v>14</v>
@@ -4349,70 +4331,70 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C45" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="D45" s="2">
-        <v>45308</v>
+        <v>45405</v>
       </c>
       <c r="E45" t="s">
-        <v>246</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="G45" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H45" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
       </c>
       <c r="J45" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="M45" t="s">
-        <v>251</v>
+        <v>9</v>
       </c>
       <c r="N45" t="s">
         <v>10</v>
       </c>
       <c r="O45" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="P45" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="Q45" s="2">
-        <v>45308</v>
+        <v>45405</v>
       </c>
       <c r="R45" s="2">
-        <v>45309</v>
+        <v>45406</v>
       </c>
       <c r="S45" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T45" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="U45" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="V45" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="W45" t="s">
         <v>14</v>
@@ -4423,70 +4405,70 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C46" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D46" s="2">
-        <v>45308</v>
+        <v>45405</v>
       </c>
       <c r="E46" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="F46" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H46" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
       </c>
       <c r="J46" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="L46" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="M46" t="s">
-        <v>251</v>
+        <v>9</v>
       </c>
       <c r="N46" t="s">
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="Q46" s="2">
-        <v>45308</v>
+        <v>45405</v>
       </c>
       <c r="R46" s="2">
-        <v>45309</v>
+        <v>45408</v>
       </c>
       <c r="S46" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="T46" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="U46" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="V46" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="W46" t="s">
         <v>14</v>
@@ -4497,70 +4479,70 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="D47" s="2">
-        <v>45308</v>
+        <v>45412</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="G47" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
       </c>
       <c r="J47" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="L47" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="M47" t="s">
-        <v>251</v>
+        <v>9</v>
       </c>
       <c r="N47" t="s">
         <v>10</v>
       </c>
       <c r="O47" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="P47" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="Q47" s="2">
-        <v>45308</v>
+        <v>45412</v>
       </c>
       <c r="R47" s="2">
-        <v>45309</v>
+        <v>45413</v>
       </c>
       <c r="S47" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
       <c r="T47" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="U47" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="V47" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="W47" t="s">
         <v>14</v>
@@ -4571,70 +4553,70 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="3">
+        <v>40</v>
+      </c>
+      <c r="H48" s="3">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" t="s">
+        <v>241</v>
+      </c>
+      <c r="L48" t="s">
+        <v>242</v>
+      </c>
+      <c r="M48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" t="s">
         <v>243</v>
       </c>
-      <c r="B48" t="s">
-        <v>264</v>
-      </c>
-      <c r="C48" t="s">
-        <v>257</v>
-      </c>
-      <c r="D48" s="2">
-        <v>45401</v>
-      </c>
-      <c r="E48" t="s">
-        <v>265</v>
-      </c>
-      <c r="F48" t="s">
-        <v>266</v>
-      </c>
-      <c r="G48" s="3">
-        <v>12</v>
-      </c>
-      <c r="H48" s="3">
-        <v>12</v>
-      </c>
-      <c r="I48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" t="s">
-        <v>248</v>
-      </c>
-      <c r="K48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L48" t="s">
-        <v>258</v>
-      </c>
-      <c r="M48" t="s">
-        <v>251</v>
-      </c>
-      <c r="N48" t="s">
-        <v>10</v>
-      </c>
-      <c r="O48" t="s">
-        <v>267</v>
-      </c>
       <c r="P48" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="Q48" s="2">
-        <v>45401</v>
+        <v>45412</v>
       </c>
       <c r="R48" s="2">
-        <v>45404</v>
+        <v>45413</v>
       </c>
       <c r="S48" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
       <c r="T48" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="U48" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="V48" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="W48" t="s">
         <v>14</v>
@@ -4645,70 +4627,70 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B49" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C49" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D49" s="2">
-        <v>45401</v>
+        <v>45308</v>
       </c>
       <c r="E49" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="F49" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="G49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
       </c>
       <c r="J49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L49" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N49" t="s">
         <v>10</v>
       </c>
       <c r="O49" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="P49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q49" s="2">
-        <v>45401</v>
+        <v>45308</v>
       </c>
       <c r="R49" s="2">
-        <v>45404</v>
+        <v>45309</v>
       </c>
       <c r="S49" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W49" t="s">
         <v>14</v>
@@ -4719,22 +4701,22 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B50" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D50" s="2">
-        <v>45401</v>
+        <v>45308</v>
       </c>
       <c r="E50" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="F50" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
@@ -4746,43 +4728,43 @@
         <v>5</v>
       </c>
       <c r="J50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M50" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N50" t="s">
         <v>10</v>
       </c>
       <c r="O50" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q50" s="2">
-        <v>45401</v>
+        <v>45308</v>
       </c>
       <c r="R50" s="2">
-        <v>45404</v>
+        <v>45309</v>
       </c>
       <c r="S50" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W50" t="s">
         <v>14</v>
@@ -4793,70 +4775,70 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C51" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D51" s="2">
-        <v>45401</v>
+        <v>45308</v>
       </c>
       <c r="E51" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="F51" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="G51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L51" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="M51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N51" t="s">
         <v>10</v>
       </c>
       <c r="O51" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="P51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q51" s="2">
-        <v>45401</v>
+        <v>45308</v>
       </c>
       <c r="R51" s="2">
-        <v>45404</v>
+        <v>45309</v>
       </c>
       <c r="S51" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U51" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W51" t="s">
         <v>14</v>
@@ -4867,52 +4849,52 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D52" s="2">
         <v>45401</v>
       </c>
       <c r="E52" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F52" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G52" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H52" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
       </c>
       <c r="J52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L52" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="M52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N52" t="s">
         <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="P52" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q52" s="2">
         <v>45401</v>
@@ -4921,16 +4903,16 @@
         <v>45404</v>
       </c>
       <c r="S52" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W52" t="s">
         <v>14</v>
@@ -4941,52 +4923,52 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C53" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D53" s="2">
         <v>45401</v>
       </c>
       <c r="E53" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F53" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G53" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H53" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
       </c>
       <c r="J53" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L53" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="M53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N53" t="s">
         <v>10</v>
       </c>
       <c r="O53" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="P53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q53" s="2">
         <v>45401</v>
@@ -4995,16 +4977,16 @@
         <v>45404</v>
       </c>
       <c r="S53" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U53" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W53" t="s">
         <v>14</v>
@@ -5015,52 +4997,52 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D54" s="2">
         <v>45401</v>
       </c>
       <c r="E54" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F54" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G54" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
       </c>
       <c r="J54" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L54" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="M54" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N54" t="s">
         <v>10</v>
       </c>
       <c r="O54" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q54" s="2">
         <v>45401</v>
@@ -5069,16 +5051,16 @@
         <v>45404</v>
       </c>
       <c r="S54" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U54" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W54" t="s">
         <v>14</v>
@@ -5089,52 +5071,52 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C55" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D55" s="2">
         <v>45401</v>
       </c>
       <c r="E55" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="F55" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G55" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H55" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
       </c>
       <c r="J55" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L55" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M55" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N55" t="s">
         <v>10</v>
       </c>
       <c r="O55" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P55" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q55" s="2">
         <v>45401</v>
@@ -5143,16 +5125,16 @@
         <v>45404</v>
       </c>
       <c r="S55" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V55" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W55" t="s">
         <v>14</v>
@@ -5163,52 +5145,52 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C56" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D56" s="2">
         <v>45401</v>
       </c>
       <c r="E56" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G56" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H56" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I56" t="s">
         <v>5</v>
       </c>
       <c r="J56" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L56" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N56" t="s">
         <v>10</v>
       </c>
       <c r="O56" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q56" s="2">
         <v>45401</v>
@@ -5217,16 +5199,16 @@
         <v>45404</v>
       </c>
       <c r="S56" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U56" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W56" t="s">
         <v>14</v>
@@ -5237,75 +5219,223 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B57" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D57" s="2">
+        <v>45401</v>
+      </c>
+      <c r="E57" t="s">
+        <v>280</v>
+      </c>
+      <c r="F57" t="s">
+        <v>281</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>249</v>
+      </c>
+      <c r="K57" t="s">
+        <v>250</v>
+      </c>
+      <c r="L57" t="s">
+        <v>276</v>
+      </c>
+      <c r="M57" t="s">
+        <v>252</v>
+      </c>
+      <c r="N57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" t="s">
+        <v>277</v>
+      </c>
+      <c r="P57" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>45401</v>
+      </c>
+      <c r="R57" s="2">
         <v>45404</v>
       </c>
-      <c r="E57" t="s">
-        <v>265</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="S57" t="s">
+        <v>43</v>
+      </c>
+      <c r="T57" t="s">
+        <v>250</v>
+      </c>
+      <c r="U57" t="s">
+        <v>255</v>
+      </c>
+      <c r="V57" t="s">
+        <v>256</v>
+      </c>
+      <c r="W57" t="s">
+        <v>14</v>
+      </c>
+      <c r="X57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45401</v>
+      </c>
+      <c r="E58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F58" t="s">
+        <v>283</v>
+      </c>
+      <c r="G58" s="3">
+        <v>6</v>
+      </c>
+      <c r="H58" s="3">
+        <v>6</v>
+      </c>
+      <c r="I58" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>249</v>
+      </c>
+      <c r="K58" t="s">
+        <v>250</v>
+      </c>
+      <c r="L58" t="s">
+        <v>276</v>
+      </c>
+      <c r="M58" t="s">
+        <v>252</v>
+      </c>
+      <c r="N58" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" t="s">
+        <v>277</v>
+      </c>
+      <c r="P58" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>45401</v>
+      </c>
+      <c r="R58" s="2">
+        <v>45404</v>
+      </c>
+      <c r="S58" t="s">
+        <v>43</v>
+      </c>
+      <c r="T58" t="s">
+        <v>250</v>
+      </c>
+      <c r="U58" t="s">
+        <v>255</v>
+      </c>
+      <c r="V58" t="s">
+        <v>256</v>
+      </c>
+      <c r="W58" t="s">
+        <v>14</v>
+      </c>
+      <c r="X58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45401</v>
+      </c>
+      <c r="E59" t="s">
         <v>266</v>
       </c>
-      <c r="G57" s="3">
-        <v>10</v>
-      </c>
-      <c r="H57" s="3">
-        <v>10</v>
-      </c>
-      <c r="I57" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" t="s">
-        <v>248</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="F59" t="s">
+        <v>267</v>
+      </c>
+      <c r="G59" s="3">
+        <v>6</v>
+      </c>
+      <c r="H59" s="3">
+        <v>6</v>
+      </c>
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" t="s">
         <v>249</v>
       </c>
-      <c r="L57" t="s">
-        <v>281</v>
-      </c>
-      <c r="M57" t="s">
-        <v>251</v>
-      </c>
-      <c r="N57" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" t="s">
-        <v>282</v>
-      </c>
-      <c r="P57" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q57" s="2">
+      <c r="K59" t="s">
+        <v>250</v>
+      </c>
+      <c r="L59" t="s">
+        <v>276</v>
+      </c>
+      <c r="M59" t="s">
+        <v>252</v>
+      </c>
+      <c r="N59" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" t="s">
+        <v>277</v>
+      </c>
+      <c r="P59" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>45401</v>
+      </c>
+      <c r="R59" s="2">
         <v>45404</v>
       </c>
-      <c r="R57" s="2">
-        <v>45405</v>
-      </c>
-      <c r="S57" t="s">
-        <v>53</v>
-      </c>
-      <c r="T57" t="s">
-        <v>249</v>
-      </c>
-      <c r="U57" t="s">
-        <v>254</v>
-      </c>
-      <c r="V57" t="s">
+      <c r="S59" t="s">
+        <v>43</v>
+      </c>
+      <c r="T59" t="s">
+        <v>250</v>
+      </c>
+      <c r="U59" t="s">
         <v>255</v>
       </c>
-      <c r="W57" t="s">
-        <v>14</v>
-      </c>
-      <c r="X57" t="s">
+      <c r="V59" t="s">
+        <v>256</v>
+      </c>
+      <c r="W59" t="s">
+        <v>14</v>
+      </c>
+      <c r="X59" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="420">
   <si>
     <t>P891</t>
   </si>
@@ -121,229 +121,817 @@
     <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
   </si>
   <si>
-    <t>133768489</t>
-  </si>
-  <si>
-    <t>CALVARY MATER HOSPITAL - WARATAH</t>
-  </si>
-  <si>
-    <t>89092302</t>
-  </si>
-  <si>
-    <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
-  </si>
-  <si>
-    <t>4595323</t>
-  </si>
-  <si>
-    <t>WARATAH</t>
-  </si>
-  <si>
-    <t>717042396</t>
+    <t>133723195</t>
+  </si>
+  <si>
+    <t>AUBURN MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>86698188</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>3654412</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
+  </si>
+  <si>
+    <t>717063960</t>
+  </si>
+  <si>
+    <t>010050</t>
+  </si>
+  <si>
+    <t>133778945</t>
+  </si>
+  <si>
+    <t>QSCAN RADIOLOGY CLINIC-REDCLIFFE</t>
+  </si>
+  <si>
+    <t>02112548</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>3579612</t>
+  </si>
+  <si>
+    <t>REDCLIFFE</t>
+  </si>
+  <si>
+    <t>717061787</t>
+  </si>
+  <si>
+    <t>4596133</t>
+  </si>
+  <si>
+    <t>QSCAN SERVICES PTY LTD</t>
+  </si>
+  <si>
+    <t>CLAYFIELD</t>
+  </si>
+  <si>
+    <t>80802544</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>85575279</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 3X2ML AU-NZ</t>
+  </si>
+  <si>
+    <t>87621529</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133779042</t>
+  </si>
+  <si>
+    <t>Noosa Radiology</t>
+  </si>
+  <si>
+    <t>85577026</t>
+  </si>
+  <si>
+    <t>SYSTEM,DUAL,STELLANT,FLEX</t>
+  </si>
+  <si>
+    <t>4595590</t>
+  </si>
+  <si>
+    <t>NOOSAVILLE</t>
+  </si>
+  <si>
+    <t>715397082</t>
+  </si>
+  <si>
+    <t>EHGHA</t>
+  </si>
+  <si>
+    <t>4595601</t>
+  </si>
+  <si>
+    <t>SIEMENS HEALTHCARE PTY LTD</t>
+  </si>
+  <si>
+    <t>ROBINSON</t>
+  </si>
+  <si>
+    <t>85957457</t>
+  </si>
+  <si>
+    <t>ASSY,FINAL,CRU,FLEX ,WS3T</t>
+  </si>
+  <si>
+    <t>84432602</t>
+  </si>
+  <si>
+    <t>ASSY,CABLE,HEAD EXT,75 FT.,(SINGLE/DUAL)</t>
+  </si>
+  <si>
+    <t>59876264</t>
+  </si>
+  <si>
+    <t>ASSY., CABLE, BASE TO DISPLAY, 25FT</t>
+  </si>
+  <si>
+    <t>85539213</t>
+  </si>
+  <si>
+    <t>MANUAL,OPERATIONS,ENGLISH,W/ CE,REFRESH</t>
+  </si>
+  <si>
+    <t>60728044</t>
+  </si>
+  <si>
+    <t>PRODUCT WARR INFO PKG,MIS,INTL,MC</t>
+  </si>
+  <si>
+    <t>86496836</t>
+  </si>
+  <si>
+    <t>QUICK GUIDE, ENGLISH, FLEX</t>
+  </si>
+  <si>
+    <t>86621495</t>
+  </si>
+  <si>
+    <t>POWER CORD- AUSTRALIA</t>
+  </si>
+  <si>
+    <t>84433765</t>
+  </si>
+  <si>
+    <t>OCS, 580mm CEILING MOUNT, PORTEGRA2</t>
+  </si>
+  <si>
+    <t>87980030</t>
+  </si>
+  <si>
+    <t>MAINTAIN,SYR HEAT,STELL,FLS2,LR</t>
+  </si>
+  <si>
+    <t>133791215</t>
+  </si>
+  <si>
+    <t>HUNTER IMAGING GROUP TAMWORTH</t>
+  </si>
+  <si>
+    <t>1340431</t>
+  </si>
+  <si>
+    <t>TAMWORTH</t>
+  </si>
+  <si>
+    <t>717057074</t>
+  </si>
+  <si>
+    <t>020050</t>
+  </si>
+  <si>
+    <t>4596223</t>
+  </si>
+  <si>
+    <t>HUNTER IMAGING GROUP PTY LIMITED</t>
+  </si>
+  <si>
+    <t>ADAMSTOWN</t>
+  </si>
+  <si>
+    <t>133791216</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING - EASTWOOD</t>
+  </si>
+  <si>
+    <t>3387737</t>
+  </si>
+  <si>
+    <t>EASTWOOD</t>
+  </si>
+  <si>
+    <t>717058364</t>
+  </si>
+  <si>
+    <t>4595823</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>GOSFORD</t>
+  </si>
+  <si>
+    <t>03250768</t>
+  </si>
+  <si>
+    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133796779</t>
+  </si>
+  <si>
+    <t>SURGICAL,TREATMENT&amp;REHAB SERVICE</t>
+  </si>
+  <si>
+    <t>4616889</t>
+  </si>
+  <si>
+    <t>HERSTON</t>
+  </si>
+  <si>
+    <t>717057706</t>
+  </si>
+  <si>
+    <t>4595837</t>
+  </si>
+  <si>
+    <t>METRO NORTH HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>133798858</t>
+  </si>
+  <si>
+    <t>SPECTRUM MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>1006326</t>
+  </si>
+  <si>
+    <t>RANDWICK</t>
+  </si>
+  <si>
+    <t>717053236</t>
+  </si>
+  <si>
+    <t>3397516</t>
+  </si>
+  <si>
+    <t>SPECTRUM MEDICAL IMAGING SERVICES</t>
+  </si>
+  <si>
+    <t>LIVERPOOL</t>
+  </si>
+  <si>
+    <t>02112555</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133799228</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES</t>
+  </si>
+  <si>
+    <t>3018757</t>
+  </si>
+  <si>
+    <t>MARRICKVILLE</t>
+  </si>
+  <si>
+    <t>717059568</t>
+  </si>
+  <si>
+    <t>4595461</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES (NSW)</t>
+  </si>
+  <si>
+    <t>ST LEONARDS</t>
+  </si>
+  <si>
+    <t>86698242</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>133788555</t>
+  </si>
+  <si>
+    <t>JONES RADIOLOGY - KURRALTA PARK</t>
+  </si>
+  <si>
+    <t>86594226</t>
+  </si>
+  <si>
+    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595363</t>
+  </si>
+  <si>
+    <t>KURRALTA PARK</t>
+  </si>
+  <si>
+    <t>717063521</t>
+  </si>
+  <si>
+    <t>86566621</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
+  </si>
+  <si>
+    <t>86617501</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,PAS,60",MC,WLD</t>
+  </si>
+  <si>
+    <t>60937964</t>
+  </si>
+  <si>
+    <t>LABEL,PRINTER,THERMAL,PSA,INTEGO</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>133788556</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY -  CHERMSIDE</t>
+  </si>
+  <si>
+    <t>4595913</t>
+  </si>
+  <si>
+    <t>CHERMSIDE</t>
+  </si>
+  <si>
+    <t>717063620</t>
   </si>
   <si>
     <t>010130</t>
   </si>
   <si>
+    <t>133789925</t>
+  </si>
+  <si>
+    <t>SPECTRUM MEDICAL IMAGING-ALEXANDRIA</t>
+  </si>
+  <si>
+    <t>4595198</t>
+  </si>
+  <si>
+    <t>ALEXANDRIA</t>
+  </si>
+  <si>
+    <t>717058363</t>
+  </si>
+  <si>
+    <t>133789927</t>
+  </si>
+  <si>
+    <t>PRINCESS ALEXANDRA HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596272</t>
+  </si>
+  <si>
+    <t>WOOLLOONGABBA</t>
+  </si>
+  <si>
+    <t>717063300</t>
+  </si>
+  <si>
+    <t>4595416</t>
+  </si>
+  <si>
+    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>EIGHT MILE PLAINS</t>
+  </si>
+  <si>
+    <t>133790545</t>
+  </si>
+  <si>
+    <t>LUMUS IMAGING NARANGBA</t>
+  </si>
+  <si>
+    <t>87234487</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>1069962</t>
+  </si>
+  <si>
+    <t>NARANGBA</t>
+  </si>
+  <si>
+    <t>717033406</t>
+  </si>
+  <si>
+    <t>4595468</t>
+  </si>
+  <si>
+    <t>QLD DIAGNOSTIC IMAGING PTY LTD</t>
+  </si>
+  <si>
+    <t>133790546</t>
+  </si>
+  <si>
+    <t>WARRINGAL PRIVATE HOSPITAL</t>
+  </si>
+  <si>
+    <t>80727543</t>
+  </si>
+  <si>
+    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
+  </si>
+  <si>
+    <t>4596134</t>
+  </si>
+  <si>
+    <t>HEIDELBERG</t>
+  </si>
+  <si>
+    <t>717037260</t>
+  </si>
+  <si>
+    <t>4595466</t>
+  </si>
+  <si>
+    <t>RAMSAY HEALTH CARE</t>
+  </si>
+  <si>
+    <t>ST KILDA ROAD</t>
+  </si>
+  <si>
+    <t>133790547</t>
+  </si>
+  <si>
+    <t>THE WESLEY HOSPITAL-MAIN STORE</t>
+  </si>
+  <si>
+    <t>86566737</t>
+  </si>
+  <si>
+    <t>SHEATH,DISPLAY CONTROL UNIT,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595423</t>
+  </si>
+  <si>
+    <t>AUCHENFLOWER</t>
+  </si>
+  <si>
+    <t>717042597</t>
+  </si>
+  <si>
+    <t>3308475</t>
+  </si>
+  <si>
+    <t>UNITYCARE HEALTH</t>
+  </si>
+  <si>
+    <t>133791592</t>
+  </si>
+  <si>
+    <t>QSCAN MACKAY</t>
+  </si>
+  <si>
+    <t>1067603</t>
+  </si>
+  <si>
+    <t>NORTH MACKAY</t>
+  </si>
+  <si>
+    <t>717062514</t>
+  </si>
+  <si>
+    <t>030130</t>
+  </si>
+  <si>
+    <t>133792507</t>
+  </si>
+  <si>
+    <t>CAPITAL RADIOLOGY - EAST FREMANTLE</t>
+  </si>
+  <si>
+    <t>4596254</t>
+  </si>
+  <si>
+    <t>EAST FREMANTLE</t>
+  </si>
+  <si>
+    <t>717058945</t>
+  </si>
+  <si>
+    <t>040130</t>
+  </si>
+  <si>
+    <t>3605543</t>
+  </si>
+  <si>
+    <t>CAPITAL RADIOLOGY PTY LTD</t>
+  </si>
+  <si>
+    <t>EAST MELBOURNE</t>
+  </si>
+  <si>
+    <t>133796729</t>
+  </si>
+  <si>
+    <t>THE WESLEY PHARMACY</t>
+  </si>
+  <si>
+    <t>975106</t>
+  </si>
+  <si>
+    <t>717058944</t>
+  </si>
+  <si>
+    <t>133796763</t>
+  </si>
+  <si>
+    <t>ST VINCENT'S HOSPITAL (MELBOURNE)</t>
+  </si>
+  <si>
+    <t>4595793</t>
+  </si>
+  <si>
+    <t>FITZROY</t>
+  </si>
+  <si>
+    <t>717005389</t>
+  </si>
+  <si>
+    <t>4595792</t>
+  </si>
+  <si>
+    <t>ST VINCENT'S HOSPITAL MELBOURNE LTD</t>
+  </si>
+  <si>
+    <t>133796778</t>
+  </si>
+  <si>
+    <t>CABRINI HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596111</t>
+  </si>
+  <si>
+    <t>MALVERN</t>
+  </si>
+  <si>
+    <t>717056869</t>
+  </si>
+  <si>
+    <t>4596151</t>
+  </si>
+  <si>
+    <t>CABRINI HEALTH</t>
+  </si>
+  <si>
+    <t>133797672</t>
+  </si>
+  <si>
+    <t>BENSON RADIOLOGY - MT GAMBIER</t>
+  </si>
+  <si>
+    <t>4596187</t>
+  </si>
+  <si>
+    <t>MOUNT GAMBIER</t>
+  </si>
+  <si>
+    <t>717064302</t>
+  </si>
+  <si>
+    <t>4596200</t>
+  </si>
+  <si>
+    <t>BENSON RADIOLOGY</t>
+  </si>
+  <si>
+    <t>NORTH ADELAIDE</t>
+  </si>
+  <si>
+    <t>133797962</t>
+  </si>
+  <si>
+    <t>QUEENSLAND HEALTH - MACKAY</t>
+  </si>
+  <si>
+    <t>4595422</t>
+  </si>
+  <si>
+    <t>MACKAY</t>
+  </si>
+  <si>
+    <t>717058379</t>
+  </si>
+  <si>
+    <t>4595424</t>
+  </si>
+  <si>
+    <t>MACKAY HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>MACKAY MC</t>
+  </si>
+  <si>
+    <t>133797963</t>
+  </si>
+  <si>
+    <t>CHS HUME SUPPLY WAREHOUSE</t>
+  </si>
+  <si>
+    <t>87078760</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
+  </si>
+  <si>
+    <t>1079624</t>
+  </si>
+  <si>
+    <t>HUME</t>
+  </si>
+  <si>
+    <t>717064750</t>
+  </si>
+  <si>
+    <t>4595647</t>
+  </si>
+  <si>
+    <t>ACT HEALTH SUPPLY SERVICES</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>133797964</t>
+  </si>
+  <si>
+    <t>RADIOLOGY VICTORIA PTY LTD</t>
+  </si>
+  <si>
+    <t>4765987</t>
+  </si>
+  <si>
+    <t>WANTIRNA</t>
+  </si>
+  <si>
+    <t>717064940</t>
+  </si>
+  <si>
+    <t>4769495</t>
+  </si>
+  <si>
+    <t>133798738</t>
+  </si>
+  <si>
+    <t>NBH OPERATOR B PTY LTD</t>
+  </si>
+  <si>
+    <t>86617439</t>
+  </si>
+  <si>
+    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595612</t>
+  </si>
+  <si>
+    <t>FRENCHS FOREST</t>
+  </si>
+  <si>
+    <t>717058038</t>
+  </si>
+  <si>
+    <t>4595617</t>
+  </si>
+  <si>
+    <t>HEALTHSCOPE LTD</t>
+  </si>
+  <si>
+    <t>MELBOURNE</t>
+  </si>
+  <si>
+    <t>133798859</t>
+  </si>
+  <si>
+    <t>ROYAL ADELAIDE HOSPITAL</t>
+  </si>
+  <si>
+    <t>86835444</t>
+  </si>
+  <si>
+    <t>MRXPERION,KIT,SYR,MR,PFA,JA,FINAL</t>
+  </si>
+  <si>
+    <t>4676781</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>717060286</t>
+  </si>
+  <si>
+    <t>4595446</t>
+  </si>
+  <si>
+    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133798860</t>
+  </si>
+  <si>
+    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
+  </si>
+  <si>
+    <t>4670712</t>
+  </si>
+  <si>
+    <t>DERRIMUT</t>
+  </si>
+  <si>
+    <t>717062675</t>
+  </si>
+  <si>
+    <t>4670709</t>
+  </si>
+  <si>
+    <t>HEALTHSHARE VICTORIA</t>
+  </si>
+  <si>
+    <t>86610280</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,STELLANT MP,MIC,MC,EU</t>
+  </si>
+  <si>
+    <t>133799229</t>
+  </si>
+  <si>
+    <t>ROYAL NORTH SHORE HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595335</t>
+  </si>
+  <si>
+    <t>717063534</t>
+  </si>
+  <si>
+    <t>4595339</t>
+  </si>
+  <si>
+    <t>NORTHERN SYDNEY LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>NEWCASTLE</t>
+  </si>
+  <si>
+    <t>133799230</t>
+  </si>
+  <si>
+    <t>MET MaitlandHospDock 550001</t>
+  </si>
+  <si>
+    <t>87078752</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,D,SPK,FLS3,150ML,WLD</t>
+  </si>
+  <si>
+    <t>4687593</t>
+  </si>
+  <si>
+    <t>Metford</t>
+  </si>
+  <si>
+    <t>717063848</t>
+  </si>
+  <si>
     <t>4595328</t>
   </si>
   <si>
     <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
   </si>
   <si>
-    <t>NEWCASTLE</t>
-  </si>
-  <si>
-    <t>64437133</t>
-  </si>
-  <si>
-    <t>Dota(Tyr3)-Octreotate (GMP-Dotatate) 1mg</t>
-  </si>
-  <si>
-    <t>133789926</t>
-  </si>
-  <si>
-    <t>ST JOHN OF GOD HEALTH CARE</t>
-  </si>
-  <si>
-    <t>80727543</t>
-  </si>
-  <si>
-    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
-  </si>
-  <si>
-    <t>3018198</t>
-  </si>
-  <si>
-    <t>WENDOUREE VILLAGE</t>
-  </si>
-  <si>
-    <t>717063191</t>
-  </si>
-  <si>
-    <t>020050</t>
-  </si>
-  <si>
-    <t>133791215</t>
-  </si>
-  <si>
-    <t>HUNTER IMAGING GROUP TAMWORTH</t>
-  </si>
-  <si>
-    <t>1340431</t>
-  </si>
-  <si>
-    <t>TAMWORTH</t>
-  </si>
-  <si>
-    <t>717057074</t>
-  </si>
-  <si>
-    <t>4596223</t>
-  </si>
-  <si>
-    <t>HUNTER IMAGING GROUP PTY LIMITED</t>
-  </si>
-  <si>
-    <t>ADAMSTOWN</t>
-  </si>
-  <si>
-    <t>02112548</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133791216</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING - EASTWOOD</t>
-  </si>
-  <si>
-    <t>80802544</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>3387737</t>
-  </si>
-  <si>
-    <t>EASTWOOD</t>
-  </si>
-  <si>
-    <t>717058364</t>
-  </si>
-  <si>
-    <t>010050</t>
-  </si>
-  <si>
-    <t>4595823</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>GOSFORD</t>
-  </si>
-  <si>
-    <t>03250768</t>
-  </si>
-  <si>
-    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133792514</t>
-  </si>
-  <si>
-    <t>GYMPIE RADIOLOGY</t>
-  </si>
-  <si>
-    <t>2766077</t>
-  </si>
-  <si>
-    <t>GYMPIE</t>
-  </si>
-  <si>
-    <t>717058118</t>
-  </si>
-  <si>
-    <t>020041</t>
-  </si>
-  <si>
-    <t>133777633</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - WAGGA WAGGA</t>
-  </si>
-  <si>
-    <t>87234487</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>4595953</t>
-  </si>
-  <si>
-    <t>WAGGA WAGGA</t>
-  </si>
-  <si>
-    <t>717058117</t>
-  </si>
-  <si>
-    <t>86617501</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,PAS,60",MC,WLD</t>
-  </si>
-  <si>
-    <t>64424260</t>
-  </si>
-  <si>
-    <t>LabEAZY Cassette- 68Ga PSMA Peptides</t>
-  </si>
-  <si>
-    <t>64425232</t>
-  </si>
-  <si>
-    <t>Reagent Set 68Ga-labeled peptides</t>
-  </si>
-  <si>
-    <t>133781434</t>
-  </si>
-  <si>
-    <t>LUMUS IMAGING TWEED HEADS SOUTH</t>
-  </si>
-  <si>
-    <t>02112555</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4730239</t>
-  </si>
-  <si>
-    <t>TWEED HEADS SOUTH</t>
-  </si>
-  <si>
-    <t>717058079</t>
-  </si>
-  <si>
-    <t>4595468</t>
-  </si>
-  <si>
-    <t>QLD DIAGNOSTIC IMAGING PTY LTD</t>
-  </si>
-  <si>
-    <t>ST LEONARDS</t>
-  </si>
-  <si>
-    <t>133781435</t>
-  </si>
-  <si>
-    <t>MONASH HEALTH- MONASH MEDICAL CTR</t>
+    <t>133723194</t>
+  </si>
+  <si>
+    <t>PERTH RAD CLINIC</t>
   </si>
   <si>
     <t>82212737</t>
@@ -352,397 +940,79 @@
     <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
   </si>
   <si>
-    <t>4595650</t>
-  </si>
-  <si>
-    <t>SCORESBY</t>
-  </si>
-  <si>
-    <t>717061611</t>
-  </si>
-  <si>
-    <t>4595649</t>
-  </si>
-  <si>
-    <t>MONASH HEALTH</t>
-  </si>
-  <si>
-    <t>CHELTENHAM</t>
-  </si>
-  <si>
-    <t>133783130</t>
-  </si>
-  <si>
-    <t>MANNING BASE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595325</t>
-  </si>
-  <si>
-    <t>TAREE</t>
-  </si>
-  <si>
-    <t>717062486</t>
-  </si>
-  <si>
-    <t>133783131</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES</t>
-  </si>
-  <si>
-    <t>64436641</t>
-  </si>
-  <si>
-    <t>DKFZ-PSMA-11 (GMP) 1MG</t>
-  </si>
-  <si>
-    <t>4595117</t>
-  </si>
-  <si>
-    <t>RICHMOND</t>
-  </si>
-  <si>
-    <t>717062739</t>
-  </si>
-  <si>
-    <t>4595462</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES (VIC)</t>
-  </si>
-  <si>
-    <t>86566621</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
-  </si>
-  <si>
-    <t>133789685</t>
-  </si>
-  <si>
-    <t>SUNSHINE COAST UNIVERSITY HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595790</t>
-  </si>
-  <si>
-    <t>BIRTINYA</t>
-  </si>
-  <si>
-    <t>717058573</t>
-  </si>
-  <si>
-    <t>4595794</t>
-  </si>
-  <si>
-    <t>SUNSHINE COAST HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>SUNSHINE COAST MC</t>
-  </si>
-  <si>
-    <t>133789686</t>
-  </si>
-  <si>
-    <t>LYELL MCEWIN HEALTH SERVICE</t>
-  </si>
-  <si>
-    <t>4595506</t>
-  </si>
-  <si>
-    <t>ELIZABETH VALE</t>
-  </si>
-  <si>
-    <t>717061892</t>
-  </si>
-  <si>
-    <t>4595446</t>
-  </si>
-  <si>
-    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>ADELAIDE</t>
-  </si>
-  <si>
-    <t>133789687</t>
-  </si>
-  <si>
-    <t>FLINDERS MEDICAL CENTRE</t>
-  </si>
-  <si>
-    <t>4699953</t>
-  </si>
-  <si>
-    <t>BEDFORD PARK</t>
-  </si>
-  <si>
-    <t>717062574</t>
-  </si>
-  <si>
-    <t>86594226</t>
-  </si>
-  <si>
-    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>133789925</t>
-  </si>
-  <si>
-    <t>SPECTRUM MEDICAL IMAGING-ALEXANDRIA</t>
-  </si>
-  <si>
-    <t>4595198</t>
-  </si>
-  <si>
-    <t>ALEXANDRIA</t>
-  </si>
-  <si>
-    <t>717058363</t>
-  </si>
-  <si>
-    <t>3397516</t>
-  </si>
-  <si>
-    <t>SPECTRUM MEDICAL IMAGING SERVICES</t>
-  </si>
-  <si>
-    <t>LIVERPOOL</t>
-  </si>
-  <si>
-    <t>133789927</t>
-  </si>
-  <si>
-    <t>PRINCESS ALEXANDRA HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596272</t>
-  </si>
-  <si>
-    <t>WOOLLOONGABBA</t>
-  </si>
-  <si>
-    <t>717063300</t>
-  </si>
-  <si>
-    <t>4595416</t>
-  </si>
-  <si>
-    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>EIGHT MILE PLAINS</t>
-  </si>
-  <si>
-    <t>87621529</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133791592</t>
-  </si>
-  <si>
-    <t>QSCAN MACKAY</t>
-  </si>
-  <si>
-    <t>1067603</t>
-  </si>
-  <si>
-    <t>NORTH MACKAY</t>
-  </si>
-  <si>
-    <t>717062514</t>
-  </si>
-  <si>
-    <t>030130</t>
-  </si>
-  <si>
-    <t>4596133</t>
-  </si>
-  <si>
-    <t>QSCAN SERVICES PTY LTD</t>
-  </si>
-  <si>
-    <t>CLAYFIELD</t>
-  </si>
-  <si>
-    <t>133792513</t>
-  </si>
-  <si>
-    <t>FRANKSTON HOSPITAL</t>
-  </si>
-  <si>
-    <t>4675190</t>
-  </si>
-  <si>
-    <t>FRANKSTON</t>
-  </si>
-  <si>
-    <t>717058373</t>
-  </si>
-  <si>
-    <t>4628393</t>
-  </si>
-  <si>
-    <t>PENINSULA HEALTH</t>
-  </si>
-  <si>
-    <t>133796518</t>
-  </si>
-  <si>
-    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
-  </si>
-  <si>
-    <t>4670712</t>
-  </si>
-  <si>
-    <t>DERRIMUT</t>
-  </si>
-  <si>
-    <t>717063330</t>
-  </si>
-  <si>
-    <t>4670709</t>
-  </si>
-  <si>
-    <t>HEALTHSHARE VICTORIA</t>
-  </si>
-  <si>
-    <t>MELBOURNE</t>
-  </si>
-  <si>
-    <t>133796689</t>
-  </si>
-  <si>
-    <t>CASTLEREAGH IMAGING - NEPEAN HEALTH</t>
-  </si>
-  <si>
-    <t>4757668</t>
-  </si>
-  <si>
-    <t>KINGSWOOD</t>
-  </si>
-  <si>
-    <t>717059223</t>
-  </si>
-  <si>
-    <t>4595574</t>
-  </si>
-  <si>
-    <t>CASTLEREAGH CO PTY LIMITED</t>
-  </si>
-  <si>
-    <t>WESTMEAD</t>
-  </si>
-  <si>
-    <t>133796690</t>
-  </si>
-  <si>
-    <t>BENSON RADIOLOGY - ASHFORD</t>
-  </si>
-  <si>
-    <t>4596260</t>
-  </si>
-  <si>
-    <t>ASHFORD</t>
-  </si>
-  <si>
-    <t>717059593</t>
-  </si>
-  <si>
-    <t>4596200</t>
-  </si>
-  <si>
-    <t>BENSON RADIOLOGY</t>
-  </si>
-  <si>
-    <t>NORTH ADELAIDE</t>
-  </si>
-  <si>
-    <t>133796691</t>
-  </si>
-  <si>
-    <t>MET MaitlandHospDock 550001</t>
-  </si>
-  <si>
-    <t>4687593</t>
-  </si>
-  <si>
-    <t>Metford</t>
-  </si>
-  <si>
-    <t>717060775</t>
-  </si>
-  <si>
-    <t>133796693</t>
-  </si>
-  <si>
-    <t>COMMUNITY IMAGING EMPLOYMENT</t>
-  </si>
-  <si>
-    <t>86698242</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595581</t>
-  </si>
-  <si>
-    <t>ERINA</t>
-  </si>
-  <si>
-    <t>717063063</t>
-  </si>
-  <si>
-    <t>3019005</t>
-  </si>
-  <si>
-    <t>PENRITH</t>
-  </si>
-  <si>
-    <t>133781437</t>
-  </si>
-  <si>
-    <t>SKG RADIOLOGY - CURRAMBINE</t>
-  </si>
-  <si>
-    <t>4595060</t>
-  </si>
-  <si>
-    <t>CURRAMBINE</t>
-  </si>
-  <si>
-    <t>717063120</t>
+    <t>4595283</t>
+  </si>
+  <si>
+    <t>NEDLANDS</t>
+  </si>
+  <si>
+    <t>717053237</t>
   </si>
   <si>
     <t>010530</t>
   </si>
   <si>
-    <t>4595069</t>
-  </si>
-  <si>
-    <t>SKG RADIOLOGY</t>
-  </si>
-  <si>
-    <t>WEST PERTH</t>
-  </si>
-  <si>
-    <t>133796488</t>
-  </si>
-  <si>
-    <t>FIONA STANLEY HOSPITAL</t>
-  </si>
-  <si>
-    <t>1253935</t>
-  </si>
-  <si>
-    <t>MURDOCH</t>
-  </si>
-  <si>
-    <t>717063190</t>
+    <t>4595291</t>
+  </si>
+  <si>
+    <t>PERTHRADCLINIC LTD</t>
+  </si>
+  <si>
+    <t>MIRRABOOKA</t>
+  </si>
+  <si>
+    <t>87236072</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,WLD1</t>
+  </si>
+  <si>
+    <t>87238504</t>
+  </si>
+  <si>
+    <t>TUBE,EXT,SINGLE,WLD1</t>
+  </si>
+  <si>
+    <t>133784830</t>
+  </si>
+  <si>
+    <t>PERTH RAD CLINIC LTD - Booragoon</t>
+  </si>
+  <si>
+    <t>4595269</t>
+  </si>
+  <si>
+    <t>Booragoon</t>
+  </si>
+  <si>
+    <t>717059362</t>
+  </si>
+  <si>
+    <t>87234495</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>86645556</t>
+  </si>
+  <si>
+    <t>MR,KIT,SYR,MRI,115ML,96",MC,WLD</t>
+  </si>
+  <si>
+    <t>133796519</t>
+  </si>
+  <si>
+    <t>ROYAL PERTH HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595756</t>
+  </si>
+  <si>
+    <t>PERTH</t>
+  </si>
+  <si>
+    <t>717056743</t>
   </si>
   <si>
     <t>P8SW</t>
@@ -826,12 +1096,6 @@
     <t>ASSY,PCB,CPU/SERVO,DAX,PHOENIX,ROHS,TL</t>
   </si>
   <si>
-    <t>84432602</t>
-  </si>
-  <si>
-    <t>ASSY,CABLE,HEAD EXT,75 FT.,(SINGLE/DUAL)</t>
-  </si>
-  <si>
     <t>133772948</t>
   </si>
   <si>
@@ -863,6 +1127,78 @@
   </si>
   <si>
     <t>STRAIN RELIEF,BLACK,CLAMSHELL</t>
+  </si>
+  <si>
+    <t>133790497</t>
+  </si>
+  <si>
+    <t>Amit Patel (Unit 036)</t>
+  </si>
+  <si>
+    <t>Bella Vista</t>
+  </si>
+  <si>
+    <t>2172548704</t>
+  </si>
+  <si>
+    <t>133791101</t>
+  </si>
+  <si>
+    <t>Storage King</t>
+  </si>
+  <si>
+    <t>Craigieburn</t>
+  </si>
+  <si>
+    <t>2172548705</t>
+  </si>
+  <si>
+    <t>133796389</t>
+  </si>
+  <si>
+    <t>Bayer Radiology (AU13 MI Lab)</t>
+  </si>
+  <si>
+    <t>60175770</t>
+  </si>
+  <si>
+    <t>CONTROLLER,MOTOR DRIVE,PROGRAMMED</t>
+  </si>
+  <si>
+    <t>Rydalmere</t>
+  </si>
+  <si>
+    <t>2172548709</t>
+  </si>
+  <si>
+    <t>133796422</t>
+  </si>
+  <si>
+    <t>Electronics Medicus</t>
+  </si>
+  <si>
+    <t>Mile End</t>
+  </si>
+  <si>
+    <t>2172548706</t>
+  </si>
+  <si>
+    <t>133797309</t>
+  </si>
+  <si>
+    <t>2172548708</t>
+  </si>
+  <si>
+    <t>60442736</t>
+  </si>
+  <si>
+    <t>ASSY,PCB,HEAD INTERFACE,DUAL,ROHS</t>
+  </si>
+  <si>
+    <t>133797360</t>
+  </si>
+  <si>
+    <t>2172548707</t>
   </si>
   <si>
     <t>Shipping Point/Receiving Pt</t>
@@ -1039,7 +1375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:X96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,7 +1394,7 @@
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="6" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="15" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="19" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="16" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15" customWidth="1"/>
     <col min="14" max="14" bestFit="1" width="6" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="21" customWidth="1"/>
@@ -1075,76 +1411,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>397</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>286</v>
+        <v>398</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>288</v>
+        <v>400</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>289</v>
+        <v>401</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>290</v>
+        <v>402</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>291</v>
+        <v>403</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>292</v>
+        <v>404</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>293</v>
+        <v>405</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>295</v>
+        <v>407</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>296</v>
+        <v>408</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>297</v>
+        <v>409</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>298</v>
+        <v>410</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>299</v>
+        <v>411</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>300</v>
+        <v>412</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>301</v>
+        <v>413</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>302</v>
+        <v>414</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>303</v>
+        <v>415</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>304</v>
+        <v>416</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>305</v>
+        <v>417</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>306</v>
+        <v>418</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>307</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1454,7 +1790,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -1463,10 +1799,10 @@
         <v>39</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1493,22 +1829,22 @@
         <v>30</v>
       </c>
       <c r="Q6" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="R6" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="S6" t="s">
         <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W6" t="s">
         <v>14</v>
@@ -1522,37 +1858,37 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="3">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
@@ -1561,28 +1897,28 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P7" t="s">
         <v>30</v>
       </c>
       <c r="Q7" s="2">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="R7" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="S7" t="s">
         <v>43</v>
       </c>
       <c r="T7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="V7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="W7" t="s">
         <v>14</v>
@@ -1596,25 +1932,25 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2">
         <v>45404</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -1623,10 +1959,10 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -1635,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P8" t="s">
         <v>30</v>
@@ -1644,19 +1980,19 @@
         <v>45404</v>
       </c>
       <c r="R8" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="T8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" t="s">
         <v>53</v>
-      </c>
-      <c r="U8" t="s">
-        <v>50</v>
-      </c>
-      <c r="V8" t="s">
-        <v>54</v>
       </c>
       <c r="W8" t="s">
         <v>14</v>
@@ -1670,25 +2006,25 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
         <v>45404</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -1697,10 +2033,10 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -1709,7 +2045,7 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="P9" t="s">
         <v>30</v>
@@ -1718,19 +2054,19 @@
         <v>45404</v>
       </c>
       <c r="R9" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="V9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="W9" t="s">
         <v>14</v>
@@ -1744,25 +2080,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2">
         <v>45404</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H10" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -1771,10 +2107,10 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -1783,7 +2119,7 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="P10" t="s">
         <v>30</v>
@@ -1792,19 +2128,19 @@
         <v>45404</v>
       </c>
       <c r="R10" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="V10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="W10" t="s">
         <v>14</v>
@@ -1818,25 +2154,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2">
         <v>45404</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -1845,10 +2181,10 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -1857,28 +2193,28 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P11" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="2">
         <v>45404</v>
       </c>
       <c r="R11" s="2">
-        <v>45405</v>
+        <v>45407</v>
       </c>
       <c r="S11" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="U11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="W11" t="s">
         <v>14</v>
@@ -1892,25 +2228,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2">
         <v>45404</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G12" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -1919,10 +2255,10 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -1931,28 +2267,28 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P12" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="2">
         <v>45404</v>
       </c>
       <c r="R12" s="2">
-        <v>45405</v>
+        <v>45407</v>
       </c>
       <c r="S12" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="T12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="U12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="W12" t="s">
         <v>14</v>
@@ -1966,19 +2302,19 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2">
         <v>45404</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1993,10 +2329,10 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -2005,28 +2341,28 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="P13" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="2">
         <v>45404</v>
       </c>
       <c r="R13" s="2">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="S13" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="T13" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="W13" t="s">
         <v>14</v>
@@ -2040,37 +2376,37 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2">
         <v>45404</v>
       </c>
       <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="3">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" t="s">
-        <v>83</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -2079,28 +2415,28 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="2">
         <v>45404</v>
       </c>
       <c r="R14" s="2">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="S14" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="T14" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="U14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="W14" t="s">
         <v>14</v>
@@ -2114,25 +2450,25 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2141,10 +2477,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -2153,28 +2489,28 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="P15" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R15" s="2">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="S15" t="s">
         <v>13</v>
       </c>
       <c r="T15" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="U15" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="V15" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -2188,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -2215,10 +2551,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2227,28 +2563,28 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="P16" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R16" s="2">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="S16" t="s">
         <v>13</v>
       </c>
       <c r="T16" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="U16" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="V16" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2262,25 +2598,25 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2289,10 +2625,10 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2301,28 +2637,28 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R17" s="2">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="S17" t="s">
         <v>13</v>
       </c>
       <c r="T17" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="U17" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="V17" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2336,25 +2672,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2363,10 +2699,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2375,28 +2711,28 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="P18" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R18" s="2">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="S18" t="s">
         <v>13</v>
       </c>
       <c r="T18" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="U18" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="V18" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2410,25 +2746,25 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45404</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45405</v>
-      </c>
-      <c r="E19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" t="s">
-        <v>98</v>
-      </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2437,10 +2773,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2449,28 +2785,28 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="P19" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R19" s="2">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="S19" t="s">
         <v>13</v>
       </c>
       <c r="T19" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="U19" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="V19" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2484,25 +2820,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2511,10 +2847,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2523,28 +2859,28 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="P20" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R20" s="2">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="S20" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T20" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="U20" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="V20" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2558,25 +2894,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2585,10 +2921,10 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -2597,28 +2933,28 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="P21" t="s">
         <v>30</v>
       </c>
       <c r="Q21" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R21" s="2">
         <v>45406</v>
       </c>
       <c r="S21" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="T21" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="U21" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="V21" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2632,25 +2968,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2659,10 +2995,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L22" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2671,28 +3007,28 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="P22" t="s">
         <v>30</v>
       </c>
       <c r="Q22" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R22" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="S22" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="T22" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="U22" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="V22" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2706,25 +3042,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D23" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H23" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -2733,10 +3069,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -2745,28 +3081,28 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="P23" t="s">
         <v>30</v>
       </c>
       <c r="Q23" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R23" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="S23" t="s">
         <v>43</v>
       </c>
       <c r="T23" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="U23" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="V23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2780,25 +3116,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -2807,10 +3143,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -2819,28 +3155,28 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="P24" t="s">
         <v>30</v>
       </c>
       <c r="Q24" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R24" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="S24" t="s">
         <v>43</v>
       </c>
       <c r="T24" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="U24" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="V24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -2854,25 +3190,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H25" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -2881,10 +3217,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -2893,28 +3229,28 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="P25" t="s">
         <v>30</v>
       </c>
       <c r="Q25" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R25" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="S25" t="s">
         <v>43</v>
       </c>
       <c r="T25" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="U25" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="V25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -2928,25 +3264,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D26" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G26" s="3">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H26" s="3">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -2955,10 +3291,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="L26" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -2967,28 +3303,28 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="P26" t="s">
         <v>30</v>
       </c>
       <c r="Q26" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R26" s="2">
-        <v>45408</v>
+        <v>45405</v>
       </c>
       <c r="S26" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="T26" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="U26" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="V26" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -3002,25 +3338,25 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D27" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="G27" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H27" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3029,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="L27" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -3041,28 +3377,28 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="P27" t="s">
         <v>30</v>
       </c>
       <c r="Q27" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R27" s="2">
-        <v>45408</v>
+        <v>45405</v>
       </c>
       <c r="S27" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="T27" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="U27" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="V27" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -3076,25 +3412,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D28" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="G28" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H28" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3103,10 +3439,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="L28" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -3115,28 +3451,28 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="P28" t="s">
         <v>30</v>
       </c>
       <c r="Q28" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R28" s="2">
-        <v>45408</v>
+        <v>45405</v>
       </c>
       <c r="S28" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="T28" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="U28" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="V28" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -3150,25 +3486,25 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D29" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G29" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H29" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3177,10 +3513,10 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="L29" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -3189,28 +3525,28 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="P29" t="s">
         <v>30</v>
       </c>
       <c r="Q29" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R29" s="2">
-        <v>45408</v>
+        <v>45405</v>
       </c>
       <c r="S29" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="T29" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="U29" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="V29" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3224,25 +3560,25 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D30" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="G30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="3">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3251,10 +3587,10 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L30" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3263,28 +3599,28 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="P30" t="s">
         <v>30</v>
       </c>
       <c r="Q30" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R30" s="2">
-        <v>45408</v>
+        <v>45405</v>
       </c>
       <c r="S30" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="T30" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="U30" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="V30" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3298,25 +3634,25 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D31" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="G31" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H31" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3325,10 +3661,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="L31" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3337,28 +3673,28 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="P31" t="s">
         <v>30</v>
       </c>
       <c r="Q31" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="R31" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="S31" t="s">
         <v>43</v>
       </c>
       <c r="T31" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="U31" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="V31" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3372,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D32" s="2">
         <v>45405</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="G32" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H32" s="3">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3399,10 +3735,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3411,7 +3747,7 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="P32" t="s">
         <v>30</v>
@@ -3420,19 +3756,19 @@
         <v>45405</v>
       </c>
       <c r="R32" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S32" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T32" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="U32" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="V32" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3446,25 +3782,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D33" s="2">
         <v>45405</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="G33" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H33" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3473,10 +3809,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3485,7 +3821,7 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="P33" t="s">
         <v>30</v>
@@ -3494,19 +3830,19 @@
         <v>45405</v>
       </c>
       <c r="R33" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S33" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T33" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="U33" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="V33" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3520,25 +3856,25 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2">
         <v>45405</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="G34" s="3">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="H34" s="3">
-        <v>56</v>
+        <v>400</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3547,10 +3883,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="L34" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3559,7 +3895,7 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="P34" t="s">
         <v>30</v>
@@ -3568,19 +3904,19 @@
         <v>45405</v>
       </c>
       <c r="R34" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S34" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T34" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="U34" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="V34" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3594,37 +3930,37 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="D35" s="2">
         <v>45405</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="G35" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="J35" t="s">
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="L35" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -3633,7 +3969,7 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="P35" t="s">
         <v>30</v>
@@ -3642,19 +3978,19 @@
         <v>45405</v>
       </c>
       <c r="R35" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S35" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="T35" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="U35" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="V35" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3668,25 +4004,25 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="D36" s="2">
         <v>45405</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="G36" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H36" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3695,10 +4031,10 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="L36" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -3707,7 +4043,7 @@
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="P36" t="s">
         <v>30</v>
@@ -3716,19 +4052,19 @@
         <v>45405</v>
       </c>
       <c r="R36" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S36" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="T36" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="U36" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="V36" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -3742,25 +4078,25 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="D37" s="2">
         <v>45405</v>
       </c>
       <c r="E37" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H37" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3769,10 +4105,10 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="L37" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -3781,7 +4117,7 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="P37" t="s">
         <v>30</v>
@@ -3790,19 +4126,19 @@
         <v>45405</v>
       </c>
       <c r="R37" s="2">
-        <v>45411</v>
+        <v>45406</v>
       </c>
       <c r="S37" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="T37" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="U37" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="V37" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -3816,25 +4152,25 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="D38" s="2">
         <v>45405</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G38" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H38" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -3843,10 +4179,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="L38" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -3855,7 +4191,7 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="P38" t="s">
         <v>30</v>
@@ -3867,16 +4203,16 @@
         <v>45406</v>
       </c>
       <c r="S38" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="T38" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="U38" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="V38" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -3890,37 +4226,37 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="D39" s="2">
         <v>45405</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="F39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" t="s">
         <v>157</v>
       </c>
-      <c r="G39" s="3">
-        <v>4</v>
-      </c>
-      <c r="H39" s="3">
-        <v>80</v>
-      </c>
-      <c r="I39" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" t="s">
-        <v>194</v>
-      </c>
       <c r="L39" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -3929,7 +4265,7 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="P39" t="s">
         <v>30</v>
@@ -3941,16 +4277,16 @@
         <v>45406</v>
       </c>
       <c r="S39" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="T39" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="U39" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="V39" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
@@ -3964,25 +4300,25 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="D40" s="2">
         <v>45405</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="G40" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H40" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -3991,10 +4327,10 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="L40" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="M40" t="s">
         <v>9</v>
@@ -4003,7 +4339,7 @@
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="P40" t="s">
         <v>30</v>
@@ -4015,16 +4351,16 @@
         <v>45406</v>
       </c>
       <c r="S40" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="T40" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="U40" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="V40" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -4038,22 +4374,22 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="D41" s="2">
         <v>45405</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H41" s="3">
         <v>20</v>
@@ -4065,10 +4401,10 @@
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="L41" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="M41" t="s">
         <v>9</v>
@@ -4077,7 +4413,7 @@
         <v>10</v>
       </c>
       <c r="O41" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="P41" t="s">
         <v>30</v>
@@ -4089,16 +4425,16 @@
         <v>45406</v>
       </c>
       <c r="S41" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="T41" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="U41" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="V41" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -4112,25 +4448,25 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="D42" s="2">
         <v>45405</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="G42" s="3">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="H42" s="3">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4139,10 +4475,10 @@
         <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="L42" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="M42" t="s">
         <v>9</v>
@@ -4151,7 +4487,7 @@
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="P42" t="s">
         <v>30</v>
@@ -4163,16 +4499,16 @@
         <v>45406</v>
       </c>
       <c r="S42" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="T42" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="U42" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="V42" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -4186,25 +4522,25 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="D43" s="2">
         <v>45405</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="G43" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H43" s="3">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4213,10 +4549,10 @@
         <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="M43" t="s">
         <v>9</v>
@@ -4225,7 +4561,7 @@
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="P43" t="s">
         <v>30</v>
@@ -4234,19 +4570,19 @@
         <v>45405</v>
       </c>
       <c r="R43" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="S43" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="T43" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="U43" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="V43" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="W43" t="s">
         <v>14</v>
@@ -4260,25 +4596,25 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D44" s="2">
         <v>45405</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="G44" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H44" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4287,10 +4623,10 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="L44" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="M44" t="s">
         <v>9</v>
@@ -4299,7 +4635,7 @@
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="P44" t="s">
         <v>30</v>
@@ -4308,19 +4644,19 @@
         <v>45405</v>
       </c>
       <c r="R44" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="S44" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="T44" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="U44" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="V44" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W44" t="s">
         <v>14</v>
@@ -4334,25 +4670,25 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="D45" s="2">
         <v>45405</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="G45" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H45" s="3">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
@@ -4361,10 +4697,10 @@
         <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="L45" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="M45" t="s">
         <v>9</v>
@@ -4373,7 +4709,7 @@
         <v>10</v>
       </c>
       <c r="O45" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="P45" t="s">
         <v>30</v>
@@ -4385,16 +4721,16 @@
         <v>45406</v>
       </c>
       <c r="S45" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="T45" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="U45" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="V45" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="W45" t="s">
         <v>14</v>
@@ -4408,25 +4744,25 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="D46" s="2">
         <v>45405</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="G46" s="3">
         <v>4</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4435,10 +4771,10 @@
         <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="L46" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="M46" t="s">
         <v>9</v>
@@ -4447,7 +4783,7 @@
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="P46" t="s">
         <v>30</v>
@@ -4456,19 +4792,19 @@
         <v>45405</v>
       </c>
       <c r="R46" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S46" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="T46" t="s">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="U46" t="s">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="V46" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="W46" t="s">
         <v>14</v>
@@ -4482,25 +4818,25 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="D47" s="2">
-        <v>45412</v>
+        <v>45405</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="G47" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -4509,10 +4845,10 @@
         <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="L47" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="M47" t="s">
         <v>9</v>
@@ -4521,28 +4857,28 @@
         <v>10</v>
       </c>
       <c r="O47" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="P47" t="s">
         <v>30</v>
       </c>
       <c r="Q47" s="2">
-        <v>45412</v>
+        <v>45405</v>
       </c>
       <c r="R47" s="2">
-        <v>45413</v>
+        <v>45411</v>
       </c>
       <c r="S47" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="T47" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="U47" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="V47" t="s">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="W47" t="s">
         <v>14</v>
@@ -4556,25 +4892,25 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="D48" s="2">
-        <v>45412</v>
+        <v>45405</v>
       </c>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G48" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -4583,10 +4919,10 @@
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="L48" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="M48" t="s">
         <v>9</v>
@@ -4595,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="O48" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="P48" t="s">
         <v>30</v>
       </c>
       <c r="Q48" s="2">
-        <v>45412</v>
+        <v>45405</v>
       </c>
       <c r="R48" s="2">
-        <v>45413</v>
+        <v>45411</v>
       </c>
       <c r="S48" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="T48" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="U48" t="s">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c r="V48" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="W48" t="s">
         <v>14</v>
@@ -4627,70 +4963,70 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="D49" s="2">
-        <v>45308</v>
+        <v>45405</v>
       </c>
       <c r="E49" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="G49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49" s="3">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
       </c>
       <c r="J49" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="L49" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="M49" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="N49" t="s">
         <v>10</v>
       </c>
       <c r="O49" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="P49" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="Q49" s="2">
-        <v>45308</v>
+        <v>45405</v>
       </c>
       <c r="R49" s="2">
-        <v>45309</v>
+        <v>45412</v>
       </c>
       <c r="S49" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="T49" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="U49" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="V49" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="W49" t="s">
         <v>14</v>
@@ -4701,70 +5037,70 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="C50" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="D50" s="2">
-        <v>45308</v>
+        <v>45405</v>
       </c>
       <c r="E50" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="F50" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
       </c>
       <c r="J50" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="L50" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="M50" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="N50" t="s">
         <v>10</v>
       </c>
       <c r="O50" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="P50" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="Q50" s="2">
-        <v>45308</v>
+        <v>45405</v>
       </c>
       <c r="R50" s="2">
-        <v>45309</v>
+        <v>45406</v>
       </c>
       <c r="S50" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="T50" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="U50" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="V50" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="W50" t="s">
         <v>14</v>
@@ -4775,70 +5111,70 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D51" s="2">
-        <v>45308</v>
+        <v>45405</v>
       </c>
       <c r="E51" t="s">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>248</v>
+        <v>4</v>
       </c>
       <c r="G51" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H51" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="M51" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="N51" t="s">
         <v>10</v>
       </c>
       <c r="O51" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="P51" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="Q51" s="2">
-        <v>45308</v>
+        <v>45405</v>
       </c>
       <c r="R51" s="2">
-        <v>45309</v>
+        <v>45406</v>
       </c>
       <c r="S51" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="T51" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="U51" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="V51" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="W51" t="s">
         <v>14</v>
@@ -4849,70 +5185,70 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="C52" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="D52" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="E52" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="F52" t="s">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="G52" s="3">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H52" s="3">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
       </c>
       <c r="J52" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="M52" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="N52" t="s">
         <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="Q52" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="R52" s="2">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="S52" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="T52" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="U52" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="V52" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="W52" t="s">
         <v>14</v>
@@ -4923,70 +5259,70 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="D53" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="E53" t="s">
-        <v>269</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>270</v>
+        <v>47</v>
       </c>
       <c r="G53" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H53" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
       </c>
       <c r="J53" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="L53" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="M53" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="N53" t="s">
         <v>10</v>
       </c>
       <c r="O53" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="P53" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="Q53" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="R53" s="2">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="S53" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="T53" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="U53" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="V53" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="W53" t="s">
         <v>14</v>
@@ -4997,70 +5333,70 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="C54" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="D54" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="E54" t="s">
-        <v>271</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>272</v>
+        <v>107</v>
       </c>
       <c r="G54" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H54" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
       </c>
       <c r="J54" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="L54" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="M54" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="N54" t="s">
         <v>10</v>
       </c>
       <c r="O54" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="P54" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="Q54" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="R54" s="2">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="S54" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="T54" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="U54" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="V54" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="W54" t="s">
         <v>14</v>
@@ -5071,70 +5407,70 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="C55" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D55" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="E55" t="s">
-        <v>274</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>275</v>
+        <v>107</v>
       </c>
       <c r="G55" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H55" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
       </c>
       <c r="J55" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="L55" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="N55" t="s">
         <v>10</v>
       </c>
       <c r="O55" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="P55" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="Q55" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="R55" s="2">
-        <v>45404</v>
+        <v>45411</v>
       </c>
       <c r="S55" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="T55" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="U55" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="V55" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="W55" t="s">
         <v>14</v>
@@ -5145,70 +5481,70 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" t="s">
+        <v>138</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" t="s">
+        <v>239</v>
+      </c>
+      <c r="L56" t="s">
+        <v>240</v>
+      </c>
+      <c r="M56" t="s">
+        <v>9</v>
+      </c>
+      <c r="N56" t="s">
+        <v>10</v>
+      </c>
+      <c r="O56" t="s">
+        <v>241</v>
+      </c>
+      <c r="P56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>45405</v>
+      </c>
+      <c r="R56" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S56" t="s">
+        <v>201</v>
+      </c>
+      <c r="T56" t="s">
+        <v>242</v>
+      </c>
+      <c r="U56" t="s">
+        <v>243</v>
+      </c>
+      <c r="V56" t="s">
         <v>244</v>
-      </c>
-      <c r="B56" t="s">
-        <v>273</v>
-      </c>
-      <c r="C56" t="s">
-        <v>246</v>
-      </c>
-      <c r="D56" s="2">
-        <v>45401</v>
-      </c>
-      <c r="E56" t="s">
-        <v>278</v>
-      </c>
-      <c r="F56" t="s">
-        <v>279</v>
-      </c>
-      <c r="G56" s="3">
-        <v>12</v>
-      </c>
-      <c r="H56" s="3">
-        <v>12</v>
-      </c>
-      <c r="I56" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" t="s">
-        <v>249</v>
-      </c>
-      <c r="K56" t="s">
-        <v>250</v>
-      </c>
-      <c r="L56" t="s">
-        <v>276</v>
-      </c>
-      <c r="M56" t="s">
-        <v>252</v>
-      </c>
-      <c r="N56" t="s">
-        <v>10</v>
-      </c>
-      <c r="O56" t="s">
-        <v>277</v>
-      </c>
-      <c r="P56" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>45401</v>
-      </c>
-      <c r="R56" s="2">
-        <v>45404</v>
-      </c>
-      <c r="S56" t="s">
-        <v>43</v>
-      </c>
-      <c r="T56" t="s">
-        <v>250</v>
-      </c>
-      <c r="U56" t="s">
-        <v>255</v>
-      </c>
-      <c r="V56" t="s">
-        <v>256</v>
       </c>
       <c r="W56" t="s">
         <v>14</v>
@@ -5219,70 +5555,70 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C57" t="s">
         <v>246</v>
       </c>
       <c r="D57" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="E57" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F57" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="G57" s="3">
         <v>2</v>
       </c>
       <c r="H57" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
       </c>
       <c r="J57" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" t="s">
         <v>249</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>250</v>
       </c>
-      <c r="L57" t="s">
-        <v>276</v>
-      </c>
       <c r="M57" t="s">
+        <v>9</v>
+      </c>
+      <c r="N57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" t="s">
+        <v>251</v>
+      </c>
+      <c r="P57" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>45405</v>
+      </c>
+      <c r="R57" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S57" t="s">
+        <v>13</v>
+      </c>
+      <c r="T57" t="s">
         <v>252</v>
       </c>
-      <c r="N57" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" t="s">
-        <v>277</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="U57" t="s">
+        <v>253</v>
+      </c>
+      <c r="V57" t="s">
         <v>254</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>45401</v>
-      </c>
-      <c r="R57" s="2">
-        <v>45404</v>
-      </c>
-      <c r="S57" t="s">
-        <v>43</v>
-      </c>
-      <c r="T57" t="s">
-        <v>250</v>
-      </c>
-      <c r="U57" t="s">
-        <v>255</v>
-      </c>
-      <c r="V57" t="s">
-        <v>256</v>
       </c>
       <c r="W57" t="s">
         <v>14</v>
@@ -5293,70 +5629,70 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D58" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="E58" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="G58" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
       </c>
       <c r="J58" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L58" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="M58" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="N58" t="s">
         <v>10</v>
       </c>
       <c r="O58" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="Q58" s="2">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="R58" s="2">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="S58" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="T58" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="U58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="V58" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="W58" t="s">
         <v>14</v>
@@ -5367,75 +5703,2813 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="B59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" t="s">
+        <v>256</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="3">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" t="s">
+        <v>257</v>
+      </c>
+      <c r="L59" t="s">
+        <v>258</v>
+      </c>
+      <c r="M59" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" t="s">
+        <v>259</v>
+      </c>
+      <c r="P59" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>45405</v>
+      </c>
+      <c r="R59" s="2">
+        <v>45406</v>
+      </c>
+      <c r="S59" t="s">
+        <v>154</v>
+      </c>
+      <c r="T59" t="s">
+        <v>260</v>
+      </c>
+      <c r="U59" t="s">
+        <v>256</v>
+      </c>
+      <c r="V59" t="s">
+        <v>258</v>
+      </c>
+      <c r="W59" t="s">
+        <v>14</v>
+      </c>
+      <c r="X59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E60" t="s">
+        <v>263</v>
+      </c>
+      <c r="F60" t="s">
+        <v>264</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" t="s">
+        <v>265</v>
+      </c>
+      <c r="L60" t="s">
+        <v>266</v>
+      </c>
+      <c r="M60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N60" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" t="s">
+        <v>267</v>
+      </c>
+      <c r="P60" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>45405</v>
+      </c>
+      <c r="R60" s="2">
+        <v>45406</v>
+      </c>
+      <c r="S60" t="s">
+        <v>154</v>
+      </c>
+      <c r="T60" t="s">
+        <v>268</v>
+      </c>
+      <c r="U60" t="s">
+        <v>269</v>
+      </c>
+      <c r="V60" t="s">
+        <v>270</v>
+      </c>
+      <c r="W60" t="s">
+        <v>14</v>
+      </c>
+      <c r="X60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E61" t="s">
         <v>273</v>
       </c>
-      <c r="C59" t="s">
-        <v>246</v>
-      </c>
-      <c r="D59" s="2">
+      <c r="F61" t="s">
+        <v>274</v>
+      </c>
+      <c r="G61" s="3">
+        <v>4</v>
+      </c>
+      <c r="H61" s="3">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" t="s">
+        <v>275</v>
+      </c>
+      <c r="L61" t="s">
+        <v>276</v>
+      </c>
+      <c r="M61" t="s">
+        <v>9</v>
+      </c>
+      <c r="N61" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" t="s">
+        <v>277</v>
+      </c>
+      <c r="P61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>45405</v>
+      </c>
+      <c r="R61" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S61" t="s">
+        <v>13</v>
+      </c>
+      <c r="T61" t="s">
+        <v>278</v>
+      </c>
+      <c r="U61" t="s">
+        <v>279</v>
+      </c>
+      <c r="V61" t="s">
+        <v>276</v>
+      </c>
+      <c r="W61" t="s">
+        <v>14</v>
+      </c>
+      <c r="X61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>280</v>
+      </c>
+      <c r="C62" t="s">
+        <v>281</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3">
+        <v>12</v>
+      </c>
+      <c r="I62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" t="s">
+        <v>282</v>
+      </c>
+      <c r="L62" t="s">
+        <v>283</v>
+      </c>
+      <c r="M62" t="s">
+        <v>9</v>
+      </c>
+      <c r="N62" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" t="s">
+        <v>284</v>
+      </c>
+      <c r="P62" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>45405</v>
+      </c>
+      <c r="R62" s="2">
+        <v>45406</v>
+      </c>
+      <c r="S62" t="s">
+        <v>154</v>
+      </c>
+      <c r="T62" t="s">
+        <v>285</v>
+      </c>
+      <c r="U62" t="s">
+        <v>286</v>
+      </c>
+      <c r="V62" t="s">
+        <v>270</v>
+      </c>
+      <c r="W62" t="s">
+        <v>14</v>
+      </c>
+      <c r="X62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C63" t="s">
+        <v>281</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="3">
+        <v>3</v>
+      </c>
+      <c r="H63" s="3">
+        <v>150</v>
+      </c>
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" t="s">
+        <v>282</v>
+      </c>
+      <c r="L63" t="s">
+        <v>283</v>
+      </c>
+      <c r="M63" t="s">
+        <v>9</v>
+      </c>
+      <c r="N63" t="s">
+        <v>10</v>
+      </c>
+      <c r="O63" t="s">
+        <v>284</v>
+      </c>
+      <c r="P63" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>45405</v>
+      </c>
+      <c r="R63" s="2">
+        <v>45406</v>
+      </c>
+      <c r="S63" t="s">
+        <v>154</v>
+      </c>
+      <c r="T63" t="s">
+        <v>285</v>
+      </c>
+      <c r="U63" t="s">
+        <v>286</v>
+      </c>
+      <c r="V63" t="s">
+        <v>270</v>
+      </c>
+      <c r="W63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" t="s">
+        <v>281</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E64" t="s">
+        <v>287</v>
+      </c>
+      <c r="F64" t="s">
+        <v>288</v>
+      </c>
+      <c r="G64" s="3">
+        <v>4</v>
+      </c>
+      <c r="H64" s="3">
+        <v>200</v>
+      </c>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" t="s">
+        <v>282</v>
+      </c>
+      <c r="L64" t="s">
+        <v>283</v>
+      </c>
+      <c r="M64" t="s">
+        <v>9</v>
+      </c>
+      <c r="N64" t="s">
+        <v>10</v>
+      </c>
+      <c r="O64" t="s">
+        <v>284</v>
+      </c>
+      <c r="P64" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>45405</v>
+      </c>
+      <c r="R64" s="2">
+        <v>45406</v>
+      </c>
+      <c r="S64" t="s">
+        <v>154</v>
+      </c>
+      <c r="T64" t="s">
+        <v>285</v>
+      </c>
+      <c r="U64" t="s">
+        <v>286</v>
+      </c>
+      <c r="V64" t="s">
+        <v>270</v>
+      </c>
+      <c r="W64" t="s">
+        <v>14</v>
+      </c>
+      <c r="X64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>289</v>
+      </c>
+      <c r="C65" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="3">
+        <v>5</v>
+      </c>
+      <c r="H65" s="3">
+        <v>250</v>
+      </c>
+      <c r="I65" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" t="s">
+        <v>291</v>
+      </c>
+      <c r="L65" t="s">
+        <v>132</v>
+      </c>
+      <c r="M65" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65" t="s">
+        <v>10</v>
+      </c>
+      <c r="O65" t="s">
+        <v>292</v>
+      </c>
+      <c r="P65" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>45405</v>
+      </c>
+      <c r="R65" s="2">
+        <v>45406</v>
+      </c>
+      <c r="S65" t="s">
+        <v>154</v>
+      </c>
+      <c r="T65" t="s">
+        <v>293</v>
+      </c>
+      <c r="U65" t="s">
+        <v>294</v>
+      </c>
+      <c r="V65" t="s">
+        <v>295</v>
+      </c>
+      <c r="W65" t="s">
+        <v>14</v>
+      </c>
+      <c r="X65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>289</v>
+      </c>
+      <c r="C66" t="s">
+        <v>290</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="3">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" t="s">
+        <v>291</v>
+      </c>
+      <c r="L66" t="s">
+        <v>132</v>
+      </c>
+      <c r="M66" t="s">
+        <v>9</v>
+      </c>
+      <c r="N66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" t="s">
+        <v>292</v>
+      </c>
+      <c r="P66" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>45405</v>
+      </c>
+      <c r="R66" s="2">
+        <v>45406</v>
+      </c>
+      <c r="S66" t="s">
+        <v>154</v>
+      </c>
+      <c r="T66" t="s">
+        <v>293</v>
+      </c>
+      <c r="U66" t="s">
+        <v>294</v>
+      </c>
+      <c r="V66" t="s">
+        <v>295</v>
+      </c>
+      <c r="W66" t="s">
+        <v>14</v>
+      </c>
+      <c r="X66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>296</v>
+      </c>
+      <c r="C67" t="s">
+        <v>297</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E67" t="s">
+        <v>298</v>
+      </c>
+      <c r="F67" t="s">
+        <v>299</v>
+      </c>
+      <c r="G67" s="3">
+        <v>5</v>
+      </c>
+      <c r="H67" s="3">
+        <v>100</v>
+      </c>
+      <c r="I67" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" t="s">
+        <v>300</v>
+      </c>
+      <c r="L67" t="s">
+        <v>301</v>
+      </c>
+      <c r="M67" t="s">
+        <v>9</v>
+      </c>
+      <c r="N67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O67" t="s">
+        <v>302</v>
+      </c>
+      <c r="P67" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>45405</v>
+      </c>
+      <c r="R67" s="2">
+        <v>45406</v>
+      </c>
+      <c r="S67" t="s">
+        <v>154</v>
+      </c>
+      <c r="T67" t="s">
+        <v>303</v>
+      </c>
+      <c r="U67" t="s">
+        <v>304</v>
+      </c>
+      <c r="V67" t="s">
+        <v>295</v>
+      </c>
+      <c r="W67" t="s">
+        <v>14</v>
+      </c>
+      <c r="X67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>296</v>
+      </c>
+      <c r="C68" t="s">
+        <v>297</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E68" t="s">
+        <v>247</v>
+      </c>
+      <c r="F68" t="s">
+        <v>248</v>
+      </c>
+      <c r="G68" s="3">
+        <v>3</v>
+      </c>
+      <c r="H68" s="3">
+        <v>150</v>
+      </c>
+      <c r="I68" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" t="s">
+        <v>300</v>
+      </c>
+      <c r="L68" t="s">
+        <v>301</v>
+      </c>
+      <c r="M68" t="s">
+        <v>9</v>
+      </c>
+      <c r="N68" t="s">
+        <v>10</v>
+      </c>
+      <c r="O68" t="s">
+        <v>302</v>
+      </c>
+      <c r="P68" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>45405</v>
+      </c>
+      <c r="R68" s="2">
+        <v>45406</v>
+      </c>
+      <c r="S68" t="s">
+        <v>154</v>
+      </c>
+      <c r="T68" t="s">
+        <v>303</v>
+      </c>
+      <c r="U68" t="s">
+        <v>304</v>
+      </c>
+      <c r="V68" t="s">
+        <v>295</v>
+      </c>
+      <c r="W68" t="s">
+        <v>14</v>
+      </c>
+      <c r="X68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>305</v>
+      </c>
+      <c r="C69" t="s">
+        <v>306</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E69" t="s">
+        <v>307</v>
+      </c>
+      <c r="F69" t="s">
+        <v>308</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" t="s">
+        <v>309</v>
+      </c>
+      <c r="L69" t="s">
+        <v>310</v>
+      </c>
+      <c r="M69" t="s">
+        <v>9</v>
+      </c>
+      <c r="N69" t="s">
+        <v>10</v>
+      </c>
+      <c r="O69" t="s">
+        <v>311</v>
+      </c>
+      <c r="P69" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R69" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S69" t="s">
+        <v>312</v>
+      </c>
+      <c r="T69" t="s">
+        <v>313</v>
+      </c>
+      <c r="U69" t="s">
+        <v>314</v>
+      </c>
+      <c r="V69" t="s">
+        <v>315</v>
+      </c>
+      <c r="W69" t="s">
+        <v>14</v>
+      </c>
+      <c r="X69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" t="s">
+        <v>306</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E70" t="s">
+        <v>316</v>
+      </c>
+      <c r="F70" t="s">
+        <v>317</v>
+      </c>
+      <c r="G70" s="3">
+        <v>6</v>
+      </c>
+      <c r="H70" s="3">
+        <v>300</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70" t="s">
+        <v>309</v>
+      </c>
+      <c r="L70" t="s">
+        <v>310</v>
+      </c>
+      <c r="M70" t="s">
+        <v>9</v>
+      </c>
+      <c r="N70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O70" t="s">
+        <v>311</v>
+      </c>
+      <c r="P70" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R70" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S70" t="s">
+        <v>312</v>
+      </c>
+      <c r="T70" t="s">
+        <v>313</v>
+      </c>
+      <c r="U70" t="s">
+        <v>314</v>
+      </c>
+      <c r="V70" t="s">
+        <v>315</v>
+      </c>
+      <c r="W70" t="s">
+        <v>14</v>
+      </c>
+      <c r="X70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" t="s">
+        <v>306</v>
+      </c>
+      <c r="D71" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E71" t="s">
+        <v>318</v>
+      </c>
+      <c r="F71" t="s">
+        <v>319</v>
+      </c>
+      <c r="G71" s="3">
+        <v>5</v>
+      </c>
+      <c r="H71" s="3">
+        <v>250</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" t="s">
+        <v>309</v>
+      </c>
+      <c r="L71" t="s">
+        <v>310</v>
+      </c>
+      <c r="M71" t="s">
+        <v>9</v>
+      </c>
+      <c r="N71" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" t="s">
+        <v>311</v>
+      </c>
+      <c r="P71" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R71" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S71" t="s">
+        <v>312</v>
+      </c>
+      <c r="T71" t="s">
+        <v>313</v>
+      </c>
+      <c r="U71" t="s">
+        <v>314</v>
+      </c>
+      <c r="V71" t="s">
+        <v>315</v>
+      </c>
+      <c r="W71" t="s">
+        <v>14</v>
+      </c>
+      <c r="X71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>320</v>
+      </c>
+      <c r="C72" t="s">
+        <v>321</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E72" t="s">
+        <v>318</v>
+      </c>
+      <c r="F72" t="s">
+        <v>319</v>
+      </c>
+      <c r="G72" s="3">
+        <v>2</v>
+      </c>
+      <c r="H72" s="3">
+        <v>100</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" t="s">
+        <v>322</v>
+      </c>
+      <c r="L72" t="s">
+        <v>323</v>
+      </c>
+      <c r="M72" t="s">
+        <v>9</v>
+      </c>
+      <c r="N72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" t="s">
+        <v>324</v>
+      </c>
+      <c r="P72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R72" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S72" t="s">
+        <v>312</v>
+      </c>
+      <c r="T72" t="s">
+        <v>313</v>
+      </c>
+      <c r="U72" t="s">
+        <v>314</v>
+      </c>
+      <c r="V72" t="s">
+        <v>315</v>
+      </c>
+      <c r="W72" t="s">
+        <v>14</v>
+      </c>
+      <c r="X72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>320</v>
+      </c>
+      <c r="C73" t="s">
+        <v>321</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E73" t="s">
+        <v>325</v>
+      </c>
+      <c r="F73" t="s">
+        <v>326</v>
+      </c>
+      <c r="G73" s="3">
+        <v>4</v>
+      </c>
+      <c r="H73" s="3">
+        <v>200</v>
+      </c>
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" t="s">
+        <v>322</v>
+      </c>
+      <c r="L73" t="s">
+        <v>323</v>
+      </c>
+      <c r="M73" t="s">
+        <v>9</v>
+      </c>
+      <c r="N73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O73" t="s">
+        <v>324</v>
+      </c>
+      <c r="P73" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R73" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S73" t="s">
+        <v>312</v>
+      </c>
+      <c r="T73" t="s">
+        <v>313</v>
+      </c>
+      <c r="U73" t="s">
+        <v>314</v>
+      </c>
+      <c r="V73" t="s">
+        <v>315</v>
+      </c>
+      <c r="W73" t="s">
+        <v>14</v>
+      </c>
+      <c r="X73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>320</v>
+      </c>
+      <c r="C74" t="s">
+        <v>321</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E74" t="s">
+        <v>316</v>
+      </c>
+      <c r="F74" t="s">
+        <v>317</v>
+      </c>
+      <c r="G74" s="3">
+        <v>3</v>
+      </c>
+      <c r="H74" s="3">
+        <v>150</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74" t="s">
+        <v>322</v>
+      </c>
+      <c r="L74" t="s">
+        <v>323</v>
+      </c>
+      <c r="M74" t="s">
+        <v>9</v>
+      </c>
+      <c r="N74" t="s">
+        <v>10</v>
+      </c>
+      <c r="O74" t="s">
+        <v>324</v>
+      </c>
+      <c r="P74" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R74" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S74" t="s">
+        <v>312</v>
+      </c>
+      <c r="T74" t="s">
+        <v>313</v>
+      </c>
+      <c r="U74" t="s">
+        <v>314</v>
+      </c>
+      <c r="V74" t="s">
+        <v>315</v>
+      </c>
+      <c r="W74" t="s">
+        <v>14</v>
+      </c>
+      <c r="X74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>320</v>
+      </c>
+      <c r="C75" t="s">
+        <v>321</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E75" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" s="3">
+        <v>6</v>
+      </c>
+      <c r="H75" s="3">
+        <v>6</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" t="s">
+        <v>322</v>
+      </c>
+      <c r="L75" t="s">
+        <v>323</v>
+      </c>
+      <c r="M75" t="s">
+        <v>9</v>
+      </c>
+      <c r="N75" t="s">
+        <v>10</v>
+      </c>
+      <c r="O75" t="s">
+        <v>324</v>
+      </c>
+      <c r="P75" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R75" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S75" t="s">
+        <v>312</v>
+      </c>
+      <c r="T75" t="s">
+        <v>313</v>
+      </c>
+      <c r="U75" t="s">
+        <v>314</v>
+      </c>
+      <c r="V75" t="s">
+        <v>315</v>
+      </c>
+      <c r="W75" t="s">
+        <v>14</v>
+      </c>
+      <c r="X75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>320</v>
+      </c>
+      <c r="C76" t="s">
+        <v>321</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" t="s">
+        <v>47</v>
+      </c>
+      <c r="G76" s="3">
+        <v>40</v>
+      </c>
+      <c r="H76" s="3">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" t="s">
+        <v>322</v>
+      </c>
+      <c r="L76" t="s">
+        <v>323</v>
+      </c>
+      <c r="M76" t="s">
+        <v>9</v>
+      </c>
+      <c r="N76" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" t="s">
+        <v>324</v>
+      </c>
+      <c r="P76" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R76" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S76" t="s">
+        <v>312</v>
+      </c>
+      <c r="T76" t="s">
+        <v>313</v>
+      </c>
+      <c r="U76" t="s">
+        <v>314</v>
+      </c>
+      <c r="V76" t="s">
+        <v>315</v>
+      </c>
+      <c r="W76" t="s">
+        <v>14</v>
+      </c>
+      <c r="X76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" t="s">
+        <v>321</v>
+      </c>
+      <c r="D77" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E77" t="s">
+        <v>327</v>
+      </c>
+      <c r="F77" t="s">
+        <v>328</v>
+      </c>
+      <c r="G77" s="3">
+        <v>5</v>
+      </c>
+      <c r="H77" s="3">
+        <v>250</v>
+      </c>
+      <c r="I77" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" t="s">
+        <v>322</v>
+      </c>
+      <c r="L77" t="s">
+        <v>323</v>
+      </c>
+      <c r="M77" t="s">
+        <v>9</v>
+      </c>
+      <c r="N77" t="s">
+        <v>10</v>
+      </c>
+      <c r="O77" t="s">
+        <v>324</v>
+      </c>
+      <c r="P77" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R77" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S77" t="s">
+        <v>312</v>
+      </c>
+      <c r="T77" t="s">
+        <v>313</v>
+      </c>
+      <c r="U77" t="s">
+        <v>314</v>
+      </c>
+      <c r="V77" t="s">
+        <v>315</v>
+      </c>
+      <c r="W77" t="s">
+        <v>14</v>
+      </c>
+      <c r="X77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>329</v>
+      </c>
+      <c r="C78" t="s">
+        <v>330</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="3">
+        <v>30</v>
+      </c>
+      <c r="H78" s="3">
+        <v>30</v>
+      </c>
+      <c r="I78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" t="s">
+        <v>331</v>
+      </c>
+      <c r="L78" t="s">
+        <v>332</v>
+      </c>
+      <c r="M78" t="s">
+        <v>9</v>
+      </c>
+      <c r="N78" t="s">
+        <v>10</v>
+      </c>
+      <c r="O78" t="s">
+        <v>333</v>
+      </c>
+      <c r="P78" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R78" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S78" t="s">
+        <v>312</v>
+      </c>
+      <c r="T78" t="s">
+        <v>331</v>
+      </c>
+      <c r="U78" t="s">
+        <v>330</v>
+      </c>
+      <c r="V78" t="s">
+        <v>332</v>
+      </c>
+      <c r="W78" t="s">
+        <v>14</v>
+      </c>
+      <c r="X78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79" t="s">
+        <v>334</v>
+      </c>
+      <c r="B79" t="s">
+        <v>335</v>
+      </c>
+      <c r="C79" t="s">
+        <v>336</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E79" t="s">
+        <v>337</v>
+      </c>
+      <c r="F79" t="s">
+        <v>338</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" t="s">
+        <v>339</v>
+      </c>
+      <c r="K79" t="s">
+        <v>340</v>
+      </c>
+      <c r="L79" t="s">
+        <v>341</v>
+      </c>
+      <c r="M79" t="s">
+        <v>342</v>
+      </c>
+      <c r="N79" t="s">
+        <v>10</v>
+      </c>
+      <c r="O79" t="s">
+        <v>343</v>
+      </c>
+      <c r="P79" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R79" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S79" t="s">
+        <v>154</v>
+      </c>
+      <c r="T79" t="s">
+        <v>340</v>
+      </c>
+      <c r="U79" t="s">
+        <v>345</v>
+      </c>
+      <c r="V79" t="s">
+        <v>346</v>
+      </c>
+      <c r="W79" t="s">
+        <v>14</v>
+      </c>
+      <c r="X79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="A80" t="s">
+        <v>334</v>
+      </c>
+      <c r="B80" t="s">
+        <v>347</v>
+      </c>
+      <c r="C80" t="s">
+        <v>348</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E80" t="s">
+        <v>337</v>
+      </c>
+      <c r="F80" t="s">
+        <v>338</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" t="s">
+        <v>339</v>
+      </c>
+      <c r="K80" t="s">
+        <v>340</v>
+      </c>
+      <c r="L80" t="s">
+        <v>349</v>
+      </c>
+      <c r="M80" t="s">
+        <v>342</v>
+      </c>
+      <c r="N80" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" t="s">
+        <v>350</v>
+      </c>
+      <c r="P80" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R80" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S80" t="s">
+        <v>154</v>
+      </c>
+      <c r="T80" t="s">
+        <v>340</v>
+      </c>
+      <c r="U80" t="s">
+        <v>345</v>
+      </c>
+      <c r="V80" t="s">
+        <v>346</v>
+      </c>
+      <c r="W80" t="s">
+        <v>14</v>
+      </c>
+      <c r="X80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="A81" t="s">
+        <v>334</v>
+      </c>
+      <c r="B81" t="s">
+        <v>351</v>
+      </c>
+      <c r="C81" t="s">
+        <v>352</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E81" t="s">
+        <v>337</v>
+      </c>
+      <c r="F81" t="s">
+        <v>338</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" t="s">
+        <v>339</v>
+      </c>
+      <c r="K81" t="s">
+        <v>340</v>
+      </c>
+      <c r="L81" t="s">
+        <v>353</v>
+      </c>
+      <c r="M81" t="s">
+        <v>342</v>
+      </c>
+      <c r="N81" t="s">
+        <v>10</v>
+      </c>
+      <c r="O81" t="s">
+        <v>354</v>
+      </c>
+      <c r="P81" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R81" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S81" t="s">
+        <v>154</v>
+      </c>
+      <c r="T81" t="s">
+        <v>340</v>
+      </c>
+      <c r="U81" t="s">
+        <v>345</v>
+      </c>
+      <c r="V81" t="s">
+        <v>346</v>
+      </c>
+      <c r="W81" t="s">
+        <v>14</v>
+      </c>
+      <c r="X81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
+      <c r="A82" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" t="s">
+        <v>355</v>
+      </c>
+      <c r="C82" t="s">
+        <v>348</v>
+      </c>
+      <c r="D82" s="2">
         <v>45401</v>
       </c>
-      <c r="E59" t="s">
-        <v>266</v>
-      </c>
-      <c r="F59" t="s">
-        <v>267</v>
-      </c>
-      <c r="G59" s="3">
-        <v>6</v>
-      </c>
-      <c r="H59" s="3">
-        <v>6</v>
-      </c>
-      <c r="I59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" t="s">
-        <v>249</v>
-      </c>
-      <c r="K59" t="s">
-        <v>250</v>
-      </c>
-      <c r="L59" t="s">
-        <v>276</v>
-      </c>
-      <c r="M59" t="s">
-        <v>252</v>
-      </c>
-      <c r="N59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O59" t="s">
-        <v>277</v>
-      </c>
-      <c r="P59" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q59" s="2">
+      <c r="E82" t="s">
+        <v>356</v>
+      </c>
+      <c r="F82" t="s">
+        <v>357</v>
+      </c>
+      <c r="G82" s="3">
+        <v>12</v>
+      </c>
+      <c r="H82" s="3">
+        <v>12</v>
+      </c>
+      <c r="I82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" t="s">
+        <v>339</v>
+      </c>
+      <c r="K82" t="s">
+        <v>340</v>
+      </c>
+      <c r="L82" t="s">
+        <v>349</v>
+      </c>
+      <c r="M82" t="s">
+        <v>342</v>
+      </c>
+      <c r="N82" t="s">
+        <v>10</v>
+      </c>
+      <c r="O82" t="s">
+        <v>358</v>
+      </c>
+      <c r="P82" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q82" s="2">
         <v>45401</v>
       </c>
-      <c r="R59" s="2">
+      <c r="R82" s="2">
         <v>45404</v>
       </c>
-      <c r="S59" t="s">
-        <v>43</v>
-      </c>
-      <c r="T59" t="s">
-        <v>250</v>
-      </c>
-      <c r="U59" t="s">
-        <v>255</v>
-      </c>
-      <c r="V59" t="s">
-        <v>256</v>
-      </c>
-      <c r="W59" t="s">
-        <v>14</v>
-      </c>
-      <c r="X59" t="s">
+      <c r="S82" t="s">
+        <v>154</v>
+      </c>
+      <c r="T82" t="s">
+        <v>340</v>
+      </c>
+      <c r="U82" t="s">
+        <v>345</v>
+      </c>
+      <c r="V82" t="s">
+        <v>346</v>
+      </c>
+      <c r="W82" t="s">
+        <v>14</v>
+      </c>
+      <c r="X82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="A83" t="s">
+        <v>334</v>
+      </c>
+      <c r="B83" t="s">
+        <v>355</v>
+      </c>
+      <c r="C83" t="s">
+        <v>348</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45401</v>
+      </c>
+      <c r="E83" t="s">
+        <v>359</v>
+      </c>
+      <c r="F83" t="s">
+        <v>360</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2</v>
+      </c>
+      <c r="I83" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" t="s">
+        <v>339</v>
+      </c>
+      <c r="K83" t="s">
+        <v>340</v>
+      </c>
+      <c r="L83" t="s">
+        <v>349</v>
+      </c>
+      <c r="M83" t="s">
+        <v>342</v>
+      </c>
+      <c r="N83" t="s">
+        <v>10</v>
+      </c>
+      <c r="O83" t="s">
+        <v>358</v>
+      </c>
+      <c r="P83" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>45401</v>
+      </c>
+      <c r="R83" s="2">
+        <v>45404</v>
+      </c>
+      <c r="S83" t="s">
+        <v>154</v>
+      </c>
+      <c r="T83" t="s">
+        <v>340</v>
+      </c>
+      <c r="U83" t="s">
+        <v>345</v>
+      </c>
+      <c r="V83" t="s">
+        <v>346</v>
+      </c>
+      <c r="W83" t="s">
+        <v>14</v>
+      </c>
+      <c r="X83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
+      <c r="A84" t="s">
+        <v>334</v>
+      </c>
+      <c r="B84" t="s">
+        <v>355</v>
+      </c>
+      <c r="C84" t="s">
+        <v>348</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45401</v>
+      </c>
+      <c r="E84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" t="s">
+        <v>74</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" t="s">
+        <v>339</v>
+      </c>
+      <c r="K84" t="s">
+        <v>340</v>
+      </c>
+      <c r="L84" t="s">
+        <v>349</v>
+      </c>
+      <c r="M84" t="s">
+        <v>342</v>
+      </c>
+      <c r="N84" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" t="s">
+        <v>358</v>
+      </c>
+      <c r="P84" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>45401</v>
+      </c>
+      <c r="R84" s="2">
+        <v>45404</v>
+      </c>
+      <c r="S84" t="s">
+        <v>154</v>
+      </c>
+      <c r="T84" t="s">
+        <v>340</v>
+      </c>
+      <c r="U84" t="s">
+        <v>345</v>
+      </c>
+      <c r="V84" t="s">
+        <v>346</v>
+      </c>
+      <c r="W84" t="s">
+        <v>14</v>
+      </c>
+      <c r="X84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
+      <c r="A85" t="s">
+        <v>334</v>
+      </c>
+      <c r="B85" t="s">
+        <v>361</v>
+      </c>
+      <c r="C85" t="s">
+        <v>336</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45401</v>
+      </c>
+      <c r="E85" t="s">
+        <v>362</v>
+      </c>
+      <c r="F85" t="s">
+        <v>363</v>
+      </c>
+      <c r="G85" s="3">
+        <v>4</v>
+      </c>
+      <c r="H85" s="3">
+        <v>4</v>
+      </c>
+      <c r="I85" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" t="s">
+        <v>339</v>
+      </c>
+      <c r="K85" t="s">
+        <v>340</v>
+      </c>
+      <c r="L85" t="s">
+        <v>364</v>
+      </c>
+      <c r="M85" t="s">
+        <v>342</v>
+      </c>
+      <c r="N85" t="s">
+        <v>10</v>
+      </c>
+      <c r="O85" t="s">
+        <v>365</v>
+      </c>
+      <c r="P85" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>45401</v>
+      </c>
+      <c r="R85" s="2">
+        <v>45404</v>
+      </c>
+      <c r="S85" t="s">
+        <v>154</v>
+      </c>
+      <c r="T85" t="s">
+        <v>340</v>
+      </c>
+      <c r="U85" t="s">
+        <v>345</v>
+      </c>
+      <c r="V85" t="s">
+        <v>346</v>
+      </c>
+      <c r="W85" t="s">
+        <v>14</v>
+      </c>
+      <c r="X85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
+      <c r="A86" t="s">
+        <v>334</v>
+      </c>
+      <c r="B86" t="s">
+        <v>361</v>
+      </c>
+      <c r="C86" t="s">
+        <v>336</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45401</v>
+      </c>
+      <c r="E86" t="s">
+        <v>366</v>
+      </c>
+      <c r="F86" t="s">
+        <v>367</v>
+      </c>
+      <c r="G86" s="3">
+        <v>12</v>
+      </c>
+      <c r="H86" s="3">
+        <v>12</v>
+      </c>
+      <c r="I86" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" t="s">
+        <v>339</v>
+      </c>
+      <c r="K86" t="s">
+        <v>340</v>
+      </c>
+      <c r="L86" t="s">
+        <v>364</v>
+      </c>
+      <c r="M86" t="s">
+        <v>342</v>
+      </c>
+      <c r="N86" t="s">
+        <v>10</v>
+      </c>
+      <c r="O86" t="s">
+        <v>365</v>
+      </c>
+      <c r="P86" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>45401</v>
+      </c>
+      <c r="R86" s="2">
+        <v>45404</v>
+      </c>
+      <c r="S86" t="s">
+        <v>154</v>
+      </c>
+      <c r="T86" t="s">
+        <v>340</v>
+      </c>
+      <c r="U86" t="s">
+        <v>345</v>
+      </c>
+      <c r="V86" t="s">
+        <v>346</v>
+      </c>
+      <c r="W86" t="s">
+        <v>14</v>
+      </c>
+      <c r="X86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87" t="s">
+        <v>334</v>
+      </c>
+      <c r="B87" t="s">
+        <v>361</v>
+      </c>
+      <c r="C87" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87" s="2">
+        <v>45401</v>
+      </c>
+      <c r="E87" t="s">
+        <v>368</v>
+      </c>
+      <c r="F87" t="s">
+        <v>369</v>
+      </c>
+      <c r="G87" s="3">
+        <v>2</v>
+      </c>
+      <c r="H87" s="3">
+        <v>2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" t="s">
+        <v>339</v>
+      </c>
+      <c r="K87" t="s">
+        <v>340</v>
+      </c>
+      <c r="L87" t="s">
+        <v>364</v>
+      </c>
+      <c r="M87" t="s">
+        <v>342</v>
+      </c>
+      <c r="N87" t="s">
+        <v>10</v>
+      </c>
+      <c r="O87" t="s">
+        <v>365</v>
+      </c>
+      <c r="P87" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>45401</v>
+      </c>
+      <c r="R87" s="2">
+        <v>45404</v>
+      </c>
+      <c r="S87" t="s">
+        <v>154</v>
+      </c>
+      <c r="T87" t="s">
+        <v>340</v>
+      </c>
+      <c r="U87" t="s">
+        <v>345</v>
+      </c>
+      <c r="V87" t="s">
+        <v>346</v>
+      </c>
+      <c r="W87" t="s">
+        <v>14</v>
+      </c>
+      <c r="X87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
+      <c r="A88" t="s">
+        <v>334</v>
+      </c>
+      <c r="B88" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" t="s">
+        <v>336</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45401</v>
+      </c>
+      <c r="E88" t="s">
+        <v>370</v>
+      </c>
+      <c r="F88" t="s">
+        <v>371</v>
+      </c>
+      <c r="G88" s="3">
+        <v>6</v>
+      </c>
+      <c r="H88" s="3">
+        <v>6</v>
+      </c>
+      <c r="I88" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" t="s">
+        <v>339</v>
+      </c>
+      <c r="K88" t="s">
+        <v>340</v>
+      </c>
+      <c r="L88" t="s">
+        <v>364</v>
+      </c>
+      <c r="M88" t="s">
+        <v>342</v>
+      </c>
+      <c r="N88" t="s">
+        <v>10</v>
+      </c>
+      <c r="O88" t="s">
+        <v>365</v>
+      </c>
+      <c r="P88" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>45401</v>
+      </c>
+      <c r="R88" s="2">
+        <v>45404</v>
+      </c>
+      <c r="S88" t="s">
+        <v>154</v>
+      </c>
+      <c r="T88" t="s">
+        <v>340</v>
+      </c>
+      <c r="U88" t="s">
+        <v>345</v>
+      </c>
+      <c r="V88" t="s">
+        <v>346</v>
+      </c>
+      <c r="W88" t="s">
+        <v>14</v>
+      </c>
+      <c r="X88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
+      <c r="A89" t="s">
+        <v>334</v>
+      </c>
+      <c r="B89" t="s">
+        <v>361</v>
+      </c>
+      <c r="C89" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45401</v>
+      </c>
+      <c r="E89" t="s">
+        <v>356</v>
+      </c>
+      <c r="F89" t="s">
+        <v>357</v>
+      </c>
+      <c r="G89" s="3">
+        <v>6</v>
+      </c>
+      <c r="H89" s="3">
+        <v>6</v>
+      </c>
+      <c r="I89" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>339</v>
+      </c>
+      <c r="K89" t="s">
+        <v>340</v>
+      </c>
+      <c r="L89" t="s">
+        <v>364</v>
+      </c>
+      <c r="M89" t="s">
+        <v>342</v>
+      </c>
+      <c r="N89" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" t="s">
+        <v>365</v>
+      </c>
+      <c r="P89" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>45401</v>
+      </c>
+      <c r="R89" s="2">
+        <v>45404</v>
+      </c>
+      <c r="S89" t="s">
+        <v>154</v>
+      </c>
+      <c r="T89" t="s">
+        <v>340</v>
+      </c>
+      <c r="U89" t="s">
+        <v>345</v>
+      </c>
+      <c r="V89" t="s">
+        <v>346</v>
+      </c>
+      <c r="W89" t="s">
+        <v>14</v>
+      </c>
+      <c r="X89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
+      <c r="A90" t="s">
+        <v>334</v>
+      </c>
+      <c r="B90" t="s">
+        <v>372</v>
+      </c>
+      <c r="C90" t="s">
+        <v>373</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E90" t="s">
+        <v>356</v>
+      </c>
+      <c r="F90" t="s">
+        <v>357</v>
+      </c>
+      <c r="G90" s="3">
+        <v>6</v>
+      </c>
+      <c r="H90" s="3">
+        <v>6</v>
+      </c>
+      <c r="I90" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" t="s">
+        <v>339</v>
+      </c>
+      <c r="K90" t="s">
+        <v>340</v>
+      </c>
+      <c r="L90" t="s">
+        <v>374</v>
+      </c>
+      <c r="M90" t="s">
+        <v>342</v>
+      </c>
+      <c r="N90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O90" t="s">
+        <v>375</v>
+      </c>
+      <c r="P90" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R90" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S90" t="s">
+        <v>154</v>
+      </c>
+      <c r="T90" t="s">
+        <v>340</v>
+      </c>
+      <c r="U90" t="s">
+        <v>345</v>
+      </c>
+      <c r="V90" t="s">
+        <v>346</v>
+      </c>
+      <c r="W90" t="s">
+        <v>14</v>
+      </c>
+      <c r="X90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
+      <c r="A91" t="s">
+        <v>334</v>
+      </c>
+      <c r="B91" t="s">
+        <v>376</v>
+      </c>
+      <c r="C91" t="s">
+        <v>377</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E91" t="s">
+        <v>356</v>
+      </c>
+      <c r="F91" t="s">
+        <v>357</v>
+      </c>
+      <c r="G91" s="3">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3">
+        <v>10</v>
+      </c>
+      <c r="I91" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" t="s">
+        <v>339</v>
+      </c>
+      <c r="K91" t="s">
+        <v>340</v>
+      </c>
+      <c r="L91" t="s">
+        <v>378</v>
+      </c>
+      <c r="M91" t="s">
+        <v>342</v>
+      </c>
+      <c r="N91" t="s">
+        <v>10</v>
+      </c>
+      <c r="O91" t="s">
+        <v>379</v>
+      </c>
+      <c r="P91" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R91" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S91" t="s">
+        <v>154</v>
+      </c>
+      <c r="T91" t="s">
+        <v>340</v>
+      </c>
+      <c r="U91" t="s">
+        <v>345</v>
+      </c>
+      <c r="V91" t="s">
+        <v>346</v>
+      </c>
+      <c r="W91" t="s">
+        <v>14</v>
+      </c>
+      <c r="X91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
+      <c r="A92" t="s">
+        <v>334</v>
+      </c>
+      <c r="B92" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" t="s">
+        <v>381</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E92" t="s">
+        <v>382</v>
+      </c>
+      <c r="F92" t="s">
+        <v>383</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>5</v>
+      </c>
+      <c r="J92" t="s">
+        <v>339</v>
+      </c>
+      <c r="K92" t="s">
+        <v>340</v>
+      </c>
+      <c r="L92" t="s">
+        <v>384</v>
+      </c>
+      <c r="M92" t="s">
+        <v>342</v>
+      </c>
+      <c r="N92" t="s">
+        <v>10</v>
+      </c>
+      <c r="O92" t="s">
+        <v>385</v>
+      </c>
+      <c r="P92" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R92" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S92" t="s">
+        <v>154</v>
+      </c>
+      <c r="T92" t="s">
+        <v>340</v>
+      </c>
+      <c r="U92" t="s">
+        <v>345</v>
+      </c>
+      <c r="V92" t="s">
+        <v>346</v>
+      </c>
+      <c r="W92" t="s">
+        <v>14</v>
+      </c>
+      <c r="X92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
+      <c r="A93" t="s">
+        <v>334</v>
+      </c>
+      <c r="B93" t="s">
+        <v>386</v>
+      </c>
+      <c r="C93" t="s">
+        <v>387</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E93" t="s">
+        <v>356</v>
+      </c>
+      <c r="F93" t="s">
+        <v>357</v>
+      </c>
+      <c r="G93" s="3">
+        <v>7</v>
+      </c>
+      <c r="H93" s="3">
+        <v>7</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93" t="s">
+        <v>339</v>
+      </c>
+      <c r="K93" t="s">
+        <v>340</v>
+      </c>
+      <c r="L93" t="s">
+        <v>388</v>
+      </c>
+      <c r="M93" t="s">
+        <v>342</v>
+      </c>
+      <c r="N93" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93" t="s">
+        <v>389</v>
+      </c>
+      <c r="P93" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R93" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S93" t="s">
+        <v>154</v>
+      </c>
+      <c r="T93" t="s">
+        <v>340</v>
+      </c>
+      <c r="U93" t="s">
+        <v>345</v>
+      </c>
+      <c r="V93" t="s">
+        <v>346</v>
+      </c>
+      <c r="W93" t="s">
+        <v>14</v>
+      </c>
+      <c r="X93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
+      <c r="A94" t="s">
+        <v>334</v>
+      </c>
+      <c r="B94" t="s">
+        <v>390</v>
+      </c>
+      <c r="C94" t="s">
+        <v>387</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E94" t="s">
+        <v>75</v>
+      </c>
+      <c r="F94" t="s">
+        <v>76</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" t="s">
+        <v>339</v>
+      </c>
+      <c r="K94" t="s">
+        <v>340</v>
+      </c>
+      <c r="L94" t="s">
+        <v>388</v>
+      </c>
+      <c r="M94" t="s">
+        <v>342</v>
+      </c>
+      <c r="N94" t="s">
+        <v>10</v>
+      </c>
+      <c r="O94" t="s">
+        <v>391</v>
+      </c>
+      <c r="P94" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R94" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S94" t="s">
+        <v>154</v>
+      </c>
+      <c r="T94" t="s">
+        <v>340</v>
+      </c>
+      <c r="U94" t="s">
+        <v>345</v>
+      </c>
+      <c r="V94" t="s">
+        <v>346</v>
+      </c>
+      <c r="W94" t="s">
+        <v>14</v>
+      </c>
+      <c r="X94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
+      <c r="A95" t="s">
+        <v>334</v>
+      </c>
+      <c r="B95" t="s">
+        <v>390</v>
+      </c>
+      <c r="C95" t="s">
+        <v>387</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E95" t="s">
+        <v>392</v>
+      </c>
+      <c r="F95" t="s">
+        <v>393</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95" t="s">
+        <v>339</v>
+      </c>
+      <c r="K95" t="s">
+        <v>340</v>
+      </c>
+      <c r="L95" t="s">
+        <v>388</v>
+      </c>
+      <c r="M95" t="s">
+        <v>342</v>
+      </c>
+      <c r="N95" t="s">
+        <v>10</v>
+      </c>
+      <c r="O95" t="s">
+        <v>391</v>
+      </c>
+      <c r="P95" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R95" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S95" t="s">
+        <v>154</v>
+      </c>
+      <c r="T95" t="s">
+        <v>340</v>
+      </c>
+      <c r="U95" t="s">
+        <v>345</v>
+      </c>
+      <c r="V95" t="s">
+        <v>346</v>
+      </c>
+      <c r="W95" t="s">
+        <v>14</v>
+      </c>
+      <c r="X95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
+      <c r="A96" t="s">
+        <v>334</v>
+      </c>
+      <c r="B96" t="s">
+        <v>394</v>
+      </c>
+      <c r="C96" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E96" t="s">
+        <v>356</v>
+      </c>
+      <c r="F96" t="s">
+        <v>357</v>
+      </c>
+      <c r="G96" s="3">
+        <v>2</v>
+      </c>
+      <c r="H96" s="3">
+        <v>2</v>
+      </c>
+      <c r="I96" t="s">
+        <v>5</v>
+      </c>
+      <c r="J96" t="s">
+        <v>339</v>
+      </c>
+      <c r="K96" t="s">
+        <v>340</v>
+      </c>
+      <c r="L96" t="s">
+        <v>384</v>
+      </c>
+      <c r="M96" t="s">
+        <v>342</v>
+      </c>
+      <c r="N96" t="s">
+        <v>10</v>
+      </c>
+      <c r="O96" t="s">
+        <v>395</v>
+      </c>
+      <c r="P96" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R96" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S96" t="s">
+        <v>154</v>
+      </c>
+      <c r="T96" t="s">
+        <v>340</v>
+      </c>
+      <c r="U96" t="s">
+        <v>345</v>
+      </c>
+      <c r="V96" t="s">
+        <v>346</v>
+      </c>
+      <c r="W96" t="s">
+        <v>14</v>
+      </c>
+      <c r="X96" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="243">
   <si>
     <t>P891</t>
   </si>
@@ -121,10 +121,115 @@
     <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
   </si>
   <si>
-    <t>133778945</t>
-  </si>
-  <si>
-    <t>QSCAN RADIOLOGY CLINIC-REDCLIFFE</t>
+    <t>133788555</t>
+  </si>
+  <si>
+    <t>JONES RADIOLOGY - KURRALTA PARK</t>
+  </si>
+  <si>
+    <t>86594226</t>
+  </si>
+  <si>
+    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595363</t>
+  </si>
+  <si>
+    <t>KURRALTA PARK</t>
+  </si>
+  <si>
+    <t>717063521</t>
+  </si>
+  <si>
+    <t>86566621</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
+  </si>
+  <si>
+    <t>86617501</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,PAS,60",MC,WLD</t>
+  </si>
+  <si>
+    <t>60937964</t>
+  </si>
+  <si>
+    <t>LABEL,PRINTER,THERMAL,PSA,INTEGO</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>133798742</t>
+  </si>
+  <si>
+    <t>ST JOHN OF GOD HEALTH CARE</t>
+  </si>
+  <si>
+    <t>80727543</t>
+  </si>
+  <si>
+    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
+  </si>
+  <si>
+    <t>3018198</t>
+  </si>
+  <si>
+    <t>WENDOUREE VILLAGE</t>
+  </si>
+  <si>
+    <t>717069811</t>
+  </si>
+  <si>
+    <t>020050</t>
+  </si>
+  <si>
+    <t>133802469</t>
+  </si>
+  <si>
+    <t>WAURN PONDS DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>03250768</t>
+  </si>
+  <si>
+    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>2020724</t>
+  </si>
+  <si>
+    <t>HIGHTON</t>
+  </si>
+  <si>
+    <t>717069428</t>
+  </si>
+  <si>
+    <t>010050</t>
+  </si>
+  <si>
+    <t>133805269</t>
+  </si>
+  <si>
+    <t>QSCAN RADIOLOGY CLINIC - TOOWONG</t>
+  </si>
+  <si>
+    <t>80802544</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>3320238</t>
+  </si>
+  <si>
+    <t>TOOWONG</t>
+  </si>
+  <si>
+    <t>717067377</t>
   </si>
   <si>
     <t>02112548</t>
@@ -133,73 +238,259 @@
     <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
   </si>
   <si>
-    <t>3579612</t>
-  </si>
-  <si>
-    <t>REDCLIFFE</t>
-  </si>
-  <si>
-    <t>717061787</t>
-  </si>
-  <si>
-    <t>010050</t>
-  </si>
-  <si>
-    <t>4596133</t>
-  </si>
-  <si>
-    <t>QSCAN SERVICES PTY LTD</t>
+    <t>87621529</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133786713</t>
+  </si>
+  <si>
+    <t>ROYAL PRINCE ALFRED HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595846</t>
+  </si>
+  <si>
+    <t>CAMPERDOWN</t>
+  </si>
+  <si>
+    <t>717066699</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>4595817</t>
+  </si>
+  <si>
+    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
+  </si>
+  <si>
+    <t>PARRAMATTA</t>
+  </si>
+  <si>
+    <t>133786714</t>
+  </si>
+  <si>
+    <t>AUBURN HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596110</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
+  </si>
+  <si>
+    <t>717066995</t>
+  </si>
+  <si>
+    <t>4596108</t>
+  </si>
+  <si>
+    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
+  </si>
+  <si>
+    <t>133786715</t>
+  </si>
+  <si>
+    <t>4595813</t>
+  </si>
+  <si>
+    <t>717068742</t>
+  </si>
+  <si>
+    <t>133786716</t>
+  </si>
+  <si>
+    <t>NORTHEAST HEALTH WANGARATTA</t>
+  </si>
+  <si>
+    <t>4595865</t>
+  </si>
+  <si>
+    <t>WANGARATTA</t>
+  </si>
+  <si>
+    <t>717070710</t>
+  </si>
+  <si>
+    <t>4595866</t>
+  </si>
+  <si>
+    <t>133800647</t>
+  </si>
+  <si>
+    <t>GOSFORD HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595426</t>
+  </si>
+  <si>
+    <t>GOSFORD</t>
+  </si>
+  <si>
+    <t>717070560</t>
+  </si>
+  <si>
+    <t>4595430</t>
+  </si>
+  <si>
+    <t>CENTRAL COAST LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>HUNTER REGION MAIL CENTRE</t>
+  </si>
+  <si>
+    <t>133802065</t>
+  </si>
+  <si>
+    <t>CAMPBELLTOWN HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596093</t>
+  </si>
+  <si>
+    <t>CAMPBELLTOWN</t>
+  </si>
+  <si>
+    <t>717066697</t>
+  </si>
+  <si>
+    <t>4596097</t>
+  </si>
+  <si>
+    <t>SOUTH WESTERN SYDNEY LOCAL HEALTH D</t>
+  </si>
+  <si>
+    <t>133802385</t>
+  </si>
+  <si>
+    <t>AUSTIN HEALTH  - VERNON AVE</t>
+  </si>
+  <si>
+    <t>4595496</t>
+  </si>
+  <si>
+    <t>HEIDELBERG WEST</t>
+  </si>
+  <si>
+    <t>717068897</t>
+  </si>
+  <si>
+    <t>4595508</t>
+  </si>
+  <si>
+    <t>AUSTIN HEALTH - FINANCE DEPT</t>
+  </si>
+  <si>
+    <t>HEIDELBERG</t>
+  </si>
+  <si>
+    <t>133802386</t>
+  </si>
+  <si>
+    <t>QUEENSLAND DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>87238504</t>
+  </si>
+  <si>
+    <t>TUBE,EXT,SINGLE,WLD1</t>
+  </si>
+  <si>
+    <t>4595637</t>
+  </si>
+  <si>
+    <t>BRISBANE</t>
+  </si>
+  <si>
+    <t>717069166</t>
+  </si>
+  <si>
+    <t>4595468</t>
+  </si>
+  <si>
+    <t>QLD DIAGNOSTIC IMAGING PTY LTD</t>
+  </si>
+  <si>
+    <t>ST LEONARDS</t>
+  </si>
+  <si>
+    <t>133802387</t>
+  </si>
+  <si>
+    <t>ST VINCENTS HOSPITAL SYDNEY</t>
+  </si>
+  <si>
+    <t>86698242</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595515</t>
+  </si>
+  <si>
+    <t>DARLINGHURST</t>
+  </si>
+  <si>
+    <t>717069842</t>
+  </si>
+  <si>
+    <t>4595511</t>
+  </si>
+  <si>
+    <t>ST VINCENT'S HOSPITAL SYDNEY LTD</t>
+  </si>
+  <si>
+    <t>133805270</t>
+  </si>
+  <si>
+    <t>QSCAN KINGSTON</t>
+  </si>
+  <si>
+    <t>4595740</t>
+  </si>
+  <si>
+    <t>KINGSTON</t>
+  </si>
+  <si>
+    <t>717069426</t>
+  </si>
+  <si>
+    <t>4595747</t>
+  </si>
+  <si>
+    <t>UNIVERSAL MEDICAL IMAGING</t>
   </si>
   <si>
     <t>CLAYFIELD</t>
   </si>
   <si>
-    <t>80802544</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>85575279</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU VIAL 3X2ML AU-NZ</t>
-  </si>
-  <si>
-    <t>87621529</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133798858</t>
-  </si>
-  <si>
-    <t>SPECTRUM MEDICAL IMAGING</t>
-  </si>
-  <si>
-    <t>03250768</t>
-  </si>
-  <si>
-    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>1006326</t>
-  </si>
-  <si>
-    <t>RANDWICK</t>
-  </si>
-  <si>
-    <t>717053236</t>
-  </si>
-  <si>
-    <t>3397516</t>
-  </si>
-  <si>
-    <t>SPECTRUM MEDICAL IMAGING SERVICES</t>
-  </si>
-  <si>
-    <t>LIVERPOOL</t>
+    <t>133805348</t>
+  </si>
+  <si>
+    <t>i-MED RADIOLOGY - CASEY</t>
+  </si>
+  <si>
+    <t>86610280</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,STELLANT MP,MIC,MC,EU</t>
+  </si>
+  <si>
+    <t>4595719</t>
+  </si>
+  <si>
+    <t>BERWICK</t>
+  </si>
+  <si>
+    <t>717069429</t>
+  </si>
+  <si>
+    <t>133805351</t>
   </si>
   <si>
     <t>02112555</t>
@@ -208,471 +499,6 @@
     <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
   </si>
   <si>
-    <t>133757661</t>
-  </si>
-  <si>
-    <t>CALVARY ADELAIDE HOSPITAL</t>
-  </si>
-  <si>
-    <t>80727543</t>
-  </si>
-  <si>
-    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
-  </si>
-  <si>
-    <t>3018240</t>
-  </si>
-  <si>
-    <t>ADELAIDE</t>
-  </si>
-  <si>
-    <t>717009801</t>
-  </si>
-  <si>
-    <t>020050</t>
-  </si>
-  <si>
-    <t>133788555</t>
-  </si>
-  <si>
-    <t>JONES RADIOLOGY - KURRALTA PARK</t>
-  </si>
-  <si>
-    <t>86594226</t>
-  </si>
-  <si>
-    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595363</t>
-  </si>
-  <si>
-    <t>KURRALTA PARK</t>
-  </si>
-  <si>
-    <t>717063521</t>
-  </si>
-  <si>
-    <t>86566621</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
-  </si>
-  <si>
-    <t>86617501</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,PAS,60",MC,WLD</t>
-  </si>
-  <si>
-    <t>60937964</t>
-  </si>
-  <si>
-    <t>LABEL,PRINTER,THERMAL,PSA,INTEGO</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>133798742</t>
-  </si>
-  <si>
-    <t>ST JOHN OF GOD HEALTH CARE</t>
-  </si>
-  <si>
-    <t>3018198</t>
-  </si>
-  <si>
-    <t>WENDOUREE VILLAGE</t>
-  </si>
-  <si>
-    <t>717069811</t>
-  </si>
-  <si>
-    <t>133799685</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING - ORANGE</t>
-  </si>
-  <si>
-    <t>82212737</t>
-  </si>
-  <si>
-    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
-  </si>
-  <si>
-    <t>3510474</t>
-  </si>
-  <si>
-    <t>ORANGE</t>
-  </si>
-  <si>
-    <t>717063691</t>
-  </si>
-  <si>
-    <t>4595823</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>GOSFORD</t>
-  </si>
-  <si>
-    <t>133800645</t>
-  </si>
-  <si>
-    <t>PORTLAND DISTRICT HEALTH</t>
-  </si>
-  <si>
-    <t>87078752</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,D,SPK,FLS3,150ML,WLD</t>
-  </si>
-  <si>
-    <t>3018960</t>
-  </si>
-  <si>
-    <t>PORTLAND</t>
-  </si>
-  <si>
-    <t>717065224</t>
-  </si>
-  <si>
-    <t>4595960</t>
-  </si>
-  <si>
-    <t>SOUTH WEST HEALTHCARE</t>
-  </si>
-  <si>
-    <t>WARRNAMBOOL</t>
-  </si>
-  <si>
-    <t>133801731</t>
-  </si>
-  <si>
-    <t>GARRAN MEDICAL IMAGING</t>
-  </si>
-  <si>
-    <t>2122526</t>
-  </si>
-  <si>
-    <t>GARRAN</t>
-  </si>
-  <si>
-    <t>717068408</t>
-  </si>
-  <si>
-    <t>133802469</t>
-  </si>
-  <si>
-    <t>WAURN PONDS DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>2020724</t>
-  </si>
-  <si>
-    <t>HIGHTON</t>
-  </si>
-  <si>
-    <t>717069428</t>
-  </si>
-  <si>
-    <t>133805269</t>
-  </si>
-  <si>
-    <t>QSCAN RADIOLOGY CLINIC - TOOWONG</t>
-  </si>
-  <si>
-    <t>3320238</t>
-  </si>
-  <si>
-    <t>TOOWONG</t>
-  </si>
-  <si>
-    <t>717067377</t>
-  </si>
-  <si>
-    <t>133757662</t>
-  </si>
-  <si>
-    <t>DUBBO BASE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596045</t>
-  </si>
-  <si>
-    <t>DUBBO</t>
-  </si>
-  <si>
-    <t>717056799</t>
-  </si>
-  <si>
-    <t>4596048</t>
-  </si>
-  <si>
-    <t>WESTERN NSW LOCAL HEALTH DISTRICT O</t>
-  </si>
-  <si>
-    <t>PARRAMATTA</t>
-  </si>
-  <si>
-    <t>133757666</t>
-  </si>
-  <si>
-    <t>ROYAL PRINCE ALFRED HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595813</t>
-  </si>
-  <si>
-    <t>CAMPERDOWN</t>
-  </si>
-  <si>
-    <t>717068503</t>
-  </si>
-  <si>
-    <t>010130</t>
-  </si>
-  <si>
-    <t>4595817</t>
-  </si>
-  <si>
-    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
-  </si>
-  <si>
-    <t>133798739</t>
-  </si>
-  <si>
-    <t>ROYAL ADELAIDE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4676781</t>
-  </si>
-  <si>
-    <t>717063138</t>
-  </si>
-  <si>
-    <t>4595446</t>
-  </si>
-  <si>
-    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>133800647</t>
-  </si>
-  <si>
-    <t>GOSFORD HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595426</t>
-  </si>
-  <si>
-    <t>717070560</t>
-  </si>
-  <si>
-    <t>4595430</t>
-  </si>
-  <si>
-    <t>CENTRAL COAST LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>HUNTER REGION MAIL CENTRE</t>
-  </si>
-  <si>
-    <t>133802065</t>
-  </si>
-  <si>
-    <t>CAMPBELLTOWN HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596093</t>
-  </si>
-  <si>
-    <t>CAMPBELLTOWN</t>
-  </si>
-  <si>
-    <t>717066697</t>
-  </si>
-  <si>
-    <t>4596097</t>
-  </si>
-  <si>
-    <t>SOUTH WESTERN SYDNEY LOCAL HEALTH D</t>
-  </si>
-  <si>
-    <t>133802067</t>
-  </si>
-  <si>
-    <t>717069427</t>
-  </si>
-  <si>
-    <t>86698188</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>86698242</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>133802385</t>
-  </si>
-  <si>
-    <t>AUSTIN HEALTH  - VERNON AVE</t>
-  </si>
-  <si>
-    <t>4595496</t>
-  </si>
-  <si>
-    <t>HEIDELBERG WEST</t>
-  </si>
-  <si>
-    <t>717068897</t>
-  </si>
-  <si>
-    <t>4595508</t>
-  </si>
-  <si>
-    <t>AUSTIN HEALTH - FINANCE DEPT</t>
-  </si>
-  <si>
-    <t>HEIDELBERG</t>
-  </si>
-  <si>
-    <t>133802386</t>
-  </si>
-  <si>
-    <t>QUEENSLAND DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>87238504</t>
-  </si>
-  <si>
-    <t>TUBE,EXT,SINGLE,WLD1</t>
-  </si>
-  <si>
-    <t>4595637</t>
-  </si>
-  <si>
-    <t>BRISBANE</t>
-  </si>
-  <si>
-    <t>717069166</t>
-  </si>
-  <si>
-    <t>4595468</t>
-  </si>
-  <si>
-    <t>QLD DIAGNOSTIC IMAGING PTY LTD</t>
-  </si>
-  <si>
-    <t>ST LEONARDS</t>
-  </si>
-  <si>
-    <t>133802387</t>
-  </si>
-  <si>
-    <t>ST VINCENTS HOSPITAL SYDNEY</t>
-  </si>
-  <si>
-    <t>4595515</t>
-  </si>
-  <si>
-    <t>DARLINGHURST</t>
-  </si>
-  <si>
-    <t>717069842</t>
-  </si>
-  <si>
-    <t>4595511</t>
-  </si>
-  <si>
-    <t>ST VINCENT'S HOSPITAL SYDNEY LTD</t>
-  </si>
-  <si>
-    <t>133805270</t>
-  </si>
-  <si>
-    <t>QSCAN KINGSTON</t>
-  </si>
-  <si>
-    <t>4595740</t>
-  </si>
-  <si>
-    <t>KINGSTON</t>
-  </si>
-  <si>
-    <t>717069426</t>
-  </si>
-  <si>
-    <t>4595747</t>
-  </si>
-  <si>
-    <t>UNIVERSAL MEDICAL IMAGING</t>
-  </si>
-  <si>
-    <t>133805348</t>
-  </si>
-  <si>
-    <t>i-MED RADIOLOGY - CASEY</t>
-  </si>
-  <si>
-    <t>86610280</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,STELLANT MP,MIC,MC,EU</t>
-  </si>
-  <si>
-    <t>4595719</t>
-  </si>
-  <si>
-    <t>BERWICK</t>
-  </si>
-  <si>
-    <t>717069429</t>
-  </si>
-  <si>
-    <t>133805350</t>
-  </si>
-  <si>
-    <t>THE TOWNSVILLE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595417</t>
-  </si>
-  <si>
-    <t>DOUGLAS</t>
-  </si>
-  <si>
-    <t>717069975</t>
-  </si>
-  <si>
-    <t>030130</t>
-  </si>
-  <si>
-    <t>4595414</t>
-  </si>
-  <si>
-    <t>TOWNSVILLE HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>TOWNSVILLE</t>
-  </si>
-  <si>
-    <t>86645564</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,LPCT,STELLANT,MC,WLD</t>
-  </si>
-  <si>
-    <t>133805351</t>
-  </si>
-  <si>
     <t>717070393</t>
   </si>
   <si>
@@ -682,42 +508,30 @@
     <t>717070551</t>
   </si>
   <si>
-    <t>133805353</t>
-  </si>
-  <si>
-    <t>GOLD COAST UNIVERSITY HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595660</t>
+    <t>133805508</t>
+  </si>
+  <si>
+    <t>CONS ROBINA HOSPITAL OAO-0G0-652</t>
+  </si>
+  <si>
+    <t>971721</t>
+  </si>
+  <si>
+    <t>ROBINA</t>
+  </si>
+  <si>
+    <t>717070451</t>
+  </si>
+  <si>
+    <t>4595661</t>
+  </si>
+  <si>
+    <t>GOLD COAST HOSPITAL &amp; HEALTH</t>
   </si>
   <si>
     <t>SOUTHPORT</t>
   </si>
   <si>
-    <t>717070650</t>
-  </si>
-  <si>
-    <t>4595661</t>
-  </si>
-  <si>
-    <t>GOLD COAST HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>133805508</t>
-  </si>
-  <si>
-    <t>CONS ROBINA HOSPITAL OAO-0G0-652</t>
-  </si>
-  <si>
-    <t>971721</t>
-  </si>
-  <si>
-    <t>ROBINA</t>
-  </si>
-  <si>
-    <t>717070451</t>
-  </si>
-  <si>
     <t>133679913</t>
   </si>
   <si>
@@ -842,6 +656,18 @@
   </si>
   <si>
     <t>2172549316</t>
+  </si>
+  <si>
+    <t>133805528</t>
+  </si>
+  <si>
+    <t>85166972</t>
+  </si>
+  <si>
+    <t>ASSY,PCB,CPU/SERVO,DAX,PHOENIX,ROHS,TL</t>
+  </si>
+  <si>
+    <t>2172546379</t>
   </si>
   <si>
     <t>Shipping Point/Receiving Pt</t>
@@ -1018,7 +844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,76 +880,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1433,7 +1259,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -1442,10 +1268,10 @@
         <v>39</v>
       </c>
       <c r="G6" s="3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1472,22 +1298,22 @@
         <v>30</v>
       </c>
       <c r="Q6" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R6" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W6" t="s">
         <v>14</v>
@@ -1507,19 +1333,19 @@
         <v>37</v>
       </c>
       <c r="D7" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -1546,22 +1372,22 @@
         <v>30</v>
       </c>
       <c r="Q7" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R7" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="V7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W7" t="s">
         <v>14</v>
@@ -1581,19 +1407,19 @@
         <v>37</v>
       </c>
       <c r="D8" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H8" s="3">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -1620,22 +1446,22 @@
         <v>30</v>
       </c>
       <c r="Q8" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R8" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s">
         <v>14</v>
@@ -1655,22 +1481,22 @@
         <v>37</v>
       </c>
       <c r="D9" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G9" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
@@ -1694,22 +1520,22 @@
         <v>30</v>
       </c>
       <c r="Q9" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R9" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S9" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="V9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s">
         <v>14</v>
@@ -1723,25 +1549,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="G10" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H10" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -1750,10 +1576,10 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -1762,28 +1588,28 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
         <v>30</v>
       </c>
       <c r="Q10" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R10" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S10" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s">
         <v>14</v>
@@ -1797,25 +1623,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45405</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45404</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
       <c r="G11" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -1824,10 +1650,10 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -1836,28 +1662,28 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P11" t="s">
         <v>30</v>
       </c>
       <c r="Q11" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R11" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="S11" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="V11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="W11" t="s">
         <v>14</v>
@@ -1871,25 +1697,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -1898,10 +1724,10 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -1910,28 +1736,28 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s">
         <v>30</v>
       </c>
       <c r="Q12" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="R12" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="S12" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="T12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W12" t="s">
         <v>14</v>
@@ -1945,25 +1771,25 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2">
         <v>45405</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -1972,10 +1798,10 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -1984,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" t="s">
         <v>30</v>
@@ -1993,19 +1819,19 @@
         <v>45405</v>
       </c>
       <c r="R13" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="S13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="T13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W13" t="s">
         <v>14</v>
@@ -2019,25 +1845,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2">
         <v>45405</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H14" s="3">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2046,10 +1872,10 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -2058,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s">
         <v>30</v>
@@ -2067,19 +1893,19 @@
         <v>45405</v>
       </c>
       <c r="R14" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="S14" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="T14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="U14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="V14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="W14" t="s">
         <v>14</v>
@@ -2093,25 +1919,25 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2">
         <v>45405</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H15" s="3">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2120,10 +1946,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -2132,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s">
         <v>30</v>
@@ -2141,19 +1967,19 @@
         <v>45405</v>
       </c>
       <c r="R15" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="S15" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="T15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="U15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="V15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -2167,25 +1993,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2194,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2206,28 +2032,28 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P16" t="s">
         <v>30</v>
       </c>
       <c r="Q16" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R16" s="2">
         <v>45408</v>
       </c>
       <c r="S16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="V16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2241,37 +2067,37 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2280,28 +2106,28 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="P17" t="s">
         <v>30</v>
       </c>
       <c r="Q17" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R17" s="2">
         <v>45408</v>
       </c>
       <c r="S17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="U17" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="V17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2315,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -2330,10 +2156,10 @@
         <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2342,10 +2168,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2354,28 +2180,28 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P18" t="s">
         <v>30</v>
       </c>
       <c r="Q18" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R18" s="2">
         <v>45408</v>
       </c>
       <c r="S18" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="V18" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2389,25 +2215,25 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G19" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2416,10 +2242,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2428,28 +2254,28 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P19" t="s">
         <v>30</v>
       </c>
       <c r="Q19" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R19" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S19" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="T19" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="U19" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="V19" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2463,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2490,10 +2316,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2502,28 +2328,28 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P20" t="s">
         <v>30</v>
       </c>
       <c r="Q20" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R20" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S20" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="T20" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="U20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="V20" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2537,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
@@ -2552,10 +2378,10 @@
         <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2564,10 +2390,10 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="L21" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -2576,28 +2402,28 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="P21" t="s">
         <v>30</v>
       </c>
       <c r="Q21" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R21" s="2">
         <v>45408</v>
       </c>
       <c r="S21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="U21" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="V21" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2611,25 +2437,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D22" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H22" s="3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2638,10 +2464,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="L22" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2650,28 +2476,28 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="P22" t="s">
         <v>30</v>
       </c>
       <c r="Q22" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R22" s="2">
         <v>45408</v>
       </c>
       <c r="S22" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="U22" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="V22" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2685,25 +2511,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D23" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="G23" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -2712,10 +2538,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="L23" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -2724,28 +2550,28 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="P23" t="s">
         <v>30</v>
       </c>
       <c r="Q23" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R23" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S23" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="T23" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="U23" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="V23" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2759,25 +2585,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D24" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="G24" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H24" s="3">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -2786,10 +2612,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="L24" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -2798,28 +2624,28 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="P24" t="s">
         <v>30</v>
       </c>
       <c r="Q24" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R24" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S24" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="U24" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="V24" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -2833,25 +2659,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="D25" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H25" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -2860,10 +2686,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -2872,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="P25" t="s">
         <v>30</v>
       </c>
       <c r="Q25" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R25" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S25" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="T25" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="U25" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="V25" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -2907,25 +2733,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G26" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H26" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -2934,10 +2760,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="L26" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -2946,28 +2772,28 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="P26" t="s">
         <v>30</v>
       </c>
       <c r="Q26" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R26" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S26" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="T26" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="U26" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="V26" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -2981,25 +2807,25 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="D27" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="G27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3008,10 +2834,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="L27" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -3020,28 +2846,28 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="P27" t="s">
         <v>30</v>
       </c>
       <c r="Q27" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R27" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="S27" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T27" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="U27" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="V27" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -3055,25 +2881,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D28" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="G28" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H28" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3082,10 +2908,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -3094,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="P28" t="s">
         <v>30</v>
       </c>
       <c r="Q28" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R28" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S28" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="T28" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="U28" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="V28" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -3129,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D29" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G29" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3156,10 +2982,10 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="L29" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -3168,28 +2994,28 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="P29" t="s">
         <v>30</v>
       </c>
       <c r="Q29" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R29" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S29" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="T29" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="U29" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="V29" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3203,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D30" s="2">
         <v>45406</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="G30" s="3">
         <v>10</v>
@@ -3230,10 +3056,10 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3242,7 +3068,7 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="P30" t="s">
         <v>30</v>
@@ -3251,19 +3077,19 @@
         <v>45406</v>
       </c>
       <c r="R30" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S30" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="T30" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="U30" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="V30" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3277,19 +3103,19 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D31" s="2">
         <v>45406</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G31" s="3">
         <v>5</v>
@@ -3304,10 +3130,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3316,7 +3142,7 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="P31" t="s">
         <v>30</v>
@@ -3325,19 +3151,19 @@
         <v>45406</v>
       </c>
       <c r="R31" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S31" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="T31" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="U31" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="V31" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3351,25 +3177,25 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="D32" s="2">
-        <v>45406</v>
+        <v>45413</v>
       </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G32" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H32" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3378,10 +3204,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3390,28 +3216,28 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="P32" t="s">
         <v>30</v>
       </c>
       <c r="Q32" s="2">
-        <v>45406</v>
+        <v>45413</v>
       </c>
       <c r="R32" s="2">
-        <v>45408</v>
+        <v>45414</v>
       </c>
       <c r="S32" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T32" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="U32" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="V32" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3425,25 +3251,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="D33" s="2">
-        <v>45406</v>
+        <v>45413</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G33" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3452,10 +3278,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3464,28 +3290,28 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="P33" t="s">
         <v>30</v>
       </c>
       <c r="Q33" s="2">
-        <v>45406</v>
+        <v>45413</v>
       </c>
       <c r="R33" s="2">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="S33" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="T33" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="U33" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="V33" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3499,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="D34" s="2">
-        <v>45406</v>
+        <v>45413</v>
       </c>
       <c r="E34" t="s">
         <v>3</v>
@@ -3514,10 +3340,10 @@
         <v>4</v>
       </c>
       <c r="G34" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H34" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3526,10 +3352,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3538,28 +3364,28 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="P34" t="s">
         <v>30</v>
       </c>
       <c r="Q34" s="2">
-        <v>45406</v>
+        <v>45413</v>
       </c>
       <c r="R34" s="2">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="S34" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="T34" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="U34" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="V34" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3570,70 +3396,70 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="D35" s="2">
-        <v>45406</v>
+        <v>45308</v>
       </c>
       <c r="E35" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
       <c r="F35" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="G35" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H35" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="K35" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="M35" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="N35" t="s">
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="P35" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="2">
-        <v>45406</v>
+        <v>45308</v>
       </c>
       <c r="R35" s="2">
-        <v>45408</v>
+        <v>45309</v>
       </c>
       <c r="S35" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="T35" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="U35" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="V35" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3644,70 +3470,70 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="D36" s="2">
-        <v>45406</v>
+        <v>45308</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="G36" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H36" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="K36" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="M36" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="N36" t="s">
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="P36" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="2">
-        <v>45406</v>
+        <v>45308</v>
       </c>
       <c r="R36" s="2">
-        <v>45411</v>
+        <v>45309</v>
       </c>
       <c r="S36" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="T36" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="U36" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="V36" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -3718,70 +3544,70 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="D37" s="2">
-        <v>45406</v>
+        <v>45308</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="G37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="K37" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="M37" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="N37" t="s">
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="P37" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="2">
-        <v>45406</v>
+        <v>45308</v>
       </c>
       <c r="R37" s="2">
-        <v>45411</v>
+        <v>45309</v>
       </c>
       <c r="S37" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="T37" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="U37" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="V37" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -3792,70 +3618,70 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="D38" s="2">
         <v>45406</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="G38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
       </c>
       <c r="J38" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="K38" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="M38" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="N38" t="s">
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="P38" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="Q38" s="2">
         <v>45406</v>
       </c>
       <c r="R38" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S38" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="T38" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="U38" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="V38" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -3866,49 +3692,49 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="D39" s="2">
         <v>45406</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="G39" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H39" s="3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="K39" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="L39" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="M39" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="N39" t="s">
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="P39" t="s">
         <v>30</v>
@@ -3920,1501 +3746,21 @@
         <v>45408</v>
       </c>
       <c r="S39" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="T39" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="U39" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="V39" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
       </c>
       <c r="X39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E40" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" t="s">
-        <v>180</v>
-      </c>
-      <c r="G40" s="3">
-        <v>2</v>
-      </c>
-      <c r="H40" s="3">
-        <v>100</v>
-      </c>
-      <c r="I40" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" t="s">
-        <v>181</v>
-      </c>
-      <c r="L40" t="s">
-        <v>182</v>
-      </c>
-      <c r="M40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N40" t="s">
-        <v>10</v>
-      </c>
-      <c r="O40" t="s">
-        <v>183</v>
-      </c>
-      <c r="P40" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R40" s="2">
-        <v>45408</v>
-      </c>
-      <c r="S40" t="s">
-        <v>140</v>
-      </c>
-      <c r="T40" t="s">
-        <v>184</v>
-      </c>
-      <c r="U40" t="s">
-        <v>185</v>
-      </c>
-      <c r="V40" t="s">
-        <v>186</v>
-      </c>
-      <c r="W40" t="s">
-        <v>14</v>
-      </c>
-      <c r="X40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E41" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" t="s">
-        <v>168</v>
-      </c>
-      <c r="G41" s="3">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3">
-        <v>150</v>
-      </c>
-      <c r="I41" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" t="s">
-        <v>6</v>
-      </c>
-      <c r="K41" t="s">
-        <v>189</v>
-      </c>
-      <c r="L41" t="s">
-        <v>190</v>
-      </c>
-      <c r="M41" t="s">
-        <v>9</v>
-      </c>
-      <c r="N41" t="s">
-        <v>10</v>
-      </c>
-      <c r="O41" t="s">
-        <v>191</v>
-      </c>
-      <c r="P41" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R41" s="2">
-        <v>45408</v>
-      </c>
-      <c r="S41" t="s">
-        <v>140</v>
-      </c>
-      <c r="T41" t="s">
-        <v>192</v>
-      </c>
-      <c r="U41" t="s">
-        <v>193</v>
-      </c>
-      <c r="V41" t="s">
-        <v>190</v>
-      </c>
-      <c r="W41" t="s">
-        <v>14</v>
-      </c>
-      <c r="X41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>5</v>
-      </c>
-      <c r="I42" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" t="s">
-        <v>6</v>
-      </c>
-      <c r="K42" t="s">
-        <v>196</v>
-      </c>
-      <c r="L42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M42" t="s">
-        <v>9</v>
-      </c>
-      <c r="N42" t="s">
-        <v>10</v>
-      </c>
-      <c r="O42" t="s">
-        <v>198</v>
-      </c>
-      <c r="P42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R42" s="2">
-        <v>45408</v>
-      </c>
-      <c r="S42" t="s">
-        <v>140</v>
-      </c>
-      <c r="T42" t="s">
-        <v>199</v>
-      </c>
-      <c r="U42" t="s">
-        <v>200</v>
-      </c>
-      <c r="V42" t="s">
-        <v>46</v>
-      </c>
-      <c r="W42" t="s">
-        <v>14</v>
-      </c>
-      <c r="X42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="3">
-        <v>20</v>
-      </c>
-      <c r="H43" s="3">
-        <v>20</v>
-      </c>
-      <c r="I43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" t="s">
-        <v>196</v>
-      </c>
-      <c r="L43" t="s">
-        <v>197</v>
-      </c>
-      <c r="M43" t="s">
-        <v>9</v>
-      </c>
-      <c r="N43" t="s">
-        <v>10</v>
-      </c>
-      <c r="O43" t="s">
-        <v>198</v>
-      </c>
-      <c r="P43" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R43" s="2">
-        <v>45408</v>
-      </c>
-      <c r="S43" t="s">
-        <v>140</v>
-      </c>
-      <c r="T43" t="s">
-        <v>199</v>
-      </c>
-      <c r="U43" t="s">
-        <v>200</v>
-      </c>
-      <c r="V43" t="s">
-        <v>46</v>
-      </c>
-      <c r="W43" t="s">
-        <v>14</v>
-      </c>
-      <c r="X43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E44" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6</v>
-      </c>
-      <c r="H44" s="3">
-        <v>300</v>
-      </c>
-      <c r="I44" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" t="s">
-        <v>6</v>
-      </c>
-      <c r="K44" t="s">
-        <v>205</v>
-      </c>
-      <c r="L44" t="s">
-        <v>206</v>
-      </c>
-      <c r="M44" t="s">
-        <v>9</v>
-      </c>
-      <c r="N44" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" t="s">
-        <v>207</v>
-      </c>
-      <c r="P44" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R44" s="2">
-        <v>45411</v>
-      </c>
-      <c r="S44" t="s">
-        <v>13</v>
-      </c>
-      <c r="T44" t="s">
-        <v>205</v>
-      </c>
-      <c r="U44" t="s">
-        <v>202</v>
-      </c>
-      <c r="V44" t="s">
-        <v>206</v>
-      </c>
-      <c r="W44" t="s">
-        <v>14</v>
-      </c>
-      <c r="X44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>208</v>
-      </c>
-      <c r="C45" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3">
-        <v>20</v>
-      </c>
-      <c r="I45" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" t="s">
-        <v>210</v>
-      </c>
-      <c r="L45" t="s">
-        <v>211</v>
-      </c>
-      <c r="M45" t="s">
-        <v>9</v>
-      </c>
-      <c r="N45" t="s">
-        <v>10</v>
-      </c>
-      <c r="O45" t="s">
-        <v>212</v>
-      </c>
-      <c r="P45" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R45" s="2">
-        <v>45412</v>
-      </c>
-      <c r="S45" t="s">
-        <v>213</v>
-      </c>
-      <c r="T45" t="s">
-        <v>214</v>
-      </c>
-      <c r="U45" t="s">
-        <v>215</v>
-      </c>
-      <c r="V45" t="s">
-        <v>216</v>
-      </c>
-      <c r="W45" t="s">
-        <v>14</v>
-      </c>
-      <c r="X45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E46" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="3">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3">
-        <v>150</v>
-      </c>
-      <c r="I46" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" t="s">
-        <v>210</v>
-      </c>
-      <c r="L46" t="s">
-        <v>211</v>
-      </c>
-      <c r="M46" t="s">
-        <v>9</v>
-      </c>
-      <c r="N46" t="s">
-        <v>10</v>
-      </c>
-      <c r="O46" t="s">
-        <v>212</v>
-      </c>
-      <c r="P46" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R46" s="2">
-        <v>45412</v>
-      </c>
-      <c r="S46" t="s">
-        <v>213</v>
-      </c>
-      <c r="T46" t="s">
-        <v>214</v>
-      </c>
-      <c r="U46" t="s">
-        <v>215</v>
-      </c>
-      <c r="V46" t="s">
-        <v>216</v>
-      </c>
-      <c r="W46" t="s">
-        <v>14</v>
-      </c>
-      <c r="X46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E47" t="s">
-        <v>217</v>
-      </c>
-      <c r="F47" t="s">
-        <v>218</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
-        <v>150</v>
-      </c>
-      <c r="I47" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" t="s">
-        <v>6</v>
-      </c>
-      <c r="K47" t="s">
-        <v>210</v>
-      </c>
-      <c r="L47" t="s">
-        <v>211</v>
-      </c>
-      <c r="M47" t="s">
-        <v>9</v>
-      </c>
-      <c r="N47" t="s">
-        <v>10</v>
-      </c>
-      <c r="O47" t="s">
-        <v>212</v>
-      </c>
-      <c r="P47" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R47" s="2">
-        <v>45412</v>
-      </c>
-      <c r="S47" t="s">
-        <v>213</v>
-      </c>
-      <c r="T47" t="s">
-        <v>214</v>
-      </c>
-      <c r="U47" t="s">
-        <v>215</v>
-      </c>
-      <c r="V47" t="s">
-        <v>216</v>
-      </c>
-      <c r="W47" t="s">
-        <v>14</v>
-      </c>
-      <c r="X47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6</v>
-      </c>
-      <c r="I48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K48" t="s">
-        <v>189</v>
-      </c>
-      <c r="L48" t="s">
-        <v>190</v>
-      </c>
-      <c r="M48" t="s">
-        <v>9</v>
-      </c>
-      <c r="N48" t="s">
-        <v>10</v>
-      </c>
-      <c r="O48" t="s">
-        <v>220</v>
-      </c>
-      <c r="P48" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R48" s="2">
-        <v>45408</v>
-      </c>
-      <c r="S48" t="s">
-        <v>140</v>
-      </c>
-      <c r="T48" t="s">
-        <v>192</v>
-      </c>
-      <c r="U48" t="s">
-        <v>193</v>
-      </c>
-      <c r="V48" t="s">
-        <v>190</v>
-      </c>
-      <c r="W48" t="s">
-        <v>14</v>
-      </c>
-      <c r="X48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>221</v>
-      </c>
-      <c r="C49" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="3">
-        <v>10</v>
-      </c>
-      <c r="H49" s="3">
-        <v>10</v>
-      </c>
-      <c r="I49" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" t="s">
-        <v>189</v>
-      </c>
-      <c r="L49" t="s">
-        <v>190</v>
-      </c>
-      <c r="M49" t="s">
-        <v>9</v>
-      </c>
-      <c r="N49" t="s">
-        <v>10</v>
-      </c>
-      <c r="O49" t="s">
-        <v>222</v>
-      </c>
-      <c r="P49" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R49" s="2">
-        <v>45408</v>
-      </c>
-      <c r="S49" t="s">
-        <v>140</v>
-      </c>
-      <c r="T49" t="s">
-        <v>192</v>
-      </c>
-      <c r="U49" t="s">
-        <v>193</v>
-      </c>
-      <c r="V49" t="s">
-        <v>190</v>
-      </c>
-      <c r="W49" t="s">
-        <v>14</v>
-      </c>
-      <c r="X49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50" t="s">
-        <v>224</v>
-      </c>
-      <c r="D50" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="3">
-        <v>2</v>
-      </c>
-      <c r="H50" s="3">
-        <v>40</v>
-      </c>
-      <c r="I50" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" t="s">
-        <v>225</v>
-      </c>
-      <c r="L50" t="s">
-        <v>226</v>
-      </c>
-      <c r="M50" t="s">
-        <v>9</v>
-      </c>
-      <c r="N50" t="s">
-        <v>10</v>
-      </c>
-      <c r="O50" t="s">
-        <v>227</v>
-      </c>
-      <c r="P50" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R50" s="2">
-        <v>45408</v>
-      </c>
-      <c r="S50" t="s">
-        <v>140</v>
-      </c>
-      <c r="T50" t="s">
-        <v>228</v>
-      </c>
-      <c r="U50" t="s">
-        <v>229</v>
-      </c>
-      <c r="V50" t="s">
-        <v>226</v>
-      </c>
-      <c r="W50" t="s">
-        <v>14</v>
-      </c>
-      <c r="X50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" s="3">
-        <v>10</v>
-      </c>
-      <c r="H51" s="3">
-        <v>10</v>
-      </c>
-      <c r="I51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" t="s">
-        <v>232</v>
-      </c>
-      <c r="L51" t="s">
-        <v>233</v>
-      </c>
-      <c r="M51" t="s">
-        <v>9</v>
-      </c>
-      <c r="N51" t="s">
-        <v>10</v>
-      </c>
-      <c r="O51" t="s">
-        <v>234</v>
-      </c>
-      <c r="P51" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R51" s="2">
-        <v>45408</v>
-      </c>
-      <c r="S51" t="s">
-        <v>140</v>
-      </c>
-      <c r="T51" t="s">
-        <v>228</v>
-      </c>
-      <c r="U51" t="s">
-        <v>229</v>
-      </c>
-      <c r="V51" t="s">
-        <v>226</v>
-      </c>
-      <c r="W51" t="s">
-        <v>14</v>
-      </c>
-      <c r="X51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>230</v>
-      </c>
-      <c r="C52" t="s">
-        <v>231</v>
-      </c>
-      <c r="D52" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5</v>
-      </c>
-      <c r="I52" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" t="s">
-        <v>6</v>
-      </c>
-      <c r="K52" t="s">
-        <v>232</v>
-      </c>
-      <c r="L52" t="s">
-        <v>233</v>
-      </c>
-      <c r="M52" t="s">
-        <v>9</v>
-      </c>
-      <c r="N52" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" t="s">
-        <v>234</v>
-      </c>
-      <c r="P52" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R52" s="2">
-        <v>45408</v>
-      </c>
-      <c r="S52" t="s">
-        <v>140</v>
-      </c>
-      <c r="T52" t="s">
-        <v>228</v>
-      </c>
-      <c r="U52" t="s">
-        <v>229</v>
-      </c>
-      <c r="V52" t="s">
-        <v>226</v>
-      </c>
-      <c r="W52" t="s">
-        <v>14</v>
-      </c>
-      <c r="X52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>235</v>
-      </c>
-      <c r="C53" t="s">
-        <v>236</v>
-      </c>
-      <c r="D53" s="2">
-        <v>45413</v>
-      </c>
-      <c r="E53" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="3">
-        <v>6</v>
-      </c>
-      <c r="H53" s="3">
-        <v>6</v>
-      </c>
-      <c r="I53" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" t="s">
-        <v>237</v>
-      </c>
-      <c r="L53" t="s">
-        <v>238</v>
-      </c>
-      <c r="M53" t="s">
-        <v>9</v>
-      </c>
-      <c r="N53" t="s">
-        <v>10</v>
-      </c>
-      <c r="O53" t="s">
-        <v>239</v>
-      </c>
-      <c r="P53" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>45413</v>
-      </c>
-      <c r="R53" s="2">
-        <v>45414</v>
-      </c>
-      <c r="S53" t="s">
-        <v>240</v>
-      </c>
-      <c r="T53" t="s">
-        <v>241</v>
-      </c>
-      <c r="U53" t="s">
-        <v>242</v>
-      </c>
-      <c r="V53" t="s">
-        <v>243</v>
-      </c>
-      <c r="W53" t="s">
-        <v>14</v>
-      </c>
-      <c r="X53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>244</v>
-      </c>
-      <c r="C54" t="s">
-        <v>245</v>
-      </c>
-      <c r="D54" s="2">
-        <v>45413</v>
-      </c>
-      <c r="E54" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4</v>
-      </c>
-      <c r="I54" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" t="s">
-        <v>6</v>
-      </c>
-      <c r="K54" t="s">
-        <v>246</v>
-      </c>
-      <c r="L54" t="s">
-        <v>247</v>
-      </c>
-      <c r="M54" t="s">
-        <v>9</v>
-      </c>
-      <c r="N54" t="s">
-        <v>10</v>
-      </c>
-      <c r="O54" t="s">
-        <v>248</v>
-      </c>
-      <c r="P54" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>45413</v>
-      </c>
-      <c r="R54" s="2">
-        <v>45414</v>
-      </c>
-      <c r="S54" t="s">
-        <v>240</v>
-      </c>
-      <c r="T54" t="s">
-        <v>249</v>
-      </c>
-      <c r="U54" t="s">
-        <v>250</v>
-      </c>
-      <c r="V54" t="s">
-        <v>251</v>
-      </c>
-      <c r="W54" t="s">
-        <v>14</v>
-      </c>
-      <c r="X54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>244</v>
-      </c>
-      <c r="C55" t="s">
-        <v>245</v>
-      </c>
-      <c r="D55" s="2">
-        <v>45413</v>
-      </c>
-      <c r="E55" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="3">
-        <v>2</v>
-      </c>
-      <c r="H55" s="3">
-        <v>2</v>
-      </c>
-      <c r="I55" t="s">
-        <v>5</v>
-      </c>
-      <c r="J55" t="s">
-        <v>6</v>
-      </c>
-      <c r="K55" t="s">
-        <v>246</v>
-      </c>
-      <c r="L55" t="s">
-        <v>247</v>
-      </c>
-      <c r="M55" t="s">
-        <v>9</v>
-      </c>
-      <c r="N55" t="s">
-        <v>10</v>
-      </c>
-      <c r="O55" t="s">
-        <v>248</v>
-      </c>
-      <c r="P55" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>45413</v>
-      </c>
-      <c r="R55" s="2">
-        <v>45414</v>
-      </c>
-      <c r="S55" t="s">
-        <v>240</v>
-      </c>
-      <c r="T55" t="s">
-        <v>249</v>
-      </c>
-      <c r="U55" t="s">
-        <v>250</v>
-      </c>
-      <c r="V55" t="s">
-        <v>251</v>
-      </c>
-      <c r="W55" t="s">
-        <v>14</v>
-      </c>
-      <c r="X55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
-      <c r="A56" t="s">
-        <v>252</v>
-      </c>
-      <c r="B56" t="s">
-        <v>253</v>
-      </c>
-      <c r="C56" t="s">
-        <v>254</v>
-      </c>
-      <c r="D56" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E56" t="s">
-        <v>255</v>
-      </c>
-      <c r="F56" t="s">
-        <v>256</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="3">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" t="s">
-        <v>257</v>
-      </c>
-      <c r="K56" t="s">
-        <v>258</v>
-      </c>
-      <c r="L56" t="s">
-        <v>259</v>
-      </c>
-      <c r="M56" t="s">
-        <v>260</v>
-      </c>
-      <c r="N56" t="s">
-        <v>10</v>
-      </c>
-      <c r="O56" t="s">
-        <v>261</v>
-      </c>
-      <c r="P56" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R56" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S56" t="s">
-        <v>140</v>
-      </c>
-      <c r="T56" t="s">
-        <v>258</v>
-      </c>
-      <c r="U56" t="s">
-        <v>263</v>
-      </c>
-      <c r="V56" t="s">
-        <v>264</v>
-      </c>
-      <c r="W56" t="s">
-        <v>14</v>
-      </c>
-      <c r="X56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
-      <c r="A57" t="s">
-        <v>252</v>
-      </c>
-      <c r="B57" t="s">
-        <v>265</v>
-      </c>
-      <c r="C57" t="s">
-        <v>266</v>
-      </c>
-      <c r="D57" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E57" t="s">
-        <v>255</v>
-      </c>
-      <c r="F57" t="s">
-        <v>256</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" t="s">
-        <v>257</v>
-      </c>
-      <c r="K57" t="s">
-        <v>258</v>
-      </c>
-      <c r="L57" t="s">
-        <v>267</v>
-      </c>
-      <c r="M57" t="s">
-        <v>260</v>
-      </c>
-      <c r="N57" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" t="s">
-        <v>268</v>
-      </c>
-      <c r="P57" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R57" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S57" t="s">
-        <v>140</v>
-      </c>
-      <c r="T57" t="s">
-        <v>258</v>
-      </c>
-      <c r="U57" t="s">
-        <v>263</v>
-      </c>
-      <c r="V57" t="s">
-        <v>264</v>
-      </c>
-      <c r="W57" t="s">
-        <v>14</v>
-      </c>
-      <c r="X57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
-      <c r="A58" t="s">
-        <v>252</v>
-      </c>
-      <c r="B58" t="s">
-        <v>269</v>
-      </c>
-      <c r="C58" t="s">
-        <v>270</v>
-      </c>
-      <c r="D58" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E58" t="s">
-        <v>255</v>
-      </c>
-      <c r="F58" t="s">
-        <v>256</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" t="s">
-        <v>257</v>
-      </c>
-      <c r="K58" t="s">
-        <v>258</v>
-      </c>
-      <c r="L58" t="s">
-        <v>271</v>
-      </c>
-      <c r="M58" t="s">
-        <v>260</v>
-      </c>
-      <c r="N58" t="s">
-        <v>10</v>
-      </c>
-      <c r="O58" t="s">
-        <v>272</v>
-      </c>
-      <c r="P58" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R58" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S58" t="s">
-        <v>140</v>
-      </c>
-      <c r="T58" t="s">
-        <v>258</v>
-      </c>
-      <c r="U58" t="s">
-        <v>263</v>
-      </c>
-      <c r="V58" t="s">
-        <v>264</v>
-      </c>
-      <c r="W58" t="s">
-        <v>14</v>
-      </c>
-      <c r="X58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
-      <c r="A59" t="s">
-        <v>252</v>
-      </c>
-      <c r="B59" t="s">
-        <v>273</v>
-      </c>
-      <c r="C59" t="s">
-        <v>266</v>
-      </c>
-      <c r="D59" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E59" t="s">
-        <v>274</v>
-      </c>
-      <c r="F59" t="s">
-        <v>275</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" t="s">
-        <v>257</v>
-      </c>
-      <c r="K59" t="s">
-        <v>258</v>
-      </c>
-      <c r="L59" t="s">
-        <v>267</v>
-      </c>
-      <c r="M59" t="s">
-        <v>260</v>
-      </c>
-      <c r="N59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O59" t="s">
-        <v>276</v>
-      </c>
-      <c r="P59" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R59" s="2">
-        <v>45408</v>
-      </c>
-      <c r="S59" t="s">
-        <v>140</v>
-      </c>
-      <c r="T59" t="s">
-        <v>258</v>
-      </c>
-      <c r="U59" t="s">
-        <v>263</v>
-      </c>
-      <c r="V59" t="s">
-        <v>264</v>
-      </c>
-      <c r="W59" t="s">
-        <v>14</v>
-      </c>
-      <c r="X59" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="289">
   <si>
     <t>P891</t>
   </si>
@@ -163,10 +163,82 @@
     <t>ROL</t>
   </si>
   <si>
-    <t>133798742</t>
-  </si>
-  <si>
-    <t>ST JOHN OF GOD HEALTH CARE</t>
+    <t>133802469</t>
+  </si>
+  <si>
+    <t>WAURN PONDS DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>03250768</t>
+  </si>
+  <si>
+    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>2020724</t>
+  </si>
+  <si>
+    <t>HIGHTON</t>
+  </si>
+  <si>
+    <t>717069428</t>
+  </si>
+  <si>
+    <t>010050</t>
+  </si>
+  <si>
+    <t>133803107</t>
+  </si>
+  <si>
+    <t>SOUTHERN CROSS MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>82212737</t>
+  </si>
+  <si>
+    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
+  </si>
+  <si>
+    <t>3017936</t>
+  </si>
+  <si>
+    <t>BUNDOORA</t>
+  </si>
+  <si>
+    <t>717070721</t>
+  </si>
+  <si>
+    <t>133786713</t>
+  </si>
+  <si>
+    <t>ROYAL PRINCE ALFRED HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595846</t>
+  </si>
+  <si>
+    <t>CAMPERDOWN</t>
+  </si>
+  <si>
+    <t>717066699</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>4595817</t>
+  </si>
+  <si>
+    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
+  </si>
+  <si>
+    <t>PARRAMATTA</t>
+  </si>
+  <si>
+    <t>133786714</t>
+  </si>
+  <si>
+    <t>AUBURN HOSPITAL</t>
   </si>
   <si>
     <t>80727543</t>
@@ -175,46 +247,34 @@
     <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
   </si>
   <si>
-    <t>3018198</t>
-  </si>
-  <si>
-    <t>WENDOUREE VILLAGE</t>
-  </si>
-  <si>
-    <t>717069811</t>
-  </si>
-  <si>
-    <t>020050</t>
-  </si>
-  <si>
-    <t>133802469</t>
-  </si>
-  <si>
-    <t>WAURN PONDS DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>03250768</t>
-  </si>
-  <si>
-    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>2020724</t>
-  </si>
-  <si>
-    <t>HIGHTON</t>
-  </si>
-  <si>
-    <t>717069428</t>
-  </si>
-  <si>
-    <t>010050</t>
-  </si>
-  <si>
-    <t>133805269</t>
-  </si>
-  <si>
-    <t>QSCAN RADIOLOGY CLINIC - TOOWONG</t>
+    <t>4596110</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
+  </si>
+  <si>
+    <t>717066995</t>
+  </si>
+  <si>
+    <t>4596108</t>
+  </si>
+  <si>
+    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
+  </si>
+  <si>
+    <t>133786715</t>
+  </si>
+  <si>
+    <t>4595813</t>
+  </si>
+  <si>
+    <t>717068742</t>
+  </si>
+  <si>
+    <t>133796060</t>
+  </si>
+  <si>
+    <t>PRP Diagnostic Imaging - Zetland</t>
   </si>
   <si>
     <t>80802544</t>
@@ -223,13 +283,259 @@
     <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
   </si>
   <si>
-    <t>3320238</t>
-  </si>
-  <si>
-    <t>TOOWONG</t>
-  </si>
-  <si>
-    <t>717067377</t>
+    <t>776826</t>
+  </si>
+  <si>
+    <t>Zetland</t>
+  </si>
+  <si>
+    <t>717068849</t>
+  </si>
+  <si>
+    <t>4595823</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>GOSFORD</t>
+  </si>
+  <si>
+    <t>133796062</t>
+  </si>
+  <si>
+    <t>VISION RADIOLOGY RESERVIOR</t>
+  </si>
+  <si>
+    <t>963299</t>
+  </si>
+  <si>
+    <t>RESERVIOR</t>
+  </si>
+  <si>
+    <t>717070377</t>
+  </si>
+  <si>
+    <t>133799462</t>
+  </si>
+  <si>
+    <t>BELMONT DISTRICT HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595240</t>
+  </si>
+  <si>
+    <t>BELMONT</t>
+  </si>
+  <si>
+    <t>717071400</t>
+  </si>
+  <si>
+    <t>4595328</t>
+  </si>
+  <si>
+    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
+  </si>
+  <si>
+    <t>NEWCASTLE</t>
+  </si>
+  <si>
+    <t>133801040</t>
+  </si>
+  <si>
+    <t>THE RADIOLOGY CLINIC PTY LTD</t>
+  </si>
+  <si>
+    <t>86698188</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>4614735</t>
+  </si>
+  <si>
+    <t>MAROOCHYDORE</t>
+  </si>
+  <si>
+    <t>717057868</t>
+  </si>
+  <si>
+    <t>87078760</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
+  </si>
+  <si>
+    <t>133802065</t>
+  </si>
+  <si>
+    <t>CAMPBELLTOWN HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596093</t>
+  </si>
+  <si>
+    <t>CAMPBELLTOWN</t>
+  </si>
+  <si>
+    <t>717066697</t>
+  </si>
+  <si>
+    <t>4596097</t>
+  </si>
+  <si>
+    <t>SOUTH WESTERN SYDNEY LOCAL HEALTH D</t>
+  </si>
+  <si>
+    <t>133802250</t>
+  </si>
+  <si>
+    <t>JONES RADIOLOGY - ST ANDREW'S</t>
+  </si>
+  <si>
+    <t>88320468</t>
+  </si>
+  <si>
+    <t>DOTAGRAF SOLU BT 10X100ML AU</t>
+  </si>
+  <si>
+    <t>4595373</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>717065584</t>
+  </si>
+  <si>
+    <t>133802251</t>
+  </si>
+  <si>
+    <t>ACT HEALTH SUPPLY SERVICES - THE</t>
+  </si>
+  <si>
+    <t>4595648</t>
+  </si>
+  <si>
+    <t>BRUCE</t>
+  </si>
+  <si>
+    <t>717068823</t>
+  </si>
+  <si>
+    <t>4595647</t>
+  </si>
+  <si>
+    <t>ACT HEALTH SUPPLY SERVICES</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>133802252</t>
+  </si>
+  <si>
+    <t>I-Med Fortitude Valley</t>
+  </si>
+  <si>
+    <t>778888</t>
+  </si>
+  <si>
+    <t>Fortitude Valley</t>
+  </si>
+  <si>
+    <t>717071342</t>
+  </si>
+  <si>
+    <t>133802253</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - PENINSULA PH</t>
+  </si>
+  <si>
+    <t>86594218</t>
+  </si>
+  <si>
+    <t>SOLARIS,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595941</t>
+  </si>
+  <si>
+    <t>FRANKSTON</t>
+  </si>
+  <si>
+    <t>717071461</t>
+  </si>
+  <si>
+    <t>86698242</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>86610280</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,STELLANT MP,MIC,MC,EU</t>
+  </si>
+  <si>
+    <t>133803010</t>
+  </si>
+  <si>
+    <t>LAKE IMAGING - BALLARAT</t>
+  </si>
+  <si>
+    <t>64424260</t>
+  </si>
+  <si>
+    <t>LabEAZY Cassette- 68Ga PSMA Peptides</t>
+  </si>
+  <si>
+    <t>4595977</t>
+  </si>
+  <si>
+    <t>BALLARAT</t>
+  </si>
+  <si>
+    <t>717066625</t>
+  </si>
+  <si>
+    <t>4595969</t>
+  </si>
+  <si>
+    <t>LAKE IMAGING PTY LTD</t>
+  </si>
+  <si>
+    <t>GEELONG</t>
+  </si>
+  <si>
+    <t>64424244</t>
+  </si>
+  <si>
+    <t>LabEAZY Cassette- 68Ga DOTA Peptides</t>
+  </si>
+  <si>
+    <t>133805151</t>
+  </si>
+  <si>
+    <t>UNIVERSAL MEDICAL IMAGING -  BRUCE</t>
+  </si>
+  <si>
+    <t>4595749</t>
+  </si>
+  <si>
+    <t>717068565</t>
+  </si>
+  <si>
+    <t>4595747</t>
+  </si>
+  <si>
+    <t>UNIVERSAL MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>CLAYFIELD</t>
   </si>
   <si>
     <t>02112548</t>
@@ -238,205 +544,133 @@
     <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
   </si>
   <si>
-    <t>87621529</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133786713</t>
-  </si>
-  <si>
-    <t>ROYAL PRINCE ALFRED HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595846</t>
-  </si>
-  <si>
-    <t>CAMPERDOWN</t>
-  </si>
-  <si>
-    <t>717066699</t>
-  </si>
-  <si>
-    <t>010130</t>
-  </si>
-  <si>
-    <t>4595817</t>
-  </si>
-  <si>
-    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
-  </si>
-  <si>
-    <t>PARRAMATTA</t>
-  </si>
-  <si>
-    <t>133786714</t>
-  </si>
-  <si>
-    <t>AUBURN HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596110</t>
-  </si>
-  <si>
-    <t>AUBURN</t>
-  </si>
-  <si>
-    <t>717066995</t>
-  </si>
-  <si>
-    <t>4596108</t>
-  </si>
-  <si>
-    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
-  </si>
-  <si>
-    <t>133786715</t>
-  </si>
-  <si>
-    <t>4595813</t>
-  </si>
-  <si>
-    <t>717068742</t>
-  </si>
-  <si>
-    <t>133786716</t>
-  </si>
-  <si>
-    <t>NORTHEAST HEALTH WANGARATTA</t>
-  </si>
-  <si>
-    <t>4595865</t>
-  </si>
-  <si>
-    <t>WANGARATTA</t>
-  </si>
-  <si>
-    <t>717070710</t>
-  </si>
-  <si>
-    <t>4595866</t>
-  </si>
-  <si>
-    <t>133800647</t>
-  </si>
-  <si>
-    <t>GOSFORD HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595426</t>
-  </si>
-  <si>
-    <t>GOSFORD</t>
-  </si>
-  <si>
-    <t>717070560</t>
-  </si>
-  <si>
-    <t>4595430</t>
-  </si>
-  <si>
-    <t>CENTRAL COAST LOCAL HEALTH</t>
+    <t>133805508</t>
+  </si>
+  <si>
+    <t>CONS ROBINA HOSPITAL OAO-0G0-652</t>
+  </si>
+  <si>
+    <t>02112555</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
+  </si>
+  <si>
+    <t>971721</t>
+  </si>
+  <si>
+    <t>ROBINA</t>
+  </si>
+  <si>
+    <t>717070451</t>
+  </si>
+  <si>
+    <t>4595661</t>
+  </si>
+  <si>
+    <t>GOLD COAST HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>SOUTHPORT</t>
+  </si>
+  <si>
+    <t>133805578</t>
+  </si>
+  <si>
+    <t>THE CANBERRA HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595653</t>
+  </si>
+  <si>
+    <t>GARRAN</t>
+  </si>
+  <si>
+    <t>717067249</t>
+  </si>
+  <si>
+    <t>133805583</t>
+  </si>
+  <si>
+    <t>4595811</t>
+  </si>
+  <si>
+    <t>717068555</t>
+  </si>
+  <si>
+    <t>133805585</t>
+  </si>
+  <si>
+    <t>TOOWOOMBA HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595344</t>
+  </si>
+  <si>
+    <t>TOOWOOMBA</t>
+  </si>
+  <si>
+    <t>717070603</t>
+  </si>
+  <si>
+    <t>4595342</t>
+  </si>
+  <si>
+    <t>DARLING DOWNS HOSPITAL &amp;</t>
+  </si>
+  <si>
+    <t>133805840</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - SMRI</t>
+  </si>
+  <si>
+    <t>4658360</t>
+  </si>
+  <si>
+    <t>NEWTOWN</t>
+  </si>
+  <si>
+    <t>717063566</t>
+  </si>
+  <si>
+    <t>133805841</t>
+  </si>
+  <si>
+    <t>COFFS HARBOUR HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595214</t>
+  </si>
+  <si>
+    <t>COFFS HARBOUR</t>
+  </si>
+  <si>
+    <t>717067136</t>
+  </si>
+  <si>
+    <t>4595220</t>
+  </si>
+  <si>
+    <t>MID NORTH COAST LOCAL HEALTH DISTRI</t>
   </si>
   <si>
     <t>HUNTER REGION MAIL CENTRE</t>
   </si>
   <si>
-    <t>133802065</t>
-  </si>
-  <si>
-    <t>CAMPBELLTOWN HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596093</t>
-  </si>
-  <si>
-    <t>CAMPBELLTOWN</t>
-  </si>
-  <si>
-    <t>717066697</t>
-  </si>
-  <si>
-    <t>4596097</t>
-  </si>
-  <si>
-    <t>SOUTH WESTERN SYDNEY LOCAL HEALTH D</t>
-  </si>
-  <si>
-    <t>133802385</t>
-  </si>
-  <si>
-    <t>AUSTIN HEALTH  - VERNON AVE</t>
-  </si>
-  <si>
-    <t>4595496</t>
-  </si>
-  <si>
-    <t>HEIDELBERG WEST</t>
-  </si>
-  <si>
-    <t>717068897</t>
-  </si>
-  <si>
-    <t>4595508</t>
-  </si>
-  <si>
-    <t>AUSTIN HEALTH - FINANCE DEPT</t>
-  </si>
-  <si>
-    <t>HEIDELBERG</t>
-  </si>
-  <si>
-    <t>133802386</t>
-  </si>
-  <si>
-    <t>QUEENSLAND DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>87238504</t>
-  </si>
-  <si>
-    <t>TUBE,EXT,SINGLE,WLD1</t>
-  </si>
-  <si>
-    <t>4595637</t>
-  </si>
-  <si>
-    <t>BRISBANE</t>
-  </si>
-  <si>
-    <t>717069166</t>
-  </si>
-  <si>
-    <t>4595468</t>
-  </si>
-  <si>
-    <t>QLD DIAGNOSTIC IMAGING PTY LTD</t>
-  </si>
-  <si>
-    <t>ST LEONARDS</t>
-  </si>
-  <si>
-    <t>133802387</t>
+    <t>133805842</t>
   </si>
   <si>
     <t>ST VINCENTS HOSPITAL SYDNEY</t>
   </si>
   <si>
-    <t>86698242</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
-  </si>
-  <si>
     <t>4595515</t>
   </si>
   <si>
     <t>DARLINGHURST</t>
   </si>
   <si>
-    <t>717069842</t>
+    <t>717067306</t>
   </si>
   <si>
     <t>4595511</t>
@@ -445,142 +679,58 @@
     <t>ST VINCENT'S HOSPITAL SYDNEY LTD</t>
   </si>
   <si>
-    <t>133805270</t>
-  </si>
-  <si>
-    <t>QSCAN KINGSTON</t>
-  </si>
-  <si>
-    <t>4595740</t>
-  </si>
-  <si>
-    <t>KINGSTON</t>
-  </si>
-  <si>
-    <t>717069426</t>
-  </si>
-  <si>
-    <t>4595747</t>
-  </si>
-  <si>
-    <t>UNIVERSAL MEDICAL IMAGING</t>
-  </si>
-  <si>
-    <t>CLAYFIELD</t>
-  </si>
-  <si>
-    <t>133805348</t>
-  </si>
-  <si>
-    <t>i-MED RADIOLOGY - CASEY</t>
-  </si>
-  <si>
-    <t>86610280</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,STELLANT MP,MIC,MC,EU</t>
-  </si>
-  <si>
-    <t>4595719</t>
-  </si>
-  <si>
-    <t>BERWICK</t>
-  </si>
-  <si>
-    <t>717069429</t>
-  </si>
-  <si>
-    <t>133805351</t>
-  </si>
-  <si>
-    <t>02112555</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
-  </si>
-  <si>
-    <t>717070393</t>
-  </si>
-  <si>
-    <t>133805352</t>
-  </si>
-  <si>
-    <t>717070551</t>
-  </si>
-  <si>
-    <t>133805508</t>
-  </si>
-  <si>
-    <t>CONS ROBINA HOSPITAL OAO-0G0-652</t>
-  </si>
-  <si>
-    <t>971721</t>
-  </si>
-  <si>
-    <t>ROBINA</t>
-  </si>
-  <si>
-    <t>717070451</t>
-  </si>
-  <si>
-    <t>4595661</t>
-  </si>
-  <si>
-    <t>GOLD COAST HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>SOUTHPORT</t>
-  </si>
-  <si>
-    <t>133679913</t>
-  </si>
-  <si>
-    <t>ROYAL PERTH HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595756</t>
-  </si>
-  <si>
-    <t>PERTH</t>
-  </si>
-  <si>
-    <t>717070410</t>
+    <t>133695973</t>
+  </si>
+  <si>
+    <t>64050719</t>
+  </si>
+  <si>
+    <t>ULTRAVIST 370 SOLU BT 10X100ML AU-NZ</t>
+  </si>
+  <si>
+    <t>717066598</t>
+  </si>
+  <si>
+    <t>00658781</t>
+  </si>
+  <si>
+    <t>ULTRAVIST 370 SOLU BT 1X200ML AU</t>
+  </si>
+  <si>
+    <t>133805843</t>
+  </si>
+  <si>
+    <t>APEX RADIOLOGY - MANDURAH</t>
+  </si>
+  <si>
+    <t>3605378</t>
+  </si>
+  <si>
+    <t>MANDURAH</t>
+  </si>
+  <si>
+    <t>717070562</t>
   </si>
   <si>
     <t>010530</t>
   </si>
   <si>
-    <t>4595766</t>
-  </si>
-  <si>
-    <t>DEPARTMENT OF HEALTH WA</t>
-  </si>
-  <si>
-    <t>RAILWAY ROAD</t>
-  </si>
-  <si>
-    <t>133805268</t>
-  </si>
-  <si>
-    <t>PERTH RAD CLINIC LTD - SJOG MIDLAND</t>
-  </si>
-  <si>
-    <t>4595281</t>
-  </si>
-  <si>
-    <t>MIDLAND</t>
-  </si>
-  <si>
-    <t>717067376</t>
-  </si>
-  <si>
-    <t>4595291</t>
-  </si>
-  <si>
-    <t>PERTHRADCLINIC LTD</t>
-  </si>
-  <si>
-    <t>MIRRABOOKA</t>
+    <t>4596050</t>
+  </si>
+  <si>
+    <t>APEX RADIOLOGY</t>
+  </si>
+  <si>
+    <t>133805899</t>
+  </si>
+  <si>
+    <t>APEX RADIOLOGY - PEEL SPECIALIST</t>
+  </si>
+  <si>
+    <t>4596049</t>
+  </si>
+  <si>
+    <t>717071431</t>
   </si>
   <si>
     <t>P8SW</t>
@@ -644,18 +794,6 @@
   </si>
   <si>
     <t>2172497900</t>
-  </si>
-  <si>
-    <t>133786056</t>
-  </si>
-  <si>
-    <t>60727838</t>
-  </si>
-  <si>
-    <t>ASSY,DISPLAY,PHOENIX,STELLANT</t>
-  </si>
-  <si>
-    <t>2172549316</t>
   </si>
   <si>
     <t>133805528</t>
@@ -844,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,7 +992,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" width="18" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="11" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="37" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="36" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="14" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
     <col min="6" max="6" bestFit="1" width="41" customWidth="1"/>
@@ -863,7 +1001,7 @@
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="6" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="15" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="19" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="18" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15" customWidth="1"/>
     <col min="14" max="14" bestFit="1" width="6" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="21" customWidth="1"/>
@@ -880,76 +1018,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1638,10 +1776,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -1671,7 +1809,7 @@
         <v>45405</v>
       </c>
       <c r="R11" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="S11" t="s">
         <v>57</v>
@@ -1712,10 +1850,10 @@
         <v>61</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -1748,7 +1886,7 @@
         <v>45406</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
         <v>62</v>
@@ -1771,25 +1909,25 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
       <c r="D13" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -1798,10 +1936,10 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -1810,28 +1948,28 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s">
         <v>30</v>
       </c>
       <c r="Q13" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R13" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s">
         <v>14</v>
@@ -1845,25 +1983,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G14" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -1872,10 +2010,10 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -1884,28 +2022,28 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
         <v>30</v>
       </c>
       <c r="Q14" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R14" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T14" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="V14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s">
         <v>14</v>
@@ -1919,25 +2057,25 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
       <c r="D15" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -1946,10 +2084,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -1958,28 +2096,28 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s">
         <v>30</v>
       </c>
       <c r="Q15" s="2">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="R15" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -1993,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2">
         <v>45406</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2020,10 +2158,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2032,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="P16" t="s">
         <v>30</v>
@@ -2044,16 +2182,16 @@
         <v>45408</v>
       </c>
       <c r="S16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T16" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="U16" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2067,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2">
         <v>45406</v>
@@ -2082,10 +2220,10 @@
         <v>53</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2094,10 +2232,10 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2106,7 +2244,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P17" t="s">
         <v>30</v>
@@ -2118,16 +2256,16 @@
         <v>45408</v>
       </c>
       <c r="S17" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="U17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="V17" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2141,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2">
         <v>45406</v>
@@ -2156,10 +2294,10 @@
         <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H18" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2168,10 +2306,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2180,7 +2318,7 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P18" t="s">
         <v>30</v>
@@ -2192,16 +2330,16 @@
         <v>45408</v>
       </c>
       <c r="S18" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T18" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="U18" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="V18" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2215,25 +2353,25 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D19" s="2">
         <v>45406</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="G19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2242,10 +2380,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="L19" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2254,7 +2392,7 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="P19" t="s">
         <v>30</v>
@@ -2269,13 +2407,13 @@
         <v>13</v>
       </c>
       <c r="T19" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="U19" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="V19" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2289,25 +2427,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2">
         <v>45406</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="G20" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2316,10 +2454,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L20" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2328,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P20" t="s">
         <v>30</v>
@@ -2343,13 +2481,13 @@
         <v>13</v>
       </c>
       <c r="T20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="U20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V20" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2363,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D21" s="2">
         <v>45406</v>
@@ -2390,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L21" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -2402,7 +2540,7 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P21" t="s">
         <v>30</v>
@@ -2414,16 +2552,16 @@
         <v>45408</v>
       </c>
       <c r="S21" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T21" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="U21" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="V21" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2437,25 +2575,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D22" s="2">
         <v>45406</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="G22" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H22" s="3">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2464,10 +2602,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L22" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2476,7 +2614,7 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="P22" t="s">
         <v>30</v>
@@ -2485,19 +2623,19 @@
         <v>45406</v>
       </c>
       <c r="R22" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S22" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="U22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="V22" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2511,25 +2649,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2">
         <v>45406</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="G23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -2538,10 +2676,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -2550,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P23" t="s">
         <v>30</v>
@@ -2562,16 +2700,16 @@
         <v>45408</v>
       </c>
       <c r="S23" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="U23" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="V23" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2585,25 +2723,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D24" s="2">
         <v>45406</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -2612,10 +2750,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -2624,7 +2762,7 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P24" t="s">
         <v>30</v>
@@ -2636,16 +2774,16 @@
         <v>45408</v>
       </c>
       <c r="S24" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T24" t="s">
         <v>142</v>
       </c>
       <c r="U24" t="s">
+        <v>141</v>
+      </c>
+      <c r="V24" t="s">
         <v>143</v>
-      </c>
-      <c r="V24" t="s">
-        <v>140</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -2659,25 +2797,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D25" s="2">
         <v>45406</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="G25" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -2686,10 +2824,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -2698,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P25" t="s">
         <v>30</v>
@@ -2710,16 +2848,16 @@
         <v>45408</v>
       </c>
       <c r="S25" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T25" t="s">
         <v>149</v>
       </c>
       <c r="U25" t="s">
+        <v>146</v>
+      </c>
+      <c r="V25" t="s">
         <v>150</v>
-      </c>
-      <c r="V25" t="s">
-        <v>151</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -2733,25 +2871,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D26" s="2">
         <v>45406</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="G26" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H26" s="3">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -2760,10 +2898,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -2772,7 +2910,7 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P26" t="s">
         <v>30</v>
@@ -2784,16 +2922,16 @@
         <v>45408</v>
       </c>
       <c r="S26" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T26" t="s">
         <v>149</v>
       </c>
       <c r="U26" t="s">
+        <v>146</v>
+      </c>
+      <c r="V26" t="s">
         <v>150</v>
-      </c>
-      <c r="V26" t="s">
-        <v>151</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -2807,10 +2945,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D27" s="2">
         <v>45406</v>
@@ -2822,10 +2960,10 @@
         <v>155</v>
       </c>
       <c r="G27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -2834,10 +2972,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -2846,7 +2984,7 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="P27" t="s">
         <v>30</v>
@@ -2855,19 +2993,19 @@
         <v>45406</v>
       </c>
       <c r="R27" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S27" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="T27" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="U27" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="V27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -2881,25 +3019,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" t="s">
         <v>159</v>
       </c>
-      <c r="C28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" t="s">
-        <v>161</v>
-      </c>
       <c r="G28" s="3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H28" s="3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -2908,10 +3046,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L28" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -2929,19 +3067,19 @@
         <v>45406</v>
       </c>
       <c r="R28" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S28" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="T28" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="U28" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="V28" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -2955,19 +3093,19 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D29" s="2">
         <v>45406</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="G29" s="3">
         <v>10</v>
@@ -2982,10 +3120,10 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="L29" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -2994,7 +3132,7 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P29" t="s">
         <v>30</v>
@@ -3003,19 +3141,19 @@
         <v>45406</v>
       </c>
       <c r="R29" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S29" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="T29" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="U29" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="V29" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3029,25 +3167,25 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D30" s="2">
         <v>45406</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="G30" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H30" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3056,10 +3194,10 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L30" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3068,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P30" t="s">
         <v>30</v>
@@ -3080,16 +3218,16 @@
         <v>45408</v>
       </c>
       <c r="S30" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="U30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3103,25 +3241,25 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D31" s="2">
         <v>45406</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="G31" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H31" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3130,10 +3268,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L31" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3142,7 +3280,7 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P31" t="s">
         <v>30</v>
@@ -3154,16 +3292,16 @@
         <v>45408</v>
       </c>
       <c r="S31" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="U31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3177,25 +3315,25 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D32" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G32" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H32" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3204,10 +3342,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3216,28 +3354,28 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P32" t="s">
         <v>30</v>
       </c>
       <c r="Q32" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="R32" s="2">
-        <v>45414</v>
+        <v>45408</v>
       </c>
       <c r="S32" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="T32" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="U32" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="V32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3251,25 +3389,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D33" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="G33" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H33" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3278,10 +3416,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3290,28 +3428,28 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P33" t="s">
         <v>30</v>
       </c>
       <c r="Q33" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="R33" s="2">
-        <v>45414</v>
+        <v>45408</v>
       </c>
       <c r="S33" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="T33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="U33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="V33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3325,25 +3463,25 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D34" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="G34" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H34" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3352,10 +3490,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3364,28 +3502,28 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P34" t="s">
         <v>30</v>
       </c>
       <c r="Q34" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="R34" s="2">
-        <v>45414</v>
+        <v>45408</v>
       </c>
       <c r="S34" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="T34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="U34" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="V34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3396,70 +3534,70 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" t="s">
+        <v>189</v>
+      </c>
+      <c r="L35" t="s">
         <v>190</v>
       </c>
-      <c r="B35" t="s">
+      <c r="M35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" t="s">
         <v>191</v>
       </c>
-      <c r="C35" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E35" t="s">
-        <v>193</v>
-      </c>
-      <c r="F35" t="s">
-        <v>194</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" t="s">
-        <v>195</v>
-      </c>
-      <c r="K35" t="s">
-        <v>196</v>
-      </c>
-      <c r="L35" t="s">
-        <v>197</v>
-      </c>
-      <c r="M35" t="s">
-        <v>198</v>
-      </c>
-      <c r="N35" t="s">
-        <v>10</v>
-      </c>
-      <c r="O35" t="s">
-        <v>199</v>
-      </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="Q35" s="2">
-        <v>45308</v>
+        <v>45406</v>
       </c>
       <c r="R35" s="2">
-        <v>45309</v>
+        <v>45408</v>
       </c>
       <c r="S35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T35" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="U35" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="V35" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3470,70 +3608,70 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2">
-        <v>45308</v>
+        <v>45406</v>
       </c>
       <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" t="s">
         <v>193</v>
       </c>
-      <c r="F36" t="s">
+      <c r="L36" t="s">
+        <v>68</v>
+      </c>
+      <c r="M36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" t="s">
         <v>194</v>
       </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" t="s">
-        <v>195</v>
-      </c>
-      <c r="K36" t="s">
-        <v>196</v>
-      </c>
-      <c r="L36" t="s">
-        <v>205</v>
-      </c>
-      <c r="M36" t="s">
-        <v>198</v>
-      </c>
-      <c r="N36" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36" t="s">
-        <v>206</v>
-      </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="Q36" s="2">
-        <v>45308</v>
+        <v>45406</v>
       </c>
       <c r="R36" s="2">
-        <v>45309</v>
+        <v>45408</v>
       </c>
       <c r="S36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T36" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="U36" t="s">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="V36" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -3544,70 +3682,70 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D37" s="2">
-        <v>45308</v>
+        <v>45406</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H37" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L37" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="M37" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="N37" t="s">
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="P37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R37" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S37" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37" t="s">
         <v>200</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R37" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S37" t="s">
-        <v>82</v>
-      </c>
-      <c r="T37" t="s">
-        <v>196</v>
       </c>
       <c r="U37" t="s">
         <v>201</v>
       </c>
       <c r="V37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -3618,52 +3756,52 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3">
+        <v>100</v>
+      </c>
+      <c r="I38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" t="s">
         <v>204</v>
-      </c>
-      <c r="D38" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E38" t="s">
-        <v>212</v>
-      </c>
-      <c r="F38" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38" t="s">
-        <v>195</v>
-      </c>
-      <c r="K38" t="s">
-        <v>196</v>
       </c>
       <c r="L38" t="s">
         <v>205</v>
       </c>
       <c r="M38" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="N38" t="s">
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="Q38" s="2">
         <v>45406</v>
@@ -3672,16 +3810,16 @@
         <v>45408</v>
       </c>
       <c r="S38" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="T38" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="U38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V38" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -3692,49 +3830,49 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D39" s="2">
         <v>45406</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="G39" s="3">
         <v>2</v>
       </c>
       <c r="H39" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="L39" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M39" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="N39" t="s">
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="P39" t="s">
         <v>30</v>
@@ -3743,24 +3881,1134 @@
         <v>45406</v>
       </c>
       <c r="R39" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S39" t="s">
+        <v>13</v>
+      </c>
+      <c r="T39" t="s">
+        <v>212</v>
+      </c>
+      <c r="U39" t="s">
+        <v>213</v>
+      </c>
+      <c r="V39" t="s">
+        <v>214</v>
+      </c>
+      <c r="W39" t="s">
+        <v>14</v>
+      </c>
+      <c r="X39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2</v>
+      </c>
+      <c r="H40" s="3">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" t="s">
+        <v>209</v>
+      </c>
+      <c r="L40" t="s">
+        <v>210</v>
+      </c>
+      <c r="M40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" t="s">
+        <v>211</v>
+      </c>
+      <c r="P40" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R40" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S40" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40" t="s">
+        <v>212</v>
+      </c>
+      <c r="U40" t="s">
+        <v>213</v>
+      </c>
+      <c r="V40" t="s">
+        <v>214</v>
+      </c>
+      <c r="W40" t="s">
+        <v>14</v>
+      </c>
+      <c r="X40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" t="s">
+        <v>217</v>
+      </c>
+      <c r="L41" t="s">
+        <v>218</v>
+      </c>
+      <c r="M41" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41" t="s">
+        <v>10</v>
+      </c>
+      <c r="O41" t="s">
+        <v>219</v>
+      </c>
+      <c r="P41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R41" s="2">
         <v>45408</v>
       </c>
-      <c r="S39" t="s">
-        <v>82</v>
-      </c>
-      <c r="T39" t="s">
-        <v>196</v>
-      </c>
-      <c r="U39" t="s">
-        <v>201</v>
-      </c>
-      <c r="V39" t="s">
-        <v>202</v>
-      </c>
-      <c r="W39" t="s">
-        <v>14</v>
-      </c>
-      <c r="X39" t="s">
+      <c r="S41" t="s">
+        <v>70</v>
+      </c>
+      <c r="T41" t="s">
+        <v>220</v>
+      </c>
+      <c r="U41" t="s">
+        <v>221</v>
+      </c>
+      <c r="V41" t="s">
+        <v>218</v>
+      </c>
+      <c r="W41" t="s">
+        <v>14</v>
+      </c>
+      <c r="X41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>250</v>
+      </c>
+      <c r="I42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" t="s">
+        <v>217</v>
+      </c>
+      <c r="L42" t="s">
+        <v>218</v>
+      </c>
+      <c r="M42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42" t="s">
+        <v>219</v>
+      </c>
+      <c r="P42" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R42" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S42" t="s">
+        <v>70</v>
+      </c>
+      <c r="T42" t="s">
+        <v>220</v>
+      </c>
+      <c r="U42" t="s">
+        <v>221</v>
+      </c>
+      <c r="V42" t="s">
+        <v>218</v>
+      </c>
+      <c r="W42" t="s">
+        <v>14</v>
+      </c>
+      <c r="X42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" t="s">
+        <v>217</v>
+      </c>
+      <c r="L43" t="s">
+        <v>218</v>
+      </c>
+      <c r="M43" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" t="s">
+        <v>219</v>
+      </c>
+      <c r="P43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R43" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S43" t="s">
+        <v>70</v>
+      </c>
+      <c r="T43" t="s">
+        <v>220</v>
+      </c>
+      <c r="U43" t="s">
+        <v>221</v>
+      </c>
+      <c r="V43" t="s">
+        <v>218</v>
+      </c>
+      <c r="W43" t="s">
+        <v>14</v>
+      </c>
+      <c r="X43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>217</v>
+      </c>
+      <c r="L44" t="s">
+        <v>218</v>
+      </c>
+      <c r="M44" t="s">
+        <v>9</v>
+      </c>
+      <c r="N44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" t="s">
+        <v>225</v>
+      </c>
+      <c r="P44" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R44" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S44" t="s">
+        <v>70</v>
+      </c>
+      <c r="T44" t="s">
+        <v>220</v>
+      </c>
+      <c r="U44" t="s">
+        <v>221</v>
+      </c>
+      <c r="V44" t="s">
+        <v>218</v>
+      </c>
+      <c r="W44" t="s">
+        <v>14</v>
+      </c>
+      <c r="X44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E45" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="3">
+        <v>75</v>
+      </c>
+      <c r="H45" s="3">
+        <v>75</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>217</v>
+      </c>
+      <c r="L45" t="s">
+        <v>218</v>
+      </c>
+      <c r="M45" t="s">
+        <v>9</v>
+      </c>
+      <c r="N45" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" t="s">
+        <v>225</v>
+      </c>
+      <c r="P45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R45" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S45" t="s">
+        <v>70</v>
+      </c>
+      <c r="T45" t="s">
+        <v>220</v>
+      </c>
+      <c r="U45" t="s">
+        <v>221</v>
+      </c>
+      <c r="V45" t="s">
+        <v>218</v>
+      </c>
+      <c r="W45" t="s">
+        <v>14</v>
+      </c>
+      <c r="X45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" t="s">
+        <v>217</v>
+      </c>
+      <c r="L46" t="s">
+        <v>218</v>
+      </c>
+      <c r="M46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" t="s">
+        <v>225</v>
+      </c>
+      <c r="P46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R46" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S46" t="s">
+        <v>70</v>
+      </c>
+      <c r="T46" t="s">
+        <v>220</v>
+      </c>
+      <c r="U46" t="s">
+        <v>221</v>
+      </c>
+      <c r="V46" t="s">
+        <v>218</v>
+      </c>
+      <c r="W46" t="s">
+        <v>14</v>
+      </c>
+      <c r="X46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="3">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3">
+        <v>500</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>217</v>
+      </c>
+      <c r="L47" t="s">
+        <v>218</v>
+      </c>
+      <c r="M47" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" t="s">
+        <v>225</v>
+      </c>
+      <c r="P47" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R47" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S47" t="s">
+        <v>70</v>
+      </c>
+      <c r="T47" t="s">
+        <v>220</v>
+      </c>
+      <c r="U47" t="s">
+        <v>221</v>
+      </c>
+      <c r="V47" t="s">
+        <v>218</v>
+      </c>
+      <c r="W47" t="s">
+        <v>14</v>
+      </c>
+      <c r="X47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" t="s">
+        <v>230</v>
+      </c>
+      <c r="L48" t="s">
+        <v>231</v>
+      </c>
+      <c r="M48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" t="s">
+        <v>232</v>
+      </c>
+      <c r="P48" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R48" s="2">
+        <v>45414</v>
+      </c>
+      <c r="S48" t="s">
+        <v>233</v>
+      </c>
+      <c r="T48" t="s">
+        <v>234</v>
+      </c>
+      <c r="U48" t="s">
+        <v>235</v>
+      </c>
+      <c r="V48" t="s">
+        <v>165</v>
+      </c>
+      <c r="W48" t="s">
+        <v>14</v>
+      </c>
+      <c r="X48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3">
+        <v>20</v>
+      </c>
+      <c r="H49" s="3">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" t="s">
+        <v>230</v>
+      </c>
+      <c r="L49" t="s">
+        <v>231</v>
+      </c>
+      <c r="M49" t="s">
+        <v>9</v>
+      </c>
+      <c r="N49" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49" t="s">
+        <v>232</v>
+      </c>
+      <c r="P49" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R49" s="2">
+        <v>45414</v>
+      </c>
+      <c r="S49" t="s">
+        <v>233</v>
+      </c>
+      <c r="T49" t="s">
+        <v>234</v>
+      </c>
+      <c r="U49" t="s">
+        <v>235</v>
+      </c>
+      <c r="V49" t="s">
+        <v>165</v>
+      </c>
+      <c r="W49" t="s">
+        <v>14</v>
+      </c>
+      <c r="X49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="3">
+        <v>3</v>
+      </c>
+      <c r="H50" s="3">
+        <v>60</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" t="s">
+        <v>238</v>
+      </c>
+      <c r="L50" t="s">
+        <v>231</v>
+      </c>
+      <c r="M50" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50" t="s">
+        <v>10</v>
+      </c>
+      <c r="O50" t="s">
+        <v>239</v>
+      </c>
+      <c r="P50" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R50" s="2">
+        <v>45414</v>
+      </c>
+      <c r="S50" t="s">
+        <v>233</v>
+      </c>
+      <c r="T50" t="s">
+        <v>234</v>
+      </c>
+      <c r="U50" t="s">
+        <v>235</v>
+      </c>
+      <c r="V50" t="s">
+        <v>165</v>
+      </c>
+      <c r="W50" t="s">
+        <v>14</v>
+      </c>
+      <c r="X50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>245</v>
+      </c>
+      <c r="K51" t="s">
+        <v>246</v>
+      </c>
+      <c r="L51" t="s">
+        <v>247</v>
+      </c>
+      <c r="M51" t="s">
+        <v>248</v>
+      </c>
+      <c r="N51" t="s">
+        <v>10</v>
+      </c>
+      <c r="O51" t="s">
+        <v>249</v>
+      </c>
+      <c r="P51" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R51" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S51" t="s">
+        <v>70</v>
+      </c>
+      <c r="T51" t="s">
+        <v>246</v>
+      </c>
+      <c r="U51" t="s">
+        <v>251</v>
+      </c>
+      <c r="V51" t="s">
+        <v>252</v>
+      </c>
+      <c r="W51" t="s">
+        <v>14</v>
+      </c>
+      <c r="X51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E52" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" t="s">
+        <v>244</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K52" t="s">
+        <v>246</v>
+      </c>
+      <c r="L52" t="s">
+        <v>255</v>
+      </c>
+      <c r="M52" t="s">
+        <v>248</v>
+      </c>
+      <c r="N52" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" t="s">
+        <v>256</v>
+      </c>
+      <c r="P52" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R52" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S52" t="s">
+        <v>70</v>
+      </c>
+      <c r="T52" t="s">
+        <v>246</v>
+      </c>
+      <c r="U52" t="s">
+        <v>251</v>
+      </c>
+      <c r="V52" t="s">
+        <v>252</v>
+      </c>
+      <c r="W52" t="s">
+        <v>14</v>
+      </c>
+      <c r="X52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" t="s">
+        <v>240</v>
+      </c>
+      <c r="B53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E53" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" t="s">
+        <v>244</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>245</v>
+      </c>
+      <c r="K53" t="s">
+        <v>246</v>
+      </c>
+      <c r="L53" t="s">
+        <v>259</v>
+      </c>
+      <c r="M53" t="s">
+        <v>248</v>
+      </c>
+      <c r="N53" t="s">
+        <v>10</v>
+      </c>
+      <c r="O53" t="s">
+        <v>260</v>
+      </c>
+      <c r="P53" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R53" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S53" t="s">
+        <v>70</v>
+      </c>
+      <c r="T53" t="s">
+        <v>246</v>
+      </c>
+      <c r="U53" t="s">
+        <v>251</v>
+      </c>
+      <c r="V53" t="s">
+        <v>252</v>
+      </c>
+      <c r="W53" t="s">
+        <v>14</v>
+      </c>
+      <c r="X53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E54" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" t="s">
+        <v>263</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>245</v>
+      </c>
+      <c r="K54" t="s">
+        <v>246</v>
+      </c>
+      <c r="L54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M54" t="s">
+        <v>248</v>
+      </c>
+      <c r="N54" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" t="s">
+        <v>264</v>
+      </c>
+      <c r="P54" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R54" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S54" t="s">
+        <v>70</v>
+      </c>
+      <c r="T54" t="s">
+        <v>246</v>
+      </c>
+      <c r="U54" t="s">
+        <v>251</v>
+      </c>
+      <c r="V54" t="s">
+        <v>252</v>
+      </c>
+      <c r="W54" t="s">
+        <v>14</v>
+      </c>
+      <c r="X54" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="389">
   <si>
     <t>P891</t>
   </si>
@@ -163,6 +163,30 @@
     <t>ROL</t>
   </si>
   <si>
+    <t>133797163</t>
+  </si>
+  <si>
+    <t>BENDIGO HEALTH CARE GROUP</t>
+  </si>
+  <si>
+    <t>86698188</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595742</t>
+  </si>
+  <si>
+    <t>BENDIGO</t>
+  </si>
+  <si>
+    <t>717062615</t>
+  </si>
+  <si>
+    <t>4595741</t>
+  </si>
+  <si>
     <t>133802469</t>
   </si>
   <si>
@@ -208,6 +232,93 @@
     <t>717070721</t>
   </si>
   <si>
+    <t>133803169</t>
+  </si>
+  <si>
+    <t>THE CANBERRA HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595653</t>
+  </si>
+  <si>
+    <t>GARRAN</t>
+  </si>
+  <si>
+    <t>717063996</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>4595647</t>
+  </si>
+  <si>
+    <t>ACT HEALTH SUPPLY SERVICES</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>133803170</t>
+  </si>
+  <si>
+    <t>KATOOMBA DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>87234487</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>4595190</t>
+  </si>
+  <si>
+    <t>KATOOMBA</t>
+  </si>
+  <si>
+    <t>717064581</t>
+  </si>
+  <si>
+    <t>1943887</t>
+  </si>
+  <si>
+    <t>ALPENGLOW AUSTRALIA PTY LTD</t>
+  </si>
+  <si>
+    <t>SYDNEY</t>
+  </si>
+  <si>
+    <t>133746974</t>
+  </si>
+  <si>
+    <t>SOUTH COAST RADIOLOGY - JOHN FLYNN</t>
+  </si>
+  <si>
+    <t>64430724</t>
+  </si>
+  <si>
+    <t>Water for chromatography (LC-MS Grade)</t>
+  </si>
+  <si>
+    <t>4595063</t>
+  </si>
+  <si>
+    <t>TUGUN</t>
+  </si>
+  <si>
+    <t>716995097</t>
+  </si>
+  <si>
+    <t>4595077</t>
+  </si>
+  <si>
+    <t>RAD CORPORATE P/L</t>
+  </si>
+  <si>
+    <t>MERMAID BEACH</t>
+  </si>
+  <si>
     <t>133786713</t>
   </si>
   <si>
@@ -223,9 +334,6 @@
     <t>717066699</t>
   </si>
   <si>
-    <t>010130</t>
-  </si>
-  <si>
     <t>4595817</t>
   </si>
   <si>
@@ -316,6 +424,27 @@
     <t>717070377</t>
   </si>
   <si>
+    <t>133796930</t>
+  </si>
+  <si>
+    <t>JONES RADIOLOGY - ATTUNGA MED CEN</t>
+  </si>
+  <si>
+    <t>86698242</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595379</t>
+  </si>
+  <si>
+    <t>TOORAK GARDENS</t>
+  </si>
+  <si>
+    <t>717067566</t>
+  </si>
+  <si>
     <t>133799462</t>
   </si>
   <si>
@@ -346,12 +475,6 @@
     <t>THE RADIOLOGY CLINIC PTY LTD</t>
   </si>
   <si>
-    <t>86698188</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
-  </si>
-  <si>
     <t>4614735</t>
   </si>
   <si>
@@ -388,6 +511,27 @@
     <t>SOUTH WESTERN SYDNEY LOCAL HEALTH D</t>
   </si>
   <si>
+    <t>133802084</t>
+  </si>
+  <si>
+    <t>JONES RADIOLOGY - CALVARY ADELAIDE</t>
+  </si>
+  <si>
+    <t>87980030</t>
+  </si>
+  <si>
+    <t>MAINTAIN,SYR HEAT,STELL,FLS2,LR</t>
+  </si>
+  <si>
+    <t>4595386</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>717071332</t>
+  </si>
+  <si>
     <t>133802250</t>
   </si>
   <si>
@@ -403,9 +547,6 @@
     <t>4595373</t>
   </si>
   <si>
-    <t>ADELAIDE</t>
-  </si>
-  <si>
     <t>717065584</t>
   </si>
   <si>
@@ -424,15 +565,6 @@
     <t>717068823</t>
   </si>
   <si>
-    <t>4595647</t>
-  </si>
-  <si>
-    <t>ACT HEALTH SUPPLY SERVICES</t>
-  </si>
-  <si>
-    <t>MITCHELL</t>
-  </si>
-  <si>
     <t>133802252</t>
   </si>
   <si>
@@ -469,12 +601,6 @@
     <t>717071461</t>
   </si>
   <si>
-    <t>86698242</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
-  </si>
-  <si>
     <t>86610280</t>
   </si>
   <si>
@@ -517,6 +643,33 @@
     <t>LabEAZY Cassette- 68Ga DOTA Peptides</t>
   </si>
   <si>
+    <t>133803171</t>
+  </si>
+  <si>
+    <t>THE QUEEN ELIZABETH HOSPITAL</t>
+  </si>
+  <si>
+    <t>02112548</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4595512</t>
+  </si>
+  <si>
+    <t>WOODVILLE SOUTH</t>
+  </si>
+  <si>
+    <t>717066987</t>
+  </si>
+  <si>
+    <t>4595446</t>
+  </si>
+  <si>
+    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
+  </si>
+  <si>
     <t>133805151</t>
   </si>
   <si>
@@ -538,12 +691,6 @@
     <t>CLAYFIELD</t>
   </si>
   <si>
-    <t>02112548</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
-  </si>
-  <si>
     <t>133805508</t>
   </si>
   <si>
@@ -577,15 +724,6 @@
     <t>133805578</t>
   </si>
   <si>
-    <t>THE CANBERRA HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595653</t>
-  </si>
-  <si>
-    <t>GARRAN</t>
-  </si>
-  <si>
     <t>717067249</t>
   </si>
   <si>
@@ -679,6 +817,93 @@
     <t>ST VINCENT'S HOSPITAL SYDNEY LTD</t>
   </si>
   <si>
+    <t>133806079</t>
+  </si>
+  <si>
+    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
+  </si>
+  <si>
+    <t>86566753</t>
+  </si>
+  <si>
+    <t>SHEATH,HAND CONTROLLER,MC,WLD</t>
+  </si>
+  <si>
+    <t>4670712</t>
+  </si>
+  <si>
+    <t>DERRIMUT</t>
+  </si>
+  <si>
+    <t>717068566</t>
+  </si>
+  <si>
+    <t>132494</t>
+  </si>
+  <si>
+    <t>THE ROYAL MELBOURNE HOSPITAL</t>
+  </si>
+  <si>
+    <t>PARKVILLE</t>
+  </si>
+  <si>
+    <t>133807068</t>
+  </si>
+  <si>
+    <t>QUEENSLAND DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>87236072</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,WLD1</t>
+  </si>
+  <si>
+    <t>4595637</t>
+  </si>
+  <si>
+    <t>BRISBANE</t>
+  </si>
+  <si>
+    <t>717069166</t>
+  </si>
+  <si>
+    <t>4595468</t>
+  </si>
+  <si>
+    <t>QLD DIAGNOSTIC IMAGING PTY LTD</t>
+  </si>
+  <si>
+    <t>ST LEONARDS</t>
+  </si>
+  <si>
+    <t>133807488</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - BUDERIM PH</t>
+  </si>
+  <si>
+    <t>4595718</t>
+  </si>
+  <si>
+    <t>BUDERIM</t>
+  </si>
+  <si>
+    <t>717068114</t>
+  </si>
+  <si>
+    <t>4595716</t>
+  </si>
+  <si>
+    <t>133797173</t>
+  </si>
+  <si>
+    <t>717043285</t>
+  </si>
+  <si>
+    <t>020230</t>
+  </si>
+  <si>
     <t>133695973</t>
   </si>
   <si>
@@ -697,6 +922,84 @@
     <t>ULTRAVIST 370 SOLU BT 1X200ML AU</t>
   </si>
   <si>
+    <t>133797599</t>
+  </si>
+  <si>
+    <t>FIONA STANLEY HOSPITAL</t>
+  </si>
+  <si>
+    <t>1253935</t>
+  </si>
+  <si>
+    <t>MURDOCH</t>
+  </si>
+  <si>
+    <t>717063190</t>
+  </si>
+  <si>
+    <t>010530</t>
+  </si>
+  <si>
+    <t>133798117</t>
+  </si>
+  <si>
+    <t>RAMSAY HEALTH - JOONDALUP PRIVATE</t>
+  </si>
+  <si>
+    <t>86617439</t>
+  </si>
+  <si>
+    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4596135</t>
+  </si>
+  <si>
+    <t>JOONDALUP</t>
+  </si>
+  <si>
+    <t>717056745</t>
+  </si>
+  <si>
+    <t>4595466</t>
+  </si>
+  <si>
+    <t>RAMSAY HEALTH CARE</t>
+  </si>
+  <si>
+    <t>ST KILDA ROAD</t>
+  </si>
+  <si>
+    <t>133799082</t>
+  </si>
+  <si>
+    <t>ROYAL PERTH HOSPITAL</t>
+  </si>
+  <si>
+    <t>86074125</t>
+  </si>
+  <si>
+    <t>ULTRAVIST 240 SOLU BT 10X100ML AU</t>
+  </si>
+  <si>
+    <t>4595756</t>
+  </si>
+  <si>
+    <t>PERTH</t>
+  </si>
+  <si>
+    <t>717040437</t>
+  </si>
+  <si>
+    <t>4595766</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF HEALTH WA</t>
+  </si>
+  <si>
+    <t>RAILWAY ROAD</t>
+  </si>
+  <si>
     <t>133805843</t>
   </si>
   <si>
@@ -710,9 +1013,6 @@
   </si>
   <si>
     <t>717070562</t>
-  </si>
-  <si>
-    <t>010530</t>
   </si>
   <si>
     <t>4596050</t>
@@ -982,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,76 +1318,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>265</v>
+        <v>365</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>366</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>267</v>
+        <v>367</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>268</v>
+        <v>368</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>271</v>
+        <v>371</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>273</v>
+        <v>373</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>274</v>
+        <v>374</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>275</v>
+        <v>375</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>276</v>
+        <v>376</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>277</v>
+        <v>377</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>278</v>
+        <v>378</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>279</v>
+        <v>379</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>281</v>
+        <v>381</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>283</v>
+        <v>383</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>385</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>286</v>
+        <v>386</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>287</v>
+        <v>387</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>288</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1779,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="3">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -1803,19 +2103,19 @@
         <v>56</v>
       </c>
       <c r="P11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="2">
         <v>45405</v>
       </c>
       <c r="R11" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S11" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" t="s">
         <v>57</v>
-      </c>
-      <c r="T11" t="s">
-        <v>54</v>
       </c>
       <c r="U11" t="s">
         <v>51</v>
@@ -1850,10 +2150,10 @@
         <v>61</v>
       </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -1886,7 +2186,7 @@
         <v>45406</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T12" t="s">
         <v>62</v>
@@ -1909,25 +2209,25 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -1936,10 +2236,10 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -1948,28 +2248,28 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" t="s">
         <v>30</v>
       </c>
       <c r="Q13" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="R13" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="S13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13" t="s">
         <v>70</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V13" t="s">
         <v>71</v>
-      </c>
-      <c r="U13" t="s">
-        <v>72</v>
-      </c>
-      <c r="V13" t="s">
-        <v>73</v>
       </c>
       <c r="W13" t="s">
         <v>14</v>
@@ -1983,25 +2283,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
       <c r="D14" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2010,10 +2310,10 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -2022,28 +2322,28 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P14" t="s">
         <v>30</v>
       </c>
       <c r="Q14" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="R14" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="S14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V14" t="s">
         <v>81</v>
-      </c>
-      <c r="U14" t="s">
-        <v>82</v>
-      </c>
-      <c r="V14" t="s">
-        <v>73</v>
       </c>
       <c r="W14" t="s">
         <v>14</v>
@@ -2057,25 +2357,25 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
       <c r="D15" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2084,10 +2384,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -2096,28 +2396,28 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
         <v>30</v>
       </c>
       <c r="Q15" s="2">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="R15" s="2">
         <v>45408</v>
       </c>
       <c r="S15" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="T15" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="U15" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V15" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -2131,25 +2431,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2">
         <v>45406</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G16" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2158,10 +2458,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2170,10 +2470,10 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="2">
         <v>45406</v>
@@ -2182,16 +2482,16 @@
         <v>45408</v>
       </c>
       <c r="S16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="U16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2205,25 +2505,25 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D17" s="2">
         <v>45406</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2232,10 +2532,10 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2244,7 +2544,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P17" t="s">
         <v>30</v>
@@ -2256,16 +2556,16 @@
         <v>45408</v>
       </c>
       <c r="S17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="U17" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="V17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2279,25 +2579,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2">
         <v>45406</v>
       </c>
       <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>12</v>
-      </c>
       <c r="H18" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2306,10 +2606,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2318,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="P18" t="s">
         <v>30</v>
@@ -2330,16 +2630,16 @@
         <v>45408</v>
       </c>
       <c r="S18" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="U18" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2353,25 +2653,25 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D19" s="2">
         <v>45406</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2380,10 +2680,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L19" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2392,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P19" t="s">
         <v>30</v>
@@ -2401,19 +2701,19 @@
         <v>45406</v>
       </c>
       <c r="R19" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S19" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2427,25 +2727,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2">
         <v>45406</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2454,10 +2754,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2466,7 +2766,7 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="P20" t="s">
         <v>30</v>
@@ -2475,19 +2775,19 @@
         <v>45406</v>
       </c>
       <c r="R20" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S20" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="U20" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="V20" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2501,25 +2801,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2">
         <v>45406</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G21" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2528,10 +2828,10 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -2540,7 +2840,7 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="P21" t="s">
         <v>30</v>
@@ -2552,16 +2852,16 @@
         <v>45408</v>
       </c>
       <c r="S21" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="U21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="V21" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2575,25 +2875,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D22" s="2">
         <v>45406</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2602,10 +2902,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L22" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2614,10 +2914,10 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q22" s="2">
         <v>45406</v>
@@ -2629,13 +2929,13 @@
         <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="U22" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="V22" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2649,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D23" s="2">
         <v>45406</v>
@@ -2664,10 +2964,10 @@
         <v>4</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H23" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -2676,10 +2976,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -2688,7 +2988,7 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P23" t="s">
         <v>30</v>
@@ -2700,16 +3000,16 @@
         <v>45408</v>
       </c>
       <c r="S23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="U23" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="V23" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2723,25 +3023,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D24" s="2">
         <v>45406</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="G24" s="3">
         <v>2</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -2750,10 +3050,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -2762,7 +3062,7 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P24" t="s">
         <v>30</v>
@@ -2771,19 +3071,19 @@
         <v>45406</v>
       </c>
       <c r="R24" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S24" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="T24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="U24" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="V24" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -2797,19 +3097,19 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D25" s="2">
         <v>45406</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
@@ -2824,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -2836,7 +3136,7 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P25" t="s">
         <v>30</v>
@@ -2845,19 +3145,19 @@
         <v>45406</v>
       </c>
       <c r="R25" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S25" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="T25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="U25" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="V25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -2871,25 +3171,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D26" s="2">
         <v>45406</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="G26" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H26" s="3">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -2898,10 +3198,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -2910,7 +3210,7 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="P26" t="s">
         <v>30</v>
@@ -2922,16 +3222,16 @@
         <v>45408</v>
       </c>
       <c r="S26" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="U26" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="V26" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -2945,25 +3245,25 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D27" s="2">
         <v>45406</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F27" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -2972,10 +3272,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -2984,28 +3284,28 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="P27" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="2">
         <v>45406</v>
       </c>
       <c r="R27" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S27" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="T27" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="U27" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="V27" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -3019,25 +3319,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D28" s="2">
         <v>45406</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G28" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H28" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3046,10 +3346,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -3058,7 +3358,7 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P28" t="s">
         <v>30</v>
@@ -3073,13 +3373,13 @@
         <v>13</v>
       </c>
       <c r="T28" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="U28" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="V28" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -3093,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D29" s="2">
         <v>45406</v>
       </c>
       <c r="E29" t="s">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="G29" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3120,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -3132,7 +3432,7 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="P29" t="s">
         <v>30</v>
@@ -3141,19 +3441,19 @@
         <v>45406</v>
       </c>
       <c r="R29" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S29" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3167,25 +3467,25 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D30" s="2">
         <v>45406</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="G30" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H30" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3194,10 +3494,10 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3206,7 +3506,7 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P30" t="s">
         <v>30</v>
@@ -3218,16 +3518,16 @@
         <v>45408</v>
       </c>
       <c r="S30" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="U30" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="V30" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3241,25 +3541,25 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D31" s="2">
         <v>45406</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F31" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G31" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H31" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3268,10 +3568,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="L31" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3280,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="P31" t="s">
         <v>30</v>
@@ -3292,16 +3592,16 @@
         <v>45408</v>
       </c>
       <c r="S31" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="U31" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="V31" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3315,25 +3615,25 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D32" s="2">
         <v>45406</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="G32" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H32" s="3">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3342,10 +3642,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="L32" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3354,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="P32" t="s">
         <v>30</v>
@@ -3366,16 +3666,16 @@
         <v>45408</v>
       </c>
       <c r="S32" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="U32" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="V32" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3389,25 +3689,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C33" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D33" s="2">
         <v>45406</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F33" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H33" s="3">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3416,10 +3716,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3428,7 +3728,7 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="P33" t="s">
         <v>30</v>
@@ -3440,16 +3740,16 @@
         <v>45408</v>
       </c>
       <c r="S33" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="U33" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V33" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3463,25 +3763,25 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D34" s="2">
         <v>45406</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="G34" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H34" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3490,10 +3790,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="L34" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3502,7 +3802,7 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="P34" t="s">
         <v>30</v>
@@ -3511,19 +3811,19 @@
         <v>45406</v>
       </c>
       <c r="R34" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S34" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="T34" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="U34" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="V34" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3537,25 +3837,25 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D35" s="2">
         <v>45406</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="G35" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H35" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3564,10 +3864,10 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="L35" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -3576,7 +3876,7 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="P35" t="s">
         <v>30</v>
@@ -3585,19 +3885,19 @@
         <v>45406</v>
       </c>
       <c r="R35" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S35" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="T35" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="U35" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="V35" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3611,25 +3911,25 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="D36" s="2">
         <v>45406</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="G36" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H36" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3638,10 +3938,10 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -3650,7 +3950,7 @@
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="P36" t="s">
         <v>30</v>
@@ -3659,19 +3959,19 @@
         <v>45406</v>
       </c>
       <c r="R36" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S36" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="T36" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="U36" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="V36" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -3685,25 +3985,25 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="D37" s="2">
         <v>45406</v>
       </c>
       <c r="E37" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="G37" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H37" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3712,10 +4012,10 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="L37" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -3724,7 +4024,7 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="P37" t="s">
         <v>30</v>
@@ -3733,19 +4033,19 @@
         <v>45406</v>
       </c>
       <c r="R37" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S37" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="U37" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="V37" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -3759,25 +4059,25 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="D38" s="2">
         <v>45406</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="G38" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H38" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -3786,10 +4086,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L38" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -3798,7 +4098,7 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="P38" t="s">
         <v>30</v>
@@ -3810,16 +4110,16 @@
         <v>45408</v>
       </c>
       <c r="S38" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="U38" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="V38" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -3833,25 +4133,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D39" s="2">
         <v>45406</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="G39" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H39" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -3860,10 +4160,10 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -3872,7 +4172,7 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="P39" t="s">
         <v>30</v>
@@ -3881,19 +4181,19 @@
         <v>45406</v>
       </c>
       <c r="R39" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S39" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="U39" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="V39" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
@@ -3907,25 +4207,25 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="D40" s="2">
         <v>45406</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="G40" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H40" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -3934,10 +4234,10 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L40" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M40" t="s">
         <v>9</v>
@@ -3946,7 +4246,7 @@
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="P40" t="s">
         <v>30</v>
@@ -3955,19 +4255,19 @@
         <v>45406</v>
       </c>
       <c r="R40" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S40" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="U40" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="V40" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -3981,37 +4281,37 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D41" s="2">
         <v>45406</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="G41" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H41" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="L41" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="M41" t="s">
         <v>9</v>
@@ -4020,7 +4320,7 @@
         <v>10</v>
       </c>
       <c r="O41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="P41" t="s">
         <v>30</v>
@@ -4032,16 +4332,16 @@
         <v>45408</v>
       </c>
       <c r="S41" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="U41" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="V41" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -4055,25 +4355,25 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2">
         <v>45406</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G42" s="3">
         <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4082,10 +4382,10 @@
         <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="L42" t="s">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="M42" t="s">
         <v>9</v>
@@ -4094,7 +4394,7 @@
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="P42" t="s">
         <v>30</v>
@@ -4106,16 +4406,16 @@
         <v>45408</v>
       </c>
       <c r="S42" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -4129,25 +4429,25 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="D43" s="2">
         <v>45406</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G43" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H43" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4156,10 +4456,10 @@
         <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="L43" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="M43" t="s">
         <v>9</v>
@@ -4168,7 +4468,7 @@
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="P43" t="s">
         <v>30</v>
@@ -4180,16 +4480,16 @@
         <v>45408</v>
       </c>
       <c r="S43" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="U43" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="V43" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="W43" t="s">
         <v>14</v>
@@ -4203,37 +4503,37 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="D44" s="2">
-        <v>45411</v>
+        <v>45406</v>
       </c>
       <c r="E44" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F44" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G44" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L44" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="M44" t="s">
         <v>9</v>
@@ -4242,28 +4542,28 @@
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="P44" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q44" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R44" s="2">
         <v>45411</v>
       </c>
-      <c r="R44" s="2">
-        <v>45412</v>
-      </c>
       <c r="S44" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="T44" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="U44" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="V44" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="W44" t="s">
         <v>14</v>
@@ -4277,37 +4577,37 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="D45" s="2">
-        <v>45411</v>
+        <v>45406</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="F45" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="G45" s="3">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="H45" s="3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="L45" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="M45" t="s">
         <v>9</v>
@@ -4316,28 +4616,28 @@
         <v>10</v>
       </c>
       <c r="O45" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="P45" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q45" s="2">
-        <v>45411</v>
+        <v>45406</v>
       </c>
       <c r="R45" s="2">
-        <v>45412</v>
+        <v>45408</v>
       </c>
       <c r="S45" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="U45" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="V45" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="W45" t="s">
         <v>14</v>
@@ -4351,25 +4651,25 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="D46" s="2">
-        <v>45411</v>
+        <v>45406</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G46" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H46" s="3">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4378,10 +4678,10 @@
         <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="L46" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="M46" t="s">
         <v>9</v>
@@ -4390,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="P46" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q46" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R46" s="2">
         <v>45411</v>
       </c>
-      <c r="R46" s="2">
-        <v>45412</v>
-      </c>
       <c r="S46" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="T46" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="U46" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="V46" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="W46" t="s">
         <v>14</v>
@@ -4425,37 +4725,37 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="D47" s="2">
-        <v>45411</v>
+        <v>45406</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G47" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H47" s="3">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="L47" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="M47" t="s">
         <v>9</v>
@@ -4464,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="O47" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="P47" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q47" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R47" s="2">
         <v>45411</v>
       </c>
-      <c r="R47" s="2">
-        <v>45412</v>
-      </c>
       <c r="S47" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="T47" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="U47" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="V47" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="W47" t="s">
         <v>14</v>
@@ -4499,37 +4799,37 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="D48" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G48" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="J48" t="s">
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="L48" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="M48" t="s">
         <v>9</v>
@@ -4538,28 +4838,28 @@
         <v>10</v>
       </c>
       <c r="O48" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="P48" t="s">
         <v>30</v>
       </c>
       <c r="Q48" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="R48" s="2">
-        <v>45414</v>
+        <v>45408</v>
       </c>
       <c r="S48" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="U48" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="V48" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="W48" t="s">
         <v>14</v>
@@ -4573,25 +4873,25 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="D49" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="E49" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G49" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H49" s="3">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
@@ -4600,10 +4900,10 @@
         <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="L49" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="M49" t="s">
         <v>9</v>
@@ -4612,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="O49" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="P49" t="s">
         <v>30</v>
       </c>
       <c r="Q49" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="R49" s="2">
-        <v>45414</v>
+        <v>45408</v>
       </c>
       <c r="S49" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="U49" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="V49" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="W49" t="s">
         <v>14</v>
@@ -4647,25 +4947,25 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="D50" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="G50" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -4674,10 +4974,10 @@
         <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="L50" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="M50" t="s">
         <v>9</v>
@@ -4686,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="O50" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="P50" t="s">
         <v>30</v>
       </c>
       <c r="Q50" s="2">
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="R50" s="2">
-        <v>45414</v>
+        <v>45408</v>
       </c>
       <c r="S50" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="U50" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="V50" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="W50" t="s">
         <v>14</v>
@@ -4718,70 +5018,70 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="D51" s="2">
-        <v>45308</v>
+        <v>45406</v>
       </c>
       <c r="E51" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="F51" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
       </c>
       <c r="H51" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="L51" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="M51" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="N51" t="s">
         <v>10</v>
       </c>
       <c r="O51" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="P51" t="s">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="Q51" s="2">
-        <v>45308</v>
+        <v>45406</v>
       </c>
       <c r="R51" s="2">
-        <v>45309</v>
+        <v>45408</v>
       </c>
       <c r="S51" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="U51" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="V51" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="W51" t="s">
         <v>14</v>
@@ -4792,70 +5092,70 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="C52" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="D52" s="2">
-        <v>45308</v>
+        <v>45406</v>
       </c>
       <c r="E52" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="F52" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="G52" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
       </c>
       <c r="J52" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="L52" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="M52" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="N52" t="s">
         <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="Q52" s="2">
-        <v>45308</v>
+        <v>45406</v>
       </c>
       <c r="R52" s="2">
-        <v>45309</v>
+        <v>45408</v>
       </c>
       <c r="S52" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="U52" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="V52" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="W52" t="s">
         <v>14</v>
@@ -4866,70 +5166,70 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="D53" s="2">
-        <v>45308</v>
+        <v>45406</v>
       </c>
       <c r="E53" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="G53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
       </c>
       <c r="J53" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="L53" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="M53" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="N53" t="s">
         <v>10</v>
       </c>
       <c r="O53" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="P53" t="s">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="Q53" s="2">
-        <v>45308</v>
+        <v>45406</v>
       </c>
       <c r="R53" s="2">
-        <v>45309</v>
+        <v>45411</v>
       </c>
       <c r="S53" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="T53" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="U53" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="V53" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="W53" t="s">
         <v>14</v>
@@ -4940,49 +5240,49 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="C54" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="D54" s="2">
         <v>45406</v>
       </c>
       <c r="E54" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="F54" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="G54" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H54" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
       </c>
       <c r="J54" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="L54" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="M54" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="N54" t="s">
         <v>10</v>
       </c>
       <c r="O54" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="P54" t="s">
         <v>30</v>
@@ -4991,24 +5291,1134 @@
         <v>45406</v>
       </c>
       <c r="R54" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S54" t="s">
+        <v>13</v>
+      </c>
+      <c r="T54" t="s">
+        <v>293</v>
+      </c>
+      <c r="U54" t="s">
+        <v>289</v>
+      </c>
+      <c r="V54" t="s">
+        <v>291</v>
+      </c>
+      <c r="W54" t="s">
+        <v>14</v>
+      </c>
+      <c r="X54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="2">
         <v>45408</v>
       </c>
-      <c r="S54" t="s">
-        <v>70</v>
-      </c>
-      <c r="T54" t="s">
-        <v>246</v>
-      </c>
-      <c r="U54" t="s">
-        <v>251</v>
-      </c>
-      <c r="V54" t="s">
-        <v>252</v>
-      </c>
-      <c r="W54" t="s">
-        <v>14</v>
-      </c>
-      <c r="X54" t="s">
+      <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="3">
+        <v>3</v>
+      </c>
+      <c r="H55" s="3">
+        <v>150</v>
+      </c>
+      <c r="I55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" t="s">
+        <v>255</v>
+      </c>
+      <c r="L55" t="s">
+        <v>256</v>
+      </c>
+      <c r="M55" t="s">
+        <v>9</v>
+      </c>
+      <c r="N55" t="s">
+        <v>10</v>
+      </c>
+      <c r="O55" t="s">
+        <v>295</v>
+      </c>
+      <c r="P55" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R55" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S55" t="s">
+        <v>296</v>
+      </c>
+      <c r="T55" t="s">
+        <v>258</v>
+      </c>
+      <c r="U55" t="s">
+        <v>259</v>
+      </c>
+      <c r="V55" t="s">
+        <v>260</v>
+      </c>
+      <c r="W55" t="s">
+        <v>14</v>
+      </c>
+      <c r="X55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>297</v>
+      </c>
+      <c r="C56" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E56" t="s">
+        <v>298</v>
+      </c>
+      <c r="F56" t="s">
+        <v>299</v>
+      </c>
+      <c r="G56" s="3">
+        <v>2</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>263</v>
+      </c>
+      <c r="L56" t="s">
+        <v>264</v>
+      </c>
+      <c r="M56" t="s">
+        <v>9</v>
+      </c>
+      <c r="N56" t="s">
+        <v>10</v>
+      </c>
+      <c r="O56" t="s">
+        <v>300</v>
+      </c>
+      <c r="P56" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R56" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S56" t="s">
+        <v>78</v>
+      </c>
+      <c r="T56" t="s">
+        <v>266</v>
+      </c>
+      <c r="U56" t="s">
+        <v>267</v>
+      </c>
+      <c r="V56" t="s">
+        <v>264</v>
+      </c>
+      <c r="W56" t="s">
+        <v>14</v>
+      </c>
+      <c r="X56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" t="s">
+        <v>262</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E57" t="s">
+        <v>301</v>
+      </c>
+      <c r="F57" t="s">
+        <v>302</v>
+      </c>
+      <c r="G57" s="3">
+        <v>75</v>
+      </c>
+      <c r="H57" s="3">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" t="s">
+        <v>263</v>
+      </c>
+      <c r="L57" t="s">
+        <v>264</v>
+      </c>
+      <c r="M57" t="s">
+        <v>9</v>
+      </c>
+      <c r="N57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" t="s">
+        <v>300</v>
+      </c>
+      <c r="P57" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R57" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S57" t="s">
+        <v>78</v>
+      </c>
+      <c r="T57" t="s">
+        <v>266</v>
+      </c>
+      <c r="U57" t="s">
+        <v>267</v>
+      </c>
+      <c r="V57" t="s">
+        <v>264</v>
+      </c>
+      <c r="W57" t="s">
+        <v>14</v>
+      </c>
+      <c r="X57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>297</v>
+      </c>
+      <c r="C58" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" t="s">
+        <v>263</v>
+      </c>
+      <c r="L58" t="s">
+        <v>264</v>
+      </c>
+      <c r="M58" t="s">
+        <v>9</v>
+      </c>
+      <c r="N58" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" t="s">
+        <v>300</v>
+      </c>
+      <c r="P58" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R58" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S58" t="s">
+        <v>78</v>
+      </c>
+      <c r="T58" t="s">
+        <v>266</v>
+      </c>
+      <c r="U58" t="s">
+        <v>267</v>
+      </c>
+      <c r="V58" t="s">
+        <v>264</v>
+      </c>
+      <c r="W58" t="s">
+        <v>14</v>
+      </c>
+      <c r="X58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>297</v>
+      </c>
+      <c r="C59" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="3">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" t="s">
+        <v>263</v>
+      </c>
+      <c r="L59" t="s">
+        <v>264</v>
+      </c>
+      <c r="M59" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" t="s">
+        <v>300</v>
+      </c>
+      <c r="P59" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R59" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S59" t="s">
+        <v>78</v>
+      </c>
+      <c r="T59" t="s">
+        <v>266</v>
+      </c>
+      <c r="U59" t="s">
+        <v>267</v>
+      </c>
+      <c r="V59" t="s">
+        <v>264</v>
+      </c>
+      <c r="W59" t="s">
+        <v>14</v>
+      </c>
+      <c r="X59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>303</v>
+      </c>
+      <c r="C60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E60" t="s">
+        <v>301</v>
+      </c>
+      <c r="F60" t="s">
+        <v>302</v>
+      </c>
+      <c r="G60" s="3">
+        <v>40</v>
+      </c>
+      <c r="H60" s="3">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s">
+        <v>305</v>
+      </c>
+      <c r="L60" t="s">
+        <v>306</v>
+      </c>
+      <c r="M60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N60" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" t="s">
+        <v>307</v>
+      </c>
+      <c r="P60" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R60" s="2">
+        <v>45414</v>
+      </c>
+      <c r="S60" t="s">
+        <v>308</v>
+      </c>
+      <c r="T60" t="s">
+        <v>305</v>
+      </c>
+      <c r="U60" t="s">
+        <v>304</v>
+      </c>
+      <c r="V60" t="s">
+        <v>306</v>
+      </c>
+      <c r="W60" t="s">
+        <v>14</v>
+      </c>
+      <c r="X60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E61" t="s">
+        <v>311</v>
+      </c>
+      <c r="F61" t="s">
+        <v>312</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" t="s">
+        <v>313</v>
+      </c>
+      <c r="L61" t="s">
+        <v>314</v>
+      </c>
+      <c r="M61" t="s">
+        <v>9</v>
+      </c>
+      <c r="N61" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" t="s">
+        <v>315</v>
+      </c>
+      <c r="P61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R61" s="2">
+        <v>45414</v>
+      </c>
+      <c r="S61" t="s">
+        <v>308</v>
+      </c>
+      <c r="T61" t="s">
+        <v>316</v>
+      </c>
+      <c r="U61" t="s">
+        <v>317</v>
+      </c>
+      <c r="V61" t="s">
+        <v>318</v>
+      </c>
+      <c r="W61" t="s">
+        <v>14</v>
+      </c>
+      <c r="X61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" t="s">
+        <v>320</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E62" t="s">
+        <v>321</v>
+      </c>
+      <c r="F62" t="s">
+        <v>322</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
+      <c r="I62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" t="s">
+        <v>323</v>
+      </c>
+      <c r="L62" t="s">
+        <v>324</v>
+      </c>
+      <c r="M62" t="s">
+        <v>9</v>
+      </c>
+      <c r="N62" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" t="s">
+        <v>325</v>
+      </c>
+      <c r="P62" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R62" s="2">
+        <v>45414</v>
+      </c>
+      <c r="S62" t="s">
+        <v>308</v>
+      </c>
+      <c r="T62" t="s">
+        <v>326</v>
+      </c>
+      <c r="U62" t="s">
+        <v>327</v>
+      </c>
+      <c r="V62" t="s">
+        <v>328</v>
+      </c>
+      <c r="W62" t="s">
+        <v>14</v>
+      </c>
+      <c r="X62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>329</v>
+      </c>
+      <c r="C63" t="s">
+        <v>330</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="3">
+        <v>5</v>
+      </c>
+      <c r="H63" s="3">
+        <v>5</v>
+      </c>
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" t="s">
+        <v>331</v>
+      </c>
+      <c r="L63" t="s">
+        <v>332</v>
+      </c>
+      <c r="M63" t="s">
+        <v>9</v>
+      </c>
+      <c r="N63" t="s">
+        <v>10</v>
+      </c>
+      <c r="O63" t="s">
+        <v>333</v>
+      </c>
+      <c r="P63" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R63" s="2">
+        <v>45414</v>
+      </c>
+      <c r="S63" t="s">
+        <v>308</v>
+      </c>
+      <c r="T63" t="s">
+        <v>334</v>
+      </c>
+      <c r="U63" t="s">
+        <v>335</v>
+      </c>
+      <c r="V63" t="s">
+        <v>207</v>
+      </c>
+      <c r="W63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>329</v>
+      </c>
+      <c r="C64" t="s">
+        <v>330</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="3">
+        <v>20</v>
+      </c>
+      <c r="H64" s="3">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" t="s">
+        <v>331</v>
+      </c>
+      <c r="L64" t="s">
+        <v>332</v>
+      </c>
+      <c r="M64" t="s">
+        <v>9</v>
+      </c>
+      <c r="N64" t="s">
+        <v>10</v>
+      </c>
+      <c r="O64" t="s">
+        <v>333</v>
+      </c>
+      <c r="P64" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R64" s="2">
+        <v>45414</v>
+      </c>
+      <c r="S64" t="s">
+        <v>308</v>
+      </c>
+      <c r="T64" t="s">
+        <v>334</v>
+      </c>
+      <c r="U64" t="s">
+        <v>335</v>
+      </c>
+      <c r="V64" t="s">
+        <v>207</v>
+      </c>
+      <c r="W64" t="s">
+        <v>14</v>
+      </c>
+      <c r="X64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>336</v>
+      </c>
+      <c r="C65" t="s">
+        <v>337</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" s="3">
+        <v>3</v>
+      </c>
+      <c r="H65" s="3">
+        <v>60</v>
+      </c>
+      <c r="I65" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" t="s">
+        <v>338</v>
+      </c>
+      <c r="L65" t="s">
+        <v>332</v>
+      </c>
+      <c r="M65" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65" t="s">
+        <v>10</v>
+      </c>
+      <c r="O65" t="s">
+        <v>339</v>
+      </c>
+      <c r="P65" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R65" s="2">
+        <v>45414</v>
+      </c>
+      <c r="S65" t="s">
+        <v>308</v>
+      </c>
+      <c r="T65" t="s">
+        <v>334</v>
+      </c>
+      <c r="U65" t="s">
+        <v>335</v>
+      </c>
+      <c r="V65" t="s">
+        <v>207</v>
+      </c>
+      <c r="W65" t="s">
+        <v>14</v>
+      </c>
+      <c r="X65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66" t="s">
+        <v>340</v>
+      </c>
+      <c r="B66" t="s">
+        <v>341</v>
+      </c>
+      <c r="C66" t="s">
+        <v>342</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E66" t="s">
+        <v>343</v>
+      </c>
+      <c r="F66" t="s">
+        <v>344</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>345</v>
+      </c>
+      <c r="K66" t="s">
+        <v>346</v>
+      </c>
+      <c r="L66" t="s">
+        <v>347</v>
+      </c>
+      <c r="M66" t="s">
+        <v>348</v>
+      </c>
+      <c r="N66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" t="s">
+        <v>349</v>
+      </c>
+      <c r="P66" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R66" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S66" t="s">
+        <v>78</v>
+      </c>
+      <c r="T66" t="s">
+        <v>346</v>
+      </c>
+      <c r="U66" t="s">
+        <v>351</v>
+      </c>
+      <c r="V66" t="s">
+        <v>352</v>
+      </c>
+      <c r="W66" t="s">
+        <v>14</v>
+      </c>
+      <c r="X66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67" t="s">
+        <v>340</v>
+      </c>
+      <c r="B67" t="s">
+        <v>353</v>
+      </c>
+      <c r="C67" t="s">
+        <v>354</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E67" t="s">
+        <v>343</v>
+      </c>
+      <c r="F67" t="s">
+        <v>344</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" t="s">
+        <v>345</v>
+      </c>
+      <c r="K67" t="s">
+        <v>346</v>
+      </c>
+      <c r="L67" t="s">
+        <v>355</v>
+      </c>
+      <c r="M67" t="s">
+        <v>348</v>
+      </c>
+      <c r="N67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O67" t="s">
+        <v>356</v>
+      </c>
+      <c r="P67" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R67" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S67" t="s">
+        <v>78</v>
+      </c>
+      <c r="T67" t="s">
+        <v>346</v>
+      </c>
+      <c r="U67" t="s">
+        <v>351</v>
+      </c>
+      <c r="V67" t="s">
+        <v>352</v>
+      </c>
+      <c r="W67" t="s">
+        <v>14</v>
+      </c>
+      <c r="X67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" t="s">
+        <v>340</v>
+      </c>
+      <c r="B68" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" t="s">
+        <v>358</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E68" t="s">
+        <v>343</v>
+      </c>
+      <c r="F68" t="s">
+        <v>344</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>345</v>
+      </c>
+      <c r="K68" t="s">
+        <v>346</v>
+      </c>
+      <c r="L68" t="s">
+        <v>359</v>
+      </c>
+      <c r="M68" t="s">
+        <v>348</v>
+      </c>
+      <c r="N68" t="s">
+        <v>10</v>
+      </c>
+      <c r="O68" t="s">
+        <v>360</v>
+      </c>
+      <c r="P68" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R68" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S68" t="s">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s">
+        <v>346</v>
+      </c>
+      <c r="U68" t="s">
+        <v>351</v>
+      </c>
+      <c r="V68" t="s">
+        <v>352</v>
+      </c>
+      <c r="W68" t="s">
+        <v>14</v>
+      </c>
+      <c r="X68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" t="s">
+        <v>361</v>
+      </c>
+      <c r="C69" t="s">
+        <v>354</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E69" t="s">
+        <v>362</v>
+      </c>
+      <c r="F69" t="s">
+        <v>363</v>
+      </c>
+      <c r="G69" s="3">
+        <v>2</v>
+      </c>
+      <c r="H69" s="3">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>345</v>
+      </c>
+      <c r="K69" t="s">
+        <v>346</v>
+      </c>
+      <c r="L69" t="s">
+        <v>355</v>
+      </c>
+      <c r="M69" t="s">
+        <v>348</v>
+      </c>
+      <c r="N69" t="s">
+        <v>10</v>
+      </c>
+      <c r="O69" t="s">
+        <v>364</v>
+      </c>
+      <c r="P69" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R69" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S69" t="s">
+        <v>78</v>
+      </c>
+      <c r="T69" t="s">
+        <v>346</v>
+      </c>
+      <c r="U69" t="s">
+        <v>351</v>
+      </c>
+      <c r="V69" t="s">
+        <v>352</v>
+      </c>
+      <c r="W69" t="s">
+        <v>14</v>
+      </c>
+      <c r="X69" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="375">
   <si>
     <t>P891</t>
   </si>
@@ -148,6 +148,57 @@
     <t>PARRAMATTA</t>
   </si>
   <si>
+    <t>133808547</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING - CHARLESTWN</t>
+  </si>
+  <si>
+    <t>1234715</t>
+  </si>
+  <si>
+    <t>CHARLESTOWN</t>
+  </si>
+  <si>
+    <t>717078804</t>
+  </si>
+  <si>
+    <t>010050</t>
+  </si>
+  <si>
+    <t>4595823</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>GOSFORD</t>
+  </si>
+  <si>
+    <t>03250768</t>
+  </si>
+  <si>
+    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133810874</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - TOWNSVILLE</t>
+  </si>
+  <si>
+    <t>4094369</t>
+  </si>
+  <si>
+    <t>THURINGOWA CENTRAL</t>
+  </si>
+  <si>
+    <t>717076174</t>
+  </si>
+  <si>
+    <t>040050</t>
+  </si>
+  <si>
     <t>133814149</t>
   </si>
   <si>
@@ -202,10 +253,310 @@
     <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
   </si>
   <si>
-    <t>133815764</t>
-  </si>
-  <si>
-    <t>DIRECT RADIOLOGY</t>
+    <t>133816061</t>
+  </si>
+  <si>
+    <t>Bayer Australia</t>
+  </si>
+  <si>
+    <t>86916967</t>
+  </si>
+  <si>
+    <t>MRXP,KIT,SYR,MULTI-PATIENT,MC,WLD</t>
+  </si>
+  <si>
+    <t>717074633</t>
+  </si>
+  <si>
+    <t>86936380</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,MRXP MP,MIC,MC,WLD</t>
+  </si>
+  <si>
+    <t>87518604</t>
+  </si>
+  <si>
+    <t>CLAMP,TUBE,0.078"-0.098" OD,MRX MP,MC</t>
+  </si>
+  <si>
+    <t>133816073</t>
+  </si>
+  <si>
+    <t>GARRAN MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>82212737</t>
+  </si>
+  <si>
+    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
+  </si>
+  <si>
+    <t>2122526</t>
+  </si>
+  <si>
+    <t>GARRAN</t>
+  </si>
+  <si>
+    <t>717075145</t>
+  </si>
+  <si>
+    <t>133816074</t>
+  </si>
+  <si>
+    <t>IA Corporation Pty Ltd</t>
+  </si>
+  <si>
+    <t>87236072</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,WLD1</t>
+  </si>
+  <si>
+    <t>2826555</t>
+  </si>
+  <si>
+    <t>DROUIN</t>
+  </si>
+  <si>
+    <t>717079191</t>
+  </si>
+  <si>
+    <t>133817729</t>
+  </si>
+  <si>
+    <t>EMI - FREEMASONS ALBERT ST</t>
+  </si>
+  <si>
+    <t>904671</t>
+  </si>
+  <si>
+    <t>EAST MELBOURNE</t>
+  </si>
+  <si>
+    <t>717074938</t>
+  </si>
+  <si>
+    <t>4685842</t>
+  </si>
+  <si>
+    <t>EPWORTH MEDICAL IMAGING, RICHMOND</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>133817829</t>
+  </si>
+  <si>
+    <t>DR GLENN &amp; PARTNERS MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>3018185</t>
+  </si>
+  <si>
+    <t>KOGARAH</t>
+  </si>
+  <si>
+    <t>717076646</t>
+  </si>
+  <si>
+    <t>87234487</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>133787995</t>
+  </si>
+  <si>
+    <t>ROYAL ADELAIDE HOSPITAL</t>
+  </si>
+  <si>
+    <t>86698188</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>4676781</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>717075869</t>
+  </si>
+  <si>
+    <t>4595446</t>
+  </si>
+  <si>
+    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133787996</t>
+  </si>
+  <si>
+    <t>THE ALFRED HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595753</t>
+  </si>
+  <si>
+    <t>MELBOURNE</t>
+  </si>
+  <si>
+    <t>717076795</t>
+  </si>
+  <si>
+    <t>4596298</t>
+  </si>
+  <si>
+    <t>ALFRED HEALTH</t>
+  </si>
+  <si>
+    <t>PRAHRAN</t>
+  </si>
+  <si>
+    <t>133787997</t>
+  </si>
+  <si>
+    <t>02112555</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
+  </si>
+  <si>
+    <t>717076832</t>
+  </si>
+  <si>
+    <t>133801216</t>
+  </si>
+  <si>
+    <t>FRANKSTON HOSPITAL</t>
+  </si>
+  <si>
+    <t>86660261</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,LPDCT,60",COILED,MC,WLD</t>
+  </si>
+  <si>
+    <t>4675190</t>
+  </si>
+  <si>
+    <t>FRANKSTON</t>
+  </si>
+  <si>
+    <t>717051392</t>
+  </si>
+  <si>
+    <t>4628393</t>
+  </si>
+  <si>
+    <t>PENINSULA HEALTH</t>
+  </si>
+  <si>
+    <t>133805197</t>
+  </si>
+  <si>
+    <t>BENDIGO HEALTH CARE GROUP</t>
+  </si>
+  <si>
+    <t>4595742</t>
+  </si>
+  <si>
+    <t>BENDIGO</t>
+  </si>
+  <si>
+    <t>717076695</t>
+  </si>
+  <si>
+    <t>4595741</t>
+  </si>
+  <si>
+    <t>80802544</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133805660</t>
+  </si>
+  <si>
+    <t>RPAH - DEPT OF RADIOLOGY</t>
+  </si>
+  <si>
+    <t>935608</t>
+  </si>
+  <si>
+    <t>CAMPERDOWN</t>
+  </si>
+  <si>
+    <t>717073518</t>
+  </si>
+  <si>
+    <t>4595817</t>
+  </si>
+  <si>
+    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
+  </si>
+  <si>
+    <t>133809329</t>
+  </si>
+  <si>
+    <t>SEQ DISTRIBUTION CENTRE DOCK U1</t>
+  </si>
+  <si>
+    <t>4614747</t>
+  </si>
+  <si>
+    <t>RICHLANDS</t>
+  </si>
+  <si>
+    <t>717077685</t>
+  </si>
+  <si>
+    <t>030130</t>
+  </si>
+  <si>
+    <t>4595067</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF HEALTH QLD</t>
+  </si>
+  <si>
+    <t>BRISBANE</t>
+  </si>
+  <si>
+    <t>133813541</t>
+  </si>
+  <si>
+    <t>CAIRNS HOSPITAL - MED IMAGING</t>
+  </si>
+  <si>
+    <t>4595739</t>
+  </si>
+  <si>
+    <t>CAIRNS</t>
+  </si>
+  <si>
+    <t>717074658</t>
+  </si>
+  <si>
+    <t>040130</t>
+  </si>
+  <si>
+    <t>4595808</t>
+  </si>
+  <si>
+    <t>CAIRNS &amp; HINTERLAND HOSPITAL</t>
+  </si>
+  <si>
+    <t>133813542</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - GREGORY HILLS</t>
   </si>
   <si>
     <t>86698242</t>
@@ -214,130 +565,412 @@
     <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
   </si>
   <si>
-    <t>1036936</t>
-  </si>
-  <si>
-    <t>FAIRFIELD</t>
-  </si>
-  <si>
-    <t>717079572</t>
-  </si>
-  <si>
-    <t>010050</t>
-  </si>
-  <si>
-    <t>86698188</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>133805196</t>
-  </si>
-  <si>
-    <t>BLACKTOWN HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596101</t>
-  </si>
-  <si>
-    <t>BLACKTOWN</t>
-  </si>
-  <si>
-    <t>717075406</t>
-  </si>
-  <si>
-    <t>4596108</t>
-  </si>
-  <si>
-    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
-  </si>
-  <si>
-    <t>133805197</t>
-  </si>
-  <si>
-    <t>BENDIGO HEALTH CARE GROUP</t>
-  </si>
-  <si>
-    <t>4595742</t>
-  </si>
-  <si>
-    <t>BENDIGO</t>
-  </si>
-  <si>
-    <t>717076695</t>
-  </si>
-  <si>
-    <t>4595741</t>
-  </si>
-  <si>
-    <t>80802544</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133806713</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - DARWIN PH</t>
-  </si>
-  <si>
-    <t>84200085</t>
-  </si>
-  <si>
-    <t>SYSTEM,INJECTOR,MRXPERION</t>
-  </si>
-  <si>
-    <t>4595944</t>
-  </si>
-  <si>
-    <t>TIWI</t>
-  </si>
-  <si>
-    <t>717079800</t>
+    <t>4595667</t>
+  </si>
+  <si>
+    <t>GLEDSWOOD HILLS</t>
+  </si>
+  <si>
+    <t>717080190</t>
+  </si>
+  <si>
+    <t>4595668</t>
+  </si>
+  <si>
+    <t>133817541</t>
+  </si>
+  <si>
+    <t>86617439</t>
+  </si>
+  <si>
+    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>717071606</t>
+  </si>
+  <si>
+    <t>133817542</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES - NORTH</t>
+  </si>
+  <si>
+    <t>87238504</t>
+  </si>
+  <si>
+    <t>TUBE,EXT,SINGLE,WLD1</t>
+  </si>
+  <si>
+    <t>4596287</t>
+  </si>
+  <si>
+    <t>BUNDOORA</t>
+  </si>
+  <si>
+    <t>717072254</t>
+  </si>
+  <si>
+    <t>4595462</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES (VIC)</t>
+  </si>
+  <si>
+    <t>ST LEONARDS</t>
+  </si>
+  <si>
+    <t>133817543</t>
+  </si>
+  <si>
+    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
+  </si>
+  <si>
+    <t>4670712</t>
+  </si>
+  <si>
+    <t>DERRIMUT</t>
+  </si>
+  <si>
+    <t>717074268</t>
+  </si>
+  <si>
+    <t>4670709</t>
+  </si>
+  <si>
+    <t>HEALTHSHARE VICTORIA</t>
+  </si>
+  <si>
+    <t>133817544</t>
+  </si>
+  <si>
+    <t>HUNTER IMAGING GROUP - SINGLETON</t>
+  </si>
+  <si>
+    <t>4596138</t>
+  </si>
+  <si>
+    <t>SINGLETON</t>
+  </si>
+  <si>
+    <t>717076326</t>
+  </si>
+  <si>
+    <t>4596223</t>
+  </si>
+  <si>
+    <t>HUNTER IMAGING GROUP PTY LIMITED</t>
+  </si>
+  <si>
+    <t>ADAMSTOWN</t>
+  </si>
+  <si>
+    <t>133817545</t>
+  </si>
+  <si>
+    <t>WHITSUNDAY RADIOLOGY PTY LTD</t>
+  </si>
+  <si>
+    <t>4776551</t>
+  </si>
+  <si>
+    <t>CANNONVALE</t>
+  </si>
+  <si>
+    <t>717076775</t>
+  </si>
+  <si>
+    <t>133817546</t>
+  </si>
+  <si>
+    <t>PETER MACCALLUM CANCER CENTRE</t>
+  </si>
+  <si>
+    <t>4704669</t>
+  </si>
+  <si>
+    <t>717078794</t>
+  </si>
+  <si>
+    <t>3017201</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>133817547</t>
+  </si>
+  <si>
+    <t>717079690</t>
+  </si>
+  <si>
+    <t>86610280</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,STELLANT MP,MIC,MC,EU</t>
+  </si>
+  <si>
+    <t>133817728</t>
+  </si>
+  <si>
+    <t>133817730</t>
+  </si>
+  <si>
+    <t>JOHN HUNTER HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595241</t>
+  </si>
+  <si>
+    <t>NEW LAMBTON HEIGHTS</t>
+  </si>
+  <si>
+    <t>717075419</t>
+  </si>
+  <si>
+    <t>4595328</t>
+  </si>
+  <si>
+    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
+  </si>
+  <si>
+    <t>NEWCASTLE</t>
+  </si>
+  <si>
+    <t>133817732</t>
+  </si>
+  <si>
+    <t>EPWORTH MEDICAL IMAGING - RICHMOND</t>
+  </si>
+  <si>
+    <t>4695084</t>
+  </si>
+  <si>
+    <t>717079940</t>
+  </si>
+  <si>
+    <t>133818138</t>
+  </si>
+  <si>
+    <t>FAR NORTH QLD REGIONAL</t>
+  </si>
+  <si>
+    <t>929201</t>
+  </si>
+  <si>
+    <t>WOREE</t>
+  </si>
+  <si>
+    <t>717076685</t>
+  </si>
+  <si>
+    <t>133818208</t>
+  </si>
+  <si>
+    <t>ALTO IMAGING - SALAMANDER BAY</t>
+  </si>
+  <si>
+    <t>4596059</t>
+  </si>
+  <si>
+    <t>SALAMANDER BAY</t>
+  </si>
+  <si>
+    <t>717077037</t>
+  </si>
+  <si>
+    <t>4596060</t>
+  </si>
+  <si>
+    <t>ALTO IMAGING</t>
+  </si>
+  <si>
+    <t>HAMILTON</t>
+  </si>
+  <si>
+    <t>133818209</t>
+  </si>
+  <si>
+    <t>717077344</t>
+  </si>
+  <si>
+    <t>133818248</t>
+  </si>
+  <si>
+    <t>PINDARA PRIVATE HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596130</t>
+  </si>
+  <si>
+    <t>BENOWA</t>
+  </si>
+  <si>
+    <t>717079700</t>
+  </si>
+  <si>
+    <t>4595466</t>
+  </si>
+  <si>
+    <t>RAMSAY HEALTH CARE</t>
+  </si>
+  <si>
+    <t>ST KILDA ROAD</t>
+  </si>
+  <si>
+    <t>133817842</t>
+  </si>
+  <si>
+    <t>CONCORD HOSPITAL</t>
+  </si>
+  <si>
+    <t>86617552</t>
+  </si>
+  <si>
+    <t>PROVIS,KIT,SYR,ANGIO,150ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595884</t>
+  </si>
+  <si>
+    <t>CONCORD WEST</t>
+  </si>
+  <si>
+    <t>717051991</t>
+  </si>
+  <si>
+    <t>010230</t>
+  </si>
+  <si>
+    <t>133778037</t>
+  </si>
+  <si>
+    <t>JOONDALUP HOSPITAL PHARMACY</t>
+  </si>
+  <si>
+    <t>80727543</t>
+  </si>
+  <si>
+    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
+  </si>
+  <si>
+    <t>930456</t>
+  </si>
+  <si>
+    <t>Jooondalup</t>
+  </si>
+  <si>
+    <t>717078123</t>
+  </si>
+  <si>
+    <t>010530</t>
+  </si>
+  <si>
+    <t>133808270</t>
+  </si>
+  <si>
+    <t>PERTH RAD CLINIC LTD -</t>
+  </si>
+  <si>
+    <t>86566621</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595281</t>
+  </si>
+  <si>
+    <t>MIDLAND</t>
+  </si>
+  <si>
+    <t>717068177</t>
   </si>
   <si>
     <t>EHGHA</t>
   </si>
   <si>
-    <t>060130</t>
-  </si>
-  <si>
-    <t>84680761</t>
-  </si>
-  <si>
-    <t>KIT,PANEL,PENETRATION,MRXP</t>
-  </si>
-  <si>
-    <t>85957449</t>
-  </si>
-  <si>
-    <t>ASSY,FINAL,CRU,MRXP,WS3T</t>
-  </si>
-  <si>
-    <t>84290149</t>
-  </si>
-  <si>
-    <t>Assy, IV Pole, MRXperion</t>
-  </si>
-  <si>
-    <t>84029459</t>
-  </si>
-  <si>
-    <t>LABEL,WARN,AIR,MULTI-LINGUAL,MRXPERION</t>
-  </si>
-  <si>
-    <t>84284114</t>
-  </si>
-  <si>
-    <t>MANUAL,OPERATORS,ENGLISH,MRXPERION</t>
-  </si>
-  <si>
-    <t>84284173</t>
-  </si>
-  <si>
-    <t>Installation Manual</t>
+    <t>4595291</t>
+  </si>
+  <si>
+    <t>PERTHRADCLINIC LTD</t>
+  </si>
+  <si>
+    <t>MIRRABOOKA</t>
+  </si>
+  <si>
+    <t>133817828</t>
+  </si>
+  <si>
+    <t>LAUNCESTON GENERAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595878</t>
+  </si>
+  <si>
+    <t>KINGS MEADOWS</t>
+  </si>
+  <si>
+    <t>717076465</t>
+  </si>
+  <si>
+    <t>3310765</t>
+  </si>
+  <si>
+    <t>TASMANIAN HEALTH SERVICE</t>
+  </si>
+  <si>
+    <t>HOBART</t>
+  </si>
+  <si>
+    <t>133815919</t>
+  </si>
+  <si>
+    <t>85937286</t>
+  </si>
+  <si>
+    <t>STELLANT,SYS,INJ,D SYR,W/CERT WKS,MC,4ED</t>
+  </si>
+  <si>
+    <t>Luscombe</t>
+  </si>
+  <si>
+    <t>716952038</t>
+  </si>
+  <si>
+    <t>85950924</t>
+  </si>
+  <si>
+    <t>ASSY,FINAL, CRU,STELLANT II,WS3T</t>
+  </si>
+  <si>
+    <t>84432602</t>
+  </si>
+  <si>
+    <t>ASSY,CABLE,HEAD EXT,75 FT.,(SINGLE/DUAL)</t>
+  </si>
+  <si>
+    <t>59876264</t>
+  </si>
+  <si>
+    <t>ASSY., CABLE, BASE TO DISPLAY, 25FT</t>
+  </si>
+  <si>
+    <t>86417340</t>
+  </si>
+  <si>
+    <t>MAN,OP,WKSTN,CERTEGRA,STELLANT,MC,4ED</t>
+  </si>
+  <si>
+    <t>60728044</t>
+  </si>
+  <si>
+    <t>PRODUCT WARR INFO PKG,MIS,INTL,MC</t>
+  </si>
+  <si>
+    <t>60728052</t>
+  </si>
+  <si>
+    <t>LABEL,EULA,CERTEGRA,MC</t>
   </si>
   <si>
     <t>86621495</t>
@@ -346,210 +979,6 @@
     <t>POWER CORD- AUSTRALIA</t>
   </si>
   <si>
-    <t>85879170</t>
-  </si>
-  <si>
-    <t>ASSY,GREEN ADAPTER,MRXP</t>
-  </si>
-  <si>
-    <t>86697505</t>
-  </si>
-  <si>
-    <t>KIT,LANGUAGE,MRXP PFA,EN</t>
-  </si>
-  <si>
-    <t>133815630</t>
-  </si>
-  <si>
-    <t>THE ALFRED HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595753</t>
-  </si>
-  <si>
-    <t>MELBOURNE</t>
-  </si>
-  <si>
-    <t>717073656</t>
-  </si>
-  <si>
-    <t>4596298</t>
-  </si>
-  <si>
-    <t>ALFRED HEALTH</t>
-  </si>
-  <si>
-    <t>PRAHRAN</t>
-  </si>
-  <si>
-    <t>02112555</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133815631</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICE PTY LTD</t>
-  </si>
-  <si>
-    <t>03250768</t>
-  </si>
-  <si>
-    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4595317</t>
-  </si>
-  <si>
-    <t>FRENCHS FOREST</t>
-  </si>
-  <si>
-    <t>717073779</t>
-  </si>
-  <si>
-    <t>4595461</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES (NSW)</t>
-  </si>
-  <si>
-    <t>ST LEONARDS</t>
-  </si>
-  <si>
-    <t>133815635</t>
-  </si>
-  <si>
-    <t>ST VINCENT'S HOSPITAL (MELBOURNE)</t>
-  </si>
-  <si>
-    <t>4595793</t>
-  </si>
-  <si>
-    <t>FITZROY</t>
-  </si>
-  <si>
-    <t>717077166</t>
-  </si>
-  <si>
-    <t>4595792</t>
-  </si>
-  <si>
-    <t>ST VINCENT'S HOSPITAL MELBOURNE LTD</t>
-  </si>
-  <si>
-    <t>133817298</t>
-  </si>
-  <si>
-    <t>ROYAL NORTH SHORE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595335</t>
-  </si>
-  <si>
-    <t>717078802</t>
-  </si>
-  <si>
-    <t>4595339</t>
-  </si>
-  <si>
-    <t>NORTHERN SYDNEY LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>NEWCASTLE</t>
-  </si>
-  <si>
-    <t>133817358</t>
-  </si>
-  <si>
-    <t>TAMWORTH HEALTH SERVICE</t>
-  </si>
-  <si>
-    <t>4595242</t>
-  </si>
-  <si>
-    <t>TAMWORTH</t>
-  </si>
-  <si>
-    <t>717077036</t>
-  </si>
-  <si>
-    <t>4595328</t>
-  </si>
-  <si>
-    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
-  </si>
-  <si>
-    <t>133817359</t>
-  </si>
-  <si>
-    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
-  </si>
-  <si>
-    <t>4670712</t>
-  </si>
-  <si>
-    <t>DERRIMUT</t>
-  </si>
-  <si>
-    <t>717077344</t>
-  </si>
-  <si>
-    <t>4670709</t>
-  </si>
-  <si>
-    <t>HEALTHSHARE VICTORIA</t>
-  </si>
-  <si>
-    <t>133778037</t>
-  </si>
-  <si>
-    <t>JOONDALUP HOSPITAL PHARMACY</t>
-  </si>
-  <si>
-    <t>80727543</t>
-  </si>
-  <si>
-    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
-  </si>
-  <si>
-    <t>930456</t>
-  </si>
-  <si>
-    <t>Jooondalup</t>
-  </si>
-  <si>
-    <t>717078123</t>
-  </si>
-  <si>
-    <t>010530</t>
-  </si>
-  <si>
-    <t>133815629</t>
-  </si>
-  <si>
-    <t>PERTH RAD CLINIC LTD - MIDLAND</t>
-  </si>
-  <si>
-    <t>4595273</t>
-  </si>
-  <si>
-    <t>MIDLAND</t>
-  </si>
-  <si>
-    <t>717066958</t>
-  </si>
-  <si>
-    <t>4595291</t>
-  </si>
-  <si>
-    <t>PERTHRADCLINIC LTD</t>
-  </si>
-  <si>
-    <t>MIRRABOOKA</t>
-  </si>
-  <si>
     <t>P8SW</t>
   </si>
   <si>
@@ -623,6 +1052,18 @@
   </si>
   <si>
     <t>2172546379</t>
+  </si>
+  <si>
+    <t>133818218</t>
+  </si>
+  <si>
+    <t>60339099</t>
+  </si>
+  <si>
+    <t>BATTERY,DRIVE MOTOR</t>
+  </si>
+  <si>
+    <t>2172550175</t>
   </si>
   <si>
     <t>Shipping Point/Receiving Pt</t>
@@ -799,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,16 +1250,16 @@
   <cols>
     <col min="1" max="1" bestFit="1" width="18" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="11" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="36" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="37" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="14" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="41" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="42" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="12" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="13" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="6" customWidth="1"/>
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="6" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="15" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="16" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="21" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15" customWidth="1"/>
     <col min="14" max="14" bestFit="1" width="6" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="21" customWidth="1"/>
@@ -828,83 +1269,83 @@
     <col min="19" max="19" bestFit="1" width="8" customWidth="1"/>
     <col min="20" max="20" bestFit="1" width="15" customWidth="1"/>
     <col min="21" max="21" bestFit="1" width="37" customWidth="1"/>
-    <col min="22" max="22" bestFit="1" width="17" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="20" customWidth="1"/>
     <col min="23" max="23" bestFit="1" width="12" customWidth="1"/>
     <col min="24" max="24" bestFit="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>204</v>
+        <v>351</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>352</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>353</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>354</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>355</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>209</v>
+        <v>356</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>210</v>
+        <v>357</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>213</v>
+        <v>360</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>215</v>
+        <v>362</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>216</v>
+        <v>363</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>217</v>
+        <v>364</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>218</v>
+        <v>365</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>220</v>
+        <v>367</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>221</v>
+        <v>368</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>224</v>
+        <v>371</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>225</v>
+        <v>372</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>226</v>
+        <v>373</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>227</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1291,28 +1732,28 @@
         <v>45406</v>
       </c>
       <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
         <v>48</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
@@ -1321,28 +1762,28 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="2">
         <v>45406</v>
       </c>
       <c r="R7" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="S7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="T7" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="V7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="W7" t="s">
         <v>14</v>
@@ -1356,25 +1797,25 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2">
         <v>45406</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -1383,10 +1824,10 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -1395,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P8" t="s">
         <v>30</v>
@@ -1404,19 +1845,19 @@
         <v>45406</v>
       </c>
       <c r="R8" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U8" t="s">
         <v>52</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W8" t="s">
         <v>14</v>
@@ -1430,25 +1871,25 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2">
         <v>45406</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G9" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -1457,10 +1898,10 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -1469,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s">
         <v>30</v>
@@ -1478,19 +1919,19 @@
         <v>45406</v>
       </c>
       <c r="R9" s="2">
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="S9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" t="s">
         <v>58</v>
       </c>
-      <c r="T9" t="s">
-        <v>55</v>
-      </c>
       <c r="U9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W9" t="s">
         <v>14</v>
@@ -1504,25 +1945,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2">
         <v>45406</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -1531,10 +1972,10 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -1543,28 +1984,28 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="P10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="2">
         <v>45406</v>
       </c>
       <c r="R10" s="2">
-        <v>45411</v>
+        <v>45406</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="U10" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="W10" t="s">
         <v>14</v>
@@ -1578,25 +2019,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2">
         <v>45406</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G11" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H11" s="3">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -1605,10 +2046,10 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -1617,7 +2058,7 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s">
         <v>30</v>
@@ -1629,16 +2070,16 @@
         <v>45411</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s">
         <v>14</v>
@@ -1652,25 +2093,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2">
         <v>45406</v>
       </c>
       <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -1679,10 +2120,10 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -1691,7 +2132,7 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s">
         <v>30</v>
@@ -1700,19 +2141,19 @@
         <v>45406</v>
       </c>
       <c r="R12" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="V12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s">
         <v>14</v>
@@ -1726,37 +2167,37 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2">
         <v>45406</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>40</v>
-      </c>
-      <c r="I13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
-        <v>67</v>
-      </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -1765,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P13" t="s">
         <v>30</v>
@@ -1774,19 +2215,19 @@
         <v>45406</v>
       </c>
       <c r="R13" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="V13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s">
         <v>14</v>
@@ -1800,37 +2241,37 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
         <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45408</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>24</v>
-      </c>
-      <c r="H14" s="3">
-        <v>24</v>
-      </c>
-      <c r="I14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" t="s">
-        <v>76</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -1839,28 +2280,28 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s">
         <v>30</v>
       </c>
       <c r="Q14" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="R14" s="2">
         <v>45411</v>
       </c>
       <c r="S14" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="V14" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s">
         <v>14</v>
@@ -1880,19 +2321,19 @@
         <v>81</v>
       </c>
       <c r="D15" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -1901,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -1916,25 +2357,25 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="R15" s="2">
-        <v>45412</v>
+        <v>45406</v>
       </c>
       <c r="S15" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="U15" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="V15" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -1954,19 +2395,19 @@
         <v>81</v>
       </c>
       <c r="D16" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
         <v>86</v>
       </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
       <c r="G16" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -1975,10 +2416,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -1990,25 +2431,25 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="R16" s="2">
-        <v>45412</v>
+        <v>45406</v>
       </c>
       <c r="S16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="T16" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="U16" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2028,19 +2469,19 @@
         <v>81</v>
       </c>
       <c r="D17" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2049,10 +2490,10 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2064,25 +2505,25 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="R17" s="2">
-        <v>45412</v>
+        <v>45406</v>
       </c>
       <c r="S17" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="T17" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="U17" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="V17" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2096,25 +2537,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
-        <v>25</v>
-      </c>
       <c r="H18" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2123,10 +2564,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2135,28 +2576,28 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P18" t="s">
         <v>30</v>
       </c>
       <c r="Q18" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="R18" s="2">
-        <v>45412</v>
+        <v>45408</v>
       </c>
       <c r="S18" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="T18" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="U18" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="V18" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2170,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -2197,10 +2638,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2209,28 +2650,28 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R19" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S19" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" t="s">
+        <v>93</v>
+      </c>
+      <c r="U19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V19" t="s">
         <v>94</v>
-      </c>
-      <c r="P19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>45408</v>
-      </c>
-      <c r="R19" s="2">
-        <v>45418</v>
-      </c>
-      <c r="S19" t="s">
-        <v>96</v>
-      </c>
-      <c r="T19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U19" t="s">
-        <v>89</v>
-      </c>
-      <c r="V19" t="s">
-        <v>93</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2244,25 +2685,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2271,10 +2712,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2283,28 +2724,28 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="R20" s="2">
-        <v>45418</v>
+        <v>45411</v>
       </c>
       <c r="S20" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="U20" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="V20" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2318,37 +2759,37 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" t="s">
-        <v>92</v>
-      </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -2357,28 +2798,28 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="R21" s="2">
-        <v>45418</v>
+        <v>45411</v>
       </c>
       <c r="S21" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="U21" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="V21" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2392,25 +2833,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2419,10 +2860,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L22" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2431,28 +2872,28 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="R22" s="2">
-        <v>45418</v>
+        <v>45408</v>
       </c>
       <c r="S22" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="T22" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="U22" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="V22" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2466,25 +2907,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H23" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -2493,10 +2934,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -2505,28 +2946,28 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="R23" s="2">
-        <v>45418</v>
+        <v>45408</v>
       </c>
       <c r="S23" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="T23" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="U23" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="V23" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2540,25 +2981,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D24" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H24" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -2567,10 +3008,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="L24" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -2579,28 +3020,28 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="P24" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="R24" s="2">
-        <v>45418</v>
+        <v>45408</v>
       </c>
       <c r="S24" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="T24" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="U24" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="V24" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -2614,25 +3055,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D25" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -2641,10 +3082,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="L25" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -2653,28 +3094,28 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="P25" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="2">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="R25" s="2">
-        <v>45418</v>
+        <v>45408</v>
       </c>
       <c r="S25" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="T25" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="U25" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="V25" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -2688,25 +3129,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D26" s="2">
         <v>45408</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -2715,10 +3156,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="L26" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -2727,28 +3168,28 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="P26" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="Q26" s="2">
         <v>45408</v>
       </c>
       <c r="R26" s="2">
-        <v>45418</v>
+        <v>45412</v>
       </c>
       <c r="S26" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="T26" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="U26" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="V26" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -2762,25 +3203,25 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2">
         <v>45408</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
       </c>
       <c r="H27" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -2789,10 +3230,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -2801,28 +3242,28 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="P27" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="2">
         <v>45408</v>
       </c>
       <c r="R27" s="2">
-        <v>45418</v>
+        <v>45411</v>
       </c>
       <c r="S27" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="U27" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="V27" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -2836,19 +3277,19 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D28" s="2">
         <v>45408</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
@@ -2863,10 +3304,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="L28" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -2875,28 +3316,28 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="P28" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="2">
         <v>45408</v>
       </c>
       <c r="R28" s="2">
-        <v>45418</v>
+        <v>45412</v>
       </c>
       <c r="S28" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="T28" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="U28" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="V28" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -2910,25 +3351,25 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D29" s="2">
         <v>45408</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="G29" s="3">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="H29" s="3">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -2937,10 +3378,10 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="L29" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -2949,10 +3390,10 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="P29" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q29" s="2">
         <v>45408</v>
@@ -2964,13 +3405,13 @@
         <v>41</v>
       </c>
       <c r="T29" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="U29" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="V29" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -2984,25 +3425,25 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="D30" s="2">
         <v>45408</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="G30" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H30" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3011,10 +3452,10 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="L30" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3023,7 +3464,7 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="P30" t="s">
         <v>30</v>
@@ -3032,19 +3473,19 @@
         <v>45408</v>
       </c>
       <c r="R30" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S30" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T30" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="U30" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="V30" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3058,25 +3499,25 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D31" s="2">
         <v>45408</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="G31" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H31" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3085,10 +3526,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3097,7 +3538,7 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="P31" t="s">
         <v>30</v>
@@ -3106,19 +3547,19 @@
         <v>45408</v>
       </c>
       <c r="R31" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S31" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T31" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="U31" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="V31" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3132,25 +3573,25 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D32" s="2">
         <v>45408</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="G32" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3159,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L32" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3171,7 +3612,7 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P32" t="s">
         <v>30</v>
@@ -3180,19 +3621,19 @@
         <v>45408</v>
       </c>
       <c r="R32" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S32" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T32" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="U32" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="V32" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3206,25 +3647,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D33" s="2">
         <v>45408</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H33" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3233,10 +3674,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L33" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3245,7 +3686,7 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="P33" t="s">
         <v>30</v>
@@ -3254,19 +3695,19 @@
         <v>45408</v>
       </c>
       <c r="R33" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S33" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T33" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="U33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V33" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3280,25 +3721,25 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D34" s="2">
         <v>45408</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G34" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H34" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3307,10 +3748,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L34" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3319,7 +3760,7 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="P34" t="s">
         <v>30</v>
@@ -3328,19 +3769,19 @@
         <v>45408</v>
       </c>
       <c r="R34" s="2">
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="S34" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="U34" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="V34" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3354,25 +3795,25 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D35" s="2">
         <v>45408</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="G35" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H35" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3381,10 +3822,10 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L35" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -3393,7 +3834,7 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="P35" t="s">
         <v>30</v>
@@ -3402,19 +3843,19 @@
         <v>45408</v>
       </c>
       <c r="R35" s="2">
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="S35" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="T35" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="U35" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="V35" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3437,16 +3878,16 @@
         <v>45408</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="G36" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H36" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3488,7 +3929,7 @@
         <v>162</v>
       </c>
       <c r="V36" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -3508,31 +3949,31 @@
         <v>164</v>
       </c>
       <c r="D37" s="2">
-        <v>45414</v>
+        <v>45408</v>
       </c>
       <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="3">
+        <v>45</v>
+      </c>
+      <c r="H37" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" t="s">
         <v>165</v>
       </c>
-      <c r="F37" t="s">
+      <c r="L37" t="s">
         <v>166</v>
-      </c>
-      <c r="G37" s="3">
-        <v>30</v>
-      </c>
-      <c r="H37" s="3">
-        <v>30</v>
-      </c>
-      <c r="I37" t="s">
-        <v>5</v>
-      </c>
-      <c r="J37" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" t="s">
-        <v>167</v>
-      </c>
-      <c r="L37" t="s">
-        <v>168</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -3541,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P37" t="s">
         <v>30</v>
       </c>
       <c r="Q37" s="2">
-        <v>45414</v>
+        <v>45408</v>
       </c>
       <c r="R37" s="2">
-        <v>45415</v>
+        <v>45413</v>
       </c>
       <c r="S37" t="s">
+        <v>168</v>
+      </c>
+      <c r="T37" t="s">
+        <v>169</v>
+      </c>
+      <c r="U37" t="s">
         <v>170</v>
       </c>
-      <c r="T37" t="s">
-        <v>167</v>
-      </c>
-      <c r="U37" t="s">
-        <v>164</v>
-      </c>
       <c r="V37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -3576,22 +4017,22 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D38" s="2">
-        <v>45414</v>
+        <v>45408</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G38" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H38" s="3">
         <v>8</v>
@@ -3603,10 +4044,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -3615,28 +4056,28 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P38" t="s">
         <v>30</v>
       </c>
       <c r="Q38" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R38" s="2">
         <v>45414</v>
       </c>
-      <c r="R38" s="2">
-        <v>45415</v>
-      </c>
       <c r="S38" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="T38" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="U38" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -3650,25 +4091,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D39" s="2">
-        <v>45414</v>
+        <v>45408</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="G39" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H39" s="3">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -3677,10 +4118,10 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L39" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -3689,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P39" t="s">
         <v>30</v>
       </c>
       <c r="Q39" s="2">
-        <v>45414</v>
+        <v>45408</v>
       </c>
       <c r="R39" s="2">
-        <v>45415</v>
+        <v>45411</v>
       </c>
       <c r="S39" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="T39" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="U39" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="V39" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
@@ -3721,7 +4162,7 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
         <v>180</v>
@@ -3730,61 +4171,61 @@
         <v>181</v>
       </c>
       <c r="D40" s="2">
-        <v>45308</v>
+        <v>45408</v>
       </c>
       <c r="E40" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
       </c>
       <c r="H40" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
       </c>
       <c r="J40" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" t="s">
         <v>184</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>185</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" t="s">
         <v>186</v>
       </c>
-      <c r="M40" t="s">
-        <v>187</v>
-      </c>
-      <c r="N40" t="s">
-        <v>10</v>
-      </c>
-      <c r="O40" t="s">
-        <v>188</v>
-      </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="Q40" s="2">
-        <v>45308</v>
+        <v>45408</v>
       </c>
       <c r="R40" s="2">
-        <v>45309</v>
+        <v>45411</v>
       </c>
       <c r="S40" t="s">
         <v>41</v>
       </c>
       <c r="T40" t="s">
+        <v>187</v>
+      </c>
+      <c r="U40" t="s">
+        <v>181</v>
+      </c>
+      <c r="V40" t="s">
         <v>185</v>
-      </c>
-      <c r="U40" t="s">
-        <v>190</v>
-      </c>
-      <c r="V40" t="s">
-        <v>191</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -3795,70 +4236,70 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2">
-        <v>45308</v>
+        <v>45408</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F41" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
       </c>
       <c r="H41" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="L41" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="M41" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="N41" t="s">
         <v>10</v>
       </c>
       <c r="O41" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="Q41" s="2">
-        <v>45308</v>
+        <v>45408</v>
       </c>
       <c r="R41" s="2">
-        <v>45309</v>
+        <v>45411</v>
       </c>
       <c r="S41" t="s">
         <v>41</v>
       </c>
       <c r="T41" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="U41" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="V41" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -3869,70 +4310,70 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2</v>
+      </c>
+      <c r="H42" s="3">
+        <v>100</v>
+      </c>
+      <c r="I42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" t="s">
         <v>196</v>
       </c>
-      <c r="C42" t="s">
+      <c r="L42" t="s">
         <v>197</v>
       </c>
-      <c r="D42" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E42" t="s">
-        <v>182</v>
-      </c>
-      <c r="F42" t="s">
-        <v>183</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" t="s">
-        <v>184</v>
-      </c>
-      <c r="K42" t="s">
-        <v>185</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42" t="s">
         <v>198</v>
       </c>
-      <c r="M42" t="s">
-        <v>187</v>
-      </c>
-      <c r="N42" t="s">
-        <v>10</v>
-      </c>
-      <c r="O42" t="s">
-        <v>199</v>
-      </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="Q42" s="2">
-        <v>45308</v>
+        <v>45408</v>
       </c>
       <c r="R42" s="2">
-        <v>45309</v>
+        <v>45411</v>
       </c>
       <c r="S42" t="s">
         <v>41</v>
       </c>
       <c r="T42" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="U42" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="V42" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -3943,75 +4384,2443 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D43" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="G43" s="3">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="H43" s="3">
-        <v>2</v>
+        <v>820</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L43" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M43" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="N43" t="s">
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P43" t="s">
         <v>30</v>
       </c>
       <c r="Q43" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R43" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S43" t="s">
         <v>41</v>
       </c>
       <c r="T43" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="U43" t="s">
+        <v>208</v>
+      </c>
+      <c r="V43" t="s">
+        <v>130</v>
+      </c>
+      <c r="W43" t="s">
+        <v>14</v>
+      </c>
+      <c r="X43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" t="s">
+        <v>211</v>
+      </c>
+      <c r="L44" t="s">
+        <v>212</v>
+      </c>
+      <c r="M44" t="s">
+        <v>9</v>
+      </c>
+      <c r="N44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" t="s">
+        <v>213</v>
+      </c>
+      <c r="P44" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R44" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S44" t="s">
+        <v>13</v>
+      </c>
+      <c r="T44" t="s">
+        <v>214</v>
+      </c>
+      <c r="U44" t="s">
+        <v>215</v>
+      </c>
+      <c r="V44" t="s">
+        <v>216</v>
+      </c>
+      <c r="W44" t="s">
+        <v>14</v>
+      </c>
+      <c r="X44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" t="s">
+        <v>219</v>
+      </c>
+      <c r="L45" t="s">
+        <v>220</v>
+      </c>
+      <c r="M45" t="s">
+        <v>9</v>
+      </c>
+      <c r="N45" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" t="s">
+        <v>221</v>
+      </c>
+      <c r="P45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R45" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S45" t="s">
+        <v>168</v>
+      </c>
+      <c r="T45" t="s">
+        <v>219</v>
+      </c>
+      <c r="U45" t="s">
+        <v>218</v>
+      </c>
+      <c r="V45" t="s">
+        <v>220</v>
+      </c>
+      <c r="W45" t="s">
+        <v>14</v>
+      </c>
+      <c r="X45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3">
+        <v>50</v>
+      </c>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" t="s">
+        <v>130</v>
+      </c>
+      <c r="M46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" t="s">
+        <v>225</v>
+      </c>
+      <c r="P46" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R46" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S46" t="s">
+        <v>41</v>
+      </c>
+      <c r="T46" t="s">
+        <v>226</v>
+      </c>
+      <c r="U46" t="s">
+        <v>223</v>
+      </c>
+      <c r="V46" t="s">
+        <v>227</v>
+      </c>
+      <c r="W46" t="s">
+        <v>14</v>
+      </c>
+      <c r="X46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2</v>
+      </c>
+      <c r="H47" s="3">
+        <v>100</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" t="s">
+        <v>204</v>
+      </c>
+      <c r="L47" t="s">
+        <v>205</v>
+      </c>
+      <c r="M47" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" t="s">
+        <v>229</v>
+      </c>
+      <c r="P47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R47" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S47" t="s">
+        <v>41</v>
+      </c>
+      <c r="T47" t="s">
+        <v>207</v>
+      </c>
+      <c r="U47" t="s">
+        <v>208</v>
+      </c>
+      <c r="V47" t="s">
+        <v>130</v>
+      </c>
+      <c r="W47" t="s">
+        <v>14</v>
+      </c>
+      <c r="X47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E48" t="s">
+        <v>230</v>
+      </c>
+      <c r="F48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2</v>
+      </c>
+      <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" t="s">
+        <v>204</v>
+      </c>
+      <c r="L48" t="s">
+        <v>205</v>
+      </c>
+      <c r="M48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" t="s">
+        <v>229</v>
+      </c>
+      <c r="P48" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R48" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S48" t="s">
+        <v>41</v>
+      </c>
+      <c r="T48" t="s">
+        <v>207</v>
+      </c>
+      <c r="U48" t="s">
+        <v>208</v>
+      </c>
+      <c r="V48" t="s">
+        <v>130</v>
+      </c>
+      <c r="W48" t="s">
+        <v>14</v>
+      </c>
+      <c r="X48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="3">
+        <v>62</v>
+      </c>
+      <c r="H49" s="3">
+        <v>62</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" t="s">
+        <v>204</v>
+      </c>
+      <c r="L49" t="s">
+        <v>205</v>
+      </c>
+      <c r="M49" t="s">
+        <v>9</v>
+      </c>
+      <c r="N49" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49" t="s">
+        <v>206</v>
+      </c>
+      <c r="P49" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R49" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S49" t="s">
+        <v>41</v>
+      </c>
+      <c r="T49" t="s">
+        <v>207</v>
+      </c>
+      <c r="U49" t="s">
+        <v>208</v>
+      </c>
+      <c r="V49" t="s">
+        <v>130</v>
+      </c>
+      <c r="W49" t="s">
+        <v>14</v>
+      </c>
+      <c r="X49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="3">
+        <v>4</v>
+      </c>
+      <c r="H50" s="3">
+        <v>4</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" t="s">
+        <v>235</v>
+      </c>
+      <c r="L50" t="s">
+        <v>236</v>
+      </c>
+      <c r="M50" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50" t="s">
+        <v>10</v>
+      </c>
+      <c r="O50" t="s">
+        <v>237</v>
+      </c>
+      <c r="P50" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R50" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S50" t="s">
+        <v>41</v>
+      </c>
+      <c r="T50" t="s">
+        <v>238</v>
+      </c>
+      <c r="U50" t="s">
+        <v>239</v>
+      </c>
+      <c r="V50" t="s">
+        <v>240</v>
+      </c>
+      <c r="W50" t="s">
+        <v>14</v>
+      </c>
+      <c r="X50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E51" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" s="3">
+        <v>10</v>
+      </c>
+      <c r="H51" s="3">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51" t="s">
+        <v>243</v>
+      </c>
+      <c r="L51" t="s">
+        <v>110</v>
+      </c>
+      <c r="M51" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51" t="s">
+        <v>10</v>
+      </c>
+      <c r="O51" t="s">
+        <v>244</v>
+      </c>
+      <c r="P51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R51" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S51" t="s">
+        <v>41</v>
+      </c>
+      <c r="T51" t="s">
+        <v>108</v>
+      </c>
+      <c r="U51" t="s">
+        <v>109</v>
+      </c>
+      <c r="V51" t="s">
+        <v>110</v>
+      </c>
+      <c r="W51" t="s">
+        <v>14</v>
+      </c>
+      <c r="X51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" t="s">
+        <v>246</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" s="3">
+        <v>15</v>
+      </c>
+      <c r="H52" s="3">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" t="s">
+        <v>247</v>
+      </c>
+      <c r="L52" t="s">
+        <v>248</v>
+      </c>
+      <c r="M52" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" t="s">
+        <v>249</v>
+      </c>
+      <c r="P52" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R52" s="2">
+        <v>45414</v>
+      </c>
+      <c r="S52" t="s">
+        <v>177</v>
+      </c>
+      <c r="T52" t="s">
+        <v>169</v>
+      </c>
+      <c r="U52" t="s">
+        <v>170</v>
+      </c>
+      <c r="V52" t="s">
+        <v>171</v>
+      </c>
+      <c r="W52" t="s">
+        <v>14</v>
+      </c>
+      <c r="X52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E53" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="3">
+        <v>4</v>
+      </c>
+      <c r="H53" s="3">
+        <v>200</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" t="s">
+        <v>252</v>
+      </c>
+      <c r="L53" t="s">
+        <v>253</v>
+      </c>
+      <c r="M53" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" t="s">
+        <v>10</v>
+      </c>
+      <c r="O53" t="s">
+        <v>254</v>
+      </c>
+      <c r="P53" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R53" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S53" t="s">
+        <v>41</v>
+      </c>
+      <c r="T53" t="s">
+        <v>255</v>
+      </c>
+      <c r="U53" t="s">
+        <v>256</v>
+      </c>
+      <c r="V53" t="s">
+        <v>257</v>
+      </c>
+      <c r="W53" t="s">
+        <v>14</v>
+      </c>
+      <c r="X53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3">
+        <v>150</v>
+      </c>
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" t="s">
+        <v>204</v>
+      </c>
+      <c r="L54" t="s">
+        <v>205</v>
+      </c>
+      <c r="M54" t="s">
+        <v>9</v>
+      </c>
+      <c r="N54" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" t="s">
+        <v>259</v>
+      </c>
+      <c r="P54" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R54" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S54" t="s">
+        <v>41</v>
+      </c>
+      <c r="T54" t="s">
+        <v>207</v>
+      </c>
+      <c r="U54" t="s">
+        <v>208</v>
+      </c>
+      <c r="V54" t="s">
+        <v>130</v>
+      </c>
+      <c r="W54" t="s">
+        <v>14</v>
+      </c>
+      <c r="X54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" t="s">
+        <v>261</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E55" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" t="s">
         <v>190</v>
       </c>
-      <c r="V43" t="s">
-        <v>191</v>
-      </c>
-      <c r="W43" t="s">
-        <v>14</v>
-      </c>
-      <c r="X43" t="s">
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" t="s">
+        <v>262</v>
+      </c>
+      <c r="L55" t="s">
+        <v>263</v>
+      </c>
+      <c r="M55" t="s">
+        <v>9</v>
+      </c>
+      <c r="N55" t="s">
+        <v>10</v>
+      </c>
+      <c r="O55" t="s">
+        <v>264</v>
+      </c>
+      <c r="P55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R55" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S55" t="s">
+        <v>41</v>
+      </c>
+      <c r="T55" t="s">
+        <v>265</v>
+      </c>
+      <c r="U55" t="s">
+        <v>266</v>
+      </c>
+      <c r="V55" t="s">
+        <v>267</v>
+      </c>
+      <c r="W55" t="s">
+        <v>14</v>
+      </c>
+      <c r="X55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E56" t="s">
+        <v>270</v>
+      </c>
+      <c r="F56" t="s">
+        <v>271</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3">
+        <v>50</v>
+      </c>
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" t="s">
+        <v>272</v>
+      </c>
+      <c r="L56" t="s">
+        <v>273</v>
+      </c>
+      <c r="M56" t="s">
+        <v>9</v>
+      </c>
+      <c r="N56" t="s">
+        <v>10</v>
+      </c>
+      <c r="O56" t="s">
+        <v>274</v>
+      </c>
+      <c r="P56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R56" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S56" t="s">
+        <v>275</v>
+      </c>
+      <c r="T56" t="s">
+        <v>161</v>
+      </c>
+      <c r="U56" t="s">
+        <v>162</v>
+      </c>
+      <c r="V56" t="s">
+        <v>44</v>
+      </c>
+      <c r="W56" t="s">
+        <v>14</v>
+      </c>
+      <c r="X56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E57" t="s">
+        <v>278</v>
+      </c>
+      <c r="F57" t="s">
+        <v>279</v>
+      </c>
+      <c r="G57" s="3">
+        <v>30</v>
+      </c>
+      <c r="H57" s="3">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" t="s">
+        <v>280</v>
+      </c>
+      <c r="L57" t="s">
+        <v>281</v>
+      </c>
+      <c r="M57" t="s">
+        <v>9</v>
+      </c>
+      <c r="N57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" t="s">
+        <v>282</v>
+      </c>
+      <c r="P57" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R57" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S57" t="s">
+        <v>283</v>
+      </c>
+      <c r="T57" t="s">
+        <v>280</v>
+      </c>
+      <c r="U57" t="s">
+        <v>277</v>
+      </c>
+      <c r="V57" t="s">
+        <v>281</v>
+      </c>
+      <c r="W57" t="s">
+        <v>14</v>
+      </c>
+      <c r="X57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E58" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58" t="s">
+        <v>287</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" t="s">
+        <v>288</v>
+      </c>
+      <c r="L58" t="s">
+        <v>289</v>
+      </c>
+      <c r="M58" t="s">
+        <v>9</v>
+      </c>
+      <c r="N58" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" t="s">
+        <v>290</v>
+      </c>
+      <c r="P58" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R58" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S58" t="s">
+        <v>283</v>
+      </c>
+      <c r="T58" t="s">
+        <v>292</v>
+      </c>
+      <c r="U58" t="s">
+        <v>293</v>
+      </c>
+      <c r="V58" t="s">
+        <v>294</v>
+      </c>
+      <c r="W58" t="s">
+        <v>14</v>
+      </c>
+      <c r="X58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" t="s">
+        <v>296</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="3">
+        <v>15</v>
+      </c>
+      <c r="H59" s="3">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" t="s">
+        <v>297</v>
+      </c>
+      <c r="L59" t="s">
+        <v>298</v>
+      </c>
+      <c r="M59" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" t="s">
+        <v>299</v>
+      </c>
+      <c r="P59" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R59" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S59" t="s">
+        <v>283</v>
+      </c>
+      <c r="T59" t="s">
+        <v>300</v>
+      </c>
+      <c r="U59" t="s">
+        <v>301</v>
+      </c>
+      <c r="V59" t="s">
+        <v>302</v>
+      </c>
+      <c r="W59" t="s">
+        <v>14</v>
+      </c>
+      <c r="X59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" t="s">
+        <v>296</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="3">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" t="s">
+        <v>297</v>
+      </c>
+      <c r="L60" t="s">
+        <v>298</v>
+      </c>
+      <c r="M60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N60" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" t="s">
+        <v>299</v>
+      </c>
+      <c r="P60" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R60" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S60" t="s">
+        <v>283</v>
+      </c>
+      <c r="T60" t="s">
+        <v>300</v>
+      </c>
+      <c r="U60" t="s">
+        <v>301</v>
+      </c>
+      <c r="V60" t="s">
+        <v>302</v>
+      </c>
+      <c r="W60" t="s">
+        <v>14</v>
+      </c>
+      <c r="X60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>303</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45504</v>
+      </c>
+      <c r="E61" t="s">
+        <v>304</v>
+      </c>
+      <c r="F61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" t="s">
+        <v>306</v>
+      </c>
+      <c r="M61" t="s">
+        <v>9</v>
+      </c>
+      <c r="N61" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" t="s">
+        <v>307</v>
+      </c>
+      <c r="P61" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>45504</v>
+      </c>
+      <c r="R61" s="2">
+        <v>45509</v>
+      </c>
+      <c r="S61" t="s">
+        <v>168</v>
+      </c>
+      <c r="T61" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61" t="s">
+        <v>16</v>
+      </c>
+      <c r="V61" t="s">
+        <v>21</v>
+      </c>
+      <c r="W61" t="s">
+        <v>14</v>
+      </c>
+      <c r="X61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>303</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45504</v>
+      </c>
+      <c r="E62" t="s">
+        <v>308</v>
+      </c>
+      <c r="F62" t="s">
+        <v>309</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" t="s">
+        <v>306</v>
+      </c>
+      <c r="M62" t="s">
+        <v>9</v>
+      </c>
+      <c r="N62" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" t="s">
+        <v>307</v>
+      </c>
+      <c r="P62" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>45504</v>
+      </c>
+      <c r="R62" s="2">
+        <v>45509</v>
+      </c>
+      <c r="S62" t="s">
+        <v>168</v>
+      </c>
+      <c r="T62" t="s">
+        <v>20</v>
+      </c>
+      <c r="U62" t="s">
+        <v>16</v>
+      </c>
+      <c r="V62" t="s">
+        <v>21</v>
+      </c>
+      <c r="W62" t="s">
+        <v>14</v>
+      </c>
+      <c r="X62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45504</v>
+      </c>
+      <c r="E63" t="s">
+        <v>310</v>
+      </c>
+      <c r="F63" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s">
+        <v>306</v>
+      </c>
+      <c r="M63" t="s">
+        <v>9</v>
+      </c>
+      <c r="N63" t="s">
+        <v>10</v>
+      </c>
+      <c r="O63" t="s">
+        <v>307</v>
+      </c>
+      <c r="P63" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>45504</v>
+      </c>
+      <c r="R63" s="2">
+        <v>45509</v>
+      </c>
+      <c r="S63" t="s">
+        <v>168</v>
+      </c>
+      <c r="T63" t="s">
+        <v>20</v>
+      </c>
+      <c r="U63" t="s">
+        <v>16</v>
+      </c>
+      <c r="V63" t="s">
+        <v>21</v>
+      </c>
+      <c r="W63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45504</v>
+      </c>
+      <c r="E64" t="s">
+        <v>312</v>
+      </c>
+      <c r="F64" t="s">
+        <v>313</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>306</v>
+      </c>
+      <c r="M64" t="s">
+        <v>9</v>
+      </c>
+      <c r="N64" t="s">
+        <v>10</v>
+      </c>
+      <c r="O64" t="s">
+        <v>307</v>
+      </c>
+      <c r="P64" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>45504</v>
+      </c>
+      <c r="R64" s="2">
+        <v>45509</v>
+      </c>
+      <c r="S64" t="s">
+        <v>168</v>
+      </c>
+      <c r="T64" t="s">
+        <v>20</v>
+      </c>
+      <c r="U64" t="s">
+        <v>16</v>
+      </c>
+      <c r="V64" t="s">
+        <v>21</v>
+      </c>
+      <c r="W64" t="s">
+        <v>14</v>
+      </c>
+      <c r="X64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>303</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45504</v>
+      </c>
+      <c r="E65" t="s">
+        <v>314</v>
+      </c>
+      <c r="F65" t="s">
+        <v>315</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" t="s">
+        <v>306</v>
+      </c>
+      <c r="M65" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65" t="s">
+        <v>10</v>
+      </c>
+      <c r="O65" t="s">
+        <v>307</v>
+      </c>
+      <c r="P65" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>45504</v>
+      </c>
+      <c r="R65" s="2">
+        <v>45509</v>
+      </c>
+      <c r="S65" t="s">
+        <v>168</v>
+      </c>
+      <c r="T65" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65" t="s">
+        <v>16</v>
+      </c>
+      <c r="V65" t="s">
+        <v>21</v>
+      </c>
+      <c r="W65" t="s">
+        <v>14</v>
+      </c>
+      <c r="X65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>303</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45504</v>
+      </c>
+      <c r="E66" t="s">
+        <v>316</v>
+      </c>
+      <c r="F66" t="s">
+        <v>317</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" t="s">
+        <v>306</v>
+      </c>
+      <c r="M66" t="s">
+        <v>9</v>
+      </c>
+      <c r="N66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" t="s">
+        <v>307</v>
+      </c>
+      <c r="P66" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>45504</v>
+      </c>
+      <c r="R66" s="2">
+        <v>45509</v>
+      </c>
+      <c r="S66" t="s">
+        <v>168</v>
+      </c>
+      <c r="T66" t="s">
+        <v>20</v>
+      </c>
+      <c r="U66" t="s">
+        <v>16</v>
+      </c>
+      <c r="V66" t="s">
+        <v>21</v>
+      </c>
+      <c r="W66" t="s">
+        <v>14</v>
+      </c>
+      <c r="X66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45504</v>
+      </c>
+      <c r="E67" t="s">
+        <v>318</v>
+      </c>
+      <c r="F67" t="s">
+        <v>319</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s">
+        <v>306</v>
+      </c>
+      <c r="M67" t="s">
+        <v>9</v>
+      </c>
+      <c r="N67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O67" t="s">
+        <v>307</v>
+      </c>
+      <c r="P67" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>45504</v>
+      </c>
+      <c r="R67" s="2">
+        <v>45509</v>
+      </c>
+      <c r="S67" t="s">
+        <v>168</v>
+      </c>
+      <c r="T67" t="s">
+        <v>20</v>
+      </c>
+      <c r="U67" t="s">
+        <v>16</v>
+      </c>
+      <c r="V67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W67" t="s">
+        <v>14</v>
+      </c>
+      <c r="X67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45504</v>
+      </c>
+      <c r="E68" t="s">
+        <v>320</v>
+      </c>
+      <c r="F68" t="s">
+        <v>321</v>
+      </c>
+      <c r="G68" s="3">
+        <v>2</v>
+      </c>
+      <c r="H68" s="3">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s">
+        <v>306</v>
+      </c>
+      <c r="M68" t="s">
+        <v>9</v>
+      </c>
+      <c r="N68" t="s">
+        <v>10</v>
+      </c>
+      <c r="O68" t="s">
+        <v>307</v>
+      </c>
+      <c r="P68" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>45504</v>
+      </c>
+      <c r="R68" s="2">
+        <v>45509</v>
+      </c>
+      <c r="S68" t="s">
+        <v>168</v>
+      </c>
+      <c r="T68" t="s">
+        <v>20</v>
+      </c>
+      <c r="U68" t="s">
+        <v>16</v>
+      </c>
+      <c r="V68" t="s">
+        <v>21</v>
+      </c>
+      <c r="W68" t="s">
+        <v>14</v>
+      </c>
+      <c r="X68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45504</v>
+      </c>
+      <c r="E69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
+        <v>121</v>
+      </c>
+      <c r="G69" s="3">
+        <v>10</v>
+      </c>
+      <c r="H69" s="3">
+        <v>200</v>
+      </c>
+      <c r="I69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
+        <v>306</v>
+      </c>
+      <c r="M69" t="s">
+        <v>9</v>
+      </c>
+      <c r="N69" t="s">
+        <v>10</v>
+      </c>
+      <c r="O69" t="s">
+        <v>307</v>
+      </c>
+      <c r="P69" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>45504</v>
+      </c>
+      <c r="R69" s="2">
+        <v>45509</v>
+      </c>
+      <c r="S69" t="s">
+        <v>168</v>
+      </c>
+      <c r="T69" t="s">
+        <v>20</v>
+      </c>
+      <c r="U69" t="s">
+        <v>16</v>
+      </c>
+      <c r="V69" t="s">
+        <v>21</v>
+      </c>
+      <c r="W69" t="s">
+        <v>14</v>
+      </c>
+      <c r="X69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45504</v>
+      </c>
+      <c r="E70" t="s">
+        <v>182</v>
+      </c>
+      <c r="F70" t="s">
+        <v>183</v>
+      </c>
+      <c r="G70" s="3">
+        <v>10</v>
+      </c>
+      <c r="H70" s="3">
+        <v>500</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" t="s">
+        <v>306</v>
+      </c>
+      <c r="M70" t="s">
+        <v>9</v>
+      </c>
+      <c r="N70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O70" t="s">
+        <v>307</v>
+      </c>
+      <c r="P70" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>45504</v>
+      </c>
+      <c r="R70" s="2">
+        <v>45509</v>
+      </c>
+      <c r="S70" t="s">
+        <v>168</v>
+      </c>
+      <c r="T70" t="s">
+        <v>20</v>
+      </c>
+      <c r="U70" t="s">
+        <v>16</v>
+      </c>
+      <c r="V70" t="s">
+        <v>21</v>
+      </c>
+      <c r="W70" t="s">
+        <v>14</v>
+      </c>
+      <c r="X70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71" t="s">
+        <v>322</v>
+      </c>
+      <c r="B71" t="s">
+        <v>323</v>
+      </c>
+      <c r="C71" t="s">
+        <v>324</v>
+      </c>
+      <c r="D71" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E71" t="s">
+        <v>325</v>
+      </c>
+      <c r="F71" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" t="s">
+        <v>327</v>
+      </c>
+      <c r="K71" t="s">
+        <v>328</v>
+      </c>
+      <c r="L71" t="s">
+        <v>329</v>
+      </c>
+      <c r="M71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N71" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" t="s">
+        <v>331</v>
+      </c>
+      <c r="P71" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R71" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S71" t="s">
+        <v>41</v>
+      </c>
+      <c r="T71" t="s">
+        <v>328</v>
+      </c>
+      <c r="U71" t="s">
+        <v>333</v>
+      </c>
+      <c r="V71" t="s">
+        <v>334</v>
+      </c>
+      <c r="W71" t="s">
+        <v>14</v>
+      </c>
+      <c r="X71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72" t="s">
+        <v>322</v>
+      </c>
+      <c r="B72" t="s">
+        <v>335</v>
+      </c>
+      <c r="C72" t="s">
+        <v>336</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E72" t="s">
+        <v>325</v>
+      </c>
+      <c r="F72" t="s">
+        <v>326</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" t="s">
+        <v>327</v>
+      </c>
+      <c r="K72" t="s">
+        <v>328</v>
+      </c>
+      <c r="L72" t="s">
+        <v>337</v>
+      </c>
+      <c r="M72" t="s">
+        <v>330</v>
+      </c>
+      <c r="N72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" t="s">
+        <v>338</v>
+      </c>
+      <c r="P72" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R72" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S72" t="s">
+        <v>41</v>
+      </c>
+      <c r="T72" t="s">
+        <v>328</v>
+      </c>
+      <c r="U72" t="s">
+        <v>333</v>
+      </c>
+      <c r="V72" t="s">
+        <v>334</v>
+      </c>
+      <c r="W72" t="s">
+        <v>14</v>
+      </c>
+      <c r="X72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" t="s">
+        <v>339</v>
+      </c>
+      <c r="C73" t="s">
+        <v>340</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E73" t="s">
+        <v>325</v>
+      </c>
+      <c r="F73" t="s">
+        <v>326</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>327</v>
+      </c>
+      <c r="K73" t="s">
+        <v>328</v>
+      </c>
+      <c r="L73" t="s">
+        <v>341</v>
+      </c>
+      <c r="M73" t="s">
+        <v>330</v>
+      </c>
+      <c r="N73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O73" t="s">
+        <v>342</v>
+      </c>
+      <c r="P73" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R73" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S73" t="s">
+        <v>41</v>
+      </c>
+      <c r="T73" t="s">
+        <v>328</v>
+      </c>
+      <c r="U73" t="s">
+        <v>333</v>
+      </c>
+      <c r="V73" t="s">
+        <v>334</v>
+      </c>
+      <c r="W73" t="s">
+        <v>14</v>
+      </c>
+      <c r="X73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" t="s">
+        <v>343</v>
+      </c>
+      <c r="C74" t="s">
+        <v>336</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45406</v>
+      </c>
+      <c r="E74" t="s">
+        <v>344</v>
+      </c>
+      <c r="F74" t="s">
+        <v>345</v>
+      </c>
+      <c r="G74" s="3">
+        <v>2</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>327</v>
+      </c>
+      <c r="K74" t="s">
+        <v>328</v>
+      </c>
+      <c r="L74" t="s">
+        <v>337</v>
+      </c>
+      <c r="M74" t="s">
+        <v>330</v>
+      </c>
+      <c r="N74" t="s">
+        <v>10</v>
+      </c>
+      <c r="O74" t="s">
+        <v>346</v>
+      </c>
+      <c r="P74" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R74" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S74" t="s">
+        <v>41</v>
+      </c>
+      <c r="T74" t="s">
+        <v>328</v>
+      </c>
+      <c r="U74" t="s">
+        <v>333</v>
+      </c>
+      <c r="V74" t="s">
+        <v>334</v>
+      </c>
+      <c r="W74" t="s">
+        <v>14</v>
+      </c>
+      <c r="X74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" t="s">
+        <v>322</v>
+      </c>
+      <c r="B75" t="s">
+        <v>347</v>
+      </c>
+      <c r="C75" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E75" t="s">
+        <v>348</v>
+      </c>
+      <c r="F75" t="s">
+        <v>349</v>
+      </c>
+      <c r="G75" s="3">
+        <v>6</v>
+      </c>
+      <c r="H75" s="3">
+        <v>6</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" t="s">
+        <v>327</v>
+      </c>
+      <c r="K75" t="s">
+        <v>328</v>
+      </c>
+      <c r="L75" t="s">
+        <v>329</v>
+      </c>
+      <c r="M75" t="s">
+        <v>330</v>
+      </c>
+      <c r="N75" t="s">
+        <v>10</v>
+      </c>
+      <c r="O75" t="s">
+        <v>350</v>
+      </c>
+      <c r="P75" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R75" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S75" t="s">
+        <v>41</v>
+      </c>
+      <c r="T75" t="s">
+        <v>328</v>
+      </c>
+      <c r="U75" t="s">
+        <v>333</v>
+      </c>
+      <c r="V75" t="s">
+        <v>334</v>
+      </c>
+      <c r="W75" t="s">
+        <v>14</v>
+      </c>
+      <c r="X75" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="340">
   <si>
     <t>P891</t>
   </si>
@@ -199,10 +199,220 @@
     <t>040050</t>
   </si>
   <si>
-    <t>133814149</t>
-  </si>
-  <si>
-    <t>Att:Benjamin Summers</t>
+    <t>133816061</t>
+  </si>
+  <si>
+    <t>Bayer Australia</t>
+  </si>
+  <si>
+    <t>86916967</t>
+  </si>
+  <si>
+    <t>MRXP,KIT,SYR,MULTI-PATIENT,MC,WLD</t>
+  </si>
+  <si>
+    <t>717074633</t>
+  </si>
+  <si>
+    <t>86936380</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,MRXP MP,MIC,MC,WLD</t>
+  </si>
+  <si>
+    <t>87518604</t>
+  </si>
+  <si>
+    <t>CLAMP,TUBE,0.078"-0.098" OD,MRX MP,MC</t>
+  </si>
+  <si>
+    <t>133761376</t>
+  </si>
+  <si>
+    <t>WARWICK DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>87234487</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>2176333</t>
+  </si>
+  <si>
+    <t>WARWICK</t>
+  </si>
+  <si>
+    <t>717095991</t>
+  </si>
+  <si>
+    <t>030050</t>
+  </si>
+  <si>
+    <t>1943887</t>
+  </si>
+  <si>
+    <t>ALPENGLOW AUSTRALIA PTY LTD</t>
+  </si>
+  <si>
+    <t>SYDNEY</t>
+  </si>
+  <si>
+    <t>133787997</t>
+  </si>
+  <si>
+    <t>ROYAL ADELAIDE HOSPITAL</t>
+  </si>
+  <si>
+    <t>02112555</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4676781</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>717076832</t>
+  </si>
+  <si>
+    <t>4595446</t>
+  </si>
+  <si>
+    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133801216</t>
+  </si>
+  <si>
+    <t>FRANKSTON HOSPITAL</t>
+  </si>
+  <si>
+    <t>86660261</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,LPDCT,60",COILED,MC,WLD</t>
+  </si>
+  <si>
+    <t>4675190</t>
+  </si>
+  <si>
+    <t>FRANKSTON</t>
+  </si>
+  <si>
+    <t>717051392</t>
+  </si>
+  <si>
+    <t>4628393</t>
+  </si>
+  <si>
+    <t>PENINSULA HEALTH</t>
+  </si>
+  <si>
+    <t>133817728</t>
+  </si>
+  <si>
+    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
+  </si>
+  <si>
+    <t>02112548</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4670712</t>
+  </si>
+  <si>
+    <t>DERRIMUT</t>
+  </si>
+  <si>
+    <t>717074268</t>
+  </si>
+  <si>
+    <t>4670709</t>
+  </si>
+  <si>
+    <t>HEALTHSHARE VICTORIA</t>
+  </si>
+  <si>
+    <t>MELBOURNE</t>
+  </si>
+  <si>
+    <t>133818138</t>
+  </si>
+  <si>
+    <t>FAR NORTH QLD REGIONAL</t>
+  </si>
+  <si>
+    <t>929201</t>
+  </si>
+  <si>
+    <t>WOREE</t>
+  </si>
+  <si>
+    <t>717076685</t>
+  </si>
+  <si>
+    <t>040130</t>
+  </si>
+  <si>
+    <t>4595067</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF HEALTH QLD</t>
+  </si>
+  <si>
+    <t>BRISBANE</t>
+  </si>
+  <si>
+    <t>133831864</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING - ORANGE</t>
+  </si>
+  <si>
+    <t>64437141</t>
+  </si>
+  <si>
+    <t>Dota250UG (Tyr3)-Octreotate (GMP-Dota)</t>
+  </si>
+  <si>
+    <t>3510474</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>717083697</t>
+  </si>
+  <si>
+    <t>020050</t>
+  </si>
+  <si>
+    <t>133836557</t>
+  </si>
+  <si>
+    <t>QSCAN RADIOLOGY - UPPER COOMERA</t>
+  </si>
+  <si>
+    <t>4211108</t>
+  </si>
+  <si>
+    <t>UPPER COOMERA</t>
+  </si>
+  <si>
+    <t>717066596</t>
+  </si>
+  <si>
+    <t>80802544</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
   </si>
   <si>
     <t>87621529</t>
@@ -211,40 +421,247 @@
     <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
   </si>
   <si>
-    <t>Pymble</t>
-  </si>
-  <si>
-    <t>717047346</t>
-  </si>
-  <si>
-    <t>133815763</t>
-  </si>
-  <si>
-    <t>RADIOLOGY SA</t>
-  </si>
-  <si>
-    <t>02112548</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>1094894</t>
-  </si>
-  <si>
-    <t>DULWICH</t>
-  </si>
-  <si>
-    <t>717079770</t>
-  </si>
-  <si>
-    <t>020050</t>
-  </si>
-  <si>
-    <t>86594218</t>
-  </si>
-  <si>
-    <t>SOLARIS,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+    <t>133837969</t>
+  </si>
+  <si>
+    <t>88320468</t>
+  </si>
+  <si>
+    <t>DOTAGRAF SOLU BT 10X100ML AU</t>
+  </si>
+  <si>
+    <t>133761375</t>
+  </si>
+  <si>
+    <t>FLINDERS MEDICAL CENTRE</t>
+  </si>
+  <si>
+    <t>4699953</t>
+  </si>
+  <si>
+    <t>BEDFORD PARK</t>
+  </si>
+  <si>
+    <t>717090428</t>
+  </si>
+  <si>
+    <t>133822076</t>
+  </si>
+  <si>
+    <t>MONASH HEALTH- MONASH MEDICAL CTR</t>
+  </si>
+  <si>
+    <t>86617439</t>
+  </si>
+  <si>
+    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595650</t>
+  </si>
+  <si>
+    <t>SCORESBY</t>
+  </si>
+  <si>
+    <t>717051615</t>
+  </si>
+  <si>
+    <t>4595649</t>
+  </si>
+  <si>
+    <t>MONASH HEALTH</t>
+  </si>
+  <si>
+    <t>CHELTENHAM</t>
+  </si>
+  <si>
+    <t>133824295</t>
+  </si>
+  <si>
+    <t>CANBERRA IMAGING GROUP - DEAKIN</t>
+  </si>
+  <si>
+    <t>4595980</t>
+  </si>
+  <si>
+    <t>DEAKIN</t>
+  </si>
+  <si>
+    <t>717091475</t>
+  </si>
+  <si>
+    <t>4595992</t>
+  </si>
+  <si>
+    <t>CANBERRA IMAGING GROUP</t>
+  </si>
+  <si>
+    <t>DEAKIN WEST</t>
+  </si>
+  <si>
+    <t>133824296</t>
+  </si>
+  <si>
+    <t>717091476</t>
+  </si>
+  <si>
+    <t>133824297</t>
+  </si>
+  <si>
+    <t>WESTMEAD HOSPITAL</t>
+  </si>
+  <si>
+    <t>86594226</t>
+  </si>
+  <si>
+    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4596106</t>
+  </si>
+  <si>
+    <t>NORTHMEAD</t>
+  </si>
+  <si>
+    <t>717095202</t>
+  </si>
+  <si>
+    <t>4596108</t>
+  </si>
+  <si>
+    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
+  </si>
+  <si>
+    <t>133826424</t>
+  </si>
+  <si>
+    <t>NORTH SHORE RADIOLOGY &amp; NUCLEAR</t>
+  </si>
+  <si>
+    <t>86566621</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
+  </si>
+  <si>
+    <t>4596148</t>
+  </si>
+  <si>
+    <t>ST LEONARDS</t>
+  </si>
+  <si>
+    <t>717093712</t>
+  </si>
+  <si>
+    <t>86617501</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,PAS,60",MC,WLD</t>
+  </si>
+  <si>
+    <t>133826909</t>
+  </si>
+  <si>
+    <t>REDCLIFFE/CABOOLTURE HSD</t>
+  </si>
+  <si>
+    <t>4595829</t>
+  </si>
+  <si>
+    <t>REDCLIFFE</t>
+  </si>
+  <si>
+    <t>717089248</t>
+  </si>
+  <si>
+    <t>4595837</t>
+  </si>
+  <si>
+    <t>METRO NORTH HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>HERSTON</t>
+  </si>
+  <si>
+    <t>133826910</t>
+  </si>
+  <si>
+    <t>ROYAL BRISBANE &amp; WOMEN'S HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595831</t>
+  </si>
+  <si>
+    <t>717090819</t>
+  </si>
+  <si>
+    <t>133826911</t>
+  </si>
+  <si>
+    <t>PRINCE CHARLES HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595836</t>
+  </si>
+  <si>
+    <t>CHERMSIDE</t>
+  </si>
+  <si>
+    <t>717091323</t>
+  </si>
+  <si>
+    <t>133831863</t>
+  </si>
+  <si>
+    <t>CAIRNS HOSPITAL - MED IMAGING</t>
+  </si>
+  <si>
+    <t>4595739</t>
+  </si>
+  <si>
+    <t>CAIRNS</t>
+  </si>
+  <si>
+    <t>717074658</t>
+  </si>
+  <si>
+    <t>4595808</t>
+  </si>
+  <si>
+    <t>CAIRNS &amp; HINTERLAND HOSPITAL</t>
+  </si>
+  <si>
+    <t>133832790</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - PORT MACQUARIE</t>
+  </si>
+  <si>
+    <t>86698242</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595683</t>
+  </si>
+  <si>
+    <t>PORT MACQUARIE</t>
+  </si>
+  <si>
+    <t>717093004</t>
+  </si>
+  <si>
+    <t>86698188</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>133832791</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - BERWICK</t>
   </si>
   <si>
     <t>87234495</t>
@@ -253,37 +670,118 @@
     <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
   </si>
   <si>
-    <t>133816061</t>
-  </si>
-  <si>
-    <t>Bayer Australia</t>
-  </si>
-  <si>
-    <t>86916967</t>
-  </si>
-  <si>
-    <t>MRXP,KIT,SYR,MULTI-PATIENT,MC,WLD</t>
-  </si>
-  <si>
-    <t>717074633</t>
-  </si>
-  <si>
-    <t>86936380</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,MRXP MP,MIC,MC,WLD</t>
-  </si>
-  <si>
-    <t>87518604</t>
-  </si>
-  <si>
-    <t>CLAMP,TUBE,0.078"-0.098" OD,MRX MP,MC</t>
-  </si>
-  <si>
-    <t>133816073</t>
-  </si>
-  <si>
-    <t>GARRAN MEDICAL IMAGING</t>
+    <t>4614742</t>
+  </si>
+  <si>
+    <t>BERWICK</t>
+  </si>
+  <si>
+    <t>717094346</t>
+  </si>
+  <si>
+    <t>133832792</t>
+  </si>
+  <si>
+    <t>ROYAL NORTH SHORE HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595335</t>
+  </si>
+  <si>
+    <t>717095761</t>
+  </si>
+  <si>
+    <t>4595339</t>
+  </si>
+  <si>
+    <t>NORTHERN SYDNEY LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>NEWCASTLE</t>
+  </si>
+  <si>
+    <t>133832793</t>
+  </si>
+  <si>
+    <t>PRINCESS ALEXANDRA HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596272</t>
+  </si>
+  <si>
+    <t>WOOLLOONGABBA</t>
+  </si>
+  <si>
+    <t>717095772</t>
+  </si>
+  <si>
+    <t>4595416</t>
+  </si>
+  <si>
+    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>EIGHT MILE PLAINS</t>
+  </si>
+  <si>
+    <t>133837275</t>
+  </si>
+  <si>
+    <t>GOULBURN HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595495</t>
+  </si>
+  <si>
+    <t>GOULBURN</t>
+  </si>
+  <si>
+    <t>717093204</t>
+  </si>
+  <si>
+    <t>4595498</t>
+  </si>
+  <si>
+    <t>SOUTHERN NSW LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133837276</t>
+  </si>
+  <si>
+    <t>JONES RADIOLOGY - CALVARY ADELAIDE</t>
+  </si>
+  <si>
+    <t>4595385</t>
+  </si>
+  <si>
+    <t>717094982</t>
+  </si>
+  <si>
+    <t>133837722</t>
+  </si>
+  <si>
+    <t>C/O SUPPLY DEPT GF -MED IMAG</t>
+  </si>
+  <si>
+    <t>924048</t>
+  </si>
+  <si>
+    <t>MEADOWBROOK</t>
+  </si>
+  <si>
+    <t>717089083</t>
+  </si>
+  <si>
+    <t>133837723</t>
+  </si>
+  <si>
+    <t>717095993</t>
+  </si>
+  <si>
+    <t>133839188</t>
+  </si>
+  <si>
+    <t>QSCAN GUNGAHLIN</t>
   </si>
   <si>
     <t>82212737</t>
@@ -292,553 +790,22 @@
     <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
   </si>
   <si>
-    <t>2122526</t>
-  </si>
-  <si>
-    <t>GARRAN</t>
-  </si>
-  <si>
-    <t>717075145</t>
-  </si>
-  <si>
-    <t>133816074</t>
-  </si>
-  <si>
-    <t>IA Corporation Pty Ltd</t>
-  </si>
-  <si>
-    <t>87236072</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,WLD1</t>
-  </si>
-  <si>
-    <t>2826555</t>
-  </si>
-  <si>
-    <t>DROUIN</t>
-  </si>
-  <si>
-    <t>717079191</t>
-  </si>
-  <si>
-    <t>133817729</t>
-  </si>
-  <si>
-    <t>EMI - FREEMASONS ALBERT ST</t>
-  </si>
-  <si>
-    <t>904671</t>
-  </si>
-  <si>
-    <t>EAST MELBOURNE</t>
-  </si>
-  <si>
-    <t>717074938</t>
-  </si>
-  <si>
-    <t>4685842</t>
-  </si>
-  <si>
-    <t>EPWORTH MEDICAL IMAGING, RICHMOND</t>
-  </si>
-  <si>
-    <t>RICHMOND</t>
-  </si>
-  <si>
-    <t>133817829</t>
-  </si>
-  <si>
-    <t>DR GLENN &amp; PARTNERS MEDICAL IMAGING</t>
-  </si>
-  <si>
-    <t>3018185</t>
-  </si>
-  <si>
-    <t>KOGARAH</t>
-  </si>
-  <si>
-    <t>717076646</t>
-  </si>
-  <si>
-    <t>87234487</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>133787995</t>
-  </si>
-  <si>
-    <t>ROYAL ADELAIDE HOSPITAL</t>
-  </si>
-  <si>
-    <t>86698188</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>4676781</t>
-  </si>
-  <si>
-    <t>ADELAIDE</t>
-  </si>
-  <si>
-    <t>717075869</t>
-  </si>
-  <si>
-    <t>4595446</t>
-  </si>
-  <si>
-    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>133787996</t>
-  </si>
-  <si>
-    <t>THE ALFRED HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595753</t>
-  </si>
-  <si>
-    <t>MELBOURNE</t>
-  </si>
-  <si>
-    <t>717076795</t>
-  </si>
-  <si>
-    <t>4596298</t>
-  </si>
-  <si>
-    <t>ALFRED HEALTH</t>
-  </si>
-  <si>
-    <t>PRAHRAN</t>
-  </si>
-  <si>
-    <t>133787997</t>
-  </si>
-  <si>
-    <t>02112555</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
-  </si>
-  <si>
-    <t>717076832</t>
-  </si>
-  <si>
-    <t>133801216</t>
-  </si>
-  <si>
-    <t>FRANKSTON HOSPITAL</t>
-  </si>
-  <si>
-    <t>86660261</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,LPDCT,60",COILED,MC,WLD</t>
-  </si>
-  <si>
-    <t>4675190</t>
-  </si>
-  <si>
-    <t>FRANKSTON</t>
-  </si>
-  <si>
-    <t>717051392</t>
-  </si>
-  <si>
-    <t>4628393</t>
-  </si>
-  <si>
-    <t>PENINSULA HEALTH</t>
-  </si>
-  <si>
-    <t>133805197</t>
-  </si>
-  <si>
-    <t>BENDIGO HEALTH CARE GROUP</t>
-  </si>
-  <si>
-    <t>4595742</t>
-  </si>
-  <si>
-    <t>BENDIGO</t>
-  </si>
-  <si>
-    <t>717076695</t>
-  </si>
-  <si>
-    <t>4595741</t>
-  </si>
-  <si>
-    <t>80802544</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133805660</t>
-  </si>
-  <si>
-    <t>RPAH - DEPT OF RADIOLOGY</t>
-  </si>
-  <si>
-    <t>935608</t>
-  </si>
-  <si>
-    <t>CAMPERDOWN</t>
-  </si>
-  <si>
-    <t>717073518</t>
-  </si>
-  <si>
-    <t>4595817</t>
-  </si>
-  <si>
-    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
-  </si>
-  <si>
-    <t>133809329</t>
-  </si>
-  <si>
-    <t>SEQ DISTRIBUTION CENTRE DOCK U1</t>
-  </si>
-  <si>
-    <t>4614747</t>
-  </si>
-  <si>
-    <t>RICHLANDS</t>
-  </si>
-  <si>
-    <t>717077685</t>
-  </si>
-  <si>
-    <t>030130</t>
-  </si>
-  <si>
-    <t>4595067</t>
-  </si>
-  <si>
-    <t>DEPARTMENT OF HEALTH QLD</t>
-  </si>
-  <si>
-    <t>BRISBANE</t>
-  </si>
-  <si>
-    <t>133813541</t>
-  </si>
-  <si>
-    <t>CAIRNS HOSPITAL - MED IMAGING</t>
-  </si>
-  <si>
-    <t>4595739</t>
-  </si>
-  <si>
-    <t>CAIRNS</t>
-  </si>
-  <si>
-    <t>717074658</t>
-  </si>
-  <si>
-    <t>040130</t>
-  </si>
-  <si>
-    <t>4595808</t>
-  </si>
-  <si>
-    <t>CAIRNS &amp; HINTERLAND HOSPITAL</t>
-  </si>
-  <si>
-    <t>133813542</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - GREGORY HILLS</t>
-  </si>
-  <si>
-    <t>86698242</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595667</t>
-  </si>
-  <si>
-    <t>GLEDSWOOD HILLS</t>
-  </si>
-  <si>
-    <t>717080190</t>
-  </si>
-  <si>
-    <t>4595668</t>
-  </si>
-  <si>
-    <t>133817541</t>
-  </si>
-  <si>
-    <t>86617439</t>
-  </si>
-  <si>
-    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>717071606</t>
-  </si>
-  <si>
-    <t>133817542</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES - NORTH</t>
-  </si>
-  <si>
-    <t>87238504</t>
-  </si>
-  <si>
-    <t>TUBE,EXT,SINGLE,WLD1</t>
-  </si>
-  <si>
-    <t>4596287</t>
-  </si>
-  <si>
-    <t>BUNDOORA</t>
-  </si>
-  <si>
-    <t>717072254</t>
-  </si>
-  <si>
-    <t>4595462</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES (VIC)</t>
-  </si>
-  <si>
-    <t>ST LEONARDS</t>
-  </si>
-  <si>
-    <t>133817543</t>
-  </si>
-  <si>
-    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
-  </si>
-  <si>
-    <t>4670712</t>
-  </si>
-  <si>
-    <t>DERRIMUT</t>
-  </si>
-  <si>
-    <t>717074268</t>
-  </si>
-  <si>
-    <t>4670709</t>
-  </si>
-  <si>
-    <t>HEALTHSHARE VICTORIA</t>
-  </si>
-  <si>
-    <t>133817544</t>
-  </si>
-  <si>
-    <t>HUNTER IMAGING GROUP - SINGLETON</t>
-  </si>
-  <si>
-    <t>4596138</t>
-  </si>
-  <si>
-    <t>SINGLETON</t>
-  </si>
-  <si>
-    <t>717076326</t>
-  </si>
-  <si>
-    <t>4596223</t>
-  </si>
-  <si>
-    <t>HUNTER IMAGING GROUP PTY LIMITED</t>
-  </si>
-  <si>
-    <t>ADAMSTOWN</t>
-  </si>
-  <si>
-    <t>133817545</t>
-  </si>
-  <si>
-    <t>WHITSUNDAY RADIOLOGY PTY LTD</t>
-  </si>
-  <si>
-    <t>4776551</t>
-  </si>
-  <si>
-    <t>CANNONVALE</t>
-  </si>
-  <si>
-    <t>717076775</t>
-  </si>
-  <si>
-    <t>133817546</t>
-  </si>
-  <si>
-    <t>PETER MACCALLUM CANCER CENTRE</t>
-  </si>
-  <si>
-    <t>4704669</t>
-  </si>
-  <si>
-    <t>717078794</t>
-  </si>
-  <si>
-    <t>3017201</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>133817547</t>
-  </si>
-  <si>
-    <t>717079690</t>
-  </si>
-  <si>
-    <t>86610280</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,STELLANT MP,MIC,MC,EU</t>
-  </si>
-  <si>
-    <t>133817728</t>
-  </si>
-  <si>
-    <t>133817730</t>
-  </si>
-  <si>
-    <t>JOHN HUNTER HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595241</t>
-  </si>
-  <si>
-    <t>NEW LAMBTON HEIGHTS</t>
-  </si>
-  <si>
-    <t>717075419</t>
-  </si>
-  <si>
-    <t>4595328</t>
-  </si>
-  <si>
-    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
-  </si>
-  <si>
-    <t>NEWCASTLE</t>
-  </si>
-  <si>
-    <t>133817732</t>
-  </si>
-  <si>
-    <t>EPWORTH MEDICAL IMAGING - RICHMOND</t>
-  </si>
-  <si>
-    <t>4695084</t>
-  </si>
-  <si>
-    <t>717079940</t>
-  </si>
-  <si>
-    <t>133818138</t>
-  </si>
-  <si>
-    <t>FAR NORTH QLD REGIONAL</t>
-  </si>
-  <si>
-    <t>929201</t>
-  </si>
-  <si>
-    <t>WOREE</t>
-  </si>
-  <si>
-    <t>717076685</t>
-  </si>
-  <si>
-    <t>133818208</t>
-  </si>
-  <si>
-    <t>ALTO IMAGING - SALAMANDER BAY</t>
-  </si>
-  <si>
-    <t>4596059</t>
-  </si>
-  <si>
-    <t>SALAMANDER BAY</t>
-  </si>
-  <si>
-    <t>717077037</t>
-  </si>
-  <si>
-    <t>4596060</t>
-  </si>
-  <si>
-    <t>ALTO IMAGING</t>
-  </si>
-  <si>
-    <t>HAMILTON</t>
-  </si>
-  <si>
-    <t>133818209</t>
-  </si>
-  <si>
-    <t>717077344</t>
-  </si>
-  <si>
-    <t>133818248</t>
-  </si>
-  <si>
-    <t>PINDARA PRIVATE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596130</t>
-  </si>
-  <si>
-    <t>BENOWA</t>
-  </si>
-  <si>
-    <t>717079700</t>
-  </si>
-  <si>
-    <t>4595466</t>
-  </si>
-  <si>
-    <t>RAMSAY HEALTH CARE</t>
-  </si>
-  <si>
-    <t>ST KILDA ROAD</t>
-  </si>
-  <si>
-    <t>133817842</t>
-  </si>
-  <si>
-    <t>CONCORD HOSPITAL</t>
-  </si>
-  <si>
-    <t>86617552</t>
-  </si>
-  <si>
-    <t>PROVIS,KIT,SYR,ANGIO,150ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595884</t>
-  </si>
-  <si>
-    <t>CONCORD WEST</t>
-  </si>
-  <si>
-    <t>717051991</t>
-  </si>
-  <si>
-    <t>010230</t>
+    <t>4595740</t>
+  </si>
+  <si>
+    <t>GUNGAHLIN</t>
+  </si>
+  <si>
+    <t>717087502</t>
+  </si>
+  <si>
+    <t>4595747</t>
+  </si>
+  <si>
+    <t>UNIVERSAL MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>CLAYFIELD</t>
   </si>
   <si>
     <t>133778037</t>
@@ -865,39 +832,6 @@
     <t>010530</t>
   </si>
   <si>
-    <t>133808270</t>
-  </si>
-  <si>
-    <t>PERTH RAD CLINIC LTD -</t>
-  </si>
-  <si>
-    <t>86566621</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595281</t>
-  </si>
-  <si>
-    <t>MIDLAND</t>
-  </si>
-  <si>
-    <t>717068177</t>
-  </si>
-  <si>
-    <t>EHGHA</t>
-  </si>
-  <si>
-    <t>4595291</t>
-  </si>
-  <si>
-    <t>PERTHRADCLINIC LTD</t>
-  </si>
-  <si>
-    <t>MIRRABOOKA</t>
-  </si>
-  <si>
     <t>133817828</t>
   </si>
   <si>
@@ -922,61 +856,34 @@
     <t>HOBART</t>
   </si>
   <si>
-    <t>133815919</t>
-  </si>
-  <si>
-    <t>85937286</t>
-  </si>
-  <si>
-    <t>STELLANT,SYS,INJ,D SYR,W/CERT WKS,MC,4ED</t>
-  </si>
-  <si>
-    <t>Luscombe</t>
-  </si>
-  <si>
-    <t>716952038</t>
-  </si>
-  <si>
-    <t>85950924</t>
-  </si>
-  <si>
-    <t>ASSY,FINAL, CRU,STELLANT II,WS3T</t>
-  </si>
-  <si>
-    <t>84432602</t>
-  </si>
-  <si>
-    <t>ASSY,CABLE,HEAD EXT,75 FT.,(SINGLE/DUAL)</t>
-  </si>
-  <si>
-    <t>59876264</t>
-  </si>
-  <si>
-    <t>ASSY., CABLE, BASE TO DISPLAY, 25FT</t>
-  </si>
-  <si>
-    <t>86417340</t>
-  </si>
-  <si>
-    <t>MAN,OP,WKSTN,CERTEGRA,STELLANT,MC,4ED</t>
-  </si>
-  <si>
-    <t>60728044</t>
-  </si>
-  <si>
-    <t>PRODUCT WARR INFO PKG,MIS,INTL,MC</t>
-  </si>
-  <si>
-    <t>60728052</t>
-  </si>
-  <si>
-    <t>LABEL,EULA,CERTEGRA,MC</t>
-  </si>
-  <si>
-    <t>86621495</t>
-  </si>
-  <si>
-    <t>POWER CORD- AUSTRALIA</t>
+    <t>133822106</t>
+  </si>
+  <si>
+    <t>SKG RADIOLOGY -SUBIACO</t>
+  </si>
+  <si>
+    <t>64430678</t>
+  </si>
+  <si>
+    <t>Water, ACS Ultrapur 1L</t>
+  </si>
+  <si>
+    <t>4595123</t>
+  </si>
+  <si>
+    <t>SUBIACO</t>
+  </si>
+  <si>
+    <t>717093911</t>
+  </si>
+  <si>
+    <t>4595069</t>
+  </si>
+  <si>
+    <t>SKG RADIOLOGY</t>
+  </si>
+  <si>
+    <t>WEST PERTH</t>
   </si>
   <si>
     <t>P8SW</t>
@@ -1042,7 +949,7 @@
     <t>2172497900</t>
   </si>
   <si>
-    <t>133805528</t>
+    <t>133837190</t>
   </si>
   <si>
     <t>85166972</t>
@@ -1052,18 +959,6 @@
   </si>
   <si>
     <t>2172546379</t>
-  </si>
-  <si>
-    <t>133818218</t>
-  </si>
-  <si>
-    <t>60339099</t>
-  </si>
-  <si>
-    <t>BATTERY,DRIVE MOTOR</t>
-  </si>
-  <si>
-    <t>2172550175</t>
   </si>
   <si>
     <t>Shipping Point/Receiving Pt</t>
@@ -1240,7 +1135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,13 +1148,13 @@
     <col min="3" max="3" bestFit="1" width="37" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="14" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="42" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="41" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="12" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="6" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="13" customWidth="1"/>
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="6" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="15" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="21" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="20" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15" customWidth="1"/>
     <col min="14" max="14" bestFit="1" width="6" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="21" customWidth="1"/>
@@ -1276,76 +1171,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1963,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -1975,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -1984,7 +1879,7 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s">
         <v>23</v>
@@ -2019,25 +1914,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2">
         <v>45406</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G11" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -2046,10 +1941,10 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -2058,28 +1953,28 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="P11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="2">
         <v>45406</v>
       </c>
       <c r="R11" s="2">
-        <v>45411</v>
+        <v>45406</v>
       </c>
       <c r="S11" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="T11" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="U11" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="V11" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W11" t="s">
         <v>14</v>
@@ -2093,25 +1988,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2">
         <v>45406</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G12" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -2120,10 +2015,10 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -2132,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="P12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="2">
         <v>45406</v>
       </c>
       <c r="R12" s="2">
-        <v>45411</v>
+        <v>45406</v>
       </c>
       <c r="S12" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="T12" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="U12" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W12" t="s">
         <v>14</v>
@@ -2167,37 +2062,37 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="3">
+        <v>150</v>
+      </c>
+      <c r="H13" s="3">
+        <v>150</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
         <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" t="s">
-        <v>73</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -2206,28 +2101,28 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s">
         <v>30</v>
       </c>
       <c r="Q13" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R13" s="2">
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="S13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s">
         <v>14</v>
@@ -2241,25 +2136,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2268,10 +2163,10 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -2280,28 +2175,28 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s">
         <v>30</v>
       </c>
       <c r="Q14" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R14" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S14" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="T14" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="U14" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="V14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="W14" t="s">
         <v>14</v>
@@ -2315,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2342,10 +2237,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -2354,28 +2249,28 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="P15" t="s">
         <v>23</v>
       </c>
       <c r="Q15" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R15" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="S15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="U15" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="V15" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -2389,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="H16" s="3">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2416,10 +2311,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2428,28 +2323,28 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R16" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="S16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="U16" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="V16" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2463,25 +2358,25 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="D17" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H17" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2490,10 +2385,10 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2502,28 +2397,28 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R17" s="2">
-        <v>45406</v>
+        <v>45414</v>
       </c>
       <c r="S17" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="T17" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="U17" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="V17" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2537,25 +2432,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D18" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2564,10 +2459,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="L18" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2576,28 +2471,28 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="P18" t="s">
         <v>30</v>
       </c>
       <c r="Q18" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R18" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="T18" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="U18" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="V18" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2611,25 +2506,25 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2638,10 +2533,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2650,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="P19" t="s">
         <v>30</v>
       </c>
       <c r="Q19" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R19" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S19" t="s">
         <v>50</v>
       </c>
       <c r="T19" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="U19" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="V19" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2685,25 +2580,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2712,10 +2607,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2724,28 +2619,28 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="P20" t="s">
         <v>30</v>
       </c>
       <c r="Q20" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R20" s="2">
         <v>45411</v>
       </c>
       <c r="S20" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T20" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="U20" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="V20" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2759,25 +2654,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="G21" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2786,10 +2681,10 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -2798,28 +2693,28 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="P21" t="s">
         <v>30</v>
       </c>
       <c r="Q21" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R21" s="2">
         <v>45411</v>
       </c>
       <c r="S21" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T21" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="U21" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="V21" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2833,25 +2728,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="G22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2860,10 +2755,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="L22" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2872,28 +2767,28 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="P22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q22" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R22" s="2">
         <v>45408</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="T22" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="U22" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="V22" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2907,25 +2802,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="D23" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="G23" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H23" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -2934,10 +2829,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="L23" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -2946,28 +2841,28 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="P23" t="s">
         <v>30</v>
       </c>
       <c r="Q23" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="R23" s="2">
-        <v>45408</v>
+        <v>45413</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="T23" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="U23" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="V23" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2981,25 +2876,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D24" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="G24" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H24" s="3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -3008,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -3020,28 +2915,28 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="P24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="R24" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="S24" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="U24" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="V24" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -3055,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="D25" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="G25" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H25" s="3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -3082,10 +2977,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -3094,28 +2989,28 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="P25" t="s">
         <v>30</v>
       </c>
       <c r="Q25" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="R25" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="S25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="U25" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="V25" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -3129,25 +3024,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H26" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3156,10 +3051,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -3168,28 +3063,28 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="P26" t="s">
         <v>30</v>
       </c>
       <c r="Q26" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R26" s="2">
         <v>45412</v>
       </c>
       <c r="S26" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="U26" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="V26" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -3203,25 +3098,25 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="D27" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="H27" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3230,10 +3125,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -3242,28 +3137,28 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="P27" t="s">
         <v>30</v>
       </c>
       <c r="Q27" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R27" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S27" t="s">
         <v>41</v>
       </c>
       <c r="T27" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="U27" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="V27" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -3277,25 +3172,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="D28" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3304,10 +3199,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -3316,28 +3211,28 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="P28" t="s">
         <v>30</v>
       </c>
       <c r="Q28" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R28" s="2">
         <v>45412</v>
       </c>
       <c r="S28" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="U28" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="V28" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -3351,25 +3246,25 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D29" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="G29" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3378,10 +3273,10 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="L29" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -3390,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="P29" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q29" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R29" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S29" t="s">
         <v>41</v>
       </c>
       <c r="T29" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="U29" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="V29" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3425,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D30" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="G30" s="3">
         <v>5</v>
@@ -3452,10 +3347,10 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3464,28 +3359,28 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="P30" t="s">
         <v>30</v>
       </c>
       <c r="Q30" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R30" s="2">
         <v>45412</v>
       </c>
       <c r="S30" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="U30" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="V30" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3499,25 +3394,25 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D31" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="G31" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H31" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3526,10 +3421,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3538,28 +3433,28 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="P31" t="s">
         <v>30</v>
       </c>
       <c r="Q31" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R31" s="2">
         <v>45412</v>
       </c>
       <c r="S31" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="T31" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="U31" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="V31" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3573,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="D32" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3600,10 +3495,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3612,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="P32" t="s">
         <v>30</v>
       </c>
       <c r="Q32" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R32" s="2">
         <v>45412</v>
       </c>
       <c r="S32" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="U32" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="V32" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3647,25 +3542,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="D33" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="G33" s="3">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H33" s="3">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3674,10 +3569,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3686,28 +3581,28 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="P33" t="s">
         <v>30</v>
       </c>
       <c r="Q33" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R33" s="2">
         <v>45412</v>
       </c>
       <c r="S33" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="U33" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="V33" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3721,25 +3616,25 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="D34" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G34" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H34" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3748,10 +3643,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3760,28 +3655,28 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="P34" t="s">
         <v>30</v>
       </c>
       <c r="Q34" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R34" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S34" t="s">
         <v>41</v>
       </c>
       <c r="T34" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="U34" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="V34" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3795,25 +3690,25 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="D35" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E35" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="G35" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H35" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3822,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -3834,28 +3729,28 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="P35" t="s">
         <v>30</v>
       </c>
       <c r="Q35" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R35" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S35" t="s">
         <v>41</v>
       </c>
       <c r="T35" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="U35" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="V35" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3869,25 +3764,25 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="D36" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="G36" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H36" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3896,10 +3791,10 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -3908,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="P36" t="s">
         <v>30</v>
       </c>
       <c r="Q36" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R36" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S36" t="s">
         <v>41</v>
       </c>
       <c r="T36" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="U36" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="V36" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -3943,25 +3838,25 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="D37" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="G37" s="3">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H37" s="3">
-        <v>2250</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3970,10 +3865,10 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -3982,28 +3877,28 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="P37" t="s">
         <v>30</v>
       </c>
       <c r="Q37" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R37" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S37" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="T37" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="U37" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="V37" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -4017,25 +3912,25 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="D38" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G38" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H38" s="3">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -4044,10 +3939,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -4056,28 +3951,28 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="P38" t="s">
         <v>30</v>
       </c>
       <c r="Q38" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R38" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S38" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="T38" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="U38" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="V38" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -4091,25 +3986,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="D39" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="G39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -4118,10 +4013,10 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="L39" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -4130,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="P39" t="s">
         <v>30</v>
       </c>
       <c r="Q39" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R39" s="2">
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="S39" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T39" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="U39" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="V39" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
@@ -4165,25 +4060,25 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="D40" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="G40" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H40" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4192,10 +4087,10 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="L40" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="M40" t="s">
         <v>9</v>
@@ -4204,28 +4099,28 @@
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="P40" t="s">
         <v>30</v>
       </c>
       <c r="Q40" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R40" s="2">
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="S40" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T40" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="U40" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="V40" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -4239,25 +4134,25 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="D41" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="F41" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="3">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4266,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="L41" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="M41" t="s">
         <v>9</v>
@@ -4278,28 +4173,28 @@
         <v>10</v>
       </c>
       <c r="O41" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="P41" t="s">
         <v>30</v>
       </c>
       <c r="Q41" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R41" s="2">
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="S41" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T41" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="U41" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="V41" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -4313,25 +4208,25 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="D42" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E42" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="G42" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4340,10 +4235,10 @@
         <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="L42" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M42" t="s">
         <v>9</v>
@@ -4352,28 +4247,28 @@
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="P42" t="s">
         <v>30</v>
       </c>
       <c r="Q42" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R42" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S42" t="s">
         <v>41</v>
       </c>
       <c r="T42" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="U42" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="V42" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -4387,25 +4282,25 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D43" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F43" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G43" s="3">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="H43" s="3">
-        <v>820</v>
+        <v>8</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4414,10 +4309,10 @@
         <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="L43" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="M43" t="s">
         <v>9</v>
@@ -4426,28 +4321,28 @@
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="P43" t="s">
         <v>30</v>
       </c>
       <c r="Q43" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R43" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S43" t="s">
         <v>41</v>
       </c>
       <c r="T43" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="U43" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="V43" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="W43" t="s">
         <v>14</v>
@@ -4461,25 +4356,25 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="D44" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4488,10 +4383,10 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="L44" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="M44" t="s">
         <v>9</v>
@@ -4500,28 +4395,28 @@
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="P44" t="s">
         <v>30</v>
       </c>
       <c r="Q44" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R44" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S44" t="s">
         <v>13</v>
       </c>
       <c r="T44" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="U44" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="V44" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="W44" t="s">
         <v>14</v>
@@ -4535,25 +4430,25 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="D45" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F45" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G45" s="3">
         <v>2</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
@@ -4562,10 +4457,10 @@
         <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="L45" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="M45" t="s">
         <v>9</v>
@@ -4574,28 +4469,28 @@
         <v>10</v>
       </c>
       <c r="O45" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="P45" t="s">
         <v>30</v>
       </c>
       <c r="Q45" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R45" s="2">
         <v>45413</v>
       </c>
       <c r="S45" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="T45" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="U45" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="V45" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="W45" t="s">
         <v>14</v>
@@ -4609,25 +4504,25 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D46" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E46" t="s">
-        <v>182</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H46" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4636,10 +4531,10 @@
         <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="L46" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="M46" t="s">
         <v>9</v>
@@ -4648,28 +4543,28 @@
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="P46" t="s">
         <v>30</v>
       </c>
       <c r="Q46" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R46" s="2">
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="S46" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T46" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="U46" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="V46" t="s">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="W46" t="s">
         <v>14</v>
@@ -4683,25 +4578,25 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="D47" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G47" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -4710,10 +4605,10 @@
         <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="L47" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="M47" t="s">
         <v>9</v>
@@ -4722,28 +4617,28 @@
         <v>10</v>
       </c>
       <c r="O47" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P47" t="s">
         <v>30</v>
       </c>
       <c r="Q47" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R47" s="2">
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="S47" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T47" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="U47" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="V47" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="W47" t="s">
         <v>14</v>
@@ -4757,25 +4652,25 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="D48" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E48" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="F48" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="G48" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -4784,10 +4679,10 @@
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="L48" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="M48" t="s">
         <v>9</v>
@@ -4796,28 +4691,28 @@
         <v>10</v>
       </c>
       <c r="O48" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="P48" t="s">
         <v>30</v>
       </c>
       <c r="Q48" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R48" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S48" t="s">
         <v>41</v>
       </c>
       <c r="T48" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="U48" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="V48" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="W48" t="s">
         <v>14</v>
@@ -4831,25 +4726,25 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="D49" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="G49" s="3">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="H49" s="3">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
@@ -4858,10 +4753,10 @@
         <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="L49" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="M49" t="s">
         <v>9</v>
@@ -4870,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="O49" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="P49" t="s">
         <v>30</v>
       </c>
       <c r="Q49" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R49" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S49" t="s">
         <v>41</v>
       </c>
       <c r="T49" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="U49" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="V49" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="W49" t="s">
         <v>14</v>
@@ -4905,25 +4800,25 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D50" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="G50" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -4932,10 +4827,10 @@
         <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="L50" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="M50" t="s">
         <v>9</v>
@@ -4944,28 +4839,28 @@
         <v>10</v>
       </c>
       <c r="O50" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="P50" t="s">
         <v>30</v>
       </c>
       <c r="Q50" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R50" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S50" t="s">
         <v>41</v>
       </c>
       <c r="T50" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="U50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="V50" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="W50" t="s">
         <v>14</v>
@@ -4979,19 +4874,19 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D51" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="G51" s="3">
         <v>10</v>
@@ -5006,10 +4901,10 @@
         <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="L51" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="M51" t="s">
         <v>9</v>
@@ -5018,28 +4913,28 @@
         <v>10</v>
       </c>
       <c r="O51" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="P51" t="s">
         <v>30</v>
       </c>
       <c r="Q51" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R51" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S51" t="s">
         <v>41</v>
       </c>
       <c r="T51" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="U51" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="V51" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="W51" t="s">
         <v>14</v>
@@ -5053,25 +4948,25 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C52" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D52" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="G52" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H52" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -5080,10 +4975,10 @@
         <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L52" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M52" t="s">
         <v>9</v>
@@ -5092,28 +4987,28 @@
         <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P52" t="s">
         <v>30</v>
       </c>
       <c r="Q52" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R52" s="2">
-        <v>45414</v>
+        <v>45412</v>
       </c>
       <c r="S52" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="T52" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="U52" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="V52" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="W52" t="s">
         <v>14</v>
@@ -5127,37 +5022,37 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="3">
+        <v>5</v>
+      </c>
+      <c r="H53" s="3">
+        <v>5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" t="s">
         <v>250</v>
       </c>
-      <c r="C53" t="s">
+      <c r="L53" t="s">
         <v>251</v>
-      </c>
-      <c r="D53" s="2">
-        <v>45408</v>
-      </c>
-      <c r="E53" t="s">
-        <v>182</v>
-      </c>
-      <c r="F53" t="s">
-        <v>183</v>
-      </c>
-      <c r="G53" s="3">
-        <v>4</v>
-      </c>
-      <c r="H53" s="3">
-        <v>200</v>
-      </c>
-      <c r="I53" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" t="s">
-        <v>252</v>
-      </c>
-      <c r="L53" t="s">
-        <v>253</v>
       </c>
       <c r="M53" t="s">
         <v>9</v>
@@ -5172,22 +5067,22 @@
         <v>30</v>
       </c>
       <c r="Q53" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R53" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S53" t="s">
         <v>41</v>
       </c>
       <c r="T53" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="U53" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="V53" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="W53" t="s">
         <v>14</v>
@@ -5201,25 +5096,25 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="D54" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G54" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H54" s="3">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5228,10 +5123,10 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="L54" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="M54" t="s">
         <v>9</v>
@@ -5240,28 +5135,28 @@
         <v>10</v>
       </c>
       <c r="O54" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P54" t="s">
         <v>30</v>
       </c>
       <c r="Q54" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R54" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S54" t="s">
         <v>41</v>
       </c>
       <c r="T54" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="U54" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="V54" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="W54" t="s">
         <v>14</v>
@@ -5275,37 +5170,37 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E55" t="s">
+        <v>257</v>
+      </c>
+      <c r="F55" t="s">
+        <v>258</v>
+      </c>
+      <c r="G55" s="3">
+        <v>2</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" t="s">
+        <v>259</v>
+      </c>
+      <c r="L55" t="s">
         <v>260</v>
-      </c>
-      <c r="C55" t="s">
-        <v>261</v>
-      </c>
-      <c r="D55" s="2">
-        <v>45408</v>
-      </c>
-      <c r="E55" t="s">
-        <v>189</v>
-      </c>
-      <c r="F55" t="s">
-        <v>190</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3">
-        <v>25</v>
-      </c>
-      <c r="I55" t="s">
-        <v>5</v>
-      </c>
-      <c r="J55" t="s">
-        <v>6</v>
-      </c>
-      <c r="K55" t="s">
-        <v>262</v>
-      </c>
-      <c r="L55" t="s">
-        <v>263</v>
       </c>
       <c r="M55" t="s">
         <v>9</v>
@@ -5314,28 +5209,28 @@
         <v>10</v>
       </c>
       <c r="O55" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P55" t="s">
         <v>30</v>
       </c>
       <c r="Q55" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R55" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S55" t="s">
         <v>41</v>
       </c>
       <c r="T55" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="U55" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V55" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="W55" t="s">
         <v>14</v>
@@ -5349,37 +5244,37 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E56" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" t="s">
         <v>268</v>
       </c>
-      <c r="C56" t="s">
+      <c r="G56" s="3">
+        <v>30</v>
+      </c>
+      <c r="H56" s="3">
+        <v>30</v>
+      </c>
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" t="s">
         <v>269</v>
       </c>
-      <c r="D56" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="L56" t="s">
         <v>270</v>
-      </c>
-      <c r="F56" t="s">
-        <v>271</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="3">
-        <v>50</v>
-      </c>
-      <c r="I56" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" t="s">
-        <v>6</v>
-      </c>
-      <c r="K56" t="s">
-        <v>272</v>
-      </c>
-      <c r="L56" t="s">
-        <v>273</v>
       </c>
       <c r="M56" t="s">
         <v>9</v>
@@ -5388,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="O56" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P56" t="s">
         <v>30</v>
       </c>
       <c r="Q56" s="2">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="R56" s="2">
-        <v>45412</v>
+        <v>45415</v>
       </c>
       <c r="S56" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T56" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="U56" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="V56" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="W56" t="s">
         <v>14</v>
@@ -5423,25 +5318,25 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D57" s="2">
         <v>45414</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="F57" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="G57" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H57" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
@@ -5450,10 +5345,10 @@
         <v>6</v>
       </c>
       <c r="K57" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L57" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M57" t="s">
         <v>9</v>
@@ -5462,7 +5357,7 @@
         <v>10</v>
       </c>
       <c r="O57" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P57" t="s">
         <v>30</v>
@@ -5474,16 +5369,16 @@
         <v>45415</v>
       </c>
       <c r="S57" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="T57" t="s">
+        <v>278</v>
+      </c>
+      <c r="U57" t="s">
+        <v>279</v>
+      </c>
+      <c r="V57" t="s">
         <v>280</v>
-      </c>
-      <c r="U57" t="s">
-        <v>277</v>
-      </c>
-      <c r="V57" t="s">
-        <v>281</v>
       </c>
       <c r="W57" t="s">
         <v>14</v>
@@ -5497,25 +5392,25 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C58" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D58" s="2">
         <v>45414</v>
       </c>
       <c r="E58" t="s">
-        <v>286</v>
+        <v>54</v>
       </c>
       <c r="F58" t="s">
-        <v>287</v>
+        <v>55</v>
       </c>
       <c r="G58" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H58" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
@@ -5524,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="L58" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M58" t="s">
         <v>9</v>
@@ -5536,10 +5431,10 @@
         <v>10</v>
       </c>
       <c r="O58" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="P58" t="s">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="Q58" s="2">
         <v>45414</v>
@@ -5548,16 +5443,16 @@
         <v>45415</v>
       </c>
       <c r="S58" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="T58" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="U58" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="V58" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="W58" t="s">
         <v>14</v>
@@ -5571,25 +5466,25 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D59" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E59" t="s">
-        <v>70</v>
+        <v>283</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="G59" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H59" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
@@ -5598,10 +5493,10 @@
         <v>6</v>
       </c>
       <c r="K59" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="L59" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="M59" t="s">
         <v>9</v>
@@ -5610,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="O59" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="P59" t="s">
         <v>30</v>
       </c>
       <c r="Q59" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R59" s="2">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="S59" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="T59" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="U59" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="V59" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="W59" t="s">
         <v>14</v>
@@ -5642,34 +5537,34 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="B60" t="s">
+        <v>292</v>
+      </c>
+      <c r="C60" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E60" t="s">
+        <v>294</v>
+      </c>
+      <c r="F60" t="s">
         <v>295</v>
       </c>
-      <c r="C60" t="s">
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" t="s">
         <v>296</v>
-      </c>
-      <c r="D60" s="2">
-        <v>45414</v>
-      </c>
-      <c r="E60" t="s">
-        <v>54</v>
-      </c>
-      <c r="F60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="3">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>5</v>
-      </c>
-      <c r="I60" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" t="s">
-        <v>6</v>
       </c>
       <c r="K60" t="s">
         <v>297</v>
@@ -5678,34 +5573,34 @@
         <v>298</v>
       </c>
       <c r="M60" t="s">
-        <v>9</v>
+        <v>299</v>
       </c>
       <c r="N60" t="s">
         <v>10</v>
       </c>
       <c r="O60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P60" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="Q60" s="2">
-        <v>45414</v>
+        <v>45308</v>
       </c>
       <c r="R60" s="2">
-        <v>45415</v>
+        <v>45309</v>
       </c>
       <c r="S60" t="s">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="T60" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="U60" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="V60" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W60" t="s">
         <v>14</v>
@@ -5716,22 +5611,22 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="D61" s="2">
-        <v>45504</v>
+        <v>45308</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -5743,16 +5638,16 @@
         <v>5</v>
       </c>
       <c r="J61" t="s">
-        <v>6</v>
+        <v>296</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="L61" t="s">
         <v>306</v>
       </c>
       <c r="M61" t="s">
-        <v>9</v>
+        <v>299</v>
       </c>
       <c r="N61" t="s">
         <v>10</v>
@@ -5761,25 +5656,25 @@
         <v>307</v>
       </c>
       <c r="P61" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="Q61" s="2">
-        <v>45504</v>
+        <v>45308</v>
       </c>
       <c r="R61" s="2">
-        <v>45509</v>
+        <v>45309</v>
       </c>
       <c r="S61" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="T61" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="U61" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="V61" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="W61" t="s">
         <v>14</v>
@@ -5790,22 +5685,22 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="B62" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="D62" s="2">
-        <v>45504</v>
+        <v>45308</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -5817,43 +5712,43 @@
         <v>5</v>
       </c>
       <c r="J62" t="s">
-        <v>6</v>
+        <v>296</v>
       </c>
       <c r="K62" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="L62" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M62" t="s">
-        <v>9</v>
+        <v>299</v>
       </c>
       <c r="N62" t="s">
         <v>10</v>
       </c>
       <c r="O62" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P62" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="Q62" s="2">
-        <v>45504</v>
+        <v>45308</v>
       </c>
       <c r="R62" s="2">
-        <v>45509</v>
+        <v>45309</v>
       </c>
       <c r="S62" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="T62" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="U62" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="V62" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="W62" t="s">
         <v>14</v>
@@ -5864,963 +5759,75 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="B63" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="D63" s="2">
-        <v>45504</v>
+        <v>45411</v>
       </c>
       <c r="E63" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F63" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
       </c>
       <c r="J63" t="s">
-        <v>6</v>
+        <v>296</v>
       </c>
       <c r="K63" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="L63" t="s">
         <v>306</v>
       </c>
       <c r="M63" t="s">
-        <v>9</v>
+        <v>299</v>
       </c>
       <c r="N63" t="s">
         <v>10</v>
       </c>
       <c r="O63" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="P63" t="s">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="Q63" s="2">
-        <v>45504</v>
+        <v>45411</v>
       </c>
       <c r="R63" s="2">
-        <v>45509</v>
+        <v>45412</v>
       </c>
       <c r="S63" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="T63" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="U63" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="V63" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="W63" t="s">
         <v>14</v>
       </c>
       <c r="X63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>303</v>
-      </c>
-      <c r="C64" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="2">
-        <v>45504</v>
-      </c>
-      <c r="E64" t="s">
-        <v>312</v>
-      </c>
-      <c r="F64" t="s">
-        <v>313</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="3">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>5</v>
-      </c>
-      <c r="J64" t="s">
-        <v>6</v>
-      </c>
-      <c r="K64" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" t="s">
-        <v>306</v>
-      </c>
-      <c r="M64" t="s">
-        <v>9</v>
-      </c>
-      <c r="N64" t="s">
-        <v>10</v>
-      </c>
-      <c r="O64" t="s">
-        <v>307</v>
-      </c>
-      <c r="P64" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>45504</v>
-      </c>
-      <c r="R64" s="2">
-        <v>45509</v>
-      </c>
-      <c r="S64" t="s">
-        <v>168</v>
-      </c>
-      <c r="T64" t="s">
-        <v>20</v>
-      </c>
-      <c r="U64" t="s">
-        <v>16</v>
-      </c>
-      <c r="V64" t="s">
-        <v>21</v>
-      </c>
-      <c r="W64" t="s">
-        <v>14</v>
-      </c>
-      <c r="X64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" t="s">
-        <v>303</v>
-      </c>
-      <c r="C65" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="2">
-        <v>45504</v>
-      </c>
-      <c r="E65" t="s">
-        <v>314</v>
-      </c>
-      <c r="F65" t="s">
-        <v>315</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>5</v>
-      </c>
-      <c r="J65" t="s">
-        <v>6</v>
-      </c>
-      <c r="K65" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" t="s">
-        <v>306</v>
-      </c>
-      <c r="M65" t="s">
-        <v>9</v>
-      </c>
-      <c r="N65" t="s">
-        <v>10</v>
-      </c>
-      <c r="O65" t="s">
-        <v>307</v>
-      </c>
-      <c r="P65" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>45504</v>
-      </c>
-      <c r="R65" s="2">
-        <v>45509</v>
-      </c>
-      <c r="S65" t="s">
-        <v>168</v>
-      </c>
-      <c r="T65" t="s">
-        <v>20</v>
-      </c>
-      <c r="U65" t="s">
-        <v>16</v>
-      </c>
-      <c r="V65" t="s">
-        <v>21</v>
-      </c>
-      <c r="W65" t="s">
-        <v>14</v>
-      </c>
-      <c r="X65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
-        <v>303</v>
-      </c>
-      <c r="C66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="2">
-        <v>45504</v>
-      </c>
-      <c r="E66" t="s">
-        <v>316</v>
-      </c>
-      <c r="F66" t="s">
-        <v>317</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" t="s">
-        <v>6</v>
-      </c>
-      <c r="K66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" t="s">
-        <v>306</v>
-      </c>
-      <c r="M66" t="s">
-        <v>9</v>
-      </c>
-      <c r="N66" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" t="s">
-        <v>307</v>
-      </c>
-      <c r="P66" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>45504</v>
-      </c>
-      <c r="R66" s="2">
-        <v>45509</v>
-      </c>
-      <c r="S66" t="s">
-        <v>168</v>
-      </c>
-      <c r="T66" t="s">
-        <v>20</v>
-      </c>
-      <c r="U66" t="s">
-        <v>16</v>
-      </c>
-      <c r="V66" t="s">
-        <v>21</v>
-      </c>
-      <c r="W66" t="s">
-        <v>14</v>
-      </c>
-      <c r="X66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>303</v>
-      </c>
-      <c r="C67" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="2">
-        <v>45504</v>
-      </c>
-      <c r="E67" t="s">
-        <v>318</v>
-      </c>
-      <c r="F67" t="s">
-        <v>319</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="3">
-        <v>1</v>
-      </c>
-      <c r="I67" t="s">
-        <v>5</v>
-      </c>
-      <c r="J67" t="s">
-        <v>6</v>
-      </c>
-      <c r="K67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" t="s">
-        <v>306</v>
-      </c>
-      <c r="M67" t="s">
-        <v>9</v>
-      </c>
-      <c r="N67" t="s">
-        <v>10</v>
-      </c>
-      <c r="O67" t="s">
-        <v>307</v>
-      </c>
-      <c r="P67" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>45504</v>
-      </c>
-      <c r="R67" s="2">
-        <v>45509</v>
-      </c>
-      <c r="S67" t="s">
-        <v>168</v>
-      </c>
-      <c r="T67" t="s">
-        <v>20</v>
-      </c>
-      <c r="U67" t="s">
-        <v>16</v>
-      </c>
-      <c r="V67" t="s">
-        <v>21</v>
-      </c>
-      <c r="W67" t="s">
-        <v>14</v>
-      </c>
-      <c r="X67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>303</v>
-      </c>
-      <c r="C68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="2">
-        <v>45504</v>
-      </c>
-      <c r="E68" t="s">
-        <v>320</v>
-      </c>
-      <c r="F68" t="s">
-        <v>321</v>
-      </c>
-      <c r="G68" s="3">
-        <v>2</v>
-      </c>
-      <c r="H68" s="3">
-        <v>2</v>
-      </c>
-      <c r="I68" t="s">
-        <v>5</v>
-      </c>
-      <c r="J68" t="s">
-        <v>6</v>
-      </c>
-      <c r="K68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L68" t="s">
-        <v>306</v>
-      </c>
-      <c r="M68" t="s">
-        <v>9</v>
-      </c>
-      <c r="N68" t="s">
-        <v>10</v>
-      </c>
-      <c r="O68" t="s">
-        <v>307</v>
-      </c>
-      <c r="P68" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>45504</v>
-      </c>
-      <c r="R68" s="2">
-        <v>45509</v>
-      </c>
-      <c r="S68" t="s">
-        <v>168</v>
-      </c>
-      <c r="T68" t="s">
-        <v>20</v>
-      </c>
-      <c r="U68" t="s">
-        <v>16</v>
-      </c>
-      <c r="V68" t="s">
-        <v>21</v>
-      </c>
-      <c r="W68" t="s">
-        <v>14</v>
-      </c>
-      <c r="X68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>303</v>
-      </c>
-      <c r="C69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="2">
-        <v>45504</v>
-      </c>
-      <c r="E69" t="s">
-        <v>120</v>
-      </c>
-      <c r="F69" t="s">
-        <v>121</v>
-      </c>
-      <c r="G69" s="3">
-        <v>10</v>
-      </c>
-      <c r="H69" s="3">
-        <v>200</v>
-      </c>
-      <c r="I69" t="s">
-        <v>5</v>
-      </c>
-      <c r="J69" t="s">
-        <v>6</v>
-      </c>
-      <c r="K69" t="s">
-        <v>20</v>
-      </c>
-      <c r="L69" t="s">
-        <v>306</v>
-      </c>
-      <c r="M69" t="s">
-        <v>9</v>
-      </c>
-      <c r="N69" t="s">
-        <v>10</v>
-      </c>
-      <c r="O69" t="s">
-        <v>307</v>
-      </c>
-      <c r="P69" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>45504</v>
-      </c>
-      <c r="R69" s="2">
-        <v>45509</v>
-      </c>
-      <c r="S69" t="s">
-        <v>168</v>
-      </c>
-      <c r="T69" t="s">
-        <v>20</v>
-      </c>
-      <c r="U69" t="s">
-        <v>16</v>
-      </c>
-      <c r="V69" t="s">
-        <v>21</v>
-      </c>
-      <c r="W69" t="s">
-        <v>14</v>
-      </c>
-      <c r="X69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>303</v>
-      </c>
-      <c r="C70" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="2">
-        <v>45504</v>
-      </c>
-      <c r="E70" t="s">
-        <v>182</v>
-      </c>
-      <c r="F70" t="s">
-        <v>183</v>
-      </c>
-      <c r="G70" s="3">
-        <v>10</v>
-      </c>
-      <c r="H70" s="3">
-        <v>500</v>
-      </c>
-      <c r="I70" t="s">
-        <v>5</v>
-      </c>
-      <c r="J70" t="s">
-        <v>6</v>
-      </c>
-      <c r="K70" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" t="s">
-        <v>306</v>
-      </c>
-      <c r="M70" t="s">
-        <v>9</v>
-      </c>
-      <c r="N70" t="s">
-        <v>10</v>
-      </c>
-      <c r="O70" t="s">
-        <v>307</v>
-      </c>
-      <c r="P70" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>45504</v>
-      </c>
-      <c r="R70" s="2">
-        <v>45509</v>
-      </c>
-      <c r="S70" t="s">
-        <v>168</v>
-      </c>
-      <c r="T70" t="s">
-        <v>20</v>
-      </c>
-      <c r="U70" t="s">
-        <v>16</v>
-      </c>
-      <c r="V70" t="s">
-        <v>21</v>
-      </c>
-      <c r="W70" t="s">
-        <v>14</v>
-      </c>
-      <c r="X70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
-      <c r="A71" t="s">
-        <v>322</v>
-      </c>
-      <c r="B71" t="s">
-        <v>323</v>
-      </c>
-      <c r="C71" t="s">
-        <v>324</v>
-      </c>
-      <c r="D71" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E71" t="s">
-        <v>325</v>
-      </c>
-      <c r="F71" t="s">
-        <v>326</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" t="s">
-        <v>5</v>
-      </c>
-      <c r="J71" t="s">
-        <v>327</v>
-      </c>
-      <c r="K71" t="s">
-        <v>328</v>
-      </c>
-      <c r="L71" t="s">
-        <v>329</v>
-      </c>
-      <c r="M71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N71" t="s">
-        <v>10</v>
-      </c>
-      <c r="O71" t="s">
-        <v>331</v>
-      </c>
-      <c r="P71" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R71" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S71" t="s">
-        <v>41</v>
-      </c>
-      <c r="T71" t="s">
-        <v>328</v>
-      </c>
-      <c r="U71" t="s">
-        <v>333</v>
-      </c>
-      <c r="V71" t="s">
-        <v>334</v>
-      </c>
-      <c r="W71" t="s">
-        <v>14</v>
-      </c>
-      <c r="X71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
-      <c r="A72" t="s">
-        <v>322</v>
-      </c>
-      <c r="B72" t="s">
-        <v>335</v>
-      </c>
-      <c r="C72" t="s">
-        <v>336</v>
-      </c>
-      <c r="D72" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E72" t="s">
-        <v>325</v>
-      </c>
-      <c r="F72" t="s">
-        <v>326</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1</v>
-      </c>
-      <c r="I72" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" t="s">
-        <v>327</v>
-      </c>
-      <c r="K72" t="s">
-        <v>328</v>
-      </c>
-      <c r="L72" t="s">
-        <v>337</v>
-      </c>
-      <c r="M72" t="s">
-        <v>330</v>
-      </c>
-      <c r="N72" t="s">
-        <v>10</v>
-      </c>
-      <c r="O72" t="s">
-        <v>338</v>
-      </c>
-      <c r="P72" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R72" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S72" t="s">
-        <v>41</v>
-      </c>
-      <c r="T72" t="s">
-        <v>328</v>
-      </c>
-      <c r="U72" t="s">
-        <v>333</v>
-      </c>
-      <c r="V72" t="s">
-        <v>334</v>
-      </c>
-      <c r="W72" t="s">
-        <v>14</v>
-      </c>
-      <c r="X72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
-      <c r="A73" t="s">
-        <v>322</v>
-      </c>
-      <c r="B73" t="s">
-        <v>339</v>
-      </c>
-      <c r="C73" t="s">
-        <v>340</v>
-      </c>
-      <c r="D73" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E73" t="s">
-        <v>325</v>
-      </c>
-      <c r="F73" t="s">
-        <v>326</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="3">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>5</v>
-      </c>
-      <c r="J73" t="s">
-        <v>327</v>
-      </c>
-      <c r="K73" t="s">
-        <v>328</v>
-      </c>
-      <c r="L73" t="s">
-        <v>341</v>
-      </c>
-      <c r="M73" t="s">
-        <v>330</v>
-      </c>
-      <c r="N73" t="s">
-        <v>10</v>
-      </c>
-      <c r="O73" t="s">
-        <v>342</v>
-      </c>
-      <c r="P73" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R73" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S73" t="s">
-        <v>41</v>
-      </c>
-      <c r="T73" t="s">
-        <v>328</v>
-      </c>
-      <c r="U73" t="s">
-        <v>333</v>
-      </c>
-      <c r="V73" t="s">
-        <v>334</v>
-      </c>
-      <c r="W73" t="s">
-        <v>14</v>
-      </c>
-      <c r="X73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
-      <c r="A74" t="s">
-        <v>322</v>
-      </c>
-      <c r="B74" t="s">
-        <v>343</v>
-      </c>
-      <c r="C74" t="s">
-        <v>336</v>
-      </c>
-      <c r="D74" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E74" t="s">
-        <v>344</v>
-      </c>
-      <c r="F74" t="s">
-        <v>345</v>
-      </c>
-      <c r="G74" s="3">
-        <v>2</v>
-      </c>
-      <c r="H74" s="3">
-        <v>2</v>
-      </c>
-      <c r="I74" t="s">
-        <v>5</v>
-      </c>
-      <c r="J74" t="s">
-        <v>327</v>
-      </c>
-      <c r="K74" t="s">
-        <v>328</v>
-      </c>
-      <c r="L74" t="s">
-        <v>337</v>
-      </c>
-      <c r="M74" t="s">
-        <v>330</v>
-      </c>
-      <c r="N74" t="s">
-        <v>10</v>
-      </c>
-      <c r="O74" t="s">
-        <v>346</v>
-      </c>
-      <c r="P74" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R74" s="2">
-        <v>45408</v>
-      </c>
-      <c r="S74" t="s">
-        <v>41</v>
-      </c>
-      <c r="T74" t="s">
-        <v>328</v>
-      </c>
-      <c r="U74" t="s">
-        <v>333</v>
-      </c>
-      <c r="V74" t="s">
-        <v>334</v>
-      </c>
-      <c r="W74" t="s">
-        <v>14</v>
-      </c>
-      <c r="X74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
-      <c r="A75" t="s">
-        <v>322</v>
-      </c>
-      <c r="B75" t="s">
-        <v>347</v>
-      </c>
-      <c r="C75" t="s">
-        <v>324</v>
-      </c>
-      <c r="D75" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E75" t="s">
-        <v>348</v>
-      </c>
-      <c r="F75" t="s">
-        <v>349</v>
-      </c>
-      <c r="G75" s="3">
-        <v>6</v>
-      </c>
-      <c r="H75" s="3">
-        <v>6</v>
-      </c>
-      <c r="I75" t="s">
-        <v>5</v>
-      </c>
-      <c r="J75" t="s">
-        <v>327</v>
-      </c>
-      <c r="K75" t="s">
-        <v>328</v>
-      </c>
-      <c r="L75" t="s">
-        <v>329</v>
-      </c>
-      <c r="M75" t="s">
-        <v>330</v>
-      </c>
-      <c r="N75" t="s">
-        <v>10</v>
-      </c>
-      <c r="O75" t="s">
-        <v>350</v>
-      </c>
-      <c r="P75" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>45411</v>
-      </c>
-      <c r="R75" s="2">
-        <v>45412</v>
-      </c>
-      <c r="S75" t="s">
-        <v>41</v>
-      </c>
-      <c r="T75" t="s">
-        <v>328</v>
-      </c>
-      <c r="U75" t="s">
-        <v>333</v>
-      </c>
-      <c r="V75" t="s">
-        <v>334</v>
-      </c>
-      <c r="W75" t="s">
-        <v>14</v>
-      </c>
-      <c r="X75" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="466">
   <si>
     <t>P891</t>
   </si>
@@ -58,19 +58,1276 @@
     <t>A</t>
   </si>
   <si>
-    <t>133668085</t>
+    <t>133802065</t>
+  </si>
+  <si>
+    <t>CAMPBELLTOWN HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596093</t>
+  </si>
+  <si>
+    <t>CAMPBELLTOWN</t>
+  </si>
+  <si>
+    <t>717066697</t>
+  </si>
+  <si>
+    <t>SXSRIP2R</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>4596097</t>
+  </si>
+  <si>
+    <t>SOUTH WESTERN SYDNEY LOCAL HEALTH D</t>
+  </si>
+  <si>
+    <t>PARRAMATTA</t>
+  </si>
+  <si>
+    <t>133808547</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING - CHARLESTWN</t>
+  </si>
+  <si>
+    <t>1234715</t>
+  </si>
+  <si>
+    <t>CHARLESTOWN</t>
+  </si>
+  <si>
+    <t>717078804</t>
+  </si>
+  <si>
+    <t>010050</t>
+  </si>
+  <si>
+    <t>4595823</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>GOSFORD</t>
+  </si>
+  <si>
+    <t>03250768</t>
+  </si>
+  <si>
+    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133810874</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - TOWNSVILLE</t>
+  </si>
+  <si>
+    <t>4094369</t>
+  </si>
+  <si>
+    <t>THURINGOWA CENTRAL</t>
+  </si>
+  <si>
+    <t>717076174</t>
+  </si>
+  <si>
+    <t>040050</t>
+  </si>
+  <si>
+    <t>133617822</t>
+  </si>
+  <si>
+    <t>ST JOHN OF GOD HEALTH CARE -</t>
+  </si>
+  <si>
+    <t>80727543</t>
+  </si>
+  <si>
+    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
+  </si>
+  <si>
+    <t>3018211</t>
+  </si>
+  <si>
+    <t>O'CONNOR</t>
+  </si>
+  <si>
+    <t>717088524</t>
+  </si>
+  <si>
+    <t>ST JOHN OF GOD HEALTH CARE</t>
+  </si>
+  <si>
+    <t>GEELONG</t>
+  </si>
+  <si>
+    <t>133787997</t>
+  </si>
+  <si>
+    <t>ROYAL ADELAIDE HOSPITAL</t>
+  </si>
+  <si>
+    <t>02112555</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4676781</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>717076832</t>
+  </si>
+  <si>
+    <t>4595446</t>
+  </si>
+  <si>
+    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133817728</t>
+  </si>
+  <si>
+    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
+  </si>
+  <si>
+    <t>02112548</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4670712</t>
+  </si>
+  <si>
+    <t>DERRIMUT</t>
+  </si>
+  <si>
+    <t>717074268</t>
+  </si>
+  <si>
+    <t>4670709</t>
+  </si>
+  <si>
+    <t>HEALTHSHARE VICTORIA</t>
+  </si>
+  <si>
+    <t>MELBOURNE</t>
+  </si>
+  <si>
+    <t>133818138</t>
+  </si>
+  <si>
+    <t>FAR NORTH QLD REGIONAL</t>
+  </si>
+  <si>
+    <t>929201</t>
+  </si>
+  <si>
+    <t>WOREE</t>
+  </si>
+  <si>
+    <t>717076685</t>
+  </si>
+  <si>
+    <t>040130</t>
+  </si>
+  <si>
+    <t>4595067</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF HEALTH QLD</t>
+  </si>
+  <si>
+    <t>BRISBANE</t>
+  </si>
+  <si>
+    <t>133831864</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING - ORANGE</t>
+  </si>
+  <si>
+    <t>64437141</t>
+  </si>
+  <si>
+    <t>Dota250UG (Tyr3)-Octreotate (GMP-Dota)</t>
+  </si>
+  <si>
+    <t>3510474</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>717083697</t>
+  </si>
+  <si>
+    <t>020050</t>
+  </si>
+  <si>
+    <t>133836557</t>
+  </si>
+  <si>
+    <t>QSCAN RADIOLOGY - UPPER COOMERA</t>
+  </si>
+  <si>
+    <t>4211108</t>
+  </si>
+  <si>
+    <t>UPPER COOMERA</t>
+  </si>
+  <si>
+    <t>717066596</t>
+  </si>
+  <si>
+    <t>80802544</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>87621529</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133836960</t>
+  </si>
+  <si>
+    <t>CAMPBELLTOWN PRIVATE HOSPITAL</t>
+  </si>
+  <si>
+    <t>3337297</t>
+  </si>
+  <si>
+    <t>717095206</t>
+  </si>
+  <si>
+    <t>4595617</t>
+  </si>
+  <si>
+    <t>HEALTHSCOPE LTD</t>
+  </si>
+  <si>
+    <t>133836961</t>
+  </si>
+  <si>
+    <t>MARINA DIAGNOSTIC GROUP</t>
+  </si>
+  <si>
+    <t>87234487</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>3490808</t>
+  </si>
+  <si>
+    <t>CHELSEA HEIGHTS</t>
+  </si>
+  <si>
+    <t>717096911</t>
+  </si>
+  <si>
+    <t>4595407</t>
+  </si>
+  <si>
+    <t>DANDENONG  EAST</t>
+  </si>
+  <si>
+    <t>133840008</t>
+  </si>
+  <si>
+    <t>RADIOLOGY SA</t>
+  </si>
+  <si>
+    <t>3319787</t>
+  </si>
+  <si>
+    <t>PORT ADELAIDE</t>
+  </si>
+  <si>
+    <t>717094974</t>
+  </si>
+  <si>
+    <t>4596221</t>
+  </si>
+  <si>
+    <t>NORTH ADELAIDE</t>
+  </si>
+  <si>
+    <t>87236072</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,WLD1</t>
+  </si>
+  <si>
+    <t>133840203</t>
+  </si>
+  <si>
+    <t>PERTH CHILDREN'S HOSPITAL</t>
+  </si>
+  <si>
+    <t>85575279</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 3X2ML AU-NZ</t>
+  </si>
+  <si>
+    <t>3906128</t>
+  </si>
+  <si>
+    <t>Nedlands</t>
+  </si>
+  <si>
+    <t>717093819</t>
+  </si>
+  <si>
+    <t>010041</t>
+  </si>
+  <si>
+    <t>133761375</t>
+  </si>
+  <si>
+    <t>FLINDERS MEDICAL CENTRE</t>
+  </si>
+  <si>
+    <t>4699953</t>
+  </si>
+  <si>
+    <t>BEDFORD PARK</t>
+  </si>
+  <si>
+    <t>717090428</t>
+  </si>
+  <si>
+    <t>133802932</t>
+  </si>
+  <si>
+    <t>CONCORD HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595884</t>
+  </si>
+  <si>
+    <t>CONCORD WEST</t>
+  </si>
+  <si>
+    <t>717095662</t>
+  </si>
+  <si>
+    <t>4595817</t>
+  </si>
+  <si>
+    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
+  </si>
+  <si>
+    <t>133820561</t>
+  </si>
+  <si>
+    <t>ST VINCENTS PRIVATE FITZROY</t>
+  </si>
+  <si>
+    <t>86617439</t>
+  </si>
+  <si>
+    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595226</t>
+  </si>
+  <si>
+    <t>FITZROY</t>
+  </si>
+  <si>
+    <t>717067195</t>
+  </si>
+  <si>
+    <t>3018214</t>
+  </si>
+  <si>
+    <t>ST VINCENT'S PRIVATE MELBOURNE</t>
+  </si>
+  <si>
+    <t>133824295</t>
+  </si>
+  <si>
+    <t>CANBERRA IMAGING GROUP - DEAKIN</t>
+  </si>
+  <si>
+    <t>4595980</t>
+  </si>
+  <si>
+    <t>DEAKIN</t>
+  </si>
+  <si>
+    <t>717091475</t>
+  </si>
+  <si>
+    <t>4595992</t>
+  </si>
+  <si>
+    <t>CANBERRA IMAGING GROUP</t>
+  </si>
+  <si>
+    <t>DEAKIN WEST</t>
+  </si>
+  <si>
+    <t>133826909</t>
+  </si>
+  <si>
+    <t>REDCLIFFE/CABOOLTURE HSD</t>
+  </si>
+  <si>
+    <t>4595829</t>
+  </si>
+  <si>
+    <t>REDCLIFFE</t>
+  </si>
+  <si>
+    <t>717089248</t>
+  </si>
+  <si>
+    <t>4595837</t>
+  </si>
+  <si>
+    <t>METRO NORTH HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>HERSTON</t>
+  </si>
+  <si>
+    <t>133826910</t>
+  </si>
+  <si>
+    <t>ROYAL BRISBANE &amp; WOMEN'S HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595831</t>
+  </si>
+  <si>
+    <t>717090819</t>
+  </si>
+  <si>
+    <t>133826911</t>
+  </si>
+  <si>
+    <t>PRINCE CHARLES HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595836</t>
+  </si>
+  <si>
+    <t>CHERMSIDE</t>
+  </si>
+  <si>
+    <t>717091323</t>
+  </si>
+  <si>
+    <t>133831375</t>
+  </si>
+  <si>
+    <t>CALVARY MATER HOSPITAL - WARATAH</t>
+  </si>
+  <si>
+    <t>4595323</t>
+  </si>
+  <si>
+    <t>WARATAH</t>
+  </si>
+  <si>
+    <t>717090574</t>
+  </si>
+  <si>
+    <t>4595328</t>
+  </si>
+  <si>
+    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
+  </si>
+  <si>
+    <t>NEWCASTLE</t>
+  </si>
+  <si>
+    <t>133832792</t>
+  </si>
+  <si>
+    <t>ROYAL NORTH SHORE HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595335</t>
+  </si>
+  <si>
+    <t>ST LEONARDS</t>
+  </si>
+  <si>
+    <t>717095761</t>
+  </si>
+  <si>
+    <t>4595339</t>
+  </si>
+  <si>
+    <t>NORTHERN SYDNEY LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133832793</t>
+  </si>
+  <si>
+    <t>PRINCESS ALEXANDRA HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596272</t>
+  </si>
+  <si>
+    <t>WOOLLOONGABBA</t>
+  </si>
+  <si>
+    <t>717095772</t>
+  </si>
+  <si>
+    <t>4595416</t>
+  </si>
+  <si>
+    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>EIGHT MILE PLAINS</t>
+  </si>
+  <si>
+    <t>133834755</t>
+  </si>
+  <si>
+    <t>THE QUEEN ELIZABETH HOSPITAL</t>
+  </si>
+  <si>
+    <t>86698188</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595512</t>
+  </si>
+  <si>
+    <t>WOODVILLE SOUTH</t>
+  </si>
+  <si>
+    <t>717093203</t>
+  </si>
+  <si>
+    <t>133834756</t>
+  </si>
+  <si>
+    <t>RIVERLAND GENERAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595436</t>
+  </si>
+  <si>
+    <t>BERRI</t>
+  </si>
+  <si>
+    <t>717093753</t>
+  </si>
+  <si>
+    <t>030130</t>
+  </si>
+  <si>
+    <t>133834757</t>
+  </si>
+  <si>
+    <t>717093778</t>
+  </si>
+  <si>
+    <t>132494</t>
+  </si>
+  <si>
+    <t>THE ROYAL MELBOURNE HOSPITAL</t>
+  </si>
+  <si>
+    <t>PARKVILLE</t>
+  </si>
+  <si>
+    <t>133836143</t>
+  </si>
+  <si>
+    <t>MERCY RADIOLOGY - MILFORD</t>
+  </si>
+  <si>
+    <t>64424279</t>
+  </si>
+  <si>
+    <t>Modular-Lab Eazy Cassette for Lu177</t>
+  </si>
+  <si>
+    <t>4595855</t>
+  </si>
+  <si>
+    <t>MILFORD</t>
+  </si>
+  <si>
+    <t>717065868</t>
+  </si>
+  <si>
+    <t>000141</t>
+  </si>
+  <si>
+    <t>4595859</t>
+  </si>
+  <si>
+    <t>MERCY RADIOLOGY</t>
+  </si>
+  <si>
+    <t>NEWMARKET</t>
+  </si>
+  <si>
+    <t>64437133</t>
+  </si>
+  <si>
+    <t>Dota(Tyr3)-Octreotate (GMP-Dotatate) 1mg</t>
+  </si>
+  <si>
+    <t>64439276</t>
+  </si>
+  <si>
+    <t>Reagent Kit -90Y and 177Lu Peptides</t>
+  </si>
+  <si>
+    <t>133836787</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - THE WESLEY</t>
+  </si>
+  <si>
+    <t>4595894</t>
+  </si>
+  <si>
+    <t>AUCHENFLOWER</t>
+  </si>
+  <si>
+    <t>717092222</t>
+  </si>
+  <si>
+    <t>4595887</t>
+  </si>
+  <si>
+    <t>86566621</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
+  </si>
+  <si>
+    <t>64424260</t>
+  </si>
+  <si>
+    <t>LabEAZY Cassette- 68Ga PSMA Peptides</t>
+  </si>
+  <si>
+    <t>64425232</t>
+  </si>
+  <si>
+    <t>Reagent Set 68Ga-labeled peptides</t>
+  </si>
+  <si>
+    <t>133837089</t>
+  </si>
+  <si>
+    <t>ROYAL DARWIN HOSPITAL</t>
+  </si>
+  <si>
+    <t>87548082</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
+  </si>
+  <si>
+    <t>4595091</t>
+  </si>
+  <si>
+    <t>TIWI</t>
+  </si>
+  <si>
+    <t>717060919</t>
+  </si>
+  <si>
+    <t>060130</t>
+  </si>
+  <si>
+    <t>4595080</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF HEALTH NT</t>
+  </si>
+  <si>
+    <t>CASUARINA</t>
+  </si>
+  <si>
+    <t>87548783</t>
+  </si>
+  <si>
+    <t>ASSY,DAY SET,CENTARGO,ROW</t>
+  </si>
+  <si>
+    <t>133837275</t>
+  </si>
+  <si>
+    <t>GOULBURN HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595495</t>
+  </si>
+  <si>
+    <t>GOULBURN</t>
+  </si>
+  <si>
+    <t>717093204</t>
+  </si>
+  <si>
+    <t>4595498</t>
+  </si>
+  <si>
+    <t>SOUTHERN NSW LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133837276</t>
+  </si>
+  <si>
+    <t>JONES RADIOLOGY - CALVARY ADELAIDE</t>
+  </si>
+  <si>
+    <t>4595385</t>
+  </si>
+  <si>
+    <t>717094982</t>
+  </si>
+  <si>
+    <t>133837722</t>
+  </si>
+  <si>
+    <t>C/O SUPPLY DEPT GF -MED IMAG</t>
+  </si>
+  <si>
+    <t>924048</t>
+  </si>
+  <si>
+    <t>MEADOWBROOK</t>
+  </si>
+  <si>
+    <t>717089083</t>
+  </si>
+  <si>
+    <t>133837723</t>
+  </si>
+  <si>
+    <t>717095993</t>
+  </si>
+  <si>
+    <t>133837725</t>
+  </si>
+  <si>
+    <t>THE CANBERRA HOSPITAL</t>
+  </si>
+  <si>
+    <t>86594218</t>
+  </si>
+  <si>
+    <t>SOLARIS,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595653</t>
+  </si>
+  <si>
+    <t>GARRAN</t>
+  </si>
+  <si>
+    <t>717067249</t>
+  </si>
+  <si>
+    <t>4595647</t>
+  </si>
+  <si>
+    <t>ACT HEALTH SUPPLY SERVICES</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>133839188</t>
+  </si>
+  <si>
+    <t>QSCAN GUNGAHLIN</t>
+  </si>
+  <si>
+    <t>82212737</t>
+  </si>
+  <si>
+    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
+  </si>
+  <si>
+    <t>4595740</t>
+  </si>
+  <si>
+    <t>GUNGAHLIN</t>
+  </si>
+  <si>
+    <t>717087502</t>
+  </si>
+  <si>
+    <t>4595747</t>
+  </si>
+  <si>
+    <t>UNIVERSAL MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>CLAYFIELD</t>
+  </si>
+  <si>
+    <t>133840058</t>
+  </si>
+  <si>
+    <t>717092353</t>
+  </si>
+  <si>
+    <t>133840060</t>
+  </si>
+  <si>
+    <t>MANNING BASE HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595325</t>
+  </si>
+  <si>
+    <t>TAREE</t>
+  </si>
+  <si>
+    <t>717096522</t>
+  </si>
+  <si>
+    <t>133840202</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES</t>
+  </si>
+  <si>
+    <t>4595351</t>
+  </si>
+  <si>
+    <t>KOGARAH</t>
+  </si>
+  <si>
+    <t>717091507</t>
+  </si>
+  <si>
+    <t>4595461</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES (NSW)</t>
+  </si>
+  <si>
+    <t>133840204</t>
+  </si>
+  <si>
+    <t>NORTH COAST RADIOLOGY - RYDE</t>
+  </si>
+  <si>
+    <t>86698242</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595788</t>
+  </si>
+  <si>
+    <t>RYDE</t>
+  </si>
+  <si>
+    <t>717096912</t>
+  </si>
+  <si>
+    <t>4595791</t>
+  </si>
+  <si>
+    <t>NORTH COAST RADIOLOGY</t>
+  </si>
+  <si>
+    <t>RBH POST OFFICE</t>
+  </si>
+  <si>
+    <t>133840209</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY  - STRATHPINE</t>
+  </si>
+  <si>
+    <t>4595914</t>
+  </si>
+  <si>
+    <t>STRATHPINE</t>
+  </si>
+  <si>
+    <t>717096891</t>
+  </si>
+  <si>
+    <t>4595908</t>
+  </si>
+  <si>
+    <t>133840846</t>
+  </si>
+  <si>
+    <t>86617501</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,PAS,60",MC,WLD</t>
+  </si>
+  <si>
+    <t>4595338</t>
+  </si>
+  <si>
+    <t>717096562</t>
+  </si>
+  <si>
+    <t>60937964</t>
+  </si>
+  <si>
+    <t>LABEL,PRINTER,THERMAL,PSA,INTEGO</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>133841480</t>
+  </si>
+  <si>
+    <t>SASH CC PTY LIMITED</t>
+  </si>
+  <si>
+    <t>225488</t>
+  </si>
+  <si>
+    <t>Tuggerah</t>
+  </si>
+  <si>
+    <t>717090645</t>
+  </si>
+  <si>
+    <t>133841481</t>
+  </si>
+  <si>
+    <t>717096351</t>
+  </si>
+  <si>
+    <t>133841658</t>
+  </si>
+  <si>
+    <t>CABRINI HOSPITAL</t>
+  </si>
+  <si>
+    <t>86574470</t>
+  </si>
+  <si>
+    <t>ASSY,FEMALE-FEMALE LUER,MRI,MC,WLD</t>
+  </si>
+  <si>
+    <t>4596111</t>
+  </si>
+  <si>
+    <t>MALVERN</t>
+  </si>
+  <si>
+    <t>717094355</t>
+  </si>
+  <si>
+    <t>4596151</t>
+  </si>
+  <si>
+    <t>CABRINI HEALTH</t>
+  </si>
+  <si>
+    <t>133841659</t>
+  </si>
+  <si>
+    <t>86574160</t>
+  </si>
+  <si>
+    <t>ASSY,HAND CONTROLLER,AVANTA,MC,WLD</t>
+  </si>
+  <si>
+    <t>717095113</t>
+  </si>
+  <si>
+    <t>133841660</t>
+  </si>
+  <si>
+    <t>THE ALFRED HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595753</t>
+  </si>
+  <si>
+    <t>717095932</t>
+  </si>
+  <si>
+    <t>4596298</t>
+  </si>
+  <si>
+    <t>ALFRED HEALTH</t>
+  </si>
+  <si>
+    <t>PRAHRAN</t>
+  </si>
+  <si>
+    <t>133778037</t>
+  </si>
+  <si>
+    <t>JOONDALUP HOSPITAL PHARMACY</t>
+  </si>
+  <si>
+    <t>930456</t>
+  </si>
+  <si>
+    <t>Jooondalup</t>
+  </si>
+  <si>
+    <t>717078123</t>
+  </si>
+  <si>
+    <t>010530</t>
+  </si>
+  <si>
+    <t>133817828</t>
+  </si>
+  <si>
+    <t>LAUNCESTON GENERAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595878</t>
+  </si>
+  <si>
+    <t>KINGS MEADOWS</t>
+  </si>
+  <si>
+    <t>717076465</t>
+  </si>
+  <si>
+    <t>3310765</t>
+  </si>
+  <si>
+    <t>TASMANIAN HEALTH SERVICE</t>
+  </si>
+  <si>
+    <t>HOBART</t>
+  </si>
+  <si>
+    <t>133801493</t>
+  </si>
+  <si>
+    <t>KING EDWARD MEMORIAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>940979</t>
+  </si>
+  <si>
+    <t>Subiaco</t>
+  </si>
+  <si>
+    <t>717096421</t>
+  </si>
+  <si>
+    <t>EIWPK</t>
+  </si>
+  <si>
+    <t>133840378</t>
+  </si>
+  <si>
+    <t>88628624</t>
+  </si>
+  <si>
+    <t>SYS,INJ,PED,W/BATTERY,CENTARGO</t>
+  </si>
+  <si>
+    <t>716560782</t>
+  </si>
+  <si>
+    <t>EHGHA</t>
+  </si>
+  <si>
+    <t>88450191</t>
+  </si>
+  <si>
+    <t>ASSY, FINAL, CRU, CENTARGO, 3L2, WS3Z</t>
+  </si>
+  <si>
+    <t>86383195</t>
+  </si>
+  <si>
+    <t>Centargo Battery Pack A &amp; B Set</t>
+  </si>
+  <si>
+    <t>86904926</t>
+  </si>
+  <si>
+    <t>Centargo warranty pack</t>
+  </si>
+  <si>
+    <t>86342812</t>
+  </si>
+  <si>
+    <t>MANUAL, OPERATIONS, ENGLISH, CENTARGO</t>
+  </si>
+  <si>
+    <t>86621495</t>
+  </si>
+  <si>
+    <t>POWER CORD- AUSTRALIA</t>
+  </si>
+  <si>
+    <t>P8SW</t>
+  </si>
+  <si>
+    <t>132976654</t>
+  </si>
+  <si>
+    <t>Kennards Self Storage</t>
+  </si>
+  <si>
+    <t>60721015</t>
+  </si>
+  <si>
+    <t>ASSY, 8AH BATTERY, MR INJECTOR,MC</t>
+  </si>
+  <si>
+    <t>SW01</t>
+  </si>
+  <si>
+    <t>4546064</t>
+  </si>
+  <si>
+    <t>Chermside</t>
+  </si>
+  <si>
+    <t>YLNL</t>
+  </si>
+  <si>
+    <t>2172497897</t>
+  </si>
+  <si>
+    <t>GOMBN</t>
+  </si>
+  <si>
+    <t>Imaxeon Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>MINCHINBURY NSW</t>
+  </si>
+  <si>
+    <t>132984429</t>
+  </si>
+  <si>
+    <t>National storage Aspley</t>
+  </si>
+  <si>
+    <t>Aspley</t>
+  </si>
+  <si>
+    <t>2172497899</t>
+  </si>
+  <si>
+    <t>132984430</t>
+  </si>
+  <si>
+    <t>Platinum Biomedical Pty Ltd</t>
+  </si>
+  <si>
+    <t>Osborne Park</t>
+  </si>
+  <si>
+    <t>2172497900</t>
+  </si>
+  <si>
+    <t>133833734</t>
+  </si>
+  <si>
+    <t>Storage King</t>
+  </si>
+  <si>
+    <t>87396908</t>
+  </si>
+  <si>
+    <t>Inlet Air Detector Assembly</t>
+  </si>
+  <si>
+    <t>Burwood</t>
+  </si>
+  <si>
+    <t>2172551330</t>
+  </si>
+  <si>
+    <t>133837190</t>
+  </si>
+  <si>
+    <t>85166972</t>
+  </si>
+  <si>
+    <t>ASSY,PCB,CPU/SERVO,DAX,PHOENIX,ROHS,TL</t>
+  </si>
+  <si>
+    <t>2172546379</t>
+  </si>
+  <si>
+    <t>133837252</t>
+  </si>
+  <si>
+    <t>Amit Patel (Unit 036)</t>
+  </si>
+  <si>
+    <t>89958407</t>
+  </si>
+  <si>
+    <t>Bella Vista</t>
+  </si>
+  <si>
+    <t>2172551339</t>
+  </si>
+  <si>
+    <t>133830853</t>
+  </si>
+  <si>
+    <t>Allan Gutierrez (Unit B001)</t>
+  </si>
+  <si>
+    <t>87980030</t>
+  </si>
+  <si>
+    <t>MAINTAIN,SYR HEAT,STELL,FLS2,LR</t>
+  </si>
+  <si>
+    <t>Brendale</t>
+  </si>
+  <si>
+    <t>2172551331</t>
+  </si>
+  <si>
+    <t>133837151</t>
   </si>
   <si>
     <t>TECHNISONIC SYSTEM 2013 LTD</t>
   </si>
   <si>
-    <t>87548783</t>
-  </si>
-  <si>
-    <t>ASSY,DAY SET,CENTARGO,ROW</t>
-  </si>
-  <si>
-    <t>SPEC</t>
+    <t>86068168</t>
+  </si>
+  <si>
+    <t>Door Heat Maintainer Assy</t>
   </si>
   <si>
     <t>4595848</t>
@@ -79,886 +1336,7 @@
     <t>ALBANY</t>
   </si>
   <si>
-    <t>716739090</t>
-  </si>
-  <si>
-    <t>EIWPK</t>
-  </si>
-  <si>
-    <t>000141</t>
-  </si>
-  <si>
-    <t>133715092</t>
-  </si>
-  <si>
-    <t>Sir Charles Gairdner Hospital</t>
-  </si>
-  <si>
-    <t>3309987</t>
-  </si>
-  <si>
-    <t>Nedlands</t>
-  </si>
-  <si>
-    <t>716992846</t>
-  </si>
-  <si>
-    <t>SXSRIP2R</t>
-  </si>
-  <si>
-    <t>000030</t>
-  </si>
-  <si>
-    <t>ONE TIME CUSTOMER - MAIN NSW</t>
-  </si>
-  <si>
-    <t>PYMBLE</t>
-  </si>
-  <si>
-    <t>87548082</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
-  </si>
-  <si>
-    <t>133802065</t>
-  </si>
-  <si>
-    <t>CAMPBELLTOWN HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596093</t>
-  </si>
-  <si>
-    <t>CAMPBELLTOWN</t>
-  </si>
-  <si>
-    <t>717066697</t>
-  </si>
-  <si>
-    <t>010130</t>
-  </si>
-  <si>
-    <t>4596097</t>
-  </si>
-  <si>
-    <t>SOUTH WESTERN SYDNEY LOCAL HEALTH D</t>
-  </si>
-  <si>
-    <t>PARRAMATTA</t>
-  </si>
-  <si>
-    <t>133808547</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING - CHARLESTWN</t>
-  </si>
-  <si>
-    <t>1234715</t>
-  </si>
-  <si>
-    <t>CHARLESTOWN</t>
-  </si>
-  <si>
-    <t>717078804</t>
-  </si>
-  <si>
-    <t>010050</t>
-  </si>
-  <si>
-    <t>4595823</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>GOSFORD</t>
-  </si>
-  <si>
-    <t>03250768</t>
-  </si>
-  <si>
-    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133810874</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - TOWNSVILLE</t>
-  </si>
-  <si>
-    <t>4094369</t>
-  </si>
-  <si>
-    <t>THURINGOWA CENTRAL</t>
-  </si>
-  <si>
-    <t>717076174</t>
-  </si>
-  <si>
-    <t>040050</t>
-  </si>
-  <si>
-    <t>133816061</t>
-  </si>
-  <si>
-    <t>Bayer Australia</t>
-  </si>
-  <si>
-    <t>86916967</t>
-  </si>
-  <si>
-    <t>MRXP,KIT,SYR,MULTI-PATIENT,MC,WLD</t>
-  </si>
-  <si>
-    <t>717074633</t>
-  </si>
-  <si>
-    <t>86936380</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,MRXP MP,MIC,MC,WLD</t>
-  </si>
-  <si>
-    <t>87518604</t>
-  </si>
-  <si>
-    <t>CLAMP,TUBE,0.078"-0.098" OD,MRX MP,MC</t>
-  </si>
-  <si>
-    <t>133761376</t>
-  </si>
-  <si>
-    <t>WARWICK DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>87234487</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>2176333</t>
-  </si>
-  <si>
-    <t>WARWICK</t>
-  </si>
-  <si>
-    <t>717095991</t>
-  </si>
-  <si>
-    <t>030050</t>
-  </si>
-  <si>
-    <t>1943887</t>
-  </si>
-  <si>
-    <t>ALPENGLOW AUSTRALIA PTY LTD</t>
-  </si>
-  <si>
-    <t>SYDNEY</t>
-  </si>
-  <si>
-    <t>133787997</t>
-  </si>
-  <si>
-    <t>ROYAL ADELAIDE HOSPITAL</t>
-  </si>
-  <si>
-    <t>02112555</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4676781</t>
-  </si>
-  <si>
-    <t>ADELAIDE</t>
-  </si>
-  <si>
-    <t>717076832</t>
-  </si>
-  <si>
-    <t>4595446</t>
-  </si>
-  <si>
-    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>133801216</t>
-  </si>
-  <si>
-    <t>FRANKSTON HOSPITAL</t>
-  </si>
-  <si>
-    <t>86660261</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,LPDCT,60",COILED,MC,WLD</t>
-  </si>
-  <si>
-    <t>4675190</t>
-  </si>
-  <si>
-    <t>FRANKSTON</t>
-  </si>
-  <si>
-    <t>717051392</t>
-  </si>
-  <si>
-    <t>4628393</t>
-  </si>
-  <si>
-    <t>PENINSULA HEALTH</t>
-  </si>
-  <si>
-    <t>133817728</t>
-  </si>
-  <si>
-    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
-  </si>
-  <si>
-    <t>02112548</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4670712</t>
-  </si>
-  <si>
-    <t>DERRIMUT</t>
-  </si>
-  <si>
-    <t>717074268</t>
-  </si>
-  <si>
-    <t>4670709</t>
-  </si>
-  <si>
-    <t>HEALTHSHARE VICTORIA</t>
-  </si>
-  <si>
-    <t>MELBOURNE</t>
-  </si>
-  <si>
-    <t>133818138</t>
-  </si>
-  <si>
-    <t>FAR NORTH QLD REGIONAL</t>
-  </si>
-  <si>
-    <t>929201</t>
-  </si>
-  <si>
-    <t>WOREE</t>
-  </si>
-  <si>
-    <t>717076685</t>
-  </si>
-  <si>
-    <t>040130</t>
-  </si>
-  <si>
-    <t>4595067</t>
-  </si>
-  <si>
-    <t>DEPARTMENT OF HEALTH QLD</t>
-  </si>
-  <si>
-    <t>BRISBANE</t>
-  </si>
-  <si>
-    <t>133831864</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING - ORANGE</t>
-  </si>
-  <si>
-    <t>64437141</t>
-  </si>
-  <si>
-    <t>Dota250UG (Tyr3)-Octreotate (GMP-Dota)</t>
-  </si>
-  <si>
-    <t>3510474</t>
-  </si>
-  <si>
-    <t>ORANGE</t>
-  </si>
-  <si>
-    <t>717083697</t>
-  </si>
-  <si>
-    <t>020050</t>
-  </si>
-  <si>
-    <t>133836557</t>
-  </si>
-  <si>
-    <t>QSCAN RADIOLOGY - UPPER COOMERA</t>
-  </si>
-  <si>
-    <t>4211108</t>
-  </si>
-  <si>
-    <t>UPPER COOMERA</t>
-  </si>
-  <si>
-    <t>717066596</t>
-  </si>
-  <si>
-    <t>80802544</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>87621529</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133837969</t>
-  </si>
-  <si>
-    <t>88320468</t>
-  </si>
-  <si>
-    <t>DOTAGRAF SOLU BT 10X100ML AU</t>
-  </si>
-  <si>
-    <t>133761375</t>
-  </si>
-  <si>
-    <t>FLINDERS MEDICAL CENTRE</t>
-  </si>
-  <si>
-    <t>4699953</t>
-  </si>
-  <si>
-    <t>BEDFORD PARK</t>
-  </si>
-  <si>
-    <t>717090428</t>
-  </si>
-  <si>
-    <t>133822076</t>
-  </si>
-  <si>
-    <t>MONASH HEALTH- MONASH MEDICAL CTR</t>
-  </si>
-  <si>
-    <t>86617439</t>
-  </si>
-  <si>
-    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595650</t>
-  </si>
-  <si>
-    <t>SCORESBY</t>
-  </si>
-  <si>
-    <t>717051615</t>
-  </si>
-  <si>
-    <t>4595649</t>
-  </si>
-  <si>
-    <t>MONASH HEALTH</t>
-  </si>
-  <si>
-    <t>CHELTENHAM</t>
-  </si>
-  <si>
-    <t>133824295</t>
-  </si>
-  <si>
-    <t>CANBERRA IMAGING GROUP - DEAKIN</t>
-  </si>
-  <si>
-    <t>4595980</t>
-  </si>
-  <si>
-    <t>DEAKIN</t>
-  </si>
-  <si>
-    <t>717091475</t>
-  </si>
-  <si>
-    <t>4595992</t>
-  </si>
-  <si>
-    <t>CANBERRA IMAGING GROUP</t>
-  </si>
-  <si>
-    <t>DEAKIN WEST</t>
-  </si>
-  <si>
-    <t>133824296</t>
-  </si>
-  <si>
-    <t>717091476</t>
-  </si>
-  <si>
-    <t>133824297</t>
-  </si>
-  <si>
-    <t>WESTMEAD HOSPITAL</t>
-  </si>
-  <si>
-    <t>86594226</t>
-  </si>
-  <si>
-    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>4596106</t>
-  </si>
-  <si>
-    <t>NORTHMEAD</t>
-  </si>
-  <si>
-    <t>717095202</t>
-  </si>
-  <si>
-    <t>4596108</t>
-  </si>
-  <si>
-    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
-  </si>
-  <si>
-    <t>133826424</t>
-  </si>
-  <si>
-    <t>NORTH SHORE RADIOLOGY &amp; NUCLEAR</t>
-  </si>
-  <si>
-    <t>86566621</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
-  </si>
-  <si>
-    <t>4596148</t>
-  </si>
-  <si>
-    <t>ST LEONARDS</t>
-  </si>
-  <si>
-    <t>717093712</t>
-  </si>
-  <si>
-    <t>86617501</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,PAS,60",MC,WLD</t>
-  </si>
-  <si>
-    <t>133826909</t>
-  </si>
-  <si>
-    <t>REDCLIFFE/CABOOLTURE HSD</t>
-  </si>
-  <si>
-    <t>4595829</t>
-  </si>
-  <si>
-    <t>REDCLIFFE</t>
-  </si>
-  <si>
-    <t>717089248</t>
-  </si>
-  <si>
-    <t>4595837</t>
-  </si>
-  <si>
-    <t>METRO NORTH HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>HERSTON</t>
-  </si>
-  <si>
-    <t>133826910</t>
-  </si>
-  <si>
-    <t>ROYAL BRISBANE &amp; WOMEN'S HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595831</t>
-  </si>
-  <si>
-    <t>717090819</t>
-  </si>
-  <si>
-    <t>133826911</t>
-  </si>
-  <si>
-    <t>PRINCE CHARLES HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595836</t>
-  </si>
-  <si>
-    <t>CHERMSIDE</t>
-  </si>
-  <si>
-    <t>717091323</t>
-  </si>
-  <si>
-    <t>133831863</t>
-  </si>
-  <si>
-    <t>CAIRNS HOSPITAL - MED IMAGING</t>
-  </si>
-  <si>
-    <t>4595739</t>
-  </si>
-  <si>
-    <t>CAIRNS</t>
-  </si>
-  <si>
-    <t>717074658</t>
-  </si>
-  <si>
-    <t>4595808</t>
-  </si>
-  <si>
-    <t>CAIRNS &amp; HINTERLAND HOSPITAL</t>
-  </si>
-  <si>
-    <t>133832790</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - PORT MACQUARIE</t>
-  </si>
-  <si>
-    <t>86698242</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595683</t>
-  </si>
-  <si>
-    <t>PORT MACQUARIE</t>
-  </si>
-  <si>
-    <t>717093004</t>
-  </si>
-  <si>
-    <t>86698188</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>133832791</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - BERWICK</t>
-  </si>
-  <si>
-    <t>87234495</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>4614742</t>
-  </si>
-  <si>
-    <t>BERWICK</t>
-  </si>
-  <si>
-    <t>717094346</t>
-  </si>
-  <si>
-    <t>133832792</t>
-  </si>
-  <si>
-    <t>ROYAL NORTH SHORE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595335</t>
-  </si>
-  <si>
-    <t>717095761</t>
-  </si>
-  <si>
-    <t>4595339</t>
-  </si>
-  <si>
-    <t>NORTHERN SYDNEY LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>NEWCASTLE</t>
-  </si>
-  <si>
-    <t>133832793</t>
-  </si>
-  <si>
-    <t>PRINCESS ALEXANDRA HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596272</t>
-  </si>
-  <si>
-    <t>WOOLLOONGABBA</t>
-  </si>
-  <si>
-    <t>717095772</t>
-  </si>
-  <si>
-    <t>4595416</t>
-  </si>
-  <si>
-    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>EIGHT MILE PLAINS</t>
-  </si>
-  <si>
-    <t>133837275</t>
-  </si>
-  <si>
-    <t>GOULBURN HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595495</t>
-  </si>
-  <si>
-    <t>GOULBURN</t>
-  </si>
-  <si>
-    <t>717093204</t>
-  </si>
-  <si>
-    <t>4595498</t>
-  </si>
-  <si>
-    <t>SOUTHERN NSW LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>133837276</t>
-  </si>
-  <si>
-    <t>JONES RADIOLOGY - CALVARY ADELAIDE</t>
-  </si>
-  <si>
-    <t>4595385</t>
-  </si>
-  <si>
-    <t>717094982</t>
-  </si>
-  <si>
-    <t>133837722</t>
-  </si>
-  <si>
-    <t>C/O SUPPLY DEPT GF -MED IMAG</t>
-  </si>
-  <si>
-    <t>924048</t>
-  </si>
-  <si>
-    <t>MEADOWBROOK</t>
-  </si>
-  <si>
-    <t>717089083</t>
-  </si>
-  <si>
-    <t>133837723</t>
-  </si>
-  <si>
-    <t>717095993</t>
-  </si>
-  <si>
-    <t>133839188</t>
-  </si>
-  <si>
-    <t>QSCAN GUNGAHLIN</t>
-  </si>
-  <si>
-    <t>82212737</t>
-  </si>
-  <si>
-    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
-  </si>
-  <si>
-    <t>4595740</t>
-  </si>
-  <si>
-    <t>GUNGAHLIN</t>
-  </si>
-  <si>
-    <t>717087502</t>
-  </si>
-  <si>
-    <t>4595747</t>
-  </si>
-  <si>
-    <t>UNIVERSAL MEDICAL IMAGING</t>
-  </si>
-  <si>
-    <t>CLAYFIELD</t>
-  </si>
-  <si>
-    <t>133778037</t>
-  </si>
-  <si>
-    <t>JOONDALUP HOSPITAL PHARMACY</t>
-  </si>
-  <si>
-    <t>80727543</t>
-  </si>
-  <si>
-    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
-  </si>
-  <si>
-    <t>930456</t>
-  </si>
-  <si>
-    <t>Jooondalup</t>
-  </si>
-  <si>
-    <t>717078123</t>
-  </si>
-  <si>
-    <t>010530</t>
-  </si>
-  <si>
-    <t>133817828</t>
-  </si>
-  <si>
-    <t>LAUNCESTON GENERAL HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595878</t>
-  </si>
-  <si>
-    <t>KINGS MEADOWS</t>
-  </si>
-  <si>
-    <t>717076465</t>
-  </si>
-  <si>
-    <t>3310765</t>
-  </si>
-  <si>
-    <t>TASMANIAN HEALTH SERVICE</t>
-  </si>
-  <si>
-    <t>HOBART</t>
-  </si>
-  <si>
-    <t>133822106</t>
-  </si>
-  <si>
-    <t>SKG RADIOLOGY -SUBIACO</t>
-  </si>
-  <si>
-    <t>64430678</t>
-  </si>
-  <si>
-    <t>Water, ACS Ultrapur 1L</t>
-  </si>
-  <si>
-    <t>4595123</t>
-  </si>
-  <si>
-    <t>SUBIACO</t>
-  </si>
-  <si>
-    <t>717093911</t>
-  </si>
-  <si>
-    <t>4595069</t>
-  </si>
-  <si>
-    <t>SKG RADIOLOGY</t>
-  </si>
-  <si>
-    <t>WEST PERTH</t>
-  </si>
-  <si>
-    <t>P8SW</t>
-  </si>
-  <si>
-    <t>132976654</t>
-  </si>
-  <si>
-    <t>Kennards Self Storage</t>
-  </si>
-  <si>
-    <t>60721015</t>
-  </si>
-  <si>
-    <t>ASSY, 8AH BATTERY, MR INJECTOR,MC</t>
-  </si>
-  <si>
-    <t>SW01</t>
-  </si>
-  <si>
-    <t>4546064</t>
-  </si>
-  <si>
-    <t>Chermside</t>
-  </si>
-  <si>
-    <t>YLNL</t>
-  </si>
-  <si>
-    <t>2172497897</t>
-  </si>
-  <si>
-    <t>GOMBN</t>
-  </si>
-  <si>
-    <t>Imaxeon Pty. Ltd.</t>
-  </si>
-  <si>
-    <t>MINCHINBURY NSW</t>
-  </si>
-  <si>
-    <t>132984429</t>
-  </si>
-  <si>
-    <t>National storage Aspley</t>
-  </si>
-  <si>
-    <t>Aspley</t>
-  </si>
-  <si>
-    <t>2172497899</t>
-  </si>
-  <si>
-    <t>132984430</t>
-  </si>
-  <si>
-    <t>Platinum Biomedical Pty Ltd</t>
-  </si>
-  <si>
-    <t>Osborne Park</t>
-  </si>
-  <si>
-    <t>2172497900</t>
-  </si>
-  <si>
-    <t>133837190</t>
-  </si>
-  <si>
-    <t>85166972</t>
-  </si>
-  <si>
-    <t>ASSY,PCB,CPU/SERVO,DAX,PHOENIX,ROHS,TL</t>
-  </si>
-  <si>
-    <t>2172546379</t>
+    <t>716495308</t>
   </si>
   <si>
     <t>Shipping Point/Receiving Pt</t>
@@ -1135,7 +1513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:X92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,7 +1526,7 @@
     <col min="3" max="3" bestFit="1" width="37" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="14" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="41" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="42" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="12" customWidth="1"/>
     <col min="8" max="8" bestFit="1" width="13" customWidth="1"/>
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
@@ -1171,76 +1549,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>316</v>
+        <v>442</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>321</v>
+        <v>447</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>322</v>
+        <v>448</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>323</v>
+        <v>449</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>324</v>
+        <v>450</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>325</v>
+        <v>451</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>326</v>
+        <v>452</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>327</v>
+        <v>453</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>328</v>
+        <v>454</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>329</v>
+        <v>455</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>331</v>
+        <v>457</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>333</v>
+        <v>459</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>334</v>
+        <v>460</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>335</v>
+        <v>461</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>337</v>
+        <v>463</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>338</v>
+        <v>464</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>339</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1328,61 +1706,61 @@
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>45391</v>
+        <v>45406</v>
       </c>
       <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3">
-        <v>65</v>
-      </c>
-      <c r="H3" s="3">
-        <v>260</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R3" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="T3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
+      <c r="U3" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="2">
-        <v>45391</v>
-      </c>
-      <c r="R3" s="2">
-        <v>45391</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" t="s">
-        <v>21</v>
       </c>
       <c r="W3" t="s">
         <v>14</v>
@@ -1402,25 +1780,25 @@
         <v>26</v>
       </c>
       <c r="D4" s="2">
-        <v>45393</v>
+        <v>45406</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
@@ -1438,19 +1816,19 @@
         <v>29</v>
       </c>
       <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R4" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="2">
-        <v>45393</v>
-      </c>
-      <c r="R4" s="2">
-        <v>45393</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>31</v>
-      </c>
-      <c r="T4" t="s">
-        <v>27</v>
       </c>
       <c r="U4" t="s">
         <v>32</v>
@@ -1476,7 +1854,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="2">
-        <v>45393</v>
+        <v>45406</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -1485,10 +1863,10 @@
         <v>35</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1512,19 +1890,19 @@
         <v>29</v>
       </c>
       <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>45406</v>
+      </c>
+      <c r="R5" s="2">
+        <v>45408</v>
+      </c>
+      <c r="S5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="2">
-        <v>45393</v>
-      </c>
-      <c r="R5" s="2">
-        <v>45393</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>31</v>
-      </c>
-      <c r="T5" t="s">
-        <v>27</v>
       </c>
       <c r="U5" t="s">
         <v>32</v>
@@ -1553,16 +1931,16 @@
         <v>45406</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H6" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1586,25 +1964,25 @@
         <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="2">
         <v>45406</v>
       </c>
       <c r="R6" s="2">
-        <v>45408</v>
+        <v>45413</v>
       </c>
       <c r="S6" t="s">
         <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s">
         <v>14</v>
@@ -1618,67 +1996,67 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>47</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" t="s">
         <v>48</v>
       </c>
-      <c r="M7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>45408</v>
+      </c>
+      <c r="R7" s="2">
+        <v>45411</v>
+      </c>
+      <c r="S7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" t="s">
         <v>49</v>
       </c>
-      <c r="P7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>45406</v>
-      </c>
-      <c r="R7" s="2">
-        <v>45408</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>50</v>
-      </c>
-      <c r="T7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U7" t="s">
-        <v>52</v>
-      </c>
-      <c r="V7" t="s">
-        <v>53</v>
       </c>
       <c r="W7" t="s">
         <v>14</v>
@@ -1692,37 +2070,37 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="3">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -1731,28 +2109,28 @@
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R8" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
         <v>14</v>
@@ -1766,25 +2144,25 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G9" s="3">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="H9" s="3">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -1793,10 +2171,10 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -1805,28 +2183,28 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R9" s="2">
-        <v>45413</v>
+        <v>45411</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="W9" t="s">
         <v>14</v>
@@ -1840,25 +2218,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -1867,10 +2245,10 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -1879,28 +2257,28 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R10" s="2">
-        <v>45406</v>
+        <v>45414</v>
       </c>
       <c r="S10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s">
         <v>14</v>
@@ -1914,25 +2292,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -1941,10 +2319,10 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -1953,22 +2331,22 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R11" s="2">
-        <v>45406</v>
+        <v>45412</v>
       </c>
       <c r="S11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T11" t="s">
         <v>31</v>
-      </c>
-      <c r="T11" t="s">
-        <v>27</v>
       </c>
       <c r="U11" t="s">
         <v>32</v>
@@ -1988,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45408</v>
+      </c>
+      <c r="E12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="2">
-        <v>45406</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
@@ -2015,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -2027,28 +2405,28 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R12" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="S12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T12" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="V12" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="W12" t="s">
         <v>14</v>
@@ -2062,25 +2440,25 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2">
         <v>45408</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G13" s="3">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="H13" s="3">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -2089,10 +2467,10 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -2101,28 +2479,28 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="2">
         <v>45408</v>
       </c>
       <c r="R13" s="2">
-        <v>45413</v>
+        <v>45411</v>
       </c>
       <c r="S13" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="T13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="U13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="W13" t="s">
         <v>14</v>
@@ -2136,25 +2514,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2">
         <v>45408</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2163,10 +2541,10 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -2175,28 +2553,28 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="2">
         <v>45408</v>
       </c>
       <c r="R14" s="2">
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="S14" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="T14" t="s">
         <v>89</v>
       </c>
       <c r="U14" t="s">
+        <v>88</v>
+      </c>
+      <c r="V14" t="s">
         <v>90</v>
-      </c>
-      <c r="V14" t="s">
-        <v>87</v>
       </c>
       <c r="W14" t="s">
         <v>14</v>
@@ -2210,25 +2588,25 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2">
         <v>45408</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2237,10 +2615,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -2249,10 +2627,10 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="2">
         <v>45408</v>
@@ -2261,16 +2639,16 @@
         <v>45411</v>
       </c>
       <c r="S15" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="T15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="V15" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -2284,25 +2662,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D16" s="2">
         <v>45408</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G16" s="3">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2311,10 +2689,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2323,10 +2701,10 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="2">
         <v>45408</v>
@@ -2335,16 +2713,16 @@
         <v>45411</v>
       </c>
       <c r="S16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="T16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="V16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2358,25 +2736,25 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2">
         <v>45408</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H17" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2385,10 +2763,10 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2397,28 +2775,28 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="2">
         <v>45408</v>
       </c>
       <c r="R17" s="2">
-        <v>45414</v>
+        <v>45412</v>
       </c>
       <c r="S17" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="T17" t="s">
         <v>116</v>
       </c>
       <c r="U17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" t="s">
         <v>117</v>
-      </c>
-      <c r="V17" t="s">
-        <v>118</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2432,25 +2810,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D18" s="2">
         <v>45408</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2459,10 +2837,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2471,10 +2849,10 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="P18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="2">
         <v>45408</v>
@@ -2483,16 +2861,16 @@
         <v>45412</v>
       </c>
       <c r="S18" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="T18" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="U18" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="V18" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2506,19 +2884,19 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2">
         <v>45408</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G19" s="3">
         <v>10</v>
@@ -2533,10 +2911,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2545,10 +2923,10 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P19" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="2">
         <v>45408</v>
@@ -2557,16 +2935,16 @@
         <v>45411</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="T19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="U19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="V19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2580,67 +2958,67 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D20" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="3">
+        <v>50</v>
+      </c>
+      <c r="H20" s="3">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" t="s">
         <v>132</v>
       </c>
-      <c r="F20" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="3">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
-        <v>8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" t="s">
-        <v>130</v>
-      </c>
-      <c r="M20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20" t="s">
-        <v>131</v>
-      </c>
       <c r="P20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R20" s="2">
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="S20" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="T20" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2654,37 +3032,37 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D21" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="3">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
-        <v>8</v>
-      </c>
-      <c r="I21" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" t="s">
-        <v>129</v>
-      </c>
       <c r="L21" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -2693,28 +3071,28 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P21" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R21" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="T21" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="U21" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="V21" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2728,25 +3106,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="D22" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2755,10 +3133,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2767,28 +3145,28 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R22" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="S22" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T22" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="U22" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="V22" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2802,25 +3180,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D23" s="2">
         <v>45411</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="G23" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H23" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -2829,10 +3207,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L23" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -2841,28 +3219,28 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P23" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="2">
         <v>45411</v>
       </c>
       <c r="R23" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S23" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T23" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="U23" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="V23" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2876,25 +3254,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D24" s="2">
         <v>45411</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -2903,10 +3281,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -2915,10 +3293,10 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="P24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="2">
         <v>45411</v>
@@ -2927,16 +3305,16 @@
         <v>45412</v>
       </c>
       <c r="S24" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T24" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="U24" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="V24" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -2950,49 +3328,49 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D25" s="2">
         <v>45411</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" t="s">
+        <v>160</v>
+      </c>
+      <c r="M25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" t="s">
         <v>20</v>
-      </c>
-      <c r="H25" s="3">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25" t="s">
-        <v>157</v>
-      </c>
-      <c r="M25" t="s">
-        <v>9</v>
-      </c>
-      <c r="N25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O25" t="s">
-        <v>158</v>
-      </c>
-      <c r="P25" t="s">
-        <v>30</v>
       </c>
       <c r="Q25" s="2">
         <v>45411</v>
@@ -3001,16 +3379,16 @@
         <v>45412</v>
       </c>
       <c r="S25" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="U25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="V25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -3024,25 +3402,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="D26" s="2">
         <v>45411</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G26" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H26" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3051,10 +3429,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="L26" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -3063,10 +3441,10 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P26" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="2">
         <v>45411</v>
@@ -3075,16 +3453,16 @@
         <v>45412</v>
       </c>
       <c r="S26" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T26" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="U26" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="V26" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -3098,49 +3476,49 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="3">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" t="s">
+        <v>167</v>
+      </c>
+      <c r="L27" t="s">
         <v>164</v>
       </c>
-      <c r="C27" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="3">
-        <v>80</v>
-      </c>
-      <c r="H27" s="3">
-        <v>80</v>
-      </c>
-      <c r="I27" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" t="s">
         <v>168</v>
       </c>
-      <c r="L27" t="s">
-        <v>169</v>
-      </c>
-      <c r="M27" t="s">
-        <v>9</v>
-      </c>
-      <c r="N27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O27" t="s">
-        <v>170</v>
-      </c>
       <c r="P27" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="2">
         <v>45411</v>
@@ -3149,16 +3527,16 @@
         <v>45412</v>
       </c>
       <c r="S27" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T27" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="U27" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="V27" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -3172,49 +3550,49 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D28" s="2">
         <v>45411</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H28" s="3">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" t="s">
+        <v>164</v>
+      </c>
+      <c r="M28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" t="s">
         <v>20</v>
-      </c>
-      <c r="I28" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" t="s">
-        <v>177</v>
-      </c>
-      <c r="L28" t="s">
-        <v>178</v>
-      </c>
-      <c r="M28" t="s">
-        <v>9</v>
-      </c>
-      <c r="N28" t="s">
-        <v>10</v>
-      </c>
-      <c r="O28" t="s">
-        <v>179</v>
-      </c>
-      <c r="P28" t="s">
-        <v>30</v>
       </c>
       <c r="Q28" s="2">
         <v>45411</v>
@@ -3223,16 +3601,16 @@
         <v>45412</v>
       </c>
       <c r="S28" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T28" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="U28" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="V28" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -3246,49 +3624,49 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="3">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" t="s">
+        <v>172</v>
+      </c>
+      <c r="M29" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" t="s">
         <v>173</v>
       </c>
-      <c r="C29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F29" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" s="3">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3">
-        <v>500</v>
-      </c>
-      <c r="I29" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" t="s">
-        <v>178</v>
-      </c>
-      <c r="M29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N29" t="s">
-        <v>10</v>
-      </c>
-      <c r="O29" t="s">
-        <v>179</v>
-      </c>
       <c r="P29" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="2">
         <v>45411</v>
@@ -3297,16 +3675,16 @@
         <v>45412</v>
       </c>
       <c r="S29" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T29" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="U29" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="V29" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3320,25 +3698,25 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D30" s="2">
         <v>45411</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G30" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H30" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3347,10 +3725,10 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3359,10 +3737,10 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="2">
         <v>45411</v>
@@ -3371,16 +3749,16 @@
         <v>45412</v>
       </c>
       <c r="S30" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T30" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="U30" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="V30" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3394,25 +3772,25 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D31" s="2">
         <v>45411</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3421,10 +3799,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3433,10 +3811,10 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="P31" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="2">
         <v>45411</v>
@@ -3445,16 +3823,16 @@
         <v>45412</v>
       </c>
       <c r="S31" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T31" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="U31" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="V31" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3468,25 +3846,25 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D32" s="2">
         <v>45411</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G32" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H32" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3495,10 +3873,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3507,10 +3885,10 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="P32" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q32" s="2">
         <v>45411</v>
@@ -3519,16 +3897,16 @@
         <v>45412</v>
       </c>
       <c r="S32" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T32" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="U32" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="V32" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3542,25 +3920,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D33" s="2">
         <v>45411</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="G33" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H33" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3569,10 +3947,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="L33" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3581,10 +3959,10 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="P33" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="2">
         <v>45411</v>
@@ -3593,16 +3971,16 @@
         <v>45412</v>
       </c>
       <c r="S33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T33" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="U33" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="V33" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3616,25 +3994,25 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D34" s="2">
         <v>45411</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="G34" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H34" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3643,10 +4021,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3655,10 +4033,10 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P34" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="2">
         <v>45411</v>
@@ -3667,7 +4045,7 @@
         <v>45412</v>
       </c>
       <c r="S34" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T34" t="s">
         <v>187</v>
@@ -3676,7 +4054,7 @@
         <v>188</v>
       </c>
       <c r="V34" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3690,25 +4068,25 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D35" s="2">
         <v>45411</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G35" s="3">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H35" s="3">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3717,10 +4095,10 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -3729,10 +4107,10 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P35" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="2">
         <v>45411</v>
@@ -3741,16 +4119,16 @@
         <v>45412</v>
       </c>
       <c r="S35" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T35" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="U35" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="V35" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3764,25 +4142,25 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D36" s="2">
         <v>45411</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="G36" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H36" s="3">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3791,10 +4169,10 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L36" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -3803,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P36" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="2">
         <v>45411</v>
       </c>
       <c r="R36" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S36" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T36" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -3838,25 +4216,25 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D37" s="2">
         <v>45411</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="G37" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H37" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3865,10 +4243,10 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="L37" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -3877,28 +4255,28 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="P37" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="2">
         <v>45411</v>
       </c>
       <c r="R37" s="2">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="S37" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="T37" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -3912,25 +4290,25 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="D38" s="2">
         <v>45411</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G38" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H38" s="3">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -3939,10 +4317,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="L38" t="s">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -3951,28 +4329,28 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P38" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q38" s="2">
         <v>45411</v>
       </c>
       <c r="R38" s="2">
-        <v>45415</v>
+        <v>45412</v>
       </c>
       <c r="S38" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="T38" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="U38" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="V38" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -3986,25 +4364,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D39" s="2">
         <v>45411</v>
       </c>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F39" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H39" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -4013,10 +4391,10 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L39" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -4025,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="P39" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Q39" s="2">
         <v>45411</v>
       </c>
       <c r="R39" s="2">
-        <v>45413</v>
+        <v>45411</v>
       </c>
       <c r="S39" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="T39" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="U39" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="V39" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
@@ -4060,25 +4438,25 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D40" s="2">
         <v>45411</v>
       </c>
       <c r="E40" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F40" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G40" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H40" s="3">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4087,10 +4465,10 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L40" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M40" t="s">
         <v>9</v>
@@ -4099,28 +4477,28 @@
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="P40" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="2">
         <v>45411</v>
       </c>
       <c r="R40" s="2">
-        <v>45413</v>
+        <v>45411</v>
       </c>
       <c r="S40" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="T40" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="U40" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="V40" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -4143,16 +4521,16 @@
         <v>45411</v>
       </c>
       <c r="E41" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F41" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G41" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4176,25 +4554,25 @@
         <v>221</v>
       </c>
       <c r="P41" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Q41" s="2">
         <v>45411</v>
       </c>
       <c r="R41" s="2">
-        <v>45413</v>
+        <v>45411</v>
       </c>
       <c r="S41" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="T41" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="U41" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="V41" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -4208,25 +4586,25 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C42" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D42" s="2">
         <v>45411</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="3">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>5</v>
-      </c>
       <c r="H42" s="3">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4235,10 +4613,10 @@
         <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="L42" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="M42" t="s">
         <v>9</v>
@@ -4247,10 +4625,10 @@
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="P42" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q42" s="2">
         <v>45411</v>
@@ -4259,16 +4637,16 @@
         <v>45412</v>
       </c>
       <c r="S42" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T42" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="U42" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="V42" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -4282,25 +4660,25 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D43" s="2">
         <v>45411</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="G43" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H43" s="3">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4309,10 +4687,10 @@
         <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M43" t="s">
         <v>9</v>
@@ -4321,10 +4699,10 @@
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P43" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q43" s="2">
         <v>45411</v>
@@ -4333,16 +4711,16 @@
         <v>45412</v>
       </c>
       <c r="S43" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U43" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V43" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="W43" t="s">
         <v>14</v>
@@ -4356,25 +4734,25 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E44" t="s">
         <v>238</v>
       </c>
-      <c r="D44" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E44" t="s">
-        <v>134</v>
-      </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="G44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4383,10 +4761,10 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L44" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M44" t="s">
         <v>9</v>
@@ -4395,28 +4773,28 @@
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="P44" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="2">
         <v>45411</v>
       </c>
       <c r="R44" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S44" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T44" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="U44" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="V44" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="W44" t="s">
         <v>14</v>
@@ -4430,25 +4808,25 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D45" s="2">
         <v>45411</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="G45" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
@@ -4457,10 +4835,10 @@
         <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L45" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M45" t="s">
         <v>9</v>
@@ -4469,28 +4847,28 @@
         <v>10</v>
       </c>
       <c r="O45" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="P45" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="2">
         <v>45411</v>
       </c>
       <c r="R45" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S45" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T45" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="U45" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="V45" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="W45" t="s">
         <v>14</v>
@@ -4504,25 +4882,25 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E46" t="s">
         <v>244</v>
       </c>
-      <c r="C46" t="s">
+      <c r="F46" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>4</v>
-      </c>
       <c r="G46" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H46" s="3">
-        <v>60</v>
+        <v>750</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4534,7 +4912,7 @@
         <v>246</v>
       </c>
       <c r="L46" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="M46" t="s">
         <v>9</v>
@@ -4543,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P46" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="2">
         <v>45411</v>
       </c>
       <c r="R46" s="2">
-        <v>45413</v>
+        <v>45419</v>
       </c>
       <c r="S46" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="T46" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="U46" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="V46" t="s">
-        <v>87</v>
+        <v>252</v>
       </c>
       <c r="W46" t="s">
         <v>14</v>
@@ -4578,25 +4956,25 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D47" s="2">
         <v>45411</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="G47" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H47" s="3">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -4608,7 +4986,7 @@
         <v>246</v>
       </c>
       <c r="L47" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="M47" t="s">
         <v>9</v>
@@ -4617,28 +4995,28 @@
         <v>10</v>
       </c>
       <c r="O47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P47" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="2">
         <v>45411</v>
       </c>
       <c r="R47" s="2">
-        <v>45413</v>
+        <v>45419</v>
       </c>
       <c r="S47" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="T47" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="U47" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="V47" t="s">
-        <v>87</v>
+        <v>252</v>
       </c>
       <c r="W47" t="s">
         <v>14</v>
@@ -4652,25 +5030,25 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C48" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D48" s="2">
         <v>45411</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G48" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H48" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -4679,10 +5057,10 @@
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L48" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="M48" t="s">
         <v>9</v>
@@ -4691,28 +5069,28 @@
         <v>10</v>
       </c>
       <c r="O48" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="P48" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="2">
         <v>45411</v>
       </c>
       <c r="R48" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S48" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T48" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="U48" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="V48" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="W48" t="s">
         <v>14</v>
@@ -4726,25 +5104,25 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C49" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D49" s="2">
         <v>45411</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G49" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H49" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
@@ -4753,10 +5131,10 @@
         <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L49" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="M49" t="s">
         <v>9</v>
@@ -4765,28 +5143,28 @@
         <v>10</v>
       </c>
       <c r="O49" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="P49" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="2">
         <v>45411</v>
       </c>
       <c r="R49" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S49" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T49" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="U49" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="V49" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="W49" t="s">
         <v>14</v>
@@ -4800,25 +5178,25 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C50" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D50" s="2">
         <v>45411</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="G50" s="3">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H50" s="3">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -4827,10 +5205,10 @@
         <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="L50" t="s">
-        <v>251</v>
+        <v>56</v>
       </c>
       <c r="M50" t="s">
         <v>9</v>
@@ -4839,28 +5217,28 @@
         <v>10</v>
       </c>
       <c r="O50" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P50" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q50" s="2">
         <v>45411</v>
       </c>
       <c r="R50" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S50" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T50" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="U50" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="V50" t="s">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="W50" t="s">
         <v>14</v>
@@ -4874,25 +5252,25 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C51" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D51" s="2">
         <v>45411</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G51" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H51" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
@@ -4901,10 +5279,10 @@
         <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="L51" t="s">
-        <v>251</v>
+        <v>56</v>
       </c>
       <c r="M51" t="s">
         <v>9</v>
@@ -4913,28 +5291,28 @@
         <v>10</v>
       </c>
       <c r="O51" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P51" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q51" s="2">
         <v>45411</v>
       </c>
       <c r="R51" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S51" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T51" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="U51" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="V51" t="s">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="W51" t="s">
         <v>14</v>
@@ -4948,25 +5326,25 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C52" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D52" s="2">
         <v>45411</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G52" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H52" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -4975,10 +5353,10 @@
         <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="L52" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="M52" t="s">
         <v>9</v>
@@ -4987,10 +5365,10 @@
         <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="P52" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q52" s="2">
         <v>45411</v>
@@ -4999,16 +5377,16 @@
         <v>45412</v>
       </c>
       <c r="S52" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T52" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="U52" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="V52" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="W52" t="s">
         <v>14</v>
@@ -5022,25 +5400,25 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D53" s="2">
         <v>45411</v>
       </c>
       <c r="E53" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="G53" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H53" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -5049,10 +5427,10 @@
         <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="L53" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="M53" t="s">
         <v>9</v>
@@ -5061,10 +5439,10 @@
         <v>10</v>
       </c>
       <c r="O53" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="P53" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q53" s="2">
         <v>45411</v>
@@ -5073,16 +5451,16 @@
         <v>45412</v>
       </c>
       <c r="S53" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T53" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="U53" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="V53" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="W53" t="s">
         <v>14</v>
@@ -5096,25 +5474,25 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C54" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D54" s="2">
         <v>45411</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="G54" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H54" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5123,10 +5501,10 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="L54" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="M54" t="s">
         <v>9</v>
@@ -5135,10 +5513,10 @@
         <v>10</v>
       </c>
       <c r="O54" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="P54" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q54" s="2">
         <v>45411</v>
@@ -5147,16 +5525,16 @@
         <v>45412</v>
       </c>
       <c r="S54" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T54" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="U54" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="V54" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="W54" t="s">
         <v>14</v>
@@ -5170,25 +5548,25 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D55" s="2">
         <v>45411</v>
       </c>
       <c r="E55" t="s">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="G55" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H55" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5197,10 +5575,10 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="L55" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M55" t="s">
         <v>9</v>
@@ -5209,10 +5587,10 @@
         <v>10</v>
       </c>
       <c r="O55" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="P55" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q55" s="2">
         <v>45411</v>
@@ -5221,16 +5599,16 @@
         <v>45412</v>
       </c>
       <c r="S55" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T55" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="U55" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="V55" t="s">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="W55" t="s">
         <v>14</v>
@@ -5244,38 +5622,38 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C56" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D56" s="2">
-        <v>45414</v>
+        <v>45411</v>
       </c>
       <c r="E56" t="s">
-        <v>267</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="3">
+        <v>6</v>
+      </c>
+      <c r="H56" s="3">
+        <v>6</v>
+      </c>
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" t="s">
         <v>268</v>
       </c>
-      <c r="G56" s="3">
-        <v>30</v>
-      </c>
-      <c r="H56" s="3">
-        <v>30</v>
-      </c>
-      <c r="I56" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" t="s">
-        <v>6</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>269</v>
       </c>
-      <c r="L56" t="s">
-        <v>270</v>
-      </c>
       <c r="M56" t="s">
         <v>9</v>
       </c>
@@ -5283,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="O56" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P56" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q56" s="2">
-        <v>45414</v>
+        <v>45411</v>
       </c>
       <c r="R56" s="2">
-        <v>45415</v>
+        <v>45412</v>
       </c>
       <c r="S56" t="s">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="T56" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="U56" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="V56" t="s">
-        <v>270</v>
+        <v>196</v>
       </c>
       <c r="W56" t="s">
         <v>14</v>
@@ -5318,25 +5696,25 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D57" s="2">
-        <v>45414</v>
+        <v>45411</v>
       </c>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G57" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H57" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
@@ -5345,10 +5723,10 @@
         <v>6</v>
       </c>
       <c r="K57" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L57" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M57" t="s">
         <v>9</v>
@@ -5357,28 +5735,28 @@
         <v>10</v>
       </c>
       <c r="O57" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P57" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q57" s="2">
-        <v>45414</v>
+        <v>45411</v>
       </c>
       <c r="R57" s="2">
-        <v>45415</v>
+        <v>45412</v>
       </c>
       <c r="S57" t="s">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="T57" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="U57" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="V57" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="W57" t="s">
         <v>14</v>
@@ -5392,25 +5770,25 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C58" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D58" s="2">
-        <v>45414</v>
+        <v>45411</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G58" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H58" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
@@ -5419,10 +5797,10 @@
         <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L58" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M58" t="s">
         <v>9</v>
@@ -5431,28 +5809,28 @@
         <v>10</v>
       </c>
       <c r="O58" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P58" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="2">
-        <v>45414</v>
+        <v>45411</v>
       </c>
       <c r="R58" s="2">
-        <v>45415</v>
+        <v>45412</v>
       </c>
       <c r="S58" t="s">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="T58" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="U58" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="V58" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="W58" t="s">
         <v>14</v>
@@ -5466,67 +5844,67 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" t="s">
+        <v>274</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E59" t="s">
+        <v>275</v>
+      </c>
+      <c r="F59" t="s">
+        <v>276</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3">
+        <v>50</v>
+      </c>
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" t="s">
+        <v>277</v>
+      </c>
+      <c r="L59" t="s">
+        <v>278</v>
+      </c>
+      <c r="M59" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" t="s">
+        <v>279</v>
+      </c>
+      <c r="P59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R59" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S59" t="s">
+        <v>21</v>
+      </c>
+      <c r="T59" t="s">
+        <v>280</v>
+      </c>
+      <c r="U59" t="s">
         <v>281</v>
       </c>
-      <c r="C59" t="s">
+      <c r="V59" t="s">
         <v>282</v>
-      </c>
-      <c r="D59" s="2">
-        <v>45415</v>
-      </c>
-      <c r="E59" t="s">
-        <v>283</v>
-      </c>
-      <c r="F59" t="s">
-        <v>284</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2</v>
-      </c>
-      <c r="I59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" t="s">
-        <v>6</v>
-      </c>
-      <c r="K59" t="s">
-        <v>285</v>
-      </c>
-      <c r="L59" t="s">
-        <v>286</v>
-      </c>
-      <c r="M59" t="s">
-        <v>9</v>
-      </c>
-      <c r="N59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O59" t="s">
-        <v>287</v>
-      </c>
-      <c r="P59" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>45415</v>
-      </c>
-      <c r="R59" s="2">
-        <v>45418</v>
-      </c>
-      <c r="S59" t="s">
-        <v>272</v>
-      </c>
-      <c r="T59" t="s">
-        <v>288</v>
-      </c>
-      <c r="U59" t="s">
-        <v>289</v>
-      </c>
-      <c r="V59" t="s">
-        <v>290</v>
       </c>
       <c r="W59" t="s">
         <v>14</v>
@@ -5537,70 +5915,70 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E60" t="s">
+        <v>285</v>
+      </c>
+      <c r="F60" t="s">
+        <v>286</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" t="s">
+        <v>287</v>
+      </c>
+      <c r="L60" t="s">
+        <v>288</v>
+      </c>
+      <c r="M60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N60" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" t="s">
+        <v>289</v>
+      </c>
+      <c r="P60" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R60" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S60" t="s">
+        <v>21</v>
+      </c>
+      <c r="T60" t="s">
+        <v>290</v>
+      </c>
+      <c r="U60" t="s">
         <v>291</v>
       </c>
-      <c r="B60" t="s">
+      <c r="V60" t="s">
         <v>292</v>
-      </c>
-      <c r="C60" t="s">
-        <v>293</v>
-      </c>
-      <c r="D60" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E60" t="s">
-        <v>294</v>
-      </c>
-      <c r="F60" t="s">
-        <v>295</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" t="s">
-        <v>296</v>
-      </c>
-      <c r="K60" t="s">
-        <v>297</v>
-      </c>
-      <c r="L60" t="s">
-        <v>298</v>
-      </c>
-      <c r="M60" t="s">
-        <v>299</v>
-      </c>
-      <c r="N60" t="s">
-        <v>10</v>
-      </c>
-      <c r="O60" t="s">
-        <v>300</v>
-      </c>
-      <c r="P60" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R60" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S60" t="s">
-        <v>41</v>
-      </c>
-      <c r="T60" t="s">
-        <v>297</v>
-      </c>
-      <c r="U60" t="s">
-        <v>302</v>
-      </c>
-      <c r="V60" t="s">
-        <v>303</v>
       </c>
       <c r="W60" t="s">
         <v>14</v>
@@ -5611,70 +5989,70 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C61" t="s">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="D61" s="2">
-        <v>45308</v>
+        <v>45411</v>
       </c>
       <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="3">
+        <v>18</v>
+      </c>
+      <c r="H61" s="3">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" t="s">
+        <v>176</v>
+      </c>
+      <c r="L61" t="s">
+        <v>177</v>
+      </c>
+      <c r="M61" t="s">
+        <v>9</v>
+      </c>
+      <c r="N61" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" t="s">
         <v>294</v>
       </c>
-      <c r="F61" t="s">
-        <v>295</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>5</v>
-      </c>
-      <c r="J61" t="s">
-        <v>296</v>
-      </c>
-      <c r="K61" t="s">
-        <v>297</v>
-      </c>
-      <c r="L61" t="s">
-        <v>306</v>
-      </c>
-      <c r="M61" t="s">
-        <v>299</v>
-      </c>
-      <c r="N61" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" t="s">
-        <v>307</v>
-      </c>
       <c r="P61" t="s">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="Q61" s="2">
-        <v>45308</v>
+        <v>45411</v>
       </c>
       <c r="R61" s="2">
-        <v>45309</v>
+        <v>45412</v>
       </c>
       <c r="S61" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T61" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c r="U61" t="s">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="V61" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="W61" t="s">
         <v>14</v>
@@ -5685,70 +6063,70 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C62" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D62" s="2">
-        <v>45308</v>
+        <v>45411</v>
       </c>
       <c r="E62" t="s">
-        <v>294</v>
+        <v>92</v>
       </c>
       <c r="F62" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="G62" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H62" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
       </c>
       <c r="J62" t="s">
-        <v>296</v>
+        <v>6</v>
       </c>
       <c r="K62" t="s">
         <v>297</v>
       </c>
       <c r="L62" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="M62" t="s">
+        <v>9</v>
+      </c>
+      <c r="N62" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" t="s">
         <v>299</v>
       </c>
-      <c r="N62" t="s">
-        <v>10</v>
-      </c>
-      <c r="O62" t="s">
-        <v>311</v>
-      </c>
       <c r="P62" t="s">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="Q62" s="2">
-        <v>45308</v>
+        <v>45411</v>
       </c>
       <c r="R62" s="2">
-        <v>45309</v>
+        <v>45413</v>
       </c>
       <c r="S62" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T62" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c r="U62" t="s">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="V62" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="W62" t="s">
         <v>14</v>
@@ -5759,52 +6137,52 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C63" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D63" s="2">
         <v>45411</v>
       </c>
       <c r="E63" t="s">
-        <v>313</v>
+        <v>92</v>
       </c>
       <c r="F63" t="s">
-        <v>314</v>
+        <v>93</v>
       </c>
       <c r="G63" s="3">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H63" s="3">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
       </c>
       <c r="J63" t="s">
-        <v>296</v>
+        <v>6</v>
       </c>
       <c r="K63" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L63" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M63" t="s">
-        <v>299</v>
+        <v>9</v>
       </c>
       <c r="N63" t="s">
         <v>10</v>
       </c>
       <c r="O63" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="P63" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q63" s="2">
         <v>45411</v>
@@ -5813,21 +6191,2167 @@
         <v>45412</v>
       </c>
       <c r="S63" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T63" t="s">
+        <v>305</v>
+      </c>
+      <c r="U63" t="s">
+        <v>306</v>
+      </c>
+      <c r="V63" t="s">
+        <v>185</v>
+      </c>
+      <c r="W63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>300</v>
+      </c>
+      <c r="C64" t="s">
+        <v>301</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="3">
+        <v>70</v>
+      </c>
+      <c r="H64" s="3">
+        <v>70</v>
+      </c>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" t="s">
+        <v>302</v>
+      </c>
+      <c r="L64" t="s">
+        <v>303</v>
+      </c>
+      <c r="M64" t="s">
+        <v>9</v>
+      </c>
+      <c r="N64" t="s">
+        <v>10</v>
+      </c>
+      <c r="O64" t="s">
+        <v>304</v>
+      </c>
+      <c r="P64" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R64" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S64" t="s">
+        <v>21</v>
+      </c>
+      <c r="T64" t="s">
+        <v>305</v>
+      </c>
+      <c r="U64" t="s">
+        <v>306</v>
+      </c>
+      <c r="V64" t="s">
+        <v>185</v>
+      </c>
+      <c r="W64" t="s">
+        <v>14</v>
+      </c>
+      <c r="X64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" t="s">
+        <v>308</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E65" t="s">
+        <v>309</v>
+      </c>
+      <c r="F65" t="s">
+        <v>310</v>
+      </c>
+      <c r="G65" s="3">
+        <v>4</v>
+      </c>
+      <c r="H65" s="3">
+        <v>200</v>
+      </c>
+      <c r="I65" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" t="s">
+        <v>311</v>
+      </c>
+      <c r="L65" t="s">
+        <v>312</v>
+      </c>
+      <c r="M65" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65" t="s">
+        <v>10</v>
+      </c>
+      <c r="O65" t="s">
+        <v>313</v>
+      </c>
+      <c r="P65" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R65" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S65" t="s">
+        <v>21</v>
+      </c>
+      <c r="T65" t="s">
+        <v>314</v>
+      </c>
+      <c r="U65" t="s">
+        <v>315</v>
+      </c>
+      <c r="V65" t="s">
+        <v>316</v>
+      </c>
+      <c r="W65" t="s">
+        <v>14</v>
+      </c>
+      <c r="X65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>317</v>
+      </c>
+      <c r="C66" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" t="s">
+        <v>319</v>
+      </c>
+      <c r="L66" t="s">
+        <v>320</v>
+      </c>
+      <c r="M66" t="s">
+        <v>9</v>
+      </c>
+      <c r="N66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" t="s">
+        <v>321</v>
+      </c>
+      <c r="P66" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R66" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S66" t="s">
+        <v>21</v>
+      </c>
+      <c r="T66" t="s">
+        <v>322</v>
+      </c>
+      <c r="U66" t="s">
+        <v>318</v>
+      </c>
+      <c r="V66" t="s">
+        <v>320</v>
+      </c>
+      <c r="W66" t="s">
+        <v>14</v>
+      </c>
+      <c r="X66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E67" t="s">
+        <v>324</v>
+      </c>
+      <c r="F67" t="s">
+        <v>325</v>
+      </c>
+      <c r="G67" s="3">
+        <v>4</v>
+      </c>
+      <c r="H67" s="3">
+        <v>200</v>
+      </c>
+      <c r="I67" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" t="s">
+        <v>326</v>
+      </c>
+      <c r="L67" t="s">
+        <v>185</v>
+      </c>
+      <c r="M67" t="s">
+        <v>9</v>
+      </c>
+      <c r="N67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O67" t="s">
+        <v>327</v>
+      </c>
+      <c r="P67" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R67" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T67" t="s">
+        <v>187</v>
+      </c>
+      <c r="U67" t="s">
+        <v>188</v>
+      </c>
+      <c r="V67" t="s">
+        <v>181</v>
+      </c>
+      <c r="W67" t="s">
+        <v>14</v>
+      </c>
+      <c r="X67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>323</v>
+      </c>
+      <c r="C68" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E68" t="s">
+        <v>236</v>
+      </c>
+      <c r="F68" t="s">
+        <v>237</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" t="s">
+        <v>326</v>
+      </c>
+      <c r="L68" t="s">
+        <v>185</v>
+      </c>
+      <c r="M68" t="s">
+        <v>9</v>
+      </c>
+      <c r="N68" t="s">
+        <v>10</v>
+      </c>
+      <c r="O68" t="s">
+        <v>327</v>
+      </c>
+      <c r="P68" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R68" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S68" t="s">
+        <v>21</v>
+      </c>
+      <c r="T68" t="s">
+        <v>187</v>
+      </c>
+      <c r="U68" t="s">
+        <v>188</v>
+      </c>
+      <c r="V68" t="s">
+        <v>181</v>
+      </c>
+      <c r="W68" t="s">
+        <v>14</v>
+      </c>
+      <c r="X68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>323</v>
+      </c>
+      <c r="C69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E69" t="s">
+        <v>328</v>
+      </c>
+      <c r="F69" t="s">
+        <v>329</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>330</v>
+      </c>
+      <c r="J69" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" t="s">
+        <v>326</v>
+      </c>
+      <c r="L69" t="s">
+        <v>185</v>
+      </c>
+      <c r="M69" t="s">
+        <v>9</v>
+      </c>
+      <c r="N69" t="s">
+        <v>10</v>
+      </c>
+      <c r="O69" t="s">
+        <v>327</v>
+      </c>
+      <c r="P69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R69" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S69" t="s">
+        <v>21</v>
+      </c>
+      <c r="T69" t="s">
+        <v>187</v>
+      </c>
+      <c r="U69" t="s">
+        <v>188</v>
+      </c>
+      <c r="V69" t="s">
+        <v>181</v>
+      </c>
+      <c r="W69" t="s">
+        <v>14</v>
+      </c>
+      <c r="X69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>331</v>
+      </c>
+      <c r="C70" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E70" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>50</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70" t="s">
+        <v>333</v>
+      </c>
+      <c r="L70" t="s">
+        <v>334</v>
+      </c>
+      <c r="M70" t="s">
+        <v>9</v>
+      </c>
+      <c r="N70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O70" t="s">
+        <v>335</v>
+      </c>
+      <c r="P70" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R70" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S70" t="s">
+        <v>13</v>
+      </c>
+      <c r="T70" t="s">
+        <v>333</v>
+      </c>
+      <c r="U70" t="s">
+        <v>332</v>
+      </c>
+      <c r="V70" t="s">
+        <v>334</v>
+      </c>
+      <c r="W70" t="s">
+        <v>14</v>
+      </c>
+      <c r="X70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>336</v>
+      </c>
+      <c r="C71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E71" t="s">
+        <v>62</v>
+      </c>
+      <c r="F71" t="s">
+        <v>63</v>
+      </c>
+      <c r="G71" s="3">
+        <v>5</v>
+      </c>
+      <c r="H71" s="3">
+        <v>5</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" t="s">
+        <v>201</v>
+      </c>
+      <c r="L71" t="s">
+        <v>202</v>
+      </c>
+      <c r="M71" t="s">
+        <v>9</v>
+      </c>
+      <c r="N71" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" t="s">
+        <v>337</v>
+      </c>
+      <c r="P71" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R71" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S71" t="s">
+        <v>13</v>
+      </c>
+      <c r="T71" t="s">
+        <v>58</v>
+      </c>
+      <c r="U71" t="s">
+        <v>59</v>
+      </c>
+      <c r="V71" t="s">
+        <v>56</v>
+      </c>
+      <c r="W71" t="s">
+        <v>14</v>
+      </c>
+      <c r="X71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>338</v>
+      </c>
+      <c r="C72" t="s">
+        <v>339</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E72" t="s">
+        <v>340</v>
+      </c>
+      <c r="F72" t="s">
+        <v>341</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>50</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" t="s">
+        <v>342</v>
+      </c>
+      <c r="L72" t="s">
+        <v>343</v>
+      </c>
+      <c r="M72" t="s">
+        <v>9</v>
+      </c>
+      <c r="N72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" t="s">
+        <v>344</v>
+      </c>
+      <c r="P72" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R72" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S72" t="s">
+        <v>21</v>
+      </c>
+      <c r="T72" t="s">
+        <v>345</v>
+      </c>
+      <c r="U72" t="s">
+        <v>346</v>
+      </c>
+      <c r="V72" t="s">
+        <v>343</v>
+      </c>
+      <c r="W72" t="s">
+        <v>14</v>
+      </c>
+      <c r="X72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>347</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E73" t="s">
+        <v>348</v>
+      </c>
+      <c r="F73" t="s">
+        <v>349</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" t="s">
+        <v>55</v>
+      </c>
+      <c r="L73" t="s">
+        <v>56</v>
+      </c>
+      <c r="M73" t="s">
+        <v>9</v>
+      </c>
+      <c r="N73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O73" t="s">
+        <v>350</v>
+      </c>
+      <c r="P73" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R73" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S73" t="s">
+        <v>13</v>
+      </c>
+      <c r="T73" t="s">
+        <v>58</v>
+      </c>
+      <c r="U73" t="s">
+        <v>59</v>
+      </c>
+      <c r="V73" t="s">
+        <v>56</v>
+      </c>
+      <c r="W73" t="s">
+        <v>14</v>
+      </c>
+      <c r="X73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>351</v>
+      </c>
+      <c r="C74" t="s">
+        <v>352</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E74" t="s">
+        <v>285</v>
+      </c>
+      <c r="F74" t="s">
+        <v>286</v>
+      </c>
+      <c r="G74" s="3">
+        <v>3</v>
+      </c>
+      <c r="H74" s="3">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74" t="s">
+        <v>353</v>
+      </c>
+      <c r="L74" t="s">
+        <v>69</v>
+      </c>
+      <c r="M74" t="s">
+        <v>9</v>
+      </c>
+      <c r="N74" t="s">
+        <v>10</v>
+      </c>
+      <c r="O74" t="s">
+        <v>354</v>
+      </c>
+      <c r="P74" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R74" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S74" t="s">
+        <v>21</v>
+      </c>
+      <c r="T74" t="s">
+        <v>355</v>
+      </c>
+      <c r="U74" t="s">
+        <v>356</v>
+      </c>
+      <c r="V74" t="s">
+        <v>357</v>
+      </c>
+      <c r="W74" t="s">
+        <v>14</v>
+      </c>
+      <c r="X74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>358</v>
+      </c>
+      <c r="C75" t="s">
+        <v>359</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="3">
+        <v>30</v>
+      </c>
+      <c r="H75" s="3">
+        <v>30</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" t="s">
+        <v>360</v>
+      </c>
+      <c r="L75" t="s">
+        <v>361</v>
+      </c>
+      <c r="M75" t="s">
+        <v>9</v>
+      </c>
+      <c r="N75" t="s">
+        <v>10</v>
+      </c>
+      <c r="O75" t="s">
+        <v>362</v>
+      </c>
+      <c r="P75" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R75" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S75" t="s">
+        <v>363</v>
+      </c>
+      <c r="T75" t="s">
+        <v>360</v>
+      </c>
+      <c r="U75" t="s">
+        <v>359</v>
+      </c>
+      <c r="V75" t="s">
+        <v>361</v>
+      </c>
+      <c r="W75" t="s">
+        <v>14</v>
+      </c>
+      <c r="X75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E76" t="s">
+        <v>62</v>
+      </c>
+      <c r="F76" t="s">
+        <v>63</v>
+      </c>
+      <c r="G76" s="3">
+        <v>15</v>
+      </c>
+      <c r="H76" s="3">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" t="s">
+        <v>366</v>
+      </c>
+      <c r="L76" t="s">
+        <v>367</v>
+      </c>
+      <c r="M76" t="s">
+        <v>9</v>
+      </c>
+      <c r="N76" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" t="s">
+        <v>368</v>
+      </c>
+      <c r="P76" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R76" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S76" t="s">
+        <v>363</v>
+      </c>
+      <c r="T76" t="s">
+        <v>369</v>
+      </c>
+      <c r="U76" t="s">
+        <v>370</v>
+      </c>
+      <c r="V76" t="s">
+        <v>371</v>
+      </c>
+      <c r="W76" t="s">
+        <v>14</v>
+      </c>
+      <c r="X76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>364</v>
+      </c>
+      <c r="C77" t="s">
+        <v>365</v>
+      </c>
+      <c r="D77" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E77" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" s="3">
+        <v>5</v>
+      </c>
+      <c r="H77" s="3">
+        <v>5</v>
+      </c>
+      <c r="I77" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" t="s">
+        <v>366</v>
+      </c>
+      <c r="L77" t="s">
+        <v>367</v>
+      </c>
+      <c r="M77" t="s">
+        <v>9</v>
+      </c>
+      <c r="N77" t="s">
+        <v>10</v>
+      </c>
+      <c r="O77" t="s">
+        <v>368</v>
+      </c>
+      <c r="P77" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R77" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S77" t="s">
+        <v>363</v>
+      </c>
+      <c r="T77" t="s">
+        <v>369</v>
+      </c>
+      <c r="U77" t="s">
+        <v>370</v>
+      </c>
+      <c r="V77" t="s">
+        <v>371</v>
+      </c>
+      <c r="W77" t="s">
+        <v>14</v>
+      </c>
+      <c r="X77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>372</v>
+      </c>
+      <c r="C78" t="s">
+        <v>373</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45415</v>
+      </c>
+      <c r="E78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" t="s">
+        <v>374</v>
+      </c>
+      <c r="L78" t="s">
+        <v>375</v>
+      </c>
+      <c r="M78" t="s">
+        <v>9</v>
+      </c>
+      <c r="N78" t="s">
+        <v>10</v>
+      </c>
+      <c r="O78" t="s">
+        <v>376</v>
+      </c>
+      <c r="P78" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>45415</v>
+      </c>
+      <c r="R78" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S78" t="s">
+        <v>363</v>
+      </c>
+      <c r="T78" t="s">
+        <v>374</v>
+      </c>
+      <c r="U78" t="s">
+        <v>373</v>
+      </c>
+      <c r="V78" t="s">
+        <v>375</v>
+      </c>
+      <c r="W78" t="s">
+        <v>14</v>
+      </c>
+      <c r="X78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>378</v>
+      </c>
+      <c r="C79" t="s">
+        <v>296</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45441</v>
+      </c>
+      <c r="E79" t="s">
+        <v>379</v>
+      </c>
+      <c r="F79" t="s">
+        <v>380</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" t="s">
+        <v>6</v>
+      </c>
+      <c r="K79" t="s">
         <v>297</v>
       </c>
-      <c r="U63" t="s">
-        <v>302</v>
-      </c>
-      <c r="V63" t="s">
-        <v>303</v>
-      </c>
-      <c r="W63" t="s">
-        <v>14</v>
-      </c>
-      <c r="X63" t="s">
+      <c r="L79" t="s">
+        <v>298</v>
+      </c>
+      <c r="M79" t="s">
+        <v>9</v>
+      </c>
+      <c r="N79" t="s">
+        <v>10</v>
+      </c>
+      <c r="O79" t="s">
+        <v>381</v>
+      </c>
+      <c r="P79" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>45441</v>
+      </c>
+      <c r="R79" s="2">
+        <v>45445</v>
+      </c>
+      <c r="S79" t="s">
+        <v>13</v>
+      </c>
+      <c r="T79" t="s">
+        <v>179</v>
+      </c>
+      <c r="U79" t="s">
+        <v>180</v>
+      </c>
+      <c r="V79" t="s">
+        <v>181</v>
+      </c>
+      <c r="W79" t="s">
+        <v>14</v>
+      </c>
+      <c r="X79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>378</v>
+      </c>
+      <c r="C80" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45441</v>
+      </c>
+      <c r="E80" t="s">
+        <v>383</v>
+      </c>
+      <c r="F80" t="s">
+        <v>384</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" t="s">
+        <v>297</v>
+      </c>
+      <c r="L80" t="s">
+        <v>298</v>
+      </c>
+      <c r="M80" t="s">
+        <v>9</v>
+      </c>
+      <c r="N80" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" t="s">
+        <v>381</v>
+      </c>
+      <c r="P80" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>45441</v>
+      </c>
+      <c r="R80" s="2">
+        <v>45445</v>
+      </c>
+      <c r="S80" t="s">
+        <v>13</v>
+      </c>
+      <c r="T80" t="s">
+        <v>179</v>
+      </c>
+      <c r="U80" t="s">
+        <v>180</v>
+      </c>
+      <c r="V80" t="s">
+        <v>181</v>
+      </c>
+      <c r="W80" t="s">
+        <v>14</v>
+      </c>
+      <c r="X80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>378</v>
+      </c>
+      <c r="C81" t="s">
+        <v>296</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45441</v>
+      </c>
+      <c r="E81" t="s">
+        <v>385</v>
+      </c>
+      <c r="F81" t="s">
+        <v>386</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" t="s">
+        <v>6</v>
+      </c>
+      <c r="K81" t="s">
+        <v>297</v>
+      </c>
+      <c r="L81" t="s">
+        <v>298</v>
+      </c>
+      <c r="M81" t="s">
+        <v>9</v>
+      </c>
+      <c r="N81" t="s">
+        <v>10</v>
+      </c>
+      <c r="O81" t="s">
+        <v>381</v>
+      </c>
+      <c r="P81" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>45441</v>
+      </c>
+      <c r="R81" s="2">
+        <v>45445</v>
+      </c>
+      <c r="S81" t="s">
+        <v>13</v>
+      </c>
+      <c r="T81" t="s">
+        <v>179</v>
+      </c>
+      <c r="U81" t="s">
+        <v>180</v>
+      </c>
+      <c r="V81" t="s">
+        <v>181</v>
+      </c>
+      <c r="W81" t="s">
+        <v>14</v>
+      </c>
+      <c r="X81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>378</v>
+      </c>
+      <c r="C82" t="s">
+        <v>296</v>
+      </c>
+      <c r="D82" s="2">
+        <v>45441</v>
+      </c>
+      <c r="E82" t="s">
+        <v>387</v>
+      </c>
+      <c r="F82" t="s">
+        <v>388</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" t="s">
+        <v>6</v>
+      </c>
+      <c r="K82" t="s">
+        <v>297</v>
+      </c>
+      <c r="L82" t="s">
+        <v>298</v>
+      </c>
+      <c r="M82" t="s">
+        <v>9</v>
+      </c>
+      <c r="N82" t="s">
+        <v>10</v>
+      </c>
+      <c r="O82" t="s">
+        <v>381</v>
+      </c>
+      <c r="P82" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>45441</v>
+      </c>
+      <c r="R82" s="2">
+        <v>45445</v>
+      </c>
+      <c r="S82" t="s">
+        <v>13</v>
+      </c>
+      <c r="T82" t="s">
+        <v>179</v>
+      </c>
+      <c r="U82" t="s">
+        <v>180</v>
+      </c>
+      <c r="V82" t="s">
+        <v>181</v>
+      </c>
+      <c r="W82" t="s">
+        <v>14</v>
+      </c>
+      <c r="X82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>378</v>
+      </c>
+      <c r="C83" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45441</v>
+      </c>
+      <c r="E83" t="s">
+        <v>389</v>
+      </c>
+      <c r="F83" t="s">
+        <v>390</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" t="s">
+        <v>6</v>
+      </c>
+      <c r="K83" t="s">
+        <v>297</v>
+      </c>
+      <c r="L83" t="s">
+        <v>298</v>
+      </c>
+      <c r="M83" t="s">
+        <v>9</v>
+      </c>
+      <c r="N83" t="s">
+        <v>10</v>
+      </c>
+      <c r="O83" t="s">
+        <v>381</v>
+      </c>
+      <c r="P83" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>45441</v>
+      </c>
+      <c r="R83" s="2">
+        <v>45445</v>
+      </c>
+      <c r="S83" t="s">
+        <v>13</v>
+      </c>
+      <c r="T83" t="s">
+        <v>179</v>
+      </c>
+      <c r="U83" t="s">
+        <v>180</v>
+      </c>
+      <c r="V83" t="s">
+        <v>181</v>
+      </c>
+      <c r="W83" t="s">
+        <v>14</v>
+      </c>
+      <c r="X83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>378</v>
+      </c>
+      <c r="C84" t="s">
+        <v>296</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45441</v>
+      </c>
+      <c r="E84" t="s">
+        <v>391</v>
+      </c>
+      <c r="F84" t="s">
+        <v>392</v>
+      </c>
+      <c r="G84" s="3">
+        <v>2</v>
+      </c>
+      <c r="H84" s="3">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84" t="s">
+        <v>297</v>
+      </c>
+      <c r="L84" t="s">
+        <v>298</v>
+      </c>
+      <c r="M84" t="s">
+        <v>9</v>
+      </c>
+      <c r="N84" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" t="s">
+        <v>381</v>
+      </c>
+      <c r="P84" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>45441</v>
+      </c>
+      <c r="R84" s="2">
+        <v>45445</v>
+      </c>
+      <c r="S84" t="s">
+        <v>13</v>
+      </c>
+      <c r="T84" t="s">
+        <v>179</v>
+      </c>
+      <c r="U84" t="s">
+        <v>180</v>
+      </c>
+      <c r="V84" t="s">
+        <v>181</v>
+      </c>
+      <c r="W84" t="s">
+        <v>14</v>
+      </c>
+      <c r="X84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
+      <c r="A85" t="s">
+        <v>393</v>
+      </c>
+      <c r="B85" t="s">
+        <v>394</v>
+      </c>
+      <c r="C85" t="s">
+        <v>395</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E85" t="s">
+        <v>396</v>
+      </c>
+      <c r="F85" t="s">
+        <v>397</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" t="s">
+        <v>398</v>
+      </c>
+      <c r="K85" t="s">
+        <v>399</v>
+      </c>
+      <c r="L85" t="s">
+        <v>400</v>
+      </c>
+      <c r="M85" t="s">
+        <v>401</v>
+      </c>
+      <c r="N85" t="s">
+        <v>10</v>
+      </c>
+      <c r="O85" t="s">
+        <v>402</v>
+      </c>
+      <c r="P85" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R85" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S85" t="s">
+        <v>21</v>
+      </c>
+      <c r="T85" t="s">
+        <v>399</v>
+      </c>
+      <c r="U85" t="s">
+        <v>404</v>
+      </c>
+      <c r="V85" t="s">
+        <v>405</v>
+      </c>
+      <c r="W85" t="s">
+        <v>14</v>
+      </c>
+      <c r="X85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
+      <c r="A86" t="s">
+        <v>393</v>
+      </c>
+      <c r="B86" t="s">
+        <v>406</v>
+      </c>
+      <c r="C86" t="s">
+        <v>407</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E86" t="s">
+        <v>396</v>
+      </c>
+      <c r="F86" t="s">
+        <v>397</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" t="s">
+        <v>398</v>
+      </c>
+      <c r="K86" t="s">
+        <v>399</v>
+      </c>
+      <c r="L86" t="s">
+        <v>408</v>
+      </c>
+      <c r="M86" t="s">
+        <v>401</v>
+      </c>
+      <c r="N86" t="s">
+        <v>10</v>
+      </c>
+      <c r="O86" t="s">
+        <v>409</v>
+      </c>
+      <c r="P86" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R86" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S86" t="s">
+        <v>21</v>
+      </c>
+      <c r="T86" t="s">
+        <v>399</v>
+      </c>
+      <c r="U86" t="s">
+        <v>404</v>
+      </c>
+      <c r="V86" t="s">
+        <v>405</v>
+      </c>
+      <c r="W86" t="s">
+        <v>14</v>
+      </c>
+      <c r="X86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87" t="s">
+        <v>393</v>
+      </c>
+      <c r="B87" t="s">
+        <v>410</v>
+      </c>
+      <c r="C87" t="s">
+        <v>411</v>
+      </c>
+      <c r="D87" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E87" t="s">
+        <v>396</v>
+      </c>
+      <c r="F87" t="s">
+        <v>397</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+      <c r="H87" s="3">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" t="s">
+        <v>398</v>
+      </c>
+      <c r="K87" t="s">
+        <v>399</v>
+      </c>
+      <c r="L87" t="s">
+        <v>412</v>
+      </c>
+      <c r="M87" t="s">
+        <v>401</v>
+      </c>
+      <c r="N87" t="s">
+        <v>10</v>
+      </c>
+      <c r="O87" t="s">
+        <v>413</v>
+      </c>
+      <c r="P87" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R87" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S87" t="s">
+        <v>21</v>
+      </c>
+      <c r="T87" t="s">
+        <v>399</v>
+      </c>
+      <c r="U87" t="s">
+        <v>404</v>
+      </c>
+      <c r="V87" t="s">
+        <v>405</v>
+      </c>
+      <c r="W87" t="s">
+        <v>14</v>
+      </c>
+      <c r="X87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
+      <c r="A88" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88" t="s">
+        <v>414</v>
+      </c>
+      <c r="C88" t="s">
+        <v>415</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E88" t="s">
+        <v>416</v>
+      </c>
+      <c r="F88" t="s">
+        <v>417</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" t="s">
+        <v>398</v>
+      </c>
+      <c r="K88" t="s">
+        <v>399</v>
+      </c>
+      <c r="L88" t="s">
+        <v>418</v>
+      </c>
+      <c r="M88" t="s">
+        <v>401</v>
+      </c>
+      <c r="N88" t="s">
+        <v>10</v>
+      </c>
+      <c r="O88" t="s">
+        <v>419</v>
+      </c>
+      <c r="P88" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R88" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S88" t="s">
+        <v>21</v>
+      </c>
+      <c r="T88" t="s">
+        <v>399</v>
+      </c>
+      <c r="U88" t="s">
+        <v>404</v>
+      </c>
+      <c r="V88" t="s">
+        <v>405</v>
+      </c>
+      <c r="W88" t="s">
+        <v>14</v>
+      </c>
+      <c r="X88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
+      <c r="A89" t="s">
+        <v>393</v>
+      </c>
+      <c r="B89" t="s">
+        <v>420</v>
+      </c>
+      <c r="C89" t="s">
+        <v>407</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E89" t="s">
+        <v>421</v>
+      </c>
+      <c r="F89" t="s">
+        <v>422</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>398</v>
+      </c>
+      <c r="K89" t="s">
+        <v>399</v>
+      </c>
+      <c r="L89" t="s">
+        <v>408</v>
+      </c>
+      <c r="M89" t="s">
+        <v>401</v>
+      </c>
+      <c r="N89" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" t="s">
+        <v>423</v>
+      </c>
+      <c r="P89" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R89" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S89" t="s">
+        <v>21</v>
+      </c>
+      <c r="T89" t="s">
+        <v>399</v>
+      </c>
+      <c r="U89" t="s">
+        <v>404</v>
+      </c>
+      <c r="V89" t="s">
+        <v>405</v>
+      </c>
+      <c r="W89" t="s">
+        <v>14</v>
+      </c>
+      <c r="X89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
+      <c r="A90" t="s">
+        <v>393</v>
+      </c>
+      <c r="B90" t="s">
+        <v>424</v>
+      </c>
+      <c r="C90" t="s">
+        <v>425</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E90" t="s">
+        <v>426</v>
+      </c>
+      <c r="F90" t="s">
+        <v>417</v>
+      </c>
+      <c r="G90" s="3">
+        <v>6</v>
+      </c>
+      <c r="H90" s="3">
+        <v>6</v>
+      </c>
+      <c r="I90" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" t="s">
+        <v>398</v>
+      </c>
+      <c r="K90" t="s">
+        <v>399</v>
+      </c>
+      <c r="L90" t="s">
+        <v>427</v>
+      </c>
+      <c r="M90" t="s">
+        <v>401</v>
+      </c>
+      <c r="N90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O90" t="s">
+        <v>428</v>
+      </c>
+      <c r="P90" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R90" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S90" t="s">
+        <v>21</v>
+      </c>
+      <c r="T90" t="s">
+        <v>399</v>
+      </c>
+      <c r="U90" t="s">
+        <v>404</v>
+      </c>
+      <c r="V90" t="s">
+        <v>405</v>
+      </c>
+      <c r="W90" t="s">
+        <v>14</v>
+      </c>
+      <c r="X90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
+      <c r="A91" t="s">
+        <v>393</v>
+      </c>
+      <c r="B91" t="s">
+        <v>429</v>
+      </c>
+      <c r="C91" t="s">
+        <v>430</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E91" t="s">
+        <v>431</v>
+      </c>
+      <c r="F91" t="s">
+        <v>432</v>
+      </c>
+      <c r="G91" s="3">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>4</v>
+      </c>
+      <c r="I91" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" t="s">
+        <v>398</v>
+      </c>
+      <c r="K91" t="s">
+        <v>399</v>
+      </c>
+      <c r="L91" t="s">
+        <v>433</v>
+      </c>
+      <c r="M91" t="s">
+        <v>401</v>
+      </c>
+      <c r="N91" t="s">
+        <v>10</v>
+      </c>
+      <c r="O91" t="s">
+        <v>434</v>
+      </c>
+      <c r="P91" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R91" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S91" t="s">
+        <v>21</v>
+      </c>
+      <c r="T91" t="s">
+        <v>399</v>
+      </c>
+      <c r="U91" t="s">
+        <v>404</v>
+      </c>
+      <c r="V91" t="s">
+        <v>405</v>
+      </c>
+      <c r="W91" t="s">
+        <v>14</v>
+      </c>
+      <c r="X91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
+      <c r="A92" t="s">
+        <v>393</v>
+      </c>
+      <c r="B92" t="s">
+        <v>435</v>
+      </c>
+      <c r="C92" t="s">
+        <v>436</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45468</v>
+      </c>
+      <c r="E92" t="s">
+        <v>437</v>
+      </c>
+      <c r="F92" t="s">
+        <v>438</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>5</v>
+      </c>
+      <c r="J92" t="s">
+        <v>398</v>
+      </c>
+      <c r="K92" t="s">
+        <v>439</v>
+      </c>
+      <c r="L92" t="s">
+        <v>440</v>
+      </c>
+      <c r="M92" t="s">
+        <v>9</v>
+      </c>
+      <c r="N92" t="s">
+        <v>10</v>
+      </c>
+      <c r="O92" t="s">
+        <v>441</v>
+      </c>
+      <c r="P92" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>45468</v>
+      </c>
+      <c r="R92" s="2">
+        <v>45468</v>
+      </c>
+      <c r="S92" t="s">
+        <v>222</v>
+      </c>
+      <c r="T92" t="s">
+        <v>439</v>
+      </c>
+      <c r="U92" t="s">
+        <v>436</v>
+      </c>
+      <c r="V92" t="s">
+        <v>440</v>
+      </c>
+      <c r="W92" t="s">
+        <v>14</v>
+      </c>
+      <c r="X92" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="343">
   <si>
     <t>P891</t>
   </si>
@@ -88,31 +88,361 @@
     <t>PARRAMATTA</t>
   </si>
   <si>
-    <t>133808547</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING - CHARLESTWN</t>
-  </si>
-  <si>
-    <t>1234715</t>
-  </si>
-  <si>
-    <t>CHARLESTOWN</t>
-  </si>
-  <si>
-    <t>717078804</t>
+    <t>133831864</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING - ORANGE</t>
+  </si>
+  <si>
+    <t>64437141</t>
+  </si>
+  <si>
+    <t>Dota250UG (Tyr3)-Octreotate (GMP-Dota)</t>
+  </si>
+  <si>
+    <t>3510474</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>717083697</t>
+  </si>
+  <si>
+    <t>020050</t>
+  </si>
+  <si>
+    <t>4595823</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>GOSFORD</t>
+  </si>
+  <si>
+    <t>133836143</t>
+  </si>
+  <si>
+    <t>MERCY RADIOLOGY - MILFORD</t>
+  </si>
+  <si>
+    <t>64424279</t>
+  </si>
+  <si>
+    <t>Modular-Lab Eazy Cassette for Lu177</t>
+  </si>
+  <si>
+    <t>4595855</t>
+  </si>
+  <si>
+    <t>MILFORD</t>
+  </si>
+  <si>
+    <t>717065868</t>
+  </si>
+  <si>
+    <t>000141</t>
+  </si>
+  <si>
+    <t>4595859</t>
+  </si>
+  <si>
+    <t>MERCY RADIOLOGY</t>
+  </si>
+  <si>
+    <t>NEWMARKET</t>
+  </si>
+  <si>
+    <t>64437133</t>
+  </si>
+  <si>
+    <t>Dota(Tyr3)-Octreotate (GMP-Dotatate) 1mg</t>
+  </si>
+  <si>
+    <t>64439276</t>
+  </si>
+  <si>
+    <t>Reagent Kit -90Y and 177Lu Peptides</t>
+  </si>
+  <si>
+    <t>133840202</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES</t>
+  </si>
+  <si>
+    <t>80802544</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4595351</t>
+  </si>
+  <si>
+    <t>KOGARAH</t>
+  </si>
+  <si>
+    <t>717091507</t>
+  </si>
+  <si>
+    <t>4595461</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES (NSW)</t>
+  </si>
+  <si>
+    <t>ST LEONARDS</t>
+  </si>
+  <si>
+    <t>02112548</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133844071</t>
+  </si>
+  <si>
+    <t>MILDURA BASE PUBLIC HOSPITAL</t>
+  </si>
+  <si>
+    <t>80727543</t>
+  </si>
+  <si>
+    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
+  </si>
+  <si>
+    <t>3018889</t>
+  </si>
+  <si>
+    <t>MILDURA</t>
+  </si>
+  <si>
+    <t>717094689</t>
+  </si>
+  <si>
+    <t>133844074</t>
+  </si>
+  <si>
+    <t>CAPITAL RADIOLOGY WESTERN PRIVATE</t>
+  </si>
+  <si>
+    <t>86610280</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,STELLANT MP,MIC,MC,EU</t>
+  </si>
+  <si>
+    <t>3432379</t>
+  </si>
+  <si>
+    <t>FOOTSCRAY</t>
+  </si>
+  <si>
+    <t>717102752</t>
   </si>
   <si>
     <t>010050</t>
   </si>
   <si>
-    <t>4595823</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>GOSFORD</t>
+    <t>3605543</t>
+  </si>
+  <si>
+    <t>CAPITAL RADIOLOGY PTY LTD</t>
+  </si>
+  <si>
+    <t>EAST MELBOURNE</t>
+  </si>
+  <si>
+    <t>133846372</t>
+  </si>
+  <si>
+    <t>ST JOHN OF GOD HEALTH CARE</t>
+  </si>
+  <si>
+    <t>3018211</t>
+  </si>
+  <si>
+    <t>GEELONG</t>
+  </si>
+  <si>
+    <t>717098158</t>
+  </si>
+  <si>
+    <t>133847511</t>
+  </si>
+  <si>
+    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
+  </si>
+  <si>
+    <t>4670712</t>
+  </si>
+  <si>
+    <t>DERRIMUT</t>
+  </si>
+  <si>
+    <t>717091785</t>
+  </si>
+  <si>
+    <t>4670709</t>
+  </si>
+  <si>
+    <t>HEALTHSHARE VICTORIA</t>
+  </si>
+  <si>
+    <t>MELBOURNE</t>
+  </si>
+  <si>
+    <t>133848756</t>
+  </si>
+  <si>
+    <t>ENVISION MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>64424244</t>
+  </si>
+  <si>
+    <t>LabEAZY Cassette- 68Ga DOTA Peptides</t>
+  </si>
+  <si>
+    <t>3436408</t>
+  </si>
+  <si>
+    <t>WEMBLEY</t>
+  </si>
+  <si>
+    <t>717093785</t>
+  </si>
+  <si>
+    <t>050050</t>
+  </si>
+  <si>
+    <t>133738054</t>
+  </si>
+  <si>
+    <t>TOOWOOMBA HOSPITAL</t>
+  </si>
+  <si>
+    <t>87548082</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
+  </si>
+  <si>
+    <t>4595344</t>
+  </si>
+  <si>
+    <t>TOOWOOMBA</t>
+  </si>
+  <si>
+    <t>717042847</t>
+  </si>
+  <si>
+    <t>EIWPK</t>
+  </si>
+  <si>
+    <t>4595342</t>
+  </si>
+  <si>
+    <t>DARLING DOWNS HOSPITAL &amp;</t>
+  </si>
+  <si>
+    <t>133843811</t>
+  </si>
+  <si>
+    <t>SYDNEY ADVENTIST HOSPITAL</t>
+  </si>
+  <si>
+    <t>86645556</t>
+  </si>
+  <si>
+    <t>MR,KIT,SYR,MRI,115ML,96",MC,WLD</t>
+  </si>
+  <si>
+    <t>4595578</t>
+  </si>
+  <si>
+    <t>WAHROONGA</t>
+  </si>
+  <si>
+    <t>717098386</t>
+  </si>
+  <si>
+    <t>3018003</t>
+  </si>
+  <si>
+    <t>133844073</t>
+  </si>
+  <si>
+    <t>TAMWORTH HEALTH SERVICE</t>
+  </si>
+  <si>
+    <t>87078752</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,D,SPK,FLS3,150ML,WLD</t>
+  </si>
+  <si>
+    <t>4595242</t>
+  </si>
+  <si>
+    <t>TAMWORTH</t>
+  </si>
+  <si>
+    <t>717099056</t>
+  </si>
+  <si>
+    <t>4595328</t>
+  </si>
+  <si>
+    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
+  </si>
+  <si>
+    <t>NEWCASTLE</t>
+  </si>
+  <si>
+    <t>87078760</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
+  </si>
+  <si>
+    <t>133844075</t>
+  </si>
+  <si>
+    <t>86594226</t>
+  </si>
+  <si>
+    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>717103182</t>
+  </si>
+  <si>
+    <t>133845703</t>
+  </si>
+  <si>
+    <t>BARWON MEDICAL IMAGING - GEELONG</t>
+  </si>
+  <si>
+    <t>4596081</t>
+  </si>
+  <si>
+    <t>717089199</t>
+  </si>
+  <si>
+    <t>4596084</t>
+  </si>
+  <si>
+    <t>BARWON HEALTH</t>
+  </si>
+  <si>
+    <t>133845704</t>
+  </si>
+  <si>
+    <t>PETER MACCALLUM CANCER CENTRE</t>
   </si>
   <si>
     <t>03250768</t>
@@ -121,208 +451,160 @@
     <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
   </si>
   <si>
-    <t>133810874</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - TOWNSVILLE</t>
-  </si>
-  <si>
-    <t>4094369</t>
-  </si>
-  <si>
-    <t>THURINGOWA CENTRAL</t>
-  </si>
-  <si>
-    <t>717076174</t>
-  </si>
-  <si>
-    <t>040050</t>
-  </si>
-  <si>
-    <t>133617822</t>
-  </si>
-  <si>
-    <t>ST JOHN OF GOD HEALTH CARE -</t>
-  </si>
-  <si>
-    <t>80727543</t>
-  </si>
-  <si>
-    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
-  </si>
-  <si>
-    <t>3018211</t>
-  </si>
-  <si>
-    <t>O'CONNOR</t>
-  </si>
-  <si>
-    <t>717088524</t>
-  </si>
-  <si>
-    <t>ST JOHN OF GOD HEALTH CARE</t>
-  </si>
-  <si>
-    <t>GEELONG</t>
-  </si>
-  <si>
-    <t>133787997</t>
-  </si>
-  <si>
-    <t>ROYAL ADELAIDE HOSPITAL</t>
-  </si>
-  <si>
-    <t>02112555</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4676781</t>
-  </si>
-  <si>
-    <t>ADELAIDE</t>
-  </si>
-  <si>
-    <t>717076832</t>
-  </si>
-  <si>
-    <t>4595446</t>
-  </si>
-  <si>
-    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>133817728</t>
-  </si>
-  <si>
-    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
-  </si>
-  <si>
-    <t>02112548</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4670712</t>
-  </si>
-  <si>
-    <t>DERRIMUT</t>
-  </si>
-  <si>
-    <t>717074268</t>
-  </si>
-  <si>
-    <t>4670709</t>
-  </si>
-  <si>
-    <t>HEALTHSHARE VICTORIA</t>
-  </si>
-  <si>
-    <t>MELBOURNE</t>
-  </si>
-  <si>
-    <t>133818138</t>
-  </si>
-  <si>
-    <t>FAR NORTH QLD REGIONAL</t>
-  </si>
-  <si>
-    <t>929201</t>
-  </si>
-  <si>
-    <t>WOREE</t>
-  </si>
-  <si>
-    <t>717076685</t>
-  </si>
-  <si>
-    <t>040130</t>
-  </si>
-  <si>
-    <t>4595067</t>
-  </si>
-  <si>
-    <t>DEPARTMENT OF HEALTH QLD</t>
-  </si>
-  <si>
-    <t>BRISBANE</t>
-  </si>
-  <si>
-    <t>133831864</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING - ORANGE</t>
-  </si>
-  <si>
-    <t>64437141</t>
-  </si>
-  <si>
-    <t>Dota250UG (Tyr3)-Octreotate (GMP-Dota)</t>
-  </si>
-  <si>
-    <t>3510474</t>
-  </si>
-  <si>
-    <t>ORANGE</t>
-  </si>
-  <si>
-    <t>717083697</t>
-  </si>
-  <si>
-    <t>020050</t>
-  </si>
-  <si>
-    <t>133836557</t>
-  </si>
-  <si>
-    <t>QSCAN RADIOLOGY - UPPER COOMERA</t>
-  </si>
-  <si>
-    <t>4211108</t>
-  </si>
-  <si>
-    <t>UPPER COOMERA</t>
-  </si>
-  <si>
-    <t>717066596</t>
-  </si>
-  <si>
-    <t>80802544</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>87621529</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133836960</t>
-  </si>
-  <si>
-    <t>CAMPBELLTOWN PRIVATE HOSPITAL</t>
-  </si>
-  <si>
-    <t>3337297</t>
-  </si>
-  <si>
-    <t>717095206</t>
-  </si>
-  <si>
-    <t>4595617</t>
-  </si>
-  <si>
-    <t>HEALTHSCOPE LTD</t>
-  </si>
-  <si>
-    <t>133836961</t>
-  </si>
-  <si>
-    <t>MARINA DIAGNOSTIC GROUP</t>
+    <t>4704669</t>
+  </si>
+  <si>
+    <t>717103270</t>
+  </si>
+  <si>
+    <t>3017201</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>133846373</t>
+  </si>
+  <si>
+    <t>ORANGE HEALTH SERVICE</t>
+  </si>
+  <si>
+    <t>87548783</t>
+  </si>
+  <si>
+    <t>ASSY,DAY SET,CENTARGO,ROW</t>
+  </si>
+  <si>
+    <t>4675465</t>
+  </si>
+  <si>
+    <t>717099044</t>
+  </si>
+  <si>
+    <t>4596048</t>
+  </si>
+  <si>
+    <t>WESTERN NSW LOCAL HEALTH DISTRICT O</t>
+  </si>
+  <si>
+    <t>133846374</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - MILDURA</t>
+  </si>
+  <si>
+    <t>4595706</t>
+  </si>
+  <si>
+    <t>717101374</t>
+  </si>
+  <si>
+    <t>133846375</t>
+  </si>
+  <si>
+    <t>WESTMEAD HOSPITAL</t>
+  </si>
+  <si>
+    <t>86617439</t>
+  </si>
+  <si>
+    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4596106</t>
+  </si>
+  <si>
+    <t>NORTHMEAD</t>
+  </si>
+  <si>
+    <t>717103360</t>
+  </si>
+  <si>
+    <t>4596108</t>
+  </si>
+  <si>
+    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
+  </si>
+  <si>
+    <t>133848757</t>
+  </si>
+  <si>
+    <t>GOULBURN VALLEY HEALTH</t>
+  </si>
+  <si>
+    <t>4595200</t>
+  </si>
+  <si>
+    <t>SHEPPARTON</t>
+  </si>
+  <si>
+    <t>717099204</t>
+  </si>
+  <si>
+    <t>4595194</t>
+  </si>
+  <si>
+    <t>133849082</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - UPPER MT GRAVATT</t>
+  </si>
+  <si>
+    <t>4595780</t>
+  </si>
+  <si>
+    <t>UPPER MT GRAVATT</t>
+  </si>
+  <si>
+    <t>717094788</t>
+  </si>
+  <si>
+    <t>133849258</t>
+  </si>
+  <si>
+    <t>SUNSHINE COAST UNIVERSITY HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595790</t>
+  </si>
+  <si>
+    <t>BIRTINYA</t>
+  </si>
+  <si>
+    <t>717101171</t>
+  </si>
+  <si>
+    <t>4595794</t>
+  </si>
+  <si>
+    <t>SUNSHINE COAST HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>SUNSHINE COAST MC</t>
+  </si>
+  <si>
+    <t>133849340</t>
+  </si>
+  <si>
+    <t>87236072</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,WLD1</t>
+  </si>
+  <si>
+    <t>4595318</t>
+  </si>
+  <si>
+    <t>WANTIRNA</t>
+  </si>
+  <si>
+    <t>717101373</t>
+  </si>
+  <si>
+    <t>4595462</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES (VIC)</t>
   </si>
   <si>
     <t>87234487</t>
@@ -331,400 +613,73 @@
     <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
   </si>
   <si>
-    <t>3490808</t>
-  </si>
-  <si>
-    <t>CHELSEA HEIGHTS</t>
-  </si>
-  <si>
-    <t>717096911</t>
-  </si>
-  <si>
-    <t>4595407</t>
-  </si>
-  <si>
-    <t>DANDENONG  EAST</t>
-  </si>
-  <si>
-    <t>133840008</t>
-  </si>
-  <si>
-    <t>RADIOLOGY SA</t>
-  </si>
-  <si>
-    <t>3319787</t>
-  </si>
-  <si>
-    <t>PORT ADELAIDE</t>
-  </si>
-  <si>
-    <t>717094974</t>
-  </si>
-  <si>
-    <t>4596221</t>
-  </si>
-  <si>
-    <t>NORTH ADELAIDE</t>
-  </si>
-  <si>
-    <t>87236072</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,WLD1</t>
-  </si>
-  <si>
-    <t>133840203</t>
-  </si>
-  <si>
-    <t>PERTH CHILDREN'S HOSPITAL</t>
-  </si>
-  <si>
-    <t>85575279</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU VIAL 3X2ML AU-NZ</t>
-  </si>
-  <si>
-    <t>3906128</t>
-  </si>
-  <si>
-    <t>Nedlands</t>
-  </si>
-  <si>
-    <t>717093819</t>
-  </si>
-  <si>
-    <t>010041</t>
-  </si>
-  <si>
-    <t>133761375</t>
-  </si>
-  <si>
-    <t>FLINDERS MEDICAL CENTRE</t>
-  </si>
-  <si>
-    <t>4699953</t>
-  </si>
-  <si>
-    <t>BEDFORD PARK</t>
-  </si>
-  <si>
-    <t>717090428</t>
-  </si>
-  <si>
-    <t>133802932</t>
-  </si>
-  <si>
-    <t>CONCORD HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595884</t>
-  </si>
-  <si>
-    <t>CONCORD WEST</t>
-  </si>
-  <si>
-    <t>717095662</t>
-  </si>
-  <si>
-    <t>4595817</t>
-  </si>
-  <si>
-    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
-  </si>
-  <si>
-    <t>133820561</t>
-  </si>
-  <si>
-    <t>ST VINCENTS PRIVATE FITZROY</t>
-  </si>
-  <si>
-    <t>86617439</t>
-  </si>
-  <si>
-    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595226</t>
-  </si>
-  <si>
-    <t>FITZROY</t>
-  </si>
-  <si>
-    <t>717067195</t>
-  </si>
-  <si>
-    <t>3018214</t>
-  </si>
-  <si>
-    <t>ST VINCENT'S PRIVATE MELBOURNE</t>
-  </si>
-  <si>
-    <t>133824295</t>
-  </si>
-  <si>
-    <t>CANBERRA IMAGING GROUP - DEAKIN</t>
-  </si>
-  <si>
-    <t>4595980</t>
-  </si>
-  <si>
-    <t>DEAKIN</t>
-  </si>
-  <si>
-    <t>717091475</t>
-  </si>
-  <si>
-    <t>4595992</t>
-  </si>
-  <si>
-    <t>CANBERRA IMAGING GROUP</t>
-  </si>
-  <si>
-    <t>DEAKIN WEST</t>
-  </si>
-  <si>
-    <t>133826909</t>
-  </si>
-  <si>
-    <t>REDCLIFFE/CABOOLTURE HSD</t>
-  </si>
-  <si>
-    <t>4595829</t>
-  </si>
-  <si>
-    <t>REDCLIFFE</t>
-  </si>
-  <si>
-    <t>717089248</t>
-  </si>
-  <si>
-    <t>4595837</t>
-  </si>
-  <si>
-    <t>METRO NORTH HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>HERSTON</t>
-  </si>
-  <si>
-    <t>133826910</t>
-  </si>
-  <si>
-    <t>ROYAL BRISBANE &amp; WOMEN'S HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595831</t>
-  </si>
-  <si>
-    <t>717090819</t>
-  </si>
-  <si>
-    <t>133826911</t>
-  </si>
-  <si>
-    <t>PRINCE CHARLES HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595836</t>
-  </si>
-  <si>
-    <t>CHERMSIDE</t>
-  </si>
-  <si>
-    <t>717091323</t>
-  </si>
-  <si>
-    <t>133831375</t>
-  </si>
-  <si>
-    <t>CALVARY MATER HOSPITAL - WARATAH</t>
-  </si>
-  <si>
-    <t>4595323</t>
-  </si>
-  <si>
-    <t>WARATAH</t>
-  </si>
-  <si>
-    <t>717090574</t>
-  </si>
-  <si>
-    <t>4595328</t>
-  </si>
-  <si>
-    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
-  </si>
-  <si>
-    <t>NEWCASTLE</t>
-  </si>
-  <si>
-    <t>133832792</t>
-  </si>
-  <si>
-    <t>ROYAL NORTH SHORE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595335</t>
-  </si>
-  <si>
-    <t>ST LEONARDS</t>
-  </si>
-  <si>
-    <t>717095761</t>
-  </si>
-  <si>
-    <t>4595339</t>
-  </si>
-  <si>
-    <t>NORTHERN SYDNEY LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>133832793</t>
-  </si>
-  <si>
-    <t>PRINCESS ALEXANDRA HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596272</t>
-  </si>
-  <si>
-    <t>WOOLLOONGABBA</t>
-  </si>
-  <si>
-    <t>717095772</t>
-  </si>
-  <si>
-    <t>4595416</t>
-  </si>
-  <si>
-    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>EIGHT MILE PLAINS</t>
-  </si>
-  <si>
-    <t>133834755</t>
-  </si>
-  <si>
-    <t>THE QUEEN ELIZABETH HOSPITAL</t>
-  </si>
-  <si>
-    <t>86698188</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595512</t>
-  </si>
-  <si>
-    <t>WOODVILLE SOUTH</t>
-  </si>
-  <si>
-    <t>717093203</t>
-  </si>
-  <si>
-    <t>133834756</t>
-  </si>
-  <si>
-    <t>RIVERLAND GENERAL HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595436</t>
-  </si>
-  <si>
-    <t>BERRI</t>
-  </si>
-  <si>
-    <t>717093753</t>
-  </si>
-  <si>
-    <t>030130</t>
-  </si>
-  <si>
-    <t>133834757</t>
-  </si>
-  <si>
-    <t>717093778</t>
-  </si>
-  <si>
-    <t>132494</t>
-  </si>
-  <si>
-    <t>THE ROYAL MELBOURNE HOSPITAL</t>
-  </si>
-  <si>
-    <t>PARKVILLE</t>
-  </si>
-  <si>
-    <t>133836143</t>
-  </si>
-  <si>
-    <t>MERCY RADIOLOGY - MILFORD</t>
-  </si>
-  <si>
-    <t>64424279</t>
-  </si>
-  <si>
-    <t>Modular-Lab Eazy Cassette for Lu177</t>
-  </si>
-  <si>
-    <t>4595855</t>
-  </si>
-  <si>
-    <t>MILFORD</t>
-  </si>
-  <si>
-    <t>717065868</t>
-  </si>
-  <si>
-    <t>000141</t>
-  </si>
-  <si>
-    <t>4595859</t>
-  </si>
-  <si>
-    <t>MERCY RADIOLOGY</t>
-  </si>
-  <si>
-    <t>NEWMARKET</t>
-  </si>
-  <si>
-    <t>64437133</t>
-  </si>
-  <si>
-    <t>Dota(Tyr3)-Octreotate (GMP-Dotatate) 1mg</t>
-  </si>
-  <si>
-    <t>64439276</t>
-  </si>
-  <si>
-    <t>Reagent Kit -90Y and 177Lu Peptides</t>
-  </si>
-  <si>
-    <t>133836787</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - THE WESLEY</t>
-  </si>
-  <si>
-    <t>4595894</t>
-  </si>
-  <si>
-    <t>AUCHENFLOWER</t>
-  </si>
-  <si>
-    <t>717092222</t>
-  </si>
-  <si>
-    <t>4595887</t>
-  </si>
-  <si>
-    <t>86566621</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
+    <t>82212737</t>
+  </si>
+  <si>
+    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
+  </si>
+  <si>
+    <t>133849341</t>
+  </si>
+  <si>
+    <t>LAKE IMAGING - GEELONG</t>
+  </si>
+  <si>
+    <t>86594218</t>
+  </si>
+  <si>
+    <t>SOLARIS,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4596034</t>
+  </si>
+  <si>
+    <t>717102282</t>
+  </si>
+  <si>
+    <t>4595969</t>
+  </si>
+  <si>
+    <t>LAKE IMAGING PTY LTD</t>
+  </si>
+  <si>
+    <t>133849342</t>
+  </si>
+  <si>
+    <t>SOUTH EAST RADIOLOGY - TAHMOOR</t>
+  </si>
+  <si>
+    <t>4595476</t>
+  </si>
+  <si>
+    <t>TAHMOOR</t>
+  </si>
+  <si>
+    <t>717103340</t>
+  </si>
+  <si>
+    <t>4595482</t>
+  </si>
+  <si>
+    <t>SOUTH EAST RADIOLOGY PTY LTD</t>
+  </si>
+  <si>
+    <t>NOWRA</t>
+  </si>
+  <si>
+    <t>87238504</t>
+  </si>
+  <si>
+    <t>TUBE,EXT,SINGLE,WLD1</t>
+  </si>
+  <si>
+    <t>87235971</t>
+  </si>
+  <si>
+    <t>TUBE,EXT,DUAL,WLD1</t>
+  </si>
+  <si>
+    <t>133848755</t>
   </si>
   <si>
     <t>64424260</t>
@@ -733,457 +688,88 @@
     <t>LabEAZY Cassette- 68Ga PSMA Peptides</t>
   </si>
   <si>
-    <t>64425232</t>
-  </si>
-  <si>
-    <t>Reagent Set 68Ga-labeled peptides</t>
-  </si>
-  <si>
-    <t>133837089</t>
-  </si>
-  <si>
-    <t>ROYAL DARWIN HOSPITAL</t>
-  </si>
-  <si>
-    <t>87548082</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
-  </si>
-  <si>
-    <t>4595091</t>
-  </si>
-  <si>
-    <t>TIWI</t>
-  </si>
-  <si>
-    <t>717060919</t>
-  </si>
-  <si>
-    <t>060130</t>
-  </si>
-  <si>
-    <t>4595080</t>
-  </si>
-  <si>
-    <t>DEPARTMENT OF HEALTH NT</t>
-  </si>
-  <si>
-    <t>CASUARINA</t>
-  </si>
-  <si>
-    <t>87548783</t>
-  </si>
-  <si>
-    <t>ASSY,DAY SET,CENTARGO,ROW</t>
-  </si>
-  <si>
-    <t>133837275</t>
-  </si>
-  <si>
-    <t>GOULBURN HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595495</t>
-  </si>
-  <si>
-    <t>GOULBURN</t>
-  </si>
-  <si>
-    <t>717093204</t>
-  </si>
-  <si>
-    <t>4595498</t>
-  </si>
-  <si>
-    <t>SOUTHERN NSW LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>133837276</t>
-  </si>
-  <si>
-    <t>JONES RADIOLOGY - CALVARY ADELAIDE</t>
-  </si>
-  <si>
-    <t>4595385</t>
-  </si>
-  <si>
-    <t>717094982</t>
-  </si>
-  <si>
-    <t>133837722</t>
-  </si>
-  <si>
-    <t>C/O SUPPLY DEPT GF -MED IMAG</t>
-  </si>
-  <si>
-    <t>924048</t>
-  </si>
-  <si>
-    <t>MEADOWBROOK</t>
-  </si>
-  <si>
-    <t>717089083</t>
-  </si>
-  <si>
-    <t>133837723</t>
-  </si>
-  <si>
-    <t>717095993</t>
-  </si>
-  <si>
-    <t>133837725</t>
-  </si>
-  <si>
-    <t>THE CANBERRA HOSPITAL</t>
-  </si>
-  <si>
-    <t>86594218</t>
-  </si>
-  <si>
-    <t>SOLARIS,KIT,SYR,MRI,65/115ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595653</t>
-  </si>
-  <si>
-    <t>GARRAN</t>
-  </si>
-  <si>
-    <t>717067249</t>
-  </si>
-  <si>
-    <t>4595647</t>
-  </si>
-  <si>
-    <t>ACT HEALTH SUPPLY SERVICES</t>
-  </si>
-  <si>
-    <t>MITCHELL</t>
-  </si>
-  <si>
-    <t>133839188</t>
-  </si>
-  <si>
-    <t>QSCAN GUNGAHLIN</t>
-  </si>
-  <si>
-    <t>82212737</t>
-  </si>
-  <si>
-    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
-  </si>
-  <si>
-    <t>4595740</t>
-  </si>
-  <si>
-    <t>GUNGAHLIN</t>
-  </si>
-  <si>
-    <t>717087502</t>
-  </si>
-  <si>
-    <t>4595747</t>
-  </si>
-  <si>
-    <t>UNIVERSAL MEDICAL IMAGING</t>
-  </si>
-  <si>
-    <t>CLAYFIELD</t>
-  </si>
-  <si>
-    <t>133840058</t>
-  </si>
-  <si>
-    <t>717092353</t>
-  </si>
-  <si>
-    <t>133840060</t>
-  </si>
-  <si>
-    <t>MANNING BASE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595325</t>
-  </si>
-  <si>
-    <t>TAREE</t>
-  </si>
-  <si>
-    <t>717096522</t>
-  </si>
-  <si>
-    <t>133840202</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES</t>
-  </si>
-  <si>
-    <t>4595351</t>
-  </si>
-  <si>
-    <t>KOGARAH</t>
-  </si>
-  <si>
-    <t>717091507</t>
-  </si>
-  <si>
-    <t>4595461</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES (NSW)</t>
-  </si>
-  <si>
-    <t>133840204</t>
-  </si>
-  <si>
-    <t>NORTH COAST RADIOLOGY - RYDE</t>
-  </si>
-  <si>
-    <t>86698242</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595788</t>
-  </si>
-  <si>
-    <t>RYDE</t>
-  </si>
-  <si>
-    <t>717096912</t>
-  </si>
-  <si>
-    <t>4595791</t>
-  </si>
-  <si>
-    <t>NORTH COAST RADIOLOGY</t>
-  </si>
-  <si>
-    <t>RBH POST OFFICE</t>
-  </si>
-  <si>
-    <t>133840209</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY  - STRATHPINE</t>
-  </si>
-  <si>
-    <t>4595914</t>
-  </si>
-  <si>
-    <t>STRATHPINE</t>
-  </si>
-  <si>
-    <t>717096891</t>
-  </si>
-  <si>
-    <t>4595908</t>
-  </si>
-  <si>
-    <t>133840846</t>
-  </si>
-  <si>
-    <t>86617501</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,PAS,60",MC,WLD</t>
-  </si>
-  <si>
-    <t>4595338</t>
-  </si>
-  <si>
-    <t>717096562</t>
-  </si>
-  <si>
-    <t>60937964</t>
-  </si>
-  <si>
-    <t>LABEL,PRINTER,THERMAL,PSA,INTEGO</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>133841480</t>
-  </si>
-  <si>
-    <t>SASH CC PTY LIMITED</t>
-  </si>
-  <si>
-    <t>225488</t>
-  </si>
-  <si>
-    <t>Tuggerah</t>
-  </si>
-  <si>
-    <t>717090645</t>
-  </si>
-  <si>
-    <t>133841481</t>
-  </si>
-  <si>
-    <t>717096351</t>
-  </si>
-  <si>
-    <t>133841658</t>
-  </si>
-  <si>
-    <t>CABRINI HOSPITAL</t>
-  </si>
-  <si>
-    <t>86574470</t>
-  </si>
-  <si>
-    <t>ASSY,FEMALE-FEMALE LUER,MRI,MC,WLD</t>
-  </si>
-  <si>
-    <t>4596111</t>
-  </si>
-  <si>
-    <t>MALVERN</t>
-  </si>
-  <si>
-    <t>717094355</t>
-  </si>
-  <si>
-    <t>4596151</t>
-  </si>
-  <si>
-    <t>CABRINI HEALTH</t>
-  </si>
-  <si>
-    <t>133841659</t>
-  </si>
-  <si>
-    <t>86574160</t>
-  </si>
-  <si>
-    <t>ASSY,HAND CONTROLLER,AVANTA,MC,WLD</t>
-  </si>
-  <si>
-    <t>717095113</t>
-  </si>
-  <si>
-    <t>133841660</t>
-  </si>
-  <si>
-    <t>THE ALFRED HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595753</t>
-  </si>
-  <si>
-    <t>717095932</t>
-  </si>
-  <si>
-    <t>4596298</t>
-  </si>
-  <si>
-    <t>ALFRED HEALTH</t>
-  </si>
-  <si>
-    <t>PRAHRAN</t>
-  </si>
-  <si>
-    <t>133778037</t>
-  </si>
-  <si>
-    <t>JOONDALUP HOSPITAL PHARMACY</t>
-  </si>
-  <si>
-    <t>930456</t>
-  </si>
-  <si>
-    <t>Jooondalup</t>
-  </si>
-  <si>
-    <t>717078123</t>
-  </si>
-  <si>
     <t>010530</t>
   </si>
   <si>
-    <t>133817828</t>
-  </si>
-  <si>
-    <t>LAUNCESTON GENERAL HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595878</t>
-  </si>
-  <si>
-    <t>KINGS MEADOWS</t>
-  </si>
-  <si>
-    <t>717076465</t>
-  </si>
-  <si>
-    <t>3310765</t>
-  </si>
-  <si>
-    <t>TASMANIAN HEALTH SERVICE</t>
-  </si>
-  <si>
-    <t>HOBART</t>
-  </si>
-  <si>
-    <t>133801493</t>
-  </si>
-  <si>
-    <t>KING EDWARD MEMORIAL HOSPITAL</t>
-  </si>
-  <si>
-    <t>940979</t>
-  </si>
-  <si>
-    <t>Subiaco</t>
-  </si>
-  <si>
-    <t>717096421</t>
-  </si>
-  <si>
-    <t>EIWPK</t>
-  </si>
-  <si>
-    <t>133840378</t>
-  </si>
-  <si>
-    <t>88628624</t>
-  </si>
-  <si>
-    <t>SYS,INJ,PED,W/BATTERY,CENTARGO</t>
-  </si>
-  <si>
-    <t>716560782</t>
+    <t>89092302</t>
+  </si>
+  <si>
+    <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
+  </si>
+  <si>
+    <t>64430678</t>
+  </si>
+  <si>
+    <t>Water, ACS Ultrapur 1L</t>
+  </si>
+  <si>
+    <t>64439489</t>
+  </si>
+  <si>
+    <t>0.1 Hydrochloric Acid (ultra pure)</t>
+  </si>
+  <si>
+    <t>SPEC</t>
+  </si>
+  <si>
+    <t>133849010</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY HORNSBY</t>
+  </si>
+  <si>
+    <t>84200085</t>
+  </si>
+  <si>
+    <t>SYSTEM,INJECTOR,MRXPERION</t>
+  </si>
+  <si>
+    <t>1040647</t>
+  </si>
+  <si>
+    <t>HORNSBY</t>
+  </si>
+  <si>
+    <t>717092828</t>
   </si>
   <si>
     <t>EHGHA</t>
   </si>
   <si>
-    <t>88450191</t>
-  </si>
-  <si>
-    <t>ASSY, FINAL, CRU, CENTARGO, 3L2, WS3Z</t>
-  </si>
-  <si>
-    <t>86383195</t>
-  </si>
-  <si>
-    <t>Centargo Battery Pack A &amp; B Set</t>
-  </si>
-  <si>
-    <t>86904926</t>
-  </si>
-  <si>
-    <t>Centargo warranty pack</t>
-  </si>
-  <si>
-    <t>86342812</t>
-  </si>
-  <si>
-    <t>MANUAL, OPERATIONS, ENGLISH, CENTARGO</t>
+    <t>84680761</t>
+  </si>
+  <si>
+    <t>KIT,PANEL,PENETRATION,MRXP</t>
+  </si>
+  <si>
+    <t>85957449</t>
+  </si>
+  <si>
+    <t>ASSY,FINAL,CRU,MRXP,WS3T</t>
+  </si>
+  <si>
+    <t>84290149</t>
+  </si>
+  <si>
+    <t>Assy, IV Pole, MRXperion</t>
+  </si>
+  <si>
+    <t>84029459</t>
+  </si>
+  <si>
+    <t>LABEL,WARN,AIR,MULTI-LINGUAL,MRXPERION</t>
+  </si>
+  <si>
+    <t>84284114</t>
+  </si>
+  <si>
+    <t>MANUAL,OPERATORS,ENGLISH,MRXPERION</t>
+  </si>
+  <si>
+    <t>84284173</t>
+  </si>
+  <si>
+    <t>Installation Manual</t>
   </si>
   <si>
     <t>86621495</t>
@@ -1192,6 +778,102 @@
     <t>POWER CORD- AUSTRALIA</t>
   </si>
   <si>
+    <t>85879170</t>
+  </si>
+  <si>
+    <t>ASSY,GREEN ADAPTER,MRXP</t>
+  </si>
+  <si>
+    <t>86697505</t>
+  </si>
+  <si>
+    <t>KIT,LANGUAGE,MRXP PFA,EN</t>
+  </si>
+  <si>
+    <t>133840365</t>
+  </si>
+  <si>
+    <t>CANON MEDICAL SYSTEMS ANZ PTY LTD</t>
+  </si>
+  <si>
+    <t>86410095</t>
+  </si>
+  <si>
+    <t>MARK 7 ARTERION,PKGD,BASE SYSTEM,4th MC</t>
+  </si>
+  <si>
+    <t>4595547</t>
+  </si>
+  <si>
+    <t>Campbellfield</t>
+  </si>
+  <si>
+    <t>717047046</t>
+  </si>
+  <si>
+    <t>000030</t>
+  </si>
+  <si>
+    <t>4595548</t>
+  </si>
+  <si>
+    <t>NORWEST</t>
+  </si>
+  <si>
+    <t>60727099</t>
+  </si>
+  <si>
+    <t>ASSY,TABLE BRACKET,KMA 350,MC</t>
+  </si>
+  <si>
+    <t>84220884</t>
+  </si>
+  <si>
+    <t>DISPLAY,STAND,KIT,MC</t>
+  </si>
+  <si>
+    <t>87978451</t>
+  </si>
+  <si>
+    <t>ASSY,HEAT MAINTAINER,SYR,ARTER,LR,UDI</t>
+  </si>
+  <si>
+    <t>59893827</t>
+  </si>
+  <si>
+    <t>ASSY,CABLE,DCU,100FT</t>
+  </si>
+  <si>
+    <t>81538530</t>
+  </si>
+  <si>
+    <t>ASSY,HEAD EXT CABLE,90 FT,MARK 7</t>
+  </si>
+  <si>
+    <t>86407590</t>
+  </si>
+  <si>
+    <t>MAN,OP,MARK 7 ARTERION,EN,4ED,MC</t>
+  </si>
+  <si>
+    <t>87978486</t>
+  </si>
+  <si>
+    <t>ASSY,CBL,HANDSWITCH,LR,UDI</t>
+  </si>
+  <si>
+    <t>88310535</t>
+  </si>
+  <si>
+    <t>KIT, HAND SWITCH MOUNT,MC</t>
+  </si>
+  <si>
+    <t>86014750</t>
+  </si>
+  <si>
+    <t>ASSY,CBL,MKV+/MN,ISI OPTION,ROHS,100'</t>
+  </si>
+  <si>
     <t>P8SW</t>
   </si>
   <si>
@@ -1255,24 +937,6 @@
     <t>2172497900</t>
   </si>
   <si>
-    <t>133833734</t>
-  </si>
-  <si>
-    <t>Storage King</t>
-  </si>
-  <si>
-    <t>87396908</t>
-  </si>
-  <si>
-    <t>Inlet Air Detector Assembly</t>
-  </si>
-  <si>
-    <t>Burwood</t>
-  </si>
-  <si>
-    <t>2172551330</t>
-  </si>
-  <si>
     <t>133837190</t>
   </si>
   <si>
@@ -1283,39 +947,6 @@
   </si>
   <si>
     <t>2172546379</t>
-  </si>
-  <si>
-    <t>133837252</t>
-  </si>
-  <si>
-    <t>Amit Patel (Unit 036)</t>
-  </si>
-  <si>
-    <t>89958407</t>
-  </si>
-  <si>
-    <t>Bella Vista</t>
-  </si>
-  <si>
-    <t>2172551339</t>
-  </si>
-  <si>
-    <t>133830853</t>
-  </si>
-  <si>
-    <t>Allan Gutierrez (Unit B001)</t>
-  </si>
-  <si>
-    <t>87980030</t>
-  </si>
-  <si>
-    <t>MAINTAIN,SYR HEAT,STELL,FLS2,LR</t>
-  </si>
-  <si>
-    <t>Brendale</t>
-  </si>
-  <si>
-    <t>2172551331</t>
   </si>
   <si>
     <t>133837151</t>
@@ -1513,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X92"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1523,16 +1154,16 @@
   <cols>
     <col min="1" max="1" bestFit="1" width="18" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="11" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="37" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="36" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="14" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
     <col min="6" max="6" bestFit="1" width="42" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="12" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="13" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="6" customWidth="1"/>
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="6" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="15" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="20" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="18" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15" customWidth="1"/>
     <col min="14" max="14" bestFit="1" width="6" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="21" customWidth="1"/>
@@ -1542,83 +1173,83 @@
     <col min="19" max="19" bestFit="1" width="8" customWidth="1"/>
     <col min="20" max="20" bestFit="1" width="15" customWidth="1"/>
     <col min="21" max="21" bestFit="1" width="37" customWidth="1"/>
-    <col min="22" max="22" bestFit="1" width="20" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="19" customWidth="1"/>
     <col min="23" max="23" bestFit="1" width="12" customWidth="1"/>
     <col min="24" max="24" bestFit="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>442</v>
+        <v>319</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>443</v>
+        <v>320</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>444</v>
+        <v>321</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>445</v>
+        <v>322</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>446</v>
+        <v>323</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>447</v>
+        <v>324</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>448</v>
+        <v>325</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>449</v>
+        <v>326</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>450</v>
+        <v>327</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>451</v>
+        <v>328</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>452</v>
+        <v>329</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>453</v>
+        <v>330</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>454</v>
+        <v>331</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>455</v>
+        <v>332</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>456</v>
+        <v>333</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>457</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>458</v>
+        <v>335</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>459</v>
+        <v>336</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>460</v>
+        <v>337</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>461</v>
+        <v>338</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>463</v>
+        <v>340</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>464</v>
+        <v>341</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>465</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1780,13 +1411,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -1801,10 +1432,10 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
         <v>9</v>
@@ -1813,28 +1444,28 @@
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="2">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="R4" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="S4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W4" t="s">
         <v>14</v>
@@ -1848,25 +1479,25 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1875,10 +1506,10 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
@@ -1887,28 +1518,28 @@
         <v>10</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="R5" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="S5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
         <v>14</v>
@@ -1928,13 +1559,13 @@
         <v>37</v>
       </c>
       <c r="D6" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3">
         <v>6</v>
@@ -1949,10 +1580,10 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
         <v>9</v>
@@ -1961,28 +1592,28 @@
         <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="R6" s="2">
-        <v>45413</v>
+        <v>45411</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s">
         <v>14</v>
@@ -1996,25 +1627,25 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -2023,10 +1654,10 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
@@ -2035,28 +1666,28 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R7" s="2">
         <v>45411</v>
       </c>
       <c r="S7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="T7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" t="s">
         <v>46</v>
-      </c>
-      <c r="U7" t="s">
-        <v>49</v>
-      </c>
-      <c r="V7" t="s">
-        <v>50</v>
       </c>
       <c r="W7" t="s">
         <v>14</v>
@@ -2076,7 +1707,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E8" t="s">
         <v>53</v>
@@ -2085,10 +1716,10 @@
         <v>54</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -2115,13 +1746,13 @@
         <v>20</v>
       </c>
       <c r="Q8" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R8" s="2">
         <v>45412</v>
       </c>
       <c r="S8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T8" t="s">
         <v>58</v>
@@ -2130,7 +1761,7 @@
         <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
         <v>14</v>
@@ -2144,25 +1775,25 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="2">
-        <v>45408</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
       <c r="G9" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H9" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -2171,10 +1802,10 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -2183,28 +1814,28 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P9" t="s">
         <v>20</v>
       </c>
       <c r="Q9" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R9" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S9" t="s">
         <v>21</v>
       </c>
       <c r="T9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="W9" t="s">
         <v>14</v>
@@ -2218,25 +1849,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G10" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H10" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -2245,10 +1876,10 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -2257,28 +1888,28 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R10" s="2">
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="S10" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="U10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="V10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="W10" t="s">
         <v>14</v>
@@ -2292,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G11" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11" s="3">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -2319,10 +1950,10 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -2331,28 +1962,28 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R11" s="2">
         <v>45412</v>
       </c>
       <c r="S11" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s">
         <v>14</v>
@@ -2366,25 +1997,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -2393,10 +2024,10 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -2405,28 +2036,28 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s">
         <v>20</v>
       </c>
       <c r="Q12" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R12" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S12" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="U12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="W12" t="s">
         <v>14</v>
@@ -2440,37 +2071,37 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="2">
-        <v>45408</v>
-      </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="3">
-        <v>8</v>
-      </c>
-      <c r="H13" s="3">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>89</v>
-      </c>
-      <c r="L13" t="s">
-        <v>90</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -2479,28 +2110,28 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P13" t="s">
         <v>20</v>
       </c>
       <c r="Q13" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R13" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="S13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="T13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="V13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="W13" t="s">
         <v>14</v>
@@ -2514,25 +2145,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G14" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H14" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2541,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -2553,28 +2184,28 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P14" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="2">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="R14" s="2">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="S14" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="T14" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="U14" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="V14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="W14" t="s">
         <v>14</v>
@@ -2588,25 +2219,25 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="G15" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2615,10 +2246,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -2627,28 +2258,28 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="Q15" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="R15" s="2">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="S15" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="T15" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="U15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V15" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -2662,25 +2293,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2689,10 +2320,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L16" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2701,28 +2332,28 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P16" t="s">
         <v>20</v>
       </c>
       <c r="Q16" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="R16" s="2">
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="S16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="T16" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="U16" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="V16" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2736,25 +2367,25 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H17" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2763,10 +2394,10 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2775,25 +2406,25 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P17" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="R17" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S17" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="T17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="U17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="V17" t="s">
         <v>117</v>
@@ -2810,25 +2441,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H18" s="3">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2837,10 +2468,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2849,25 +2480,25 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P18" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="R18" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S18" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="T18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="U18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="V18" t="s">
         <v>117</v>
@@ -2890,7 +2521,7 @@
         <v>121</v>
       </c>
       <c r="D19" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="E19" t="s">
         <v>122</v>
@@ -2899,10 +2530,10 @@
         <v>123</v>
       </c>
       <c r="G19" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2929,22 +2560,22 @@
         <v>20</v>
       </c>
       <c r="Q19" s="2">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="R19" s="2">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="S19" t="s">
+        <v>13</v>
+      </c>
+      <c r="T19" t="s">
         <v>127</v>
       </c>
-      <c r="T19" t="s">
-        <v>124</v>
-      </c>
       <c r="U19" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="V19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2958,25 +2589,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D20" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="G20" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2985,10 +2616,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2997,28 +2628,28 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P20" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R20" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="S20" t="s">
         <v>13</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -3032,25 +2663,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E21" t="s">
         <v>133</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -3059,10 +2690,10 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="L21" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -3071,28 +2702,28 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P21" t="s">
         <v>20</v>
       </c>
       <c r="Q21" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R21" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S21" t="s">
         <v>21</v>
       </c>
       <c r="T21" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="U21" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="V21" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -3106,25 +2737,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D22" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H22" s="3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -3133,10 +2764,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L22" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -3145,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="P22" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R22" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S22" t="s">
         <v>21</v>
       </c>
       <c r="T22" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="U22" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="V22" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -3180,25 +2811,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="G23" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H23" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -3207,10 +2838,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -3219,28 +2850,28 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P23" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R23" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S23" t="s">
         <v>21</v>
       </c>
       <c r="T23" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="U23" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="V23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -3254,25 +2885,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D24" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="G24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -3281,10 +2912,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -3293,28 +2924,28 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P24" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R24" s="2">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="S24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T24" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="U24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="V24" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -3328,25 +2959,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D25" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -3355,10 +2986,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L25" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -3373,22 +3004,22 @@
         <v>20</v>
       </c>
       <c r="Q25" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R25" s="2">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="S25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V25" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -3402,25 +3033,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D26" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="G26" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H26" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3429,10 +3060,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -3441,28 +3072,28 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P26" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R26" s="2">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="S26" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V26" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -3476,37 +3107,37 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
         <v>165</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="3">
-        <v>6</v>
-      </c>
-      <c r="H27" s="3">
-        <v>6</v>
-      </c>
-      <c r="I27" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>167</v>
-      </c>
-      <c r="L27" t="s">
-        <v>164</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -3521,22 +3152,22 @@
         <v>20</v>
       </c>
       <c r="Q27" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R27" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S27" t="s">
         <v>21</v>
       </c>
       <c r="T27" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="U27" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="V27" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -3550,25 +3181,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D28" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="G28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28" s="3">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3577,10 +3208,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -3589,28 +3220,28 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="P28" t="s">
         <v>20</v>
       </c>
       <c r="Q28" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R28" s="2">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="S28" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T28" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="U28" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="V28" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -3624,25 +3255,25 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D29" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="G29" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3651,10 +3282,10 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -3663,28 +3294,28 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P29" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R29" s="2">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="S29" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T29" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="U29" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="V29" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3698,25 +3329,25 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D30" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="G30" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H30" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3725,10 +3356,10 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3737,28 +3368,28 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P30" t="s">
         <v>20</v>
       </c>
       <c r="Q30" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R30" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S30" t="s">
         <v>21</v>
       </c>
       <c r="T30" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="U30" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="V30" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3772,19 +3403,19 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D31" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G31" s="3">
         <v>10</v>
@@ -3799,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3811,28 +3442,28 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="P31" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R31" s="2">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="S31" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T31" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="U31" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="V31" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3846,25 +3477,25 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="G32" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3873,10 +3504,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L32" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3885,28 +3516,28 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="P32" t="s">
         <v>20</v>
       </c>
       <c r="Q32" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R32" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S32" t="s">
         <v>21</v>
       </c>
       <c r="T32" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="U32" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="V32" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3920,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="D33" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="G33" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H33" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3947,10 +3578,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3959,28 +3590,28 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="P33" t="s">
         <v>20</v>
       </c>
       <c r="Q33" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R33" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S33" t="s">
         <v>21</v>
       </c>
       <c r="T33" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="U33" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="V33" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3994,25 +3625,25 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="F34" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="G34" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H34" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -4021,10 +3652,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L34" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -4033,28 +3664,28 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="P34" t="s">
         <v>20</v>
       </c>
       <c r="Q34" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R34" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S34" t="s">
         <v>21</v>
       </c>
       <c r="T34" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="U34" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V34" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -4068,25 +3699,25 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D35" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="G35" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -4095,10 +3726,10 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="L35" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -4107,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="P35" t="s">
         <v>20</v>
       </c>
       <c r="Q35" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R35" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S35" t="s">
         <v>21</v>
       </c>
       <c r="T35" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="U35" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="V35" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -4142,26 +3773,26 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D36" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F36" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3">
         <v>200</v>
       </c>
-      <c r="G36" s="3">
-        <v>2</v>
-      </c>
-      <c r="H36" s="3">
-        <v>40</v>
-      </c>
       <c r="I36" t="s">
         <v>5</v>
       </c>
@@ -4169,10 +3800,10 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -4181,28 +3812,28 @@
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="P36" t="s">
         <v>20</v>
       </c>
       <c r="Q36" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R36" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="S36" t="s">
         <v>13</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="V36" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -4216,25 +3847,25 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D37" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E37" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="F37" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="3">
         <v>4</v>
       </c>
-      <c r="G37" s="3">
-        <v>12</v>
-      </c>
       <c r="H37" s="3">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -4243,10 +3874,10 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -4255,28 +3886,28 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P37" t="s">
         <v>20</v>
       </c>
       <c r="Q37" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R37" s="2">
         <v>45414</v>
       </c>
       <c r="S37" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="V37" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -4293,22 +3924,22 @@
         <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="D38" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="G38" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H38" s="3">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -4317,10 +3948,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="L38" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -4329,28 +3960,28 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P38" t="s">
         <v>20</v>
       </c>
       <c r="Q38" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R38" s="2">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="S38" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T38" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="U38" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="V38" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -4364,25 +3995,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C39" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="E39" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F39" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G39" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H39" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -4391,10 +4022,10 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="L39" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -4403,28 +4034,28 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="P39" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q39" s="2">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="R39" s="2">
-        <v>45411</v>
+        <v>45419</v>
       </c>
       <c r="S39" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="T39" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="U39" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="V39" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
@@ -4438,13 +4069,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="E40" t="s">
         <v>226</v>
@@ -4453,10 +4084,10 @@
         <v>227</v>
       </c>
       <c r="G40" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H40" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4465,10 +4096,10 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="L40" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="M40" t="s">
         <v>9</v>
@@ -4477,28 +4108,28 @@
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q40" s="2">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="R40" s="2">
-        <v>45411</v>
+        <v>45419</v>
       </c>
       <c r="S40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="T40" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="U40" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="V40" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -4512,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="D41" s="2">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="E41" t="s">
         <v>228</v>
@@ -4527,10 +4158,10 @@
         <v>229</v>
       </c>
       <c r="G41" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H41" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4539,10 +4170,10 @@
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="L41" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="M41" t="s">
         <v>9</v>
@@ -4551,28 +4182,28 @@
         <v>10</v>
       </c>
       <c r="O41" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q41" s="2">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="R41" s="2">
-        <v>45411</v>
+        <v>45419</v>
       </c>
       <c r="S41" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="T41" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="U41" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="V41" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -4586,37 +4217,37 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45418</v>
+      </c>
+      <c r="E42" t="s">
         <v>230</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F42" t="s">
         <v>231</v>
       </c>
-      <c r="D42" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" t="s">
-        <v>105</v>
-      </c>
       <c r="G42" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="3">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="K42" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="L42" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="M42" t="s">
         <v>9</v>
@@ -4625,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="P42" t="s">
         <v>20</v>
       </c>
       <c r="Q42" s="2">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="R42" s="2">
-        <v>45412</v>
+        <v>45419</v>
       </c>
       <c r="S42" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="T42" t="s">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="U42" t="s">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="V42" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -4660,37 +4291,37 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D43" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="E43" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" t="s">
         <v>236</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" t="s">
         <v>237</v>
       </c>
-      <c r="G43" s="3">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
-        <v>80</v>
-      </c>
-      <c r="I43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" t="s">
-        <v>232</v>
-      </c>
       <c r="L43" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M43" t="s">
         <v>9</v>
@@ -4699,28 +4330,28 @@
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P43" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q43" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="R43" s="2">
-        <v>45412</v>
+        <v>45441</v>
       </c>
       <c r="S43" t="s">
         <v>21</v>
       </c>
       <c r="T43" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U43" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="V43" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="W43" t="s">
         <v>14</v>
@@ -4734,25 +4365,25 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D44" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="E44" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
       </c>
       <c r="H44" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4761,10 +4392,10 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L44" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M44" t="s">
         <v>9</v>
@@ -4773,28 +4404,28 @@
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P44" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q44" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="R44" s="2">
-        <v>45412</v>
+        <v>45441</v>
       </c>
       <c r="S44" t="s">
         <v>21</v>
       </c>
       <c r="T44" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U44" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="V44" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="W44" t="s">
         <v>14</v>
@@ -4808,25 +4439,25 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D45" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F45" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
       </c>
       <c r="H45" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
@@ -4835,10 +4466,10 @@
         <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M45" t="s">
         <v>9</v>
@@ -4847,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="O45" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P45" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q45" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="R45" s="2">
-        <v>45412</v>
+        <v>45441</v>
       </c>
       <c r="S45" t="s">
         <v>21</v>
       </c>
       <c r="T45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U45" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="V45" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="W45" t="s">
         <v>14</v>
@@ -4882,25 +4513,25 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D46" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="E46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G46" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H46" s="3">
-        <v>750</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4909,10 +4540,10 @@
         <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="L46" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M46" t="s">
         <v>9</v>
@@ -4921,28 +4552,28 @@
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="P46" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q46" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="R46" s="2">
-        <v>45419</v>
+        <v>45441</v>
       </c>
       <c r="S46" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="T46" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="U46" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="V46" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="W46" t="s">
         <v>14</v>
@@ -4956,25 +4587,25 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D47" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F47" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G47" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H47" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -4983,10 +4614,10 @@
         <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="L47" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M47" t="s">
         <v>9</v>
@@ -4995,28 +4626,28 @@
         <v>10</v>
       </c>
       <c r="O47" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="P47" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q47" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="R47" s="2">
-        <v>45419</v>
+        <v>45441</v>
       </c>
       <c r="S47" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="T47" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="U47" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="V47" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="W47" t="s">
         <v>14</v>
@@ -5030,25 +4661,25 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C48" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D48" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="G48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -5057,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="L48" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="M48" t="s">
         <v>9</v>
@@ -5069,28 +4700,28 @@
         <v>10</v>
       </c>
       <c r="O48" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="P48" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q48" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="R48" s="2">
-        <v>45413</v>
+        <v>45441</v>
       </c>
       <c r="S48" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T48" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="U48" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="V48" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="W48" t="s">
         <v>14</v>
@@ -5104,25 +4735,25 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D49" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="G49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
@@ -5131,10 +4762,10 @@
         <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="L49" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="M49" t="s">
         <v>9</v>
@@ -5143,28 +4774,28 @@
         <v>10</v>
       </c>
       <c r="O49" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="P49" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q49" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="R49" s="2">
-        <v>45413</v>
+        <v>45441</v>
       </c>
       <c r="S49" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T49" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="U49" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="V49" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="W49" t="s">
         <v>14</v>
@@ -5178,25 +4809,25 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="D50" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="E50" t="s">
+        <v>253</v>
+      </c>
+      <c r="F50" t="s">
+        <v>254</v>
+      </c>
+      <c r="G50" s="3">
         <v>3</v>
       </c>
-      <c r="F50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="3">
-        <v>60</v>
-      </c>
       <c r="H50" s="3">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -5205,10 +4836,10 @@
         <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="L50" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="M50" t="s">
         <v>9</v>
@@ -5217,28 +4848,28 @@
         <v>10</v>
       </c>
       <c r="O50" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="P50" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q50" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="R50" s="2">
-        <v>45413</v>
+        <v>45441</v>
       </c>
       <c r="S50" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T50" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="U50" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="V50" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="W50" t="s">
         <v>14</v>
@@ -5252,25 +4883,25 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C51" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="D51" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>256</v>
       </c>
       <c r="G51" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H51" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
@@ -5279,10 +4910,10 @@
         <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="L51" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="M51" t="s">
         <v>9</v>
@@ -5291,28 +4922,28 @@
         <v>10</v>
       </c>
       <c r="O51" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="P51" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q51" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="R51" s="2">
-        <v>45413</v>
+        <v>45441</v>
       </c>
       <c r="S51" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T51" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="U51" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="V51" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="W51" t="s">
         <v>14</v>
@@ -5326,25 +4957,25 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="D52" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="G52" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H52" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -5353,10 +4984,10 @@
         <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="L52" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="M52" t="s">
         <v>9</v>
@@ -5365,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="P52" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q52" s="2">
-        <v>45411</v>
+        <v>45440</v>
       </c>
       <c r="R52" s="2">
-        <v>45412</v>
+        <v>45441</v>
       </c>
       <c r="S52" t="s">
         <v>21</v>
       </c>
       <c r="T52" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="U52" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="V52" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="W52" t="s">
         <v>14</v>
@@ -5400,25 +5031,25 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C53" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D53" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="G53" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -5427,10 +5058,10 @@
         <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L53" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M53" t="s">
         <v>9</v>
@@ -5439,28 +5070,28 @@
         <v>10</v>
       </c>
       <c r="O53" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P53" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q53" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="R53" s="2">
-        <v>45412</v>
+        <v>45496</v>
       </c>
       <c r="S53" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="T53" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="U53" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="V53" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="W53" t="s">
         <v>14</v>
@@ -5474,25 +5105,25 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C54" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D54" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="E54" t="s">
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="F54" t="s">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="G54" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H54" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5501,10 +5132,10 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L54" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M54" t="s">
         <v>9</v>
@@ -5513,28 +5144,28 @@
         <v>10</v>
       </c>
       <c r="O54" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P54" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q54" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="R54" s="2">
-        <v>45412</v>
+        <v>45496</v>
       </c>
       <c r="S54" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="T54" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="U54" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="V54" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="W54" t="s">
         <v>14</v>
@@ -5548,25 +5179,25 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C55" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D55" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="G55" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H55" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5575,10 +5206,10 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L55" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M55" t="s">
         <v>9</v>
@@ -5587,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="O55" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P55" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q55" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="R55" s="2">
-        <v>45412</v>
+        <v>45496</v>
       </c>
       <c r="S55" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="T55" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="U55" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="V55" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="W55" t="s">
         <v>14</v>
@@ -5622,25 +5253,25 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C56" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D56" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="E56" t="s">
-        <v>62</v>
+        <v>273</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>274</v>
       </c>
       <c r="G56" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H56" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I56" t="s">
         <v>5</v>
@@ -5649,10 +5280,10 @@
         <v>6</v>
       </c>
       <c r="K56" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L56" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M56" t="s">
         <v>9</v>
@@ -5661,28 +5292,28 @@
         <v>10</v>
       </c>
       <c r="O56" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P56" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q56" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="R56" s="2">
-        <v>45412</v>
+        <v>45496</v>
       </c>
       <c r="S56" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="T56" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="U56" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="V56" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="W56" t="s">
         <v>14</v>
@@ -5696,25 +5327,25 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C57" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D57" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>275</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
+        <v>276</v>
       </c>
       <c r="G57" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H57" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
@@ -5723,10 +5354,10 @@
         <v>6</v>
       </c>
       <c r="K57" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L57" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M57" t="s">
         <v>9</v>
@@ -5735,28 +5366,28 @@
         <v>10</v>
       </c>
       <c r="O57" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P57" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q57" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="R57" s="2">
-        <v>45412</v>
+        <v>45496</v>
       </c>
       <c r="S57" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="T57" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="U57" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="V57" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="W57" t="s">
         <v>14</v>
@@ -5770,25 +5401,25 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C58" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D58" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="G58" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H58" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
@@ -5797,10 +5428,10 @@
         <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L58" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M58" t="s">
         <v>9</v>
@@ -5809,28 +5440,28 @@
         <v>10</v>
       </c>
       <c r="O58" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P58" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q58" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="R58" s="2">
-        <v>45412</v>
+        <v>45496</v>
       </c>
       <c r="S58" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="T58" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="U58" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="V58" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="W58" t="s">
         <v>14</v>
@@ -5844,25 +5475,25 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C59" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D59" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="E59" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F59" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
@@ -5871,10 +5502,10 @@
         <v>6</v>
       </c>
       <c r="K59" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="L59" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="M59" t="s">
         <v>9</v>
@@ -5883,28 +5514,28 @@
         <v>10</v>
       </c>
       <c r="O59" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="P59" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q59" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="R59" s="2">
-        <v>45412</v>
+        <v>45496</v>
       </c>
       <c r="S59" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="T59" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="U59" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="V59" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="W59" t="s">
         <v>14</v>
@@ -5918,19 +5549,19 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C60" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D60" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="E60" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="F60" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="G60" s="3">
         <v>2</v>
@@ -5945,10 +5576,10 @@
         <v>6</v>
       </c>
       <c r="K60" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="L60" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="M60" t="s">
         <v>9</v>
@@ -5957,28 +5588,28 @@
         <v>10</v>
       </c>
       <c r="O60" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="P60" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q60" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="R60" s="2">
-        <v>45412</v>
+        <v>45496</v>
       </c>
       <c r="S60" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="T60" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="U60" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="V60" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="W60" t="s">
         <v>14</v>
@@ -5992,25 +5623,25 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="D61" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="G61" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H61" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
@@ -6019,10 +5650,10 @@
         <v>6</v>
       </c>
       <c r="K61" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="L61" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="M61" t="s">
         <v>9</v>
@@ -6031,28 +5662,28 @@
         <v>10</v>
       </c>
       <c r="O61" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="P61" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q61" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="R61" s="2">
-        <v>45412</v>
+        <v>45496</v>
       </c>
       <c r="S61" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="T61" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="U61" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="V61" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="W61" t="s">
         <v>14</v>
@@ -6066,25 +5697,25 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D62" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="E62" t="s">
-        <v>92</v>
+        <v>283</v>
       </c>
       <c r="F62" t="s">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="G62" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H62" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -6093,10 +5724,10 @@
         <v>6</v>
       </c>
       <c r="K62" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="L62" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="M62" t="s">
         <v>9</v>
@@ -6105,28 +5736,28 @@
         <v>10</v>
       </c>
       <c r="O62" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="P62" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q62" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="R62" s="2">
-        <v>45413</v>
+        <v>45496</v>
       </c>
       <c r="S62" t="s">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="T62" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="U62" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="V62" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="W62" t="s">
         <v>14</v>
@@ -6140,25 +5771,25 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="C63" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="D63" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>285</v>
       </c>
       <c r="F63" t="s">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="G63" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H63" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
@@ -6167,10 +5798,10 @@
         <v>6</v>
       </c>
       <c r="K63" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="L63" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="M63" t="s">
         <v>9</v>
@@ -6179,28 +5810,28 @@
         <v>10</v>
       </c>
       <c r="O63" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="P63" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q63" s="2">
-        <v>45411</v>
+        <v>45496</v>
       </c>
       <c r="R63" s="2">
-        <v>45412</v>
+        <v>45496</v>
       </c>
       <c r="S63" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="T63" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="U63" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="V63" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="W63" t="s">
         <v>14</v>
@@ -6211,70 +5842,70 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="B64" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C64" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D64" s="2">
-        <v>45411</v>
+        <v>45308</v>
       </c>
       <c r="E64" t="s">
-        <v>62</v>
+        <v>290</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="G64" s="3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
       </c>
       <c r="J64" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="K64" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L64" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M64" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
       <c r="N64" t="s">
         <v>10</v>
       </c>
       <c r="O64" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P64" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="Q64" s="2">
-        <v>45411</v>
+        <v>45308</v>
       </c>
       <c r="R64" s="2">
-        <v>45412</v>
+        <v>45309</v>
       </c>
       <c r="S64" t="s">
         <v>21</v>
       </c>
       <c r="T64" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="U64" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="V64" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="W64" t="s">
         <v>14</v>
@@ -6285,70 +5916,70 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="B65" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C65" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D65" s="2">
-        <v>45411</v>
+        <v>45308</v>
       </c>
       <c r="E65" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="F65" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="G65" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65" s="3">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="K65" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="L65" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M65" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
       <c r="N65" t="s">
         <v>10</v>
       </c>
       <c r="O65" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P65" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="Q65" s="2">
-        <v>45411</v>
+        <v>45308</v>
       </c>
       <c r="R65" s="2">
-        <v>45412</v>
+        <v>45309</v>
       </c>
       <c r="S65" t="s">
         <v>21</v>
       </c>
       <c r="T65" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="U65" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="V65" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="W65" t="s">
         <v>14</v>
@@ -6359,70 +5990,70 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="B66" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C66" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D66" s="2">
-        <v>45411</v>
+        <v>45308</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="G66" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="K66" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="L66" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="M66" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
       <c r="N66" t="s">
         <v>10</v>
       </c>
       <c r="O66" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="P66" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="Q66" s="2">
-        <v>45411</v>
+        <v>45308</v>
       </c>
       <c r="R66" s="2">
-        <v>45412</v>
+        <v>45309</v>
       </c>
       <c r="S66" t="s">
         <v>21</v>
       </c>
       <c r="T66" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="U66" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="V66" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="W66" t="s">
         <v>14</v>
@@ -6433,49 +6064,49 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="B67" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>183</v>
+        <v>301</v>
       </c>
       <c r="D67" s="2">
         <v>45411</v>
       </c>
       <c r="E67" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F67" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G67" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H67" s="3">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="I67" t="s">
         <v>5</v>
       </c>
       <c r="J67" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="K67" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="L67" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="M67" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
       <c r="N67" t="s">
         <v>10</v>
       </c>
       <c r="O67" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P67" t="s">
         <v>20</v>
@@ -6490,13 +6121,13 @@
         <v>21</v>
       </c>
       <c r="T67" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="U67" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="V67" t="s">
-        <v>181</v>
+        <v>299</v>
       </c>
       <c r="W67" t="s">
         <v>14</v>
@@ -6507,40 +6138,40 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
       <c r="D68" s="2">
-        <v>45411</v>
+        <v>45468</v>
       </c>
       <c r="E68" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="F68" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
       </c>
       <c r="H68" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
         <v>5</v>
       </c>
       <c r="J68" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="K68" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L68" t="s">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="M68" t="s">
         <v>9</v>
@@ -6549,1809 +6180,33 @@
         <v>10</v>
       </c>
       <c r="O68" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="P68" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q68" s="2">
-        <v>45411</v>
+        <v>45468</v>
       </c>
       <c r="R68" s="2">
-        <v>45412</v>
+        <v>45468</v>
       </c>
       <c r="S68" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="T68" t="s">
-        <v>187</v>
+        <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="V68" t="s">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="W68" t="s">
         <v>14</v>
       </c>
       <c r="X68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>323</v>
-      </c>
-      <c r="C69" t="s">
-        <v>183</v>
-      </c>
-      <c r="D69" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E69" t="s">
-        <v>328</v>
-      </c>
-      <c r="F69" t="s">
-        <v>329</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="3">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>330</v>
-      </c>
-      <c r="J69" t="s">
-        <v>6</v>
-      </c>
-      <c r="K69" t="s">
-        <v>326</v>
-      </c>
-      <c r="L69" t="s">
-        <v>185</v>
-      </c>
-      <c r="M69" t="s">
-        <v>9</v>
-      </c>
-      <c r="N69" t="s">
-        <v>10</v>
-      </c>
-      <c r="O69" t="s">
-        <v>327</v>
-      </c>
-      <c r="P69" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>45411</v>
-      </c>
-      <c r="R69" s="2">
-        <v>45412</v>
-      </c>
-      <c r="S69" t="s">
-        <v>21</v>
-      </c>
-      <c r="T69" t="s">
-        <v>187</v>
-      </c>
-      <c r="U69" t="s">
-        <v>188</v>
-      </c>
-      <c r="V69" t="s">
-        <v>181</v>
-      </c>
-      <c r="W69" t="s">
-        <v>14</v>
-      </c>
-      <c r="X69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>331</v>
-      </c>
-      <c r="C70" t="s">
-        <v>332</v>
-      </c>
-      <c r="D70" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E70" t="s">
-        <v>118</v>
-      </c>
-      <c r="F70" t="s">
-        <v>119</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3">
-        <v>50</v>
-      </c>
-      <c r="I70" t="s">
-        <v>5</v>
-      </c>
-      <c r="J70" t="s">
-        <v>6</v>
-      </c>
-      <c r="K70" t="s">
-        <v>333</v>
-      </c>
-      <c r="L70" t="s">
-        <v>334</v>
-      </c>
-      <c r="M70" t="s">
-        <v>9</v>
-      </c>
-      <c r="N70" t="s">
-        <v>10</v>
-      </c>
-      <c r="O70" t="s">
-        <v>335</v>
-      </c>
-      <c r="P70" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>45411</v>
-      </c>
-      <c r="R70" s="2">
-        <v>45413</v>
-      </c>
-      <c r="S70" t="s">
-        <v>13</v>
-      </c>
-      <c r="T70" t="s">
-        <v>333</v>
-      </c>
-      <c r="U70" t="s">
-        <v>332</v>
-      </c>
-      <c r="V70" t="s">
-        <v>334</v>
-      </c>
-      <c r="W70" t="s">
-        <v>14</v>
-      </c>
-      <c r="X70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>336</v>
-      </c>
-      <c r="C71" t="s">
-        <v>198</v>
-      </c>
-      <c r="D71" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E71" t="s">
-        <v>62</v>
-      </c>
-      <c r="F71" t="s">
-        <v>63</v>
-      </c>
-      <c r="G71" s="3">
-        <v>5</v>
-      </c>
-      <c r="H71" s="3">
-        <v>5</v>
-      </c>
-      <c r="I71" t="s">
-        <v>5</v>
-      </c>
-      <c r="J71" t="s">
-        <v>6</v>
-      </c>
-      <c r="K71" t="s">
-        <v>201</v>
-      </c>
-      <c r="L71" t="s">
-        <v>202</v>
-      </c>
-      <c r="M71" t="s">
-        <v>9</v>
-      </c>
-      <c r="N71" t="s">
-        <v>10</v>
-      </c>
-      <c r="O71" t="s">
-        <v>337</v>
-      </c>
-      <c r="P71" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>45411</v>
-      </c>
-      <c r="R71" s="2">
-        <v>45413</v>
-      </c>
-      <c r="S71" t="s">
-        <v>13</v>
-      </c>
-      <c r="T71" t="s">
-        <v>58</v>
-      </c>
-      <c r="U71" t="s">
-        <v>59</v>
-      </c>
-      <c r="V71" t="s">
-        <v>56</v>
-      </c>
-      <c r="W71" t="s">
-        <v>14</v>
-      </c>
-      <c r="X71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>338</v>
-      </c>
-      <c r="C72" t="s">
-        <v>339</v>
-      </c>
-      <c r="D72" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E72" t="s">
-        <v>340</v>
-      </c>
-      <c r="F72" t="s">
-        <v>341</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="3">
-        <v>50</v>
-      </c>
-      <c r="I72" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" t="s">
-        <v>6</v>
-      </c>
-      <c r="K72" t="s">
-        <v>342</v>
-      </c>
-      <c r="L72" t="s">
-        <v>343</v>
-      </c>
-      <c r="M72" t="s">
-        <v>9</v>
-      </c>
-      <c r="N72" t="s">
-        <v>10</v>
-      </c>
-      <c r="O72" t="s">
-        <v>344</v>
-      </c>
-      <c r="P72" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>45411</v>
-      </c>
-      <c r="R72" s="2">
-        <v>45412</v>
-      </c>
-      <c r="S72" t="s">
-        <v>21</v>
-      </c>
-      <c r="T72" t="s">
-        <v>345</v>
-      </c>
-      <c r="U72" t="s">
-        <v>346</v>
-      </c>
-      <c r="V72" t="s">
-        <v>343</v>
-      </c>
-      <c r="W72" t="s">
-        <v>14</v>
-      </c>
-      <c r="X72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>347</v>
-      </c>
-      <c r="C73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E73" t="s">
-        <v>348</v>
-      </c>
-      <c r="F73" t="s">
-        <v>349</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="3">
-        <v>25</v>
-      </c>
-      <c r="I73" t="s">
-        <v>5</v>
-      </c>
-      <c r="J73" t="s">
-        <v>6</v>
-      </c>
-      <c r="K73" t="s">
-        <v>55</v>
-      </c>
-      <c r="L73" t="s">
-        <v>56</v>
-      </c>
-      <c r="M73" t="s">
-        <v>9</v>
-      </c>
-      <c r="N73" t="s">
-        <v>10</v>
-      </c>
-      <c r="O73" t="s">
-        <v>350</v>
-      </c>
-      <c r="P73" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>45411</v>
-      </c>
-      <c r="R73" s="2">
-        <v>45413</v>
-      </c>
-      <c r="S73" t="s">
-        <v>13</v>
-      </c>
-      <c r="T73" t="s">
-        <v>58</v>
-      </c>
-      <c r="U73" t="s">
-        <v>59</v>
-      </c>
-      <c r="V73" t="s">
-        <v>56</v>
-      </c>
-      <c r="W73" t="s">
-        <v>14</v>
-      </c>
-      <c r="X73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>351</v>
-      </c>
-      <c r="C74" t="s">
-        <v>352</v>
-      </c>
-      <c r="D74" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E74" t="s">
-        <v>285</v>
-      </c>
-      <c r="F74" t="s">
-        <v>286</v>
-      </c>
-      <c r="G74" s="3">
-        <v>3</v>
-      </c>
-      <c r="H74" s="3">
-        <v>3</v>
-      </c>
-      <c r="I74" t="s">
-        <v>5</v>
-      </c>
-      <c r="J74" t="s">
-        <v>6</v>
-      </c>
-      <c r="K74" t="s">
-        <v>353</v>
-      </c>
-      <c r="L74" t="s">
-        <v>69</v>
-      </c>
-      <c r="M74" t="s">
-        <v>9</v>
-      </c>
-      <c r="N74" t="s">
-        <v>10</v>
-      </c>
-      <c r="O74" t="s">
-        <v>354</v>
-      </c>
-      <c r="P74" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>45411</v>
-      </c>
-      <c r="R74" s="2">
-        <v>45412</v>
-      </c>
-      <c r="S74" t="s">
-        <v>21</v>
-      </c>
-      <c r="T74" t="s">
-        <v>355</v>
-      </c>
-      <c r="U74" t="s">
-        <v>356</v>
-      </c>
-      <c r="V74" t="s">
-        <v>357</v>
-      </c>
-      <c r="W74" t="s">
-        <v>14</v>
-      </c>
-      <c r="X74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
-        <v>358</v>
-      </c>
-      <c r="C75" t="s">
-        <v>359</v>
-      </c>
-      <c r="D75" s="2">
-        <v>45414</v>
-      </c>
-      <c r="E75" t="s">
-        <v>44</v>
-      </c>
-      <c r="F75" t="s">
-        <v>45</v>
-      </c>
-      <c r="G75" s="3">
-        <v>30</v>
-      </c>
-      <c r="H75" s="3">
-        <v>30</v>
-      </c>
-      <c r="I75" t="s">
-        <v>5</v>
-      </c>
-      <c r="J75" t="s">
-        <v>6</v>
-      </c>
-      <c r="K75" t="s">
-        <v>360</v>
-      </c>
-      <c r="L75" t="s">
-        <v>361</v>
-      </c>
-      <c r="M75" t="s">
-        <v>9</v>
-      </c>
-      <c r="N75" t="s">
-        <v>10</v>
-      </c>
-      <c r="O75" t="s">
-        <v>362</v>
-      </c>
-      <c r="P75" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>45414</v>
-      </c>
-      <c r="R75" s="2">
-        <v>45415</v>
-      </c>
-      <c r="S75" t="s">
-        <v>363</v>
-      </c>
-      <c r="T75" t="s">
-        <v>360</v>
-      </c>
-      <c r="U75" t="s">
-        <v>359</v>
-      </c>
-      <c r="V75" t="s">
-        <v>361</v>
-      </c>
-      <c r="W75" t="s">
-        <v>14</v>
-      </c>
-      <c r="X75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>364</v>
-      </c>
-      <c r="C76" t="s">
-        <v>365</v>
-      </c>
-      <c r="D76" s="2">
-        <v>45414</v>
-      </c>
-      <c r="E76" t="s">
-        <v>62</v>
-      </c>
-      <c r="F76" t="s">
-        <v>63</v>
-      </c>
-      <c r="G76" s="3">
-        <v>15</v>
-      </c>
-      <c r="H76" s="3">
-        <v>15</v>
-      </c>
-      <c r="I76" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" t="s">
-        <v>6</v>
-      </c>
-      <c r="K76" t="s">
-        <v>366</v>
-      </c>
-      <c r="L76" t="s">
-        <v>367</v>
-      </c>
-      <c r="M76" t="s">
-        <v>9</v>
-      </c>
-      <c r="N76" t="s">
-        <v>10</v>
-      </c>
-      <c r="O76" t="s">
-        <v>368</v>
-      </c>
-      <c r="P76" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>45414</v>
-      </c>
-      <c r="R76" s="2">
-        <v>45415</v>
-      </c>
-      <c r="S76" t="s">
-        <v>363</v>
-      </c>
-      <c r="T76" t="s">
-        <v>369</v>
-      </c>
-      <c r="U76" t="s">
-        <v>370</v>
-      </c>
-      <c r="V76" t="s">
-        <v>371</v>
-      </c>
-      <c r="W76" t="s">
-        <v>14</v>
-      </c>
-      <c r="X76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
-        <v>364</v>
-      </c>
-      <c r="C77" t="s">
-        <v>365</v>
-      </c>
-      <c r="D77" s="2">
-        <v>45414</v>
-      </c>
-      <c r="E77" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" s="3">
-        <v>5</v>
-      </c>
-      <c r="H77" s="3">
-        <v>5</v>
-      </c>
-      <c r="I77" t="s">
-        <v>5</v>
-      </c>
-      <c r="J77" t="s">
-        <v>6</v>
-      </c>
-      <c r="K77" t="s">
-        <v>366</v>
-      </c>
-      <c r="L77" t="s">
-        <v>367</v>
-      </c>
-      <c r="M77" t="s">
-        <v>9</v>
-      </c>
-      <c r="N77" t="s">
-        <v>10</v>
-      </c>
-      <c r="O77" t="s">
-        <v>368</v>
-      </c>
-      <c r="P77" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>45414</v>
-      </c>
-      <c r="R77" s="2">
-        <v>45415</v>
-      </c>
-      <c r="S77" t="s">
-        <v>363</v>
-      </c>
-      <c r="T77" t="s">
-        <v>369</v>
-      </c>
-      <c r="U77" t="s">
-        <v>370</v>
-      </c>
-      <c r="V77" t="s">
-        <v>371</v>
-      </c>
-      <c r="W77" t="s">
-        <v>14</v>
-      </c>
-      <c r="X77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s">
-        <v>372</v>
-      </c>
-      <c r="C78" t="s">
-        <v>373</v>
-      </c>
-      <c r="D78" s="2">
-        <v>45415</v>
-      </c>
-      <c r="E78" t="s">
-        <v>34</v>
-      </c>
-      <c r="F78" t="s">
-        <v>35</v>
-      </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="3">
-        <v>1</v>
-      </c>
-      <c r="I78" t="s">
-        <v>5</v>
-      </c>
-      <c r="J78" t="s">
-        <v>6</v>
-      </c>
-      <c r="K78" t="s">
-        <v>374</v>
-      </c>
-      <c r="L78" t="s">
-        <v>375</v>
-      </c>
-      <c r="M78" t="s">
-        <v>9</v>
-      </c>
-      <c r="N78" t="s">
-        <v>10</v>
-      </c>
-      <c r="O78" t="s">
-        <v>376</v>
-      </c>
-      <c r="P78" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q78" s="2">
-        <v>45415</v>
-      </c>
-      <c r="R78" s="2">
-        <v>45418</v>
-      </c>
-      <c r="S78" t="s">
-        <v>363</v>
-      </c>
-      <c r="T78" t="s">
-        <v>374</v>
-      </c>
-      <c r="U78" t="s">
-        <v>373</v>
-      </c>
-      <c r="V78" t="s">
-        <v>375</v>
-      </c>
-      <c r="W78" t="s">
-        <v>14</v>
-      </c>
-      <c r="X78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>378</v>
-      </c>
-      <c r="C79" t="s">
-        <v>296</v>
-      </c>
-      <c r="D79" s="2">
-        <v>45441</v>
-      </c>
-      <c r="E79" t="s">
-        <v>379</v>
-      </c>
-      <c r="F79" t="s">
-        <v>380</v>
-      </c>
-      <c r="G79" s="3">
-        <v>1</v>
-      </c>
-      <c r="H79" s="3">
-        <v>1</v>
-      </c>
-      <c r="I79" t="s">
-        <v>5</v>
-      </c>
-      <c r="J79" t="s">
-        <v>6</v>
-      </c>
-      <c r="K79" t="s">
-        <v>297</v>
-      </c>
-      <c r="L79" t="s">
-        <v>298</v>
-      </c>
-      <c r="M79" t="s">
-        <v>9</v>
-      </c>
-      <c r="N79" t="s">
-        <v>10</v>
-      </c>
-      <c r="O79" t="s">
-        <v>381</v>
-      </c>
-      <c r="P79" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>45441</v>
-      </c>
-      <c r="R79" s="2">
-        <v>45445</v>
-      </c>
-      <c r="S79" t="s">
-        <v>13</v>
-      </c>
-      <c r="T79" t="s">
-        <v>179</v>
-      </c>
-      <c r="U79" t="s">
-        <v>180</v>
-      </c>
-      <c r="V79" t="s">
-        <v>181</v>
-      </c>
-      <c r="W79" t="s">
-        <v>14</v>
-      </c>
-      <c r="X79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>378</v>
-      </c>
-      <c r="C80" t="s">
-        <v>296</v>
-      </c>
-      <c r="D80" s="2">
-        <v>45441</v>
-      </c>
-      <c r="E80" t="s">
-        <v>383</v>
-      </c>
-      <c r="F80" t="s">
-        <v>384</v>
-      </c>
-      <c r="G80" s="3">
-        <v>1</v>
-      </c>
-      <c r="H80" s="3">
-        <v>1</v>
-      </c>
-      <c r="I80" t="s">
-        <v>5</v>
-      </c>
-      <c r="J80" t="s">
-        <v>6</v>
-      </c>
-      <c r="K80" t="s">
-        <v>297</v>
-      </c>
-      <c r="L80" t="s">
-        <v>298</v>
-      </c>
-      <c r="M80" t="s">
-        <v>9</v>
-      </c>
-      <c r="N80" t="s">
-        <v>10</v>
-      </c>
-      <c r="O80" t="s">
-        <v>381</v>
-      </c>
-      <c r="P80" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>45441</v>
-      </c>
-      <c r="R80" s="2">
-        <v>45445</v>
-      </c>
-      <c r="S80" t="s">
-        <v>13</v>
-      </c>
-      <c r="T80" t="s">
-        <v>179</v>
-      </c>
-      <c r="U80" t="s">
-        <v>180</v>
-      </c>
-      <c r="V80" t="s">
-        <v>181</v>
-      </c>
-      <c r="W80" t="s">
-        <v>14</v>
-      </c>
-      <c r="X80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>378</v>
-      </c>
-      <c r="C81" t="s">
-        <v>296</v>
-      </c>
-      <c r="D81" s="2">
-        <v>45441</v>
-      </c>
-      <c r="E81" t="s">
-        <v>385</v>
-      </c>
-      <c r="F81" t="s">
-        <v>386</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1</v>
-      </c>
-      <c r="I81" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" t="s">
-        <v>6</v>
-      </c>
-      <c r="K81" t="s">
-        <v>297</v>
-      </c>
-      <c r="L81" t="s">
-        <v>298</v>
-      </c>
-      <c r="M81" t="s">
-        <v>9</v>
-      </c>
-      <c r="N81" t="s">
-        <v>10</v>
-      </c>
-      <c r="O81" t="s">
-        <v>381</v>
-      </c>
-      <c r="P81" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q81" s="2">
-        <v>45441</v>
-      </c>
-      <c r="R81" s="2">
-        <v>45445</v>
-      </c>
-      <c r="S81" t="s">
-        <v>13</v>
-      </c>
-      <c r="T81" t="s">
-        <v>179</v>
-      </c>
-      <c r="U81" t="s">
-        <v>180</v>
-      </c>
-      <c r="V81" t="s">
-        <v>181</v>
-      </c>
-      <c r="W81" t="s">
-        <v>14</v>
-      </c>
-      <c r="X81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>378</v>
-      </c>
-      <c r="C82" t="s">
-        <v>296</v>
-      </c>
-      <c r="D82" s="2">
-        <v>45441</v>
-      </c>
-      <c r="E82" t="s">
-        <v>387</v>
-      </c>
-      <c r="F82" t="s">
-        <v>388</v>
-      </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="3">
-        <v>1</v>
-      </c>
-      <c r="I82" t="s">
-        <v>5</v>
-      </c>
-      <c r="J82" t="s">
-        <v>6</v>
-      </c>
-      <c r="K82" t="s">
-        <v>297</v>
-      </c>
-      <c r="L82" t="s">
-        <v>298</v>
-      </c>
-      <c r="M82" t="s">
-        <v>9</v>
-      </c>
-      <c r="N82" t="s">
-        <v>10</v>
-      </c>
-      <c r="O82" t="s">
-        <v>381</v>
-      </c>
-      <c r="P82" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q82" s="2">
-        <v>45441</v>
-      </c>
-      <c r="R82" s="2">
-        <v>45445</v>
-      </c>
-      <c r="S82" t="s">
-        <v>13</v>
-      </c>
-      <c r="T82" t="s">
-        <v>179</v>
-      </c>
-      <c r="U82" t="s">
-        <v>180</v>
-      </c>
-      <c r="V82" t="s">
-        <v>181</v>
-      </c>
-      <c r="W82" t="s">
-        <v>14</v>
-      </c>
-      <c r="X82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>378</v>
-      </c>
-      <c r="C83" t="s">
-        <v>296</v>
-      </c>
-      <c r="D83" s="2">
-        <v>45441</v>
-      </c>
-      <c r="E83" t="s">
-        <v>389</v>
-      </c>
-      <c r="F83" t="s">
-        <v>390</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" t="s">
-        <v>6</v>
-      </c>
-      <c r="K83" t="s">
-        <v>297</v>
-      </c>
-      <c r="L83" t="s">
-        <v>298</v>
-      </c>
-      <c r="M83" t="s">
-        <v>9</v>
-      </c>
-      <c r="N83" t="s">
-        <v>10</v>
-      </c>
-      <c r="O83" t="s">
-        <v>381</v>
-      </c>
-      <c r="P83" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q83" s="2">
-        <v>45441</v>
-      </c>
-      <c r="R83" s="2">
-        <v>45445</v>
-      </c>
-      <c r="S83" t="s">
-        <v>13</v>
-      </c>
-      <c r="T83" t="s">
-        <v>179</v>
-      </c>
-      <c r="U83" t="s">
-        <v>180</v>
-      </c>
-      <c r="V83" t="s">
-        <v>181</v>
-      </c>
-      <c r="W83" t="s">
-        <v>14</v>
-      </c>
-      <c r="X83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>378</v>
-      </c>
-      <c r="C84" t="s">
-        <v>296</v>
-      </c>
-      <c r="D84" s="2">
-        <v>45441</v>
-      </c>
-      <c r="E84" t="s">
-        <v>391</v>
-      </c>
-      <c r="F84" t="s">
-        <v>392</v>
-      </c>
-      <c r="G84" s="3">
-        <v>2</v>
-      </c>
-      <c r="H84" s="3">
-        <v>2</v>
-      </c>
-      <c r="I84" t="s">
-        <v>5</v>
-      </c>
-      <c r="J84" t="s">
-        <v>6</v>
-      </c>
-      <c r="K84" t="s">
-        <v>297</v>
-      </c>
-      <c r="L84" t="s">
-        <v>298</v>
-      </c>
-      <c r="M84" t="s">
-        <v>9</v>
-      </c>
-      <c r="N84" t="s">
-        <v>10</v>
-      </c>
-      <c r="O84" t="s">
-        <v>381</v>
-      </c>
-      <c r="P84" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q84" s="2">
-        <v>45441</v>
-      </c>
-      <c r="R84" s="2">
-        <v>45445</v>
-      </c>
-      <c r="S84" t="s">
-        <v>13</v>
-      </c>
-      <c r="T84" t="s">
-        <v>179</v>
-      </c>
-      <c r="U84" t="s">
-        <v>180</v>
-      </c>
-      <c r="V84" t="s">
-        <v>181</v>
-      </c>
-      <c r="W84" t="s">
-        <v>14</v>
-      </c>
-      <c r="X84" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24">
-      <c r="A85" t="s">
-        <v>393</v>
-      </c>
-      <c r="B85" t="s">
-        <v>394</v>
-      </c>
-      <c r="C85" t="s">
-        <v>395</v>
-      </c>
-      <c r="D85" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E85" t="s">
-        <v>396</v>
-      </c>
-      <c r="F85" t="s">
-        <v>397</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="3">
-        <v>1</v>
-      </c>
-      <c r="I85" t="s">
-        <v>5</v>
-      </c>
-      <c r="J85" t="s">
-        <v>398</v>
-      </c>
-      <c r="K85" t="s">
-        <v>399</v>
-      </c>
-      <c r="L85" t="s">
-        <v>400</v>
-      </c>
-      <c r="M85" t="s">
-        <v>401</v>
-      </c>
-      <c r="N85" t="s">
-        <v>10</v>
-      </c>
-      <c r="O85" t="s">
-        <v>402</v>
-      </c>
-      <c r="P85" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R85" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S85" t="s">
-        <v>21</v>
-      </c>
-      <c r="T85" t="s">
-        <v>399</v>
-      </c>
-      <c r="U85" t="s">
-        <v>404</v>
-      </c>
-      <c r="V85" t="s">
-        <v>405</v>
-      </c>
-      <c r="W85" t="s">
-        <v>14</v>
-      </c>
-      <c r="X85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24">
-      <c r="A86" t="s">
-        <v>393</v>
-      </c>
-      <c r="B86" t="s">
-        <v>406</v>
-      </c>
-      <c r="C86" t="s">
-        <v>407</v>
-      </c>
-      <c r="D86" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E86" t="s">
-        <v>396</v>
-      </c>
-      <c r="F86" t="s">
-        <v>397</v>
-      </c>
-      <c r="G86" s="3">
-        <v>1</v>
-      </c>
-      <c r="H86" s="3">
-        <v>1</v>
-      </c>
-      <c r="I86" t="s">
-        <v>5</v>
-      </c>
-      <c r="J86" t="s">
-        <v>398</v>
-      </c>
-      <c r="K86" t="s">
-        <v>399</v>
-      </c>
-      <c r="L86" t="s">
-        <v>408</v>
-      </c>
-      <c r="M86" t="s">
-        <v>401</v>
-      </c>
-      <c r="N86" t="s">
-        <v>10</v>
-      </c>
-      <c r="O86" t="s">
-        <v>409</v>
-      </c>
-      <c r="P86" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q86" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R86" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S86" t="s">
-        <v>21</v>
-      </c>
-      <c r="T86" t="s">
-        <v>399</v>
-      </c>
-      <c r="U86" t="s">
-        <v>404</v>
-      </c>
-      <c r="V86" t="s">
-        <v>405</v>
-      </c>
-      <c r="W86" t="s">
-        <v>14</v>
-      </c>
-      <c r="X86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24">
-      <c r="A87" t="s">
-        <v>393</v>
-      </c>
-      <c r="B87" t="s">
-        <v>410</v>
-      </c>
-      <c r="C87" t="s">
-        <v>411</v>
-      </c>
-      <c r="D87" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E87" t="s">
-        <v>396</v>
-      </c>
-      <c r="F87" t="s">
-        <v>397</v>
-      </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="3">
-        <v>1</v>
-      </c>
-      <c r="I87" t="s">
-        <v>5</v>
-      </c>
-      <c r="J87" t="s">
-        <v>398</v>
-      </c>
-      <c r="K87" t="s">
-        <v>399</v>
-      </c>
-      <c r="L87" t="s">
-        <v>412</v>
-      </c>
-      <c r="M87" t="s">
-        <v>401</v>
-      </c>
-      <c r="N87" t="s">
-        <v>10</v>
-      </c>
-      <c r="O87" t="s">
-        <v>413</v>
-      </c>
-      <c r="P87" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q87" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R87" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S87" t="s">
-        <v>21</v>
-      </c>
-      <c r="T87" t="s">
-        <v>399</v>
-      </c>
-      <c r="U87" t="s">
-        <v>404</v>
-      </c>
-      <c r="V87" t="s">
-        <v>405</v>
-      </c>
-      <c r="W87" t="s">
-        <v>14</v>
-      </c>
-      <c r="X87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24">
-      <c r="A88" t="s">
-        <v>393</v>
-      </c>
-      <c r="B88" t="s">
-        <v>414</v>
-      </c>
-      <c r="C88" t="s">
-        <v>415</v>
-      </c>
-      <c r="D88" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E88" t="s">
-        <v>416</v>
-      </c>
-      <c r="F88" t="s">
-        <v>417</v>
-      </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
-      <c r="H88" s="3">
-        <v>1</v>
-      </c>
-      <c r="I88" t="s">
-        <v>5</v>
-      </c>
-      <c r="J88" t="s">
-        <v>398</v>
-      </c>
-      <c r="K88" t="s">
-        <v>399</v>
-      </c>
-      <c r="L88" t="s">
-        <v>418</v>
-      </c>
-      <c r="M88" t="s">
-        <v>401</v>
-      </c>
-      <c r="N88" t="s">
-        <v>10</v>
-      </c>
-      <c r="O88" t="s">
-        <v>419</v>
-      </c>
-      <c r="P88" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q88" s="2">
-        <v>45411</v>
-      </c>
-      <c r="R88" s="2">
-        <v>45412</v>
-      </c>
-      <c r="S88" t="s">
-        <v>21</v>
-      </c>
-      <c r="T88" t="s">
-        <v>399</v>
-      </c>
-      <c r="U88" t="s">
-        <v>404</v>
-      </c>
-      <c r="V88" t="s">
-        <v>405</v>
-      </c>
-      <c r="W88" t="s">
-        <v>14</v>
-      </c>
-      <c r="X88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24">
-      <c r="A89" t="s">
-        <v>393</v>
-      </c>
-      <c r="B89" t="s">
-        <v>420</v>
-      </c>
-      <c r="C89" t="s">
-        <v>407</v>
-      </c>
-      <c r="D89" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E89" t="s">
-        <v>421</v>
-      </c>
-      <c r="F89" t="s">
-        <v>422</v>
-      </c>
-      <c r="G89" s="3">
-        <v>2</v>
-      </c>
-      <c r="H89" s="3">
-        <v>2</v>
-      </c>
-      <c r="I89" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" t="s">
-        <v>398</v>
-      </c>
-      <c r="K89" t="s">
-        <v>399</v>
-      </c>
-      <c r="L89" t="s">
-        <v>408</v>
-      </c>
-      <c r="M89" t="s">
-        <v>401</v>
-      </c>
-      <c r="N89" t="s">
-        <v>10</v>
-      </c>
-      <c r="O89" t="s">
-        <v>423</v>
-      </c>
-      <c r="P89" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q89" s="2">
-        <v>45411</v>
-      </c>
-      <c r="R89" s="2">
-        <v>45412</v>
-      </c>
-      <c r="S89" t="s">
-        <v>21</v>
-      </c>
-      <c r="T89" t="s">
-        <v>399</v>
-      </c>
-      <c r="U89" t="s">
-        <v>404</v>
-      </c>
-      <c r="V89" t="s">
-        <v>405</v>
-      </c>
-      <c r="W89" t="s">
-        <v>14</v>
-      </c>
-      <c r="X89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24">
-      <c r="A90" t="s">
-        <v>393</v>
-      </c>
-      <c r="B90" t="s">
-        <v>424</v>
-      </c>
-      <c r="C90" t="s">
-        <v>425</v>
-      </c>
-      <c r="D90" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E90" t="s">
-        <v>426</v>
-      </c>
-      <c r="F90" t="s">
-        <v>417</v>
-      </c>
-      <c r="G90" s="3">
-        <v>6</v>
-      </c>
-      <c r="H90" s="3">
-        <v>6</v>
-      </c>
-      <c r="I90" t="s">
-        <v>5</v>
-      </c>
-      <c r="J90" t="s">
-        <v>398</v>
-      </c>
-      <c r="K90" t="s">
-        <v>399</v>
-      </c>
-      <c r="L90" t="s">
-        <v>427</v>
-      </c>
-      <c r="M90" t="s">
-        <v>401</v>
-      </c>
-      <c r="N90" t="s">
-        <v>10</v>
-      </c>
-      <c r="O90" t="s">
-        <v>428</v>
-      </c>
-      <c r="P90" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q90" s="2">
-        <v>45411</v>
-      </c>
-      <c r="R90" s="2">
-        <v>45412</v>
-      </c>
-      <c r="S90" t="s">
-        <v>21</v>
-      </c>
-      <c r="T90" t="s">
-        <v>399</v>
-      </c>
-      <c r="U90" t="s">
-        <v>404</v>
-      </c>
-      <c r="V90" t="s">
-        <v>405</v>
-      </c>
-      <c r="W90" t="s">
-        <v>14</v>
-      </c>
-      <c r="X90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24">
-      <c r="A91" t="s">
-        <v>393</v>
-      </c>
-      <c r="B91" t="s">
-        <v>429</v>
-      </c>
-      <c r="C91" t="s">
-        <v>430</v>
-      </c>
-      <c r="D91" s="2">
-        <v>45412</v>
-      </c>
-      <c r="E91" t="s">
-        <v>431</v>
-      </c>
-      <c r="F91" t="s">
-        <v>432</v>
-      </c>
-      <c r="G91" s="3">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3">
-        <v>4</v>
-      </c>
-      <c r="I91" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" t="s">
-        <v>398</v>
-      </c>
-      <c r="K91" t="s">
-        <v>399</v>
-      </c>
-      <c r="L91" t="s">
-        <v>433</v>
-      </c>
-      <c r="M91" t="s">
-        <v>401</v>
-      </c>
-      <c r="N91" t="s">
-        <v>10</v>
-      </c>
-      <c r="O91" t="s">
-        <v>434</v>
-      </c>
-      <c r="P91" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q91" s="2">
-        <v>45412</v>
-      </c>
-      <c r="R91" s="2">
-        <v>45413</v>
-      </c>
-      <c r="S91" t="s">
-        <v>21</v>
-      </c>
-      <c r="T91" t="s">
-        <v>399</v>
-      </c>
-      <c r="U91" t="s">
-        <v>404</v>
-      </c>
-      <c r="V91" t="s">
-        <v>405</v>
-      </c>
-      <c r="W91" t="s">
-        <v>14</v>
-      </c>
-      <c r="X91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24">
-      <c r="A92" t="s">
-        <v>393</v>
-      </c>
-      <c r="B92" t="s">
-        <v>435</v>
-      </c>
-      <c r="C92" t="s">
-        <v>436</v>
-      </c>
-      <c r="D92" s="2">
-        <v>45468</v>
-      </c>
-      <c r="E92" t="s">
-        <v>437</v>
-      </c>
-      <c r="F92" t="s">
-        <v>438</v>
-      </c>
-      <c r="G92" s="3">
-        <v>1</v>
-      </c>
-      <c r="H92" s="3">
-        <v>1</v>
-      </c>
-      <c r="I92" t="s">
-        <v>5</v>
-      </c>
-      <c r="J92" t="s">
-        <v>398</v>
-      </c>
-      <c r="K92" t="s">
-        <v>439</v>
-      </c>
-      <c r="L92" t="s">
-        <v>440</v>
-      </c>
-      <c r="M92" t="s">
-        <v>9</v>
-      </c>
-      <c r="N92" t="s">
-        <v>10</v>
-      </c>
-      <c r="O92" t="s">
-        <v>441</v>
-      </c>
-      <c r="P92" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q92" s="2">
-        <v>45468</v>
-      </c>
-      <c r="R92" s="2">
-        <v>45468</v>
-      </c>
-      <c r="S92" t="s">
-        <v>222</v>
-      </c>
-      <c r="T92" t="s">
-        <v>439</v>
-      </c>
-      <c r="U92" t="s">
-        <v>436</v>
-      </c>
-      <c r="V92" t="s">
-        <v>440</v>
-      </c>
-      <c r="W92" t="s">
-        <v>14</v>
-      </c>
-      <c r="X92" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="415">
   <si>
     <t>P891</t>
   </si>
@@ -166,10 +166,841 @@
     <t>Reagent Kit -90Y and 177Lu Peptides</t>
   </si>
   <si>
-    <t>133840202</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES</t>
+    <t>133840211</t>
+  </si>
+  <si>
+    <t>MELBOURNE PRIVATE HOSPITAL</t>
+  </si>
+  <si>
+    <t>80727543</t>
+  </si>
+  <si>
+    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
+  </si>
+  <si>
+    <t>3018749</t>
+  </si>
+  <si>
+    <t>PARKVILLE</t>
+  </si>
+  <si>
+    <t>717098444</t>
+  </si>
+  <si>
+    <t>010050</t>
+  </si>
+  <si>
+    <t>4595617</t>
+  </si>
+  <si>
+    <t>HEALTHSCOPE LTD</t>
+  </si>
+  <si>
+    <t>MELBOURNE</t>
+  </si>
+  <si>
+    <t>133848799</t>
+  </si>
+  <si>
+    <t>ST GEORGE PRIVATE HOSPITAL</t>
+  </si>
+  <si>
+    <t>3019869</t>
+  </si>
+  <si>
+    <t>KOGARAH</t>
+  </si>
+  <si>
+    <t>717095599</t>
+  </si>
+  <si>
+    <t>4595466</t>
+  </si>
+  <si>
+    <t>RAMSAY HEALTH CARE</t>
+  </si>
+  <si>
+    <t>ST KILDA ROAD</t>
+  </si>
+  <si>
+    <t>133849440</t>
+  </si>
+  <si>
+    <t>SHIRE MEDICAL IMAGING PTY LTD</t>
+  </si>
+  <si>
+    <t>03250768</t>
+  </si>
+  <si>
+    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4543220</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>717102203</t>
+  </si>
+  <si>
+    <t>87621529</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133796237</t>
+  </si>
+  <si>
+    <t>AUSTIN HEALTH  - VERNON AVE</t>
+  </si>
+  <si>
+    <t>87078760</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
+  </si>
+  <si>
+    <t>4595496</t>
+  </si>
+  <si>
+    <t>HEIDELBERG WEST</t>
+  </si>
+  <si>
+    <t>717068897</t>
+  </si>
+  <si>
+    <t>EIWPK</t>
+  </si>
+  <si>
+    <t>4595508</t>
+  </si>
+  <si>
+    <t>AUSTIN HEALTH - FINANCE DEPT</t>
+  </si>
+  <si>
+    <t>HEIDELBERG</t>
+  </si>
+  <si>
+    <t>133797764</t>
+  </si>
+  <si>
+    <t>NEPEAN BLUE MOUNTAINS LHD</t>
+  </si>
+  <si>
+    <t>64438474</t>
+  </si>
+  <si>
+    <t>LabEAZY Cassette 68Ga Multi-Gen Elution</t>
+  </si>
+  <si>
+    <t>4596176</t>
+  </si>
+  <si>
+    <t>KINGSWOOD</t>
+  </si>
+  <si>
+    <t>717044381</t>
+  </si>
+  <si>
+    <t>4596182</t>
+  </si>
+  <si>
+    <t>NEPEAN BLUE MOUNTAINS LOCAL</t>
+  </si>
+  <si>
+    <t>133840212</t>
+  </si>
+  <si>
+    <t>ROYAL NORTH SHORE HOSPITAL</t>
+  </si>
+  <si>
+    <t>02112548</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4595335</t>
+  </si>
+  <si>
+    <t>ST LEONARDS</t>
+  </si>
+  <si>
+    <t>717098615</t>
+  </si>
+  <si>
+    <t>4595339</t>
+  </si>
+  <si>
+    <t>NORTHERN SYDNEY LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>NEWCASTLE</t>
+  </si>
+  <si>
+    <t>87548082</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
+  </si>
+  <si>
+    <t>87548783</t>
+  </si>
+  <si>
+    <t>ASSY,DAY SET,CENTARGO,ROW</t>
+  </si>
+  <si>
+    <t>133844189</t>
+  </si>
+  <si>
+    <t>ST VINCENTS HOSPITAL SYDNEY</t>
+  </si>
+  <si>
+    <t>00658781</t>
+  </si>
+  <si>
+    <t>ULTRAVIST 370 SOLU BT 1X200ML AU</t>
+  </si>
+  <si>
+    <t>SPEC</t>
+  </si>
+  <si>
+    <t>4595515</t>
+  </si>
+  <si>
+    <t>DARLINGHURST</t>
+  </si>
+  <si>
+    <t>717103680</t>
+  </si>
+  <si>
+    <t>4595511</t>
+  </si>
+  <si>
+    <t>ST VINCENT'S HOSPITAL SYDNEY LTD</t>
+  </si>
+  <si>
+    <t>133845034</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - COOPERS PLAINS</t>
+  </si>
+  <si>
+    <t>86698188</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>4596010</t>
+  </si>
+  <si>
+    <t>COOPERS PLAINS</t>
+  </si>
+  <si>
+    <t>717103463</t>
+  </si>
+  <si>
+    <t>4596029</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY PTY LTD</t>
+  </si>
+  <si>
+    <t>SOUTH BRISBANE</t>
+  </si>
+  <si>
+    <t>133845035</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY-Wynnum</t>
+  </si>
+  <si>
+    <t>4596224</t>
+  </si>
+  <si>
+    <t>WYNNUM</t>
+  </si>
+  <si>
+    <t>717104084</t>
+  </si>
+  <si>
+    <t>133845937</t>
+  </si>
+  <si>
+    <t>ROYAL PRINCE ALFRED HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595811</t>
+  </si>
+  <si>
+    <t>CAMPERDOWN</t>
+  </si>
+  <si>
+    <t>717100943</t>
+  </si>
+  <si>
+    <t>4595817</t>
+  </si>
+  <si>
+    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
+  </si>
+  <si>
+    <t>133846586</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - REDBANK</t>
+  </si>
+  <si>
+    <t>86698242</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595723</t>
+  </si>
+  <si>
+    <t>REDBANK</t>
+  </si>
+  <si>
+    <t>717100298</t>
+  </si>
+  <si>
+    <t>EHGHA</t>
+  </si>
+  <si>
+    <t>133847337</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - BUNDABERG</t>
+  </si>
+  <si>
+    <t>4595956</t>
+  </si>
+  <si>
+    <t>BUNDABERG</t>
+  </si>
+  <si>
+    <t>717099186</t>
+  </si>
+  <si>
+    <t>133849083</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - SUNNYBANK</t>
+  </si>
+  <si>
+    <t>4596007</t>
+  </si>
+  <si>
+    <t>SUNNYBANK</t>
+  </si>
+  <si>
+    <t>717101346</t>
+  </si>
+  <si>
+    <t>133849084</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY GREENSLOPES</t>
+  </si>
+  <si>
+    <t>87234487</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>4596215</t>
+  </si>
+  <si>
+    <t>GREENSLOPES</t>
+  </si>
+  <si>
+    <t>717103293</t>
+  </si>
+  <si>
+    <t>133849394</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY-GREENSLOPES QX133N</t>
+  </si>
+  <si>
+    <t>64424244</t>
+  </si>
+  <si>
+    <t>LabEAZY Cassette- 68Ga DOTA Peptides</t>
+  </si>
+  <si>
+    <t>4596219</t>
+  </si>
+  <si>
+    <t>717098609</t>
+  </si>
+  <si>
+    <t>133849395</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - KANGAROO POINT</t>
+  </si>
+  <si>
+    <t>4596014</t>
+  </si>
+  <si>
+    <t>KANGAROO POINT</t>
+  </si>
+  <si>
+    <t>717099188</t>
+  </si>
+  <si>
+    <t>133849396</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - CAPALABA</t>
+  </si>
+  <si>
+    <t>4596005</t>
+  </si>
+  <si>
+    <t>CAPALABA</t>
+  </si>
+  <si>
+    <t>717103831</t>
+  </si>
+  <si>
+    <t>133849413</t>
+  </si>
+  <si>
+    <t>4595858</t>
+  </si>
+  <si>
+    <t>EPSOM</t>
+  </si>
+  <si>
+    <t>717057138</t>
+  </si>
+  <si>
+    <t>64431313</t>
+  </si>
+  <si>
+    <t>Trifluoroacetic acid TFA</t>
+  </si>
+  <si>
+    <t>64424260</t>
+  </si>
+  <si>
+    <t>LabEAZY Cassette- 68Ga PSMA Peptides</t>
+  </si>
+  <si>
+    <t>64424287</t>
+  </si>
+  <si>
+    <t>Modular-Lab Eazy Cassette for Lu177-PSMA</t>
+  </si>
+  <si>
+    <t>64425232</t>
+  </si>
+  <si>
+    <t>Reagent Set 68Ga-labeled peptides</t>
+  </si>
+  <si>
+    <t>64432778</t>
+  </si>
+  <si>
+    <t>Ascorbic acid buffer 50mg/vial</t>
+  </si>
+  <si>
+    <t>133849441</t>
+  </si>
+  <si>
+    <t>CAPITAL RADIOLOGY PAKENHAM</t>
+  </si>
+  <si>
+    <t>4690467</t>
+  </si>
+  <si>
+    <t>PAKENHAM</t>
+  </si>
+  <si>
+    <t>717096098</t>
+  </si>
+  <si>
+    <t>3605543</t>
+  </si>
+  <si>
+    <t>CAPITAL RADIOLOGY PTY LTD</t>
+  </si>
+  <si>
+    <t>EAST MELBOURNE</t>
+  </si>
+  <si>
+    <t>133849442</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY HORNSBY</t>
+  </si>
+  <si>
+    <t>86594226</t>
+  </si>
+  <si>
+    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>1040647</t>
+  </si>
+  <si>
+    <t>HORNSBY</t>
+  </si>
+  <si>
+    <t>717102465</t>
+  </si>
+  <si>
+    <t>86574470</t>
+  </si>
+  <si>
+    <t>ASSY,FEMALE-FEMALE LUER,MRI,MC,WLD</t>
+  </si>
+  <si>
+    <t>86835444</t>
+  </si>
+  <si>
+    <t>MRXPERION,KIT,SYR,MR,PFA,JA,FINAL</t>
+  </si>
+  <si>
+    <t>133849443</t>
+  </si>
+  <si>
+    <t>HIGHFIELDS IMAGING</t>
+  </si>
+  <si>
+    <t>86566621</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
+  </si>
+  <si>
+    <t>4700930</t>
+  </si>
+  <si>
+    <t>PORT MACQUARIE</t>
+  </si>
+  <si>
+    <t>717102923</t>
+  </si>
+  <si>
+    <t>4595461</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES (NSW)</t>
+  </si>
+  <si>
+    <t>86617501</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,PAS,60",MC,WLD</t>
+  </si>
+  <si>
+    <t>60937964</t>
+  </si>
+  <si>
+    <t>LABEL,PRINTER,THERMAL,PSA,INTEGO</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>64436641</t>
+  </si>
+  <si>
+    <t>DKFZ-PSMA-11 (GMP) 1MG</t>
+  </si>
+  <si>
+    <t>133849500</t>
+  </si>
+  <si>
+    <t>CHS HUME SUPPLY WAREHOUSE</t>
+  </si>
+  <si>
+    <t>1079624</t>
+  </si>
+  <si>
+    <t>HUME</t>
+  </si>
+  <si>
+    <t>717097466</t>
+  </si>
+  <si>
+    <t>4595647</t>
+  </si>
+  <si>
+    <t>ACT HEALTH SUPPLY SERVICES</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>133849613</t>
+  </si>
+  <si>
+    <t>i-MED RADIOLOGY - CASEY</t>
+  </si>
+  <si>
+    <t>4595719</t>
+  </si>
+  <si>
+    <t>BERWICK</t>
+  </si>
+  <si>
+    <t>717099057</t>
+  </si>
+  <si>
+    <t>133849678</t>
+  </si>
+  <si>
+    <t>ROYAL ADELAIDE HOSPITAL</t>
+  </si>
+  <si>
+    <t>4676781</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>717101514</t>
+  </si>
+  <si>
+    <t>4595446</t>
+  </si>
+  <si>
+    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133849679</t>
+  </si>
+  <si>
+    <t>4595813</t>
+  </si>
+  <si>
+    <t>717103460</t>
+  </si>
+  <si>
+    <t>133850021</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY</t>
+  </si>
+  <si>
+    <t>4596218</t>
+  </si>
+  <si>
+    <t>BILINGA</t>
+  </si>
+  <si>
+    <t>717100929</t>
+  </si>
+  <si>
+    <t>133850022</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - HYDE PARK</t>
+  </si>
+  <si>
+    <t>4596008</t>
+  </si>
+  <si>
+    <t>HYDE PARK</t>
+  </si>
+  <si>
+    <t>717101792</t>
+  </si>
+  <si>
+    <t>030130</t>
+  </si>
+  <si>
+    <t>89092302</t>
+  </si>
+  <si>
+    <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
+  </si>
+  <si>
+    <t>64439489</t>
+  </si>
+  <si>
+    <t>0.1 Hydrochloric Acid (ultra pure)</t>
+  </si>
+  <si>
+    <t>133850077</t>
+  </si>
+  <si>
+    <t>MUDGEE HOSPITAL - RADIOLOGY MUDGEE</t>
+  </si>
+  <si>
+    <t>87236072</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,WLD1</t>
+  </si>
+  <si>
+    <t>4682456</t>
+  </si>
+  <si>
+    <t>MUDGEE</t>
+  </si>
+  <si>
+    <t>717000383</t>
+  </si>
+  <si>
+    <t>4596048</t>
+  </si>
+  <si>
+    <t>WESTERN NSW LOCAL HEALTH DISTRICT O</t>
+  </si>
+  <si>
+    <t>87235971</t>
+  </si>
+  <si>
+    <t>TUBE,EXT,DUAL,WLD1</t>
+  </si>
+  <si>
+    <t>133850420</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - FAIRFIELD</t>
+  </si>
+  <si>
+    <t>4596021</t>
+  </si>
+  <si>
+    <t>Idalia</t>
+  </si>
+  <si>
+    <t>717100775</t>
+  </si>
+  <si>
+    <t>133850421</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - DOUGLAS</t>
+  </si>
+  <si>
+    <t>4633127</t>
+  </si>
+  <si>
+    <t>DOUGLAS</t>
+  </si>
+  <si>
+    <t>717103342</t>
+  </si>
+  <si>
+    <t>133850422</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY-CAIRNS</t>
+  </si>
+  <si>
+    <t>4596017</t>
+  </si>
+  <si>
+    <t>CAIRNS</t>
+  </si>
+  <si>
+    <t>717104830</t>
+  </si>
+  <si>
+    <t>040130</t>
+  </si>
+  <si>
+    <t>64433774</t>
+  </si>
+  <si>
+    <t>PSMA I&amp;T 1mg GMP Grade Precursor</t>
+  </si>
+  <si>
+    <t>133850829</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - WESTMEAD PH</t>
+  </si>
+  <si>
+    <t>4595728</t>
+  </si>
+  <si>
+    <t>WESTMEAD</t>
+  </si>
+  <si>
+    <t>717098577</t>
+  </si>
+  <si>
+    <t>133851747</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - SPRINGFIELD</t>
+  </si>
+  <si>
+    <t>4596026</t>
+  </si>
+  <si>
+    <t>SPRINGFIELD</t>
+  </si>
+  <si>
+    <t>717101925</t>
+  </si>
+  <si>
+    <t>133851778</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - C/- ST ANDREWS</t>
+  </si>
+  <si>
+    <t>4596000</t>
+  </si>
+  <si>
+    <t>TOOWOOMBA</t>
+  </si>
+  <si>
+    <t>717104015</t>
+  </si>
+  <si>
+    <t>133851779</t>
+  </si>
+  <si>
+    <t>QLD X-RAY - Highfields</t>
+  </si>
+  <si>
+    <t>86645564</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,LPCT,STELLANT,MC,WLD</t>
+  </si>
+  <si>
+    <t>4596023</t>
+  </si>
+  <si>
+    <t>HIGHFIELDS</t>
+  </si>
+  <si>
+    <t>717104930</t>
+  </si>
+  <si>
+    <t>133847374</t>
+  </si>
+  <si>
+    <t>SPECTRUM MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>3397516</t>
+  </si>
+  <si>
+    <t>LIVERPOOL</t>
+  </si>
+  <si>
+    <t>717097846</t>
+  </si>
+  <si>
+    <t>SPECTRUM MEDICAL IMAGING SERVICES</t>
   </si>
   <si>
     <t>80802544</t>
@@ -178,700 +1009,85 @@
     <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
   </si>
   <si>
-    <t>4595351</t>
-  </si>
-  <si>
-    <t>KOGARAH</t>
-  </si>
-  <si>
-    <t>717091507</t>
-  </si>
-  <si>
-    <t>4595461</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES (NSW)</t>
-  </si>
-  <si>
-    <t>ST LEONARDS</t>
-  </si>
-  <si>
-    <t>02112548</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133844071</t>
-  </si>
-  <si>
-    <t>MILDURA BASE PUBLIC HOSPITAL</t>
-  </si>
-  <si>
-    <t>80727543</t>
-  </si>
-  <si>
-    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
-  </si>
-  <si>
-    <t>3018889</t>
-  </si>
-  <si>
-    <t>MILDURA</t>
-  </si>
-  <si>
-    <t>717094689</t>
-  </si>
-  <si>
-    <t>133844074</t>
-  </si>
-  <si>
-    <t>CAPITAL RADIOLOGY WESTERN PRIVATE</t>
-  </si>
-  <si>
-    <t>86610280</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,STELLANT MP,MIC,MC,EU</t>
-  </si>
-  <si>
-    <t>3432379</t>
-  </si>
-  <si>
-    <t>FOOTSCRAY</t>
-  </si>
-  <si>
-    <t>717102752</t>
-  </si>
-  <si>
-    <t>010050</t>
-  </si>
-  <si>
-    <t>3605543</t>
-  </si>
-  <si>
-    <t>CAPITAL RADIOLOGY PTY LTD</t>
-  </si>
-  <si>
-    <t>EAST MELBOURNE</t>
-  </si>
-  <si>
-    <t>133846372</t>
-  </si>
-  <si>
-    <t>ST JOHN OF GOD HEALTH CARE</t>
-  </si>
-  <si>
-    <t>3018211</t>
-  </si>
-  <si>
-    <t>GEELONG</t>
-  </si>
-  <si>
-    <t>717098158</t>
-  </si>
-  <si>
-    <t>133847511</t>
-  </si>
-  <si>
-    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
-  </si>
-  <si>
-    <t>4670712</t>
-  </si>
-  <si>
-    <t>DERRIMUT</t>
-  </si>
-  <si>
-    <t>717091785</t>
-  </si>
-  <si>
-    <t>4670709</t>
-  </si>
-  <si>
-    <t>HEALTHSHARE VICTORIA</t>
-  </si>
-  <si>
-    <t>MELBOURNE</t>
-  </si>
-  <si>
-    <t>133848756</t>
-  </si>
-  <si>
-    <t>ENVISION MEDICAL IMAGING</t>
-  </si>
-  <si>
-    <t>64424244</t>
-  </si>
-  <si>
-    <t>LabEAZY Cassette- 68Ga DOTA Peptides</t>
-  </si>
-  <si>
-    <t>3436408</t>
-  </si>
-  <si>
-    <t>WEMBLEY</t>
-  </si>
-  <si>
-    <t>717093785</t>
-  </si>
-  <si>
-    <t>050050</t>
-  </si>
-  <si>
-    <t>133738054</t>
-  </si>
-  <si>
-    <t>TOOWOOMBA HOSPITAL</t>
-  </si>
-  <si>
-    <t>87548082</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
-  </si>
-  <si>
-    <t>4595344</t>
-  </si>
-  <si>
-    <t>TOOWOOMBA</t>
-  </si>
-  <si>
-    <t>717042847</t>
-  </si>
-  <si>
-    <t>EIWPK</t>
-  </si>
-  <si>
-    <t>4595342</t>
-  </si>
-  <si>
-    <t>DARLING DOWNS HOSPITAL &amp;</t>
-  </si>
-  <si>
-    <t>133843811</t>
-  </si>
-  <si>
-    <t>SYDNEY ADVENTIST HOSPITAL</t>
-  </si>
-  <si>
-    <t>86645556</t>
-  </si>
-  <si>
-    <t>MR,KIT,SYR,MRI,115ML,96",MC,WLD</t>
-  </si>
-  <si>
-    <t>4595578</t>
-  </si>
-  <si>
-    <t>WAHROONGA</t>
-  </si>
-  <si>
-    <t>717098386</t>
-  </si>
-  <si>
-    <t>3018003</t>
-  </si>
-  <si>
-    <t>133844073</t>
-  </si>
-  <si>
-    <t>TAMWORTH HEALTH SERVICE</t>
-  </si>
-  <si>
-    <t>87078752</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,D,SPK,FLS3,150ML,WLD</t>
-  </si>
-  <si>
-    <t>4595242</t>
-  </si>
-  <si>
-    <t>TAMWORTH</t>
-  </si>
-  <si>
-    <t>717099056</t>
-  </si>
-  <si>
-    <t>4595328</t>
-  </si>
-  <si>
-    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
-  </si>
-  <si>
-    <t>NEWCASTLE</t>
-  </si>
-  <si>
-    <t>87078760</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
-  </si>
-  <si>
-    <t>133844075</t>
-  </si>
-  <si>
-    <t>86594226</t>
-  </si>
-  <si>
-    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>717103182</t>
-  </si>
-  <si>
-    <t>133845703</t>
-  </si>
-  <si>
-    <t>BARWON MEDICAL IMAGING - GEELONG</t>
-  </si>
-  <si>
-    <t>4596081</t>
-  </si>
-  <si>
-    <t>717089199</t>
-  </si>
-  <si>
-    <t>4596084</t>
-  </si>
-  <si>
-    <t>BARWON HEALTH</t>
-  </si>
-  <si>
-    <t>133845704</t>
-  </si>
-  <si>
-    <t>PETER MACCALLUM CANCER CENTRE</t>
-  </si>
-  <si>
-    <t>03250768</t>
-  </si>
-  <si>
-    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4704669</t>
-  </si>
-  <si>
-    <t>717103270</t>
-  </si>
-  <si>
-    <t>3017201</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>133846373</t>
-  </si>
-  <si>
-    <t>ORANGE HEALTH SERVICE</t>
-  </si>
-  <si>
-    <t>87548783</t>
-  </si>
-  <si>
-    <t>ASSY,DAY SET,CENTARGO,ROW</t>
-  </si>
-  <si>
-    <t>4675465</t>
-  </si>
-  <si>
-    <t>717099044</t>
-  </si>
-  <si>
-    <t>4596048</t>
-  </si>
-  <si>
-    <t>WESTERN NSW LOCAL HEALTH DISTRICT O</t>
-  </si>
-  <si>
-    <t>133846374</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - MILDURA</t>
-  </si>
-  <si>
-    <t>4595706</t>
-  </si>
-  <si>
-    <t>717101374</t>
-  </si>
-  <si>
-    <t>133846375</t>
-  </si>
-  <si>
-    <t>WESTMEAD HOSPITAL</t>
-  </si>
-  <si>
-    <t>86617439</t>
-  </si>
-  <si>
-    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>4596106</t>
-  </si>
-  <si>
-    <t>NORTHMEAD</t>
-  </si>
-  <si>
-    <t>717103360</t>
-  </si>
-  <si>
-    <t>4596108</t>
-  </si>
-  <si>
-    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
-  </si>
-  <si>
-    <t>133848757</t>
-  </si>
-  <si>
-    <t>GOULBURN VALLEY HEALTH</t>
-  </si>
-  <si>
-    <t>4595200</t>
-  </si>
-  <si>
-    <t>SHEPPARTON</t>
-  </si>
-  <si>
-    <t>717099204</t>
-  </si>
-  <si>
-    <t>4595194</t>
-  </si>
-  <si>
-    <t>133849082</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - UPPER MT GRAVATT</t>
-  </si>
-  <si>
-    <t>4595780</t>
-  </si>
-  <si>
-    <t>UPPER MT GRAVATT</t>
-  </si>
-  <si>
-    <t>717094788</t>
-  </si>
-  <si>
-    <t>133849258</t>
-  </si>
-  <si>
-    <t>SUNSHINE COAST UNIVERSITY HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595790</t>
-  </si>
-  <si>
-    <t>BIRTINYA</t>
-  </si>
-  <si>
-    <t>717101171</t>
-  </si>
-  <si>
-    <t>4595794</t>
-  </si>
-  <si>
-    <t>SUNSHINE COAST HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>SUNSHINE COAST MC</t>
-  </si>
-  <si>
-    <t>133849340</t>
-  </si>
-  <si>
-    <t>87236072</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,WLD1</t>
-  </si>
-  <si>
-    <t>4595318</t>
-  </si>
-  <si>
-    <t>WANTIRNA</t>
-  </si>
-  <si>
-    <t>717101373</t>
-  </si>
-  <si>
-    <t>4595462</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES (VIC)</t>
-  </si>
-  <si>
-    <t>87234487</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>82212737</t>
-  </si>
-  <si>
-    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
-  </si>
-  <si>
-    <t>133849341</t>
-  </si>
-  <si>
-    <t>LAKE IMAGING - GEELONG</t>
-  </si>
-  <si>
-    <t>86594218</t>
-  </si>
-  <si>
-    <t>SOLARIS,KIT,SYR,MRI,65/115ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>4596034</t>
-  </si>
-  <si>
-    <t>717102282</t>
-  </si>
-  <si>
-    <t>4595969</t>
-  </si>
-  <si>
-    <t>LAKE IMAGING PTY LTD</t>
-  </si>
-  <si>
-    <t>133849342</t>
-  </si>
-  <si>
-    <t>SOUTH EAST RADIOLOGY - TAHMOOR</t>
-  </si>
-  <si>
-    <t>4595476</t>
-  </si>
-  <si>
-    <t>TAHMOOR</t>
-  </si>
-  <si>
-    <t>717103340</t>
-  </si>
-  <si>
-    <t>4595482</t>
-  </si>
-  <si>
-    <t>SOUTH EAST RADIOLOGY PTY LTD</t>
-  </si>
-  <si>
-    <t>NOWRA</t>
-  </si>
-  <si>
-    <t>87238504</t>
-  </si>
-  <si>
-    <t>TUBE,EXT,SINGLE,WLD1</t>
-  </si>
-  <si>
-    <t>87235971</t>
-  </si>
-  <si>
-    <t>TUBE,EXT,DUAL,WLD1</t>
-  </si>
-  <si>
-    <t>133848755</t>
-  </si>
-  <si>
-    <t>64424260</t>
-  </si>
-  <si>
-    <t>LabEAZY Cassette- 68Ga PSMA Peptides</t>
+    <t>02112555</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133849435</t>
+  </si>
+  <si>
+    <t>ATX MEDICAL SOLUTIONS</t>
+  </si>
+  <si>
+    <t>2061962</t>
+  </si>
+  <si>
+    <t>O'CONNOR</t>
+  </si>
+  <si>
+    <t>717090918</t>
   </si>
   <si>
     <t>010530</t>
   </si>
   <si>
-    <t>89092302</t>
-  </si>
-  <si>
-    <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
-  </si>
-  <si>
-    <t>64430678</t>
-  </si>
-  <si>
-    <t>Water, ACS Ultrapur 1L</t>
-  </si>
-  <si>
-    <t>64439489</t>
-  </si>
-  <si>
-    <t>0.1 Hydrochloric Acid (ultra pure)</t>
-  </si>
-  <si>
-    <t>SPEC</t>
-  </si>
-  <si>
-    <t>133849010</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY HORNSBY</t>
-  </si>
-  <si>
-    <t>84200085</t>
-  </si>
-  <si>
-    <t>SYSTEM,INJECTOR,MRXPERION</t>
-  </si>
-  <si>
-    <t>1040647</t>
-  </si>
-  <si>
-    <t>HORNSBY</t>
-  </si>
-  <si>
-    <t>717092828</t>
-  </si>
-  <si>
-    <t>EHGHA</t>
-  </si>
-  <si>
-    <t>84680761</t>
-  </si>
-  <si>
-    <t>KIT,PANEL,PENETRATION,MRXP</t>
-  </si>
-  <si>
-    <t>85957449</t>
-  </si>
-  <si>
-    <t>ASSY,FINAL,CRU,MRXP,WS3T</t>
-  </si>
-  <si>
-    <t>84290149</t>
-  </si>
-  <si>
-    <t>Assy, IV Pole, MRXperion</t>
-  </si>
-  <si>
-    <t>84029459</t>
-  </si>
-  <si>
-    <t>LABEL,WARN,AIR,MULTI-LINGUAL,MRXPERION</t>
-  </si>
-  <si>
-    <t>84284114</t>
-  </si>
-  <si>
-    <t>MANUAL,OPERATORS,ENGLISH,MRXPERION</t>
-  </si>
-  <si>
-    <t>84284173</t>
-  </si>
-  <si>
-    <t>Installation Manual</t>
-  </si>
-  <si>
-    <t>86621495</t>
-  </si>
-  <si>
-    <t>POWER CORD- AUSTRALIA</t>
-  </si>
-  <si>
-    <t>85879170</t>
-  </si>
-  <si>
-    <t>ASSY,GREEN ADAPTER,MRXP</t>
-  </si>
-  <si>
-    <t>86697505</t>
-  </si>
-  <si>
-    <t>KIT,LANGUAGE,MRXP PFA,EN</t>
-  </si>
-  <si>
-    <t>133840365</t>
-  </si>
-  <si>
-    <t>CANON MEDICAL SYSTEMS ANZ PTY LTD</t>
-  </si>
-  <si>
-    <t>86410095</t>
-  </si>
-  <si>
-    <t>MARK 7 ARTERION,PKGD,BASE SYSTEM,4th MC</t>
-  </si>
-  <si>
-    <t>4595547</t>
-  </si>
-  <si>
-    <t>Campbellfield</t>
-  </si>
-  <si>
-    <t>717047046</t>
-  </si>
-  <si>
-    <t>000030</t>
-  </si>
-  <si>
-    <t>4595548</t>
-  </si>
-  <si>
-    <t>NORWEST</t>
-  </si>
-  <si>
-    <t>60727099</t>
-  </si>
-  <si>
-    <t>ASSY,TABLE BRACKET,KMA 350,MC</t>
-  </si>
-  <si>
-    <t>84220884</t>
-  </si>
-  <si>
-    <t>DISPLAY,STAND,KIT,MC</t>
-  </si>
-  <si>
-    <t>87978451</t>
-  </si>
-  <si>
-    <t>ASSY,HEAT MAINTAINER,SYR,ARTER,LR,UDI</t>
-  </si>
-  <si>
-    <t>59893827</t>
-  </si>
-  <si>
-    <t>ASSY,CABLE,DCU,100FT</t>
-  </si>
-  <si>
-    <t>81538530</t>
-  </si>
-  <si>
-    <t>ASSY,HEAD EXT CABLE,90 FT,MARK 7</t>
-  </si>
-  <si>
-    <t>86407590</t>
-  </si>
-  <si>
-    <t>MAN,OP,MARK 7 ARTERION,EN,4ED,MC</t>
-  </si>
-  <si>
-    <t>87978486</t>
-  </si>
-  <si>
-    <t>ASSY,CBL,HANDSWITCH,LR,UDI</t>
-  </si>
-  <si>
-    <t>88310535</t>
-  </si>
-  <si>
-    <t>KIT, HAND SWITCH MOUNT,MC</t>
-  </si>
-  <si>
-    <t>86014750</t>
-  </si>
-  <si>
-    <t>ASSY,CBL,MKV+/MN,ISI OPTION,ROHS,100'</t>
+    <t>133849438</t>
+  </si>
+  <si>
+    <t>HOBART PRIVATE HOSPITAL</t>
+  </si>
+  <si>
+    <t>3016843</t>
+  </si>
+  <si>
+    <t>HOBART</t>
+  </si>
+  <si>
+    <t>717097809</t>
+  </si>
+  <si>
+    <t>133849450</t>
+  </si>
+  <si>
+    <t>PERTH RAD CLINIC LTD - MIDLAND</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLUaVIAL 10X15ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4595273</t>
+  </si>
+  <si>
+    <t>MIDLAND</t>
+  </si>
+  <si>
+    <t>717066958</t>
+  </si>
+  <si>
+    <t>4595291</t>
+  </si>
+  <si>
+    <t>PERTHRADCLINIC LTD</t>
+  </si>
+  <si>
+    <t>MIRRABOOKA</t>
+  </si>
+  <si>
+    <t>133849728</t>
+  </si>
+  <si>
+    <t>CAPITAL RADIOLOGY - BOORAGOON</t>
+  </si>
+  <si>
+    <t>4596250</t>
+  </si>
+  <si>
+    <t>BOORAGOON</t>
+  </si>
+  <si>
+    <t>717102283</t>
   </si>
   <si>
     <t>P8SW</t>
@@ -1144,7 +1360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X68"/>
+  <dimension ref="A1:X94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,16 +1370,16 @@
   <cols>
     <col min="1" max="1" bestFit="1" width="18" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="11" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="36" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="37" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="14" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
     <col min="6" max="6" bestFit="1" width="42" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="12" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="6" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="13" customWidth="1"/>
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="6" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="15" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="18" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="17" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15" customWidth="1"/>
     <col min="14" max="14" bestFit="1" width="6" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="21" customWidth="1"/>
@@ -1173,83 +1389,83 @@
     <col min="19" max="19" bestFit="1" width="8" customWidth="1"/>
     <col min="20" max="20" bestFit="1" width="15" customWidth="1"/>
     <col min="21" max="21" bestFit="1" width="37" customWidth="1"/>
-    <col min="22" max="22" bestFit="1" width="19" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="17" customWidth="1"/>
     <col min="23" max="23" bestFit="1" width="12" customWidth="1"/>
     <col min="24" max="24" bestFit="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>331</v>
+        <v>403</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>332</v>
+        <v>404</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>333</v>
+        <v>405</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>335</v>
+        <v>407</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>337</v>
+        <v>409</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>339</v>
+        <v>411</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>340</v>
+        <v>412</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>341</v>
+        <v>413</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>342</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1716,10 +1932,10 @@
         <v>54</v>
       </c>
       <c r="G8" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -1752,16 +1968,16 @@
         <v>45412</v>
       </c>
       <c r="S8" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
         <v>14</v>
@@ -1775,25 +1991,25 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2">
         <v>45411</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G9" s="3">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="H9" s="3">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -1802,10 +2018,10 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -1814,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s">
         <v>20</v>
@@ -1826,16 +2042,16 @@
         <v>45412</v>
       </c>
       <c r="S9" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="W9" t="s">
         <v>14</v>
@@ -1849,25 +2065,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2">
         <v>45411</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G10" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -1876,10 +2092,10 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -1888,7 +2104,7 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s">
         <v>20</v>
@@ -1897,19 +2113,19 @@
         <v>45411</v>
       </c>
       <c r="R10" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S10" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s">
         <v>14</v>
@@ -1932,16 +2148,16 @@
         <v>45411</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G11" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -1974,16 +2190,16 @@
         <v>45412</v>
       </c>
       <c r="S11" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s">
         <v>14</v>
@@ -1997,25 +2213,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>450</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -2039,25 +2255,25 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R12" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S12" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="T12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="U12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="V12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="W12" t="s">
         <v>14</v>
@@ -2071,67 +2287,67 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13" t="s">
-        <v>20</v>
-      </c>
       <c r="Q13" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R13" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S13" t="s">
         <v>21</v>
       </c>
       <c r="T13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="U13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="V13" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="W13" t="s">
         <v>14</v>
@@ -2145,25 +2361,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G14" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H14" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2172,10 +2388,10 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -2184,28 +2400,28 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P14" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R14" s="2">
-        <v>45418</v>
+        <v>45413</v>
       </c>
       <c r="S14" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="T14" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="U14" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="V14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="W14" t="s">
         <v>14</v>
@@ -2219,67 +2435,67 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="3">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3">
+        <v>550</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="2">
-        <v>45412</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="L15" t="s">
         <v>104</v>
       </c>
-      <c r="F15" t="s">
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="3">
+      <c r="P15" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="Q15" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R15" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" t="s">
         <v>106</v>
       </c>
-      <c r="L15" t="s">
+      <c r="U15" t="s">
         <v>107</v>
       </c>
-      <c r="M15" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="V15" t="s">
         <v>108</v>
-      </c>
-      <c r="P15" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>45412</v>
-      </c>
-      <c r="R15" s="2">
-        <v>45414</v>
-      </c>
-      <c r="S15" t="s">
-        <v>13</v>
-      </c>
-      <c r="T15" t="s">
-        <v>110</v>
-      </c>
-      <c r="U15" t="s">
-        <v>111</v>
-      </c>
-      <c r="V15" t="s">
-        <v>107</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -2293,25 +2509,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
         <v>112</v>
       </c>
-      <c r="C16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45412</v>
-      </c>
-      <c r="E16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" t="s">
-        <v>115</v>
-      </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H16" s="3">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2320,10 +2536,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2332,7 +2548,7 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="P16" t="s">
         <v>20</v>
@@ -2347,13 +2563,13 @@
         <v>21</v>
       </c>
       <c r="T16" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="U16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="V16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2367,37 +2583,37 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2">
         <v>45412</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="G17" s="3">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="H17" s="3">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2406,10 +2622,10 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="2">
         <v>45412</v>
@@ -2421,13 +2637,13 @@
         <v>21</v>
       </c>
       <c r="T17" t="s">
+        <v>121</v>
+      </c>
+      <c r="U17" t="s">
+        <v>122</v>
+      </c>
+      <c r="V17" t="s">
         <v>119</v>
-      </c>
-      <c r="U17" t="s">
-        <v>113</v>
-      </c>
-      <c r="V17" t="s">
-        <v>117</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2441,37 +2657,37 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45412</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
       <c r="G18" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H18" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="K18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2480,10 +2696,10 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="2">
         <v>45412</v>
@@ -2495,13 +2711,13 @@
         <v>21</v>
       </c>
       <c r="T18" t="s">
+        <v>121</v>
+      </c>
+      <c r="U18" t="s">
+        <v>122</v>
+      </c>
+      <c r="V18" t="s">
         <v>119</v>
-      </c>
-      <c r="U18" t="s">
-        <v>113</v>
-      </c>
-      <c r="V18" t="s">
-        <v>117</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2515,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D19" s="2">
         <v>45412</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -2542,10 +2758,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2554,7 +2770,7 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P19" t="s">
         <v>20</v>
@@ -2563,19 +2779,19 @@
         <v>45412</v>
       </c>
       <c r="R19" s="2">
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="S19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="U19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2589,25 +2805,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D20" s="2">
         <v>45412</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2616,10 +2832,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2628,7 +2844,7 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P20" t="s">
         <v>20</v>
@@ -2637,19 +2853,19 @@
         <v>45412</v>
       </c>
       <c r="R20" s="2">
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="S20" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="U20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2663,25 +2879,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="D21" s="2">
         <v>45412</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2690,10 +2906,10 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -2702,7 +2918,7 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P21" t="s">
         <v>20</v>
@@ -2717,13 +2933,13 @@
         <v>21</v>
       </c>
       <c r="T21" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="U21" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="V21" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2737,25 +2953,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D22" s="2">
         <v>45412</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="G22" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2764,10 +2980,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2776,10 +2992,10 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P22" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="2">
         <v>45412</v>
@@ -2788,16 +3004,16 @@
         <v>45413</v>
       </c>
       <c r="S22" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U22" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="V22" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2811,25 +3027,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D23" s="2">
         <v>45412</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="G23" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H23" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -2838,10 +3054,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -2850,7 +3066,7 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P23" t="s">
         <v>20</v>
@@ -2865,13 +3081,13 @@
         <v>21</v>
       </c>
       <c r="T23" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="U23" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="V23" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2885,25 +3101,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D24" s="2">
         <v>45412</v>
       </c>
       <c r="E24" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="G24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -2912,10 +3128,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -2924,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P24" t="s">
         <v>20</v>
@@ -2933,19 +3149,19 @@
         <v>45412</v>
       </c>
       <c r="R24" s="2">
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="S24" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T24" t="s">
+        <v>155</v>
+      </c>
+      <c r="U24" t="s">
+        <v>154</v>
+      </c>
+      <c r="V24" t="s">
         <v>156</v>
-      </c>
-      <c r="U24" t="s">
-        <v>157</v>
-      </c>
-      <c r="V24" t="s">
-        <v>24</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -2959,25 +3175,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D25" s="2">
         <v>45412</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="G25" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H25" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -2986,10 +3202,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -2998,7 +3214,7 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P25" t="s">
         <v>20</v>
@@ -3007,19 +3223,19 @@
         <v>45412</v>
       </c>
       <c r="R25" s="2">
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="S25" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T25" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="U25" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="V25" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -3033,25 +3249,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D26" s="2">
         <v>45412</v>
       </c>
       <c r="E26" t="s">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="G26" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H26" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3060,10 +3276,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -3072,7 +3288,7 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" t="s">
         <v>20</v>
@@ -3081,19 +3297,19 @@
         <v>45412</v>
       </c>
       <c r="R26" s="2">
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="S26" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="U26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="V26" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -3107,25 +3323,25 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D27" s="2">
         <v>45412</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
       </c>
       <c r="H27" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3134,10 +3350,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -3146,7 +3362,7 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P27" t="s">
         <v>20</v>
@@ -3161,13 +3377,13 @@
         <v>21</v>
       </c>
       <c r="T27" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="U27" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="V27" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -3181,25 +3397,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D28" s="2">
         <v>45412</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="G28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3208,10 +3424,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -3220,7 +3436,7 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P28" t="s">
         <v>20</v>
@@ -3229,19 +3445,19 @@
         <v>45412</v>
       </c>
       <c r="R28" s="2">
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="S28" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T28" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="U28" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="V28" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -3255,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
         <v>171</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E29" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="2">
-        <v>45412</v>
-      </c>
-      <c r="E29" t="s">
-        <v>130</v>
-      </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3282,10 +3498,10 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -3303,19 +3519,19 @@
         <v>45412</v>
       </c>
       <c r="R29" s="2">
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="S29" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T29" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="U29" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="V29" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3329,46 +3545,46 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" t="s">
         <v>177</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3">
+        <v>30</v>
+      </c>
+      <c r="H30" s="3">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="2">
-        <v>45412</v>
-      </c>
-      <c r="E30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="3">
-        <v>4</v>
-      </c>
-      <c r="H30" s="3">
-        <v>4</v>
-      </c>
-      <c r="I30" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>179</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" t="s">
         <v>180</v>
-      </c>
-      <c r="M30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O30" t="s">
-        <v>181</v>
       </c>
       <c r="P30" t="s">
         <v>20</v>
@@ -3383,13 +3599,13 @@
         <v>21</v>
       </c>
       <c r="T30" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="U30" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="V30" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3403,46 +3619,46 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" t="s">
         <v>182</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>100</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="2">
-        <v>45412</v>
-      </c>
-      <c r="E31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="3">
-        <v>10</v>
-      </c>
-      <c r="H31" s="3">
-        <v>10</v>
-      </c>
-      <c r="I31" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>184</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O31" t="s">
         <v>185</v>
-      </c>
-      <c r="M31" t="s">
-        <v>9</v>
-      </c>
-      <c r="N31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O31" t="s">
-        <v>186</v>
       </c>
       <c r="P31" t="s">
         <v>20</v>
@@ -3451,19 +3667,19 @@
         <v>45412</v>
       </c>
       <c r="R31" s="2">
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="S31" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T31" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="U31" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="V31" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3477,19 +3693,19 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="D32" s="2">
         <v>45412</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -3504,10 +3720,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3516,7 +3732,7 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="P32" t="s">
         <v>20</v>
@@ -3531,13 +3747,13 @@
         <v>21</v>
       </c>
       <c r="T32" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="U32" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="V32" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3551,25 +3767,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2">
         <v>45412</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="G33" s="3">
         <v>2</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3578,10 +3794,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L33" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3590,28 +3806,28 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P33" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q33" s="2">
         <v>45412</v>
       </c>
       <c r="R33" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S33" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="T33" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="U33" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="V33" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3625,25 +3841,25 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E34" t="s">
         <v>190</v>
       </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="2">
-        <v>45412</v>
-      </c>
-      <c r="E34" t="s">
-        <v>200</v>
-      </c>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G34" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3652,10 +3868,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3664,28 +3880,28 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P34" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="2">
         <v>45412</v>
       </c>
       <c r="R34" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S34" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="T34" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="U34" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="V34" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3699,25 +3915,25 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2">
         <v>45412</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G35" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H35" s="3">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3726,10 +3942,10 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -3738,28 +3954,28 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="P35" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q35" s="2">
         <v>45412</v>
       </c>
       <c r="R35" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S35" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="T35" t="s">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="U35" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="V35" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3773,25 +3989,25 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2">
         <v>45412</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="F36" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="G36" s="3">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H36" s="3">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3800,10 +4016,10 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -3812,28 +4028,28 @@
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="P36" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q36" s="2">
         <v>45412</v>
       </c>
       <c r="R36" s="2">
-        <v>45414</v>
+        <v>45412</v>
       </c>
       <c r="S36" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="T36" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="U36" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="V36" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -3847,25 +4063,25 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2">
         <v>45412</v>
       </c>
       <c r="E37" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F37" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="G37" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H37" s="3">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3874,10 +4090,10 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="L37" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -3886,28 +4102,28 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="P37" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q37" s="2">
         <v>45412</v>
       </c>
       <c r="R37" s="2">
-        <v>45414</v>
+        <v>45412</v>
       </c>
       <c r="S37" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="T37" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="U37" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="V37" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -3921,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2">
         <v>45412</v>
       </c>
       <c r="E38" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="F38" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="G38" s="3">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H38" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -3948,10 +4164,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="L38" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -3960,28 +4176,28 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="P38" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q38" s="2">
         <v>45412</v>
       </c>
       <c r="R38" s="2">
-        <v>45414</v>
+        <v>45412</v>
       </c>
       <c r="S38" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="T38" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="U38" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="V38" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -3995,25 +4211,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2">
-        <v>45418</v>
+        <v>45412</v>
       </c>
       <c r="E39" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="G39" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H39" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -4022,10 +4238,10 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -4034,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="P39" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q39" s="2">
-        <v>45418</v>
+        <v>45412</v>
       </c>
       <c r="R39" s="2">
-        <v>45419</v>
+        <v>45412</v>
       </c>
       <c r="S39" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="T39" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="U39" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="V39" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
@@ -4069,25 +4285,25 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2">
-        <v>45418</v>
+        <v>45412</v>
       </c>
       <c r="E40" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="F40" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="G40" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H40" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4096,10 +4312,10 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="L40" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="M40" t="s">
         <v>9</v>
@@ -4108,28 +4324,28 @@
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="P40" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="2">
-        <v>45418</v>
+        <v>45412</v>
       </c>
       <c r="R40" s="2">
-        <v>45419</v>
+        <v>45412</v>
       </c>
       <c r="S40" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="T40" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="U40" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="V40" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -4143,25 +4359,25 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="D41" s="2">
-        <v>45418</v>
+        <v>45412</v>
       </c>
       <c r="E41" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="F41" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4170,10 +4386,10 @@
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="L41" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="M41" t="s">
         <v>9</v>
@@ -4182,28 +4398,28 @@
         <v>10</v>
       </c>
       <c r="O41" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="P41" t="s">
         <v>20</v>
       </c>
       <c r="Q41" s="2">
-        <v>45418</v>
+        <v>45412</v>
       </c>
       <c r="R41" s="2">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="S41" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="T41" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="U41" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="V41" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -4217,37 +4433,37 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="D42" s="2">
-        <v>45418</v>
+        <v>45412</v>
       </c>
       <c r="E42" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F42" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="G42" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" s="3">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="L42" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="M42" t="s">
         <v>9</v>
@@ -4256,28 +4472,28 @@
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="P42" t="s">
         <v>20</v>
       </c>
       <c r="Q42" s="2">
-        <v>45418</v>
+        <v>45412</v>
       </c>
       <c r="R42" s="2">
-        <v>45419</v>
+        <v>45413</v>
       </c>
       <c r="S42" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="T42" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="U42" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="V42" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -4291,25 +4507,25 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D43" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="E43" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="F43" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
       </c>
       <c r="H43" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4318,10 +4534,10 @@
         <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="L43" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="M43" t="s">
         <v>9</v>
@@ -4330,28 +4546,28 @@
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="P43" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q43" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="R43" s="2">
-        <v>45441</v>
+        <v>45413</v>
       </c>
       <c r="S43" t="s">
         <v>21</v>
       </c>
       <c r="T43" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="U43" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="V43" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="W43" t="s">
         <v>14</v>
@@ -4365,25 +4581,25 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D44" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="E44" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4392,10 +4608,10 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="L44" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="M44" t="s">
         <v>9</v>
@@ -4404,28 +4620,28 @@
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="R44" s="2">
-        <v>45441</v>
+        <v>45413</v>
       </c>
       <c r="S44" t="s">
         <v>21</v>
       </c>
       <c r="T44" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="U44" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="V44" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="W44" t="s">
         <v>14</v>
@@ -4439,25 +4655,25 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C45" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D45" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="E45" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F45" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
       </c>
       <c r="H45" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
@@ -4466,10 +4682,10 @@
         <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="L45" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M45" t="s">
         <v>9</v>
@@ -4478,28 +4694,28 @@
         <v>10</v>
       </c>
       <c r="O45" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="P45" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="R45" s="2">
-        <v>45441</v>
+        <v>45414</v>
       </c>
       <c r="S45" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T45" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="U45" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V45" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="W45" t="s">
         <v>14</v>
@@ -4513,25 +4729,25 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D46" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="E46" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F46" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H46" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4540,10 +4756,10 @@
         <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="L46" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M46" t="s">
         <v>9</v>
@@ -4552,28 +4768,28 @@
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="R46" s="2">
-        <v>45441</v>
+        <v>45414</v>
       </c>
       <c r="S46" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T46" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="U46" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V46" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="W46" t="s">
         <v>14</v>
@@ -4587,19 +4803,19 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D47" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="E47" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F47" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
@@ -4608,16 +4824,16 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="J47" t="s">
         <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M47" t="s">
         <v>9</v>
@@ -4626,28 +4842,28 @@
         <v>10</v>
       </c>
       <c r="O47" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="R47" s="2">
-        <v>45441</v>
+        <v>45414</v>
       </c>
       <c r="S47" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T47" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="U47" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V47" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="W47" t="s">
         <v>14</v>
@@ -4661,25 +4877,25 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C48" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D48" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="E48" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="F48" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="G48" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H48" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -4688,10 +4904,10 @@
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="L48" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M48" t="s">
         <v>9</v>
@@ -4700,28 +4916,28 @@
         <v>10</v>
       </c>
       <c r="O48" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="P48" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="R48" s="2">
-        <v>45441</v>
+        <v>45414</v>
       </c>
       <c r="S48" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T48" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="U48" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V48" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="W48" t="s">
         <v>14</v>
@@ -4735,19 +4951,19 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E49" t="s">
         <v>233</v>
       </c>
-      <c r="C49" t="s">
+      <c r="F49" t="s">
         <v>234</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45440</v>
-      </c>
-      <c r="E49" t="s">
-        <v>251</v>
-      </c>
-      <c r="F49" t="s">
-        <v>252</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -4762,10 +4978,10 @@
         <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="L49" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M49" t="s">
         <v>9</v>
@@ -4774,28 +4990,28 @@
         <v>10</v>
       </c>
       <c r="O49" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="P49" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="R49" s="2">
-        <v>45441</v>
+        <v>45414</v>
       </c>
       <c r="S49" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T49" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="U49" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V49" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="W49" t="s">
         <v>14</v>
@@ -4809,25 +5025,25 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D50" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="G50" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H50" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -4836,10 +5052,10 @@
         <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="L50" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M50" t="s">
         <v>9</v>
@@ -4848,28 +5064,28 @@
         <v>10</v>
       </c>
       <c r="O50" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="P50" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q50" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="R50" s="2">
-        <v>45441</v>
+        <v>45414</v>
       </c>
       <c r="S50" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T50" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="U50" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V50" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="W50" t="s">
         <v>14</v>
@@ -4883,25 +5099,25 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D51" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="E51" t="s">
-        <v>255</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>256</v>
+        <v>4</v>
       </c>
       <c r="G51" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H51" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
@@ -4925,25 +5141,25 @@
         <v>239</v>
       </c>
       <c r="P51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R51" s="2">
+        <v>45414</v>
+      </c>
+      <c r="S51" t="s">
+        <v>13</v>
+      </c>
+      <c r="T51" t="s">
         <v>240</v>
       </c>
-      <c r="Q51" s="2">
-        <v>45440</v>
-      </c>
-      <c r="R51" s="2">
-        <v>45441</v>
-      </c>
-      <c r="S51" t="s">
-        <v>21</v>
-      </c>
-      <c r="T51" t="s">
-        <v>237</v>
-      </c>
       <c r="U51" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="V51" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="W51" t="s">
         <v>14</v>
@@ -4957,25 +5173,25 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D52" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="E52" t="s">
-        <v>257</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="G52" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H52" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -4984,10 +5200,10 @@
         <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L52" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M52" t="s">
         <v>9</v>
@@ -4996,28 +5212,28 @@
         <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q52" s="2">
-        <v>45440</v>
+        <v>45412</v>
       </c>
       <c r="R52" s="2">
-        <v>45441</v>
+        <v>45414</v>
       </c>
       <c r="S52" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T52" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="U52" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="V52" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="W52" t="s">
         <v>14</v>
@@ -5031,25 +5247,25 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C53" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D53" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="E53" t="s">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="G53" s="3">
         <v>2</v>
       </c>
       <c r="H53" s="3">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -5058,10 +5274,10 @@
         <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="L53" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="M53" t="s">
         <v>9</v>
@@ -5070,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="O53" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q53" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="R53" s="2">
-        <v>45496</v>
+        <v>45414</v>
       </c>
       <c r="S53" t="s">
-        <v>266</v>
+        <v>13</v>
       </c>
       <c r="T53" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="U53" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="V53" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="W53" t="s">
         <v>14</v>
@@ -5105,25 +5321,25 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D54" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="E54" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="G54" s="3">
         <v>2</v>
       </c>
       <c r="H54" s="3">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5132,10 +5348,10 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="L54" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="M54" t="s">
         <v>9</v>
@@ -5144,28 +5360,28 @@
         <v>10</v>
       </c>
       <c r="O54" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q54" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="R54" s="2">
-        <v>45496</v>
+        <v>45414</v>
       </c>
       <c r="S54" t="s">
-        <v>266</v>
+        <v>13</v>
       </c>
       <c r="T54" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="U54" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="V54" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="W54" t="s">
         <v>14</v>
@@ -5179,25 +5395,25 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c r="D55" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="E55" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G55" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H55" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5206,10 +5422,10 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L55" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="M55" t="s">
         <v>9</v>
@@ -5218,28 +5434,28 @@
         <v>10</v>
       </c>
       <c r="O55" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q55" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="R55" s="2">
-        <v>45496</v>
+        <v>45413</v>
       </c>
       <c r="S55" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="T55" t="s">
-        <v>267</v>
+        <v>143</v>
       </c>
       <c r="U55" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="V55" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="W55" t="s">
         <v>14</v>
@@ -5253,37 +5469,37 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" t="s">
         <v>259</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="3">
+        <v>3</v>
+      </c>
+      <c r="H56" s="3">
+        <v>60</v>
+      </c>
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" t="s">
         <v>260</v>
       </c>
-      <c r="D56" s="2">
-        <v>45496</v>
-      </c>
-      <c r="E56" t="s">
-        <v>273</v>
-      </c>
-      <c r="F56" t="s">
-        <v>274</v>
-      </c>
-      <c r="G56" s="3">
-        <v>2</v>
-      </c>
-      <c r="H56" s="3">
-        <v>2</v>
-      </c>
-      <c r="I56" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" t="s">
-        <v>6</v>
-      </c>
-      <c r="K56" t="s">
-        <v>263</v>
-      </c>
       <c r="L56" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M56" t="s">
         <v>9</v>
@@ -5292,28 +5508,28 @@
         <v>10</v>
       </c>
       <c r="O56" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q56" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="R56" s="2">
-        <v>45496</v>
+        <v>45413</v>
       </c>
       <c r="S56" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="T56" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="U56" t="s">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="V56" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="W56" t="s">
         <v>14</v>
@@ -5327,25 +5543,25 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" t="s">
         <v>259</v>
       </c>
-      <c r="C57" t="s">
-        <v>260</v>
-      </c>
       <c r="D57" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="E57" t="s">
-        <v>275</v>
+        <v>147</v>
       </c>
       <c r="F57" t="s">
-        <v>276</v>
+        <v>148</v>
       </c>
       <c r="G57" s="3">
         <v>2</v>
       </c>
       <c r="H57" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
@@ -5354,10 +5570,10 @@
         <v>6</v>
       </c>
       <c r="K57" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L57" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M57" t="s">
         <v>9</v>
@@ -5366,28 +5582,28 @@
         <v>10</v>
       </c>
       <c r="O57" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q57" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="R57" s="2">
-        <v>45496</v>
+        <v>45413</v>
       </c>
       <c r="S57" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="T57" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="U57" t="s">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="V57" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="W57" t="s">
         <v>14</v>
@@ -5401,25 +5617,25 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C58" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D58" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="E58" t="s">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c r="F58" t="s">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="G58" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
@@ -5428,10 +5644,10 @@
         <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L58" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M58" t="s">
         <v>9</v>
@@ -5440,28 +5656,28 @@
         <v>10</v>
       </c>
       <c r="O58" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="R58" s="2">
-        <v>45496</v>
+        <v>45415</v>
       </c>
       <c r="S58" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="T58" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="U58" t="s">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="V58" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="W58" t="s">
         <v>14</v>
@@ -5475,25 +5691,25 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D59" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="E59" t="s">
-        <v>279</v>
+        <v>47</v>
       </c>
       <c r="F59" t="s">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="G59" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
@@ -5502,10 +5718,10 @@
         <v>6</v>
       </c>
       <c r="K59" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L59" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M59" t="s">
         <v>9</v>
@@ -5514,28 +5730,28 @@
         <v>10</v>
       </c>
       <c r="O59" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P59" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q59" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="R59" s="2">
-        <v>45496</v>
+        <v>45415</v>
       </c>
       <c r="S59" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="T59" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="U59" t="s">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="V59" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="W59" t="s">
         <v>14</v>
@@ -5549,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D60" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="E60" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F60" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="G60" s="3">
         <v>2</v>
@@ -5576,10 +5792,10 @@
         <v>6</v>
       </c>
       <c r="K60" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L60" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M60" t="s">
         <v>9</v>
@@ -5588,28 +5804,28 @@
         <v>10</v>
       </c>
       <c r="O60" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P60" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q60" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="R60" s="2">
-        <v>45496</v>
+        <v>45415</v>
       </c>
       <c r="S60" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="T60" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="U60" t="s">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="V60" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="W60" t="s">
         <v>14</v>
@@ -5623,37 +5839,37 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C61" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D61" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="E61" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F61" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G61" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H61" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
       </c>
       <c r="J61" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="K61" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L61" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M61" t="s">
         <v>9</v>
@@ -5662,28 +5878,28 @@
         <v>10</v>
       </c>
       <c r="O61" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q61" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="R61" s="2">
-        <v>45496</v>
+        <v>45415</v>
       </c>
       <c r="S61" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="T61" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="U61" t="s">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="V61" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="W61" t="s">
         <v>14</v>
@@ -5697,25 +5913,25 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D62" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="E62" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F62" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G62" s="3">
         <v>2</v>
       </c>
       <c r="H62" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5724,10 +5940,10 @@
         <v>6</v>
       </c>
       <c r="K62" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="L62" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="M62" t="s">
         <v>9</v>
@@ -5736,28 +5952,28 @@
         <v>10</v>
       </c>
       <c r="O62" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="Q62" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="R62" s="2">
-        <v>45496</v>
+        <v>45414</v>
       </c>
       <c r="S62" t="s">
-        <v>266</v>
+        <v>13</v>
       </c>
       <c r="T62" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="U62" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="V62" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="W62" t="s">
         <v>14</v>
@@ -5771,25 +5987,25 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D63" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="E63" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F63" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G63" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="3">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
@@ -5798,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="K63" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="L63" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="M63" t="s">
         <v>9</v>
@@ -5810,28 +6026,28 @@
         <v>10</v>
       </c>
       <c r="O63" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="Q63" s="2">
-        <v>45496</v>
+        <v>45412</v>
       </c>
       <c r="R63" s="2">
-        <v>45496</v>
+        <v>45414</v>
       </c>
       <c r="S63" t="s">
-        <v>266</v>
+        <v>13</v>
       </c>
       <c r="T63" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="U63" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="V63" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="W63" t="s">
         <v>14</v>
@@ -5842,70 +6058,70 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C64" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D64" s="2">
-        <v>45308</v>
+        <v>45412</v>
       </c>
       <c r="E64" t="s">
-        <v>290</v>
+        <v>165</v>
       </c>
       <c r="F64" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="G64" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
       </c>
       <c r="J64" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="L64" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="M64" t="s">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="N64" t="s">
         <v>10</v>
       </c>
       <c r="O64" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="P64" t="s">
-        <v>297</v>
+        <v>152</v>
       </c>
       <c r="Q64" s="2">
-        <v>45308</v>
+        <v>45412</v>
       </c>
       <c r="R64" s="2">
-        <v>45309</v>
+        <v>45414</v>
       </c>
       <c r="S64" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T64" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="U64" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="V64" t="s">
-        <v>299</v>
+        <v>24</v>
       </c>
       <c r="W64" t="s">
         <v>14</v>
@@ -5916,70 +6132,70 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C65" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D65" s="2">
-        <v>45308</v>
+        <v>45412</v>
       </c>
       <c r="E65" t="s">
-        <v>290</v>
+        <v>165</v>
       </c>
       <c r="F65" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
       </c>
       <c r="H65" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="K65" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L65" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="M65" t="s">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="N65" t="s">
         <v>10</v>
       </c>
       <c r="O65" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="P65" t="s">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="Q65" s="2">
-        <v>45308</v>
+        <v>45412</v>
       </c>
       <c r="R65" s="2">
-        <v>45309</v>
+        <v>45415</v>
       </c>
       <c r="S65" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="T65" t="s">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c r="U65" t="s">
-        <v>298</v>
+        <v>131</v>
       </c>
       <c r="V65" t="s">
-        <v>299</v>
+        <v>132</v>
       </c>
       <c r="W65" t="s">
         <v>14</v>
@@ -5990,70 +6206,70 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C66" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D66" s="2">
-        <v>45308</v>
+        <v>45412</v>
       </c>
       <c r="E66" t="s">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="F66" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="3">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>5</v>
+      </c>
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" t="s">
         <v>291</v>
       </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="L66" t="s">
         <v>292</v>
       </c>
-      <c r="K66" t="s">
+      <c r="M66" t="s">
+        <v>9</v>
+      </c>
+      <c r="N66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" t="s">
         <v>293</v>
       </c>
-      <c r="L66" t="s">
-        <v>306</v>
-      </c>
-      <c r="M66" t="s">
-        <v>295</v>
-      </c>
-      <c r="N66" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" t="s">
-        <v>307</v>
-      </c>
       <c r="P66" t="s">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="Q66" s="2">
-        <v>45308</v>
+        <v>45412</v>
       </c>
       <c r="R66" s="2">
-        <v>45309</v>
+        <v>45415</v>
       </c>
       <c r="S66" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="T66" t="s">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c r="U66" t="s">
-        <v>298</v>
+        <v>131</v>
       </c>
       <c r="V66" t="s">
-        <v>299</v>
+        <v>132</v>
       </c>
       <c r="W66" t="s">
         <v>14</v>
@@ -6064,70 +6280,70 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C67" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D67" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E67" t="s">
-        <v>309</v>
+        <v>192</v>
       </c>
       <c r="F67" t="s">
-        <v>310</v>
+        <v>193</v>
       </c>
       <c r="G67" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H67" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I67" t="s">
         <v>5</v>
       </c>
       <c r="J67" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="K67" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L67" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M67" t="s">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="N67" t="s">
         <v>10</v>
       </c>
       <c r="O67" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="P67" t="s">
         <v>20</v>
       </c>
       <c r="Q67" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R67" s="2">
-        <v>45412</v>
+        <v>45418</v>
       </c>
       <c r="S67" t="s">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="T67" t="s">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c r="U67" t="s">
-        <v>298</v>
+        <v>131</v>
       </c>
       <c r="V67" t="s">
-        <v>299</v>
+        <v>132</v>
       </c>
       <c r="W67" t="s">
         <v>14</v>
@@ -6138,75 +6354,1999 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="B68" t="s">
+        <v>294</v>
+      </c>
+      <c r="C68" t="s">
+        <v>295</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E68" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" t="s">
+        <v>173</v>
+      </c>
+      <c r="G68" s="3">
+        <v>10</v>
+      </c>
+      <c r="H68" s="3">
+        <v>10</v>
+      </c>
+      <c r="I68" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" t="s">
+        <v>296</v>
+      </c>
+      <c r="L68" t="s">
+        <v>297</v>
+      </c>
+      <c r="M68" t="s">
+        <v>9</v>
+      </c>
+      <c r="N68" t="s">
+        <v>10</v>
+      </c>
+      <c r="O68" t="s">
+        <v>298</v>
+      </c>
+      <c r="P68" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R68" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S68" t="s">
+        <v>299</v>
+      </c>
+      <c r="T68" t="s">
+        <v>130</v>
+      </c>
+      <c r="U68" t="s">
+        <v>131</v>
+      </c>
+      <c r="V68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W68" t="s">
+        <v>14</v>
+      </c>
+      <c r="X68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>294</v>
+      </c>
+      <c r="C69" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E69" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" t="s">
+        <v>197</v>
+      </c>
+      <c r="G69" s="3">
+        <v>10</v>
+      </c>
+      <c r="H69" s="3">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" t="s">
+        <v>296</v>
+      </c>
+      <c r="L69" t="s">
+        <v>297</v>
+      </c>
+      <c r="M69" t="s">
+        <v>9</v>
+      </c>
+      <c r="N69" t="s">
+        <v>10</v>
+      </c>
+      <c r="O69" t="s">
+        <v>298</v>
+      </c>
+      <c r="P69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R69" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S69" t="s">
+        <v>299</v>
+      </c>
+      <c r="T69" t="s">
+        <v>130</v>
+      </c>
+      <c r="U69" t="s">
+        <v>131</v>
+      </c>
+      <c r="V69" t="s">
+        <v>132</v>
+      </c>
+      <c r="W69" t="s">
+        <v>14</v>
+      </c>
+      <c r="X69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>294</v>
+      </c>
+      <c r="C70" t="s">
+        <v>295</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70" t="s">
+        <v>296</v>
+      </c>
+      <c r="L70" t="s">
+        <v>297</v>
+      </c>
+      <c r="M70" t="s">
+        <v>9</v>
+      </c>
+      <c r="N70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O70" t="s">
+        <v>298</v>
+      </c>
+      <c r="P70" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R70" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S70" t="s">
+        <v>299</v>
+      </c>
+      <c r="T70" t="s">
+        <v>130</v>
+      </c>
+      <c r="U70" t="s">
+        <v>131</v>
+      </c>
+      <c r="V70" t="s">
+        <v>132</v>
+      </c>
+      <c r="W70" t="s">
+        <v>14</v>
+      </c>
+      <c r="X70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E71" t="s">
+        <v>300</v>
+      </c>
+      <c r="F71" t="s">
+        <v>301</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" t="s">
+        <v>296</v>
+      </c>
+      <c r="L71" t="s">
+        <v>297</v>
+      </c>
+      <c r="M71" t="s">
+        <v>9</v>
+      </c>
+      <c r="N71" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" t="s">
+        <v>298</v>
+      </c>
+      <c r="P71" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R71" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S71" t="s">
+        <v>299</v>
+      </c>
+      <c r="T71" t="s">
+        <v>130</v>
+      </c>
+      <c r="U71" t="s">
+        <v>131</v>
+      </c>
+      <c r="V71" t="s">
+        <v>132</v>
+      </c>
+      <c r="W71" t="s">
+        <v>14</v>
+      </c>
+      <c r="X71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>294</v>
+      </c>
+      <c r="C72" t="s">
+        <v>295</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E72" t="s">
+        <v>221</v>
+      </c>
+      <c r="F72" t="s">
+        <v>222</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" t="s">
+        <v>296</v>
+      </c>
+      <c r="L72" t="s">
+        <v>297</v>
+      </c>
+      <c r="M72" t="s">
+        <v>9</v>
+      </c>
+      <c r="N72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" t="s">
+        <v>298</v>
+      </c>
+      <c r="P72" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R72" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S72" t="s">
+        <v>299</v>
+      </c>
+      <c r="T72" t="s">
+        <v>130</v>
+      </c>
+      <c r="U72" t="s">
+        <v>131</v>
+      </c>
+      <c r="V72" t="s">
+        <v>132</v>
+      </c>
+      <c r="W72" t="s">
+        <v>14</v>
+      </c>
+      <c r="X72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73" t="s">
+        <v>303</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E73" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" t="s">
+        <v>211</v>
+      </c>
+      <c r="G73" s="3">
+        <v>4</v>
+      </c>
+      <c r="H73" s="3">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" t="s">
+        <v>304</v>
+      </c>
+      <c r="L73" t="s">
+        <v>305</v>
+      </c>
+      <c r="M73" t="s">
+        <v>9</v>
+      </c>
+      <c r="N73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O73" t="s">
+        <v>306</v>
+      </c>
+      <c r="P73" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R73" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S73" t="s">
+        <v>21</v>
+      </c>
+      <c r="T73" t="s">
+        <v>304</v>
+      </c>
+      <c r="U73" t="s">
+        <v>303</v>
+      </c>
+      <c r="V73" t="s">
+        <v>305</v>
+      </c>
+      <c r="W73" t="s">
+        <v>14</v>
+      </c>
+      <c r="X73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>302</v>
+      </c>
+      <c r="C74" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="3">
+        <v>3</v>
+      </c>
+      <c r="H74" s="3">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74" t="s">
+        <v>304</v>
+      </c>
+      <c r="L74" t="s">
+        <v>305</v>
+      </c>
+      <c r="M74" t="s">
+        <v>9</v>
+      </c>
+      <c r="N74" t="s">
+        <v>10</v>
+      </c>
+      <c r="O74" t="s">
+        <v>306</v>
+      </c>
+      <c r="P74" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R74" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S74" t="s">
+        <v>21</v>
+      </c>
+      <c r="T74" t="s">
+        <v>304</v>
+      </c>
+      <c r="U74" t="s">
+        <v>303</v>
+      </c>
+      <c r="V74" t="s">
+        <v>305</v>
+      </c>
+      <c r="W74" t="s">
+        <v>14</v>
+      </c>
+      <c r="X74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>302</v>
+      </c>
+      <c r="C75" t="s">
+        <v>303</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" t="s">
+        <v>304</v>
+      </c>
+      <c r="L75" t="s">
+        <v>305</v>
+      </c>
+      <c r="M75" t="s">
+        <v>9</v>
+      </c>
+      <c r="N75" t="s">
+        <v>10</v>
+      </c>
+      <c r="O75" t="s">
+        <v>306</v>
+      </c>
+      <c r="P75" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R75" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S75" t="s">
+        <v>21</v>
+      </c>
+      <c r="T75" t="s">
+        <v>304</v>
+      </c>
+      <c r="U75" t="s">
+        <v>303</v>
+      </c>
+      <c r="V75" t="s">
+        <v>305</v>
+      </c>
+      <c r="W75" t="s">
+        <v>14</v>
+      </c>
+      <c r="X75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" t="s">
+        <v>303</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E76" t="s">
+        <v>147</v>
+      </c>
+      <c r="F76" t="s">
+        <v>148</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3">
+        <v>50</v>
+      </c>
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" t="s">
+        <v>304</v>
+      </c>
+      <c r="L76" t="s">
+        <v>305</v>
+      </c>
+      <c r="M76" t="s">
+        <v>9</v>
+      </c>
+      <c r="N76" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" t="s">
+        <v>306</v>
+      </c>
+      <c r="P76" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R76" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S76" t="s">
+        <v>21</v>
+      </c>
+      <c r="T76" t="s">
+        <v>304</v>
+      </c>
+      <c r="U76" t="s">
+        <v>303</v>
+      </c>
+      <c r="V76" t="s">
+        <v>305</v>
+      </c>
+      <c r="W76" t="s">
+        <v>14</v>
+      </c>
+      <c r="X76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="3">
+        <v>5</v>
+      </c>
+      <c r="H77" s="3">
+        <v>5</v>
+      </c>
+      <c r="I77" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" t="s">
+        <v>309</v>
+      </c>
+      <c r="L77" t="s">
+        <v>310</v>
+      </c>
+      <c r="M77" t="s">
+        <v>9</v>
+      </c>
+      <c r="N77" t="s">
+        <v>10</v>
+      </c>
+      <c r="O77" t="s">
+        <v>311</v>
+      </c>
+      <c r="P77" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R77" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S77" t="s">
+        <v>21</v>
+      </c>
+      <c r="T77" t="s">
+        <v>130</v>
+      </c>
+      <c r="U77" t="s">
+        <v>131</v>
+      </c>
+      <c r="V77" t="s">
+        <v>132</v>
+      </c>
+      <c r="W77" t="s">
+        <v>14</v>
+      </c>
+      <c r="X77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
         <v>312</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C78" t="s">
         <v>313</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D78" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="3">
+        <v>5</v>
+      </c>
+      <c r="H78" s="3">
+        <v>5</v>
+      </c>
+      <c r="I78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" t="s">
+        <v>314</v>
+      </c>
+      <c r="L78" t="s">
+        <v>315</v>
+      </c>
+      <c r="M78" t="s">
+        <v>9</v>
+      </c>
+      <c r="N78" t="s">
+        <v>10</v>
+      </c>
+      <c r="O78" t="s">
+        <v>316</v>
+      </c>
+      <c r="P78" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R78" s="2">
+        <v>45414</v>
+      </c>
+      <c r="S78" t="s">
+        <v>13</v>
+      </c>
+      <c r="T78" t="s">
+        <v>130</v>
+      </c>
+      <c r="U78" t="s">
+        <v>131</v>
+      </c>
+      <c r="V78" t="s">
+        <v>132</v>
+      </c>
+      <c r="W78" t="s">
+        <v>14</v>
+      </c>
+      <c r="X78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45412</v>
+      </c>
+      <c r="E79" t="s">
+        <v>319</v>
+      </c>
+      <c r="F79" t="s">
+        <v>320</v>
+      </c>
+      <c r="G79" s="3">
+        <v>2</v>
+      </c>
+      <c r="H79" s="3">
+        <v>100</v>
+      </c>
+      <c r="I79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" t="s">
+        <v>6</v>
+      </c>
+      <c r="K79" t="s">
+        <v>321</v>
+      </c>
+      <c r="L79" t="s">
+        <v>322</v>
+      </c>
+      <c r="M79" t="s">
+        <v>9</v>
+      </c>
+      <c r="N79" t="s">
+        <v>10</v>
+      </c>
+      <c r="O79" t="s">
+        <v>323</v>
+      </c>
+      <c r="P79" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>45412</v>
+      </c>
+      <c r="R79" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S79" t="s">
+        <v>268</v>
+      </c>
+      <c r="T79" t="s">
+        <v>130</v>
+      </c>
+      <c r="U79" t="s">
+        <v>131</v>
+      </c>
+      <c r="V79" t="s">
+        <v>132</v>
+      </c>
+      <c r="W79" t="s">
+        <v>14</v>
+      </c>
+      <c r="X79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80" t="s">
+        <v>325</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E80" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" t="s">
+        <v>102</v>
+      </c>
+      <c r="G80" s="3">
+        <v>24</v>
+      </c>
+      <c r="H80" s="3">
+        <v>24</v>
+      </c>
+      <c r="I80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" t="s">
+        <v>326</v>
+      </c>
+      <c r="L80" t="s">
+        <v>327</v>
+      </c>
+      <c r="M80" t="s">
+        <v>9</v>
+      </c>
+      <c r="N80" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" t="s">
+        <v>328</v>
+      </c>
+      <c r="P80" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R80" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S80" t="s">
+        <v>58</v>
+      </c>
+      <c r="T80" t="s">
+        <v>326</v>
+      </c>
+      <c r="U80" t="s">
+        <v>329</v>
+      </c>
+      <c r="V80" t="s">
+        <v>327</v>
+      </c>
+      <c r="W80" t="s">
+        <v>14</v>
+      </c>
+      <c r="X80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>324</v>
+      </c>
+      <c r="C81" t="s">
+        <v>325</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E81" t="s">
+        <v>72</v>
+      </c>
+      <c r="F81" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" s="3">
+        <v>3</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" t="s">
+        <v>6</v>
+      </c>
+      <c r="K81" t="s">
+        <v>326</v>
+      </c>
+      <c r="L81" t="s">
+        <v>327</v>
+      </c>
+      <c r="M81" t="s">
+        <v>9</v>
+      </c>
+      <c r="N81" t="s">
+        <v>10</v>
+      </c>
+      <c r="O81" t="s">
+        <v>328</v>
+      </c>
+      <c r="P81" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R81" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S81" t="s">
+        <v>58</v>
+      </c>
+      <c r="T81" t="s">
+        <v>326</v>
+      </c>
+      <c r="U81" t="s">
+        <v>329</v>
+      </c>
+      <c r="V81" t="s">
+        <v>327</v>
+      </c>
+      <c r="W81" t="s">
+        <v>14</v>
+      </c>
+      <c r="X81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E82" t="s">
+        <v>330</v>
+      </c>
+      <c r="F82" t="s">
+        <v>331</v>
+      </c>
+      <c r="G82" s="3">
+        <v>6</v>
+      </c>
+      <c r="H82" s="3">
+        <v>6</v>
+      </c>
+      <c r="I82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" t="s">
+        <v>6</v>
+      </c>
+      <c r="K82" t="s">
+        <v>326</v>
+      </c>
+      <c r="L82" t="s">
+        <v>327</v>
+      </c>
+      <c r="M82" t="s">
+        <v>9</v>
+      </c>
+      <c r="N82" t="s">
+        <v>10</v>
+      </c>
+      <c r="O82" t="s">
+        <v>328</v>
+      </c>
+      <c r="P82" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R82" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S82" t="s">
+        <v>58</v>
+      </c>
+      <c r="T82" t="s">
+        <v>326</v>
+      </c>
+      <c r="U82" t="s">
+        <v>329</v>
+      </c>
+      <c r="V82" t="s">
+        <v>327</v>
+      </c>
+      <c r="W82" t="s">
+        <v>14</v>
+      </c>
+      <c r="X82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>324</v>
+      </c>
+      <c r="C83" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E83" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" s="3">
+        <v>15</v>
+      </c>
+      <c r="H83" s="3">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" t="s">
+        <v>6</v>
+      </c>
+      <c r="K83" t="s">
+        <v>326</v>
+      </c>
+      <c r="L83" t="s">
+        <v>327</v>
+      </c>
+      <c r="M83" t="s">
+        <v>9</v>
+      </c>
+      <c r="N83" t="s">
+        <v>10</v>
+      </c>
+      <c r="O83" t="s">
+        <v>328</v>
+      </c>
+      <c r="P83" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R83" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S83" t="s">
+        <v>58</v>
+      </c>
+      <c r="T83" t="s">
+        <v>326</v>
+      </c>
+      <c r="U83" t="s">
+        <v>329</v>
+      </c>
+      <c r="V83" t="s">
+        <v>327</v>
+      </c>
+      <c r="W83" t="s">
+        <v>14</v>
+      </c>
+      <c r="X83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>324</v>
+      </c>
+      <c r="C84" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E84" t="s">
+        <v>332</v>
+      </c>
+      <c r="F84" t="s">
+        <v>333</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84" t="s">
+        <v>326</v>
+      </c>
+      <c r="L84" t="s">
+        <v>327</v>
+      </c>
+      <c r="M84" t="s">
+        <v>9</v>
+      </c>
+      <c r="N84" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" t="s">
+        <v>328</v>
+      </c>
+      <c r="P84" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R84" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S84" t="s">
+        <v>58</v>
+      </c>
+      <c r="T84" t="s">
+        <v>326</v>
+      </c>
+      <c r="U84" t="s">
+        <v>329</v>
+      </c>
+      <c r="V84" t="s">
+        <v>327</v>
+      </c>
+      <c r="W84" t="s">
+        <v>14</v>
+      </c>
+      <c r="X84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>324</v>
+      </c>
+      <c r="C85" t="s">
+        <v>325</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E85" t="s">
+        <v>217</v>
+      </c>
+      <c r="F85" t="s">
+        <v>218</v>
+      </c>
+      <c r="G85" s="3">
+        <v>6</v>
+      </c>
+      <c r="H85" s="3">
+        <v>120</v>
+      </c>
+      <c r="I85" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85" t="s">
+        <v>326</v>
+      </c>
+      <c r="L85" t="s">
+        <v>327</v>
+      </c>
+      <c r="M85" t="s">
+        <v>9</v>
+      </c>
+      <c r="N85" t="s">
+        <v>10</v>
+      </c>
+      <c r="O85" t="s">
+        <v>328</v>
+      </c>
+      <c r="P85" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R85" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S85" t="s">
+        <v>58</v>
+      </c>
+      <c r="T85" t="s">
+        <v>326</v>
+      </c>
+      <c r="U85" t="s">
+        <v>329</v>
+      </c>
+      <c r="V85" t="s">
+        <v>327</v>
+      </c>
+      <c r="W85" t="s">
+        <v>14</v>
+      </c>
+      <c r="X85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>334</v>
+      </c>
+      <c r="C86" t="s">
+        <v>335</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45415</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" s="3">
+        <v>35</v>
+      </c>
+      <c r="H86" s="3">
+        <v>35</v>
+      </c>
+      <c r="I86" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K86" t="s">
+        <v>336</v>
+      </c>
+      <c r="L86" t="s">
+        <v>337</v>
+      </c>
+      <c r="M86" t="s">
+        <v>9</v>
+      </c>
+      <c r="N86" t="s">
+        <v>10</v>
+      </c>
+      <c r="O86" t="s">
+        <v>338</v>
+      </c>
+      <c r="P86" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>45415</v>
+      </c>
+      <c r="R86" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S86" t="s">
+        <v>339</v>
+      </c>
+      <c r="T86" t="s">
+        <v>336</v>
+      </c>
+      <c r="U86" t="s">
+        <v>335</v>
+      </c>
+      <c r="V86" t="s">
+        <v>337</v>
+      </c>
+      <c r="W86" t="s">
+        <v>14</v>
+      </c>
+      <c r="X86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>340</v>
+      </c>
+      <c r="C87" t="s">
+        <v>341</v>
+      </c>
+      <c r="D87" s="2">
+        <v>45418</v>
+      </c>
+      <c r="E87" t="s">
+        <v>53</v>
+      </c>
+      <c r="F87" t="s">
+        <v>54</v>
+      </c>
+      <c r="G87" s="3">
+        <v>6</v>
+      </c>
+      <c r="H87" s="3">
+        <v>6</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" t="s">
+        <v>6</v>
+      </c>
+      <c r="K87" t="s">
+        <v>342</v>
+      </c>
+      <c r="L87" t="s">
+        <v>343</v>
+      </c>
+      <c r="M87" t="s">
+        <v>9</v>
+      </c>
+      <c r="N87" t="s">
+        <v>10</v>
+      </c>
+      <c r="O87" t="s">
+        <v>344</v>
+      </c>
+      <c r="P87" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>45418</v>
+      </c>
+      <c r="R87" s="2">
+        <v>45419</v>
+      </c>
+      <c r="S87" t="s">
+        <v>339</v>
+      </c>
+      <c r="T87" t="s">
+        <v>59</v>
+      </c>
+      <c r="U87" t="s">
+        <v>60</v>
+      </c>
+      <c r="V87" t="s">
+        <v>61</v>
+      </c>
+      <c r="W87" t="s">
+        <v>14</v>
+      </c>
+      <c r="X87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>345</v>
+      </c>
+      <c r="C88" t="s">
+        <v>346</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45418</v>
+      </c>
+      <c r="E88" t="s">
+        <v>332</v>
+      </c>
+      <c r="F88" t="s">
+        <v>347</v>
+      </c>
+      <c r="G88" s="3">
+        <v>5</v>
+      </c>
+      <c r="H88" s="3">
+        <v>5</v>
+      </c>
+      <c r="I88" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" t="s">
+        <v>6</v>
+      </c>
+      <c r="K88" t="s">
+        <v>348</v>
+      </c>
+      <c r="L88" t="s">
+        <v>349</v>
+      </c>
+      <c r="M88" t="s">
+        <v>9</v>
+      </c>
+      <c r="N88" t="s">
+        <v>10</v>
+      </c>
+      <c r="O88" t="s">
+        <v>350</v>
+      </c>
+      <c r="P88" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>45418</v>
+      </c>
+      <c r="R88" s="2">
+        <v>45419</v>
+      </c>
+      <c r="S88" t="s">
+        <v>339</v>
+      </c>
+      <c r="T88" t="s">
+        <v>351</v>
+      </c>
+      <c r="U88" t="s">
+        <v>352</v>
+      </c>
+      <c r="V88" t="s">
+        <v>353</v>
+      </c>
+      <c r="W88" t="s">
+        <v>14</v>
+      </c>
+      <c r="X88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>354</v>
+      </c>
+      <c r="C89" t="s">
+        <v>355</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45418</v>
+      </c>
+      <c r="E89" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" t="s">
+        <v>102</v>
+      </c>
+      <c r="G89" s="3">
+        <v>12</v>
+      </c>
+      <c r="H89" s="3">
+        <v>12</v>
+      </c>
+      <c r="I89" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>6</v>
+      </c>
+      <c r="K89" t="s">
+        <v>356</v>
+      </c>
+      <c r="L89" t="s">
+        <v>357</v>
+      </c>
+      <c r="M89" t="s">
+        <v>9</v>
+      </c>
+      <c r="N89" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" t="s">
+        <v>358</v>
+      </c>
+      <c r="P89" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>45418</v>
+      </c>
+      <c r="R89" s="2">
+        <v>45419</v>
+      </c>
+      <c r="S89" t="s">
+        <v>339</v>
+      </c>
+      <c r="T89" t="s">
+        <v>205</v>
+      </c>
+      <c r="U89" t="s">
+        <v>206</v>
+      </c>
+      <c r="V89" t="s">
+        <v>207</v>
+      </c>
+      <c r="W89" t="s">
+        <v>14</v>
+      </c>
+      <c r="X89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
+      <c r="A90" t="s">
+        <v>359</v>
+      </c>
+      <c r="B90" t="s">
+        <v>360</v>
+      </c>
+      <c r="C90" t="s">
+        <v>361</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E90" t="s">
+        <v>362</v>
+      </c>
+      <c r="F90" t="s">
+        <v>363</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" t="s">
+        <v>364</v>
+      </c>
+      <c r="K90" t="s">
+        <v>365</v>
+      </c>
+      <c r="L90" t="s">
+        <v>366</v>
+      </c>
+      <c r="M90" t="s">
+        <v>367</v>
+      </c>
+      <c r="N90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O90" t="s">
+        <v>368</v>
+      </c>
+      <c r="P90" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R90" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S90" t="s">
+        <v>21</v>
+      </c>
+      <c r="T90" t="s">
+        <v>365</v>
+      </c>
+      <c r="U90" t="s">
+        <v>370</v>
+      </c>
+      <c r="V90" t="s">
+        <v>371</v>
+      </c>
+      <c r="W90" t="s">
+        <v>14</v>
+      </c>
+      <c r="X90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
+      <c r="A91" t="s">
+        <v>359</v>
+      </c>
+      <c r="B91" t="s">
+        <v>372</v>
+      </c>
+      <c r="C91" t="s">
+        <v>373</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E91" t="s">
+        <v>362</v>
+      </c>
+      <c r="F91" t="s">
+        <v>363</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" t="s">
+        <v>364</v>
+      </c>
+      <c r="K91" t="s">
+        <v>365</v>
+      </c>
+      <c r="L91" t="s">
+        <v>374</v>
+      </c>
+      <c r="M91" t="s">
+        <v>367</v>
+      </c>
+      <c r="N91" t="s">
+        <v>10</v>
+      </c>
+      <c r="O91" t="s">
+        <v>375</v>
+      </c>
+      <c r="P91" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R91" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S91" t="s">
+        <v>21</v>
+      </c>
+      <c r="T91" t="s">
+        <v>365</v>
+      </c>
+      <c r="U91" t="s">
+        <v>370</v>
+      </c>
+      <c r="V91" t="s">
+        <v>371</v>
+      </c>
+      <c r="W91" t="s">
+        <v>14</v>
+      </c>
+      <c r="X91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
+      <c r="A92" t="s">
+        <v>359</v>
+      </c>
+      <c r="B92" t="s">
+        <v>376</v>
+      </c>
+      <c r="C92" t="s">
+        <v>377</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E92" t="s">
+        <v>362</v>
+      </c>
+      <c r="F92" t="s">
+        <v>363</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>5</v>
+      </c>
+      <c r="J92" t="s">
+        <v>364</v>
+      </c>
+      <c r="K92" t="s">
+        <v>365</v>
+      </c>
+      <c r="L92" t="s">
+        <v>378</v>
+      </c>
+      <c r="M92" t="s">
+        <v>367</v>
+      </c>
+      <c r="N92" t="s">
+        <v>10</v>
+      </c>
+      <c r="O92" t="s">
+        <v>379</v>
+      </c>
+      <c r="P92" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R92" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S92" t="s">
+        <v>21</v>
+      </c>
+      <c r="T92" t="s">
+        <v>365</v>
+      </c>
+      <c r="U92" t="s">
+        <v>370</v>
+      </c>
+      <c r="V92" t="s">
+        <v>371</v>
+      </c>
+      <c r="W92" t="s">
+        <v>14</v>
+      </c>
+      <c r="X92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
+      <c r="A93" t="s">
+        <v>359</v>
+      </c>
+      <c r="B93" t="s">
+        <v>380</v>
+      </c>
+      <c r="C93" t="s">
+        <v>373</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45411</v>
+      </c>
+      <c r="E93" t="s">
+        <v>381</v>
+      </c>
+      <c r="F93" t="s">
+        <v>382</v>
+      </c>
+      <c r="G93" s="3">
+        <v>2</v>
+      </c>
+      <c r="H93" s="3">
+        <v>2</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93" t="s">
+        <v>364</v>
+      </c>
+      <c r="K93" t="s">
+        <v>365</v>
+      </c>
+      <c r="L93" t="s">
+        <v>374</v>
+      </c>
+      <c r="M93" t="s">
+        <v>367</v>
+      </c>
+      <c r="N93" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93" t="s">
+        <v>383</v>
+      </c>
+      <c r="P93" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>45411</v>
+      </c>
+      <c r="R93" s="2">
+        <v>45412</v>
+      </c>
+      <c r="S93" t="s">
+        <v>21</v>
+      </c>
+      <c r="T93" t="s">
+        <v>365</v>
+      </c>
+      <c r="U93" t="s">
+        <v>370</v>
+      </c>
+      <c r="V93" t="s">
+        <v>371</v>
+      </c>
+      <c r="W93" t="s">
+        <v>14</v>
+      </c>
+      <c r="X93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
+      <c r="A94" t="s">
+        <v>359</v>
+      </c>
+      <c r="B94" t="s">
+        <v>384</v>
+      </c>
+      <c r="C94" t="s">
+        <v>385</v>
+      </c>
+      <c r="D94" s="2">
         <v>45468</v>
       </c>
-      <c r="E68" t="s">
-        <v>314</v>
-      </c>
-      <c r="F68" t="s">
-        <v>315</v>
-      </c>
-      <c r="G68" s="3">
+      <c r="E94" t="s">
+        <v>386</v>
+      </c>
+      <c r="F94" t="s">
+        <v>387</v>
+      </c>
+      <c r="G94" s="3">
         <v>1</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H94" s="3">
         <v>1</v>
       </c>
-      <c r="I68" t="s">
-        <v>5</v>
-      </c>
-      <c r="J68" t="s">
-        <v>292</v>
-      </c>
-      <c r="K68" t="s">
-        <v>316</v>
-      </c>
-      <c r="L68" t="s">
-        <v>317</v>
-      </c>
-      <c r="M68" t="s">
-        <v>9</v>
-      </c>
-      <c r="N68" t="s">
-        <v>10</v>
-      </c>
-      <c r="O68" t="s">
-        <v>318</v>
-      </c>
-      <c r="P68" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q68" s="2">
+      <c r="I94" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" t="s">
+        <v>364</v>
+      </c>
+      <c r="K94" t="s">
+        <v>388</v>
+      </c>
+      <c r="L94" t="s">
+        <v>389</v>
+      </c>
+      <c r="M94" t="s">
+        <v>9</v>
+      </c>
+      <c r="N94" t="s">
+        <v>10</v>
+      </c>
+      <c r="O94" t="s">
+        <v>390</v>
+      </c>
+      <c r="P94" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q94" s="2">
         <v>45468</v>
       </c>
-      <c r="R68" s="2">
+      <c r="R94" s="2">
         <v>45468</v>
       </c>
-      <c r="S68" t="s">
+      <c r="S94" t="s">
         <v>43</v>
       </c>
-      <c r="T68" t="s">
-        <v>316</v>
-      </c>
-      <c r="U68" t="s">
-        <v>313</v>
-      </c>
-      <c r="V68" t="s">
-        <v>317</v>
-      </c>
-      <c r="W68" t="s">
-        <v>14</v>
-      </c>
-      <c r="X68" t="s">
+      <c r="T94" t="s">
+        <v>388</v>
+      </c>
+      <c r="U94" t="s">
+        <v>385</v>
+      </c>
+      <c r="V94" t="s">
+        <v>389</v>
+      </c>
+      <c r="W94" t="s">
+        <v>14</v>
+      </c>
+      <c r="X94" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="379">
   <si>
     <t>P891</t>
   </si>
@@ -103,10 +103,211 @@
     <t>Reagent Kit -90Y and 177Lu Peptides</t>
   </si>
   <si>
-    <t>133840211</t>
-  </si>
-  <si>
-    <t>MELBOURNE PRIVATE HOSPITAL</t>
+    <t>133836237</t>
+  </si>
+  <si>
+    <t>GOULBURN VALLEY HEALTH</t>
+  </si>
+  <si>
+    <t>02112548</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>3016815</t>
+  </si>
+  <si>
+    <t>SHEPPARTON</t>
+  </si>
+  <si>
+    <t>717104608</t>
+  </si>
+  <si>
+    <t>SXSRIP2R</t>
+  </si>
+  <si>
+    <t>020050</t>
+  </si>
+  <si>
+    <t>02112555</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133845845</t>
+  </si>
+  <si>
+    <t>717110880</t>
+  </si>
+  <si>
+    <t>133849413</t>
+  </si>
+  <si>
+    <t>4595858</t>
+  </si>
+  <si>
+    <t>EPSOM</t>
+  </si>
+  <si>
+    <t>717057138</t>
+  </si>
+  <si>
+    <t>64431313</t>
+  </si>
+  <si>
+    <t>Trifluoroacetic acid TFA</t>
+  </si>
+  <si>
+    <t>64424260</t>
+  </si>
+  <si>
+    <t>LabEAZY Cassette- 68Ga PSMA Peptides</t>
+  </si>
+  <si>
+    <t>64424244</t>
+  </si>
+  <si>
+    <t>LabEAZY Cassette- 68Ga DOTA Peptides</t>
+  </si>
+  <si>
+    <t>64424287</t>
+  </si>
+  <si>
+    <t>Modular-Lab Eazy Cassette for Lu177-PSMA</t>
+  </si>
+  <si>
+    <t>64425232</t>
+  </si>
+  <si>
+    <t>Reagent Set 68Ga-labeled peptides</t>
+  </si>
+  <si>
+    <t>64432778</t>
+  </si>
+  <si>
+    <t>Ascorbic acid buffer 50mg/vial</t>
+  </si>
+  <si>
+    <t>133849577</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING - WESTMEAD</t>
+  </si>
+  <si>
+    <t>87234495</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>3806780</t>
+  </si>
+  <si>
+    <t>WESTMEAD</t>
+  </si>
+  <si>
+    <t>717110768</t>
+  </si>
+  <si>
+    <t>010050</t>
+  </si>
+  <si>
+    <t>4595823</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>GOSFORD</t>
+  </si>
+  <si>
+    <t>133852844</t>
+  </si>
+  <si>
+    <t>DIAGNOSTIC &amp; MEDICAL PTY LTD</t>
+  </si>
+  <si>
+    <t>82212737</t>
+  </si>
+  <si>
+    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
+  </si>
+  <si>
+    <t>3020867</t>
+  </si>
+  <si>
+    <t>MACQUARIE PARK</t>
+  </si>
+  <si>
+    <t>717057926</t>
+  </si>
+  <si>
+    <t>133853693</t>
+  </si>
+  <si>
+    <t>Mount Druitt Hospital Main Store</t>
+  </si>
+  <si>
+    <t>03250768</t>
+  </si>
+  <si>
+    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>3309340</t>
+  </si>
+  <si>
+    <t>MOUNT DRUITT</t>
+  </si>
+  <si>
+    <t>717101529</t>
+  </si>
+  <si>
+    <t>4596108</t>
+  </si>
+  <si>
+    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
+  </si>
+  <si>
+    <t>PARRAMATTA</t>
+  </si>
+  <si>
+    <t>133858732</t>
+  </si>
+  <si>
+    <t>REPAT RADIOLOGY</t>
+  </si>
+  <si>
+    <t>86698188</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>4553048</t>
+  </si>
+  <si>
+    <t>DAW PARK</t>
+  </si>
+  <si>
+    <t>717111710</t>
+  </si>
+  <si>
+    <t>4595446</t>
+  </si>
+  <si>
+    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>133845841</t>
+  </si>
+  <si>
+    <t>WARRINGAL PRIVATE HOSPITAL</t>
   </si>
   <si>
     <t>80727543</t>
@@ -115,85 +316,394 @@
     <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
   </si>
   <si>
-    <t>3018749</t>
-  </si>
-  <si>
-    <t>PARKVILLE</t>
-  </si>
-  <si>
-    <t>717098444</t>
-  </si>
-  <si>
-    <t>SXSRIP2R</t>
-  </si>
-  <si>
-    <t>010050</t>
-  </si>
-  <si>
-    <t>4595617</t>
-  </si>
-  <si>
-    <t>HEALTHSCOPE LTD</t>
+    <t>4596134</t>
+  </si>
+  <si>
+    <t>HEIDELBERG</t>
+  </si>
+  <si>
+    <t>717105303</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>4595466</t>
+  </si>
+  <si>
+    <t>RAMSAY HEALTH CARE</t>
+  </si>
+  <si>
+    <t>ST KILDA ROAD</t>
+  </si>
+  <si>
+    <t>133845842</t>
+  </si>
+  <si>
+    <t>THE ALFRED HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595753</t>
   </si>
   <si>
     <t>MELBOURNE</t>
   </si>
   <si>
-    <t>133848799</t>
-  </si>
-  <si>
-    <t>ST GEORGE PRIVATE HOSPITAL</t>
-  </si>
-  <si>
-    <t>3019869</t>
-  </si>
-  <si>
-    <t>KOGARAH</t>
-  </si>
-  <si>
-    <t>717095599</t>
-  </si>
-  <si>
-    <t>4595466</t>
-  </si>
-  <si>
-    <t>RAMSAY HEALTH CARE</t>
-  </si>
-  <si>
-    <t>ST KILDA ROAD</t>
-  </si>
-  <si>
-    <t>133830909</t>
-  </si>
-  <si>
-    <t>ADELAIDE COMMUNITY HEALTHCARE</t>
-  </si>
-  <si>
-    <t>3019836</t>
-  </si>
-  <si>
-    <t>Keswick</t>
-  </si>
-  <si>
-    <t>717106788</t>
-  </si>
-  <si>
-    <t>020050</t>
-  </si>
-  <si>
-    <t>133844189</t>
+    <t>717105914</t>
+  </si>
+  <si>
+    <t>4596298</t>
+  </si>
+  <si>
+    <t>ALFRED HEALTH</t>
+  </si>
+  <si>
+    <t>PRAHRAN</t>
+  </si>
+  <si>
+    <t>133845843</t>
+  </si>
+  <si>
+    <t>THE WESLEY HOSPITAL-MAIN STORE</t>
+  </si>
+  <si>
+    <t>86617455</t>
+  </si>
+  <si>
+    <t>AVANTA,KIT,SYR,ANGIO,150ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595423</t>
+  </si>
+  <si>
+    <t>AUCHENFLOWER</t>
+  </si>
+  <si>
+    <t>717109551</t>
+  </si>
+  <si>
+    <t>3308475</t>
+  </si>
+  <si>
+    <t>UNITYCARE HEALTH</t>
+  </si>
+  <si>
+    <t>133845844</t>
+  </si>
+  <si>
+    <t>BARWON MEDICAL IMAGING - GEELONG</t>
+  </si>
+  <si>
+    <t>86617439</t>
+  </si>
+  <si>
+    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>4596081</t>
+  </si>
+  <si>
+    <t>GEELONG</t>
+  </si>
+  <si>
+    <t>717109601</t>
+  </si>
+  <si>
+    <t>4596084</t>
+  </si>
+  <si>
+    <t>BARWON HEALTH</t>
+  </si>
+  <si>
+    <t>133845846</t>
+  </si>
+  <si>
+    <t>ROYAL ADELAIDE HOSPITAL</t>
+  </si>
+  <si>
+    <t>4676781</t>
+  </si>
+  <si>
+    <t>717110890</t>
+  </si>
+  <si>
+    <t>133849347</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY-GREENSLOPES QX133</t>
+  </si>
+  <si>
+    <t>4596219</t>
+  </si>
+  <si>
+    <t>GREENSLOPES</t>
+  </si>
+  <si>
+    <t>717105866</t>
+  </si>
+  <si>
+    <t>4596029</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY PTY LTD</t>
+  </si>
+  <si>
+    <t>SOUTH BRISBANE</t>
+  </si>
+  <si>
+    <t>133849575</t>
+  </si>
+  <si>
+    <t>MET MaitlandHospDock 550001</t>
+  </si>
+  <si>
+    <t>4687593</t>
+  </si>
+  <si>
+    <t>Metford</t>
+  </si>
+  <si>
+    <t>717107314</t>
+  </si>
+  <si>
+    <t>4595328</t>
+  </si>
+  <si>
+    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
+  </si>
+  <si>
+    <t>NEWCASTLE</t>
+  </si>
+  <si>
+    <t>133852413</t>
+  </si>
+  <si>
+    <t>LAUNCESTON GENERAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>00658781</t>
+  </si>
+  <si>
+    <t>ULTRAVIST 370 SOLU BT 1X200ML AU</t>
+  </si>
+  <si>
+    <t>SPEC</t>
+  </si>
+  <si>
+    <t>4595878</t>
+  </si>
+  <si>
+    <t>KINGS MEADOWS</t>
+  </si>
+  <si>
+    <t>717098799</t>
+  </si>
+  <si>
+    <t>EIWPK</t>
+  </si>
+  <si>
+    <t>050230</t>
+  </si>
+  <si>
+    <t>3310765</t>
+  </si>
+  <si>
+    <t>TASMANIAN HEALTH SERVICE</t>
+  </si>
+  <si>
+    <t>HOBART</t>
+  </si>
+  <si>
+    <t>133852845</t>
+  </si>
+  <si>
+    <t>CABRINI HOSPITAL</t>
+  </si>
+  <si>
+    <t>87234487</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>4596112</t>
+  </si>
+  <si>
+    <t>BRIGHTON</t>
+  </si>
+  <si>
+    <t>717079732</t>
+  </si>
+  <si>
+    <t>4596151</t>
+  </si>
+  <si>
+    <t>CABRINI HEALTH</t>
+  </si>
+  <si>
+    <t>MALVERN</t>
+  </si>
+  <si>
+    <t>133852856</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY-CAIRNS</t>
+  </si>
+  <si>
+    <t>64439489</t>
+  </si>
+  <si>
+    <t>0.1 Hydrochloric Acid (ultra pure)</t>
+  </si>
+  <si>
+    <t>4596017</t>
+  </si>
+  <si>
+    <t>CAIRNS</t>
+  </si>
+  <si>
+    <t>717104830</t>
+  </si>
+  <si>
+    <t>040130</t>
+  </si>
+  <si>
+    <t>133853694</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - BAYSIDE</t>
+  </si>
+  <si>
+    <t>4596022</t>
+  </si>
+  <si>
+    <t>CLEVELAND</t>
+  </si>
+  <si>
+    <t>717107484</t>
+  </si>
+  <si>
+    <t>133853695</t>
+  </si>
+  <si>
+    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
+  </si>
+  <si>
+    <t>80802544</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4670712</t>
+  </si>
+  <si>
+    <t>DERRIMUT</t>
+  </si>
+  <si>
+    <t>717107524</t>
+  </si>
+  <si>
+    <t>4670709</t>
+  </si>
+  <si>
+    <t>HEALTHSHARE VICTORIA</t>
+  </si>
+  <si>
+    <t>133853696</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - C/- ST ANDREWS</t>
+  </si>
+  <si>
+    <t>89092302</t>
+  </si>
+  <si>
+    <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
+  </si>
+  <si>
+    <t>4596001</t>
+  </si>
+  <si>
+    <t>TOOWOOMBA</t>
+  </si>
+  <si>
+    <t>717108117</t>
+  </si>
+  <si>
+    <t>86617501</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,PAS,60",MC,WLD</t>
+  </si>
+  <si>
+    <t>86645564</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,LPCT,STELLANT,MC,WLD</t>
+  </si>
+  <si>
+    <t>133853970</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY  - CABOOLTURE</t>
+  </si>
+  <si>
+    <t>4595906</t>
+  </si>
+  <si>
+    <t>CABOOLTURE</t>
+  </si>
+  <si>
+    <t>717112060</t>
+  </si>
+  <si>
+    <t>133854847</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - BENALLA</t>
+  </si>
+  <si>
+    <t>4595774</t>
+  </si>
+  <si>
+    <t>BENALLA</t>
+  </si>
+  <si>
+    <t>717100057</t>
+  </si>
+  <si>
+    <t>133855220</t>
+  </si>
+  <si>
+    <t>ST VINCENT'S HOSPITAL (MELBOURNE)</t>
+  </si>
+  <si>
+    <t>4595793</t>
+  </si>
+  <si>
+    <t>FITZROY</t>
+  </si>
+  <si>
+    <t>717105754</t>
+  </si>
+  <si>
+    <t>4595792</t>
+  </si>
+  <si>
+    <t>ST VINCENT'S HOSPITAL MELBOURNE LTD</t>
+  </si>
+  <si>
+    <t>133856899</t>
   </si>
   <si>
     <t>ST VINCENTS HOSPITAL SYDNEY</t>
   </si>
   <si>
-    <t>00658781</t>
-  </si>
-  <si>
-    <t>ULTRAVIST 370 SOLU BT 1X200ML AU</t>
-  </si>
-  <si>
-    <t>SPEC</t>
+    <t>87621529</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
   </si>
   <si>
     <t>4595515</t>
@@ -202,13 +712,7 @@
     <t>DARLINGHURST</t>
   </si>
   <si>
-    <t>717103680</t>
-  </si>
-  <si>
-    <t>EIWPK</t>
-  </si>
-  <si>
-    <t>010130</t>
+    <t>717103988</t>
   </si>
   <si>
     <t>4595511</t>
@@ -217,127 +721,172 @@
     <t>ST VINCENT'S HOSPITAL SYDNEY LTD</t>
   </si>
   <si>
-    <t>87548783</t>
-  </si>
-  <si>
-    <t>ASSY,DAY SET,CENTARGO,ROW</t>
-  </si>
-  <si>
-    <t>133845937</t>
-  </si>
-  <si>
-    <t>ROYAL PRINCE ALFRED HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595811</t>
-  </si>
-  <si>
-    <t>CAMPERDOWN</t>
-  </si>
-  <si>
-    <t>717100943</t>
-  </si>
-  <si>
-    <t>4595817</t>
-  </si>
-  <si>
-    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
-  </si>
-  <si>
-    <t>PARRAMATTA</t>
-  </si>
-  <si>
-    <t>133849083</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY - SUNNYBANK</t>
-  </si>
-  <si>
-    <t>4596007</t>
-  </si>
-  <si>
-    <t>SUNNYBANK</t>
-  </si>
-  <si>
-    <t>717101346</t>
-  </si>
-  <si>
-    <t>4596029</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY PTY LTD</t>
-  </si>
-  <si>
-    <t>SOUTH BRISBANE</t>
-  </si>
-  <si>
-    <t>133849395</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY - KANGAROO POINT</t>
-  </si>
-  <si>
-    <t>4596014</t>
-  </si>
-  <si>
-    <t>KANGAROO POINT</t>
-  </si>
-  <si>
-    <t>717099188</t>
-  </si>
-  <si>
-    <t>133849413</t>
-  </si>
-  <si>
-    <t>4595858</t>
-  </si>
-  <si>
-    <t>EPSOM</t>
-  </si>
-  <si>
-    <t>717057138</t>
-  </si>
-  <si>
-    <t>64431313</t>
-  </si>
-  <si>
-    <t>Trifluoroacetic acid TFA</t>
-  </si>
-  <si>
-    <t>64424260</t>
-  </si>
-  <si>
-    <t>LabEAZY Cassette- 68Ga PSMA Peptides</t>
-  </si>
-  <si>
-    <t>64424244</t>
-  </si>
-  <si>
-    <t>LabEAZY Cassette- 68Ga DOTA Peptides</t>
-  </si>
-  <si>
-    <t>64424287</t>
-  </si>
-  <si>
-    <t>Modular-Lab Eazy Cassette for Lu177-PSMA</t>
-  </si>
-  <si>
-    <t>64425232</t>
-  </si>
-  <si>
-    <t>Reagent Set 68Ga-labeled peptides</t>
-  </si>
-  <si>
-    <t>64432778</t>
-  </si>
-  <si>
-    <t>Ascorbic acid buffer 50mg/vial</t>
-  </si>
-  <si>
-    <t>133849443</t>
-  </si>
-  <si>
-    <t>HIGHFIELDS IMAGING</t>
+    <t>133856999</t>
+  </si>
+  <si>
+    <t>HORNSBY KURINGAI HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595336</t>
+  </si>
+  <si>
+    <t>HORNSBY</t>
+  </si>
+  <si>
+    <t>717106983</t>
+  </si>
+  <si>
+    <t>4595339</t>
+  </si>
+  <si>
+    <t>NORTHERN SYDNEY LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133858731</t>
+  </si>
+  <si>
+    <t>Albury Base Hospital Pharmacy</t>
+  </si>
+  <si>
+    <t>3069732</t>
+  </si>
+  <si>
+    <t>717099753</t>
+  </si>
+  <si>
+    <t>4596179</t>
+  </si>
+  <si>
+    <t>ALBURY WODONGA HEALTH</t>
+  </si>
+  <si>
+    <t>133858808</t>
+  </si>
+  <si>
+    <t>PRP Diagnostic Imaging- Warriewood</t>
+  </si>
+  <si>
+    <t>929711</t>
+  </si>
+  <si>
+    <t>Warriewood</t>
+  </si>
+  <si>
+    <t>717106325</t>
+  </si>
+  <si>
+    <t>87078760</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
+  </si>
+  <si>
+    <t>133858852</t>
+  </si>
+  <si>
+    <t>GOLD COAST UNIVERSITY HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595660</t>
+  </si>
+  <si>
+    <t>SOUTHPORT</t>
+  </si>
+  <si>
+    <t>717110750</t>
+  </si>
+  <si>
+    <t>4595661</t>
+  </si>
+  <si>
+    <t>GOLD COAST HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>133859118</t>
+  </si>
+  <si>
+    <t>717106296</t>
+  </si>
+  <si>
+    <t>86574470</t>
+  </si>
+  <si>
+    <t>ASSY,FEMALE-FEMALE LUER,MRI,MC,WLD</t>
+  </si>
+  <si>
+    <t>133859119</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - CAIRNS DIAG</t>
+  </si>
+  <si>
+    <t>4596009</t>
+  </si>
+  <si>
+    <t>717106599</t>
+  </si>
+  <si>
+    <t>133859121</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - COOPERS PLAINS</t>
+  </si>
+  <si>
+    <t>4596010</t>
+  </si>
+  <si>
+    <t>COOPERS PLAINS</t>
+  </si>
+  <si>
+    <t>717110850</t>
+  </si>
+  <si>
+    <t>133859258</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - CAPALABA</t>
+  </si>
+  <si>
+    <t>730128</t>
+  </si>
+  <si>
+    <t>CAPALABA</t>
+  </si>
+  <si>
+    <t>717106834</t>
+  </si>
+  <si>
+    <t>133859728</t>
+  </si>
+  <si>
+    <t>717110825</t>
+  </si>
+  <si>
+    <t>133849576</t>
+  </si>
+  <si>
+    <t>PERTH RAD CLINIC LTD - SJOG MIDLAND</t>
+  </si>
+  <si>
+    <t>4595281</t>
+  </si>
+  <si>
+    <t>MIDLAND</t>
+  </si>
+  <si>
+    <t>717109124</t>
+  </si>
+  <si>
+    <t>010530</t>
+  </si>
+  <si>
+    <t>4595291</t>
+  </si>
+  <si>
+    <t>PERTHRADCLINIC LTD</t>
+  </si>
+  <si>
+    <t>MIRRABOOKA</t>
   </si>
   <si>
     <t>86566621</t>
@@ -346,736 +895,73 @@
     <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
   </si>
   <si>
-    <t>4700930</t>
-  </si>
-  <si>
-    <t>PORT MACQUARIE</t>
-  </si>
-  <si>
-    <t>717102923</t>
-  </si>
-  <si>
-    <t>4595461</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES (NSW)</t>
-  </si>
-  <si>
-    <t>ST LEONARDS</t>
-  </si>
-  <si>
-    <t>86617501</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,PAS,60",MC,WLD</t>
-  </si>
-  <si>
-    <t>60937964</t>
-  </si>
-  <si>
-    <t>LABEL,PRINTER,THERMAL,PSA,INTEGO</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>64436641</t>
-  </si>
-  <si>
-    <t>DKFZ-PSMA-11 (GMP) 1MG</t>
-  </si>
-  <si>
-    <t>133849500</t>
-  </si>
-  <si>
-    <t>CHS HUME SUPPLY WAREHOUSE</t>
-  </si>
-  <si>
-    <t>1079624</t>
-  </si>
-  <si>
-    <t>HUME</t>
-  </si>
-  <si>
-    <t>717097466</t>
-  </si>
-  <si>
-    <t>4595647</t>
-  </si>
-  <si>
-    <t>ACT HEALTH SUPPLY SERVICES</t>
-  </si>
-  <si>
-    <t>MITCHELL</t>
-  </si>
-  <si>
-    <t>133849613</t>
-  </si>
-  <si>
-    <t>i-MED RADIOLOGY - CASEY</t>
-  </si>
-  <si>
-    <t>4595719</t>
-  </si>
-  <si>
-    <t>BERWICK</t>
-  </si>
-  <si>
-    <t>717099057</t>
-  </si>
-  <si>
-    <t>133849679</t>
-  </si>
-  <si>
-    <t>4595813</t>
-  </si>
-  <si>
-    <t>717103460</t>
-  </si>
-  <si>
-    <t>133850022</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY - HYDE PARK</t>
-  </si>
-  <si>
-    <t>4596008</t>
-  </si>
-  <si>
-    <t>HYDE PARK</t>
-  </si>
-  <si>
-    <t>717101792</t>
-  </si>
-  <si>
-    <t>030130</t>
-  </si>
-  <si>
-    <t>89092302</t>
-  </si>
-  <si>
-    <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
-  </si>
-  <si>
-    <t>64439489</t>
-  </si>
-  <si>
-    <t>0.1 Hydrochloric Acid (ultra pure)</t>
-  </si>
-  <si>
-    <t>133850421</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY - DOUGLAS</t>
-  </si>
-  <si>
-    <t>03250768</t>
-  </si>
-  <si>
-    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4633127</t>
-  </si>
-  <si>
-    <t>DOUGLAS</t>
-  </si>
-  <si>
-    <t>717103342</t>
-  </si>
-  <si>
-    <t>133850422</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY-CAIRNS</t>
-  </si>
-  <si>
-    <t>4596017</t>
-  </si>
-  <si>
-    <t>CAIRNS</t>
-  </si>
-  <si>
-    <t>717104830</t>
-  </si>
-  <si>
-    <t>040130</t>
-  </si>
-  <si>
-    <t>64433774</t>
-  </si>
-  <si>
-    <t>PSMA I&amp;T 1mg GMP Grade Precursor</t>
-  </si>
-  <si>
-    <t>133851747</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY - SPRINGFIELD</t>
-  </si>
-  <si>
-    <t>4596026</t>
-  </si>
-  <si>
-    <t>SPRINGFIELD</t>
-  </si>
-  <si>
-    <t>717101925</t>
-  </si>
-  <si>
-    <t>133851778</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY - C/- ST ANDREWS</t>
-  </si>
-  <si>
-    <t>4596000</t>
-  </si>
-  <si>
-    <t>TOOWOOMBA</t>
-  </si>
-  <si>
-    <t>717104015</t>
-  </si>
-  <si>
-    <t>133830910</t>
-  </si>
-  <si>
-    <t>BLACKTOWN HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596101</t>
-  </si>
-  <si>
-    <t>BLACKTOWN</t>
-  </si>
-  <si>
-    <t>717106982</t>
-  </si>
-  <si>
-    <t>4596108</t>
-  </si>
-  <si>
-    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
-  </si>
-  <si>
-    <t>133833029</t>
-  </si>
-  <si>
-    <t>CALVARY MATER HOSPITAL - WARATAH</t>
-  </si>
-  <si>
-    <t>86698242</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595323</t>
-  </si>
-  <si>
-    <t>WARATAH</t>
-  </si>
-  <si>
-    <t>717103959</t>
-  </si>
-  <si>
-    <t>4595328</t>
-  </si>
-  <si>
-    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
-  </si>
-  <si>
-    <t>NEWCASTLE</t>
-  </si>
-  <si>
-    <t>133852797</t>
-  </si>
-  <si>
-    <t>HUNTER IMAGING GROUP - GATESHEAD</t>
-  </si>
-  <si>
-    <t>4596139</t>
-  </si>
-  <si>
-    <t>GATESHEAD</t>
-  </si>
-  <si>
-    <t>717088619</t>
-  </si>
-  <si>
-    <t>4596223</t>
-  </si>
-  <si>
-    <t>HUNTER IMAGING GROUP PTY LIMITED</t>
-  </si>
-  <si>
-    <t>ADAMSTOWN</t>
-  </si>
-  <si>
-    <t>64437141</t>
-  </si>
-  <si>
-    <t>Dota250UG (Tyr3)-Octreotate (GMP-Dota)</t>
-  </si>
-  <si>
-    <t>133854627</t>
-  </si>
-  <si>
-    <t>PRP Diagnostic Imaging- The</t>
-  </si>
-  <si>
-    <t>87078760</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
-  </si>
-  <si>
-    <t>917789</t>
-  </si>
-  <si>
-    <t>Bella Vista</t>
-  </si>
-  <si>
-    <t>717109741</t>
-  </si>
-  <si>
-    <t>4595823</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>GOSFORD</t>
-  </si>
-  <si>
-    <t>87234495</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>133854840</t>
-  </si>
-  <si>
-    <t>MANNING BASE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595325</t>
-  </si>
-  <si>
-    <t>TAREE</t>
-  </si>
-  <si>
-    <t>717103958</t>
-  </si>
-  <si>
-    <t>133854842</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - EPPING</t>
-  </si>
-  <si>
-    <t>82212737</t>
-  </si>
-  <si>
-    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
-  </si>
-  <si>
-    <t>4595927</t>
-  </si>
-  <si>
-    <t>EPPING</t>
-  </si>
-  <si>
-    <t>717105998</t>
-  </si>
-  <si>
-    <t>133854844</t>
-  </si>
-  <si>
-    <t>BARWON MEDICAL IMAGING - GEELONG</t>
-  </si>
-  <si>
-    <t>4596081</t>
-  </si>
-  <si>
-    <t>GEELONG</t>
-  </si>
-  <si>
-    <t>717107012</t>
-  </si>
-  <si>
-    <t>4596084</t>
-  </si>
-  <si>
-    <t>BARWON HEALTH</t>
-  </si>
-  <si>
-    <t>133854845</t>
-  </si>
-  <si>
-    <t>HUNTER IMAGING GROUP - SALAMANDER</t>
-  </si>
-  <si>
-    <t>87234487</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>4596147</t>
-  </si>
-  <si>
-    <t>SALAMANDER BAY</t>
-  </si>
-  <si>
-    <t>717110600</t>
-  </si>
-  <si>
-    <t>02112548</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133856149</t>
-  </si>
-  <si>
-    <t>RADIOLOGY VICTORIA PTY LTD</t>
-  </si>
-  <si>
-    <t>02112555</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4765987</t>
-  </si>
-  <si>
-    <t>WANTIRNA</t>
-  </si>
-  <si>
-    <t>717068548</t>
-  </si>
-  <si>
-    <t>4769495</t>
-  </si>
-  <si>
-    <t>133856233</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - MATER HOSPITAL</t>
-  </si>
-  <si>
-    <t>4614736</t>
-  </si>
-  <si>
-    <t>NORTH SYDNEY</t>
-  </si>
-  <si>
-    <t>717106288</t>
-  </si>
-  <si>
-    <t>133858612</t>
-  </si>
-  <si>
-    <t>AUSTIN HEALTH  - VERNON AVE</t>
-  </si>
-  <si>
-    <t>4595496</t>
-  </si>
-  <si>
-    <t>HEIDELBERG WEST</t>
-  </si>
-  <si>
-    <t>717104397</t>
-  </si>
-  <si>
-    <t>4595508</t>
-  </si>
-  <si>
-    <t>AUSTIN HEALTH - FINANCE DEPT</t>
-  </si>
-  <si>
-    <t>HEIDELBERG</t>
-  </si>
-  <si>
-    <t>133858614</t>
-  </si>
-  <si>
-    <t>BANKSTOWN HOSPITAL</t>
-  </si>
-  <si>
-    <t>80802544</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4596091</t>
-  </si>
-  <si>
-    <t>BANKSTOWN</t>
-  </si>
-  <si>
-    <t>717107556</t>
-  </si>
-  <si>
-    <t>4596097</t>
-  </si>
-  <si>
-    <t>SOUTH WESTERN SYDNEY LOCAL HEALTH D</t>
-  </si>
-  <si>
-    <t>133858688</t>
-  </si>
-  <si>
-    <t>CABRINI HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596112</t>
-  </si>
-  <si>
-    <t>BRIGHTON</t>
-  </si>
-  <si>
-    <t>717108142</t>
-  </si>
-  <si>
-    <t>4596151</t>
-  </si>
-  <si>
-    <t>CABRINI HEALTH</t>
-  </si>
-  <si>
-    <t>MALVERN</t>
-  </si>
-  <si>
-    <t>133858728</t>
-  </si>
-  <si>
-    <t>PRINCESS ALEXANDRA HOSPITAL</t>
-  </si>
-  <si>
-    <t>86566648</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,MULTI,ANGIO,MC,WLD</t>
-  </si>
-  <si>
-    <t>4596272</t>
-  </si>
-  <si>
-    <t>WOOLLOONGABBA</t>
-  </si>
-  <si>
-    <t>717106789</t>
-  </si>
-  <si>
-    <t>4595416</t>
-  </si>
-  <si>
-    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>EIGHT MILE PLAINS</t>
-  </si>
-  <si>
-    <t>86566656</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,SNGL,ANGIO,65",PIV,MC,WLD</t>
-  </si>
-  <si>
-    <t>133858729</t>
-  </si>
-  <si>
-    <t>86617439</t>
-  </si>
-  <si>
-    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>717107557</t>
-  </si>
-  <si>
-    <t>133849435</t>
-  </si>
-  <si>
-    <t>ATX MEDICAL SOLUTIONS</t>
-  </si>
-  <si>
-    <t>2061962</t>
-  </si>
-  <si>
-    <t>O'CONNOR</t>
-  </si>
-  <si>
-    <t>717090918</t>
-  </si>
-  <si>
-    <t>010530</t>
-  </si>
-  <si>
-    <t>133849450</t>
-  </si>
-  <si>
-    <t>PERTH RAD CLINIC LTD - MIDLAND</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLUaVIAL 10X15ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4595273</t>
-  </si>
-  <si>
-    <t>MIDLAND</t>
-  </si>
-  <si>
-    <t>717066958</t>
-  </si>
-  <si>
-    <t>4595291</t>
-  </si>
-  <si>
-    <t>PERTHRADCLINIC LTD</t>
-  </si>
-  <si>
-    <t>MIRRABOOKA</t>
-  </si>
-  <si>
-    <t>133849728</t>
-  </si>
-  <si>
-    <t>CAPITAL RADIOLOGY - BOORAGOON</t>
-  </si>
-  <si>
-    <t>4596250</t>
-  </si>
-  <si>
-    <t>BOORAGOON</t>
-  </si>
-  <si>
-    <t>717102283</t>
-  </si>
-  <si>
-    <t>3605543</t>
-  </si>
-  <si>
-    <t>CAPITAL RADIOLOGY PTY LTD</t>
-  </si>
-  <si>
-    <t>EAST MELBOURNE</t>
-  </si>
-  <si>
-    <t>133854841</t>
-  </si>
-  <si>
-    <t>ROYAL PERTH HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595756</t>
-  </si>
-  <si>
-    <t>PERTH</t>
-  </si>
-  <si>
-    <t>717105752</t>
-  </si>
-  <si>
-    <t>4595766</t>
-  </si>
-  <si>
-    <t>DEPARTMENT OF HEALTH WA</t>
-  </si>
-  <si>
-    <t>RAILWAY ROAD</t>
-  </si>
-  <si>
-    <t>87548082</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
-  </si>
-  <si>
-    <t>133858611</t>
-  </si>
-  <si>
-    <t>LAUNCESTON GENERAL HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595878</t>
-  </si>
-  <si>
-    <t>KINGS MEADOWS</t>
-  </si>
-  <si>
-    <t>717102199</t>
-  </si>
-  <si>
-    <t>3310765</t>
-  </si>
-  <si>
-    <t>TASMANIAN HEALTH SERVICE</t>
-  </si>
-  <si>
-    <t>HOBART</t>
-  </si>
-  <si>
-    <t>133858615</t>
-  </si>
-  <si>
-    <t>86645564</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,LPCT,STELLANT,MC,WLD</t>
-  </si>
-  <si>
-    <t>717109391</t>
-  </si>
-  <si>
-    <t>86645610</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,LPCT,TC,STLNT,MC,WLD</t>
-  </si>
-  <si>
-    <t>133858617</t>
-  </si>
-  <si>
-    <t>WESTERN RADIOLOGY MORLEY</t>
-  </si>
-  <si>
-    <t>4703462</t>
-  </si>
-  <si>
-    <t>MORLEY</t>
-  </si>
-  <si>
-    <t>717109960</t>
-  </si>
-  <si>
-    <t>133858730</t>
-  </si>
-  <si>
-    <t>Radiology Tasmania - Launceston</t>
-  </si>
-  <si>
-    <t>2828178</t>
-  </si>
-  <si>
-    <t>Launceston</t>
-  </si>
-  <si>
-    <t>717110620</t>
-  </si>
-  <si>
-    <t>87238504</t>
-  </si>
-  <si>
-    <t>TUBE,EXT,SINGLE,WLD1</t>
+    <t>133860538</t>
+  </si>
+  <si>
+    <t>NEPEAN BLUE MOUNTAINS LHD</t>
+  </si>
+  <si>
+    <t>64432921</t>
+  </si>
+  <si>
+    <t>Acetonitrile for HPLC</t>
+  </si>
+  <si>
+    <t>4596176</t>
+  </si>
+  <si>
+    <t>KINGSWOOD</t>
+  </si>
+  <si>
+    <t>716635186</t>
+  </si>
+  <si>
+    <t>EHGHA</t>
+  </si>
+  <si>
+    <t>4596182</t>
+  </si>
+  <si>
+    <t>NEPEAN BLUE MOUNTAINS LOCAL</t>
+  </si>
+  <si>
+    <t>133844404</t>
+  </si>
+  <si>
+    <t>AFFINITY MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>64438709</t>
+  </si>
+  <si>
+    <t>Aluminium block with (4) flat bottom hol</t>
+  </si>
+  <si>
+    <t>1078081</t>
+  </si>
+  <si>
+    <t>JOHNSONVILLE</t>
+  </si>
+  <si>
+    <t>716951266</t>
+  </si>
+  <si>
+    <t>1078078</t>
+  </si>
+  <si>
+    <t>LOWER HUTT</t>
+  </si>
+  <si>
+    <t>64435335</t>
+  </si>
+  <si>
+    <t>Hamilton Vial Heating Shield</t>
+  </si>
+  <si>
+    <t>90717469</t>
+  </si>
+  <si>
+    <t>12mm Fixed L Block (120kg)</t>
   </si>
   <si>
     <t>P8SW</t>
@@ -1141,40 +1027,55 @@
     <t>2172497900</t>
   </si>
   <si>
-    <t>133837190</t>
-  </si>
-  <si>
-    <t>85166972</t>
-  </si>
-  <si>
-    <t>ASSY,PCB,CPU/SERVO,DAX,PHOENIX,ROHS,TL</t>
-  </si>
-  <si>
-    <t>2172546379</t>
+    <t>133852375</t>
+  </si>
+  <si>
+    <t>TECHNISONIC SYSTEM 2013 LTD</t>
+  </si>
+  <si>
+    <t>86070081</t>
+  </si>
+  <si>
+    <t>Stop Cock Drive Board</t>
+  </si>
+  <si>
+    <t>4595848</t>
+  </si>
+  <si>
+    <t>ALBANY</t>
+  </si>
+  <si>
+    <t>716964935</t>
+  </si>
+  <si>
+    <t>83867648</t>
+  </si>
+  <si>
+    <t>Cable, Rugged, FO, SRU, 40 ft</t>
+  </si>
+  <si>
+    <t>86557657</t>
+  </si>
+  <si>
+    <t>ASSY,PCB,CPU SERVO,SRU,MAX,MRXP,RENEW,TL</t>
+  </si>
+  <si>
+    <t>87980030</t>
+  </si>
+  <si>
+    <t>MAINTAIN,SYR HEAT,STELL,FLS2,LR</t>
   </si>
   <si>
     <t>133837151</t>
   </si>
   <si>
-    <t>TECHNISONIC SYSTEM 2013 LTD</t>
-  </si>
-  <si>
     <t>86068168</t>
   </si>
   <si>
     <t>Door Heat Maintainer Assy</t>
   </si>
   <si>
-    <t>4595848</t>
-  </si>
-  <si>
-    <t>ALBANY</t>
-  </si>
-  <si>
     <t>716495308</t>
-  </si>
-  <si>
-    <t>EHGHA</t>
   </si>
   <si>
     <t>Shipping Point/Receiving Pt</t>
@@ -1351,7 +1252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1361,7 +1262,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" width="18" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="11" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="35" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="37" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="14" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
     <col min="6" max="6" bestFit="1" width="42" customWidth="1"/>
@@ -1370,7 +1271,7 @@
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="6" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="15" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="17" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="16" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15" customWidth="1"/>
     <col min="14" max="14" bestFit="1" width="6" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="21" customWidth="1"/>
@@ -1380,83 +1281,83 @@
     <col min="19" max="19" bestFit="1" width="8" customWidth="1"/>
     <col min="20" max="20" bestFit="1" width="15" customWidth="1"/>
     <col min="21" max="21" bestFit="1" width="37" customWidth="1"/>
-    <col min="22" max="22" bestFit="1" width="19" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="17" customWidth="1"/>
     <col min="23" max="23" bestFit="1" width="12" customWidth="1"/>
     <col min="24" max="24" bestFit="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1766,7 +1667,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -1775,10 +1676,10 @@
         <v>33</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1805,22 +1706,22 @@
         <v>37</v>
       </c>
       <c r="Q6" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R6" s="2">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="S6" t="s">
         <v>38</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="V6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="W6" t="s">
         <v>14</v>
@@ -1834,25 +1735,25 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -1861,10 +1762,10 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
@@ -1873,28 +1774,28 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
         <v>37</v>
       </c>
       <c r="Q7" s="2">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="R7" s="2">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="S7" t="s">
         <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="W7" t="s">
         <v>14</v>
@@ -1908,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45412</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -1935,10 +1836,10 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -1947,7 +1848,7 @@
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
         <v>37</v>
@@ -1959,16 +1860,16 @@
         <v>45414</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="U8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="W8" t="s">
         <v>14</v>
@@ -1982,37 +1883,37 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>45412</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G9" s="3">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -2021,28 +1922,28 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="2">
         <v>45412</v>
       </c>
       <c r="R9" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S9" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="T9" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="U9" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="V9" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="W9" t="s">
         <v>14</v>
@@ -2056,37 +1957,37 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <v>45412</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -2095,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="2">
         <v>45412</v>
       </c>
       <c r="R10" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S10" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="T10" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="U10" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="W10" t="s">
         <v>14</v>
@@ -2130,25 +2031,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>45412</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G11" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H11" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -2157,10 +2058,10 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -2169,28 +2070,28 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="2">
         <v>45412</v>
       </c>
       <c r="R11" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S11" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="U11" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="V11" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="W11" t="s">
         <v>14</v>
@@ -2204,25 +2105,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
         <v>45412</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -2231,10 +2132,10 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -2243,28 +2144,28 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="P12" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="2">
         <v>45412</v>
       </c>
       <c r="R12" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="T12" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="U12" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="V12" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="W12" t="s">
         <v>14</v>
@@ -2278,25 +2179,25 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
         <v>45412</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="G13" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -2305,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -2317,28 +2218,28 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="2">
         <v>45412</v>
       </c>
       <c r="R13" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="S13" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="T13" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="U13" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="V13" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="W13" t="s">
         <v>14</v>
@@ -2352,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -2361,16 +2262,16 @@
         <v>45412</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2379,10 +2280,10 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -2391,7 +2292,7 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="P14" t="s">
         <v>12</v>
@@ -2426,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -2435,16 +2336,16 @@
         <v>45412</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2453,10 +2354,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -2465,7 +2366,7 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="P15" t="s">
         <v>12</v>
@@ -2500,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -2509,16 +2410,16 @@
         <v>45412</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="G16" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2527,10 +2428,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2539,7 +2440,7 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="P16" t="s">
         <v>12</v>
@@ -2574,25 +2475,25 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2">
         <v>45412</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G17" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2601,10 +2502,10 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="L17" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2613,28 +2514,28 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="2">
         <v>45412</v>
       </c>
       <c r="R17" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S17" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="T17" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="U17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="V17" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2648,19 +2549,19 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2">
         <v>45412</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="G18" s="3">
         <v>10</v>
@@ -2675,10 +2576,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2687,28 +2588,28 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="2">
         <v>45412</v>
       </c>
       <c r="R18" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S18" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="T18" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="V18" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2722,25 +2623,25 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2">
         <v>45412</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="G19" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2749,10 +2650,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2761,28 +2662,28 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="P19" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="2">
         <v>45412</v>
       </c>
       <c r="R19" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S19" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="T19" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="V19" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2796,19 +2697,19 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2">
         <v>45412</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G20" s="3">
         <v>10</v>
@@ -2823,10 +2724,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2835,28 +2736,28 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="2">
         <v>45412</v>
       </c>
       <c r="R20" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="S20" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="T20" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="U20" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="V20" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2870,25 +2771,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2">
         <v>45412</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G21" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2897,40 +2798,40 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" t="s">
         <v>92</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" t="s">
         <v>93</v>
       </c>
-      <c r="M21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N21" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" t="s">
-        <v>94</v>
-      </c>
       <c r="P21" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="2">
         <v>45412</v>
       </c>
       <c r="R21" s="2">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="S21" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="U21" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="V21" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2944,25 +2845,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D22" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2971,10 +2872,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2983,28 +2884,28 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="P22" t="s">
         <v>37</v>
       </c>
       <c r="Q22" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R22" s="2">
         <v>45414</v>
       </c>
       <c r="S22" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="T22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="U22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="V22" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -3018,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="G23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="3">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -3045,40 +2946,40 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" t="s">
         <v>111</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" t="s">
         <v>112</v>
-      </c>
-      <c r="M23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23" t="s">
-        <v>113</v>
       </c>
       <c r="P23" t="s">
         <v>37</v>
       </c>
       <c r="Q23" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R23" s="2">
         <v>45414</v>
       </c>
       <c r="S23" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="T23" t="s">
+        <v>113</v>
+      </c>
+      <c r="U23" t="s">
         <v>114</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>115</v>
-      </c>
-      <c r="V23" t="s">
-        <v>116</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -3092,38 +2993,38 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
         <v>119</v>
-      </c>
-      <c r="F24" t="s">
-        <v>120</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" t="s">
         <v>121</v>
       </c>
-      <c r="J24" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" t="s">
-        <v>111</v>
-      </c>
-      <c r="L24" t="s">
-        <v>112</v>
-      </c>
       <c r="M24" t="s">
         <v>9</v>
       </c>
@@ -3131,28 +3032,28 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P24" t="s">
         <v>37</v>
       </c>
       <c r="Q24" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R24" s="2">
         <v>45414</v>
       </c>
       <c r="S24" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="T24" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="U24" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="V24" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -3166,25 +3067,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D25" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="G25" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -3193,10 +3094,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -3205,28 +3106,28 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="P25" t="s">
         <v>37</v>
       </c>
       <c r="Q25" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R25" s="2">
         <v>45414</v>
       </c>
       <c r="S25" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="T25" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="U25" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="V25" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -3240,25 +3141,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D26" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3267,10 +3168,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="L26" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -3279,28 +3180,28 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="P26" t="s">
         <v>37</v>
       </c>
       <c r="Q26" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R26" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S26" t="s">
         <v>13</v>
       </c>
       <c r="T26" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="U26" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="V26" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -3314,19 +3215,19 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D27" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="G27" s="3">
         <v>10</v>
@@ -3341,10 +3242,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="L27" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -3353,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="P27" t="s">
         <v>37</v>
       </c>
       <c r="Q27" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R27" s="2">
         <v>45414</v>
       </c>
       <c r="S27" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="T27" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="U27" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="V27" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -3388,25 +3289,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D28" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E28" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="G28" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H28" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3415,10 +3316,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -3427,28 +3328,28 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="P28" t="s">
         <v>37</v>
       </c>
       <c r="Q28" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R28" s="2">
         <v>45414</v>
       </c>
       <c r="S28" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="T28" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="U28" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="V28" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -3462,25 +3363,25 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D29" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G29" s="3">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="H29" s="3">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3489,10 +3390,10 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L29" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -3501,28 +3402,28 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="P29" t="s">
         <v>37</v>
       </c>
       <c r="Q29" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R29" s="2">
         <v>45414</v>
       </c>
       <c r="S29" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="T29" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="U29" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="V29" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3536,37 +3437,37 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D30" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="G30" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="L30" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3575,28 +3476,28 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="P30" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="Q30" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R30" s="2">
-        <v>45413</v>
+        <v>45420</v>
       </c>
       <c r="S30" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="T30" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="U30" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="V30" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3610,26 +3511,26 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="D31" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
         <v>100</v>
       </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>10</v>
-      </c>
       <c r="I31" t="s">
         <v>5</v>
       </c>
@@ -3637,10 +3538,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3649,28 +3550,28 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="P31" t="s">
         <v>37</v>
       </c>
       <c r="Q31" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R31" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S31" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="T31" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="U31" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="V31" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3684,67 +3585,67 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="D32" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="K32" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s">
+        <v>182</v>
+      </c>
+      <c r="M32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" t="s">
+        <v>183</v>
+      </c>
+      <c r="P32" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R32" s="2">
+        <v>45419</v>
+      </c>
+      <c r="S32" t="s">
+        <v>184</v>
+      </c>
+      <c r="T32" t="s">
         <v>143</v>
       </c>
-      <c r="M32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N32" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="U32" t="s">
         <v>144</v>
       </c>
-      <c r="P32" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>45412</v>
-      </c>
-      <c r="R32" s="2">
-        <v>45415</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="V32" t="s">
         <v>145</v>
-      </c>
-      <c r="T32" t="s">
-        <v>83</v>
-      </c>
-      <c r="U32" t="s">
-        <v>84</v>
-      </c>
-      <c r="V32" t="s">
-        <v>85</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3758,25 +3659,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="D33" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="G33" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H33" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3785,10 +3686,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="L33" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3797,28 +3698,28 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="P33" t="s">
         <v>37</v>
       </c>
       <c r="Q33" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R33" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S33" t="s">
+        <v>104</v>
+      </c>
+      <c r="T33" t="s">
+        <v>143</v>
+      </c>
+      <c r="U33" t="s">
+        <v>144</v>
+      </c>
+      <c r="V33" t="s">
         <v>145</v>
-      </c>
-      <c r="T33" t="s">
-        <v>83</v>
-      </c>
-      <c r="U33" t="s">
-        <v>84</v>
-      </c>
-      <c r="V33" t="s">
-        <v>85</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3832,37 +3733,37 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="D34" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="G34" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3871,28 +3772,28 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="P34" t="s">
         <v>37</v>
       </c>
       <c r="Q34" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R34" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S34" t="s">
+        <v>104</v>
+      </c>
+      <c r="T34" t="s">
+        <v>143</v>
+      </c>
+      <c r="U34" t="s">
+        <v>144</v>
+      </c>
+      <c r="V34" t="s">
         <v>145</v>
-      </c>
-      <c r="T34" t="s">
-        <v>83</v>
-      </c>
-      <c r="U34" t="s">
-        <v>84</v>
-      </c>
-      <c r="V34" t="s">
-        <v>85</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3906,25 +3807,25 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="D35" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="G35" s="3">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H35" s="3">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3933,10 +3834,10 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -3945,28 +3846,28 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="P35" t="s">
         <v>37</v>
       </c>
       <c r="Q35" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R35" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S35" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="T35" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="U35" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="V35" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3980,25 +3881,25 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D36" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="G36" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H36" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -4007,10 +3908,10 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -4019,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="P36" t="s">
         <v>37</v>
       </c>
       <c r="Q36" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R36" s="2">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="S36" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="T36" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="U36" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="V36" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -4054,37 +3955,37 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2</v>
+      </c>
+      <c r="H37" s="3">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="2">
-        <v>45412</v>
-      </c>
-      <c r="E37" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="3">
-        <v>10</v>
-      </c>
-      <c r="H37" s="3">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>5</v>
-      </c>
-      <c r="J37" t="s">
-        <v>6</v>
-      </c>
       <c r="K37" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="L37" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -4093,28 +3994,28 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="P37" t="s">
         <v>37</v>
       </c>
       <c r="Q37" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R37" s="2">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="S37" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="T37" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="U37" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="V37" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -4128,19 +4029,19 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D38" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="G38" s="3">
         <v>10</v>
@@ -4155,10 +4056,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="L38" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -4167,28 +4068,28 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="P38" t="s">
         <v>37</v>
       </c>
       <c r="Q38" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R38" s="2">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="S38" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="T38" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="U38" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="V38" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -4202,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D39" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -4229,10 +4130,10 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="L39" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -4241,28 +4142,28 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="P39" t="s">
         <v>37</v>
       </c>
       <c r="Q39" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R39" s="2">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="S39" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="T39" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="U39" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="V39" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
@@ -4276,25 +4177,25 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D40" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="G40" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H40" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4303,10 +4204,10 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="L40" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="M40" t="s">
         <v>9</v>
@@ -4315,28 +4216,28 @@
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="P40" t="s">
         <v>37</v>
       </c>
       <c r="Q40" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R40" s="2">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="S40" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="T40" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="U40" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="V40" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -4350,25 +4251,25 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D41" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H41" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4377,10 +4278,10 @@
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="L41" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="M41" t="s">
         <v>9</v>
@@ -4389,28 +4290,28 @@
         <v>10</v>
       </c>
       <c r="O41" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="P41" t="s">
         <v>37</v>
       </c>
       <c r="Q41" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R41" s="2">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="S41" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="T41" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="U41" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="V41" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -4424,19 +4325,19 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="D42" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="G42" s="3">
         <v>5</v>
@@ -4451,10 +4352,10 @@
         <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="L42" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="M42" t="s">
         <v>9</v>
@@ -4463,28 +4364,28 @@
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="P42" t="s">
         <v>37</v>
       </c>
       <c r="Q42" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R42" s="2">
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="S42" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="T42" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="U42" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="V42" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -4498,25 +4399,25 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="D43" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F43" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G43" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H43" s="3">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4525,10 +4426,10 @@
         <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="M43" t="s">
         <v>9</v>
@@ -4537,28 +4438,28 @@
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="P43" t="s">
         <v>37</v>
       </c>
       <c r="Q43" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R43" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S43" t="s">
         <v>13</v>
       </c>
       <c r="T43" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="U43" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="V43" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="W43" t="s">
         <v>14</v>
@@ -4572,25 +4473,25 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="D44" s="2">
         <v>45413</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="G44" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H44" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4599,10 +4500,10 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="L44" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="M44" t="s">
         <v>9</v>
@@ -4611,7 +4512,7 @@
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="P44" t="s">
         <v>37</v>
@@ -4623,16 +4524,16 @@
         <v>45414</v>
       </c>
       <c r="S44" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T44" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="U44" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="V44" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="W44" t="s">
         <v>14</v>
@@ -4646,25 +4547,25 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D45" s="2">
         <v>45413</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="F45" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="G45" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H45" s="3">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
@@ -4673,10 +4574,10 @@
         <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="L45" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="M45" t="s">
         <v>9</v>
@@ -4685,7 +4586,7 @@
         <v>10</v>
       </c>
       <c r="O45" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="P45" t="s">
         <v>37</v>
@@ -4697,16 +4598,16 @@
         <v>45414</v>
       </c>
       <c r="S45" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T45" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="U45" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="V45" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="W45" t="s">
         <v>14</v>
@@ -4720,25 +4621,25 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="D46" s="2">
         <v>45413</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="G46" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H46" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4747,10 +4648,10 @@
         <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="L46" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s">
         <v>9</v>
@@ -4759,7 +4660,7 @@
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="P46" t="s">
         <v>37</v>
@@ -4771,16 +4672,16 @@
         <v>45414</v>
       </c>
       <c r="S46" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T46" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="U46" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="V46" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="W46" t="s">
         <v>14</v>
@@ -4794,25 +4695,25 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="D47" s="2">
         <v>45413</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H47" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -4821,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="L47" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="M47" t="s">
         <v>9</v>
@@ -4833,10 +4734,10 @@
         <v>10</v>
       </c>
       <c r="O47" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="P47" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="Q47" s="2">
         <v>45413</v>
@@ -4845,16 +4746,16 @@
         <v>45414</v>
       </c>
       <c r="S47" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T47" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="U47" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="V47" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="W47" t="s">
         <v>14</v>
@@ -4868,25 +4769,25 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="D48" s="2">
         <v>45413</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="G48" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H48" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -4895,10 +4796,10 @@
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="L48" t="s">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="M48" t="s">
         <v>9</v>
@@ -4907,7 +4808,7 @@
         <v>10</v>
       </c>
       <c r="O48" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="P48" t="s">
         <v>37</v>
@@ -4919,16 +4820,16 @@
         <v>45414</v>
       </c>
       <c r="S48" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T48" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="U48" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="V48" t="s">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="W48" t="s">
         <v>14</v>
@@ -4942,25 +4843,25 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="D49" s="2">
         <v>45413</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F49" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G49" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H49" s="3">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
@@ -4969,10 +4870,10 @@
         <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="L49" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="M49" t="s">
         <v>9</v>
@@ -4981,7 +4882,7 @@
         <v>10</v>
       </c>
       <c r="O49" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="P49" t="s">
         <v>37</v>
@@ -4993,16 +4894,16 @@
         <v>45414</v>
       </c>
       <c r="S49" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T49" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="U49" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="V49" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="W49" t="s">
         <v>14</v>
@@ -5016,25 +4917,25 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="D50" s="2">
         <v>45413</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="F50" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="G50" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -5043,10 +4944,10 @@
         <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="L50" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="M50" t="s">
         <v>9</v>
@@ -5055,7 +4956,7 @@
         <v>10</v>
       </c>
       <c r="O50" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="P50" t="s">
         <v>37</v>
@@ -5067,16 +4968,16 @@
         <v>45414</v>
       </c>
       <c r="S50" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T50" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="U50" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="V50" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="W50" t="s">
         <v>14</v>
@@ -5090,25 +4991,25 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="D51" s="2">
         <v>45413</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G51" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H51" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
@@ -5117,10 +5018,10 @@
         <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="L51" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="M51" t="s">
         <v>9</v>
@@ -5129,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="O51" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="P51" t="s">
         <v>37</v>
@@ -5138,19 +5039,19 @@
         <v>45413</v>
       </c>
       <c r="R51" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S51" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="T51" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="U51" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="V51" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="W51" t="s">
         <v>14</v>
@@ -5164,25 +5065,25 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="D52" s="2">
         <v>45413</v>
       </c>
       <c r="E52" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F52" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G52" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -5191,10 +5092,10 @@
         <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="L52" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="M52" t="s">
         <v>9</v>
@@ -5203,7 +5104,7 @@
         <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="P52" t="s">
         <v>37</v>
@@ -5212,19 +5113,19 @@
         <v>45413</v>
       </c>
       <c r="R52" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="S52" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="T52" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="U52" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="V52" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="W52" t="s">
         <v>14</v>
@@ -5238,19 +5139,19 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="D53" s="2">
         <v>45413</v>
       </c>
       <c r="E53" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
@@ -5265,10 +5166,10 @@
         <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="L53" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="M53" t="s">
         <v>9</v>
@@ -5277,7 +5178,7 @@
         <v>10</v>
       </c>
       <c r="O53" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="P53" t="s">
         <v>37</v>
@@ -5286,19 +5187,19 @@
         <v>45413</v>
       </c>
       <c r="R53" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="S53" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="T53" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="U53" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="V53" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="W53" t="s">
         <v>14</v>
@@ -5312,25 +5213,25 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="D54" s="2">
         <v>45413</v>
       </c>
       <c r="E54" t="s">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>236</v>
+        <v>50</v>
       </c>
       <c r="G54" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H54" s="3">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5339,10 +5240,10 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="L54" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="M54" t="s">
         <v>9</v>
@@ -5351,7 +5252,7 @@
         <v>10</v>
       </c>
       <c r="O54" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="P54" t="s">
         <v>37</v>
@@ -5360,19 +5261,19 @@
         <v>45413</v>
       </c>
       <c r="R54" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="S54" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="T54" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="U54" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="V54" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="W54" t="s">
         <v>14</v>
@@ -5386,19 +5287,19 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C55" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="D55" s="2">
         <v>45413</v>
       </c>
       <c r="E55" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>241</v>
+        <v>56</v>
       </c>
       <c r="G55" s="3">
         <v>10</v>
@@ -5413,10 +5314,10 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="L55" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="M55" t="s">
         <v>9</v>
@@ -5425,7 +5326,7 @@
         <v>10</v>
       </c>
       <c r="O55" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="P55" t="s">
         <v>37</v>
@@ -5434,19 +5335,19 @@
         <v>45413</v>
       </c>
       <c r="R55" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="S55" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="T55" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="U55" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="V55" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="W55" t="s">
         <v>14</v>
@@ -5460,25 +5361,25 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="D56" s="2">
         <v>45413</v>
       </c>
       <c r="E56" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="F56" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G56" s="3">
         <v>2</v>
       </c>
       <c r="H56" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="I56" t="s">
         <v>5</v>
@@ -5487,10 +5388,10 @@
         <v>6</v>
       </c>
       <c r="K56" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="L56" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="M56" t="s">
         <v>9</v>
@@ -5499,28 +5400,28 @@
         <v>10</v>
       </c>
       <c r="O56" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="P56" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="Q56" s="2">
         <v>45413</v>
       </c>
       <c r="R56" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="S56" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="T56" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="U56" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="V56" t="s">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="W56" t="s">
         <v>14</v>
@@ -5534,25 +5435,25 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="D57" s="2">
         <v>45413</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="G57" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H57" s="3">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
@@ -5561,10 +5462,10 @@
         <v>6</v>
       </c>
       <c r="K57" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L57" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="M57" t="s">
         <v>9</v>
@@ -5573,7 +5474,7 @@
         <v>10</v>
       </c>
       <c r="O57" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="P57" t="s">
         <v>37</v>
@@ -5582,19 +5483,19 @@
         <v>45413</v>
       </c>
       <c r="R57" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="S57" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="T57" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="U57" t="s">
-        <v>251</v>
+        <v>144</v>
       </c>
       <c r="V57" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="W57" t="s">
         <v>14</v>
@@ -5608,37 +5509,37 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="D58" s="2">
         <v>45413</v>
       </c>
       <c r="E58" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G58" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I58" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="J58" t="s">
         <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="L58" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="M58" t="s">
         <v>9</v>
@@ -5647,7 +5548,7 @@
         <v>10</v>
       </c>
       <c r="O58" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="P58" t="s">
         <v>37</v>
@@ -5659,16 +5560,16 @@
         <v>45414</v>
       </c>
       <c r="S58" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T58" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="U58" t="s">
-        <v>251</v>
+        <v>144</v>
       </c>
       <c r="V58" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="W58" t="s">
         <v>14</v>
@@ -5682,25 +5583,25 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E59" t="s">
+        <v>254</v>
+      </c>
+      <c r="F59" t="s">
         <v>255</v>
       </c>
-      <c r="C59" t="s">
-        <v>256</v>
-      </c>
-      <c r="D59" s="2">
-        <v>45413</v>
-      </c>
-      <c r="E59" t="s">
-        <v>221</v>
-      </c>
-      <c r="F59" t="s">
-        <v>222</v>
-      </c>
       <c r="G59" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H59" s="3">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
@@ -5709,10 +5610,10 @@
         <v>6</v>
       </c>
       <c r="K59" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="L59" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="M59" t="s">
         <v>9</v>
@@ -5721,7 +5622,7 @@
         <v>10</v>
       </c>
       <c r="O59" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="P59" t="s">
         <v>37</v>
@@ -5733,16 +5634,16 @@
         <v>45414</v>
       </c>
       <c r="S59" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T59" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="U59" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="V59" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="W59" t="s">
         <v>14</v>
@@ -5756,19 +5657,19 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="C60" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="D60" s="2">
         <v>45413</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="F60" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="G60" s="3">
         <v>10</v>
@@ -5783,10 +5684,10 @@
         <v>6</v>
       </c>
       <c r="K60" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="L60" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="M60" t="s">
         <v>9</v>
@@ -5795,7 +5696,7 @@
         <v>10</v>
       </c>
       <c r="O60" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="P60" t="s">
         <v>37</v>
@@ -5807,16 +5708,16 @@
         <v>45414</v>
       </c>
       <c r="S60" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T60" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="U60" t="s">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="V60" t="s">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="W60" t="s">
         <v>14</v>
@@ -5830,25 +5731,25 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C61" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D61" s="2">
-        <v>45413</v>
+        <v>45419</v>
       </c>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="F61" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="G61" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H61" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
@@ -5857,10 +5758,10 @@
         <v>6</v>
       </c>
       <c r="K61" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="L61" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="M61" t="s">
         <v>9</v>
@@ -5869,28 +5770,28 @@
         <v>10</v>
       </c>
       <c r="O61" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="P61" t="s">
         <v>37</v>
       </c>
       <c r="Q61" s="2">
-        <v>45413</v>
+        <v>45419</v>
       </c>
       <c r="R61" s="2">
-        <v>45414</v>
+        <v>45420</v>
       </c>
       <c r="S61" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="T61" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="U61" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="V61" t="s">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="W61" t="s">
         <v>14</v>
@@ -5904,25 +5805,25 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C62" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D62" s="2">
-        <v>45413</v>
+        <v>45419</v>
       </c>
       <c r="E62" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="F62" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="G62" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5931,10 +5832,10 @@
         <v>6</v>
       </c>
       <c r="K62" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="L62" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="M62" t="s">
         <v>9</v>
@@ -5943,28 +5844,28 @@
         <v>10</v>
       </c>
       <c r="O62" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="P62" t="s">
         <v>37</v>
       </c>
       <c r="Q62" s="2">
-        <v>45413</v>
+        <v>45419</v>
       </c>
       <c r="R62" s="2">
-        <v>45414</v>
+        <v>45420</v>
       </c>
       <c r="S62" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="T62" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="U62" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="V62" t="s">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="W62" t="s">
         <v>14</v>
@@ -5978,25 +5879,25 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="C63" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="D63" s="2">
-        <v>45413</v>
+        <v>45426</v>
       </c>
       <c r="E63" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="F63" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="G63" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H63" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
@@ -6005,10 +5906,10 @@
         <v>6</v>
       </c>
       <c r="K63" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="L63" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="M63" t="s">
         <v>9</v>
@@ -6017,28 +5918,28 @@
         <v>10</v>
       </c>
       <c r="O63" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="P63" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="Q63" s="2">
-        <v>45413</v>
+        <v>45426</v>
       </c>
       <c r="R63" s="2">
-        <v>45414</v>
+        <v>45427</v>
       </c>
       <c r="S63" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T63" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="U63" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="V63" t="s">
-        <v>279</v>
+        <v>86</v>
       </c>
       <c r="W63" t="s">
         <v>14</v>
@@ -6052,25 +5953,25 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="D64" s="2">
-        <v>45413</v>
+        <v>45426</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="G64" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
@@ -6079,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="L64" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="M64" t="s">
         <v>9</v>
@@ -6091,28 +5992,28 @@
         <v>10</v>
       </c>
       <c r="O64" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="P64" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="Q64" s="2">
-        <v>45413</v>
+        <v>45426</v>
       </c>
       <c r="R64" s="2">
-        <v>45414</v>
+        <v>45427</v>
       </c>
       <c r="S64" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T64" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="U64" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="V64" t="s">
-        <v>279</v>
+        <v>86</v>
       </c>
       <c r="W64" t="s">
         <v>14</v>
@@ -6126,25 +6027,25 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="C65" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="D65" s="2">
-        <v>45413</v>
+        <v>45506</v>
       </c>
       <c r="E65" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="F65" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="G65" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H65" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
@@ -6153,10 +6054,10 @@
         <v>6</v>
       </c>
       <c r="K65" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="L65" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="M65" t="s">
         <v>9</v>
@@ -6165,28 +6066,28 @@
         <v>10</v>
       </c>
       <c r="O65" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="P65" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="Q65" s="2">
-        <v>45413</v>
+        <v>45506</v>
       </c>
       <c r="R65" s="2">
-        <v>45414</v>
+        <v>45507</v>
       </c>
       <c r="S65" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="T65" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="U65" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="V65" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="W65" t="s">
         <v>14</v>
@@ -6200,25 +6101,25 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="C66" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="D66" s="2">
-        <v>45413</v>
+        <v>45506</v>
       </c>
       <c r="E66" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="F66" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="G66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
@@ -6227,10 +6128,10 @@
         <v>6</v>
       </c>
       <c r="K66" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="L66" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="M66" t="s">
         <v>9</v>
@@ -6239,28 +6140,28 @@
         <v>10</v>
       </c>
       <c r="O66" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="P66" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="Q66" s="2">
-        <v>45413</v>
+        <v>45506</v>
       </c>
       <c r="R66" s="2">
-        <v>45414</v>
+        <v>45507</v>
       </c>
       <c r="S66" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="T66" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="U66" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="V66" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="W66" t="s">
         <v>14</v>
@@ -6274,25 +6175,25 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="C67" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="D67" s="2">
-        <v>45413</v>
+        <v>45506</v>
       </c>
       <c r="E67" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="F67" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="G67" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
         <v>5</v>
@@ -6301,10 +6202,10 @@
         <v>6</v>
       </c>
       <c r="K67" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="L67" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="M67" t="s">
         <v>9</v>
@@ -6313,28 +6214,28 @@
         <v>10</v>
       </c>
       <c r="O67" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="P67" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="Q67" s="2">
-        <v>45413</v>
+        <v>45506</v>
       </c>
       <c r="R67" s="2">
-        <v>45414</v>
+        <v>45507</v>
       </c>
       <c r="S67" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="T67" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="U67" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="V67" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="W67" t="s">
         <v>14</v>
@@ -6345,70 +6246,70 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="B68" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>319</v>
       </c>
       <c r="D68" s="2">
-        <v>45413</v>
+        <v>45308</v>
       </c>
       <c r="E68" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="F68" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
       </c>
       <c r="H68" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
         <v>5</v>
       </c>
       <c r="J68" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="K68" t="s">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="L68" t="s">
-        <v>73</v>
+        <v>324</v>
       </c>
       <c r="M68" t="s">
-        <v>9</v>
+        <v>325</v>
       </c>
       <c r="N68" t="s">
         <v>10</v>
       </c>
       <c r="O68" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="P68" t="s">
-        <v>37</v>
+        <v>327</v>
       </c>
       <c r="Q68" s="2">
-        <v>45413</v>
+        <v>45308</v>
       </c>
       <c r="R68" s="2">
-        <v>45414</v>
+        <v>45309</v>
       </c>
       <c r="S68" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="T68" t="s">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="U68" t="s">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="V68" t="s">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="W68" t="s">
         <v>14</v>
@@ -6419,70 +6320,70 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="B69" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="C69" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="D69" s="2">
-        <v>45415</v>
+        <v>45308</v>
       </c>
       <c r="E69" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="F69" t="s">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="G69" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
         <v>5</v>
       </c>
       <c r="J69" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="K69" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="L69" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="M69" t="s">
-        <v>9</v>
+        <v>325</v>
       </c>
       <c r="N69" t="s">
         <v>10</v>
       </c>
       <c r="O69" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="P69" t="s">
-        <v>37</v>
+        <v>327</v>
       </c>
       <c r="Q69" s="2">
-        <v>45415</v>
+        <v>45308</v>
       </c>
       <c r="R69" s="2">
-        <v>45418</v>
+        <v>45309</v>
       </c>
       <c r="S69" t="s">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="T69" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="U69" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="V69" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="W69" t="s">
         <v>14</v>
@@ -6493,70 +6394,70 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="B70" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="C70" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="D70" s="2">
-        <v>45418</v>
+        <v>45308</v>
       </c>
       <c r="E70" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="F70" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="G70" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H70" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
         <v>5</v>
       </c>
       <c r="J70" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="K70" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="L70" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="M70" t="s">
-        <v>9</v>
+        <v>325</v>
       </c>
       <c r="N70" t="s">
         <v>10</v>
       </c>
       <c r="O70" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="P70" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="Q70" s="2">
-        <v>45418</v>
+        <v>45308</v>
       </c>
       <c r="R70" s="2">
-        <v>45419</v>
+        <v>45309</v>
       </c>
       <c r="S70" t="s">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="T70" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="U70" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="V70" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="W70" t="s">
         <v>14</v>
@@ -6567,40 +6468,40 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="B71" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="D71" s="2">
-        <v>45418</v>
+        <v>45413</v>
       </c>
       <c r="E71" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="F71" t="s">
-        <v>241</v>
+        <v>341</v>
       </c>
       <c r="G71" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H71" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I71" t="s">
         <v>5</v>
       </c>
       <c r="J71" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="K71" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="L71" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="M71" t="s">
         <v>9</v>
@@ -6609,28 +6510,28 @@
         <v>10</v>
       </c>
       <c r="O71" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="P71" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="Q71" s="2">
-        <v>45418</v>
+        <v>45413</v>
       </c>
       <c r="R71" s="2">
-        <v>45419</v>
+        <v>45413</v>
       </c>
       <c r="S71" t="s">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="T71" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="U71" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="V71" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="W71" t="s">
         <v>14</v>
@@ -6641,40 +6542,40 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="B72" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="C72" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="D72" s="2">
-        <v>45419</v>
+        <v>45413</v>
       </c>
       <c r="E72" t="s">
-        <v>68</v>
+        <v>345</v>
       </c>
       <c r="F72" t="s">
-        <v>69</v>
+        <v>346</v>
       </c>
       <c r="G72" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H72" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="I72" t="s">
         <v>5</v>
       </c>
       <c r="J72" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="K72" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="L72" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="M72" t="s">
         <v>9</v>
@@ -6683,28 +6584,28 @@
         <v>10</v>
       </c>
       <c r="O72" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="P72" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="Q72" s="2">
-        <v>45419</v>
+        <v>45413</v>
       </c>
       <c r="R72" s="2">
-        <v>45420</v>
+        <v>45413</v>
       </c>
       <c r="S72" t="s">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="T72" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="U72" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="V72" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="W72" t="s">
         <v>14</v>
@@ -6715,40 +6616,40 @@
     </row>
     <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="B73" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="C73" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="D73" s="2">
-        <v>45419</v>
+        <v>45413</v>
       </c>
       <c r="E73" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="F73" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G73" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H73" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
         <v>5</v>
       </c>
       <c r="J73" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="K73" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="L73" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="M73" t="s">
         <v>9</v>
@@ -6757,28 +6658,28 @@
         <v>10</v>
       </c>
       <c r="O73" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="P73" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="Q73" s="2">
-        <v>45419</v>
+        <v>45413</v>
       </c>
       <c r="R73" s="2">
-        <v>45420</v>
+        <v>45413</v>
       </c>
       <c r="S73" t="s">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="T73" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="U73" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="V73" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="W73" t="s">
         <v>14</v>
@@ -6789,40 +6690,40 @@
     </row>
     <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="B74" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C74" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D74" s="2">
-        <v>45419</v>
+        <v>45413</v>
       </c>
       <c r="E74" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="F74" t="s">
-        <v>222</v>
+        <v>350</v>
       </c>
       <c r="G74" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H74" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I74" t="s">
         <v>5</v>
       </c>
       <c r="J74" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="K74" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="L74" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="M74" t="s">
         <v>9</v>
@@ -6831,28 +6732,28 @@
         <v>10</v>
       </c>
       <c r="O74" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="P74" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="Q74" s="2">
-        <v>45419</v>
+        <v>45413</v>
       </c>
       <c r="R74" s="2">
-        <v>45420</v>
+        <v>45413</v>
       </c>
       <c r="S74" t="s">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="T74" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="U74" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="V74" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="W74" t="s">
         <v>14</v>
@@ -6863,741 +6764,75 @@
     </row>
     <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="B75" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C75" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="D75" s="2">
-        <v>45419</v>
+        <v>45468</v>
       </c>
       <c r="E75" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="F75" t="s">
+        <v>353</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" t="s">
+        <v>322</v>
+      </c>
+      <c r="K75" t="s">
+        <v>342</v>
+      </c>
+      <c r="L75" t="s">
+        <v>343</v>
+      </c>
+      <c r="M75" t="s">
+        <v>9</v>
+      </c>
+      <c r="N75" t="s">
+        <v>10</v>
+      </c>
+      <c r="O75" t="s">
+        <v>354</v>
+      </c>
+      <c r="P75" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>45468</v>
+      </c>
+      <c r="R75" s="2">
+        <v>45468</v>
+      </c>
+      <c r="S75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T75" t="s">
+        <v>342</v>
+      </c>
+      <c r="U75" t="s">
         <v>339</v>
       </c>
-      <c r="G75" s="3">
-        <v>8</v>
-      </c>
-      <c r="H75" s="3">
-        <v>400</v>
-      </c>
-      <c r="I75" t="s">
-        <v>5</v>
-      </c>
-      <c r="J75" t="s">
-        <v>6</v>
-      </c>
-      <c r="K75" t="s">
-        <v>321</v>
-      </c>
-      <c r="L75" t="s">
-        <v>322</v>
-      </c>
-      <c r="M75" t="s">
-        <v>9</v>
-      </c>
-      <c r="N75" t="s">
-        <v>10</v>
-      </c>
-      <c r="O75" t="s">
-        <v>340</v>
-      </c>
-      <c r="P75" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>45419</v>
-      </c>
-      <c r="R75" s="2">
-        <v>45420</v>
-      </c>
-      <c r="S75" t="s">
-        <v>301</v>
-      </c>
-      <c r="T75" t="s">
-        <v>324</v>
-      </c>
-      <c r="U75" t="s">
-        <v>325</v>
-      </c>
       <c r="V75" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="W75" t="s">
         <v>14</v>
       </c>
       <c r="X75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>337</v>
-      </c>
-      <c r="C76" t="s">
-        <v>320</v>
-      </c>
-      <c r="D76" s="2">
-        <v>45419</v>
-      </c>
-      <c r="E76" t="s">
-        <v>341</v>
-      </c>
-      <c r="F76" t="s">
-        <v>342</v>
-      </c>
-      <c r="G76" s="3">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3">
-        <v>200</v>
-      </c>
-      <c r="I76" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" t="s">
-        <v>6</v>
-      </c>
-      <c r="K76" t="s">
-        <v>321</v>
-      </c>
-      <c r="L76" t="s">
-        <v>322</v>
-      </c>
-      <c r="M76" t="s">
-        <v>9</v>
-      </c>
-      <c r="N76" t="s">
-        <v>10</v>
-      </c>
-      <c r="O76" t="s">
-        <v>340</v>
-      </c>
-      <c r="P76" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>45419</v>
-      </c>
-      <c r="R76" s="2">
-        <v>45420</v>
-      </c>
-      <c r="S76" t="s">
-        <v>301</v>
-      </c>
-      <c r="T76" t="s">
-        <v>324</v>
-      </c>
-      <c r="U76" t="s">
-        <v>325</v>
-      </c>
-      <c r="V76" t="s">
-        <v>326</v>
-      </c>
-      <c r="W76" t="s">
-        <v>14</v>
-      </c>
-      <c r="X76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
-        <v>343</v>
-      </c>
-      <c r="C77" t="s">
-        <v>344</v>
-      </c>
-      <c r="D77" s="2">
-        <v>45419</v>
-      </c>
-      <c r="E77" t="s">
-        <v>152</v>
-      </c>
-      <c r="F77" t="s">
-        <v>153</v>
-      </c>
-      <c r="G77" s="3">
-        <v>10</v>
-      </c>
-      <c r="H77" s="3">
-        <v>10</v>
-      </c>
-      <c r="I77" t="s">
-        <v>5</v>
-      </c>
-      <c r="J77" t="s">
-        <v>6</v>
-      </c>
-      <c r="K77" t="s">
-        <v>345</v>
-      </c>
-      <c r="L77" t="s">
-        <v>346</v>
-      </c>
-      <c r="M77" t="s">
-        <v>9</v>
-      </c>
-      <c r="N77" t="s">
-        <v>10</v>
-      </c>
-      <c r="O77" t="s">
-        <v>347</v>
-      </c>
-      <c r="P77" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>45419</v>
-      </c>
-      <c r="R77" s="2">
-        <v>45420</v>
-      </c>
-      <c r="S77" t="s">
-        <v>301</v>
-      </c>
-      <c r="T77" t="s">
-        <v>345</v>
-      </c>
-      <c r="U77" t="s">
-        <v>344</v>
-      </c>
-      <c r="V77" t="s">
-        <v>346</v>
-      </c>
-      <c r="W77" t="s">
-        <v>14</v>
-      </c>
-      <c r="X77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s">
-        <v>348</v>
-      </c>
-      <c r="C78" t="s">
-        <v>349</v>
-      </c>
-      <c r="D78" s="2">
-        <v>45419</v>
-      </c>
-      <c r="E78" t="s">
-        <v>235</v>
-      </c>
-      <c r="F78" t="s">
-        <v>236</v>
-      </c>
-      <c r="G78" s="3">
-        <v>6</v>
-      </c>
-      <c r="H78" s="3">
-        <v>300</v>
-      </c>
-      <c r="I78" t="s">
-        <v>5</v>
-      </c>
-      <c r="J78" t="s">
-        <v>6</v>
-      </c>
-      <c r="K78" t="s">
-        <v>350</v>
-      </c>
-      <c r="L78" t="s">
-        <v>351</v>
-      </c>
-      <c r="M78" t="s">
-        <v>9</v>
-      </c>
-      <c r="N78" t="s">
-        <v>10</v>
-      </c>
-      <c r="O78" t="s">
-        <v>352</v>
-      </c>
-      <c r="P78" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q78" s="2">
-        <v>45419</v>
-      </c>
-      <c r="R78" s="2">
-        <v>45420</v>
-      </c>
-      <c r="S78" t="s">
-        <v>301</v>
-      </c>
-      <c r="T78" t="s">
-        <v>316</v>
-      </c>
-      <c r="U78" t="s">
-        <v>317</v>
-      </c>
-      <c r="V78" t="s">
-        <v>318</v>
-      </c>
-      <c r="W78" t="s">
-        <v>14</v>
-      </c>
-      <c r="X78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>348</v>
-      </c>
-      <c r="C79" t="s">
-        <v>349</v>
-      </c>
-      <c r="D79" s="2">
-        <v>45419</v>
-      </c>
-      <c r="E79" t="s">
-        <v>353</v>
-      </c>
-      <c r="F79" t="s">
-        <v>354</v>
-      </c>
-      <c r="G79" s="3">
-        <v>4</v>
-      </c>
-      <c r="H79" s="3">
-        <v>200</v>
-      </c>
-      <c r="I79" t="s">
-        <v>5</v>
-      </c>
-      <c r="J79" t="s">
-        <v>6</v>
-      </c>
-      <c r="K79" t="s">
-        <v>350</v>
-      </c>
-      <c r="L79" t="s">
-        <v>351</v>
-      </c>
-      <c r="M79" t="s">
-        <v>9</v>
-      </c>
-      <c r="N79" t="s">
-        <v>10</v>
-      </c>
-      <c r="O79" t="s">
-        <v>352</v>
-      </c>
-      <c r="P79" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>45419</v>
-      </c>
-      <c r="R79" s="2">
-        <v>45420</v>
-      </c>
-      <c r="S79" t="s">
-        <v>301</v>
-      </c>
-      <c r="T79" t="s">
-        <v>316</v>
-      </c>
-      <c r="U79" t="s">
-        <v>317</v>
-      </c>
-      <c r="V79" t="s">
-        <v>318</v>
-      </c>
-      <c r="W79" t="s">
-        <v>14</v>
-      </c>
-      <c r="X79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
-      <c r="A80" t="s">
-        <v>355</v>
-      </c>
-      <c r="B80" t="s">
-        <v>356</v>
-      </c>
-      <c r="C80" t="s">
-        <v>357</v>
-      </c>
-      <c r="D80" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E80" t="s">
-        <v>358</v>
-      </c>
-      <c r="F80" t="s">
-        <v>359</v>
-      </c>
-      <c r="G80" s="3">
-        <v>1</v>
-      </c>
-      <c r="H80" s="3">
-        <v>1</v>
-      </c>
-      <c r="I80" t="s">
-        <v>5</v>
-      </c>
-      <c r="J80" t="s">
-        <v>360</v>
-      </c>
-      <c r="K80" t="s">
-        <v>361</v>
-      </c>
-      <c r="L80" t="s">
-        <v>362</v>
-      </c>
-      <c r="M80" t="s">
-        <v>363</v>
-      </c>
-      <c r="N80" t="s">
-        <v>10</v>
-      </c>
-      <c r="O80" t="s">
-        <v>364</v>
-      </c>
-      <c r="P80" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R80" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S80" t="s">
-        <v>65</v>
-      </c>
-      <c r="T80" t="s">
-        <v>361</v>
-      </c>
-      <c r="U80" t="s">
-        <v>366</v>
-      </c>
-      <c r="V80" t="s">
-        <v>367</v>
-      </c>
-      <c r="W80" t="s">
-        <v>14</v>
-      </c>
-      <c r="X80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
-      <c r="A81" t="s">
-        <v>355</v>
-      </c>
-      <c r="B81" t="s">
-        <v>368</v>
-      </c>
-      <c r="C81" t="s">
-        <v>369</v>
-      </c>
-      <c r="D81" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E81" t="s">
-        <v>358</v>
-      </c>
-      <c r="F81" t="s">
-        <v>359</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1</v>
-      </c>
-      <c r="I81" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" t="s">
-        <v>360</v>
-      </c>
-      <c r="K81" t="s">
-        <v>361</v>
-      </c>
-      <c r="L81" t="s">
-        <v>370</v>
-      </c>
-      <c r="M81" t="s">
-        <v>363</v>
-      </c>
-      <c r="N81" t="s">
-        <v>10</v>
-      </c>
-      <c r="O81" t="s">
-        <v>371</v>
-      </c>
-      <c r="P81" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q81" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R81" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S81" t="s">
-        <v>65</v>
-      </c>
-      <c r="T81" t="s">
-        <v>361</v>
-      </c>
-      <c r="U81" t="s">
-        <v>366</v>
-      </c>
-      <c r="V81" t="s">
-        <v>367</v>
-      </c>
-      <c r="W81" t="s">
-        <v>14</v>
-      </c>
-      <c r="X81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
-      <c r="A82" t="s">
-        <v>355</v>
-      </c>
-      <c r="B82" t="s">
-        <v>372</v>
-      </c>
-      <c r="C82" t="s">
-        <v>373</v>
-      </c>
-      <c r="D82" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E82" t="s">
-        <v>358</v>
-      </c>
-      <c r="F82" t="s">
-        <v>359</v>
-      </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="3">
-        <v>1</v>
-      </c>
-      <c r="I82" t="s">
-        <v>5</v>
-      </c>
-      <c r="J82" t="s">
-        <v>360</v>
-      </c>
-      <c r="K82" t="s">
-        <v>361</v>
-      </c>
-      <c r="L82" t="s">
-        <v>374</v>
-      </c>
-      <c r="M82" t="s">
-        <v>363</v>
-      </c>
-      <c r="N82" t="s">
-        <v>10</v>
-      </c>
-      <c r="O82" t="s">
-        <v>375</v>
-      </c>
-      <c r="P82" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q82" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R82" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S82" t="s">
-        <v>65</v>
-      </c>
-      <c r="T82" t="s">
-        <v>361</v>
-      </c>
-      <c r="U82" t="s">
-        <v>366</v>
-      </c>
-      <c r="V82" t="s">
-        <v>367</v>
-      </c>
-      <c r="W82" t="s">
-        <v>14</v>
-      </c>
-      <c r="X82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24">
-      <c r="A83" t="s">
-        <v>355</v>
-      </c>
-      <c r="B83" t="s">
-        <v>376</v>
-      </c>
-      <c r="C83" t="s">
-        <v>369</v>
-      </c>
-      <c r="D83" s="2">
-        <v>45411</v>
-      </c>
-      <c r="E83" t="s">
-        <v>377</v>
-      </c>
-      <c r="F83" t="s">
-        <v>378</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2</v>
-      </c>
-      <c r="I83" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" t="s">
-        <v>360</v>
-      </c>
-      <c r="K83" t="s">
-        <v>361</v>
-      </c>
-      <c r="L83" t="s">
-        <v>370</v>
-      </c>
-      <c r="M83" t="s">
-        <v>363</v>
-      </c>
-      <c r="N83" t="s">
-        <v>10</v>
-      </c>
-      <c r="O83" t="s">
-        <v>379</v>
-      </c>
-      <c r="P83" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q83" s="2">
-        <v>45411</v>
-      </c>
-      <c r="R83" s="2">
-        <v>45412</v>
-      </c>
-      <c r="S83" t="s">
-        <v>65</v>
-      </c>
-      <c r="T83" t="s">
-        <v>361</v>
-      </c>
-      <c r="U83" t="s">
-        <v>366</v>
-      </c>
-      <c r="V83" t="s">
-        <v>367</v>
-      </c>
-      <c r="W83" t="s">
-        <v>14</v>
-      </c>
-      <c r="X83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
-      <c r="A84" t="s">
-        <v>355</v>
-      </c>
-      <c r="B84" t="s">
-        <v>380</v>
-      </c>
-      <c r="C84" t="s">
-        <v>381</v>
-      </c>
-      <c r="D84" s="2">
-        <v>45468</v>
-      </c>
-      <c r="E84" t="s">
-        <v>382</v>
-      </c>
-      <c r="F84" t="s">
-        <v>383</v>
-      </c>
-      <c r="G84" s="3">
-        <v>1</v>
-      </c>
-      <c r="H84" s="3">
-        <v>1</v>
-      </c>
-      <c r="I84" t="s">
-        <v>5</v>
-      </c>
-      <c r="J84" t="s">
-        <v>360</v>
-      </c>
-      <c r="K84" t="s">
-        <v>384</v>
-      </c>
-      <c r="L84" t="s">
-        <v>385</v>
-      </c>
-      <c r="M84" t="s">
-        <v>9</v>
-      </c>
-      <c r="N84" t="s">
-        <v>10</v>
-      </c>
-      <c r="O84" t="s">
-        <v>386</v>
-      </c>
-      <c r="P84" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q84" s="2">
-        <v>45468</v>
-      </c>
-      <c r="R84" s="2">
-        <v>45468</v>
-      </c>
-      <c r="S84" t="s">
-        <v>22</v>
-      </c>
-      <c r="T84" t="s">
-        <v>384</v>
-      </c>
-      <c r="U84" t="s">
-        <v>381</v>
-      </c>
-      <c r="V84" t="s">
-        <v>385</v>
-      </c>
-      <c r="W84" t="s">
-        <v>14</v>
-      </c>
-      <c r="X84" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="476">
   <si>
     <t>P891</t>
   </si>
@@ -190,691 +190,928 @@
     <t>Ascorbic acid buffer 50mg/vial</t>
   </si>
   <si>
-    <t>133849577</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING - WESTMEAD</t>
-  </si>
-  <si>
-    <t>87234495</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>3806780</t>
+    <t>133852844</t>
+  </si>
+  <si>
+    <t>DIAGNOSTIC &amp; MEDICAL PTY LTD</t>
+  </si>
+  <si>
+    <t>82212737</t>
+  </si>
+  <si>
+    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
+  </si>
+  <si>
+    <t>3020867</t>
+  </si>
+  <si>
+    <t>MACQUARIE PARK</t>
+  </si>
+  <si>
+    <t>717057926</t>
+  </si>
+  <si>
+    <t>010050</t>
+  </si>
+  <si>
+    <t>133853693</t>
+  </si>
+  <si>
+    <t>Mount Druitt Hospital Main Store</t>
+  </si>
+  <si>
+    <t>03250768</t>
+  </si>
+  <si>
+    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>3309340</t>
+  </si>
+  <si>
+    <t>MOUNT DRUITT</t>
+  </si>
+  <si>
+    <t>717101529</t>
+  </si>
+  <si>
+    <t>4596108</t>
+  </si>
+  <si>
+    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
+  </si>
+  <si>
+    <t>PARRAMATTA</t>
+  </si>
+  <si>
+    <t>133845841</t>
+  </si>
+  <si>
+    <t>WARRINGAL PRIVATE HOSPITAL</t>
+  </si>
+  <si>
+    <t>80727543</t>
+  </si>
+  <si>
+    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
+  </si>
+  <si>
+    <t>4596134</t>
+  </si>
+  <si>
+    <t>HEIDELBERG</t>
+  </si>
+  <si>
+    <t>717105303</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>4595466</t>
+  </si>
+  <si>
+    <t>RAMSAY HEALTH CARE</t>
+  </si>
+  <si>
+    <t>ST KILDA ROAD</t>
+  </si>
+  <si>
+    <t>133845842</t>
+  </si>
+  <si>
+    <t>THE ALFRED HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595753</t>
+  </si>
+  <si>
+    <t>MELBOURNE</t>
+  </si>
+  <si>
+    <t>717105914</t>
+  </si>
+  <si>
+    <t>4596298</t>
+  </si>
+  <si>
+    <t>ALFRED HEALTH</t>
+  </si>
+  <si>
+    <t>PRAHRAN</t>
+  </si>
+  <si>
+    <t>133845846</t>
+  </si>
+  <si>
+    <t>ROYAL ADELAIDE HOSPITAL</t>
+  </si>
+  <si>
+    <t>4676781</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>717110890</t>
+  </si>
+  <si>
+    <t>4595446</t>
+  </si>
+  <si>
+    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133849347</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY-GREENSLOPES QX133</t>
+  </si>
+  <si>
+    <t>4596219</t>
+  </si>
+  <si>
+    <t>GREENSLOPES</t>
+  </si>
+  <si>
+    <t>717105866</t>
+  </si>
+  <si>
+    <t>4596029</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY PTY LTD</t>
+  </si>
+  <si>
+    <t>SOUTH BRISBANE</t>
+  </si>
+  <si>
+    <t>133849575</t>
+  </si>
+  <si>
+    <t>MET MaitlandHospDock 550001</t>
+  </si>
+  <si>
+    <t>4687593</t>
+  </si>
+  <si>
+    <t>Metford</t>
+  </si>
+  <si>
+    <t>717107314</t>
+  </si>
+  <si>
+    <t>4595328</t>
+  </si>
+  <si>
+    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
+  </si>
+  <si>
+    <t>NEWCASTLE</t>
+  </si>
+  <si>
+    <t>133852413</t>
+  </si>
+  <si>
+    <t>LAUNCESTON GENERAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>00658781</t>
+  </si>
+  <si>
+    <t>ULTRAVIST 370 SOLU BT 1X200ML AU</t>
+  </si>
+  <si>
+    <t>SPEC</t>
+  </si>
+  <si>
+    <t>4595878</t>
+  </si>
+  <si>
+    <t>KINGS MEADOWS</t>
+  </si>
+  <si>
+    <t>717098799</t>
+  </si>
+  <si>
+    <t>EIWPK</t>
+  </si>
+  <si>
+    <t>050230</t>
+  </si>
+  <si>
+    <t>3310765</t>
+  </si>
+  <si>
+    <t>TASMANIAN HEALTH SERVICE</t>
+  </si>
+  <si>
+    <t>HOBART</t>
+  </si>
+  <si>
+    <t>133853695</t>
+  </si>
+  <si>
+    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
+  </si>
+  <si>
+    <t>80802544</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4670712</t>
+  </si>
+  <si>
+    <t>DERRIMUT</t>
+  </si>
+  <si>
+    <t>717107524</t>
+  </si>
+  <si>
+    <t>4670709</t>
+  </si>
+  <si>
+    <t>HEALTHSHARE VICTORIA</t>
+  </si>
+  <si>
+    <t>133853696</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - C/- ST ANDREWS</t>
+  </si>
+  <si>
+    <t>89092302</t>
+  </si>
+  <si>
+    <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
+  </si>
+  <si>
+    <t>4596001</t>
+  </si>
+  <si>
+    <t>TOOWOOMBA</t>
+  </si>
+  <si>
+    <t>717108117</t>
+  </si>
+  <si>
+    <t>64439489</t>
+  </si>
+  <si>
+    <t>0.1 Hydrochloric Acid (ultra pure)</t>
+  </si>
+  <si>
+    <t>86617501</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,PAS,60",MC,WLD</t>
+  </si>
+  <si>
+    <t>86645564</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,LPCT,STELLANT,MC,WLD</t>
+  </si>
+  <si>
+    <t>133853970</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY  - CABOOLTURE</t>
+  </si>
+  <si>
+    <t>4595906</t>
+  </si>
+  <si>
+    <t>CABOOLTURE</t>
+  </si>
+  <si>
+    <t>717112060</t>
+  </si>
+  <si>
+    <t>133855220</t>
+  </si>
+  <si>
+    <t>ST VINCENT'S HOSPITAL (MELBOURNE)</t>
+  </si>
+  <si>
+    <t>4595793</t>
+  </si>
+  <si>
+    <t>FITZROY</t>
+  </si>
+  <si>
+    <t>717105754</t>
+  </si>
+  <si>
+    <t>4595792</t>
+  </si>
+  <si>
+    <t>ST VINCENT'S HOSPITAL MELBOURNE LTD</t>
+  </si>
+  <si>
+    <t>133856899</t>
+  </si>
+  <si>
+    <t>ST VINCENTS HOSPITAL SYDNEY</t>
+  </si>
+  <si>
+    <t>87621529</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4595515</t>
+  </si>
+  <si>
+    <t>DARLINGHURST</t>
+  </si>
+  <si>
+    <t>717103988</t>
+  </si>
+  <si>
+    <t>4595511</t>
+  </si>
+  <si>
+    <t>ST VINCENT'S HOSPITAL SYDNEY LTD</t>
+  </si>
+  <si>
+    <t>133856999</t>
+  </si>
+  <si>
+    <t>HORNSBY KURINGAI HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595336</t>
+  </si>
+  <si>
+    <t>HORNSBY</t>
+  </si>
+  <si>
+    <t>717106983</t>
+  </si>
+  <si>
+    <t>4595339</t>
+  </si>
+  <si>
+    <t>NORTHERN SYDNEY LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133858731</t>
+  </si>
+  <si>
+    <t>Albury Base Hospital Pharmacy</t>
+  </si>
+  <si>
+    <t>3069732</t>
+  </si>
+  <si>
+    <t>717099753</t>
+  </si>
+  <si>
+    <t>4596179</t>
+  </si>
+  <si>
+    <t>ALBURY WODONGA HEALTH</t>
+  </si>
+  <si>
+    <t>133858737</t>
+  </si>
+  <si>
+    <t>BENSON RADIOLOGY</t>
+  </si>
+  <si>
+    <t>3642575</t>
+  </si>
+  <si>
+    <t>SALISBURY</t>
+  </si>
+  <si>
+    <t>717114644</t>
+  </si>
+  <si>
+    <t>4596200</t>
+  </si>
+  <si>
+    <t>NORTH ADELAIDE</t>
+  </si>
+  <si>
+    <t>133858808</t>
+  </si>
+  <si>
+    <t>PRP Diagnostic Imaging- Warriewood</t>
+  </si>
+  <si>
+    <t>929711</t>
+  </si>
+  <si>
+    <t>Warriewood</t>
+  </si>
+  <si>
+    <t>717106325</t>
+  </si>
+  <si>
+    <t>4595823</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>GOSFORD</t>
+  </si>
+  <si>
+    <t>87078760</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
+  </si>
+  <si>
+    <t>133858852</t>
+  </si>
+  <si>
+    <t>GOLD COAST UNIVERSITY HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595660</t>
+  </si>
+  <si>
+    <t>SOUTHPORT</t>
+  </si>
+  <si>
+    <t>717110750</t>
+  </si>
+  <si>
+    <t>4595661</t>
+  </si>
+  <si>
+    <t>GOLD COAST HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>133859118</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY-CAIRNS</t>
+  </si>
+  <si>
+    <t>4596017</t>
+  </si>
+  <si>
+    <t>CAIRNS</t>
+  </si>
+  <si>
+    <t>717106296</t>
+  </si>
+  <si>
+    <t>040130</t>
+  </si>
+  <si>
+    <t>86574470</t>
+  </si>
+  <si>
+    <t>ASSY,FEMALE-FEMALE LUER,MRI,MC,WLD</t>
+  </si>
+  <si>
+    <t>133859119</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - CAIRNS DIAG</t>
+  </si>
+  <si>
+    <t>4596009</t>
+  </si>
+  <si>
+    <t>717106599</t>
+  </si>
+  <si>
+    <t>133859121</t>
+  </si>
+  <si>
+    <t>QUEENSLAND X-RAY - COOPERS PLAINS</t>
+  </si>
+  <si>
+    <t>4596010</t>
+  </si>
+  <si>
+    <t>COOPERS PLAINS</t>
+  </si>
+  <si>
+    <t>717110850</t>
+  </si>
+  <si>
+    <t>133859728</t>
+  </si>
+  <si>
+    <t>717110825</t>
+  </si>
+  <si>
+    <t>133864781</t>
+  </si>
+  <si>
+    <t>QSCAN RADIOLOGY CLINIC - SOUTHPORT</t>
+  </si>
+  <si>
+    <t>3016812</t>
+  </si>
+  <si>
+    <t>717108154</t>
+  </si>
+  <si>
+    <t>3321441</t>
+  </si>
+  <si>
+    <t>QSCAN RADIOLOGY CLINIC- WINDSOR</t>
+  </si>
+  <si>
+    <t>WINDSOR</t>
+  </si>
+  <si>
+    <t>133865336</t>
+  </si>
+  <si>
+    <t>SURGICAL,TREATMENT&amp;REHAB SERVICE</t>
+  </si>
+  <si>
+    <t>4616889</t>
+  </si>
+  <si>
+    <t>HERSTON</t>
+  </si>
+  <si>
+    <t>717112057</t>
+  </si>
+  <si>
+    <t>4595837</t>
+  </si>
+  <si>
+    <t>METRO NORTH HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>133830876</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - CAMPBELLTOWN</t>
+  </si>
+  <si>
+    <t>4595704</t>
+  </si>
+  <si>
+    <t>CAMPBELLTOWN</t>
+  </si>
+  <si>
+    <t>717113534</t>
+  </si>
+  <si>
+    <t>87235971</t>
+  </si>
+  <si>
+    <t>TUBE,EXT,DUAL,WLD1</t>
+  </si>
+  <si>
+    <t>87234487</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>87236072</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,WLD1</t>
+  </si>
+  <si>
+    <t>133854855</t>
+  </si>
+  <si>
+    <t>PRINCE OF WALES HOSPITAL</t>
+  </si>
+  <si>
+    <t>87548384</t>
+  </si>
+  <si>
+    <t>ASSY,SPIKE,BBRAUN,CENTARGO,ROW</t>
+  </si>
+  <si>
+    <t>4640198</t>
+  </si>
+  <si>
+    <t>Randwick</t>
+  </si>
+  <si>
+    <t>717111667</t>
+  </si>
+  <si>
+    <t>4596274</t>
+  </si>
+  <si>
+    <t>SOUTH EASTERN SYDNEY LOCAL HEALTH D</t>
+  </si>
+  <si>
+    <t>HUNTER REGION MAIL CENTRE</t>
+  </si>
+  <si>
+    <t>87548082</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
+  </si>
+  <si>
+    <t>133854857</t>
+  </si>
+  <si>
+    <t>86698242</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>717113089</t>
+  </si>
+  <si>
+    <t>86835444</t>
+  </si>
+  <si>
+    <t>MRXPERION,KIT,SYR,MR,PFA,JA,FINAL</t>
+  </si>
+  <si>
+    <t>87548783</t>
+  </si>
+  <si>
+    <t>ASSY,DAY SET,CENTARGO,ROW</t>
+  </si>
+  <si>
+    <t>133858736</t>
+  </si>
+  <si>
+    <t>ROYAL PRINCE ALFRED HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595811</t>
+  </si>
+  <si>
+    <t>CAMPERDOWN</t>
+  </si>
+  <si>
+    <t>717113058</t>
+  </si>
+  <si>
+    <t>4595817</t>
+  </si>
+  <si>
+    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
+  </si>
+  <si>
+    <t>133864162</t>
+  </si>
+  <si>
+    <t>CLARENCE VALLEY IMAGING</t>
+  </si>
+  <si>
+    <t>3086096</t>
+  </si>
+  <si>
+    <t>GRAFTON</t>
+  </si>
+  <si>
+    <t>717113194</t>
+  </si>
+  <si>
+    <t>3020995</t>
+  </si>
+  <si>
+    <t>NORTH COAST RADIOLOGY - GRAFTON</t>
+  </si>
+  <si>
+    <t>133864164</t>
+  </si>
+  <si>
+    <t>ILLAWARRA RADIOLOGY GRP</t>
+  </si>
+  <si>
+    <t>4595161</t>
+  </si>
+  <si>
+    <t>SHELLHARBOUR</t>
+  </si>
+  <si>
+    <t>717114322</t>
+  </si>
+  <si>
+    <t>4595165</t>
+  </si>
+  <si>
+    <t>IRG CO PTY LIMITED</t>
   </si>
   <si>
     <t>WESTMEAD</t>
   </si>
   <si>
-    <t>717110768</t>
-  </si>
-  <si>
-    <t>010050</t>
-  </si>
-  <si>
-    <t>4595823</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>GOSFORD</t>
-  </si>
-  <si>
-    <t>133852844</t>
-  </si>
-  <si>
-    <t>DIAGNOSTIC &amp; MEDICAL PTY LTD</t>
-  </si>
-  <si>
-    <t>82212737</t>
-  </si>
-  <si>
-    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
-  </si>
-  <si>
-    <t>3020867</t>
-  </si>
-  <si>
-    <t>MACQUARIE PARK</t>
-  </si>
-  <si>
-    <t>717057926</t>
-  </si>
-  <si>
-    <t>133853693</t>
-  </si>
-  <si>
-    <t>Mount Druitt Hospital Main Store</t>
-  </si>
-  <si>
-    <t>03250768</t>
-  </si>
-  <si>
-    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>3309340</t>
-  </si>
-  <si>
-    <t>MOUNT DRUITT</t>
-  </si>
-  <si>
-    <t>717101529</t>
-  </si>
-  <si>
-    <t>4596108</t>
-  </si>
-  <si>
-    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
-  </si>
-  <si>
-    <t>PARRAMATTA</t>
-  </si>
-  <si>
-    <t>133858732</t>
-  </si>
-  <si>
-    <t>REPAT RADIOLOGY</t>
-  </si>
-  <si>
-    <t>86698188</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>4553048</t>
-  </si>
-  <si>
-    <t>DAW PARK</t>
-  </si>
-  <si>
-    <t>717111710</t>
-  </si>
-  <si>
-    <t>4595446</t>
-  </si>
-  <si>
-    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>ADELAIDE</t>
-  </si>
-  <si>
-    <t>133845841</t>
-  </si>
-  <si>
-    <t>WARRINGAL PRIVATE HOSPITAL</t>
-  </si>
-  <si>
-    <t>80727543</t>
-  </si>
-  <si>
-    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
-  </si>
-  <si>
-    <t>4596134</t>
-  </si>
-  <si>
-    <t>HEIDELBERG</t>
-  </si>
-  <si>
-    <t>717105303</t>
-  </si>
-  <si>
-    <t>010130</t>
-  </si>
-  <si>
-    <t>4595466</t>
-  </si>
-  <si>
-    <t>RAMSAY HEALTH CARE</t>
-  </si>
-  <si>
-    <t>ST KILDA ROAD</t>
-  </si>
-  <si>
-    <t>133845842</t>
-  </si>
-  <si>
-    <t>THE ALFRED HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595753</t>
-  </si>
-  <si>
-    <t>MELBOURNE</t>
-  </si>
-  <si>
-    <t>717105914</t>
-  </si>
-  <si>
-    <t>4596298</t>
-  </si>
-  <si>
-    <t>ALFRED HEALTH</t>
-  </si>
-  <si>
-    <t>PRAHRAN</t>
-  </si>
-  <si>
-    <t>133845843</t>
-  </si>
-  <si>
-    <t>THE WESLEY HOSPITAL-MAIN STORE</t>
-  </si>
-  <si>
-    <t>86617455</t>
-  </si>
-  <si>
-    <t>AVANTA,KIT,SYR,ANGIO,150ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595423</t>
+    <t>133864165</t>
+  </si>
+  <si>
+    <t>SUPERSCAN - FAIRFIELD</t>
+  </si>
+  <si>
+    <t>4595059</t>
+  </si>
+  <si>
+    <t>FAIRFIELD</t>
+  </si>
+  <si>
+    <t>717116380</t>
+  </si>
+  <si>
+    <t>4595079</t>
+  </si>
+  <si>
+    <t>FAIRFIELD RADIOLOGY PTY LTD</t>
+  </si>
+  <si>
+    <t>FAIRFIELD HEIGHTS</t>
+  </si>
+  <si>
+    <t>133864780</t>
+  </si>
+  <si>
+    <t>TERN HILL P/L ATFT THE IMAGING</t>
+  </si>
+  <si>
+    <t>4595263</t>
+  </si>
+  <si>
+    <t>717106812</t>
+  </si>
+  <si>
+    <t>4595261</t>
+  </si>
+  <si>
+    <t>The X-Ray Group Pty Ltd</t>
+  </si>
+  <si>
+    <t>133864974</t>
+  </si>
+  <si>
+    <t>GOSFORD HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595426</t>
+  </si>
+  <si>
+    <t>717113267</t>
+  </si>
+  <si>
+    <t>4595430</t>
+  </si>
+  <si>
+    <t>CENTRAL COAST LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133864975</t>
+  </si>
+  <si>
+    <t>BENSON RADIOLOGY - MORPHETT VALE</t>
+  </si>
+  <si>
+    <t>4596196</t>
+  </si>
+  <si>
+    <t>MORPHETT VALE</t>
+  </si>
+  <si>
+    <t>717113535</t>
+  </si>
+  <si>
+    <t>133866911</t>
+  </si>
+  <si>
+    <t>717106779</t>
+  </si>
+  <si>
+    <t>133866913</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - THE WESLEY</t>
+  </si>
+  <si>
+    <t>4595887</t>
   </si>
   <si>
     <t>AUCHENFLOWER</t>
   </si>
   <si>
-    <t>717109551</t>
-  </si>
-  <si>
-    <t>3308475</t>
-  </si>
-  <si>
-    <t>UNITYCARE HEALTH</t>
-  </si>
-  <si>
-    <t>133845844</t>
-  </si>
-  <si>
-    <t>BARWON MEDICAL IMAGING - GEELONG</t>
-  </si>
-  <si>
-    <t>86617439</t>
-  </si>
-  <si>
-    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>4596081</t>
-  </si>
-  <si>
-    <t>GEELONG</t>
-  </si>
-  <si>
-    <t>717109601</t>
-  </si>
-  <si>
-    <t>4596084</t>
-  </si>
-  <si>
-    <t>BARWON HEALTH</t>
-  </si>
-  <si>
-    <t>133845846</t>
-  </si>
-  <si>
-    <t>ROYAL ADELAIDE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4676781</t>
-  </si>
-  <si>
-    <t>717110890</t>
-  </si>
-  <si>
-    <t>133849347</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY-GREENSLOPES QX133</t>
-  </si>
-  <si>
-    <t>4596219</t>
-  </si>
-  <si>
-    <t>GREENSLOPES</t>
-  </si>
-  <si>
-    <t>717105866</t>
-  </si>
-  <si>
-    <t>4596029</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY PTY LTD</t>
-  </si>
-  <si>
-    <t>SOUTH BRISBANE</t>
-  </si>
-  <si>
-    <t>133849575</t>
-  </si>
-  <si>
-    <t>MET MaitlandHospDock 550001</t>
-  </si>
-  <si>
-    <t>4687593</t>
-  </si>
-  <si>
-    <t>Metford</t>
-  </si>
-  <si>
-    <t>717107314</t>
-  </si>
-  <si>
-    <t>4595328</t>
-  </si>
-  <si>
-    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
-  </si>
-  <si>
-    <t>NEWCASTLE</t>
-  </si>
-  <si>
-    <t>133852413</t>
-  </si>
-  <si>
-    <t>LAUNCESTON GENERAL HOSPITAL</t>
-  </si>
-  <si>
-    <t>00658781</t>
-  </si>
-  <si>
-    <t>ULTRAVIST 370 SOLU BT 1X200ML AU</t>
-  </si>
-  <si>
-    <t>SPEC</t>
-  </si>
-  <si>
-    <t>4595878</t>
-  </si>
-  <si>
-    <t>KINGS MEADOWS</t>
-  </si>
-  <si>
-    <t>717098799</t>
-  </si>
-  <si>
-    <t>EIWPK</t>
-  </si>
-  <si>
-    <t>050230</t>
-  </si>
-  <si>
-    <t>3310765</t>
-  </si>
-  <si>
-    <t>TASMANIAN HEALTH SERVICE</t>
-  </si>
-  <si>
-    <t>HOBART</t>
-  </si>
-  <si>
-    <t>133852845</t>
-  </si>
-  <si>
-    <t>CABRINI HOSPITAL</t>
-  </si>
-  <si>
-    <t>87234487</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>4596112</t>
-  </si>
-  <si>
-    <t>BRIGHTON</t>
-  </si>
-  <si>
-    <t>717079732</t>
-  </si>
-  <si>
-    <t>4596151</t>
-  </si>
-  <si>
-    <t>CABRINI HEALTH</t>
-  </si>
-  <si>
-    <t>MALVERN</t>
-  </si>
-  <si>
-    <t>133852856</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY-CAIRNS</t>
-  </si>
-  <si>
-    <t>64439489</t>
-  </si>
-  <si>
-    <t>0.1 Hydrochloric Acid (ultra pure)</t>
-  </si>
-  <si>
-    <t>4596017</t>
-  </si>
-  <si>
-    <t>CAIRNS</t>
-  </si>
-  <si>
-    <t>717104830</t>
-  </si>
-  <si>
-    <t>040130</t>
-  </si>
-  <si>
-    <t>133853694</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY - BAYSIDE</t>
-  </si>
-  <si>
-    <t>4596022</t>
-  </si>
-  <si>
-    <t>CLEVELAND</t>
-  </si>
-  <si>
-    <t>717107484</t>
-  </si>
-  <si>
-    <t>133853695</t>
-  </si>
-  <si>
-    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
-  </si>
-  <si>
-    <t>80802544</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4670712</t>
-  </si>
-  <si>
-    <t>DERRIMUT</t>
-  </si>
-  <si>
-    <t>717107524</t>
-  </si>
-  <si>
-    <t>4670709</t>
-  </si>
-  <si>
-    <t>HEALTHSHARE VICTORIA</t>
-  </si>
-  <si>
-    <t>133853696</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY - C/- ST ANDREWS</t>
-  </si>
-  <si>
-    <t>89092302</t>
-  </si>
-  <si>
-    <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
-  </si>
-  <si>
-    <t>4596001</t>
-  </si>
-  <si>
-    <t>TOOWOOMBA</t>
-  </si>
-  <si>
-    <t>717108117</t>
-  </si>
-  <si>
-    <t>86617501</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,PAS,60",MC,WLD</t>
-  </si>
-  <si>
-    <t>86645564</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,LPCT,STELLANT,MC,WLD</t>
-  </si>
-  <si>
-    <t>133853970</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY  - CABOOLTURE</t>
-  </si>
-  <si>
-    <t>4595906</t>
-  </si>
-  <si>
-    <t>CABOOLTURE</t>
-  </si>
-  <si>
-    <t>717112060</t>
-  </si>
-  <si>
-    <t>133854847</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - BENALLA</t>
-  </si>
-  <si>
-    <t>4595774</t>
-  </si>
-  <si>
-    <t>BENALLA</t>
-  </si>
-  <si>
-    <t>717100057</t>
-  </si>
-  <si>
-    <t>133855220</t>
-  </si>
-  <si>
-    <t>ST VINCENT'S HOSPITAL (MELBOURNE)</t>
-  </si>
-  <si>
-    <t>4595793</t>
-  </si>
-  <si>
-    <t>FITZROY</t>
-  </si>
-  <si>
-    <t>717105754</t>
-  </si>
-  <si>
-    <t>4595792</t>
-  </si>
-  <si>
-    <t>ST VINCENT'S HOSPITAL MELBOURNE LTD</t>
-  </si>
-  <si>
-    <t>133856899</t>
-  </si>
-  <si>
-    <t>ST VINCENTS HOSPITAL SYDNEY</t>
-  </si>
-  <si>
-    <t>87621529</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>4595515</t>
-  </si>
-  <si>
-    <t>DARLINGHURST</t>
-  </si>
-  <si>
-    <t>717103988</t>
-  </si>
-  <si>
-    <t>4595511</t>
-  </si>
-  <si>
-    <t>ST VINCENT'S HOSPITAL SYDNEY LTD</t>
-  </si>
-  <si>
-    <t>133856999</t>
-  </si>
-  <si>
-    <t>HORNSBY KURINGAI HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595336</t>
-  </si>
-  <si>
-    <t>HORNSBY</t>
-  </si>
-  <si>
-    <t>717106983</t>
-  </si>
-  <si>
-    <t>4595339</t>
-  </si>
-  <si>
-    <t>NORTHERN SYDNEY LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>133858731</t>
-  </si>
-  <si>
-    <t>Albury Base Hospital Pharmacy</t>
-  </si>
-  <si>
-    <t>3069732</t>
-  </si>
-  <si>
-    <t>717099753</t>
-  </si>
-  <si>
-    <t>4596179</t>
-  </si>
-  <si>
-    <t>ALBURY WODONGA HEALTH</t>
-  </si>
-  <si>
-    <t>133858808</t>
-  </si>
-  <si>
-    <t>PRP Diagnostic Imaging- Warriewood</t>
-  </si>
-  <si>
-    <t>929711</t>
-  </si>
-  <si>
-    <t>Warriewood</t>
-  </si>
-  <si>
-    <t>717106325</t>
-  </si>
-  <si>
-    <t>87078760</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
-  </si>
-  <si>
-    <t>133858852</t>
-  </si>
-  <si>
-    <t>GOLD COAST UNIVERSITY HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595660</t>
-  </si>
-  <si>
-    <t>SOUTHPORT</t>
-  </si>
-  <si>
-    <t>717110750</t>
-  </si>
-  <si>
-    <t>4595661</t>
-  </si>
-  <si>
-    <t>GOLD COAST HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>133859118</t>
-  </si>
-  <si>
-    <t>717106296</t>
-  </si>
-  <si>
-    <t>86574470</t>
-  </si>
-  <si>
-    <t>ASSY,FEMALE-FEMALE LUER,MRI,MC,WLD</t>
-  </si>
-  <si>
-    <t>133859119</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY - CAIRNS DIAG</t>
-  </si>
-  <si>
-    <t>4596009</t>
-  </si>
-  <si>
-    <t>717106599</t>
-  </si>
-  <si>
-    <t>133859121</t>
-  </si>
-  <si>
-    <t>QUEENSLAND X-RAY - COOPERS PLAINS</t>
-  </si>
-  <si>
-    <t>4596010</t>
-  </si>
-  <si>
-    <t>COOPERS PLAINS</t>
-  </si>
-  <si>
-    <t>717110850</t>
-  </si>
-  <si>
-    <t>133859258</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - CAPALABA</t>
-  </si>
-  <si>
-    <t>730128</t>
-  </si>
-  <si>
-    <t>CAPALABA</t>
-  </si>
-  <si>
-    <t>717106834</t>
-  </si>
-  <si>
-    <t>133859728</t>
-  </si>
-  <si>
-    <t>717110825</t>
-  </si>
-  <si>
-    <t>133849576</t>
-  </si>
-  <si>
-    <t>PERTH RAD CLINIC LTD - SJOG MIDLAND</t>
-  </si>
-  <si>
-    <t>4595281</t>
-  </si>
-  <si>
-    <t>MIDLAND</t>
-  </si>
-  <si>
-    <t>717109124</t>
+    <t>717116390</t>
+  </si>
+  <si>
+    <t>133866914</t>
+  </si>
+  <si>
+    <t>FLINDERS MEDICAL CENTRE</t>
+  </si>
+  <si>
+    <t>4699953</t>
+  </si>
+  <si>
+    <t>BEDFORD PARK</t>
+  </si>
+  <si>
+    <t>717116400</t>
+  </si>
+  <si>
+    <t>133866979</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - UPPER MT GRAVATT</t>
+  </si>
+  <si>
+    <t>4595780</t>
+  </si>
+  <si>
+    <t>UPPER MT GRAVATT</t>
+  </si>
+  <si>
+    <t>717115254</t>
+  </si>
+  <si>
+    <t>133866990</t>
+  </si>
+  <si>
+    <t>BENDIGO HEALTH CARE GROUP</t>
+  </si>
+  <si>
+    <t>4595742</t>
+  </si>
+  <si>
+    <t>BENDIGO</t>
+  </si>
+  <si>
+    <t>717115471</t>
+  </si>
+  <si>
+    <t>4595741</t>
+  </si>
+  <si>
+    <t>133867059</t>
+  </si>
+  <si>
+    <t>717115014</t>
+  </si>
+  <si>
+    <t>85575279</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 3X2ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133867068</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - WAGGA WAGGA</t>
+  </si>
+  <si>
+    <t>4595953</t>
+  </si>
+  <si>
+    <t>WAGGA WAGGA</t>
+  </si>
+  <si>
+    <t>717116221</t>
+  </si>
+  <si>
+    <t>133867069</t>
+  </si>
+  <si>
+    <t>IPSWICH HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595348</t>
+  </si>
+  <si>
+    <t>IPSWICH</t>
+  </si>
+  <si>
+    <t>717116430</t>
+  </si>
+  <si>
+    <t>4595349</t>
+  </si>
+  <si>
+    <t>WEST MORETON HOSPITAL &amp;</t>
+  </si>
+  <si>
+    <t>133854856</t>
+  </si>
+  <si>
+    <t>PERTH RAD CLINIC LTD - SHENTON</t>
+  </si>
+  <si>
+    <t>4595276</t>
+  </si>
+  <si>
+    <t>JOONDALUP</t>
+  </si>
+  <si>
+    <t>717112127</t>
   </si>
   <si>
     <t>010530</t>
@@ -889,63 +1126,87 @@
     <t>MIRRABOOKA</t>
   </si>
   <si>
-    <t>86566621</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
-  </si>
-  <si>
-    <t>133860538</t>
-  </si>
-  <si>
-    <t>NEPEAN BLUE MOUNTAINS LHD</t>
-  </si>
-  <si>
-    <t>64432921</t>
-  </si>
-  <si>
-    <t>Acetonitrile for HPLC</t>
-  </si>
-  <si>
-    <t>4596176</t>
-  </si>
-  <si>
-    <t>KINGSWOOD</t>
-  </si>
-  <si>
-    <t>716635186</t>
+    <t>133864161</t>
+  </si>
+  <si>
+    <t>SIR CHARLES GAIRDNER HOSPITAL</t>
+  </si>
+  <si>
+    <t>86074125</t>
+  </si>
+  <si>
+    <t>ULTRAVIST 240 SOLU BT 10X100ML AU</t>
+  </si>
+  <si>
+    <t>4595761</t>
+  </si>
+  <si>
+    <t>NEDLANDS</t>
+  </si>
+  <si>
+    <t>717112936</t>
+  </si>
+  <si>
+    <t>4595766</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF HEALTH WA</t>
+  </si>
+  <si>
+    <t>RAILWAY ROAD</t>
+  </si>
+  <si>
+    <t>133864163</t>
+  </si>
+  <si>
+    <t>OSBORNE PARK HOSPITAL SUPPLY STORE</t>
+  </si>
+  <si>
+    <t>920539</t>
+  </si>
+  <si>
+    <t>STIRLING</t>
+  </si>
+  <si>
+    <t>717114084</t>
+  </si>
+  <si>
+    <t>133867058</t>
+  </si>
+  <si>
+    <t>86645556</t>
+  </si>
+  <si>
+    <t>MR,KIT,SYR,MRI,115ML,96",MC,WLD</t>
+  </si>
+  <si>
+    <t>717114817</t>
+  </si>
+  <si>
+    <t>133844404</t>
+  </si>
+  <si>
+    <t>AFFINITY MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>64438709</t>
+  </si>
+  <si>
+    <t>Aluminium block with (4) flat bottom hol</t>
+  </si>
+  <si>
+    <t>1078081</t>
+  </si>
+  <si>
+    <t>JOHNSONVILLE</t>
+  </si>
+  <si>
+    <t>716951266</t>
   </si>
   <si>
     <t>EHGHA</t>
   </si>
   <si>
-    <t>4596182</t>
-  </si>
-  <si>
-    <t>NEPEAN BLUE MOUNTAINS LOCAL</t>
-  </si>
-  <si>
-    <t>133844404</t>
-  </si>
-  <si>
-    <t>AFFINITY MEDICAL IMAGING</t>
-  </si>
-  <si>
-    <t>64438709</t>
-  </si>
-  <si>
-    <t>Aluminium block with (4) flat bottom hol</t>
-  </si>
-  <si>
-    <t>1078081</t>
-  </si>
-  <si>
-    <t>JOHNSONVILLE</t>
-  </si>
-  <si>
-    <t>716951266</t>
-  </si>
-  <si>
     <t>1078078</t>
   </si>
   <si>
@@ -964,6 +1225,18 @@
     <t>12mm Fixed L Block (120kg)</t>
   </si>
   <si>
+    <t>133864282</t>
+  </si>
+  <si>
+    <t>80727578</t>
+  </si>
+  <si>
+    <t>UROGRAFIN 30% SOLU BT 1x250ml AU NZ</t>
+  </si>
+  <si>
+    <t>717046807</t>
+  </si>
+  <si>
     <t>P8SW</t>
   </si>
   <si>
@@ -1064,6 +1337,24 @@
   </si>
   <si>
     <t>MAINTAIN,SYR HEAT,STELL,FLS2,LR</t>
+  </si>
+  <si>
+    <t>133866968</t>
+  </si>
+  <si>
+    <t>Storage King</t>
+  </si>
+  <si>
+    <t>88251091</t>
+  </si>
+  <si>
+    <t>ASSY,HCU,CENTARGO</t>
+  </si>
+  <si>
+    <t>Burwood</t>
+  </si>
+  <si>
+    <t>2172553373</t>
   </si>
   <si>
     <t>133837151</t>
@@ -1252,7 +1543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:X106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,16 +1553,16 @@
   <cols>
     <col min="1" max="1" bestFit="1" width="18" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="11" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="37" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="36" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="14" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
     <col min="6" max="6" bestFit="1" width="42" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="12" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="13" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="6" customWidth="1"/>
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="6" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="15" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="16" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="18" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15" customWidth="1"/>
     <col min="14" max="14" bestFit="1" width="6" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="21" customWidth="1"/>
@@ -1281,83 +1572,83 @@
     <col min="19" max="19" bestFit="1" width="8" customWidth="1"/>
     <col min="20" max="20" bestFit="1" width="15" customWidth="1"/>
     <col min="21" max="21" bestFit="1" width="37" customWidth="1"/>
-    <col min="22" max="22" bestFit="1" width="17" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="31" customWidth="1"/>
     <col min="23" max="23" bestFit="1" width="12" customWidth="1"/>
     <col min="24" max="24" bestFit="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>355</v>
+        <v>452</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>356</v>
+        <v>453</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>357</v>
+        <v>454</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>358</v>
+        <v>455</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>360</v>
+        <v>457</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>361</v>
+        <v>458</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>364</v>
+        <v>461</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>365</v>
+        <v>462</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>366</v>
+        <v>463</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>367</v>
+        <v>464</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>368</v>
+        <v>465</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>369</v>
+        <v>466</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>370</v>
+        <v>467</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>372</v>
+        <v>469</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>374</v>
+        <v>471</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>376</v>
+        <v>472</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>377</v>
+        <v>474</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>378</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -2493,7 +2784,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2529,13 +2820,13 @@
         <v>66</v>
       </c>
       <c r="T17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="U17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2549,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2">
         <v>45412</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2576,10 +2867,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2588,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s">
         <v>37</v>
@@ -2603,13 +2894,13 @@
         <v>66</v>
       </c>
       <c r="T18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="U18" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2623,25 +2914,25 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2">
         <v>45412</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2650,10 +2941,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2662,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P19" t="s">
         <v>37</v>
@@ -2680,10 +2971,10 @@
         <v>74</v>
       </c>
       <c r="U19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2703,7 +2994,7 @@
         <v>78</v>
       </c>
       <c r="D20" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E20" t="s">
         <v>79</v>
@@ -2712,10 +3003,10 @@
         <v>80</v>
       </c>
       <c r="G20" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2742,22 +3033,22 @@
         <v>37</v>
       </c>
       <c r="Q20" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R20" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="S20" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="T20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2771,67 +3062,67 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>91</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" t="s">
         <v>92</v>
-      </c>
-      <c r="M21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N21" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" t="s">
-        <v>93</v>
       </c>
       <c r="P21" t="s">
         <v>37</v>
       </c>
       <c r="Q21" s="2">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="R21" s="2">
         <v>45414</v>
       </c>
       <c r="S21" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="T21" t="s">
+        <v>93</v>
+      </c>
+      <c r="U21" t="s">
         <v>94</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>95</v>
-      </c>
-      <c r="V21" t="s">
-        <v>96</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2845,46 +3136,46 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
         <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>98</v>
       </c>
       <c r="D22" s="2">
         <v>45413</v>
       </c>
       <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" t="s">
         <v>99</v>
       </c>
-      <c r="F22" t="s">
+      <c r="M22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" t="s">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" t="s">
-        <v>102</v>
-      </c>
-      <c r="M22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N22" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" t="s">
-        <v>103</v>
       </c>
       <c r="P22" t="s">
         <v>37</v>
@@ -2893,19 +3184,19 @@
         <v>45413</v>
       </c>
       <c r="R22" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S22" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="U22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="V22" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2919,25 +3210,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2">
         <v>45413</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="G23" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H23" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -2946,10 +3237,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -2958,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P23" t="s">
         <v>37</v>
@@ -2970,16 +3261,16 @@
         <v>45414</v>
       </c>
       <c r="S23" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="V23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2993,25 +3284,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2">
         <v>45413</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H24" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -3020,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -3032,7 +3323,7 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="P24" t="s">
         <v>37</v>
@@ -3044,16 +3335,16 @@
         <v>45414</v>
       </c>
       <c r="S24" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T24" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="U24" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="V24" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -3067,25 +3358,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D25" s="2">
         <v>45413</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H25" s="3">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -3094,10 +3385,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="L25" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -3106,7 +3397,7 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="P25" t="s">
         <v>37</v>
@@ -3118,16 +3409,16 @@
         <v>45414</v>
       </c>
       <c r="S25" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T25" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="U25" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="V25" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -3141,37 +3432,37 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2">
         <v>45413</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="G26" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L26" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -3180,28 +3471,28 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="P26" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="2">
         <v>45413</v>
       </c>
       <c r="R26" s="2">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="S26" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="T26" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="U26" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="V26" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -3215,25 +3506,25 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D27" s="2">
         <v>45413</v>
       </c>
       <c r="E27" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="F27" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="G27" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="H27" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3242,10 +3533,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -3254,7 +3545,7 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P27" t="s">
         <v>37</v>
@@ -3266,16 +3557,16 @@
         <v>45414</v>
       </c>
       <c r="S27" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="V27" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -3289,25 +3580,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D28" s="2">
         <v>45413</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="G28" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3316,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L28" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -3328,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P28" t="s">
         <v>37</v>
@@ -3337,19 +3628,19 @@
         <v>45413</v>
       </c>
       <c r="R28" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S28" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="T28" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="U28" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="V28" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -3363,37 +3654,37 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D29" s="2">
         <v>45413</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="G29" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H29" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="K29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -3402,7 +3693,7 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P29" t="s">
         <v>37</v>
@@ -3411,19 +3702,19 @@
         <v>45413</v>
       </c>
       <c r="R29" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S29" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="T29" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="U29" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="V29" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3437,37 +3728,37 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D30" s="2">
         <v>45413</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="L30" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3476,28 +3767,28 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="2">
         <v>45413</v>
       </c>
       <c r="R30" s="2">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="S30" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="T30" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="U30" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="V30" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3511,19 +3802,19 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="D31" s="2">
         <v>45413</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="F31" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G31" s="3">
         <v>2</v>
@@ -3538,10 +3829,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="L31" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3550,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="P31" t="s">
         <v>37</v>
@@ -3559,19 +3850,19 @@
         <v>45413</v>
       </c>
       <c r="R31" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S31" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="T31" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="U31" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="V31" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3585,37 +3876,37 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="D32" s="2">
         <v>45413</v>
       </c>
       <c r="E32" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="F32" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="G32" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H32" s="3">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="L32" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3624,28 +3915,28 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="2">
         <v>45413</v>
       </c>
       <c r="R32" s="2">
-        <v>45419</v>
+        <v>45415</v>
       </c>
       <c r="S32" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="T32" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="U32" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="V32" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3659,25 +3950,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="D33" s="2">
         <v>45413</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G33" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H33" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3686,10 +3977,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="L33" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3698,7 +3989,7 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="P33" t="s">
         <v>37</v>
@@ -3707,19 +3998,19 @@
         <v>45413</v>
       </c>
       <c r="R33" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S33" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="T33" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="U33" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="V33" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3733,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D34" s="2">
         <v>45413</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G34" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3760,10 +4051,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="L34" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3772,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="P34" t="s">
         <v>37</v>
@@ -3781,19 +4072,19 @@
         <v>45413</v>
       </c>
       <c r="R34" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S34" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="T34" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="U34" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="V34" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3807,25 +4098,25 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D35" s="2">
         <v>45413</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="G35" s="3">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H35" s="3">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3834,10 +4125,10 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -3846,7 +4137,7 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="P35" t="s">
         <v>37</v>
@@ -3858,16 +4149,16 @@
         <v>45414</v>
       </c>
       <c r="S35" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T35" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="U35" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="V35" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3881,25 +4172,25 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="D36" s="2">
         <v>45413</v>
       </c>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="F36" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="G36" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H36" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3908,10 +4199,10 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="L36" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -3920,7 +4211,7 @@
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="P36" t="s">
         <v>37</v>
@@ -3929,19 +4220,19 @@
         <v>45413</v>
       </c>
       <c r="R36" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S36" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="T36" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="U36" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="V36" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -3955,37 +4246,37 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="D37" s="2">
         <v>45413</v>
       </c>
       <c r="E37" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="G37" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H37" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="L37" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -3994,7 +4285,7 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="P37" t="s">
         <v>37</v>
@@ -4003,19 +4294,19 @@
         <v>45413</v>
       </c>
       <c r="R37" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S37" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="T37" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="U37" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="V37" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -4029,25 +4320,25 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D38" s="2">
         <v>45413</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G38" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H38" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -4056,10 +4347,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="L38" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -4068,28 +4359,28 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="P38" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="Q38" s="2">
         <v>45413</v>
       </c>
       <c r="R38" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S38" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="T38" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="U38" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="V38" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -4103,25 +4394,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D39" s="2">
         <v>45413</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="G39" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H39" s="3">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -4130,10 +4421,10 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="L39" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -4142,7 +4433,7 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="P39" t="s">
         <v>37</v>
@@ -4151,19 +4442,19 @@
         <v>45413</v>
       </c>
       <c r="R39" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S39" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="T39" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="U39" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="V39" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
@@ -4177,25 +4468,25 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D40" s="2">
         <v>45413</v>
       </c>
       <c r="E40" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="G40" s="3">
         <v>6</v>
       </c>
       <c r="H40" s="3">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4204,10 +4495,10 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="M40" t="s">
         <v>9</v>
@@ -4216,7 +4507,7 @@
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="P40" t="s">
         <v>37</v>
@@ -4228,16 +4519,16 @@
         <v>45415</v>
       </c>
       <c r="S40" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="T40" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="U40" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="V40" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -4251,25 +4542,25 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D41" s="2">
         <v>45413</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="G41" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H41" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4278,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L41" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M41" t="s">
         <v>9</v>
@@ -4290,7 +4581,7 @@
         <v>10</v>
       </c>
       <c r="O41" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P41" t="s">
         <v>37</v>
@@ -4299,19 +4590,19 @@
         <v>45413</v>
       </c>
       <c r="R41" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S41" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="T41" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="U41" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="V41" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -4325,25 +4616,25 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D42" s="2">
         <v>45413</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="G42" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42" s="3">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4352,10 +4643,10 @@
         <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="L42" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="M42" t="s">
         <v>9</v>
@@ -4364,7 +4655,7 @@
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="P42" t="s">
         <v>37</v>
@@ -4373,19 +4664,19 @@
         <v>45413</v>
       </c>
       <c r="R42" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S42" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="T42" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="U42" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="V42" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -4399,25 +4690,25 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D43" s="2">
         <v>45413</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G43" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4426,10 +4717,10 @@
         <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L43" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="M43" t="s">
         <v>9</v>
@@ -4438,7 +4729,7 @@
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="P43" t="s">
         <v>37</v>
@@ -4447,19 +4738,19 @@
         <v>45413</v>
       </c>
       <c r="R43" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S43" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="T43" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="U43" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="V43" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="W43" t="s">
         <v>14</v>
@@ -4473,25 +4764,25 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D44" s="2">
         <v>45413</v>
       </c>
       <c r="E44" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="G44" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" s="3">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4500,10 +4791,10 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L44" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M44" t="s">
         <v>9</v>
@@ -4512,7 +4803,7 @@
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="P44" t="s">
         <v>37</v>
@@ -4521,19 +4812,19 @@
         <v>45413</v>
       </c>
       <c r="R44" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="S44" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="T44" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="U44" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="V44" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="W44" t="s">
         <v>14</v>
@@ -4547,25 +4838,25 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D45" s="2">
         <v>45413</v>
       </c>
       <c r="E45" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="G45" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H45" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
@@ -4574,10 +4865,10 @@
         <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="L45" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="M45" t="s">
         <v>9</v>
@@ -4586,7 +4877,7 @@
         <v>10</v>
       </c>
       <c r="O45" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="P45" t="s">
         <v>37</v>
@@ -4595,19 +4886,19 @@
         <v>45413</v>
       </c>
       <c r="R45" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="S45" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="T45" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="U45" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="V45" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="W45" t="s">
         <v>14</v>
@@ -4621,19 +4912,19 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D46" s="2">
         <v>45413</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G46" s="3">
         <v>10</v>
@@ -4648,10 +4939,10 @@
         <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="L46" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="M46" t="s">
         <v>9</v>
@@ -4660,7 +4951,7 @@
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="P46" t="s">
         <v>37</v>
@@ -4669,19 +4960,19 @@
         <v>45413</v>
       </c>
       <c r="R46" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="S46" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="T46" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="U46" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="V46" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="W46" t="s">
         <v>14</v>
@@ -4695,25 +4986,25 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D47" s="2">
         <v>45413</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="G47" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H47" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -4722,10 +5013,10 @@
         <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M47" t="s">
         <v>9</v>
@@ -4734,28 +5025,28 @@
         <v>10</v>
       </c>
       <c r="O47" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="Q47" s="2">
         <v>45413</v>
       </c>
       <c r="R47" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="S47" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="T47" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="U47" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="V47" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="W47" t="s">
         <v>14</v>
@@ -4769,25 +5060,25 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="D48" s="2">
         <v>45413</v>
       </c>
       <c r="E48" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="F48" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="G48" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H48" s="3">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -4796,10 +5087,10 @@
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="M48" t="s">
         <v>9</v>
@@ -4808,7 +5099,7 @@
         <v>10</v>
       </c>
       <c r="O48" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="P48" t="s">
         <v>37</v>
@@ -4817,19 +5108,19 @@
         <v>45413</v>
       </c>
       <c r="R48" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="S48" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="T48" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="U48" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="V48" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="W48" t="s">
         <v>14</v>
@@ -4843,25 +5134,25 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D49" s="2">
         <v>45413</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="F49" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="G49" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H49" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
@@ -4870,10 +5161,10 @@
         <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="L49" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="M49" t="s">
         <v>9</v>
@@ -4882,7 +5173,7 @@
         <v>10</v>
       </c>
       <c r="O49" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="P49" t="s">
         <v>37</v>
@@ -4891,19 +5182,19 @@
         <v>45413</v>
       </c>
       <c r="R49" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="S49" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="T49" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="U49" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="V49" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="W49" t="s">
         <v>14</v>
@@ -4917,25 +5208,25 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="D50" s="2">
         <v>45413</v>
       </c>
       <c r="E50" t="s">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="F50" t="s">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="G50" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H50" s="3">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -4944,10 +5235,10 @@
         <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="L50" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="M50" t="s">
         <v>9</v>
@@ -4956,7 +5247,7 @@
         <v>10</v>
       </c>
       <c r="O50" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="P50" t="s">
         <v>37</v>
@@ -4968,16 +5259,16 @@
         <v>45414</v>
       </c>
       <c r="S50" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T50" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="U50" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="V50" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="W50" t="s">
         <v>14</v>
@@ -4991,25 +5282,25 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C51" t="s">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c r="D51" s="2">
         <v>45413</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="G51" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H51" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
@@ -5018,10 +5309,10 @@
         <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="L51" t="s">
-        <v>259</v>
+        <v>114</v>
       </c>
       <c r="M51" t="s">
         <v>9</v>
@@ -5030,7 +5321,7 @@
         <v>10</v>
       </c>
       <c r="O51" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="P51" t="s">
         <v>37</v>
@@ -5042,16 +5333,16 @@
         <v>45414</v>
       </c>
       <c r="S51" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T51" t="s">
-        <v>261</v>
+        <v>116</v>
       </c>
       <c r="U51" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="V51" t="s">
-        <v>259</v>
+        <v>118</v>
       </c>
       <c r="W51" t="s">
         <v>14</v>
@@ -5065,25 +5356,25 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="D52" s="2">
         <v>45413</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="G52" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H52" s="3">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -5092,10 +5383,10 @@
         <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="L52" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="M52" t="s">
         <v>9</v>
@@ -5104,7 +5395,7 @@
         <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="P52" t="s">
         <v>37</v>
@@ -5113,19 +5404,19 @@
         <v>45413</v>
       </c>
       <c r="R52" s="2">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="S52" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="T52" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="U52" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="V52" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="W52" t="s">
         <v>14</v>
@@ -5139,25 +5430,25 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="D53" s="2">
         <v>45413</v>
       </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="F53" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="G53" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H53" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -5166,10 +5457,10 @@
         <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="L53" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="M53" t="s">
         <v>9</v>
@@ -5178,7 +5469,7 @@
         <v>10</v>
       </c>
       <c r="O53" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="P53" t="s">
         <v>37</v>
@@ -5187,19 +5478,19 @@
         <v>45413</v>
       </c>
       <c r="R53" s="2">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="S53" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="T53" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="U53" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="V53" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="W53" t="s">
         <v>14</v>
@@ -5213,25 +5504,25 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="D54" s="2">
         <v>45413</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="G54" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H54" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5240,10 +5531,10 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="L54" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="M54" t="s">
         <v>9</v>
@@ -5252,7 +5543,7 @@
         <v>10</v>
       </c>
       <c r="O54" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="P54" t="s">
         <v>37</v>
@@ -5261,19 +5552,19 @@
         <v>45413</v>
       </c>
       <c r="R54" s="2">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="S54" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="T54" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="U54" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="V54" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="W54" t="s">
         <v>14</v>
@@ -5287,25 +5578,25 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="D55" s="2">
         <v>45413</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="G55" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H55" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5314,10 +5605,10 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="L55" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="M55" t="s">
         <v>9</v>
@@ -5326,7 +5617,7 @@
         <v>10</v>
       </c>
       <c r="O55" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="P55" t="s">
         <v>37</v>
@@ -5335,19 +5626,19 @@
         <v>45413</v>
       </c>
       <c r="R55" s="2">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="S55" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="T55" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="U55" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="V55" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="W55" t="s">
         <v>14</v>
@@ -5361,25 +5652,25 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="D56" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="E56" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="G56" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H56" s="3">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I56" t="s">
         <v>5</v>
@@ -5388,10 +5679,10 @@
         <v>6</v>
       </c>
       <c r="K56" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="L56" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="M56" t="s">
         <v>9</v>
@@ -5400,28 +5691,28 @@
         <v>10</v>
       </c>
       <c r="O56" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="P56" t="s">
         <v>37</v>
       </c>
       <c r="Q56" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R56" s="2">
-        <v>45419</v>
+        <v>45415</v>
       </c>
       <c r="S56" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="T56" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="U56" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="V56" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="W56" t="s">
         <v>14</v>
@@ -5435,25 +5726,25 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C57" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D57" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="E57" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G57" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
@@ -5462,10 +5753,10 @@
         <v>6</v>
       </c>
       <c r="K57" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="L57" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="M57" t="s">
         <v>9</v>
@@ -5474,28 +5765,28 @@
         <v>10</v>
       </c>
       <c r="O57" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="P57" t="s">
         <v>37</v>
       </c>
       <c r="Q57" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R57" s="2">
-        <v>45419</v>
+        <v>45415</v>
       </c>
       <c r="S57" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="T57" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="U57" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="V57" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="W57" t="s">
         <v>14</v>
@@ -5509,25 +5800,25 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C58" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="D58" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="E58" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="G58" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H58" s="3">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
@@ -5536,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="L58" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="M58" t="s">
         <v>9</v>
@@ -5548,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="O58" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="P58" t="s">
         <v>37</v>
       </c>
       <c r="Q58" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R58" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S58" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T58" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="U58" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="V58" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="W58" t="s">
         <v>14</v>
@@ -5583,19 +5874,19 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="C59" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="D59" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="E59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F59" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
@@ -5610,10 +5901,10 @@
         <v>6</v>
       </c>
       <c r="K59" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="L59" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="M59" t="s">
         <v>9</v>
@@ -5622,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="O59" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="P59" t="s">
         <v>37</v>
       </c>
       <c r="Q59" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R59" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S59" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T59" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="U59" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="V59" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="W59" t="s">
         <v>14</v>
@@ -5657,25 +5948,25 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="D60" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="E60" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="F60" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="G60" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H60" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s">
         <v>5</v>
@@ -5684,10 +5975,10 @@
         <v>6</v>
       </c>
       <c r="K60" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="L60" t="s">
-        <v>149</v>
+        <v>248</v>
       </c>
       <c r="M60" t="s">
         <v>9</v>
@@ -5696,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="O60" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="P60" t="s">
         <v>37</v>
       </c>
       <c r="Q60" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R60" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S60" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T60" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="U60" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="V60" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="W60" t="s">
         <v>14</v>
@@ -5731,25 +6022,25 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C61" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D61" s="2">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="E61" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="F61" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="G61" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
@@ -5758,10 +6049,10 @@
         <v>6</v>
       </c>
       <c r="K61" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="L61" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="M61" t="s">
         <v>9</v>
@@ -5770,28 +6061,28 @@
         <v>10</v>
       </c>
       <c r="O61" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="P61" t="s">
         <v>37</v>
       </c>
       <c r="Q61" s="2">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="R61" s="2">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="S61" t="s">
-        <v>288</v>
+        <v>84</v>
       </c>
       <c r="T61" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="U61" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="V61" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="W61" t="s">
         <v>14</v>
@@ -5805,25 +6096,25 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C62" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D62" s="2">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="E62" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="F62" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="G62" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H62" s="3">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5832,10 +6123,10 @@
         <v>6</v>
       </c>
       <c r="K62" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="L62" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="M62" t="s">
         <v>9</v>
@@ -5844,28 +6135,28 @@
         <v>10</v>
       </c>
       <c r="O62" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="P62" t="s">
         <v>37</v>
       </c>
       <c r="Q62" s="2">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="R62" s="2">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="S62" t="s">
-        <v>288</v>
+        <v>84</v>
       </c>
       <c r="T62" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="U62" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="V62" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="W62" t="s">
         <v>14</v>
@@ -5879,25 +6170,25 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C63" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="D63" s="2">
-        <v>45426</v>
+        <v>45414</v>
       </c>
       <c r="E63" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="F63" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="G63" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H63" s="3">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
@@ -5906,10 +6197,10 @@
         <v>6</v>
       </c>
       <c r="K63" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="L63" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="M63" t="s">
         <v>9</v>
@@ -5918,28 +6209,28 @@
         <v>10</v>
       </c>
       <c r="O63" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="P63" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="Q63" s="2">
-        <v>45426</v>
+        <v>45414</v>
       </c>
       <c r="R63" s="2">
-        <v>45427</v>
+        <v>45415</v>
       </c>
       <c r="S63" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T63" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="U63" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="V63" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="W63" t="s">
         <v>14</v>
@@ -5953,25 +6244,25 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C64" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="D64" s="2">
-        <v>45426</v>
+        <v>45414</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
       <c r="G64" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
@@ -5980,10 +6271,10 @@
         <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="L64" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="M64" t="s">
         <v>9</v>
@@ -5992,28 +6283,28 @@
         <v>10</v>
       </c>
       <c r="O64" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="P64" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="Q64" s="2">
-        <v>45426</v>
+        <v>45414</v>
       </c>
       <c r="R64" s="2">
-        <v>45427</v>
+        <v>45415</v>
       </c>
       <c r="S64" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T64" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="U64" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="V64" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="W64" t="s">
         <v>14</v>
@@ -6027,25 +6318,25 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C65" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="D65" s="2">
-        <v>45506</v>
+        <v>45414</v>
       </c>
       <c r="E65" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="F65" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="G65" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H65" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
@@ -6054,10 +6345,10 @@
         <v>6</v>
       </c>
       <c r="K65" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="L65" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="M65" t="s">
         <v>9</v>
@@ -6066,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="O65" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="P65" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="Q65" s="2">
-        <v>45506</v>
+        <v>45414</v>
       </c>
       <c r="R65" s="2">
-        <v>45507</v>
+        <v>45415</v>
       </c>
       <c r="S65" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="T65" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="U65" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="V65" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="W65" t="s">
         <v>14</v>
@@ -6101,25 +6392,25 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="C66" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="D66" s="2">
-        <v>45506</v>
+        <v>45414</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>314</v>
+        <v>4</v>
       </c>
       <c r="G66" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H66" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
@@ -6128,10 +6419,10 @@
         <v>6</v>
       </c>
       <c r="K66" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="L66" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="M66" t="s">
         <v>9</v>
@@ -6140,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="O66" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="P66" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="Q66" s="2">
-        <v>45506</v>
+        <v>45414</v>
       </c>
       <c r="R66" s="2">
-        <v>45507</v>
+        <v>45415</v>
       </c>
       <c r="S66" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="T66" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="U66" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="V66" t="s">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="W66" t="s">
         <v>14</v>
@@ -6175,25 +6466,25 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C67" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="D67" s="2">
-        <v>45506</v>
+        <v>45414</v>
       </c>
       <c r="E67" t="s">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="F67" t="s">
-        <v>316</v>
+        <v>135</v>
       </c>
       <c r="G67" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H67" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I67" t="s">
         <v>5</v>
@@ -6202,10 +6493,10 @@
         <v>6</v>
       </c>
       <c r="K67" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="L67" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="M67" t="s">
         <v>9</v>
@@ -6214,28 +6505,28 @@
         <v>10</v>
       </c>
       <c r="O67" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="P67" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="Q67" s="2">
-        <v>45506</v>
+        <v>45414</v>
       </c>
       <c r="R67" s="2">
-        <v>45507</v>
+        <v>45418</v>
       </c>
       <c r="S67" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="T67" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="U67" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="V67" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="W67" t="s">
         <v>14</v>
@@ -6246,70 +6537,70 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="C68" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="D68" s="2">
-        <v>45308</v>
+        <v>45414</v>
       </c>
       <c r="E68" t="s">
-        <v>320</v>
+        <v>69</v>
       </c>
       <c r="F68" t="s">
-        <v>321</v>
+        <v>70</v>
       </c>
       <c r="G68" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H68" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I68" t="s">
         <v>5</v>
       </c>
       <c r="J68" t="s">
-        <v>322</v>
+        <v>6</v>
       </c>
       <c r="K68" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="L68" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="M68" t="s">
-        <v>325</v>
+        <v>9</v>
       </c>
       <c r="N68" t="s">
         <v>10</v>
       </c>
       <c r="O68" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="P68" t="s">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="Q68" s="2">
-        <v>45308</v>
+        <v>45414</v>
       </c>
       <c r="R68" s="2">
-        <v>45309</v>
+        <v>45415</v>
       </c>
       <c r="S68" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T68" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="U68" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="V68" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="W68" t="s">
         <v>14</v>
@@ -6320,70 +6611,70 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="C69" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="D69" s="2">
-        <v>45308</v>
+        <v>45414</v>
       </c>
       <c r="E69" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="F69" t="s">
-        <v>321</v>
+        <v>62</v>
       </c>
       <c r="G69" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H69" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I69" t="s">
         <v>5</v>
       </c>
       <c r="J69" t="s">
-        <v>322</v>
+        <v>6</v>
       </c>
       <c r="K69" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="L69" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="M69" t="s">
-        <v>325</v>
+        <v>9</v>
       </c>
       <c r="N69" t="s">
         <v>10</v>
       </c>
       <c r="O69" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="P69" t="s">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="Q69" s="2">
-        <v>45308</v>
+        <v>45414</v>
       </c>
       <c r="R69" s="2">
-        <v>45309</v>
+        <v>45415</v>
       </c>
       <c r="S69" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="T69" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="U69" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="V69" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="W69" t="s">
         <v>14</v>
@@ -6394,70 +6685,70 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="C70" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="D70" s="2">
-        <v>45308</v>
+        <v>45414</v>
       </c>
       <c r="E70" t="s">
-        <v>320</v>
+        <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>321</v>
+        <v>70</v>
       </c>
       <c r="G70" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="s">
         <v>5</v>
       </c>
       <c r="J70" t="s">
-        <v>322</v>
+        <v>6</v>
       </c>
       <c r="K70" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="L70" t="s">
-        <v>336</v>
+        <v>8</v>
       </c>
       <c r="M70" t="s">
-        <v>325</v>
+        <v>9</v>
       </c>
       <c r="N70" t="s">
         <v>10</v>
       </c>
       <c r="O70" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="P70" t="s">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="Q70" s="2">
-        <v>45308</v>
+        <v>45414</v>
       </c>
       <c r="R70" s="2">
-        <v>45309</v>
+        <v>45418</v>
       </c>
       <c r="S70" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="T70" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="U70" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="V70" t="s">
-        <v>329</v>
+        <v>8</v>
       </c>
       <c r="W70" t="s">
         <v>14</v>
@@ -6468,70 +6759,70 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" t="s">
+        <v>314</v>
+      </c>
+      <c r="L71" t="s">
+        <v>202</v>
+      </c>
+      <c r="M71" t="s">
+        <v>9</v>
+      </c>
+      <c r="N71" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" t="s">
+        <v>315</v>
+      </c>
+      <c r="P71" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R71" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S71" t="s">
+        <v>13</v>
+      </c>
+      <c r="T71" t="s">
+        <v>316</v>
+      </c>
+      <c r="U71" t="s">
         <v>317</v>
       </c>
-      <c r="B71" t="s">
-        <v>338</v>
-      </c>
-      <c r="C71" t="s">
-        <v>339</v>
-      </c>
-      <c r="D71" s="2">
-        <v>45413</v>
-      </c>
-      <c r="E71" t="s">
-        <v>340</v>
-      </c>
-      <c r="F71" t="s">
-        <v>341</v>
-      </c>
-      <c r="G71" s="3">
-        <v>4</v>
-      </c>
-      <c r="H71" s="3">
-        <v>4</v>
-      </c>
-      <c r="I71" t="s">
-        <v>5</v>
-      </c>
-      <c r="J71" t="s">
-        <v>322</v>
-      </c>
-      <c r="K71" t="s">
-        <v>342</v>
-      </c>
-      <c r="L71" t="s">
-        <v>343</v>
-      </c>
-      <c r="M71" t="s">
-        <v>9</v>
-      </c>
-      <c r="N71" t="s">
-        <v>10</v>
-      </c>
-      <c r="O71" t="s">
-        <v>344</v>
-      </c>
-      <c r="P71" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>45413</v>
-      </c>
-      <c r="R71" s="2">
-        <v>45413</v>
-      </c>
-      <c r="S71" t="s">
-        <v>22</v>
-      </c>
-      <c r="T71" t="s">
-        <v>342</v>
-      </c>
-      <c r="U71" t="s">
-        <v>339</v>
-      </c>
       <c r="V71" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="W71" t="s">
         <v>14</v>
@@ -6542,70 +6833,70 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C72" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D72" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="E72" t="s">
-        <v>345</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>346</v>
+        <v>40</v>
       </c>
       <c r="G72" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H72" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I72" t="s">
         <v>5</v>
       </c>
       <c r="J72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" t="s">
+        <v>320</v>
+      </c>
+      <c r="L72" t="s">
+        <v>321</v>
+      </c>
+      <c r="M72" t="s">
+        <v>9</v>
+      </c>
+      <c r="N72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" t="s">
         <v>322</v>
       </c>
-      <c r="K72" t="s">
-        <v>342</v>
-      </c>
-      <c r="L72" t="s">
-        <v>343</v>
-      </c>
-      <c r="M72" t="s">
-        <v>9</v>
-      </c>
-      <c r="N72" t="s">
-        <v>10</v>
-      </c>
-      <c r="O72" t="s">
-        <v>344</v>
-      </c>
       <c r="P72" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="Q72" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R72" s="2">
-        <v>45413</v>
+        <v>45418</v>
       </c>
       <c r="S72" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="T72" t="s">
-        <v>342</v>
+        <v>193</v>
       </c>
       <c r="U72" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
       <c r="V72" t="s">
-        <v>343</v>
+        <v>194</v>
       </c>
       <c r="W72" t="s">
         <v>14</v>
@@ -6616,70 +6907,70 @@
     </row>
     <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C73" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D73" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="E73" t="s">
-        <v>347</v>
+        <v>69</v>
       </c>
       <c r="F73" t="s">
-        <v>348</v>
+        <v>70</v>
       </c>
       <c r="G73" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H73" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I73" t="s">
         <v>5</v>
       </c>
       <c r="J73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" t="s">
+        <v>320</v>
+      </c>
+      <c r="L73" t="s">
+        <v>321</v>
+      </c>
+      <c r="M73" t="s">
+        <v>9</v>
+      </c>
+      <c r="N73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O73" t="s">
         <v>322</v>
       </c>
-      <c r="K73" t="s">
-        <v>342</v>
-      </c>
-      <c r="L73" t="s">
-        <v>343</v>
-      </c>
-      <c r="M73" t="s">
-        <v>9</v>
-      </c>
-      <c r="N73" t="s">
-        <v>10</v>
-      </c>
-      <c r="O73" t="s">
-        <v>344</v>
-      </c>
       <c r="P73" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="Q73" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R73" s="2">
-        <v>45413</v>
+        <v>45418</v>
       </c>
       <c r="S73" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="T73" t="s">
-        <v>342</v>
+        <v>193</v>
       </c>
       <c r="U73" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
       <c r="V73" t="s">
-        <v>343</v>
+        <v>194</v>
       </c>
       <c r="W73" t="s">
         <v>14</v>
@@ -6690,40 +6981,40 @@
     </row>
     <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C74" t="s">
-        <v>339</v>
+        <v>167</v>
       </c>
       <c r="D74" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="E74" t="s">
-        <v>349</v>
+        <v>134</v>
       </c>
       <c r="F74" t="s">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="G74" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H74" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I74" t="s">
         <v>5</v>
       </c>
       <c r="J74" t="s">
-        <v>322</v>
+        <v>6</v>
       </c>
       <c r="K74" t="s">
-        <v>342</v>
+        <v>170</v>
       </c>
       <c r="L74" t="s">
-        <v>343</v>
+        <v>171</v>
       </c>
       <c r="M74" t="s">
         <v>9</v>
@@ -6732,28 +7023,28 @@
         <v>10</v>
       </c>
       <c r="O74" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="P74" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="Q74" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R74" s="2">
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="S74" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="T74" t="s">
-        <v>342</v>
+        <v>173</v>
       </c>
       <c r="U74" t="s">
-        <v>339</v>
+        <v>174</v>
       </c>
       <c r="V74" t="s">
-        <v>343</v>
+        <v>171</v>
       </c>
       <c r="W74" t="s">
         <v>14</v>
@@ -6764,75 +7055,2369 @@
     </row>
     <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="B75" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" t="s">
+        <v>326</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="3">
+        <v>20</v>
+      </c>
+      <c r="H75" s="3">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" t="s">
+        <v>327</v>
+      </c>
+      <c r="L75" t="s">
+        <v>328</v>
+      </c>
+      <c r="M75" t="s">
+        <v>9</v>
+      </c>
+      <c r="N75" t="s">
+        <v>10</v>
+      </c>
+      <c r="O75" t="s">
+        <v>329</v>
+      </c>
+      <c r="P75" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R75" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S75" t="s">
+        <v>84</v>
+      </c>
+      <c r="T75" t="s">
+        <v>327</v>
+      </c>
+      <c r="U75" t="s">
+        <v>326</v>
+      </c>
+      <c r="V75" t="s">
+        <v>328</v>
+      </c>
+      <c r="W75" t="s">
+        <v>14</v>
+      </c>
+      <c r="X75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>325</v>
+      </c>
+      <c r="C76" t="s">
+        <v>326</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" t="s">
+        <v>70</v>
+      </c>
+      <c r="G76" s="3">
+        <v>10</v>
+      </c>
+      <c r="H76" s="3">
+        <v>10</v>
+      </c>
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" t="s">
+        <v>327</v>
+      </c>
+      <c r="L76" t="s">
+        <v>328</v>
+      </c>
+      <c r="M76" t="s">
+        <v>9</v>
+      </c>
+      <c r="N76" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" t="s">
+        <v>329</v>
+      </c>
+      <c r="P76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R76" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S76" t="s">
+        <v>84</v>
+      </c>
+      <c r="T76" t="s">
+        <v>327</v>
+      </c>
+      <c r="U76" t="s">
+        <v>326</v>
+      </c>
+      <c r="V76" t="s">
+        <v>328</v>
+      </c>
+      <c r="W76" t="s">
+        <v>14</v>
+      </c>
+      <c r="X76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>330</v>
+      </c>
+      <c r="C77" t="s">
+        <v>331</v>
+      </c>
+      <c r="D77" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="3">
+        <v>34</v>
+      </c>
+      <c r="H77" s="3">
+        <v>34</v>
+      </c>
+      <c r="I77" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" t="s">
+        <v>332</v>
+      </c>
+      <c r="L77" t="s">
+        <v>333</v>
+      </c>
+      <c r="M77" t="s">
+        <v>9</v>
+      </c>
+      <c r="N77" t="s">
+        <v>10</v>
+      </c>
+      <c r="O77" t="s">
+        <v>334</v>
+      </c>
+      <c r="P77" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R77" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S77" t="s">
+        <v>13</v>
+      </c>
+      <c r="T77" t="s">
+        <v>101</v>
+      </c>
+      <c r="U77" t="s">
+        <v>102</v>
+      </c>
+      <c r="V77" t="s">
+        <v>99</v>
+      </c>
+      <c r="W77" t="s">
+        <v>14</v>
+      </c>
+      <c r="X77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>335</v>
+      </c>
+      <c r="C78" t="s">
+        <v>336</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E78" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" t="s">
+        <v>169</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" t="s">
+        <v>337</v>
+      </c>
+      <c r="L78" t="s">
+        <v>338</v>
+      </c>
+      <c r="M78" t="s">
+        <v>9</v>
+      </c>
+      <c r="N78" t="s">
+        <v>10</v>
+      </c>
+      <c r="O78" t="s">
+        <v>339</v>
+      </c>
+      <c r="P78" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R78" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S78" t="s">
+        <v>84</v>
+      </c>
+      <c r="T78" t="s">
+        <v>337</v>
+      </c>
+      <c r="U78" t="s">
+        <v>336</v>
+      </c>
+      <c r="V78" t="s">
+        <v>338</v>
+      </c>
+      <c r="W78" t="s">
+        <v>14</v>
+      </c>
+      <c r="X78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>340</v>
+      </c>
+      <c r="C79" t="s">
+        <v>341</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E79" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" s="3">
+        <v>6</v>
+      </c>
+      <c r="H79" s="3">
+        <v>6</v>
+      </c>
+      <c r="I79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" t="s">
+        <v>6</v>
+      </c>
+      <c r="K79" t="s">
+        <v>342</v>
+      </c>
+      <c r="L79" t="s">
+        <v>343</v>
+      </c>
+      <c r="M79" t="s">
+        <v>9</v>
+      </c>
+      <c r="N79" t="s">
+        <v>10</v>
+      </c>
+      <c r="O79" t="s">
+        <v>344</v>
+      </c>
+      <c r="P79" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R79" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S79" t="s">
+        <v>13</v>
+      </c>
+      <c r="T79" t="s">
+        <v>345</v>
+      </c>
+      <c r="U79" t="s">
+        <v>341</v>
+      </c>
+      <c r="V79" t="s">
+        <v>343</v>
+      </c>
+      <c r="W79" t="s">
+        <v>14</v>
+      </c>
+      <c r="X79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>340</v>
+      </c>
+      <c r="C80" t="s">
+        <v>341</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E80" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" t="s">
+        <v>135</v>
+      </c>
+      <c r="G80" s="3">
+        <v>10</v>
+      </c>
+      <c r="H80" s="3">
+        <v>10</v>
+      </c>
+      <c r="I80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" t="s">
+        <v>342</v>
+      </c>
+      <c r="L80" t="s">
+        <v>343</v>
+      </c>
+      <c r="M80" t="s">
+        <v>9</v>
+      </c>
+      <c r="N80" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" t="s">
+        <v>344</v>
+      </c>
+      <c r="P80" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R80" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S80" t="s">
+        <v>13</v>
+      </c>
+      <c r="T80" t="s">
+        <v>345</v>
+      </c>
+      <c r="U80" t="s">
+        <v>341</v>
+      </c>
+      <c r="V80" t="s">
+        <v>343</v>
+      </c>
+      <c r="W80" t="s">
+        <v>14</v>
+      </c>
+      <c r="X80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>346</v>
+      </c>
+      <c r="C81" t="s">
+        <v>257</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E81" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" t="s">
+        <v>62</v>
+      </c>
+      <c r="G81" s="3">
+        <v>12</v>
+      </c>
+      <c r="H81" s="3">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" t="s">
+        <v>6</v>
+      </c>
+      <c r="K81" t="s">
+        <v>260</v>
+      </c>
+      <c r="L81" t="s">
+        <v>261</v>
+      </c>
+      <c r="M81" t="s">
+        <v>9</v>
+      </c>
+      <c r="N81" t="s">
+        <v>10</v>
+      </c>
+      <c r="O81" t="s">
+        <v>347</v>
+      </c>
+      <c r="P81" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R81" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S81" t="s">
+        <v>84</v>
+      </c>
+      <c r="T81" t="s">
+        <v>263</v>
+      </c>
+      <c r="U81" t="s">
+        <v>264</v>
+      </c>
+      <c r="V81" t="s">
+        <v>265</v>
+      </c>
+      <c r="W81" t="s">
+        <v>14</v>
+      </c>
+      <c r="X81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>346</v>
+      </c>
+      <c r="C82" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E82" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="3">
+        <v>20</v>
+      </c>
+      <c r="H82" s="3">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" t="s">
+        <v>6</v>
+      </c>
+      <c r="K82" t="s">
+        <v>260</v>
+      </c>
+      <c r="L82" t="s">
+        <v>261</v>
+      </c>
+      <c r="M82" t="s">
+        <v>9</v>
+      </c>
+      <c r="N82" t="s">
+        <v>10</v>
+      </c>
+      <c r="O82" t="s">
+        <v>347</v>
+      </c>
+      <c r="P82" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R82" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S82" t="s">
+        <v>84</v>
+      </c>
+      <c r="T82" t="s">
+        <v>263</v>
+      </c>
+      <c r="U82" t="s">
+        <v>264</v>
+      </c>
+      <c r="V82" t="s">
+        <v>265</v>
+      </c>
+      <c r="W82" t="s">
+        <v>14</v>
+      </c>
+      <c r="X82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>346</v>
+      </c>
+      <c r="C83" t="s">
+        <v>257</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E83" t="s">
+        <v>348</v>
+      </c>
+      <c r="F83" t="s">
+        <v>349</v>
+      </c>
+      <c r="G83" s="3">
+        <v>25</v>
+      </c>
+      <c r="H83" s="3">
+        <v>25</v>
+      </c>
+      <c r="I83" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" t="s">
+        <v>6</v>
+      </c>
+      <c r="K83" t="s">
+        <v>260</v>
+      </c>
+      <c r="L83" t="s">
+        <v>261</v>
+      </c>
+      <c r="M83" t="s">
+        <v>9</v>
+      </c>
+      <c r="N83" t="s">
+        <v>10</v>
+      </c>
+      <c r="O83" t="s">
+        <v>347</v>
+      </c>
+      <c r="P83" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R83" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S83" t="s">
+        <v>84</v>
+      </c>
+      <c r="T83" t="s">
+        <v>263</v>
+      </c>
+      <c r="U83" t="s">
+        <v>264</v>
+      </c>
+      <c r="V83" t="s">
+        <v>265</v>
+      </c>
+      <c r="W83" t="s">
+        <v>14</v>
+      </c>
+      <c r="X83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>350</v>
+      </c>
+      <c r="C84" t="s">
         <v>351</v>
       </c>
-      <c r="C75" t="s">
-        <v>339</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="D84" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E84" t="s">
+        <v>272</v>
+      </c>
+      <c r="F84" t="s">
+        <v>273</v>
+      </c>
+      <c r="G84" s="3">
+        <v>4</v>
+      </c>
+      <c r="H84" s="3">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84" t="s">
+        <v>352</v>
+      </c>
+      <c r="L84" t="s">
+        <v>353</v>
+      </c>
+      <c r="M84" t="s">
+        <v>9</v>
+      </c>
+      <c r="N84" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" t="s">
+        <v>354</v>
+      </c>
+      <c r="P84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R84" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S84" t="s">
+        <v>13</v>
+      </c>
+      <c r="T84" t="s">
+        <v>352</v>
+      </c>
+      <c r="U84" t="s">
+        <v>351</v>
+      </c>
+      <c r="V84" t="s">
+        <v>353</v>
+      </c>
+      <c r="W84" t="s">
+        <v>14</v>
+      </c>
+      <c r="X84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>355</v>
+      </c>
+      <c r="C85" t="s">
+        <v>356</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E85" t="s">
+        <v>274</v>
+      </c>
+      <c r="F85" t="s">
+        <v>275</v>
+      </c>
+      <c r="G85" s="3">
+        <v>8</v>
+      </c>
+      <c r="H85" s="3">
+        <v>32</v>
+      </c>
+      <c r="I85" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85" t="s">
+        <v>357</v>
+      </c>
+      <c r="L85" t="s">
+        <v>358</v>
+      </c>
+      <c r="M85" t="s">
+        <v>9</v>
+      </c>
+      <c r="N85" t="s">
+        <v>10</v>
+      </c>
+      <c r="O85" t="s">
+        <v>359</v>
+      </c>
+      <c r="P85" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R85" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S85" t="s">
+        <v>84</v>
+      </c>
+      <c r="T85" t="s">
+        <v>360</v>
+      </c>
+      <c r="U85" t="s">
+        <v>361</v>
+      </c>
+      <c r="V85" t="s">
+        <v>358</v>
+      </c>
+      <c r="W85" t="s">
+        <v>14</v>
+      </c>
+      <c r="X85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>362</v>
+      </c>
+      <c r="C86" t="s">
+        <v>363</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E86" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" t="s">
+        <v>70</v>
+      </c>
+      <c r="G86" s="3">
+        <v>10</v>
+      </c>
+      <c r="H86" s="3">
+        <v>10</v>
+      </c>
+      <c r="I86" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K86" t="s">
+        <v>364</v>
+      </c>
+      <c r="L86" t="s">
+        <v>365</v>
+      </c>
+      <c r="M86" t="s">
+        <v>9</v>
+      </c>
+      <c r="N86" t="s">
+        <v>10</v>
+      </c>
+      <c r="O86" t="s">
+        <v>366</v>
+      </c>
+      <c r="P86" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>45420</v>
+      </c>
+      <c r="R86" s="2">
+        <v>45421</v>
+      </c>
+      <c r="S86" t="s">
+        <v>367</v>
+      </c>
+      <c r="T86" t="s">
+        <v>368</v>
+      </c>
+      <c r="U86" t="s">
+        <v>369</v>
+      </c>
+      <c r="V86" t="s">
+        <v>370</v>
+      </c>
+      <c r="W86" t="s">
+        <v>14</v>
+      </c>
+      <c r="X86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>362</v>
+      </c>
+      <c r="C87" t="s">
+        <v>363</v>
+      </c>
+      <c r="D87" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" s="3">
+        <v>10</v>
+      </c>
+      <c r="H87" s="3">
+        <v>10</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" t="s">
+        <v>6</v>
+      </c>
+      <c r="K87" t="s">
+        <v>364</v>
+      </c>
+      <c r="L87" t="s">
+        <v>365</v>
+      </c>
+      <c r="M87" t="s">
+        <v>9</v>
+      </c>
+      <c r="N87" t="s">
+        <v>10</v>
+      </c>
+      <c r="O87" t="s">
+        <v>366</v>
+      </c>
+      <c r="P87" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>45420</v>
+      </c>
+      <c r="R87" s="2">
+        <v>45421</v>
+      </c>
+      <c r="S87" t="s">
+        <v>367</v>
+      </c>
+      <c r="T87" t="s">
+        <v>368</v>
+      </c>
+      <c r="U87" t="s">
+        <v>369</v>
+      </c>
+      <c r="V87" t="s">
+        <v>370</v>
+      </c>
+      <c r="W87" t="s">
+        <v>14</v>
+      </c>
+      <c r="X87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>362</v>
+      </c>
+      <c r="C88" t="s">
+        <v>363</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E88" t="s">
+        <v>134</v>
+      </c>
+      <c r="F88" t="s">
+        <v>135</v>
+      </c>
+      <c r="G88" s="3">
+        <v>10</v>
+      </c>
+      <c r="H88" s="3">
+        <v>10</v>
+      </c>
+      <c r="I88" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" t="s">
+        <v>6</v>
+      </c>
+      <c r="K88" t="s">
+        <v>364</v>
+      </c>
+      <c r="L88" t="s">
+        <v>365</v>
+      </c>
+      <c r="M88" t="s">
+        <v>9</v>
+      </c>
+      <c r="N88" t="s">
+        <v>10</v>
+      </c>
+      <c r="O88" t="s">
+        <v>366</v>
+      </c>
+      <c r="P88" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>45420</v>
+      </c>
+      <c r="R88" s="2">
+        <v>45421</v>
+      </c>
+      <c r="S88" t="s">
+        <v>367</v>
+      </c>
+      <c r="T88" t="s">
+        <v>368</v>
+      </c>
+      <c r="U88" t="s">
+        <v>369</v>
+      </c>
+      <c r="V88" t="s">
+        <v>370</v>
+      </c>
+      <c r="W88" t="s">
+        <v>14</v>
+      </c>
+      <c r="X88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>371</v>
+      </c>
+      <c r="C89" t="s">
+        <v>372</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E89" t="s">
+        <v>373</v>
+      </c>
+      <c r="F89" t="s">
+        <v>374</v>
+      </c>
+      <c r="G89" s="3">
+        <v>15</v>
+      </c>
+      <c r="H89" s="3">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+      <c r="K89" t="s">
+        <v>375</v>
+      </c>
+      <c r="L89" t="s">
+        <v>376</v>
+      </c>
+      <c r="M89" t="s">
+        <v>9</v>
+      </c>
+      <c r="N89" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" t="s">
+        <v>377</v>
+      </c>
+      <c r="P89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>45420</v>
+      </c>
+      <c r="R89" s="2">
+        <v>45421</v>
+      </c>
+      <c r="S89" t="s">
+        <v>367</v>
+      </c>
+      <c r="T89" t="s">
+        <v>378</v>
+      </c>
+      <c r="U89" t="s">
+        <v>379</v>
+      </c>
+      <c r="V89" t="s">
+        <v>380</v>
+      </c>
+      <c r="W89" t="s">
+        <v>14</v>
+      </c>
+      <c r="X89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>381</v>
+      </c>
+      <c r="C90" t="s">
+        <v>382</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E90" t="s">
+        <v>274</v>
+      </c>
+      <c r="F90" t="s">
+        <v>275</v>
+      </c>
+      <c r="G90" s="3">
+        <v>8</v>
+      </c>
+      <c r="H90" s="3">
+        <v>32</v>
+      </c>
+      <c r="I90" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" t="s">
+        <v>6</v>
+      </c>
+      <c r="K90" t="s">
+        <v>383</v>
+      </c>
+      <c r="L90" t="s">
+        <v>384</v>
+      </c>
+      <c r="M90" t="s">
+        <v>9</v>
+      </c>
+      <c r="N90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O90" t="s">
+        <v>385</v>
+      </c>
+      <c r="P90" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>45420</v>
+      </c>
+      <c r="R90" s="2">
+        <v>45421</v>
+      </c>
+      <c r="S90" t="s">
+        <v>367</v>
+      </c>
+      <c r="T90" t="s">
+        <v>378</v>
+      </c>
+      <c r="U90" t="s">
+        <v>379</v>
+      </c>
+      <c r="V90" t="s">
+        <v>380</v>
+      </c>
+      <c r="W90" t="s">
+        <v>14</v>
+      </c>
+      <c r="X90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>381</v>
+      </c>
+      <c r="C91" t="s">
+        <v>382</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E91" t="s">
+        <v>266</v>
+      </c>
+      <c r="F91" t="s">
+        <v>267</v>
+      </c>
+      <c r="G91" s="3">
+        <v>6</v>
+      </c>
+      <c r="H91" s="3">
+        <v>300</v>
+      </c>
+      <c r="I91" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" t="s">
+        <v>6</v>
+      </c>
+      <c r="K91" t="s">
+        <v>383</v>
+      </c>
+      <c r="L91" t="s">
+        <v>384</v>
+      </c>
+      <c r="M91" t="s">
+        <v>9</v>
+      </c>
+      <c r="N91" t="s">
+        <v>10</v>
+      </c>
+      <c r="O91" t="s">
+        <v>385</v>
+      </c>
+      <c r="P91" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>45420</v>
+      </c>
+      <c r="R91" s="2">
+        <v>45421</v>
+      </c>
+      <c r="S91" t="s">
+        <v>367</v>
+      </c>
+      <c r="T91" t="s">
+        <v>378</v>
+      </c>
+      <c r="U91" t="s">
+        <v>379</v>
+      </c>
+      <c r="V91" t="s">
+        <v>380</v>
+      </c>
+      <c r="W91" t="s">
+        <v>14</v>
+      </c>
+      <c r="X91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>386</v>
+      </c>
+      <c r="C92" t="s">
+        <v>363</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E92" t="s">
+        <v>387</v>
+      </c>
+      <c r="F92" t="s">
+        <v>388</v>
+      </c>
+      <c r="G92" s="3">
+        <v>3</v>
+      </c>
+      <c r="H92" s="3">
+        <v>150</v>
+      </c>
+      <c r="I92" t="s">
+        <v>5</v>
+      </c>
+      <c r="J92" t="s">
+        <v>6</v>
+      </c>
+      <c r="K92" t="s">
+        <v>364</v>
+      </c>
+      <c r="L92" t="s">
+        <v>365</v>
+      </c>
+      <c r="M92" t="s">
+        <v>9</v>
+      </c>
+      <c r="N92" t="s">
+        <v>10</v>
+      </c>
+      <c r="O92" t="s">
+        <v>389</v>
+      </c>
+      <c r="P92" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>45420</v>
+      </c>
+      <c r="R92" s="2">
+        <v>45421</v>
+      </c>
+      <c r="S92" t="s">
+        <v>367</v>
+      </c>
+      <c r="T92" t="s">
+        <v>368</v>
+      </c>
+      <c r="U92" t="s">
+        <v>369</v>
+      </c>
+      <c r="V92" t="s">
+        <v>370</v>
+      </c>
+      <c r="W92" t="s">
+        <v>14</v>
+      </c>
+      <c r="X92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>386</v>
+      </c>
+      <c r="C93" t="s">
+        <v>363</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E93" t="s">
+        <v>269</v>
+      </c>
+      <c r="F93" t="s">
+        <v>270</v>
+      </c>
+      <c r="G93" s="3">
+        <v>2</v>
+      </c>
+      <c r="H93" s="3">
+        <v>100</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93" t="s">
+        <v>6</v>
+      </c>
+      <c r="K93" t="s">
+        <v>364</v>
+      </c>
+      <c r="L93" t="s">
+        <v>365</v>
+      </c>
+      <c r="M93" t="s">
+        <v>9</v>
+      </c>
+      <c r="N93" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93" t="s">
+        <v>389</v>
+      </c>
+      <c r="P93" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>45420</v>
+      </c>
+      <c r="R93" s="2">
+        <v>45421</v>
+      </c>
+      <c r="S93" t="s">
+        <v>367</v>
+      </c>
+      <c r="T93" t="s">
+        <v>368</v>
+      </c>
+      <c r="U93" t="s">
+        <v>369</v>
+      </c>
+      <c r="V93" t="s">
+        <v>370</v>
+      </c>
+      <c r="W93" t="s">
+        <v>14</v>
+      </c>
+      <c r="X93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>390</v>
+      </c>
+      <c r="C94" t="s">
+        <v>391</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45506</v>
+      </c>
+      <c r="E94" t="s">
+        <v>392</v>
+      </c>
+      <c r="F94" t="s">
+        <v>393</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" t="s">
+        <v>6</v>
+      </c>
+      <c r="K94" t="s">
+        <v>394</v>
+      </c>
+      <c r="L94" t="s">
+        <v>395</v>
+      </c>
+      <c r="M94" t="s">
+        <v>9</v>
+      </c>
+      <c r="N94" t="s">
+        <v>10</v>
+      </c>
+      <c r="O94" t="s">
+        <v>396</v>
+      </c>
+      <c r="P94" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>45506</v>
+      </c>
+      <c r="R94" s="2">
+        <v>45507</v>
+      </c>
+      <c r="S94" t="s">
+        <v>22</v>
+      </c>
+      <c r="T94" t="s">
+        <v>398</v>
+      </c>
+      <c r="U94" t="s">
+        <v>391</v>
+      </c>
+      <c r="V94" t="s">
+        <v>399</v>
+      </c>
+      <c r="W94" t="s">
+        <v>14</v>
+      </c>
+      <c r="X94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>390</v>
+      </c>
+      <c r="C95" t="s">
+        <v>391</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45506</v>
+      </c>
+      <c r="E95" t="s">
+        <v>400</v>
+      </c>
+      <c r="F95" t="s">
+        <v>401</v>
+      </c>
+      <c r="G95" s="3">
+        <v>2</v>
+      </c>
+      <c r="H95" s="3">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95" t="s">
+        <v>6</v>
+      </c>
+      <c r="K95" t="s">
+        <v>394</v>
+      </c>
+      <c r="L95" t="s">
+        <v>395</v>
+      </c>
+      <c r="M95" t="s">
+        <v>9</v>
+      </c>
+      <c r="N95" t="s">
+        <v>10</v>
+      </c>
+      <c r="O95" t="s">
+        <v>396</v>
+      </c>
+      <c r="P95" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>45506</v>
+      </c>
+      <c r="R95" s="2">
+        <v>45507</v>
+      </c>
+      <c r="S95" t="s">
+        <v>22</v>
+      </c>
+      <c r="T95" t="s">
+        <v>398</v>
+      </c>
+      <c r="U95" t="s">
+        <v>391</v>
+      </c>
+      <c r="V95" t="s">
+        <v>399</v>
+      </c>
+      <c r="W95" t="s">
+        <v>14</v>
+      </c>
+      <c r="X95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>390</v>
+      </c>
+      <c r="C96" t="s">
+        <v>391</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45506</v>
+      </c>
+      <c r="E96" t="s">
+        <v>402</v>
+      </c>
+      <c r="F96" t="s">
+        <v>403</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+      <c r="H96" s="3">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>5</v>
+      </c>
+      <c r="J96" t="s">
+        <v>6</v>
+      </c>
+      <c r="K96" t="s">
+        <v>394</v>
+      </c>
+      <c r="L96" t="s">
+        <v>395</v>
+      </c>
+      <c r="M96" t="s">
+        <v>9</v>
+      </c>
+      <c r="N96" t="s">
+        <v>10</v>
+      </c>
+      <c r="O96" t="s">
+        <v>396</v>
+      </c>
+      <c r="P96" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>45506</v>
+      </c>
+      <c r="R96" s="2">
+        <v>45507</v>
+      </c>
+      <c r="S96" t="s">
+        <v>22</v>
+      </c>
+      <c r="T96" t="s">
+        <v>398</v>
+      </c>
+      <c r="U96" t="s">
+        <v>391</v>
+      </c>
+      <c r="V96" t="s">
+        <v>399</v>
+      </c>
+      <c r="W96" t="s">
+        <v>14</v>
+      </c>
+      <c r="X96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>404</v>
+      </c>
+      <c r="C97" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45566</v>
+      </c>
+      <c r="E97" t="s">
+        <v>405</v>
+      </c>
+      <c r="F97" t="s">
+        <v>406</v>
+      </c>
+      <c r="G97" s="3">
+        <v>22</v>
+      </c>
+      <c r="H97" s="3">
+        <v>22</v>
+      </c>
+      <c r="I97" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97" t="s">
+        <v>123</v>
+      </c>
+      <c r="K97" t="s">
+        <v>136</v>
+      </c>
+      <c r="L97" t="s">
+        <v>137</v>
+      </c>
+      <c r="M97" t="s">
+        <v>9</v>
+      </c>
+      <c r="N97" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" t="s">
+        <v>407</v>
+      </c>
+      <c r="P97" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>45566</v>
+      </c>
+      <c r="R97" s="2">
+        <v>45567</v>
+      </c>
+      <c r="S97" t="s">
+        <v>84</v>
+      </c>
+      <c r="T97" t="s">
+        <v>139</v>
+      </c>
+      <c r="U97" t="s">
+        <v>140</v>
+      </c>
+      <c r="V97" t="s">
+        <v>91</v>
+      </c>
+      <c r="W97" t="s">
+        <v>14</v>
+      </c>
+      <c r="X97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
+      <c r="A98" t="s">
+        <v>408</v>
+      </c>
+      <c r="B98" t="s">
+        <v>409</v>
+      </c>
+      <c r="C98" t="s">
+        <v>410</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E98" t="s">
+        <v>411</v>
+      </c>
+      <c r="F98" t="s">
+        <v>412</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
+      <c r="H98" s="3">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" t="s">
+        <v>413</v>
+      </c>
+      <c r="K98" t="s">
+        <v>414</v>
+      </c>
+      <c r="L98" t="s">
+        <v>415</v>
+      </c>
+      <c r="M98" t="s">
+        <v>416</v>
+      </c>
+      <c r="N98" t="s">
+        <v>10</v>
+      </c>
+      <c r="O98" t="s">
+        <v>417</v>
+      </c>
+      <c r="P98" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R98" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S98" t="s">
+        <v>84</v>
+      </c>
+      <c r="T98" t="s">
+        <v>414</v>
+      </c>
+      <c r="U98" t="s">
+        <v>419</v>
+      </c>
+      <c r="V98" t="s">
+        <v>420</v>
+      </c>
+      <c r="W98" t="s">
+        <v>14</v>
+      </c>
+      <c r="X98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
+      <c r="A99" t="s">
+        <v>408</v>
+      </c>
+      <c r="B99" t="s">
+        <v>421</v>
+      </c>
+      <c r="C99" t="s">
+        <v>422</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E99" t="s">
+        <v>411</v>
+      </c>
+      <c r="F99" t="s">
+        <v>412</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>5</v>
+      </c>
+      <c r="J99" t="s">
+        <v>413</v>
+      </c>
+      <c r="K99" t="s">
+        <v>414</v>
+      </c>
+      <c r="L99" t="s">
+        <v>423</v>
+      </c>
+      <c r="M99" t="s">
+        <v>416</v>
+      </c>
+      <c r="N99" t="s">
+        <v>10</v>
+      </c>
+      <c r="O99" t="s">
+        <v>424</v>
+      </c>
+      <c r="P99" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R99" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S99" t="s">
+        <v>84</v>
+      </c>
+      <c r="T99" t="s">
+        <v>414</v>
+      </c>
+      <c r="U99" t="s">
+        <v>419</v>
+      </c>
+      <c r="V99" t="s">
+        <v>420</v>
+      </c>
+      <c r="W99" t="s">
+        <v>14</v>
+      </c>
+      <c r="X99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
+      <c r="A100" t="s">
+        <v>408</v>
+      </c>
+      <c r="B100" t="s">
+        <v>425</v>
+      </c>
+      <c r="C100" t="s">
+        <v>426</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E100" t="s">
+        <v>411</v>
+      </c>
+      <c r="F100" t="s">
+        <v>412</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" t="s">
+        <v>413</v>
+      </c>
+      <c r="K100" t="s">
+        <v>414</v>
+      </c>
+      <c r="L100" t="s">
+        <v>427</v>
+      </c>
+      <c r="M100" t="s">
+        <v>416</v>
+      </c>
+      <c r="N100" t="s">
+        <v>10</v>
+      </c>
+      <c r="O100" t="s">
+        <v>428</v>
+      </c>
+      <c r="P100" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R100" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S100" t="s">
+        <v>84</v>
+      </c>
+      <c r="T100" t="s">
+        <v>414</v>
+      </c>
+      <c r="U100" t="s">
+        <v>419</v>
+      </c>
+      <c r="V100" t="s">
+        <v>420</v>
+      </c>
+      <c r="W100" t="s">
+        <v>14</v>
+      </c>
+      <c r="X100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
+      <c r="A101" t="s">
+        <v>408</v>
+      </c>
+      <c r="B101" t="s">
+        <v>429</v>
+      </c>
+      <c r="C101" t="s">
+        <v>430</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E101" t="s">
+        <v>431</v>
+      </c>
+      <c r="F101" t="s">
+        <v>432</v>
+      </c>
+      <c r="G101" s="3">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>4</v>
+      </c>
+      <c r="I101" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" t="s">
+        <v>413</v>
+      </c>
+      <c r="K101" t="s">
+        <v>433</v>
+      </c>
+      <c r="L101" t="s">
+        <v>434</v>
+      </c>
+      <c r="M101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N101" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" t="s">
+        <v>435</v>
+      </c>
+      <c r="P101" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R101" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S101" t="s">
+        <v>22</v>
+      </c>
+      <c r="T101" t="s">
+        <v>433</v>
+      </c>
+      <c r="U101" t="s">
+        <v>430</v>
+      </c>
+      <c r="V101" t="s">
+        <v>434</v>
+      </c>
+      <c r="W101" t="s">
+        <v>14</v>
+      </c>
+      <c r="X101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
+      <c r="A102" t="s">
+        <v>408</v>
+      </c>
+      <c r="B102" t="s">
+        <v>429</v>
+      </c>
+      <c r="C102" t="s">
+        <v>430</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E102" t="s">
+        <v>436</v>
+      </c>
+      <c r="F102" t="s">
+        <v>437</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" t="s">
+        <v>413</v>
+      </c>
+      <c r="K102" t="s">
+        <v>433</v>
+      </c>
+      <c r="L102" t="s">
+        <v>434</v>
+      </c>
+      <c r="M102" t="s">
+        <v>9</v>
+      </c>
+      <c r="N102" t="s">
+        <v>10</v>
+      </c>
+      <c r="O102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P102" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R102" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S102" t="s">
+        <v>22</v>
+      </c>
+      <c r="T102" t="s">
+        <v>433</v>
+      </c>
+      <c r="U102" t="s">
+        <v>430</v>
+      </c>
+      <c r="V102" t="s">
+        <v>434</v>
+      </c>
+      <c r="W102" t="s">
+        <v>14</v>
+      </c>
+      <c r="X102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
+      <c r="A103" t="s">
+        <v>408</v>
+      </c>
+      <c r="B103" t="s">
+        <v>429</v>
+      </c>
+      <c r="C103" t="s">
+        <v>430</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E103" t="s">
+        <v>438</v>
+      </c>
+      <c r="F103" t="s">
+        <v>439</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+      <c r="H103" s="3">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>5</v>
+      </c>
+      <c r="J103" t="s">
+        <v>413</v>
+      </c>
+      <c r="K103" t="s">
+        <v>433</v>
+      </c>
+      <c r="L103" t="s">
+        <v>434</v>
+      </c>
+      <c r="M103" t="s">
+        <v>9</v>
+      </c>
+      <c r="N103" t="s">
+        <v>10</v>
+      </c>
+      <c r="O103" t="s">
+        <v>435</v>
+      </c>
+      <c r="P103" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R103" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S103" t="s">
+        <v>22</v>
+      </c>
+      <c r="T103" t="s">
+        <v>433</v>
+      </c>
+      <c r="U103" t="s">
+        <v>430</v>
+      </c>
+      <c r="V103" t="s">
+        <v>434</v>
+      </c>
+      <c r="W103" t="s">
+        <v>14</v>
+      </c>
+      <c r="X103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
+      <c r="A104" t="s">
+        <v>408</v>
+      </c>
+      <c r="B104" t="s">
+        <v>429</v>
+      </c>
+      <c r="C104" t="s">
+        <v>430</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E104" t="s">
+        <v>440</v>
+      </c>
+      <c r="F104" t="s">
+        <v>441</v>
+      </c>
+      <c r="G104" s="3">
+        <v>1</v>
+      </c>
+      <c r="H104" s="3">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>5</v>
+      </c>
+      <c r="J104" t="s">
+        <v>413</v>
+      </c>
+      <c r="K104" t="s">
+        <v>433</v>
+      </c>
+      <c r="L104" t="s">
+        <v>434</v>
+      </c>
+      <c r="M104" t="s">
+        <v>9</v>
+      </c>
+      <c r="N104" t="s">
+        <v>10</v>
+      </c>
+      <c r="O104" t="s">
+        <v>435</v>
+      </c>
+      <c r="P104" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R104" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S104" t="s">
+        <v>22</v>
+      </c>
+      <c r="T104" t="s">
+        <v>433</v>
+      </c>
+      <c r="U104" t="s">
+        <v>430</v>
+      </c>
+      <c r="V104" t="s">
+        <v>434</v>
+      </c>
+      <c r="W104" t="s">
+        <v>14</v>
+      </c>
+      <c r="X104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
+      <c r="A105" t="s">
+        <v>408</v>
+      </c>
+      <c r="B105" t="s">
+        <v>442</v>
+      </c>
+      <c r="C105" t="s">
+        <v>443</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E105" t="s">
+        <v>444</v>
+      </c>
+      <c r="F105" t="s">
+        <v>445</v>
+      </c>
+      <c r="G105" s="3">
+        <v>1</v>
+      </c>
+      <c r="H105" s="3">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>5</v>
+      </c>
+      <c r="J105" t="s">
+        <v>413</v>
+      </c>
+      <c r="K105" t="s">
+        <v>414</v>
+      </c>
+      <c r="L105" t="s">
+        <v>446</v>
+      </c>
+      <c r="M105" t="s">
+        <v>416</v>
+      </c>
+      <c r="N105" t="s">
+        <v>10</v>
+      </c>
+      <c r="O105" t="s">
+        <v>447</v>
+      </c>
+      <c r="P105" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>45414</v>
+      </c>
+      <c r="R105" s="2">
+        <v>45415</v>
+      </c>
+      <c r="S105" t="s">
+        <v>84</v>
+      </c>
+      <c r="T105" t="s">
+        <v>414</v>
+      </c>
+      <c r="U105" t="s">
+        <v>419</v>
+      </c>
+      <c r="V105" t="s">
+        <v>420</v>
+      </c>
+      <c r="W105" t="s">
+        <v>14</v>
+      </c>
+      <c r="X105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
+      <c r="A106" t="s">
+        <v>408</v>
+      </c>
+      <c r="B106" t="s">
+        <v>448</v>
+      </c>
+      <c r="C106" t="s">
+        <v>430</v>
+      </c>
+      <c r="D106" s="2">
         <v>45468</v>
       </c>
-      <c r="E75" t="s">
-        <v>352</v>
-      </c>
-      <c r="F75" t="s">
-        <v>353</v>
-      </c>
-      <c r="G75" s="3">
+      <c r="E106" t="s">
+        <v>449</v>
+      </c>
+      <c r="F106" t="s">
+        <v>450</v>
+      </c>
+      <c r="G106" s="3">
         <v>1</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H106" s="3">
         <v>1</v>
       </c>
-      <c r="I75" t="s">
-        <v>5</v>
-      </c>
-      <c r="J75" t="s">
-        <v>322</v>
-      </c>
-      <c r="K75" t="s">
-        <v>342</v>
-      </c>
-      <c r="L75" t="s">
-        <v>343</v>
-      </c>
-      <c r="M75" t="s">
-        <v>9</v>
-      </c>
-      <c r="N75" t="s">
-        <v>10</v>
-      </c>
-      <c r="O75" t="s">
-        <v>354</v>
-      </c>
-      <c r="P75" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q75" s="2">
+      <c r="I106" t="s">
+        <v>5</v>
+      </c>
+      <c r="J106" t="s">
+        <v>413</v>
+      </c>
+      <c r="K106" t="s">
+        <v>433</v>
+      </c>
+      <c r="L106" t="s">
+        <v>434</v>
+      </c>
+      <c r="M106" t="s">
+        <v>9</v>
+      </c>
+      <c r="N106" t="s">
+        <v>10</v>
+      </c>
+      <c r="O106" t="s">
+        <v>451</v>
+      </c>
+      <c r="P106" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q106" s="2">
         <v>45468</v>
       </c>
-      <c r="R75" s="2">
+      <c r="R106" s="2">
         <v>45468</v>
       </c>
-      <c r="S75" t="s">
+      <c r="S106" t="s">
         <v>22</v>
       </c>
-      <c r="T75" t="s">
-        <v>342</v>
-      </c>
-      <c r="U75" t="s">
-        <v>339</v>
-      </c>
-      <c r="V75" t="s">
-        <v>343</v>
-      </c>
-      <c r="W75" t="s">
-        <v>14</v>
-      </c>
-      <c r="X75" t="s">
+      <c r="T106" t="s">
+        <v>433</v>
+      </c>
+      <c r="U106" t="s">
+        <v>430</v>
+      </c>
+      <c r="V106" t="s">
+        <v>434</v>
+      </c>
+      <c r="W106" t="s">
+        <v>14</v>
+      </c>
+      <c r="X106" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="433">
   <si>
     <t>P891</t>
   </si>
@@ -151,822 +151,999 @@
     <t>Ascorbic acid buffer 50mg/vial</t>
   </si>
   <si>
-    <t>133855233</t>
-  </si>
-  <si>
-    <t>ATT:Farah Makkie</t>
-  </si>
-  <si>
-    <t>64414249</t>
-  </si>
-  <si>
-    <t>Hextrode Electrode (Box of 25)</t>
-  </si>
-  <si>
-    <t>3309987</t>
-  </si>
-  <si>
-    <t>Docklands</t>
-  </si>
-  <si>
-    <t>717095676</t>
+    <t>133864507</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING - ORANGE</t>
+  </si>
+  <si>
+    <t>3510474</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>717094047</t>
+  </si>
+  <si>
+    <t>SXSRIP2R</t>
+  </si>
+  <si>
+    <t>020050</t>
+  </si>
+  <si>
+    <t>4595823</t>
+  </si>
+  <si>
+    <t>PRP DIAGNOSTIC IMAGING</t>
+  </si>
+  <si>
+    <t>GOSFORD</t>
+  </si>
+  <si>
+    <t>86566621</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
+  </si>
+  <si>
+    <t>86617501</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,PAS,60",MC,WLD</t>
+  </si>
+  <si>
+    <t>89092302</t>
+  </si>
+  <si>
+    <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
+  </si>
+  <si>
+    <t>64439489</t>
+  </si>
+  <si>
+    <t>0.1 Hydrochloric Acid (ultra pure)</t>
+  </si>
+  <si>
+    <t>SPEC</t>
+  </si>
+  <si>
+    <t>87234487</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>133863494</t>
+  </si>
+  <si>
+    <t>CLIFFORD HALLAM HEALTHCARE PTY LTD</t>
+  </si>
+  <si>
+    <t>80727543</t>
+  </si>
+  <si>
+    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
+  </si>
+  <si>
+    <t>12055</t>
+  </si>
+  <si>
+    <t>EASTERN CREEK</t>
+  </si>
+  <si>
+    <t>717078245</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>3309560</t>
+  </si>
+  <si>
+    <t>ROSELANDS</t>
+  </si>
+  <si>
+    <t>82212737</t>
+  </si>
+  <si>
+    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
+  </si>
+  <si>
+    <t>133866991</t>
+  </si>
+  <si>
+    <t>4060345</t>
+  </si>
+  <si>
+    <t>KEYSBOROUGH</t>
+  </si>
+  <si>
+    <t>717080076</t>
+  </si>
+  <si>
+    <t>80802544</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133866992</t>
+  </si>
+  <si>
+    <t>3593267</t>
+  </si>
+  <si>
+    <t>LYTTON</t>
+  </si>
+  <si>
+    <t>717080363</t>
+  </si>
+  <si>
+    <t>133867088</t>
+  </si>
+  <si>
+    <t>SOUTH COAST RADIOLOGY</t>
+  </si>
+  <si>
+    <t>4699105</t>
+  </si>
+  <si>
+    <t>Southport</t>
+  </si>
+  <si>
+    <t>717093989</t>
+  </si>
+  <si>
+    <t>4595077</t>
+  </si>
+  <si>
+    <t>RAD CORPORATE P/L</t>
+  </si>
+  <si>
+    <t>MERMAID BEACH</t>
+  </si>
+  <si>
+    <t>60937964</t>
+  </si>
+  <si>
+    <t>LABEL,PRINTER,THERMAL,PSA,INTEGO</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>64437141</t>
+  </si>
+  <si>
+    <t>Dota250UG (Tyr3)-Octreotate (GMP-Dota)</t>
+  </si>
+  <si>
+    <t>133867089</t>
+  </si>
+  <si>
+    <t>CAPITAL RADIOLOGY PTY LTD</t>
+  </si>
+  <si>
+    <t>1017886</t>
+  </si>
+  <si>
+    <t>FOOTSCRAY</t>
+  </si>
+  <si>
+    <t>717115255</t>
+  </si>
+  <si>
+    <t>3605543</t>
+  </si>
+  <si>
+    <t>EAST MELBOURNE</t>
+  </si>
+  <si>
+    <t>86698188</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>86698242</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>133867129</t>
+  </si>
+  <si>
+    <t>NORTH QUEENSLAND X-RAY SERVICE</t>
+  </si>
+  <si>
+    <t>02112548</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>3019067</t>
+  </si>
+  <si>
+    <t>CAIRNS</t>
+  </si>
+  <si>
+    <t>717116550</t>
+  </si>
+  <si>
+    <t>040130</t>
+  </si>
+  <si>
+    <t>03250768</t>
+  </si>
+  <si>
+    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133867139</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES</t>
+  </si>
+  <si>
+    <t>4595350</t>
+  </si>
+  <si>
+    <t>LIVERPOOL</t>
+  </si>
+  <si>
+    <t>717116401</t>
+  </si>
+  <si>
+    <t>4595461</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES (NSW)</t>
+  </si>
+  <si>
+    <t>ST LEONARDS</t>
+  </si>
+  <si>
+    <t>86594218</t>
+  </si>
+  <si>
+    <t>SOLARIS,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>133872387</t>
+  </si>
+  <si>
+    <t>CHS HUME SUPPLY WAREHOUSE</t>
+  </si>
+  <si>
+    <t>1079624</t>
+  </si>
+  <si>
+    <t>HUME</t>
+  </si>
+  <si>
+    <t>717109437</t>
+  </si>
+  <si>
+    <t>4595647</t>
+  </si>
+  <si>
+    <t>ACT HEALTH SUPPLY SERVICES</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>133874113</t>
+  </si>
+  <si>
+    <t>Healthcare Imaging Holmesglen</t>
+  </si>
+  <si>
+    <t>3275513</t>
+  </si>
+  <si>
+    <t>MOORABBIN</t>
+  </si>
+  <si>
+    <t>717109436</t>
+  </si>
+  <si>
+    <t>010050</t>
+  </si>
+  <si>
+    <t>4595462</t>
+  </si>
+  <si>
+    <t>HEALTHCARE IMAGING SERVICES (VIC)</t>
+  </si>
+  <si>
+    <t>133874114</t>
+  </si>
+  <si>
+    <t>HSV DERRIMUT DISTRIBUTION CENTRE</t>
+  </si>
+  <si>
+    <t>86566753</t>
+  </si>
+  <si>
+    <t>SHEATH,HAND CONTROLLER,MC,WLD</t>
+  </si>
+  <si>
+    <t>4670712</t>
+  </si>
+  <si>
+    <t>DERRIMUT</t>
+  </si>
+  <si>
+    <t>717114014</t>
+  </si>
+  <si>
+    <t>132494</t>
+  </si>
+  <si>
+    <t>THE ROYAL MELBOURNE HOSPITAL</t>
+  </si>
+  <si>
+    <t>PARKVILLE</t>
+  </si>
+  <si>
+    <t>133874115</t>
+  </si>
+  <si>
+    <t>PRIMARY HEALTH CARE - RINGWOOD</t>
+  </si>
+  <si>
+    <t>87234495</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>4595105</t>
+  </si>
+  <si>
+    <t>RINGWOOD</t>
+  </si>
+  <si>
+    <t>717114273</t>
+  </si>
+  <si>
+    <t>133874116</t>
+  </si>
+  <si>
+    <t>ROYAL ADELAIDE HOSPITAL</t>
+  </si>
+  <si>
+    <t>4676781</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>717115243</t>
+  </si>
+  <si>
+    <t>4595446</t>
+  </si>
+  <si>
+    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
+  </si>
+  <si>
+    <t>133874117</t>
+  </si>
+  <si>
+    <t>CABRINI HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596111</t>
+  </si>
+  <si>
+    <t>MALVERN</t>
+  </si>
+  <si>
+    <t>717115244</t>
+  </si>
+  <si>
+    <t>4596151</t>
+  </si>
+  <si>
+    <t>CABRINI HEALTH</t>
+  </si>
+  <si>
+    <t>133876840</t>
+  </si>
+  <si>
+    <t>SUTHERLAND HOSPITAL LOADING DOCK</t>
+  </si>
+  <si>
+    <t>4595148</t>
+  </si>
+  <si>
+    <t>CARINGBAH</t>
+  </si>
+  <si>
+    <t>717125428</t>
+  </si>
+  <si>
+    <t>000030</t>
+  </si>
+  <si>
+    <t>4596274</t>
+  </si>
+  <si>
+    <t>SOUTH EASTERN SYDNEY LOCAL HEALTH D</t>
+  </si>
+  <si>
+    <t>HUNTER REGION MAIL CENTRE</t>
+  </si>
+  <si>
+    <t>133876841</t>
+  </si>
+  <si>
+    <t>NORTH SHORE VETERINARY HOSPITAL</t>
+  </si>
+  <si>
+    <t>85575279</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 3X2ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4781311</t>
+  </si>
+  <si>
+    <t>ARTARMON</t>
+  </si>
+  <si>
+    <t>717117156</t>
+  </si>
+  <si>
+    <t>133876858</t>
+  </si>
+  <si>
+    <t>PAVID HOLDINGS PTY LTD</t>
+  </si>
+  <si>
+    <t>86659840</t>
+  </si>
+  <si>
+    <t>DOTAGRAF SOLU VIAL 10X10ML AU</t>
+  </si>
+  <si>
+    <t>3828165</t>
+  </si>
+  <si>
+    <t>PENRITH</t>
+  </si>
+  <si>
+    <t>717121609</t>
+  </si>
+  <si>
+    <t>133876878</t>
+  </si>
+  <si>
+    <t>PORT PIRIE REGIONAL HEALTH SERVICE</t>
+  </si>
+  <si>
+    <t>4595441</t>
+  </si>
+  <si>
+    <t>PORT PIRIE</t>
+  </si>
+  <si>
+    <t>717116220</t>
+  </si>
+  <si>
+    <t>030130</t>
+  </si>
+  <si>
+    <t>133876888</t>
+  </si>
+  <si>
+    <t>HUNTER IMAGING GROUP - TUGGERAH</t>
+  </si>
+  <si>
+    <t>4596145</t>
+  </si>
+  <si>
+    <t>TUGGERAH</t>
+  </si>
+  <si>
+    <t>717114956</t>
+  </si>
+  <si>
+    <t>4596223</t>
+  </si>
+  <si>
+    <t>HUNTER IMAGING GROUP PTY LIMITED</t>
+  </si>
+  <si>
+    <t>ADAMSTOWN</t>
+  </si>
+  <si>
+    <t>133876891</t>
+  </si>
+  <si>
+    <t>BRISBANE METRO RADIOLOGY</t>
+  </si>
+  <si>
+    <t>2085643</t>
+  </si>
+  <si>
+    <t>ASHGROVE</t>
+  </si>
+  <si>
+    <t>717125152</t>
+  </si>
+  <si>
+    <t>133876892</t>
+  </si>
+  <si>
+    <t>SURGICAL,TREATMENT&amp;REHAB SERVICE</t>
+  </si>
+  <si>
+    <t>87548783</t>
+  </si>
+  <si>
+    <t>ASSY,DAY SET,CENTARGO,ROW</t>
+  </si>
+  <si>
+    <t>4616889</t>
+  </si>
+  <si>
+    <t>HERSTON</t>
+  </si>
+  <si>
+    <t>717125603</t>
+  </si>
+  <si>
+    <t>4595837</t>
+  </si>
+  <si>
+    <t>METRO NORTH HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>133852546</t>
+  </si>
+  <si>
+    <t>Storage King Minchinbury</t>
+  </si>
+  <si>
+    <t>87627802</t>
+  </si>
+  <si>
+    <t>ASSY,CBL,INTFC,ARTERION,XPER,XMC 927A</t>
+  </si>
+  <si>
+    <t>4546064</t>
+  </si>
+  <si>
+    <t>Minchinbury</t>
+  </si>
+  <si>
+    <t>YLNL</t>
+  </si>
+  <si>
+    <t>2172553645</t>
+  </si>
+  <si>
+    <t>GOMBN</t>
+  </si>
+  <si>
+    <t>Imaxeon Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>MINCHINBURY NSW</t>
+  </si>
+  <si>
+    <t>133863437</t>
+  </si>
+  <si>
+    <t>NORTH QUEENSLAND DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>923139</t>
+  </si>
+  <si>
+    <t>BOHLE</t>
+  </si>
+  <si>
+    <t>717115328</t>
+  </si>
+  <si>
+    <t>4595067</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF HEALTH QLD</t>
+  </si>
+  <si>
+    <t>BRISBANE</t>
+  </si>
+  <si>
+    <t>133863644</t>
+  </si>
+  <si>
+    <t>RADIOLOGY SA - ELIZABETH VALE</t>
+  </si>
+  <si>
+    <t>4596210</t>
+  </si>
+  <si>
+    <t>ELIZABETH VALE</t>
+  </si>
+  <si>
+    <t>717124912</t>
+  </si>
+  <si>
+    <t>4596221</t>
+  </si>
+  <si>
+    <t>RADIOLOGY SA</t>
+  </si>
+  <si>
+    <t>NORTH ADELAIDE</t>
+  </si>
+  <si>
+    <t>87236072</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,WLD1</t>
+  </si>
+  <si>
+    <t>133866123</t>
+  </si>
+  <si>
+    <t>CAMPBELLTOWN HOSPITAL</t>
+  </si>
+  <si>
+    <t>87548082</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
+  </si>
+  <si>
+    <t>4596093</t>
+  </si>
+  <si>
+    <t>CAMPBELLTOWN</t>
+  </si>
+  <si>
+    <t>717123669</t>
+  </si>
+  <si>
+    <t>4596097</t>
+  </si>
+  <si>
+    <t>SOUTH WESTERN SYDNEY LOCAL HEALTH D</t>
+  </si>
+  <si>
+    <t>PARRAMATTA</t>
+  </si>
+  <si>
+    <t>133871459</t>
+  </si>
+  <si>
+    <t>717120799</t>
+  </si>
+  <si>
+    <t>4670709</t>
+  </si>
+  <si>
+    <t>HEALTHSHARE VICTORIA</t>
+  </si>
+  <si>
+    <t>MELBOURNE</t>
+  </si>
+  <si>
+    <t>133871460</t>
+  </si>
+  <si>
+    <t>FRANKSTON HOSPITAL</t>
+  </si>
+  <si>
+    <t>4675190</t>
+  </si>
+  <si>
+    <t>FRANKSTON</t>
+  </si>
+  <si>
+    <t>717125323</t>
+  </si>
+  <si>
+    <t>4628393</t>
+  </si>
+  <si>
+    <t>PENINSULA HEALTH</t>
+  </si>
+  <si>
+    <t>133871461</t>
+  </si>
+  <si>
+    <t>QUEENSLAND CARDIOVASCULAR GROUP</t>
+  </si>
+  <si>
+    <t>4595614</t>
+  </si>
+  <si>
+    <t>SPRING HILL</t>
+  </si>
+  <si>
+    <t>717125367</t>
+  </si>
+  <si>
+    <t>133872384</t>
+  </si>
+  <si>
+    <t>LYELL MCEWIN HEALTH SERVICE</t>
+  </si>
+  <si>
+    <t>4595506</t>
+  </si>
+  <si>
+    <t>717125301</t>
+  </si>
+  <si>
+    <t>133872385</t>
+  </si>
+  <si>
+    <t>02112555</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
+  </si>
+  <si>
+    <t>717125451</t>
+  </si>
+  <si>
+    <t>133872386</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - CAMPBELLTOWN</t>
+  </si>
+  <si>
+    <t>4636429</t>
+  </si>
+  <si>
+    <t>717125515</t>
+  </si>
+  <si>
+    <t>133876817</t>
+  </si>
+  <si>
+    <t>LIVERPOOL HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596092</t>
+  </si>
+  <si>
+    <t>717124064</t>
+  </si>
+  <si>
+    <t>133876889</t>
+  </si>
+  <si>
+    <t>THE WESLEY HOSPITAL-MAIN STORE</t>
+  </si>
+  <si>
+    <t>64050701</t>
+  </si>
+  <si>
+    <t>ULTRAVIST 370 SOLU BT 10X50ML AU</t>
+  </si>
+  <si>
+    <t>4595423</t>
+  </si>
+  <si>
+    <t>AUCHENFLOWER</t>
+  </si>
+  <si>
+    <t>717117168</t>
+  </si>
+  <si>
+    <t>3308475</t>
+  </si>
+  <si>
+    <t>UNITYCARE HEALTH</t>
+  </si>
+  <si>
+    <t>133876815</t>
+  </si>
+  <si>
+    <t>SKG RADIOLOGY - MANDURAH</t>
+  </si>
+  <si>
+    <t>87621529</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4595075</t>
+  </si>
+  <si>
+    <t>MANDURAH</t>
+  </si>
+  <si>
+    <t>717116858</t>
+  </si>
+  <si>
+    <t>010530</t>
+  </si>
+  <si>
+    <t>4595069</t>
+  </si>
+  <si>
+    <t>SKG RADIOLOGY</t>
+  </si>
+  <si>
+    <t>WEST PERTH</t>
+  </si>
+  <si>
+    <t>133876839</t>
+  </si>
+  <si>
+    <t>SKG-MURDOCH MEDICAL CLINIC</t>
+  </si>
+  <si>
+    <t>4595121</t>
+  </si>
+  <si>
+    <t>MURDOCH</t>
+  </si>
+  <si>
+    <t>717124246</t>
+  </si>
+  <si>
+    <t>133876879</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - ALBANY HEALTH</t>
+  </si>
+  <si>
+    <t>4595691</t>
+  </si>
+  <si>
+    <t>ALBANY</t>
+  </si>
+  <si>
+    <t>717125641</t>
+  </si>
+  <si>
+    <t>133876890</t>
+  </si>
+  <si>
+    <t>FIONA STANLEY HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595759</t>
+  </si>
+  <si>
+    <t>717119629</t>
+  </si>
+  <si>
+    <t>4595766</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF HEALTH WA</t>
+  </si>
+  <si>
+    <t>RAILWAY ROAD</t>
+  </si>
+  <si>
+    <t>133844404</t>
+  </si>
+  <si>
+    <t>AFFINITY MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>64438709</t>
+  </si>
+  <si>
+    <t>Aluminium block with (4) flat bottom hol</t>
+  </si>
+  <si>
+    <t>1078081</t>
+  </si>
+  <si>
+    <t>JOHNSONVILLE</t>
+  </si>
+  <si>
+    <t>716951266</t>
+  </si>
+  <si>
+    <t>EHGHA</t>
+  </si>
+  <si>
+    <t>1078078</t>
+  </si>
+  <si>
+    <t>LOWER HUTT</t>
+  </si>
+  <si>
+    <t>64435335</t>
+  </si>
+  <si>
+    <t>Hamilton Vial Heating Shield</t>
+  </si>
+  <si>
+    <t>90717469</t>
+  </si>
+  <si>
+    <t>12mm Fixed L Block (120kg)</t>
+  </si>
+  <si>
+    <t>P8SW</t>
+  </si>
+  <si>
+    <t>132976654</t>
+  </si>
+  <si>
+    <t>Kennards Self Storage</t>
+  </si>
+  <si>
+    <t>60721015</t>
+  </si>
+  <si>
+    <t>ASSY, 8AH BATTERY, MR INJECTOR,MC</t>
+  </si>
+  <si>
+    <t>SW01</t>
+  </si>
+  <si>
+    <t>Chermside</t>
+  </si>
+  <si>
+    <t>2172497897</t>
+  </si>
+  <si>
+    <t>132984429</t>
+  </si>
+  <si>
+    <t>National storage Aspley</t>
+  </si>
+  <si>
+    <t>Aspley</t>
+  </si>
+  <si>
+    <t>2172497899</t>
+  </si>
+  <si>
+    <t>132984430</t>
+  </si>
+  <si>
+    <t>Platinum Biomedical Pty Ltd</t>
+  </si>
+  <si>
+    <t>Osborne Park</t>
+  </si>
+  <si>
+    <t>2172497900</t>
+  </si>
+  <si>
+    <t>133852375</t>
+  </si>
+  <si>
+    <t>TECHNISONIC SYSTEM 2013 LTD</t>
+  </si>
+  <si>
+    <t>86070081</t>
+  </si>
+  <si>
+    <t>Stop Cock Drive Board</t>
+  </si>
+  <si>
+    <t>4595848</t>
+  </si>
+  <si>
+    <t>716964935</t>
   </si>
   <si>
     <t>EIWPK</t>
   </si>
   <si>
-    <t>000030</t>
-  </si>
-  <si>
-    <t>ONE TIME CUSTOMER - MAIN NSW</t>
-  </si>
-  <si>
-    <t>PYMBLE</t>
-  </si>
-  <si>
-    <t>64428932</t>
-  </si>
-  <si>
-    <t>Blood Pressure Hose (NIBP)</t>
-  </si>
-  <si>
-    <t>133858808</t>
-  </si>
-  <si>
-    <t>PRP Diagnostic Imaging- Warriewood</t>
-  </si>
-  <si>
-    <t>80802544</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>929711</t>
-  </si>
-  <si>
-    <t>Warriewood</t>
-  </si>
-  <si>
-    <t>717106325</t>
-  </si>
-  <si>
-    <t>SXSRIP2R</t>
-  </si>
-  <si>
-    <t>010130</t>
-  </si>
-  <si>
-    <t>4595823</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>GOSFORD</t>
-  </si>
-  <si>
-    <t>87078760</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
-  </si>
-  <si>
-    <t>133859728</t>
-  </si>
-  <si>
-    <t>MET MaitlandHospDock 550001</t>
-  </si>
-  <si>
-    <t>4687593</t>
-  </si>
-  <si>
-    <t>Metford</t>
-  </si>
-  <si>
-    <t>717110825</t>
-  </si>
-  <si>
-    <t>4595328</t>
-  </si>
-  <si>
-    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
-  </si>
-  <si>
-    <t>NEWCASTLE</t>
-  </si>
-  <si>
-    <t>133864507</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING - ORANGE</t>
-  </si>
-  <si>
-    <t>3510474</t>
-  </si>
-  <si>
-    <t>ORANGE</t>
-  </si>
-  <si>
-    <t>717094047</t>
-  </si>
-  <si>
-    <t>020050</t>
-  </si>
-  <si>
-    <t>86566621</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
-  </si>
-  <si>
-    <t>86617501</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,PAS,60",MC,WLD</t>
-  </si>
-  <si>
-    <t>89092302</t>
-  </si>
-  <si>
-    <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
-  </si>
-  <si>
-    <t>64439489</t>
-  </si>
-  <si>
-    <t>0.1 Hydrochloric Acid (ultra pure)</t>
-  </si>
-  <si>
-    <t>SPEC</t>
-  </si>
-  <si>
-    <t>87234487</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>133867070</t>
-  </si>
-  <si>
-    <t>IA Corporation Pty Ltd</t>
-  </si>
-  <si>
-    <t>02112548</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>2826555</t>
-  </si>
-  <si>
-    <t>Warragul</t>
-  </si>
-  <si>
-    <t>717115561</t>
-  </si>
-  <si>
-    <t>DROUIN</t>
-  </si>
-  <si>
-    <t>02112555</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133862827</t>
-  </si>
-  <si>
-    <t>ROYAL ADELAIDE HOSPITAL</t>
-  </si>
-  <si>
-    <t>86566656</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,SNGL,ANGIO,65",PIV,MC,WLD</t>
-  </si>
-  <si>
-    <t>4676781</t>
-  </si>
-  <si>
-    <t>ADELAIDE</t>
-  </si>
-  <si>
-    <t>717114755</t>
-  </si>
-  <si>
-    <t>4595446</t>
-  </si>
-  <si>
-    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>133863493</t>
-  </si>
-  <si>
-    <t>CLIFFORD HALLAM HEALTHCARE PTY LTD</t>
-  </si>
-  <si>
-    <t>80727543</t>
-  </si>
-  <si>
-    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
-  </si>
-  <si>
-    <t>4060345</t>
-  </si>
-  <si>
-    <t>Pooraka</t>
-  </si>
-  <si>
-    <t>717074524</t>
-  </si>
-  <si>
-    <t>3309560</t>
-  </si>
-  <si>
-    <t>ROSELANDS</t>
-  </si>
-  <si>
-    <t>133863494</t>
-  </si>
-  <si>
-    <t>12055</t>
-  </si>
-  <si>
-    <t>EASTERN CREEK</t>
-  </si>
-  <si>
-    <t>717078245</t>
-  </si>
-  <si>
-    <t>82212737</t>
-  </si>
-  <si>
-    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
-  </si>
-  <si>
-    <t>133863495</t>
-  </si>
-  <si>
-    <t>3309602</t>
-  </si>
-  <si>
-    <t>BERESFIELD</t>
-  </si>
-  <si>
-    <t>717113097</t>
-  </si>
-  <si>
-    <t>133863496</t>
-  </si>
-  <si>
-    <t>KEYSBOROUGH</t>
-  </si>
-  <si>
-    <t>717114595</t>
-  </si>
-  <si>
-    <t>133864162</t>
-  </si>
-  <si>
-    <t>CLARENCE VALLEY IMAGING</t>
-  </si>
-  <si>
-    <t>3086096</t>
-  </si>
-  <si>
-    <t>GRAFTON</t>
-  </si>
-  <si>
-    <t>717113194</t>
-  </si>
-  <si>
-    <t>3020995</t>
-  </si>
-  <si>
-    <t>NORTH COAST RADIOLOGY - GRAFTON</t>
-  </si>
-  <si>
-    <t>133864506</t>
-  </si>
-  <si>
-    <t>Bayer Hawthorn</t>
-  </si>
-  <si>
-    <t>87548082</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
-  </si>
-  <si>
-    <t>Hawthorn</t>
-  </si>
-  <si>
-    <t>717093947</t>
-  </si>
-  <si>
-    <t>133864562</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - JOHN FAWKNER</t>
-  </si>
-  <si>
-    <t>4595942</t>
-  </si>
-  <si>
-    <t>MORELAND</t>
-  </si>
-  <si>
-    <t>717114623</t>
-  </si>
-  <si>
-    <t>133864563</t>
-  </si>
-  <si>
-    <t>SUNSHINE COAST RADIOLOGY - WARANA</t>
-  </si>
-  <si>
-    <t>86698242</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>4596156</t>
-  </si>
-  <si>
-    <t>WARANA</t>
-  </si>
-  <si>
-    <t>717116483</t>
-  </si>
-  <si>
-    <t>4596167</t>
-  </si>
-  <si>
-    <t>SUNSHINE COAST RADIOLOGY PTY LTD</t>
-  </si>
-  <si>
-    <t>MAROOCHYDORE</t>
-  </si>
-  <si>
-    <t>133865273</t>
-  </si>
-  <si>
-    <t>NORTH SHORE RADIOLOGY &amp; NUCLEAR</t>
-  </si>
-  <si>
-    <t>4687155</t>
-  </si>
-  <si>
-    <t>ST LEONARDS</t>
-  </si>
-  <si>
-    <t>717115354</t>
-  </si>
-  <si>
-    <t>4686653</t>
-  </si>
-  <si>
-    <t>NORTH SHORE PRIVATE HOSPITAL</t>
-  </si>
-  <si>
-    <t>133866911</t>
-  </si>
-  <si>
-    <t>ST VINCENTS HOSPITAL SYDNEY</t>
-  </si>
-  <si>
-    <t>4595515</t>
-  </si>
-  <si>
-    <t>DARLINGHURST</t>
-  </si>
-  <si>
-    <t>717106779</t>
-  </si>
-  <si>
-    <t>4595511</t>
-  </si>
-  <si>
-    <t>ST VINCENT'S HOSPITAL SYDNEY LTD</t>
-  </si>
-  <si>
-    <t>133866991</t>
-  </si>
-  <si>
-    <t>717080076</t>
-  </si>
-  <si>
-    <t>133866992</t>
-  </si>
-  <si>
-    <t>3593267</t>
-  </si>
-  <si>
-    <t>LYTTON</t>
-  </si>
-  <si>
-    <t>717080363</t>
-  </si>
-  <si>
-    <t>133867088</t>
-  </si>
-  <si>
-    <t>SOUTH COAST RADIOLOGY</t>
-  </si>
-  <si>
-    <t>4699105</t>
-  </si>
-  <si>
-    <t>Southport</t>
-  </si>
-  <si>
-    <t>717093989</t>
-  </si>
-  <si>
-    <t>4595077</t>
-  </si>
-  <si>
-    <t>RAD CORPORATE P/L</t>
-  </si>
-  <si>
-    <t>MERMAID BEACH</t>
-  </si>
-  <si>
-    <t>60937964</t>
-  </si>
-  <si>
-    <t>LABEL,PRINTER,THERMAL,PSA,INTEGO</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>64437141</t>
-  </si>
-  <si>
-    <t>Dota250UG (Tyr3)-Octreotate (GMP-Dota)</t>
-  </si>
-  <si>
-    <t>133867089</t>
-  </si>
-  <si>
-    <t>CAPITAL RADIOLOGY PTY LTD</t>
-  </si>
-  <si>
-    <t>1017886</t>
-  </si>
-  <si>
-    <t>FOOTSCRAY</t>
-  </si>
-  <si>
-    <t>717115255</t>
-  </si>
-  <si>
-    <t>3605543</t>
-  </si>
-  <si>
-    <t>EAST MELBOURNE</t>
-  </si>
-  <si>
-    <t>86698188</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>133867090</t>
-  </si>
-  <si>
-    <t>GOLD COAST RADIOLOGY PTY LTD</t>
-  </si>
-  <si>
-    <t>87234495</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>4595975</t>
-  </si>
-  <si>
-    <t>HOPE ISLAND</t>
-  </si>
-  <si>
-    <t>717101998</t>
-  </si>
-  <si>
-    <t>4595968</t>
-  </si>
-  <si>
-    <t>SANCTUARY COVE</t>
-  </si>
-  <si>
-    <t>133867129</t>
-  </si>
-  <si>
-    <t>NORTH QUEENSLAND X-RAY SERVICE</t>
-  </si>
-  <si>
-    <t>3019067</t>
-  </si>
-  <si>
-    <t>CAIRNS</t>
-  </si>
-  <si>
-    <t>717116550</t>
-  </si>
-  <si>
-    <t>040130</t>
-  </si>
-  <si>
-    <t>03250768</t>
-  </si>
-  <si>
-    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>133867139</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES</t>
-  </si>
-  <si>
-    <t>4595350</t>
-  </si>
-  <si>
-    <t>LIVERPOOL</t>
-  </si>
-  <si>
-    <t>717116401</t>
-  </si>
-  <si>
-    <t>4595461</t>
-  </si>
-  <si>
-    <t>HEALTHCARE IMAGING SERVICES (NSW)</t>
-  </si>
-  <si>
-    <t>86594218</t>
-  </si>
-  <si>
-    <t>SOLARIS,KIT,SYR,MRI,65/115ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>133867210</t>
-  </si>
-  <si>
-    <t>Perth Airport</t>
-  </si>
-  <si>
-    <t>717080821</t>
-  </si>
-  <si>
-    <t>010530</t>
-  </si>
-  <si>
-    <t>133867308</t>
-  </si>
-  <si>
-    <t>HIG - EAST MAITLAND</t>
-  </si>
-  <si>
-    <t>4596140</t>
-  </si>
-  <si>
-    <t>EAST MAITLAND</t>
-  </si>
-  <si>
-    <t>717113029</t>
-  </si>
-  <si>
-    <t>4596223</t>
-  </si>
-  <si>
-    <t>HUNTER IMAGING GROUP PTY LIMITED</t>
-  </si>
-  <si>
-    <t>ADAMSTOWN</t>
-  </si>
-  <si>
-    <t>133867309</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - GLADSTONE</t>
-  </si>
-  <si>
-    <t>4595963</t>
-  </si>
-  <si>
-    <t>GLADSTONE</t>
-  </si>
-  <si>
-    <t>717114064</t>
-  </si>
-  <si>
-    <t>86594226</t>
-  </si>
-  <si>
-    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>133867310</t>
-  </si>
-  <si>
-    <t>HUNTER IMAGING GROUP - TUGGERAH</t>
-  </si>
-  <si>
-    <t>4596145</t>
-  </si>
-  <si>
-    <t>TUGGERAH</t>
-  </si>
-  <si>
-    <t>717114956</t>
-  </si>
-  <si>
-    <t>133867311</t>
-  </si>
-  <si>
-    <t>SYDNEY ADVENTIST HOSPITAL LIMITED</t>
-  </si>
-  <si>
-    <t>4595580</t>
-  </si>
-  <si>
-    <t>WAHROONGA</t>
-  </si>
-  <si>
-    <t>717115324</t>
-  </si>
-  <si>
-    <t>3018003</t>
-  </si>
-  <si>
-    <t>SYDNEY ADVENTIST HOSPITAL</t>
-  </si>
-  <si>
-    <t>133867312</t>
-  </si>
-  <si>
-    <t>EH DISTRIBUTION CENTRE</t>
-  </si>
-  <si>
-    <t>4595201</t>
-  </si>
-  <si>
-    <t>RINGWOOD</t>
-  </si>
-  <si>
-    <t>717116581</t>
-  </si>
-  <si>
-    <t>4595192</t>
-  </si>
-  <si>
-    <t>EASTERN HEALTH</t>
-  </si>
-  <si>
-    <t>BOX HILL</t>
-  </si>
-  <si>
-    <t>133867318</t>
-  </si>
-  <si>
-    <t>717115473</t>
-  </si>
-  <si>
-    <t>133844404</t>
-  </si>
-  <si>
-    <t>AFFINITY MEDICAL IMAGING</t>
-  </si>
-  <si>
-    <t>64438709</t>
-  </si>
-  <si>
-    <t>Aluminium block with (4) flat bottom hol</t>
-  </si>
-  <si>
-    <t>1078081</t>
-  </si>
-  <si>
-    <t>JOHNSONVILLE</t>
-  </si>
-  <si>
-    <t>716951266</t>
-  </si>
-  <si>
-    <t>EHGHA</t>
-  </si>
-  <si>
-    <t>1078078</t>
-  </si>
-  <si>
-    <t>LOWER HUTT</t>
-  </si>
-  <si>
-    <t>64435335</t>
-  </si>
-  <si>
-    <t>Hamilton Vial Heating Shield</t>
-  </si>
-  <si>
-    <t>90717469</t>
-  </si>
-  <si>
-    <t>12mm Fixed L Block (120kg)</t>
-  </si>
-  <si>
-    <t>P8SW</t>
-  </si>
-  <si>
-    <t>132976654</t>
-  </si>
-  <si>
-    <t>Kennards Self Storage</t>
-  </si>
-  <si>
-    <t>60721015</t>
-  </si>
-  <si>
-    <t>ASSY, 8AH BATTERY, MR INJECTOR,MC</t>
-  </si>
-  <si>
-    <t>SW01</t>
-  </si>
-  <si>
-    <t>4546064</t>
-  </si>
-  <si>
-    <t>Chermside</t>
-  </si>
-  <si>
-    <t>YLNL</t>
-  </si>
-  <si>
-    <t>2172497897</t>
-  </si>
-  <si>
-    <t>GOMBN</t>
-  </si>
-  <si>
-    <t>Imaxeon Pty. Ltd.</t>
-  </si>
-  <si>
-    <t>MINCHINBURY NSW</t>
-  </si>
-  <si>
-    <t>132984429</t>
-  </si>
-  <si>
-    <t>National storage Aspley</t>
-  </si>
-  <si>
-    <t>Aspley</t>
-  </si>
-  <si>
-    <t>2172497899</t>
-  </si>
-  <si>
-    <t>132984430</t>
-  </si>
-  <si>
-    <t>Platinum Biomedical Pty Ltd</t>
-  </si>
-  <si>
-    <t>Osborne Park</t>
-  </si>
-  <si>
-    <t>2172497900</t>
-  </si>
-  <si>
-    <t>133852375</t>
-  </si>
-  <si>
-    <t>TECHNISONIC SYSTEM 2013 LTD</t>
-  </si>
-  <si>
-    <t>86070081</t>
-  </si>
-  <si>
-    <t>Stop Cock Drive Board</t>
-  </si>
-  <si>
-    <t>4595848</t>
-  </si>
-  <si>
-    <t>ALBANY</t>
-  </si>
-  <si>
-    <t>716964935</t>
-  </si>
-  <si>
     <t>83867648</t>
   </si>
   <si>
@@ -1001,6 +1178,54 @@
   </si>
   <si>
     <t>2172553400</t>
+  </si>
+  <si>
+    <t>133875580</t>
+  </si>
+  <si>
+    <t>84888398</t>
+  </si>
+  <si>
+    <t>ASSY,PCB,IMAGING SYS INTFC (ISI),MARK 7</t>
+  </si>
+  <si>
+    <t>2172553644</t>
+  </si>
+  <si>
+    <t>133876908</t>
+  </si>
+  <si>
+    <t>Bayer Radiology (AU12 Service Hub)</t>
+  </si>
+  <si>
+    <t>85663240</t>
+  </si>
+  <si>
+    <t>ASSY,PRESSURE CAL SYRINGE,FLEX</t>
+  </si>
+  <si>
+    <t>Rydalmere</t>
+  </si>
+  <si>
+    <t>2172553650</t>
+  </si>
+  <si>
+    <t>59884283</t>
+  </si>
+  <si>
+    <t>SALINE LINE FILLED, AVANTA</t>
+  </si>
+  <si>
+    <t>59884313</t>
+  </si>
+  <si>
+    <t>CONTRAST LINE FILLED, AVANTA</t>
+  </si>
+  <si>
+    <t>59883953</t>
+  </si>
+  <si>
+    <t>ASSEMBLY, 150 ML TEST SYRINGE, AVANTA</t>
   </si>
   <si>
     <t>133837151</t>
@@ -1189,7 +1414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X92"/>
+  <dimension ref="A1:X106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,11 +1429,11 @@
     <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
     <col min="6" max="6" bestFit="1" width="42" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="12" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="13" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="6" customWidth="1"/>
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="6" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="15" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="15" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="16" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15" customWidth="1"/>
     <col min="14" max="14" bestFit="1" width="6" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="21" customWidth="1"/>
@@ -1225,76 +1450,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>336</v>
+        <v>411</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>339</v>
+        <v>414</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>342</v>
+        <v>417</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>343</v>
+        <v>418</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>344</v>
+        <v>419</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>346</v>
+        <v>421</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>347</v>
+        <v>422</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>348</v>
+        <v>423</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>349</v>
+        <v>424</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>351</v>
+        <v>426</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>352</v>
+        <v>427</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>353</v>
+        <v>428</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>354</v>
+        <v>429</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>355</v>
+        <v>430</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>356</v>
+        <v>431</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>357</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -2199,58 +2424,58 @@
         <v>45413</v>
       </c>
       <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="3">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" t="s">
+      <c r="L14" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" t="s">
         <v>50</v>
       </c>
-      <c r="L14" t="s">
+      <c r="P14" t="s">
         <v>51</v>
-      </c>
-      <c r="M14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" t="s">
-        <v>53</v>
       </c>
       <c r="Q14" s="2">
         <v>45413</v>
       </c>
       <c r="R14" s="2">
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="S14" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U14" t="s">
         <v>54</v>
       </c>
-      <c r="T14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>55</v>
-      </c>
-      <c r="V14" t="s">
-        <v>56</v>
       </c>
       <c r="W14" t="s">
         <v>14</v>
@@ -2273,16 +2498,16 @@
         <v>45413</v>
       </c>
       <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2291,40 +2516,40 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="L15" t="s">
+      <c r="P15" t="s">
         <v>51</v>
-      </c>
-      <c r="M15" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" t="s">
-        <v>53</v>
       </c>
       <c r="Q15" s="2">
         <v>45413</v>
       </c>
       <c r="R15" s="2">
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="S15" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" t="s">
+        <v>53</v>
+      </c>
+      <c r="U15" t="s">
         <v>54</v>
       </c>
-      <c r="T15" t="s">
-        <v>50</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>55</v>
-      </c>
-      <c r="V15" t="s">
-        <v>56</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -2338,25 +2563,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2">
         <v>45413</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G16" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2365,10 +2590,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2377,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="P16" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="2">
         <v>45413</v>
       </c>
       <c r="R16" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S16" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2412,25 +2637,25 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2">
         <v>45413</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2439,10 +2664,10 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L17" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2451,28 +2676,28 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="P17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="2">
         <v>45413</v>
       </c>
       <c r="R17" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S17" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2486,25 +2711,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2">
         <v>45413</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H18" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2513,10 +2738,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2525,28 +2750,28 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="2">
         <v>45413</v>
       </c>
       <c r="R18" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="S18" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2560,37 +2785,37 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2">
         <v>45413</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="G19" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2599,10 +2824,10 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="P19" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="2">
         <v>45413</v>
@@ -2611,16 +2836,16 @@
         <v>45415</v>
       </c>
       <c r="S19" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2634,25 +2859,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2">
         <v>45413</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2661,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2673,10 +2898,10 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="P20" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="2">
         <v>45413</v>
@@ -2685,16 +2910,16 @@
         <v>45415</v>
       </c>
       <c r="S20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2708,25 +2933,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H21" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2735,10 +2960,10 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -2747,28 +2972,28 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="P21" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R21" s="2">
         <v>45415</v>
       </c>
       <c r="S21" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s">
         <v>68</v>
       </c>
-      <c r="U21" t="s">
-        <v>69</v>
-      </c>
       <c r="V21" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2782,19 +3007,19 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -2809,10 +3034,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2821,28 +3046,28 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R22" s="2">
         <v>45415</v>
       </c>
       <c r="S22" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" t="s">
         <v>68</v>
       </c>
-      <c r="U22" t="s">
-        <v>69</v>
-      </c>
       <c r="V22" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2856,67 +3081,67 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="3">
+        <v>30</v>
+      </c>
+      <c r="H23" s="3">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" t="s">
+      <c r="M23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="2">
-        <v>45413</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="3">
-        <v>20</v>
-      </c>
-      <c r="H23" s="3">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" t="s">
-        <v>84</v>
-      </c>
-      <c r="M23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23" t="s">
-        <v>85</v>
-      </c>
       <c r="P23" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R23" s="2">
         <v>45415</v>
       </c>
       <c r="S23" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s">
+        <v>75</v>
+      </c>
+      <c r="U23" t="s">
         <v>68</v>
       </c>
-      <c r="U23" t="s">
-        <v>69</v>
-      </c>
       <c r="V23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2930,67 +3155,67 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="3">
+        <v>13</v>
+      </c>
+      <c r="H24" s="3">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="s">
+      <c r="M24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="2">
-        <v>45413</v>
-      </c>
-      <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" t="s">
-        <v>9</v>
-      </c>
-      <c r="N24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" t="s">
-        <v>85</v>
-      </c>
       <c r="P24" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q24" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R24" s="2">
         <v>45415</v>
       </c>
       <c r="S24" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s">
+        <v>75</v>
+      </c>
+      <c r="U24" t="s">
         <v>68</v>
       </c>
-      <c r="U24" t="s">
-        <v>69</v>
-      </c>
       <c r="V24" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -3004,67 +3229,67 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45414</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="3">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" t="s">
         <v>81</v>
       </c>
-      <c r="C25" t="s">
+      <c r="M25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="2">
-        <v>45413</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>50</v>
-      </c>
-      <c r="I25" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" t="s">
-        <v>83</v>
-      </c>
-      <c r="L25" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" t="s">
-        <v>9</v>
-      </c>
-      <c r="N25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O25" t="s">
-        <v>85</v>
-      </c>
       <c r="P25" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q25" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R25" s="2">
         <v>45415</v>
       </c>
       <c r="S25" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s">
+        <v>75</v>
+      </c>
+      <c r="U25" t="s">
         <v>68</v>
       </c>
-      <c r="U25" t="s">
-        <v>69</v>
-      </c>
       <c r="V25" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -3078,25 +3303,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="3">
-        <v>8</v>
-      </c>
       <c r="H26" s="3">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3105,10 +3330,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L26" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -3117,28 +3342,28 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q26" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R26" s="2">
         <v>45415</v>
       </c>
       <c r="S26" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="V26" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -3152,25 +3377,25 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3179,10 +3404,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L27" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -3191,28 +3416,28 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="2">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="R27" s="2">
         <v>45415</v>
       </c>
       <c r="S27" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="U27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="V27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -3226,25 +3451,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2">
         <v>45414</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" s="3">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3253,10 +3478,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="L28" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -3265,28 +3490,28 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="2">
         <v>45414</v>
       </c>
       <c r="R28" s="2">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="S28" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="U28" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="V28" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -3300,37 +3525,37 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2">
         <v>45414</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G29" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H29" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="J29" t="s">
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L29" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -3339,28 +3564,28 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q29" s="2">
         <v>45414</v>
       </c>
       <c r="R29" s="2">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="S29" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="U29" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="V29" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3374,25 +3599,25 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2">
         <v>45414</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G30" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3401,10 +3626,10 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="L30" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3413,10 +3638,10 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="P30" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q30" s="2">
         <v>45414</v>
@@ -3425,16 +3650,16 @@
         <v>45415</v>
       </c>
       <c r="S30" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T30" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="U30" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="V30" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3448,25 +3673,25 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D31" s="2">
         <v>45414</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3475,10 +3700,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="L31" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3487,10 +3712,10 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q31" s="2">
         <v>45414</v>
@@ -3499,16 +3724,16 @@
         <v>45415</v>
       </c>
       <c r="S31" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="U31" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="V31" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3522,19 +3747,19 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D32" s="2">
         <v>45414</v>
       </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="G32" s="3">
         <v>40</v>
@@ -3549,10 +3774,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="L32" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3561,10 +3786,10 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q32" s="2">
         <v>45414</v>
@@ -3573,16 +3798,16 @@
         <v>45415</v>
       </c>
       <c r="S32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="U32" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="V32" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3596,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2">
         <v>45414</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="G33" s="3">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H33" s="3">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3623,10 +3848,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L33" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3635,10 +3860,10 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="P33" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="2">
         <v>45414</v>
@@ -3647,16 +3872,16 @@
         <v>45415</v>
       </c>
       <c r="S33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="U33" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="V33" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3670,25 +3895,25 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D34" s="2">
         <v>45414</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G34" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3697,10 +3922,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="L34" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3709,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q34" s="2">
         <v>45414</v>
       </c>
       <c r="R34" s="2">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="S34" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="U34" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="V34" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3744,25 +3969,25 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="D35" s="2">
         <v>45414</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="G35" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35" s="3">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3771,10 +3996,10 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -3783,10 +4008,10 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q35" s="2">
         <v>45414</v>
@@ -3795,16 +4020,16 @@
         <v>45415</v>
       </c>
       <c r="S35" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T35" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="U35" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="V35" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3818,25 +4043,25 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="D36" s="2">
         <v>45414</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G36" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H36" s="3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3845,10 +4070,10 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="L36" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -3857,10 +4082,10 @@
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q36" s="2">
         <v>45414</v>
@@ -3869,16 +4094,16 @@
         <v>45415</v>
       </c>
       <c r="S36" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="U36" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="V36" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -3892,25 +4117,25 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="D37" s="2">
         <v>45414</v>
       </c>
       <c r="E37" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="G37" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H37" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3919,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="L37" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -3931,28 +4156,28 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q37" s="2">
         <v>45414</v>
       </c>
       <c r="R37" s="2">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="S37" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="U37" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="V37" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -3966,25 +4191,25 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2">
         <v>45414</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G38" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H38" s="3">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -3993,10 +4218,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="L38" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -4005,28 +4230,28 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q38" s="2">
         <v>45414</v>
       </c>
       <c r="R38" s="2">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="S38" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="T38" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="U38" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="V38" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -4040,25 +4265,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="D39" s="2">
         <v>45414</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="G39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -4067,10 +4292,10 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="L39" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -4079,28 +4304,28 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q39" s="2">
         <v>45414</v>
       </c>
       <c r="R39" s="2">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="S39" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="T39" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="U39" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="V39" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
@@ -4114,25 +4339,25 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="D40" s="2">
         <v>45414</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="G40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4141,10 +4366,10 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="L40" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="M40" t="s">
         <v>9</v>
@@ -4153,10 +4378,10 @@
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q40" s="2">
         <v>45414</v>
@@ -4165,16 +4390,16 @@
         <v>45415</v>
       </c>
       <c r="S40" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="U40" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="V40" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -4188,25 +4413,25 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="D41" s="2">
         <v>45414</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="G41" s="3">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H41" s="3">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4215,10 +4440,10 @@
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="L41" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="M41" t="s">
         <v>9</v>
@@ -4227,10 +4452,10 @@
         <v>10</v>
       </c>
       <c r="O41" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="P41" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q41" s="2">
         <v>45414</v>
@@ -4239,16 +4464,16 @@
         <v>45415</v>
       </c>
       <c r="S41" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="U41" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="V41" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -4262,25 +4487,25 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D42" s="2">
         <v>45414</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="G42" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H42" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4289,10 +4514,10 @@
         <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L42" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M42" t="s">
         <v>9</v>
@@ -4301,10 +4526,10 @@
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="P42" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q42" s="2">
         <v>45414</v>
@@ -4313,16 +4538,16 @@
         <v>45415</v>
       </c>
       <c r="S42" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="U42" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="V42" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -4336,25 +4561,25 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D43" s="2">
         <v>45414</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="G43" s="3">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="H43" s="3">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4363,10 +4588,10 @@
         <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L43" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M43" t="s">
         <v>9</v>
@@ -4375,10 +4600,10 @@
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="P43" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q43" s="2">
         <v>45414</v>
@@ -4387,16 +4612,16 @@
         <v>45415</v>
       </c>
       <c r="S43" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="U43" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="V43" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W43" t="s">
         <v>14</v>
@@ -4410,25 +4635,25 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D44" s="2">
         <v>45414</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="G44" s="3">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H44" s="3">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4437,10 +4662,10 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L44" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M44" t="s">
         <v>9</v>
@@ -4449,10 +4674,10 @@
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q44" s="2">
         <v>45414</v>
@@ -4461,16 +4686,16 @@
         <v>45415</v>
       </c>
       <c r="S44" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="U44" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="V44" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W44" t="s">
         <v>14</v>
@@ -4484,25 +4709,25 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D45" s="2">
         <v>45414</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="F45" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
@@ -4511,10 +4736,10 @@
         <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="L45" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="M45" t="s">
         <v>9</v>
@@ -4523,10 +4748,10 @@
         <v>10</v>
       </c>
       <c r="O45" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="P45" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q45" s="2">
         <v>45414</v>
@@ -4535,16 +4760,16 @@
         <v>45415</v>
       </c>
       <c r="S45" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="U45" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="V45" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W45" t="s">
         <v>14</v>
@@ -4558,25 +4783,25 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="D46" s="2">
         <v>45414</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="G46" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46" s="3">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4585,10 +4810,10 @@
         <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="L46" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="M46" t="s">
         <v>9</v>
@@ -4597,10 +4822,10 @@
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q46" s="2">
         <v>45414</v>
@@ -4609,16 +4834,16 @@
         <v>45415</v>
       </c>
       <c r="S46" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T46" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="U46" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="V46" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="W46" t="s">
         <v>14</v>
@@ -4632,25 +4857,25 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="D47" s="2">
         <v>45414</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>4</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -4659,10 +4884,10 @@
         <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="M47" t="s">
         <v>9</v>
@@ -4671,28 +4896,28 @@
         <v>10</v>
       </c>
       <c r="O47" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="P47" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q47" s="2">
         <v>45414</v>
       </c>
       <c r="R47" s="2">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="S47" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="T47" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="U47" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="V47" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="W47" t="s">
         <v>14</v>
@@ -4706,37 +4931,37 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D48" s="2">
         <v>45414</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="G48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="L48" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="M48" t="s">
         <v>9</v>
@@ -4745,10 +4970,10 @@
         <v>10</v>
       </c>
       <c r="O48" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="P48" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q48" s="2">
         <v>45414</v>
@@ -4757,16 +4982,16 @@
         <v>45415</v>
       </c>
       <c r="S48" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="T48" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="U48" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="V48" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="W48" t="s">
         <v>14</v>
@@ -4780,25 +5005,25 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="D49" s="2">
         <v>45414</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="F49" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
       </c>
       <c r="H49" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
@@ -4807,10 +5032,10 @@
         <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="L49" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="M49" t="s">
         <v>9</v>
@@ -4819,10 +5044,10 @@
         <v>10</v>
       </c>
       <c r="O49" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="P49" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q49" s="2">
         <v>45414</v>
@@ -4831,16 +5056,16 @@
         <v>45415</v>
       </c>
       <c r="S49" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T49" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="U49" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="V49" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="W49" t="s">
         <v>14</v>
@@ -4854,25 +5079,25 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="D50" s="2">
         <v>45414</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="G50" s="3">
         <v>2</v>
       </c>
       <c r="H50" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -4881,10 +5106,10 @@
         <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="L50" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="M50" t="s">
         <v>9</v>
@@ -4893,10 +5118,10 @@
         <v>10</v>
       </c>
       <c r="O50" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="P50" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q50" s="2">
         <v>45414</v>
@@ -4905,16 +5130,16 @@
         <v>45415</v>
       </c>
       <c r="S50" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T50" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="U50" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="V50" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="W50" t="s">
         <v>14</v>
@@ -4928,22 +5153,22 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D51" s="2">
         <v>45414</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="G51" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H51" s="3">
         <v>40</v>
@@ -4955,10 +5180,10 @@
         <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="L51" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="M51" t="s">
         <v>9</v>
@@ -4967,28 +5192,28 @@
         <v>10</v>
       </c>
       <c r="O51" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="P51" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q51" s="2">
         <v>45414</v>
       </c>
       <c r="R51" s="2">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="S51" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="T51" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="U51" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="V51" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="W51" t="s">
         <v>14</v>
@@ -5002,19 +5227,19 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D52" s="2">
         <v>45414</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>40</v>
@@ -5029,10 +5254,10 @@
         <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L52" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="M52" t="s">
         <v>9</v>
@@ -5041,10 +5266,10 @@
         <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="P52" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q52" s="2">
         <v>45414</v>
@@ -5053,16 +5278,16 @@
         <v>45415</v>
       </c>
       <c r="S52" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T52" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="U52" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="V52" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="W52" t="s">
         <v>14</v>
@@ -5076,25 +5301,25 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D53" s="2">
         <v>45414</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G53" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H53" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -5103,10 +5328,10 @@
         <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M53" t="s">
         <v>9</v>
@@ -5115,28 +5340,28 @@
         <v>10</v>
       </c>
       <c r="O53" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="P53" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q53" s="2">
         <v>45414</v>
       </c>
       <c r="R53" s="2">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="S53" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="T53" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="U53" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="V53" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="W53" t="s">
         <v>14</v>
@@ -5150,25 +5375,25 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D54" s="2">
         <v>45414</v>
       </c>
       <c r="E54" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="F54" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="G54" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H54" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5177,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L54" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M54" t="s">
         <v>9</v>
@@ -5189,10 +5414,10 @@
         <v>10</v>
       </c>
       <c r="O54" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="P54" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q54" s="2">
         <v>45414</v>
@@ -5201,16 +5426,16 @@
         <v>45415</v>
       </c>
       <c r="S54" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="T54" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="U54" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="V54" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="W54" t="s">
         <v>14</v>
@@ -5224,25 +5449,25 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D55" s="2">
         <v>45414</v>
       </c>
       <c r="E55" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F55" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G55" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H55" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5251,22 +5476,22 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
+        <v>200</v>
+      </c>
+      <c r="L55" t="s">
+        <v>201</v>
+      </c>
+      <c r="M55" t="s">
+        <v>9</v>
+      </c>
+      <c r="N55" t="s">
+        <v>10</v>
+      </c>
+      <c r="O55" t="s">
         <v>202</v>
       </c>
-      <c r="L55" t="s">
-        <v>203</v>
-      </c>
-      <c r="M55" t="s">
-        <v>9</v>
-      </c>
-      <c r="N55" t="s">
-        <v>10</v>
-      </c>
-      <c r="O55" t="s">
-        <v>204</v>
-      </c>
       <c r="P55" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q55" s="2">
         <v>45414</v>
@@ -5275,16 +5500,16 @@
         <v>45415</v>
       </c>
       <c r="S55" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="T55" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="U55" t="s">
+        <v>197</v>
+      </c>
+      <c r="V55" t="s">
         <v>201</v>
-      </c>
-      <c r="V55" t="s">
-        <v>206</v>
       </c>
       <c r="W55" t="s">
         <v>14</v>
@@ -5298,25 +5523,25 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D56" s="2">
         <v>45414</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="G56" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
         <v>5</v>
@@ -5325,10 +5550,10 @@
         <v>6</v>
       </c>
       <c r="K56" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L56" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M56" t="s">
         <v>9</v>
@@ -5337,28 +5562,28 @@
         <v>10</v>
       </c>
       <c r="O56" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P56" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q56" s="2">
         <v>45414</v>
       </c>
       <c r="R56" s="2">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="S56" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="T56" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="U56" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="V56" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="W56" t="s">
         <v>14</v>
@@ -5381,58 +5606,58 @@
         <v>45414</v>
       </c>
       <c r="E57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" t="s">
         <v>211</v>
       </c>
-      <c r="F57" t="s">
+      <c r="L57" t="s">
         <v>212</v>
       </c>
-      <c r="G57" s="3">
-        <v>6</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
-      <c r="I57" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" t="s">
-        <v>6</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="M57" t="s">
+        <v>9</v>
+      </c>
+      <c r="N57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" t="s">
         <v>213</v>
       </c>
-      <c r="L57" t="s">
-        <v>214</v>
-      </c>
-      <c r="M57" t="s">
-        <v>9</v>
-      </c>
-      <c r="N57" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" t="s">
-        <v>215</v>
-      </c>
       <c r="P57" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q57" s="2">
         <v>45414</v>
       </c>
       <c r="R57" s="2">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="S57" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="T57" t="s">
+        <v>214</v>
+      </c>
+      <c r="U57" t="s">
+        <v>215</v>
+      </c>
+      <c r="V57" t="s">
         <v>216</v>
-      </c>
-      <c r="U57" t="s">
-        <v>210</v>
-      </c>
-      <c r="V57" t="s">
-        <v>217</v>
       </c>
       <c r="W57" t="s">
         <v>14</v>
@@ -5446,25 +5671,25 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" t="s">
         <v>218</v>
-      </c>
-      <c r="C58" t="s">
-        <v>219</v>
       </c>
       <c r="D58" s="2">
         <v>45414</v>
       </c>
       <c r="E58" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G58" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H58" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
@@ -5473,40 +5698,40 @@
         <v>6</v>
       </c>
       <c r="K58" t="s">
+        <v>219</v>
+      </c>
+      <c r="L58" t="s">
         <v>220</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
+        <v>9</v>
+      </c>
+      <c r="N58" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" t="s">
         <v>221</v>
       </c>
-      <c r="M58" t="s">
-        <v>9</v>
-      </c>
-      <c r="N58" t="s">
-        <v>10</v>
-      </c>
-      <c r="O58" t="s">
-        <v>222</v>
-      </c>
       <c r="P58" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q58" s="2">
         <v>45414</v>
       </c>
       <c r="R58" s="2">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="S58" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="T58" t="s">
+        <v>219</v>
+      </c>
+      <c r="U58" t="s">
+        <v>218</v>
+      </c>
+      <c r="V58" t="s">
         <v>220</v>
-      </c>
-      <c r="U58" t="s">
-        <v>219</v>
-      </c>
-      <c r="V58" t="s">
-        <v>221</v>
       </c>
       <c r="W58" t="s">
         <v>14</v>
@@ -5520,25 +5745,25 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" t="s">
         <v>218</v>
-      </c>
-      <c r="C59" t="s">
-        <v>219</v>
       </c>
       <c r="D59" s="2">
         <v>45414</v>
       </c>
       <c r="E59" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="G59" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
@@ -5547,40 +5772,40 @@
         <v>6</v>
       </c>
       <c r="K59" t="s">
+        <v>219</v>
+      </c>
+      <c r="L59" t="s">
         <v>220</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" t="s">
         <v>221</v>
       </c>
-      <c r="M59" t="s">
-        <v>9</v>
-      </c>
-      <c r="N59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O59" t="s">
-        <v>222</v>
-      </c>
       <c r="P59" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q59" s="2">
         <v>45414</v>
       </c>
       <c r="R59" s="2">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="S59" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="T59" t="s">
+        <v>219</v>
+      </c>
+      <c r="U59" t="s">
+        <v>218</v>
+      </c>
+      <c r="V59" t="s">
         <v>220</v>
-      </c>
-      <c r="U59" t="s">
-        <v>219</v>
-      </c>
-      <c r="V59" t="s">
-        <v>221</v>
       </c>
       <c r="W59" t="s">
         <v>14</v>
@@ -5594,25 +5819,25 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D60" s="2">
         <v>45414</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="G60" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" s="3">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="I60" t="s">
         <v>5</v>
@@ -5621,10 +5846,10 @@
         <v>6</v>
       </c>
       <c r="K60" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="L60" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M60" t="s">
         <v>9</v>
@@ -5633,10 +5858,10 @@
         <v>10</v>
       </c>
       <c r="O60" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="P60" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q60" s="2">
         <v>45414</v>
@@ -5645,16 +5870,16 @@
         <v>45415</v>
       </c>
       <c r="S60" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="T60" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="U60" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="V60" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="W60" t="s">
         <v>14</v>
@@ -5668,25 +5893,25 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C61" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D61" s="2">
         <v>45414</v>
       </c>
       <c r="E61" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="G61" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H61" s="3">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
@@ -5695,22 +5920,22 @@
         <v>6</v>
       </c>
       <c r="K61" t="s">
+        <v>226</v>
+      </c>
+      <c r="L61" t="s">
+        <v>227</v>
+      </c>
+      <c r="M61" t="s">
+        <v>9</v>
+      </c>
+      <c r="N61" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" t="s">
         <v>228</v>
       </c>
-      <c r="L61" t="s">
-        <v>229</v>
-      </c>
-      <c r="M61" t="s">
-        <v>9</v>
-      </c>
-      <c r="N61" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" t="s">
-        <v>230</v>
-      </c>
       <c r="P61" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q61" s="2">
         <v>45414</v>
@@ -5719,16 +5944,16 @@
         <v>45415</v>
       </c>
       <c r="S61" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="T61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U61" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V61" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="W61" t="s">
         <v>14</v>
@@ -5742,25 +5967,25 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D62" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E62" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="G62" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5769,40 +5994,40 @@
         <v>6</v>
       </c>
       <c r="K62" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="L62" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M62" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="N62" t="s">
         <v>10</v>
       </c>
       <c r="O62" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="P62" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="Q62" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R62" s="2">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="S62" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T62" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="U62" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="V62" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="W62" t="s">
         <v>14</v>
@@ -5816,25 +6041,25 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D63" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G63" s="3">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="H63" s="3">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
@@ -5843,10 +6068,10 @@
         <v>6</v>
       </c>
       <c r="K63" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="L63" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="M63" t="s">
         <v>9</v>
@@ -5855,28 +6080,28 @@
         <v>10</v>
       </c>
       <c r="O63" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="P63" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q63" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R63" s="2">
-        <v>45415</v>
+        <v>45421</v>
       </c>
       <c r="S63" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="T63" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="U63" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="V63" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="W63" t="s">
         <v>14</v>
@@ -5890,25 +6115,25 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C64" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D64" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F64" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G64" s="3">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H64" s="3">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
@@ -5917,10 +6142,10 @@
         <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="L64" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="M64" t="s">
         <v>9</v>
@@ -5929,28 +6154,28 @@
         <v>10</v>
       </c>
       <c r="O64" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="P64" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q64" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R64" s="2">
-        <v>45415</v>
+        <v>45421</v>
       </c>
       <c r="S64" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="T64" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="U64" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="V64" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="W64" t="s">
         <v>14</v>
@@ -5964,25 +6189,25 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D65" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E65" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="G65" s="3">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H65" s="3">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
@@ -5991,10 +6216,10 @@
         <v>6</v>
       </c>
       <c r="K65" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="L65" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="M65" t="s">
         <v>9</v>
@@ -6003,28 +6228,28 @@
         <v>10</v>
       </c>
       <c r="O65" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="P65" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q65" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R65" s="2">
-        <v>45415</v>
+        <v>45421</v>
       </c>
       <c r="S65" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="T65" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="U65" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="V65" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="W65" t="s">
         <v>14</v>
@@ -6038,25 +6263,25 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D66" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E66" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="F66" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="G66" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H66" s="3">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
@@ -6065,10 +6290,10 @@
         <v>6</v>
       </c>
       <c r="K66" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="L66" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="M66" t="s">
         <v>9</v>
@@ -6077,28 +6302,28 @@
         <v>10</v>
       </c>
       <c r="O66" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="P66" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q66" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R66" s="2">
-        <v>45415</v>
+        <v>45421</v>
       </c>
       <c r="S66" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="T66" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="U66" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="V66" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="W66" t="s">
         <v>14</v>
@@ -6112,25 +6337,25 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="D67" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E67" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="F67" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" s="3">
         <v>4</v>
       </c>
-      <c r="G67" s="3">
-        <v>30</v>
-      </c>
       <c r="H67" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I67" t="s">
         <v>5</v>
@@ -6139,10 +6364,10 @@
         <v>6</v>
       </c>
       <c r="K67" t="s">
-        <v>127</v>
+        <v>244</v>
       </c>
       <c r="L67" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M67" t="s">
         <v>9</v>
@@ -6151,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="O67" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="P67" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q67" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R67" s="2">
-        <v>45415</v>
+        <v>45421</v>
       </c>
       <c r="S67" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="T67" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="U67" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="V67" t="s">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="W67" t="s">
         <v>14</v>
@@ -6186,25 +6411,25 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C68" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D68" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E68" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="G68" s="3">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H68" s="3">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I68" t="s">
         <v>5</v>
@@ -6213,10 +6438,10 @@
         <v>6</v>
       </c>
       <c r="K68" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="L68" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="M68" t="s">
         <v>9</v>
@@ -6225,28 +6450,28 @@
         <v>10</v>
       </c>
       <c r="O68" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="P68" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q68" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R68" s="2">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="S68" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="T68" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="U68" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="V68" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="W68" t="s">
         <v>14</v>
@@ -6260,19 +6485,19 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C69" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D69" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E69" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="F69" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="G69" s="3">
         <v>5</v>
@@ -6287,10 +6512,10 @@
         <v>6</v>
       </c>
       <c r="K69" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="L69" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="M69" t="s">
         <v>9</v>
@@ -6299,28 +6524,28 @@
         <v>10</v>
       </c>
       <c r="O69" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="P69" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q69" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R69" s="2">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="S69" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="T69" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="U69" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="V69" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="W69" t="s">
         <v>14</v>
@@ -6334,19 +6559,19 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D70" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E70" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="F70" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
@@ -6361,10 +6586,10 @@
         <v>6</v>
       </c>
       <c r="K70" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="L70" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="M70" t="s">
         <v>9</v>
@@ -6373,28 +6598,28 @@
         <v>10</v>
       </c>
       <c r="O70" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="P70" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q70" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R70" s="2">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="S70" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="T70" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="U70" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="V70" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="W70" t="s">
         <v>14</v>
@@ -6408,25 +6633,25 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D71" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E71" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="F71" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="G71" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" s="3">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I71" t="s">
         <v>5</v>
@@ -6435,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="K71" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L71" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M71" t="s">
         <v>9</v>
@@ -6447,28 +6672,28 @@
         <v>10</v>
       </c>
       <c r="O71" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P71" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q71" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R71" s="2">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="S71" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="T71" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="U71" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="V71" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="W71" t="s">
         <v>14</v>
@@ -6482,25 +6707,25 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D72" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E72" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="F72" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="G72" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H72" s="3">
-        <v>20</v>
+        <v>1250</v>
       </c>
       <c r="I72" t="s">
         <v>5</v>
@@ -6509,10 +6734,10 @@
         <v>6</v>
       </c>
       <c r="K72" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="L72" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="M72" t="s">
         <v>9</v>
@@ -6521,28 +6746,28 @@
         <v>10</v>
       </c>
       <c r="O72" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="P72" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q72" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R72" s="2">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="S72" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T72" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="V72" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="W72" t="s">
         <v>14</v>
@@ -6556,25 +6781,25 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="C73" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="D73" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="F73" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
       </c>
       <c r="H73" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
         <v>5</v>
@@ -6583,10 +6808,10 @@
         <v>6</v>
       </c>
       <c r="K73" t="s">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="L73" t="s">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="M73" t="s">
         <v>9</v>
@@ -6595,28 +6820,28 @@
         <v>10</v>
       </c>
       <c r="O73" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="P73" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q73" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R73" s="2">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="S73" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T73" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="U73" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="V73" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="W73" t="s">
         <v>14</v>
@@ -6630,25 +6855,25 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="D74" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E74" t="s">
-        <v>252</v>
+        <v>111</v>
       </c>
       <c r="F74" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="G74" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H74" s="3">
-        <v>20</v>
+        <v>1250</v>
       </c>
       <c r="I74" t="s">
         <v>5</v>
@@ -6657,10 +6882,10 @@
         <v>6</v>
       </c>
       <c r="K74" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="L74" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="M74" t="s">
         <v>9</v>
@@ -6669,28 +6894,28 @@
         <v>10</v>
       </c>
       <c r="O74" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q74" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R74" s="2">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="S74" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T74" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="W74" t="s">
         <v>14</v>
@@ -6704,25 +6929,25 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C75" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="D75" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="F75" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="G75" s="3">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H75" s="3">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="I75" t="s">
         <v>5</v>
@@ -6731,10 +6956,10 @@
         <v>6</v>
       </c>
       <c r="K75" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="L75" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="M75" t="s">
         <v>9</v>
@@ -6743,28 +6968,28 @@
         <v>10</v>
       </c>
       <c r="O75" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="P75" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q75" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R75" s="2">
         <v>45418</v>
       </c>
       <c r="S75" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="T75" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="U75" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="V75" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="W75" t="s">
         <v>14</v>
@@ -6778,25 +7003,25 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C76" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="D76" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E76" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G76" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H76" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="I76" t="s">
         <v>5</v>
@@ -6805,10 +7030,10 @@
         <v>6</v>
       </c>
       <c r="K76" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="L76" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="M76" t="s">
         <v>9</v>
@@ -6817,28 +7042,28 @@
         <v>10</v>
       </c>
       <c r="O76" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="P76" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q76" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R76" s="2">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="S76" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T76" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="V76" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="W76" t="s">
         <v>14</v>
@@ -6852,25 +7077,25 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="D77" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E77" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G77" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H77" s="3">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I77" t="s">
         <v>5</v>
@@ -6879,10 +7104,10 @@
         <v>6</v>
       </c>
       <c r="K77" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="L77" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M77" t="s">
         <v>9</v>
@@ -6891,28 +7116,28 @@
         <v>10</v>
       </c>
       <c r="O77" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="P77" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q77" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R77" s="2">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="S77" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="T77" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="U77" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="V77" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="W77" t="s">
         <v>14</v>
@@ -6926,25 +7151,25 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="D78" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="F78" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="G78" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I78" t="s">
         <v>5</v>
@@ -6953,10 +7178,10 @@
         <v>6</v>
       </c>
       <c r="K78" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="L78" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M78" t="s">
         <v>9</v>
@@ -6965,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="O78" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="P78" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q78" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R78" s="2">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="S78" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="T78" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="U78" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="V78" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="W78" t="s">
         <v>14</v>
@@ -7000,25 +7225,25 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="C79" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="D79" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E79" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="F79" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="G79" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H79" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I79" t="s">
         <v>5</v>
@@ -7027,10 +7252,10 @@
         <v>6</v>
       </c>
       <c r="K79" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="L79" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="M79" t="s">
         <v>9</v>
@@ -7039,28 +7264,28 @@
         <v>10</v>
       </c>
       <c r="O79" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="P79" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q79" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R79" s="2">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="S79" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="T79" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="U79" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="V79" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="W79" t="s">
         <v>14</v>
@@ -7074,25 +7299,25 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="D80" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="E80" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F80" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G80" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H80" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
         <v>5</v>
@@ -7101,10 +7326,10 @@
         <v>6</v>
       </c>
       <c r="K80" t="s">
-        <v>112</v>
+        <v>297</v>
       </c>
       <c r="L80" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="M80" t="s">
         <v>9</v>
@@ -7113,28 +7338,28 @@
         <v>10</v>
       </c>
       <c r="O80" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="P80" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q80" s="2">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R80" s="2">
         <v>45418</v>
       </c>
       <c r="S80" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="T80" t="s">
-        <v>115</v>
+        <v>297</v>
       </c>
       <c r="U80" t="s">
-        <v>116</v>
+        <v>296</v>
       </c>
       <c r="V80" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="W80" t="s">
         <v>14</v>
@@ -7148,25 +7373,25 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="D81" s="2">
-        <v>45506</v>
+        <v>45415</v>
       </c>
       <c r="E81" t="s">
-        <v>278</v>
+        <v>115</v>
       </c>
       <c r="F81" t="s">
-        <v>279</v>
+        <v>116</v>
       </c>
       <c r="G81" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H81" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I81" t="s">
         <v>5</v>
@@ -7175,10 +7400,10 @@
         <v>6</v>
       </c>
       <c r="K81" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="L81" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="M81" t="s">
         <v>9</v>
@@ -7187,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="O81" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="P81" t="s">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="Q81" s="2">
-        <v>45506</v>
+        <v>45415</v>
       </c>
       <c r="R81" s="2">
-        <v>45507</v>
+        <v>45418</v>
       </c>
       <c r="S81" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="T81" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="U81" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="V81" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="W81" t="s">
         <v>14</v>
@@ -7222,25 +7447,25 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="C82" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="D82" s="2">
-        <v>45506</v>
+        <v>45415</v>
       </c>
       <c r="E82" t="s">
-        <v>286</v>
+        <v>121</v>
       </c>
       <c r="F82" t="s">
-        <v>287</v>
+        <v>122</v>
       </c>
       <c r="G82" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H82" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I82" t="s">
         <v>5</v>
@@ -7249,10 +7474,10 @@
         <v>6</v>
       </c>
       <c r="K82" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="L82" t="s">
-        <v>281</v>
+        <v>126</v>
       </c>
       <c r="M82" t="s">
         <v>9</v>
@@ -7261,28 +7486,28 @@
         <v>10</v>
       </c>
       <c r="O82" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="P82" t="s">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="Q82" s="2">
-        <v>45506</v>
+        <v>45415</v>
       </c>
       <c r="R82" s="2">
-        <v>45507</v>
+        <v>45418</v>
       </c>
       <c r="S82" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="T82" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="U82" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V82" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="W82" t="s">
         <v>14</v>
@@ -7296,37 +7521,37 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="D83" s="2">
-        <v>45506</v>
+        <v>45415</v>
       </c>
       <c r="E83" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="F83" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="G83" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H83" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I83" t="s">
         <v>5</v>
       </c>
       <c r="J83" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="K83" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="L83" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="M83" t="s">
         <v>9</v>
@@ -7335,28 +7560,28 @@
         <v>10</v>
       </c>
       <c r="O83" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="P83" t="s">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="Q83" s="2">
-        <v>45506</v>
+        <v>45415</v>
       </c>
       <c r="R83" s="2">
-        <v>45507</v>
+        <v>45418</v>
       </c>
       <c r="S83" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="T83" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="U83" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="V83" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="W83" t="s">
         <v>14</v>
@@ -7367,70 +7592,70 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="C84" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="D84" s="2">
-        <v>45308</v>
+        <v>45421</v>
       </c>
       <c r="E84" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="F84" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="G84" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H84" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I84" t="s">
         <v>5</v>
       </c>
       <c r="J84" t="s">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="K84" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="L84" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="M84" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="N84" t="s">
         <v>10</v>
       </c>
       <c r="O84" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="P84" t="s">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="Q84" s="2">
-        <v>45308</v>
+        <v>45421</v>
       </c>
       <c r="R84" s="2">
-        <v>45309</v>
+        <v>45422</v>
       </c>
       <c r="S84" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="T84" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="U84" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="V84" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="W84" t="s">
         <v>14</v>
@@ -7441,70 +7666,70 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="C85" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="D85" s="2">
-        <v>45308</v>
+        <v>45421</v>
       </c>
       <c r="E85" t="s">
-        <v>293</v>
+        <v>121</v>
       </c>
       <c r="F85" t="s">
-        <v>294</v>
+        <v>122</v>
       </c>
       <c r="G85" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H85" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
         <v>5</v>
       </c>
       <c r="J85" t="s">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="K85" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="L85" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="M85" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="N85" t="s">
         <v>10</v>
       </c>
       <c r="O85" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="P85" t="s">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="Q85" s="2">
-        <v>45308</v>
+        <v>45421</v>
       </c>
       <c r="R85" s="2">
-        <v>45309</v>
+        <v>45422</v>
       </c>
       <c r="S85" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="T85" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="U85" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="V85" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="W85" t="s">
         <v>14</v>
@@ -7515,70 +7740,70 @@
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="C86" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D86" s="2">
-        <v>45308</v>
+        <v>45421</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="F86" t="s">
-        <v>294</v>
+        <v>116</v>
       </c>
       <c r="G86" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H86" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86" t="s">
         <v>5</v>
       </c>
       <c r="J86" t="s">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="K86" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="L86" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="M86" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="N86" t="s">
         <v>10</v>
       </c>
       <c r="O86" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="P86" t="s">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="Q86" s="2">
-        <v>45308</v>
+        <v>45421</v>
       </c>
       <c r="R86" s="2">
-        <v>45309</v>
+        <v>45422</v>
       </c>
       <c r="S86" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="T86" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="U86" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="V86" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="W86" t="s">
         <v>14</v>
@@ -7589,40 +7814,40 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C87" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="D87" s="2">
-        <v>45413</v>
+        <v>45421</v>
       </c>
       <c r="E87" t="s">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="F87" t="s">
-        <v>314</v>
+        <v>84</v>
       </c>
       <c r="G87" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H87" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
         <v>5</v>
       </c>
       <c r="J87" t="s">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="K87" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="L87" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="M87" t="s">
         <v>9</v>
@@ -7631,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="O87" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="P87" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q87" s="2">
-        <v>45413</v>
+        <v>45421</v>
       </c>
       <c r="R87" s="2">
-        <v>45413</v>
+        <v>45422</v>
       </c>
       <c r="S87" t="s">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="T87" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="U87" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="V87" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="W87" t="s">
         <v>14</v>
@@ -7663,40 +7888,40 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C88" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="D88" s="2">
-        <v>45413</v>
+        <v>45421</v>
       </c>
       <c r="E88" t="s">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="F88" t="s">
-        <v>319</v>
+        <v>132</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
       </c>
       <c r="H88" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I88" t="s">
         <v>5</v>
       </c>
       <c r="J88" t="s">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="K88" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="L88" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="M88" t="s">
         <v>9</v>
@@ -7705,28 +7930,28 @@
         <v>10</v>
       </c>
       <c r="O88" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="P88" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q88" s="2">
-        <v>45413</v>
+        <v>45421</v>
       </c>
       <c r="R88" s="2">
-        <v>45413</v>
+        <v>45422</v>
       </c>
       <c r="S88" t="s">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="T88" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="U88" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="V88" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="W88" t="s">
         <v>14</v>
@@ -7737,40 +7962,40 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="C89" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="D89" s="2">
-        <v>45413</v>
+        <v>45421</v>
       </c>
       <c r="E89" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="F89" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="G89" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H89" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I89" t="s">
         <v>5</v>
       </c>
       <c r="J89" t="s">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="K89" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="L89" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="M89" t="s">
         <v>9</v>
@@ -7779,28 +8004,28 @@
         <v>10</v>
       </c>
       <c r="O89" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="P89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q89" s="2">
-        <v>45413</v>
+        <v>45421</v>
       </c>
       <c r="R89" s="2">
-        <v>45413</v>
+        <v>45422</v>
       </c>
       <c r="S89" t="s">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="T89" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="U89" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="V89" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="W89" t="s">
         <v>14</v>
@@ -7811,22 +8036,22 @@
     </row>
     <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="C90" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="D90" s="2">
-        <v>45413</v>
+        <v>45506</v>
       </c>
       <c r="E90" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F90" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -7838,13 +8063,13 @@
         <v>5</v>
       </c>
       <c r="J90" t="s">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="K90" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="L90" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="M90" t="s">
         <v>9</v>
@@ -7853,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="O90" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="P90" t="s">
-        <v>53</v>
+        <v>347</v>
       </c>
       <c r="Q90" s="2">
-        <v>45413</v>
+        <v>45506</v>
       </c>
       <c r="R90" s="2">
-        <v>45413</v>
+        <v>45507</v>
       </c>
       <c r="S90" t="s">
         <v>22</v>
       </c>
       <c r="T90" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="U90" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="W90" t="s">
         <v>14</v>
@@ -7885,22 +8110,22 @@
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C91" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="D91" s="2">
-        <v>45415</v>
+        <v>45506</v>
       </c>
       <c r="E91" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="F91" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="G91" s="3">
         <v>2</v>
@@ -7912,43 +8137,43 @@
         <v>5</v>
       </c>
       <c r="J91" t="s">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="K91" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="L91" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="M91" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="N91" t="s">
         <v>10</v>
       </c>
       <c r="O91" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="P91" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="Q91" s="2">
-        <v>45415</v>
+        <v>45506</v>
       </c>
       <c r="R91" s="2">
-        <v>45418</v>
+        <v>45507</v>
       </c>
       <c r="S91" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="T91" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="U91" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="V91" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="W91" t="s">
         <v>14</v>
@@ -7959,22 +8184,22 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C92" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="D92" s="2">
-        <v>45468</v>
+        <v>45506</v>
       </c>
       <c r="E92" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F92" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -7986,13 +8211,13 @@
         <v>5</v>
       </c>
       <c r="J92" t="s">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="K92" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="L92" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="M92" t="s">
         <v>9</v>
@@ -8001,33 +8226,1069 @@
         <v>10</v>
       </c>
       <c r="O92" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="P92" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="Q92" s="2">
-        <v>45468</v>
+        <v>45506</v>
       </c>
       <c r="R92" s="2">
-        <v>45468</v>
+        <v>45507</v>
       </c>
       <c r="S92" t="s">
         <v>22</v>
       </c>
       <c r="T92" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="U92" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="V92" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="W92" t="s">
         <v>14</v>
       </c>
       <c r="X92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
+      <c r="A93" t="s">
+        <v>354</v>
+      </c>
+      <c r="B93" t="s">
+        <v>355</v>
+      </c>
+      <c r="C93" t="s">
+        <v>356</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E93" t="s">
+        <v>357</v>
+      </c>
+      <c r="F93" t="s">
+        <v>358</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93" t="s">
+        <v>359</v>
+      </c>
+      <c r="K93" t="s">
+        <v>235</v>
+      </c>
+      <c r="L93" t="s">
+        <v>360</v>
+      </c>
+      <c r="M93" t="s">
+        <v>237</v>
+      </c>
+      <c r="N93" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93" t="s">
+        <v>361</v>
+      </c>
+      <c r="P93" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R93" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S93" t="s">
+        <v>74</v>
+      </c>
+      <c r="T93" t="s">
+        <v>235</v>
+      </c>
+      <c r="U93" t="s">
+        <v>240</v>
+      </c>
+      <c r="V93" t="s">
+        <v>241</v>
+      </c>
+      <c r="W93" t="s">
+        <v>14</v>
+      </c>
+      <c r="X93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
+      <c r="A94" t="s">
+        <v>354</v>
+      </c>
+      <c r="B94" t="s">
+        <v>362</v>
+      </c>
+      <c r="C94" t="s">
+        <v>363</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E94" t="s">
+        <v>357</v>
+      </c>
+      <c r="F94" t="s">
+        <v>358</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" t="s">
+        <v>359</v>
+      </c>
+      <c r="K94" t="s">
+        <v>235</v>
+      </c>
+      <c r="L94" t="s">
+        <v>364</v>
+      </c>
+      <c r="M94" t="s">
+        <v>237</v>
+      </c>
+      <c r="N94" t="s">
+        <v>10</v>
+      </c>
+      <c r="O94" t="s">
+        <v>365</v>
+      </c>
+      <c r="P94" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R94" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S94" t="s">
+        <v>74</v>
+      </c>
+      <c r="T94" t="s">
+        <v>235</v>
+      </c>
+      <c r="U94" t="s">
+        <v>240</v>
+      </c>
+      <c r="V94" t="s">
+        <v>241</v>
+      </c>
+      <c r="W94" t="s">
+        <v>14</v>
+      </c>
+      <c r="X94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
+      <c r="A95" t="s">
+        <v>354</v>
+      </c>
+      <c r="B95" t="s">
+        <v>366</v>
+      </c>
+      <c r="C95" t="s">
+        <v>367</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E95" t="s">
+        <v>357</v>
+      </c>
+      <c r="F95" t="s">
+        <v>358</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95" t="s">
+        <v>359</v>
+      </c>
+      <c r="K95" t="s">
+        <v>235</v>
+      </c>
+      <c r="L95" t="s">
+        <v>368</v>
+      </c>
+      <c r="M95" t="s">
+        <v>237</v>
+      </c>
+      <c r="N95" t="s">
+        <v>10</v>
+      </c>
+      <c r="O95" t="s">
+        <v>369</v>
+      </c>
+      <c r="P95" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>45308</v>
+      </c>
+      <c r="R95" s="2">
+        <v>45309</v>
+      </c>
+      <c r="S95" t="s">
+        <v>74</v>
+      </c>
+      <c r="T95" t="s">
+        <v>235</v>
+      </c>
+      <c r="U95" t="s">
+        <v>240</v>
+      </c>
+      <c r="V95" t="s">
+        <v>241</v>
+      </c>
+      <c r="W95" t="s">
+        <v>14</v>
+      </c>
+      <c r="X95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
+      <c r="A96" t="s">
+        <v>354</v>
+      </c>
+      <c r="B96" t="s">
+        <v>370</v>
+      </c>
+      <c r="C96" t="s">
+        <v>371</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E96" t="s">
+        <v>372</v>
+      </c>
+      <c r="F96" t="s">
+        <v>373</v>
+      </c>
+      <c r="G96" s="3">
+        <v>4</v>
+      </c>
+      <c r="H96" s="3">
+        <v>4</v>
+      </c>
+      <c r="I96" t="s">
+        <v>5</v>
+      </c>
+      <c r="J96" t="s">
+        <v>359</v>
+      </c>
+      <c r="K96" t="s">
+        <v>374</v>
+      </c>
+      <c r="L96" t="s">
+        <v>331</v>
+      </c>
+      <c r="M96" t="s">
+        <v>9</v>
+      </c>
+      <c r="N96" t="s">
+        <v>10</v>
+      </c>
+      <c r="O96" t="s">
+        <v>375</v>
+      </c>
+      <c r="P96" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R96" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S96" t="s">
+        <v>22</v>
+      </c>
+      <c r="T96" t="s">
+        <v>374</v>
+      </c>
+      <c r="U96" t="s">
+        <v>371</v>
+      </c>
+      <c r="V96" t="s">
+        <v>331</v>
+      </c>
+      <c r="W96" t="s">
+        <v>14</v>
+      </c>
+      <c r="X96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
+      <c r="A97" t="s">
+        <v>354</v>
+      </c>
+      <c r="B97" t="s">
+        <v>370</v>
+      </c>
+      <c r="C97" t="s">
+        <v>371</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E97" t="s">
+        <v>377</v>
+      </c>
+      <c r="F97" t="s">
+        <v>378</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1</v>
+      </c>
+      <c r="H97" s="3">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97" t="s">
+        <v>359</v>
+      </c>
+      <c r="K97" t="s">
+        <v>374</v>
+      </c>
+      <c r="L97" t="s">
+        <v>331</v>
+      </c>
+      <c r="M97" t="s">
+        <v>9</v>
+      </c>
+      <c r="N97" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" t="s">
+        <v>375</v>
+      </c>
+      <c r="P97" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R97" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S97" t="s">
+        <v>22</v>
+      </c>
+      <c r="T97" t="s">
+        <v>374</v>
+      </c>
+      <c r="U97" t="s">
+        <v>371</v>
+      </c>
+      <c r="V97" t="s">
+        <v>331</v>
+      </c>
+      <c r="W97" t="s">
+        <v>14</v>
+      </c>
+      <c r="X97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
+      <c r="A98" t="s">
+        <v>354</v>
+      </c>
+      <c r="B98" t="s">
+        <v>370</v>
+      </c>
+      <c r="C98" t="s">
+        <v>371</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E98" t="s">
+        <v>379</v>
+      </c>
+      <c r="F98" t="s">
+        <v>380</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
+      <c r="H98" s="3">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" t="s">
+        <v>359</v>
+      </c>
+      <c r="K98" t="s">
+        <v>374</v>
+      </c>
+      <c r="L98" t="s">
+        <v>331</v>
+      </c>
+      <c r="M98" t="s">
+        <v>9</v>
+      </c>
+      <c r="N98" t="s">
+        <v>10</v>
+      </c>
+      <c r="O98" t="s">
+        <v>375</v>
+      </c>
+      <c r="P98" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R98" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S98" t="s">
+        <v>22</v>
+      </c>
+      <c r="T98" t="s">
+        <v>374</v>
+      </c>
+      <c r="U98" t="s">
+        <v>371</v>
+      </c>
+      <c r="V98" t="s">
+        <v>331</v>
+      </c>
+      <c r="W98" t="s">
+        <v>14</v>
+      </c>
+      <c r="X98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
+      <c r="A99" t="s">
+        <v>354</v>
+      </c>
+      <c r="B99" t="s">
+        <v>370</v>
+      </c>
+      <c r="C99" t="s">
+        <v>371</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E99" t="s">
+        <v>381</v>
+      </c>
+      <c r="F99" t="s">
+        <v>382</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>5</v>
+      </c>
+      <c r="J99" t="s">
+        <v>359</v>
+      </c>
+      <c r="K99" t="s">
+        <v>374</v>
+      </c>
+      <c r="L99" t="s">
+        <v>331</v>
+      </c>
+      <c r="M99" t="s">
+        <v>9</v>
+      </c>
+      <c r="N99" t="s">
+        <v>10</v>
+      </c>
+      <c r="O99" t="s">
+        <v>375</v>
+      </c>
+      <c r="P99" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>45413</v>
+      </c>
+      <c r="R99" s="2">
+        <v>45413</v>
+      </c>
+      <c r="S99" t="s">
+        <v>22</v>
+      </c>
+      <c r="T99" t="s">
+        <v>374</v>
+      </c>
+      <c r="U99" t="s">
+        <v>371</v>
+      </c>
+      <c r="V99" t="s">
+        <v>331</v>
+      </c>
+      <c r="W99" t="s">
+        <v>14</v>
+      </c>
+      <c r="X99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
+      <c r="A100" t="s">
+        <v>354</v>
+      </c>
+      <c r="B100" t="s">
+        <v>383</v>
+      </c>
+      <c r="C100" t="s">
+        <v>384</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45415</v>
+      </c>
+      <c r="E100" t="s">
+        <v>385</v>
+      </c>
+      <c r="F100" t="s">
+        <v>386</v>
+      </c>
+      <c r="G100" s="3">
+        <v>2</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" t="s">
+        <v>359</v>
+      </c>
+      <c r="K100" t="s">
+        <v>235</v>
+      </c>
+      <c r="L100" t="s">
+        <v>387</v>
+      </c>
+      <c r="M100" t="s">
+        <v>237</v>
+      </c>
+      <c r="N100" t="s">
+        <v>10</v>
+      </c>
+      <c r="O100" t="s">
+        <v>388</v>
+      </c>
+      <c r="P100" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>45415</v>
+      </c>
+      <c r="R100" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S100" t="s">
+        <v>74</v>
+      </c>
+      <c r="T100" t="s">
+        <v>235</v>
+      </c>
+      <c r="U100" t="s">
+        <v>240</v>
+      </c>
+      <c r="V100" t="s">
+        <v>241</v>
+      </c>
+      <c r="W100" t="s">
+        <v>14</v>
+      </c>
+      <c r="X100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
+      <c r="A101" t="s">
+        <v>354</v>
+      </c>
+      <c r="B101" t="s">
+        <v>389</v>
+      </c>
+      <c r="C101" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45415</v>
+      </c>
+      <c r="E101" t="s">
+        <v>390</v>
+      </c>
+      <c r="F101" t="s">
+        <v>391</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" t="s">
+        <v>359</v>
+      </c>
+      <c r="K101" t="s">
+        <v>235</v>
+      </c>
+      <c r="L101" t="s">
+        <v>236</v>
+      </c>
+      <c r="M101" t="s">
+        <v>237</v>
+      </c>
+      <c r="N101" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" t="s">
+        <v>392</v>
+      </c>
+      <c r="P101" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>45415</v>
+      </c>
+      <c r="R101" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S101" t="s">
+        <v>74</v>
+      </c>
+      <c r="T101" t="s">
+        <v>235</v>
+      </c>
+      <c r="U101" t="s">
+        <v>240</v>
+      </c>
+      <c r="V101" t="s">
+        <v>241</v>
+      </c>
+      <c r="W101" t="s">
+        <v>14</v>
+      </c>
+      <c r="X101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
+      <c r="A102" t="s">
+        <v>354</v>
+      </c>
+      <c r="B102" t="s">
+        <v>393</v>
+      </c>
+      <c r="C102" t="s">
+        <v>394</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45415</v>
+      </c>
+      <c r="E102" t="s">
+        <v>395</v>
+      </c>
+      <c r="F102" t="s">
+        <v>396</v>
+      </c>
+      <c r="G102" s="3">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>5</v>
+      </c>
+      <c r="I102" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" t="s">
+        <v>359</v>
+      </c>
+      <c r="K102" t="s">
+        <v>235</v>
+      </c>
+      <c r="L102" t="s">
+        <v>397</v>
+      </c>
+      <c r="M102" t="s">
+        <v>237</v>
+      </c>
+      <c r="N102" t="s">
+        <v>10</v>
+      </c>
+      <c r="O102" t="s">
+        <v>398</v>
+      </c>
+      <c r="P102" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>45415</v>
+      </c>
+      <c r="R102" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S102" t="s">
+        <v>74</v>
+      </c>
+      <c r="T102" t="s">
+        <v>235</v>
+      </c>
+      <c r="U102" t="s">
+        <v>240</v>
+      </c>
+      <c r="V102" t="s">
+        <v>241</v>
+      </c>
+      <c r="W102" t="s">
+        <v>14</v>
+      </c>
+      <c r="X102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
+      <c r="A103" t="s">
+        <v>354</v>
+      </c>
+      <c r="B103" t="s">
+        <v>393</v>
+      </c>
+      <c r="C103" t="s">
+        <v>394</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45415</v>
+      </c>
+      <c r="E103" t="s">
+        <v>399</v>
+      </c>
+      <c r="F103" t="s">
+        <v>400</v>
+      </c>
+      <c r="G103" s="3">
+        <v>10</v>
+      </c>
+      <c r="H103" s="3">
+        <v>10</v>
+      </c>
+      <c r="I103" t="s">
+        <v>5</v>
+      </c>
+      <c r="J103" t="s">
+        <v>359</v>
+      </c>
+      <c r="K103" t="s">
+        <v>235</v>
+      </c>
+      <c r="L103" t="s">
+        <v>397</v>
+      </c>
+      <c r="M103" t="s">
+        <v>237</v>
+      </c>
+      <c r="N103" t="s">
+        <v>10</v>
+      </c>
+      <c r="O103" t="s">
+        <v>398</v>
+      </c>
+      <c r="P103" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>45415</v>
+      </c>
+      <c r="R103" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S103" t="s">
+        <v>74</v>
+      </c>
+      <c r="T103" t="s">
+        <v>235</v>
+      </c>
+      <c r="U103" t="s">
+        <v>240</v>
+      </c>
+      <c r="V103" t="s">
+        <v>241</v>
+      </c>
+      <c r="W103" t="s">
+        <v>14</v>
+      </c>
+      <c r="X103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
+      <c r="A104" t="s">
+        <v>354</v>
+      </c>
+      <c r="B104" t="s">
+        <v>393</v>
+      </c>
+      <c r="C104" t="s">
+        <v>394</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45415</v>
+      </c>
+      <c r="E104" t="s">
+        <v>401</v>
+      </c>
+      <c r="F104" t="s">
+        <v>402</v>
+      </c>
+      <c r="G104" s="3">
+        <v>10</v>
+      </c>
+      <c r="H104" s="3">
+        <v>10</v>
+      </c>
+      <c r="I104" t="s">
+        <v>5</v>
+      </c>
+      <c r="J104" t="s">
+        <v>359</v>
+      </c>
+      <c r="K104" t="s">
+        <v>235</v>
+      </c>
+      <c r="L104" t="s">
+        <v>397</v>
+      </c>
+      <c r="M104" t="s">
+        <v>237</v>
+      </c>
+      <c r="N104" t="s">
+        <v>10</v>
+      </c>
+      <c r="O104" t="s">
+        <v>398</v>
+      </c>
+      <c r="P104" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>45415</v>
+      </c>
+      <c r="R104" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S104" t="s">
+        <v>74</v>
+      </c>
+      <c r="T104" t="s">
+        <v>235</v>
+      </c>
+      <c r="U104" t="s">
+        <v>240</v>
+      </c>
+      <c r="V104" t="s">
+        <v>241</v>
+      </c>
+      <c r="W104" t="s">
+        <v>14</v>
+      </c>
+      <c r="X104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
+      <c r="A105" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105" t="s">
+        <v>393</v>
+      </c>
+      <c r="C105" t="s">
+        <v>394</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45415</v>
+      </c>
+      <c r="E105" t="s">
+        <v>403</v>
+      </c>
+      <c r="F105" t="s">
+        <v>404</v>
+      </c>
+      <c r="G105" s="3">
+        <v>5</v>
+      </c>
+      <c r="H105" s="3">
+        <v>5</v>
+      </c>
+      <c r="I105" t="s">
+        <v>5</v>
+      </c>
+      <c r="J105" t="s">
+        <v>359</v>
+      </c>
+      <c r="K105" t="s">
+        <v>235</v>
+      </c>
+      <c r="L105" t="s">
+        <v>397</v>
+      </c>
+      <c r="M105" t="s">
+        <v>237</v>
+      </c>
+      <c r="N105" t="s">
+        <v>10</v>
+      </c>
+      <c r="O105" t="s">
+        <v>398</v>
+      </c>
+      <c r="P105" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>45415</v>
+      </c>
+      <c r="R105" s="2">
+        <v>45418</v>
+      </c>
+      <c r="S105" t="s">
+        <v>74</v>
+      </c>
+      <c r="T105" t="s">
+        <v>235</v>
+      </c>
+      <c r="U105" t="s">
+        <v>240</v>
+      </c>
+      <c r="V105" t="s">
+        <v>241</v>
+      </c>
+      <c r="W105" t="s">
+        <v>14</v>
+      </c>
+      <c r="X105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
+      <c r="A106" t="s">
+        <v>354</v>
+      </c>
+      <c r="B106" t="s">
+        <v>405</v>
+      </c>
+      <c r="C106" t="s">
+        <v>371</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45468</v>
+      </c>
+      <c r="E106" t="s">
+        <v>406</v>
+      </c>
+      <c r="F106" t="s">
+        <v>407</v>
+      </c>
+      <c r="G106" s="3">
+        <v>1</v>
+      </c>
+      <c r="H106" s="3">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>5</v>
+      </c>
+      <c r="J106" t="s">
+        <v>359</v>
+      </c>
+      <c r="K106" t="s">
+        <v>374</v>
+      </c>
+      <c r="L106" t="s">
+        <v>331</v>
+      </c>
+      <c r="M106" t="s">
+        <v>9</v>
+      </c>
+      <c r="N106" t="s">
+        <v>10</v>
+      </c>
+      <c r="O106" t="s">
+        <v>408</v>
+      </c>
+      <c r="P106" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>45468</v>
+      </c>
+      <c r="R106" s="2">
+        <v>45468</v>
+      </c>
+      <c r="S106" t="s">
+        <v>22</v>
+      </c>
+      <c r="T106" t="s">
+        <v>374</v>
+      </c>
+      <c r="U106" t="s">
+        <v>371</v>
+      </c>
+      <c r="V106" t="s">
+        <v>331</v>
+      </c>
+      <c r="W106" t="s">
+        <v>14</v>
+      </c>
+      <c r="X106" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="247">
   <si>
     <t>P891</t>
   </si>
@@ -103,10 +103,199 @@
     <t>Reagent Kit -90Y and 177Lu Peptides</t>
   </si>
   <si>
-    <t>133886058</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING - FRENCHS</t>
+    <t>134010116</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - BOX HILL</t>
+  </si>
+  <si>
+    <t>64430678</t>
+  </si>
+  <si>
+    <t>Water, ACS Ultrapur 1L</t>
+  </si>
+  <si>
+    <t>4595937</t>
+  </si>
+  <si>
+    <t>BOX HILL</t>
+  </si>
+  <si>
+    <t>717235116</t>
+  </si>
+  <si>
+    <t>SXSRIP2R</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>64436641</t>
+  </si>
+  <si>
+    <t>DKFZ-PSMA-11 (GMP) 1MG</t>
+  </si>
+  <si>
+    <t>64424244</t>
+  </si>
+  <si>
+    <t>LabEAZY Cassette- 68Ga DOTA Peptides</t>
+  </si>
+  <si>
+    <t>64424260</t>
+  </si>
+  <si>
+    <t>LabEAZY Cassette- 68Ga PSMA Peptides</t>
+  </si>
+  <si>
+    <t>64425232</t>
+  </si>
+  <si>
+    <t>Reagent Set 68Ga-labeled peptides</t>
+  </si>
+  <si>
+    <t>134014296</t>
+  </si>
+  <si>
+    <t>DIRECT RADIOLOGY</t>
+  </si>
+  <si>
+    <t>86698242</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>1036936</t>
+  </si>
+  <si>
+    <t>FAIRFIELD</t>
+  </si>
+  <si>
+    <t>717244529</t>
+  </si>
+  <si>
+    <t>010050</t>
+  </si>
+  <si>
+    <t>86698188</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>134014991</t>
+  </si>
+  <si>
+    <t>CAPITAL RADIOLOGY</t>
+  </si>
+  <si>
+    <t>87234495</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>3432379</t>
+  </si>
+  <si>
+    <t>717247878</t>
+  </si>
+  <si>
+    <t>3605543</t>
+  </si>
+  <si>
+    <t>CAPITAL RADIOLOGY PTY LTD</t>
+  </si>
+  <si>
+    <t>EAST MELBOURNE</t>
+  </si>
+  <si>
+    <t>134015057</t>
+  </si>
+  <si>
+    <t>VESEBE PTY LTD (NOWRA)</t>
+  </si>
+  <si>
+    <t>03250768</t>
+  </si>
+  <si>
+    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>3018457</t>
+  </si>
+  <si>
+    <t>NOWRA</t>
+  </si>
+  <si>
+    <t>717247694</t>
+  </si>
+  <si>
+    <t>020050</t>
+  </si>
+  <si>
+    <t>134023097</t>
+  </si>
+  <si>
+    <t>SPECTRUM MEDICAL IMAGING SERVICES</t>
+  </si>
+  <si>
+    <t>3397516</t>
+  </si>
+  <si>
+    <t>LIVERPOOL</t>
+  </si>
+  <si>
+    <t>717247640</t>
+  </si>
+  <si>
+    <t>134007201</t>
+  </si>
+  <si>
+    <t>I-MED RADIOLOGY - WERRIBEE</t>
+  </si>
+  <si>
+    <t>82212737</t>
+  </si>
+  <si>
+    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
+  </si>
+  <si>
+    <t>4595934</t>
+  </si>
+  <si>
+    <t>WERRIBEE</t>
+  </si>
+  <si>
+    <t>717243139</t>
+  </si>
+  <si>
+    <t>134014970</t>
+  </si>
+  <si>
+    <t>NORTHCOTE RADIOLOGY CLINIC PTY LTD</t>
+  </si>
+  <si>
+    <t>87234487</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>4595184</t>
+  </si>
+  <si>
+    <t>NORTHCOTE</t>
+  </si>
+  <si>
+    <t>717248703</t>
+  </si>
+  <si>
+    <t>134016017</t>
+  </si>
+  <si>
+    <t>CONS ROBINA HOSPITAL OAO-0G0-652</t>
   </si>
   <si>
     <t>80802544</t>
@@ -115,250 +304,22 @@
     <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
   </si>
   <si>
-    <t>4595819</t>
-  </si>
-  <si>
-    <t>FRENCHS FOREST</t>
-  </si>
-  <si>
-    <t>717131028</t>
-  </si>
-  <si>
-    <t>SXSRIP2R</t>
-  </si>
-  <si>
-    <t>010130</t>
-  </si>
-  <si>
-    <t>4595823</t>
-  </si>
-  <si>
-    <t>PRP DIAGNOSTIC IMAGING</t>
-  </si>
-  <si>
-    <t>GOSFORD</t>
-  </si>
-  <si>
-    <t>03250768</t>
-  </si>
-  <si>
-    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>134006589</t>
-  </si>
-  <si>
-    <t>HUNTER IMAGING GROUP - GATESHEAD</t>
-  </si>
-  <si>
-    <t>64424244</t>
-  </si>
-  <si>
-    <t>LabEAZY Cassette- 68Ga DOTA Peptides</t>
-  </si>
-  <si>
-    <t>4596139</t>
-  </si>
-  <si>
-    <t>GATESHEAD</t>
-  </si>
-  <si>
-    <t>717232169</t>
-  </si>
-  <si>
-    <t>4596223</t>
-  </si>
-  <si>
-    <t>HUNTER IMAGING GROUP PTY LIMITED</t>
-  </si>
-  <si>
-    <t>ADAMSTOWN</t>
-  </si>
-  <si>
-    <t>134010116</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - BOX HILL</t>
-  </si>
-  <si>
-    <t>64430678</t>
-  </si>
-  <si>
-    <t>Water, ACS Ultrapur 1L</t>
-  </si>
-  <si>
-    <t>4595937</t>
-  </si>
-  <si>
-    <t>BOX HILL</t>
-  </si>
-  <si>
-    <t>717235116</t>
-  </si>
-  <si>
-    <t>64436641</t>
-  </si>
-  <si>
-    <t>DKFZ-PSMA-11 (GMP) 1MG</t>
-  </si>
-  <si>
-    <t>64424260</t>
-  </si>
-  <si>
-    <t>LabEAZY Cassette- 68Ga PSMA Peptides</t>
-  </si>
-  <si>
-    <t>64425232</t>
-  </si>
-  <si>
-    <t>Reagent Set 68Ga-labeled peptides</t>
-  </si>
-  <si>
-    <t>134013495</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - IPSWICH</t>
-  </si>
-  <si>
-    <t>4595916</t>
-  </si>
-  <si>
-    <t>IPSWICH</t>
-  </si>
-  <si>
-    <t>717240002</t>
-  </si>
-  <si>
-    <t>87234487</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>86566621</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
-  </si>
-  <si>
-    <t>86617501</t>
-  </si>
-  <si>
-    <t>ASSY,TBG,PAS,60",MC,WLD</t>
-  </si>
-  <si>
-    <t>134019672</t>
-  </si>
-  <si>
-    <t>PORTLAND DISTRICT HEALTH</t>
-  </si>
-  <si>
-    <t>87078752</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,D,SPK,FLS3,150ML,WLD</t>
-  </si>
-  <si>
-    <t>3018960</t>
-  </si>
-  <si>
-    <t>PORTLAND</t>
-  </si>
-  <si>
-    <t>717244822</t>
-  </si>
-  <si>
-    <t>020050</t>
-  </si>
-  <si>
-    <t>4595960</t>
-  </si>
-  <si>
-    <t>SOUTH WEST HEALTHCARE</t>
-  </si>
-  <si>
-    <t>WARRNAMBOOL</t>
-  </si>
-  <si>
-    <t>87078760</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
-  </si>
-  <si>
-    <t>134021805</t>
-  </si>
-  <si>
-    <t>PERTH CHILDREN'S HOSPITAL</t>
-  </si>
-  <si>
-    <t>85575279</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU VIAL 3X2ML AU-NZ</t>
-  </si>
-  <si>
-    <t>3906128</t>
-  </si>
-  <si>
-    <t>Nedlands</t>
-  </si>
-  <si>
-    <t>717247210</t>
-  </si>
-  <si>
-    <t>010041</t>
-  </si>
-  <si>
-    <t>134014440</t>
-  </si>
-  <si>
-    <t>I-MED QUEENSLAND PTY LTD.</t>
-  </si>
-  <si>
-    <t>780832</t>
-  </si>
-  <si>
-    <t>Springwood</t>
-  </si>
-  <si>
-    <t>717224599</t>
-  </si>
-  <si>
-    <t>134018672</t>
-  </si>
-  <si>
-    <t>MANNING BASE HOSPITAL</t>
-  </si>
-  <si>
-    <t>86835444</t>
-  </si>
-  <si>
-    <t>MRXPERION,KIT,SYR,MR,PFA,JA,FINAL</t>
-  </si>
-  <si>
-    <t>4595325</t>
-  </si>
-  <si>
-    <t>TAREE</t>
-  </si>
-  <si>
-    <t>717239678</t>
-  </si>
-  <si>
-    <t>4595328</t>
-  </si>
-  <si>
-    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
-  </si>
-  <si>
-    <t>NEWCASTLE</t>
-  </si>
-  <si>
-    <t>134019896</t>
-  </si>
-  <si>
-    <t>THE ALFRED HOSPITAL</t>
+    <t>971721</t>
+  </si>
+  <si>
+    <t>ROBINA</t>
+  </si>
+  <si>
+    <t>717245247</t>
+  </si>
+  <si>
+    <t>4595661</t>
+  </si>
+  <si>
+    <t>GOLD COAST HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>SOUTHPORT</t>
   </si>
   <si>
     <t>02112555</t>
@@ -367,82 +328,43 @@
     <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
   </si>
   <si>
-    <t>4595753</t>
-  </si>
-  <si>
-    <t>MELBOURNE</t>
-  </si>
-  <si>
-    <t>717241486</t>
-  </si>
-  <si>
-    <t>4596298</t>
-  </si>
-  <si>
-    <t>ALFRED HEALTH</t>
-  </si>
-  <si>
-    <t>PRAHRAN</t>
-  </si>
-  <si>
-    <t>134019897</t>
-  </si>
-  <si>
-    <t>87548082</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
-  </si>
-  <si>
-    <t>717244524</t>
-  </si>
-  <si>
-    <t>134019898</t>
-  </si>
-  <si>
-    <t>NORTH QUEENSLAND DISTRIBUTION</t>
-  </si>
-  <si>
-    <t>923139</t>
-  </si>
-  <si>
-    <t>BOHLE</t>
-  </si>
-  <si>
-    <t>717244585</t>
-  </si>
-  <si>
-    <t>040130</t>
-  </si>
-  <si>
-    <t>4595067</t>
-  </si>
-  <si>
-    <t>DEPARTMENT OF HEALTH QLD</t>
-  </si>
-  <si>
-    <t>BRISBANE</t>
-  </si>
-  <si>
-    <t>134019899</t>
+    <t>134020245</t>
+  </si>
+  <si>
+    <t>SYDNEY ADVENTIST HOSPITAL</t>
+  </si>
+  <si>
+    <t>86610280</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,STELLANT MP,MIC,MC,EU</t>
+  </si>
+  <si>
+    <t>4595578</t>
+  </si>
+  <si>
+    <t>WAHROONGA</t>
+  </si>
+  <si>
+    <t>717242783</t>
+  </si>
+  <si>
+    <t>3018003</t>
+  </si>
+  <si>
+    <t>134020246</t>
   </si>
   <si>
     <t>ROYAL ADELAIDE HOSPITAL</t>
   </si>
   <si>
-    <t>86698188</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
-  </si>
-  <si>
     <t>4676781</t>
   </si>
   <si>
     <t>ADELAIDE</t>
   </si>
   <si>
-    <t>717245542</t>
+    <t>717247435</t>
   </si>
   <si>
     <t>4595446</t>
@@ -481,358 +403,136 @@
     <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
   </si>
   <si>
-    <t>134020576</t>
-  </si>
-  <si>
-    <t>87548783</t>
-  </si>
-  <si>
-    <t>ASSY,DAY SET,CENTARGO,ROW</t>
-  </si>
-  <si>
-    <t>717245557</t>
-  </si>
-  <si>
-    <t>134020577</t>
-  </si>
-  <si>
-    <t>BLACKTOWN HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596101</t>
-  </si>
-  <si>
-    <t>BLACKTOWN</t>
-  </si>
-  <si>
-    <t>717246982</t>
-  </si>
-  <si>
-    <t>4596108</t>
-  </si>
-  <si>
-    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
-  </si>
-  <si>
-    <t>86594226</t>
-  </si>
-  <si>
-    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>87621529</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
-  </si>
-  <si>
-    <t>134020578</t>
-  </si>
-  <si>
-    <t>ANA HEALTHCARE UNIT TRUST T/A</t>
-  </si>
-  <si>
-    <t>86698242</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595202</t>
-  </si>
-  <si>
-    <t>NARELLAN</t>
-  </si>
-  <si>
-    <t>717247310</t>
-  </si>
-  <si>
-    <t>4596281</t>
-  </si>
-  <si>
-    <t>LEETON NSW</t>
-  </si>
-  <si>
-    <t>134021602</t>
-  </si>
-  <si>
-    <t>NEPEAN BLUE MOUNTAINS LHD</t>
-  </si>
-  <si>
-    <t>4596176</t>
-  </si>
-  <si>
-    <t>KINGSWOOD</t>
-  </si>
-  <si>
-    <t>717240987</t>
-  </si>
-  <si>
-    <t>4596182</t>
-  </si>
-  <si>
-    <t>NEPEAN BLUE MOUNTAINS LOCAL</t>
-  </si>
-  <si>
-    <t>134021803</t>
-  </si>
-  <si>
-    <t>GOSFORD HOSPITAL</t>
-  </si>
-  <si>
-    <t>86617439</t>
-  </si>
-  <si>
-    <t>ARTERION,KIT,SYR,ANGIO,150ML,MC,WLD</t>
-  </si>
-  <si>
-    <t>4595426</t>
-  </si>
-  <si>
-    <t>717240986</t>
-  </si>
-  <si>
-    <t>4595430</t>
-  </si>
-  <si>
-    <t>CENTRAL COAST LOCAL HEALTH</t>
+    <t>134021815</t>
+  </si>
+  <si>
+    <t>ST GEORGE HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595138</t>
+  </si>
+  <si>
+    <t>KOGARAH</t>
+  </si>
+  <si>
+    <t>717245235</t>
+  </si>
+  <si>
+    <t>4596274</t>
+  </si>
+  <si>
+    <t>SOUTH EASTERN SYDNEY LOCAL HEALTH D</t>
   </si>
   <si>
     <t>HUNTER REGION MAIL CENTRE</t>
   </si>
   <si>
-    <t>134021804</t>
-  </si>
-  <si>
-    <t>GOULBURN HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595495</t>
-  </si>
-  <si>
-    <t>GOULBURN</t>
-  </si>
-  <si>
-    <t>717244719</t>
-  </si>
-  <si>
-    <t>4595498</t>
-  </si>
-  <si>
-    <t>SOUTHERN NSW LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>134021813</t>
-  </si>
-  <si>
-    <t>SHOALHAVEN DISTRICT HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595864</t>
-  </si>
-  <si>
-    <t>NOWRA</t>
-  </si>
-  <si>
-    <t>717241347</t>
-  </si>
-  <si>
-    <t>4595869</t>
-  </si>
-  <si>
-    <t>ILLAWARRA SHOALHAVEN LOCAL HEALTH D</t>
-  </si>
-  <si>
-    <t>134021814</t>
-  </si>
-  <si>
-    <t>717244586</t>
-  </si>
-  <si>
-    <t>134021815</t>
-  </si>
-  <si>
-    <t>ST GEORGE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595138</t>
-  </si>
-  <si>
-    <t>KOGARAH</t>
-  </si>
-  <si>
-    <t>717245235</t>
-  </si>
-  <si>
-    <t>4596274</t>
-  </si>
-  <si>
-    <t>SOUTH EASTERN SYDNEY LOCAL HEALTH D</t>
-  </si>
-  <si>
-    <t>134021816</t>
-  </si>
-  <si>
-    <t>717245556</t>
-  </si>
-  <si>
-    <t>134021817</t>
-  </si>
-  <si>
-    <t>LIVERPOOL HOSPITAL</t>
+    <t>134019671</t>
+  </si>
+  <si>
+    <t>OSBORNE PARK HOSPITAL SUPPLY STORE</t>
+  </si>
+  <si>
+    <t>920539</t>
+  </si>
+  <si>
+    <t>STIRLING</t>
+  </si>
+  <si>
+    <t>717241485</t>
+  </si>
+  <si>
+    <t>010530</t>
+  </si>
+  <si>
+    <t>4595766</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF HEALTH WA</t>
+  </si>
+  <si>
+    <t>RAILWAY ROAD</t>
+  </si>
+  <si>
+    <t>134007968</t>
+  </si>
+  <si>
+    <t>BANKSTOWN LIDCOMBE MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>89304148</t>
+  </si>
+  <si>
+    <t>SALIENT,SYS,INJ,DUAL WIRELESS</t>
+  </si>
+  <si>
+    <t>4005159</t>
+  </si>
+  <si>
+    <t>BANKSTOWN</t>
+  </si>
+  <si>
+    <t>717248180</t>
+  </si>
+  <si>
+    <t>EGFVJ</t>
+  </si>
+  <si>
+    <t>87436136</t>
+  </si>
+  <si>
+    <t>Salient Operation Manual English</t>
+  </si>
+  <si>
+    <t>86621495</t>
+  </si>
+  <si>
+    <t>POWER CORD- AUSTRALIA</t>
+  </si>
+  <si>
+    <t>87491315</t>
+  </si>
+  <si>
+    <t>Power Cord, Australia to IEC C5, 2m</t>
+  </si>
+  <si>
+    <t>133989039</t>
+  </si>
+  <si>
+    <t>64432778</t>
+  </si>
+  <si>
+    <t>Ascorbic acid buffer 50mg/vial</t>
+  </si>
+  <si>
+    <t>4595858</t>
+  </si>
+  <si>
+    <t>EPSOM</t>
+  </si>
+  <si>
+    <t>717202655</t>
+  </si>
+  <si>
+    <t>EHGHA</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>64439489</t>
+  </si>
+  <si>
+    <t>0.1 Hydrochloric Acid (ultra pure)</t>
+  </si>
+  <si>
+    <t>SPEC</t>
   </si>
   <si>
     <t>89092302</t>
   </si>
   <si>
     <t>DKFZ-PSMA-11 GMP - 1mg (Huayi)</t>
-  </si>
-  <si>
-    <t>4596092</t>
-  </si>
-  <si>
-    <t>LIVERPOOL</t>
-  </si>
-  <si>
-    <t>717247051</t>
-  </si>
-  <si>
-    <t>4596097</t>
-  </si>
-  <si>
-    <t>SOUTH WESTERN SYDNEY LOCAL HEALTH D</t>
-  </si>
-  <si>
-    <t>134021818</t>
-  </si>
-  <si>
-    <t>717247053</t>
-  </si>
-  <si>
-    <t>134021963</t>
-  </si>
-  <si>
-    <t>BARWON MEDICAL IMAGING - GEELONG</t>
-  </si>
-  <si>
-    <t>82212737</t>
-  </si>
-  <si>
-    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
-  </si>
-  <si>
-    <t>4596081</t>
-  </si>
-  <si>
-    <t>GEELONG</t>
-  </si>
-  <si>
-    <t>717245366</t>
-  </si>
-  <si>
-    <t>4596084</t>
-  </si>
-  <si>
-    <t>BARWON HEALTH</t>
-  </si>
-  <si>
-    <t>134021964</t>
-  </si>
-  <si>
-    <t>PRINCESS ALEXANDRA HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596272</t>
-  </si>
-  <si>
-    <t>WOOLLOONGABBA</t>
-  </si>
-  <si>
-    <t>717246981</t>
-  </si>
-  <si>
-    <t>4595416</t>
-  </si>
-  <si>
-    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>EIGHT MILE PLAINS</t>
-  </si>
-  <si>
-    <t>134019670</t>
-  </si>
-  <si>
-    <t>ROYAL PERTH HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595756</t>
-  </si>
-  <si>
-    <t>PERTH</t>
-  </si>
-  <si>
-    <t>717240157</t>
-  </si>
-  <si>
-    <t>010530</t>
-  </si>
-  <si>
-    <t>4595766</t>
-  </si>
-  <si>
-    <t>DEPARTMENT OF HEALTH WA</t>
-  </si>
-  <si>
-    <t>RAILWAY ROAD</t>
-  </si>
-  <si>
-    <t>134019671</t>
-  </si>
-  <si>
-    <t>OSBORNE PARK HOSPITAL SUPPLY STORE</t>
-  </si>
-  <si>
-    <t>920539</t>
-  </si>
-  <si>
-    <t>STIRLING</t>
-  </si>
-  <si>
-    <t>717241485</t>
-  </si>
-  <si>
-    <t>133989039</t>
-  </si>
-  <si>
-    <t>64432778</t>
-  </si>
-  <si>
-    <t>Ascorbic acid buffer 50mg/vial</t>
-  </si>
-  <si>
-    <t>4595858</t>
-  </si>
-  <si>
-    <t>EPSOM</t>
-  </si>
-  <si>
-    <t>717202655</t>
-  </si>
-  <si>
-    <t>EHGHA</t>
-  </si>
-  <si>
-    <t>000011</t>
-  </si>
-  <si>
-    <t>64439489</t>
-  </si>
-  <si>
-    <t>0.1 Hydrochloric Acid (ultra pure)</t>
-  </si>
-  <si>
-    <t>SPEC</t>
   </si>
   <si>
     <t>64433774</t>
@@ -1156,7 +856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X68"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,11 +871,11 @@
     <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
     <col min="6" max="6" bestFit="1" width="42" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="12" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="6" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="13" customWidth="1"/>
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="6" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="15" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="16" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="14" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15" customWidth="1"/>
     <col min="14" max="14" bestFit="1" width="6" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="21" customWidth="1"/>
@@ -1192,76 +892,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1571,7 +1271,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2">
-        <v>45418</v>
+        <v>45433</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -1580,10 +1280,10 @@
         <v>33</v>
       </c>
       <c r="G6" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H6" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1610,22 +1310,22 @@
         <v>37</v>
       </c>
       <c r="Q6" s="2">
-        <v>45418</v>
+        <v>45433</v>
       </c>
       <c r="R6" s="2">
-        <v>45419</v>
+        <v>45434</v>
       </c>
       <c r="S6" t="s">
         <v>38</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="V6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="W6" t="s">
         <v>14</v>
@@ -1645,19 +1345,19 @@
         <v>31</v>
       </c>
       <c r="D7" s="2">
-        <v>45418</v>
+        <v>45433</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -1684,22 +1384,22 @@
         <v>37</v>
       </c>
       <c r="Q7" s="2">
-        <v>45418</v>
+        <v>45433</v>
       </c>
       <c r="R7" s="2">
-        <v>45419</v>
+        <v>45434</v>
       </c>
       <c r="S7" t="s">
         <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="W7" t="s">
         <v>14</v>
@@ -1713,25 +1413,25 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45433</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -1740,10 +1440,10 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -1752,7 +1452,7 @@
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
         <v>37</v>
@@ -1767,13 +1467,13 @@
         <v>38</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="U8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="W8" t="s">
         <v>14</v>
@@ -1787,25 +1487,25 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45433</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -1814,10 +1514,10 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -1826,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
         <v>37</v>
@@ -1841,13 +1541,13 @@
         <v>38</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="W9" t="s">
         <v>14</v>
@@ -1861,25 +1561,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45433</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3">
         <v>3</v>
       </c>
       <c r="H10" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -1888,10 +1588,10 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -1900,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
         <v>37</v>
@@ -1915,13 +1615,13 @@
         <v>38</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="W10" t="s">
         <v>14</v>
@@ -1935,25 +1635,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45433</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -1962,10 +1662,10 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -1974,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="P11" t="s">
         <v>37</v>
@@ -1989,13 +1689,13 @@
         <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="W11" t="s">
         <v>14</v>
@@ -2009,25 +1709,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2">
         <v>45433</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -2036,10 +1736,10 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -2048,7 +1748,7 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s">
         <v>37</v>
@@ -2060,16 +1760,16 @@
         <v>45434</v>
       </c>
       <c r="S12" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="W12" t="s">
         <v>14</v>
@@ -2083,25 +1783,25 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2">
         <v>45433</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -2110,10 +1810,10 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -2122,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s">
         <v>37</v>
@@ -2134,16 +1834,16 @@
         <v>45434</v>
       </c>
       <c r="S13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="W13" t="s">
         <v>14</v>
@@ -2157,25 +1857,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2">
         <v>45433</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2184,10 +1884,10 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -2196,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s">
         <v>37</v>
@@ -2208,16 +1908,16 @@
         <v>45434</v>
       </c>
       <c r="S14" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="V14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="W14" t="s">
         <v>14</v>
@@ -2231,25 +1931,25 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
         <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
       </c>
       <c r="D15" s="2">
         <v>45433</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2258,10 +1958,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -2270,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s">
         <v>37</v>
@@ -2279,19 +1979,19 @@
         <v>45433</v>
       </c>
       <c r="R15" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="S15" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -2305,25 +2005,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2">
         <v>45433</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H16" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2332,10 +2032,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2344,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P16" t="s">
         <v>37</v>
@@ -2356,16 +2056,16 @@
         <v>45434</v>
       </c>
       <c r="S16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2379,25 +2079,25 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2406,10 +2106,10 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="L17" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2418,28 +2118,28 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="P17" t="s">
         <v>37</v>
       </c>
       <c r="Q17" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="R17" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="S17" t="s">
         <v>38</v>
       </c>
       <c r="T17" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="U17" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="W17" t="s">
         <v>14</v>
@@ -2453,19 +2153,19 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -2480,10 +2180,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2492,28 +2192,28 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="P18" t="s">
         <v>37</v>
       </c>
       <c r="Q18" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="R18" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="S18" t="s">
         <v>38</v>
       </c>
       <c r="T18" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="U18" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="V18" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2527,25 +2227,25 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H19" s="3">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2554,10 +2254,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="L19" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2566,28 +2266,28 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="P19" t="s">
         <v>37</v>
       </c>
       <c r="Q19" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="R19" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="S19" t="s">
         <v>38</v>
       </c>
       <c r="T19" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="U19" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="V19" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2601,25 +2301,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H20" s="3">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2628,10 +2328,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2640,28 +2340,28 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="P20" t="s">
         <v>37</v>
       </c>
       <c r="Q20" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="R20" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="S20" t="s">
         <v>38</v>
       </c>
       <c r="T20" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="U20" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="V20" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2675,25 +2375,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H21" s="3">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2702,10 +2402,10 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -2714,28 +2414,28 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="P21" t="s">
         <v>37</v>
       </c>
       <c r="Q21" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="R21" s="2">
         <v>45435</v>
       </c>
       <c r="S21" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="U21" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="V21" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2749,25 +2449,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D22" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H22" s="3">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2776,10 +2476,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2788,28 +2488,28 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="P22" t="s">
         <v>37</v>
       </c>
       <c r="Q22" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="R22" s="2">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="S22" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="U22" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="V22" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2823,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D23" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
@@ -2850,10 +2550,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="L23" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -2862,28 +2562,28 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="P23" t="s">
         <v>37</v>
       </c>
       <c r="Q23" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="R23" s="2">
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="S23" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="T23" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="U23" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="V23" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2897,25 +2597,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D24" s="2">
         <v>45434</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H24" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -2924,10 +2624,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="L24" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -2936,7 +2636,7 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="P24" t="s">
         <v>37</v>
@@ -2945,19 +2645,19 @@
         <v>45434</v>
       </c>
       <c r="R24" s="2">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="S24" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="T24" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="U24" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="V24" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -2971,25 +2671,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D25" s="2">
         <v>45434</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G25" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -2998,10 +2698,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="L25" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -3010,7 +2710,7 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="P25" t="s">
         <v>37</v>
@@ -3025,13 +2725,13 @@
         <v>13</v>
       </c>
       <c r="T25" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="U25" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="V25" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -3045,25 +2745,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D26" s="2">
         <v>45434</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G26" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H26" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3072,10 +2772,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -3084,7 +2784,7 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="P26" t="s">
         <v>37</v>
@@ -3099,13 +2799,13 @@
         <v>38</v>
       </c>
       <c r="T26" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="U26" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="V26" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -3119,25 +2819,25 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D27" s="2">
-        <v>45434</v>
+        <v>45440</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="G27" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
-        <v>950</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3146,10 +2846,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="L27" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -3158,28 +2858,28 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="P27" t="s">
         <v>37</v>
       </c>
       <c r="Q27" s="2">
-        <v>45434</v>
+        <v>45440</v>
       </c>
       <c r="R27" s="2">
-        <v>45435</v>
+        <v>45441</v>
       </c>
       <c r="S27" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="T27" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="U27" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="V27" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -3193,25 +2893,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D28" s="2">
-        <v>45434</v>
+        <v>45463</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="G28" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3220,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L28" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -3232,28 +2932,28 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="P28" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="2">
-        <v>45434</v>
+        <v>45463</v>
       </c>
       <c r="R28" s="2">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="S28" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="T28" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="U28" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="V28" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -3267,25 +2967,25 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D29" s="2">
-        <v>45434</v>
+        <v>45463</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3294,10 +2994,10 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L29" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -3306,28 +3006,28 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P29" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="2">
-        <v>45434</v>
+        <v>45463</v>
       </c>
       <c r="R29" s="2">
-        <v>45436</v>
+        <v>45464</v>
       </c>
       <c r="S29" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="T29" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="U29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="V29" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3341,25 +3041,25 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D30" s="2">
-        <v>45434</v>
+        <v>45463</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="G30" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3368,10 +3068,10 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L30" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3380,28 +3080,28 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P30" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="2">
-        <v>45434</v>
+        <v>45463</v>
       </c>
       <c r="R30" s="2">
-        <v>45436</v>
+        <v>45464</v>
       </c>
       <c r="S30" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="T30" t="s">
         <v>151</v>
       </c>
       <c r="U30" t="s">
+        <v>148</v>
+      </c>
+      <c r="V30" t="s">
         <v>152</v>
-      </c>
-      <c r="V30" t="s">
-        <v>153</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3415,25 +3115,25 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D31" s="2">
-        <v>45434</v>
+        <v>45463</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="G31" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H31" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3442,10 +3142,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3454,28 +3154,28 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P31" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="Q31" s="2">
-        <v>45434</v>
+        <v>45463</v>
       </c>
       <c r="R31" s="2">
-        <v>45436</v>
+        <v>45464</v>
       </c>
       <c r="S31" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="T31" t="s">
         <v>151</v>
       </c>
       <c r="U31" t="s">
+        <v>148</v>
+      </c>
+      <c r="V31" t="s">
         <v>152</v>
-      </c>
-      <c r="V31" t="s">
-        <v>153</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3489,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G32" s="3">
         <v>10</v>
@@ -3516,10 +3216,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3528,28 +3228,28 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P32" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Q32" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="R32" s="2">
-        <v>45436</v>
+        <v>45488</v>
       </c>
       <c r="S32" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="T32" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="U32" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="V32" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3563,37 +3263,37 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H33" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="K33" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="L33" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3602,28 +3302,28 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="P33" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Q33" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="R33" s="2">
-        <v>45436</v>
+        <v>45488</v>
       </c>
       <c r="S33" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="T33" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="U33" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="V33" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3637,25 +3337,25 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="F34" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="G34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3664,10 +3364,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="L34" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3676,28 +3376,28 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="P34" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Q34" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="R34" s="2">
-        <v>45436</v>
+        <v>45488</v>
       </c>
       <c r="S34" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="T34" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="U34" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="V34" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="W34" t="s">
         <v>14</v>
@@ -3711,25 +3411,25 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="G35" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="3">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3738,10 +3438,10 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -3750,28 +3450,28 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P35" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Q35" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="R35" s="2">
-        <v>45435</v>
+        <v>45488</v>
       </c>
       <c r="S35" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="T35" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="U35" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="V35" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="W35" t="s">
         <v>14</v>
@@ -3785,25 +3485,25 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="G36" s="3">
         <v>2</v>
       </c>
       <c r="H36" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3812,10 +3512,10 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -3824,28 +3524,28 @@
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P36" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Q36" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="R36" s="2">
-        <v>45435</v>
+        <v>45488</v>
       </c>
       <c r="S36" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="T36" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="U36" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="V36" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="W36" t="s">
         <v>14</v>
@@ -3859,25 +3559,25 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="G37" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H37" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3886,10 +3586,10 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -3898,28 +3598,28 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P37" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Q37" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="R37" s="2">
-        <v>45435</v>
+        <v>45488</v>
       </c>
       <c r="S37" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="T37" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="U37" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="V37" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="W37" t="s">
         <v>14</v>
@@ -3933,25 +3633,25 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="E38" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -3960,10 +3660,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="L38" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -3972,28 +3672,28 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="P38" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Q38" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="R38" s="2">
-        <v>45435</v>
+        <v>45488</v>
       </c>
       <c r="S38" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="T38" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="U38" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="V38" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="W38" t="s">
         <v>14</v>
@@ -4007,25 +3707,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="G39" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H39" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -4034,10 +3734,10 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -4046,28 +3746,28 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="P39" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Q39" s="2">
-        <v>45434</v>
+        <v>45488</v>
       </c>
       <c r="R39" s="2">
-        <v>45435</v>
+        <v>45488</v>
       </c>
       <c r="S39" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="T39" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="U39" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="V39" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="W39" t="s">
         <v>14</v>
@@ -4078,22 +3778,22 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45308</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" t="s">
         <v>180</v>
-      </c>
-      <c r="C40" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="2">
-        <v>45434</v>
-      </c>
-      <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" t="s">
-        <v>27</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -4105,7 +3805,7 @@
         <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="K40" t="s">
         <v>182</v>
@@ -4114,34 +3814,34 @@
         <v>183</v>
       </c>
       <c r="M40" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="N40" t="s">
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P40" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="Q40" s="2">
-        <v>45434</v>
+        <v>45308</v>
       </c>
       <c r="R40" s="2">
-        <v>45435</v>
+        <v>45309</v>
       </c>
       <c r="S40" t="s">
         <v>38</v>
       </c>
       <c r="T40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V40" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -4152,43 +3852,43 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D41" s="2">
-        <v>45434</v>
+        <v>45308</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F41" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
       </c>
       <c r="H41" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="K41" t="s">
+        <v>182</v>
+      </c>
+      <c r="L41" t="s">
         <v>191</v>
       </c>
-      <c r="L41" t="s">
-        <v>41</v>
-      </c>
       <c r="M41" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="N41" t="s">
         <v>10</v>
@@ -4197,25 +3897,25 @@
         <v>192</v>
       </c>
       <c r="P41" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="Q41" s="2">
-        <v>45434</v>
+        <v>45308</v>
       </c>
       <c r="R41" s="2">
-        <v>45436</v>
+        <v>45309</v>
       </c>
       <c r="S41" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="U41" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="V41" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -4226,70 +3926,70 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D42" s="2">
-        <v>45434</v>
+        <v>45308</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
       </c>
       <c r="H42" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="K42" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="L42" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M42" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="N42" t="s">
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P42" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="Q42" s="2">
-        <v>45434</v>
+        <v>45308</v>
       </c>
       <c r="R42" s="2">
-        <v>45436</v>
+        <v>45309</v>
       </c>
       <c r="S42" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="U42" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="V42" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -4300,40 +4000,40 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D43" s="2">
-        <v>45434</v>
+        <v>45427</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="F43" t="s">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H43" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="K43" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L43" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M43" t="s">
         <v>9</v>
@@ -4342,28 +4042,28 @@
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P43" t="s">
         <v>37</v>
       </c>
       <c r="Q43" s="2">
-        <v>45434</v>
+        <v>45427</v>
       </c>
       <c r="R43" s="2">
-        <v>45436</v>
+        <v>45427</v>
       </c>
       <c r="S43" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="T43" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="U43" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="V43" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="W43" t="s">
         <v>14</v>
@@ -4374,70 +4074,70 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45428</v>
+      </c>
+      <c r="E44" t="s">
+        <v>206</v>
+      </c>
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
         <v>181</v>
-      </c>
-      <c r="D44" s="2">
-        <v>45434</v>
-      </c>
-      <c r="E44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3">
-        <v>30</v>
-      </c>
-      <c r="I44" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" t="s">
-        <v>6</v>
       </c>
       <c r="K44" t="s">
         <v>182</v>
       </c>
       <c r="L44" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="M44" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="N44" t="s">
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P44" t="s">
         <v>37</v>
       </c>
       <c r="Q44" s="2">
-        <v>45434</v>
+        <v>45428</v>
       </c>
       <c r="R44" s="2">
-        <v>45435</v>
+        <v>45429</v>
       </c>
       <c r="S44" t="s">
         <v>38</v>
       </c>
       <c r="T44" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V44" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="W44" t="s">
         <v>14</v>
@@ -4448,34 +4148,34 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D45" s="2">
         <v>45434</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="G45" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H45" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
       </c>
       <c r="J45" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="K45" t="s">
         <v>214</v>
@@ -4499,19 +4199,19 @@
         <v>45434</v>
       </c>
       <c r="R45" s="2">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="S45" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="T45" t="s">
+        <v>214</v>
+      </c>
+      <c r="U45" t="s">
+        <v>211</v>
+      </c>
+      <c r="V45" t="s">
         <v>217</v>
-      </c>
-      <c r="U45" t="s">
-        <v>218</v>
-      </c>
-      <c r="V45" t="s">
-        <v>195</v>
       </c>
       <c r="W45" t="s">
         <v>14</v>
@@ -4522,40 +4222,40 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45483</v>
+      </c>
+      <c r="E46" t="s">
         <v>219</v>
       </c>
-      <c r="C46" t="s">
+      <c r="F46" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="2">
-        <v>45434</v>
-      </c>
-      <c r="E46" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2</v>
-      </c>
-      <c r="H46" s="3">
-        <v>20</v>
-      </c>
-      <c r="I46" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" t="s">
-        <v>6</v>
-      </c>
       <c r="K46" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L46" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M46" t="s">
         <v>9</v>
@@ -4564,1661 +4264,33 @@
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P46" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Q46" s="2">
-        <v>45434</v>
+        <v>45483</v>
       </c>
       <c r="R46" s="2">
-        <v>45435</v>
+        <v>45483</v>
       </c>
       <c r="S46" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="T46" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="U46" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="V46" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="W46" t="s">
         <v>14</v>
       </c>
       <c r="X46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>221</v>
-      </c>
-      <c r="C47" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="2">
-        <v>45434</v>
-      </c>
-      <c r="E47" t="s">
-        <v>223</v>
-      </c>
-      <c r="F47" t="s">
-        <v>224</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-      <c r="I47" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" t="s">
-        <v>6</v>
-      </c>
-      <c r="K47" t="s">
-        <v>225</v>
-      </c>
-      <c r="L47" t="s">
-        <v>226</v>
-      </c>
-      <c r="M47" t="s">
-        <v>9</v>
-      </c>
-      <c r="N47" t="s">
-        <v>10</v>
-      </c>
-      <c r="O47" t="s">
-        <v>227</v>
-      </c>
-      <c r="P47" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>45434</v>
-      </c>
-      <c r="R47" s="2">
-        <v>45435</v>
-      </c>
-      <c r="S47" t="s">
-        <v>38</v>
-      </c>
-      <c r="T47" t="s">
-        <v>228</v>
-      </c>
-      <c r="U47" t="s">
-        <v>229</v>
-      </c>
-      <c r="V47" t="s">
-        <v>153</v>
-      </c>
-      <c r="W47" t="s">
-        <v>14</v>
-      </c>
-      <c r="X47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>221</v>
-      </c>
-      <c r="C48" t="s">
-        <v>222</v>
-      </c>
-      <c r="D48" s="2">
-        <v>45434</v>
-      </c>
-      <c r="E48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K48" t="s">
-        <v>225</v>
-      </c>
-      <c r="L48" t="s">
-        <v>226</v>
-      </c>
-      <c r="M48" t="s">
-        <v>9</v>
-      </c>
-      <c r="N48" t="s">
-        <v>10</v>
-      </c>
-      <c r="O48" t="s">
-        <v>227</v>
-      </c>
-      <c r="P48" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>45434</v>
-      </c>
-      <c r="R48" s="2">
-        <v>45435</v>
-      </c>
-      <c r="S48" t="s">
-        <v>38</v>
-      </c>
-      <c r="T48" t="s">
-        <v>228</v>
-      </c>
-      <c r="U48" t="s">
-        <v>229</v>
-      </c>
-      <c r="V48" t="s">
-        <v>153</v>
-      </c>
-      <c r="W48" t="s">
-        <v>14</v>
-      </c>
-      <c r="X48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" t="s">
-        <v>181</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45434</v>
-      </c>
-      <c r="E49" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="3">
-        <v>10</v>
-      </c>
-      <c r="I49" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" t="s">
-        <v>182</v>
-      </c>
-      <c r="L49" t="s">
-        <v>183</v>
-      </c>
-      <c r="M49" t="s">
-        <v>9</v>
-      </c>
-      <c r="N49" t="s">
-        <v>10</v>
-      </c>
-      <c r="O49" t="s">
-        <v>231</v>
-      </c>
-      <c r="P49" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>45434</v>
-      </c>
-      <c r="R49" s="2">
-        <v>45435</v>
-      </c>
-      <c r="S49" t="s">
-        <v>38</v>
-      </c>
-      <c r="T49" t="s">
-        <v>185</v>
-      </c>
-      <c r="U49" t="s">
-        <v>186</v>
-      </c>
-      <c r="V49" t="s">
-        <v>153</v>
-      </c>
-      <c r="W49" t="s">
-        <v>14</v>
-      </c>
-      <c r="X49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>232</v>
-      </c>
-      <c r="C50" t="s">
-        <v>233</v>
-      </c>
-      <c r="D50" s="2">
-        <v>45434</v>
-      </c>
-      <c r="E50" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" t="s">
-        <v>235</v>
-      </c>
-      <c r="G50" s="3">
-        <v>5</v>
-      </c>
-      <c r="H50" s="3">
-        <v>5</v>
-      </c>
-      <c r="I50" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" t="s">
-        <v>236</v>
-      </c>
-      <c r="L50" t="s">
-        <v>237</v>
-      </c>
-      <c r="M50" t="s">
-        <v>9</v>
-      </c>
-      <c r="N50" t="s">
-        <v>10</v>
-      </c>
-      <c r="O50" t="s">
-        <v>238</v>
-      </c>
-      <c r="P50" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>45434</v>
-      </c>
-      <c r="R50" s="2">
-        <v>45435</v>
-      </c>
-      <c r="S50" t="s">
-        <v>38</v>
-      </c>
-      <c r="T50" t="s">
-        <v>239</v>
-      </c>
-      <c r="U50" t="s">
-        <v>240</v>
-      </c>
-      <c r="V50" t="s">
-        <v>237</v>
-      </c>
-      <c r="W50" t="s">
-        <v>14</v>
-      </c>
-      <c r="X50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>241</v>
-      </c>
-      <c r="C51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D51" s="2">
-        <v>45434</v>
-      </c>
-      <c r="E51" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" t="s">
-        <v>126</v>
-      </c>
-      <c r="G51" s="3">
-        <v>20</v>
-      </c>
-      <c r="H51" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" t="s">
-        <v>243</v>
-      </c>
-      <c r="L51" t="s">
-        <v>244</v>
-      </c>
-      <c r="M51" t="s">
-        <v>9</v>
-      </c>
-      <c r="N51" t="s">
-        <v>10</v>
-      </c>
-      <c r="O51" t="s">
-        <v>245</v>
-      </c>
-      <c r="P51" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>45434</v>
-      </c>
-      <c r="R51" s="2">
-        <v>45435</v>
-      </c>
-      <c r="S51" t="s">
-        <v>38</v>
-      </c>
-      <c r="T51" t="s">
-        <v>246</v>
-      </c>
-      <c r="U51" t="s">
-        <v>247</v>
-      </c>
-      <c r="V51" t="s">
-        <v>248</v>
-      </c>
-      <c r="W51" t="s">
-        <v>14</v>
-      </c>
-      <c r="X51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>249</v>
-      </c>
-      <c r="C52" t="s">
-        <v>250</v>
-      </c>
-      <c r="D52" s="2">
-        <v>45440</v>
-      </c>
-      <c r="E52" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="3">
-        <v>50</v>
-      </c>
-      <c r="I52" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" t="s">
-        <v>6</v>
-      </c>
-      <c r="K52" t="s">
-        <v>251</v>
-      </c>
-      <c r="L52" t="s">
-        <v>252</v>
-      </c>
-      <c r="M52" t="s">
-        <v>9</v>
-      </c>
-      <c r="N52" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" t="s">
-        <v>253</v>
-      </c>
-      <c r="P52" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>45440</v>
-      </c>
-      <c r="R52" s="2">
-        <v>45441</v>
-      </c>
-      <c r="S52" t="s">
-        <v>254</v>
-      </c>
-      <c r="T52" t="s">
-        <v>255</v>
-      </c>
-      <c r="U52" t="s">
-        <v>256</v>
-      </c>
-      <c r="V52" t="s">
-        <v>257</v>
-      </c>
-      <c r="W52" t="s">
-        <v>14</v>
-      </c>
-      <c r="X52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>258</v>
-      </c>
-      <c r="C53" t="s">
-        <v>259</v>
-      </c>
-      <c r="D53" s="2">
-        <v>45440</v>
-      </c>
-      <c r="E53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" t="s">
-        <v>33</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="H53" s="3">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" t="s">
-        <v>260</v>
-      </c>
-      <c r="L53" t="s">
-        <v>261</v>
-      </c>
-      <c r="M53" t="s">
-        <v>9</v>
-      </c>
-      <c r="N53" t="s">
-        <v>10</v>
-      </c>
-      <c r="O53" t="s">
-        <v>262</v>
-      </c>
-      <c r="P53" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>45440</v>
-      </c>
-      <c r="R53" s="2">
-        <v>45441</v>
-      </c>
-      <c r="S53" t="s">
-        <v>254</v>
-      </c>
-      <c r="T53" t="s">
-        <v>255</v>
-      </c>
-      <c r="U53" t="s">
-        <v>256</v>
-      </c>
-      <c r="V53" t="s">
-        <v>257</v>
-      </c>
-      <c r="W53" t="s">
-        <v>14</v>
-      </c>
-      <c r="X53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>263</v>
-      </c>
-      <c r="C54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="2">
-        <v>45488</v>
-      </c>
-      <c r="E54" t="s">
-        <v>264</v>
-      </c>
-      <c r="F54" t="s">
-        <v>265</v>
-      </c>
-      <c r="G54" s="3">
-        <v>10</v>
-      </c>
-      <c r="H54" s="3">
-        <v>10</v>
-      </c>
-      <c r="I54" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" t="s">
-        <v>6</v>
-      </c>
-      <c r="K54" t="s">
-        <v>266</v>
-      </c>
-      <c r="L54" t="s">
-        <v>267</v>
-      </c>
-      <c r="M54" t="s">
-        <v>9</v>
-      </c>
-      <c r="N54" t="s">
-        <v>10</v>
-      </c>
-      <c r="O54" t="s">
-        <v>268</v>
-      </c>
-      <c r="P54" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>45488</v>
-      </c>
-      <c r="R54" s="2">
-        <v>45488</v>
-      </c>
-      <c r="S54" t="s">
-        <v>270</v>
-      </c>
-      <c r="T54" t="s">
-        <v>23</v>
-      </c>
-      <c r="U54" t="s">
-        <v>24</v>
-      </c>
-      <c r="V54" t="s">
-        <v>25</v>
-      </c>
-      <c r="W54" t="s">
-        <v>14</v>
-      </c>
-      <c r="X54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>263</v>
-      </c>
-      <c r="C55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="2">
-        <v>45488</v>
-      </c>
-      <c r="E55" t="s">
-        <v>271</v>
-      </c>
-      <c r="F55" t="s">
-        <v>272</v>
-      </c>
-      <c r="G55" s="3">
-        <v>5</v>
-      </c>
-      <c r="H55" s="3">
-        <v>5</v>
-      </c>
-      <c r="I55" t="s">
-        <v>5</v>
-      </c>
-      <c r="J55" t="s">
-        <v>273</v>
-      </c>
-      <c r="K55" t="s">
-        <v>266</v>
-      </c>
-      <c r="L55" t="s">
-        <v>267</v>
-      </c>
-      <c r="M55" t="s">
-        <v>9</v>
-      </c>
-      <c r="N55" t="s">
-        <v>10</v>
-      </c>
-      <c r="O55" t="s">
-        <v>268</v>
-      </c>
-      <c r="P55" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>45488</v>
-      </c>
-      <c r="R55" s="2">
-        <v>45488</v>
-      </c>
-      <c r="S55" t="s">
-        <v>270</v>
-      </c>
-      <c r="T55" t="s">
-        <v>23</v>
-      </c>
-      <c r="U55" t="s">
-        <v>24</v>
-      </c>
-      <c r="V55" t="s">
-        <v>25</v>
-      </c>
-      <c r="W55" t="s">
-        <v>14</v>
-      </c>
-      <c r="X55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>263</v>
-      </c>
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="2">
-        <v>45488</v>
-      </c>
-      <c r="E56" t="s">
-        <v>223</v>
-      </c>
-      <c r="F56" t="s">
-        <v>224</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="3">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" t="s">
-        <v>6</v>
-      </c>
-      <c r="K56" t="s">
-        <v>266</v>
-      </c>
-      <c r="L56" t="s">
-        <v>267</v>
-      </c>
-      <c r="M56" t="s">
-        <v>9</v>
-      </c>
-      <c r="N56" t="s">
-        <v>10</v>
-      </c>
-      <c r="O56" t="s">
-        <v>268</v>
-      </c>
-      <c r="P56" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>45488</v>
-      </c>
-      <c r="R56" s="2">
-        <v>45488</v>
-      </c>
-      <c r="S56" t="s">
-        <v>270</v>
-      </c>
-      <c r="T56" t="s">
-        <v>23</v>
-      </c>
-      <c r="U56" t="s">
-        <v>24</v>
-      </c>
-      <c r="V56" t="s">
-        <v>25</v>
-      </c>
-      <c r="W56" t="s">
-        <v>14</v>
-      </c>
-      <c r="X56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>263</v>
-      </c>
-      <c r="C57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="2">
-        <v>45488</v>
-      </c>
-      <c r="E57" t="s">
-        <v>274</v>
-      </c>
-      <c r="F57" t="s">
-        <v>275</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3</v>
-      </c>
-      <c r="I57" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" t="s">
-        <v>6</v>
-      </c>
-      <c r="K57" t="s">
-        <v>266</v>
-      </c>
-      <c r="L57" t="s">
-        <v>267</v>
-      </c>
-      <c r="M57" t="s">
-        <v>9</v>
-      </c>
-      <c r="N57" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" t="s">
-        <v>268</v>
-      </c>
-      <c r="P57" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>45488</v>
-      </c>
-      <c r="R57" s="2">
-        <v>45488</v>
-      </c>
-      <c r="S57" t="s">
-        <v>270</v>
-      </c>
-      <c r="T57" t="s">
-        <v>23</v>
-      </c>
-      <c r="U57" t="s">
-        <v>24</v>
-      </c>
-      <c r="V57" t="s">
-        <v>25</v>
-      </c>
-      <c r="W57" t="s">
-        <v>14</v>
-      </c>
-      <c r="X57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>263</v>
-      </c>
-      <c r="C58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="2">
-        <v>45488</v>
-      </c>
-      <c r="E58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2</v>
-      </c>
-      <c r="I58" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" t="s">
-        <v>6</v>
-      </c>
-      <c r="K58" t="s">
-        <v>266</v>
-      </c>
-      <c r="L58" t="s">
-        <v>267</v>
-      </c>
-      <c r="M58" t="s">
-        <v>9</v>
-      </c>
-      <c r="N58" t="s">
-        <v>10</v>
-      </c>
-      <c r="O58" t="s">
-        <v>268</v>
-      </c>
-      <c r="P58" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>45488</v>
-      </c>
-      <c r="R58" s="2">
-        <v>45488</v>
-      </c>
-      <c r="S58" t="s">
-        <v>270</v>
-      </c>
-      <c r="T58" t="s">
-        <v>23</v>
-      </c>
-      <c r="U58" t="s">
-        <v>24</v>
-      </c>
-      <c r="V58" t="s">
-        <v>25</v>
-      </c>
-      <c r="W58" t="s">
-        <v>14</v>
-      </c>
-      <c r="X58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>263</v>
-      </c>
-      <c r="C59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="2">
-        <v>45488</v>
-      </c>
-      <c r="E59" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2</v>
-      </c>
-      <c r="H59" s="3">
-        <v>20</v>
-      </c>
-      <c r="I59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" t="s">
-        <v>6</v>
-      </c>
-      <c r="K59" t="s">
-        <v>266</v>
-      </c>
-      <c r="L59" t="s">
-        <v>267</v>
-      </c>
-      <c r="M59" t="s">
-        <v>9</v>
-      </c>
-      <c r="N59" t="s">
-        <v>10</v>
-      </c>
-      <c r="O59" t="s">
-        <v>268</v>
-      </c>
-      <c r="P59" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>45488</v>
-      </c>
-      <c r="R59" s="2">
-        <v>45488</v>
-      </c>
-      <c r="S59" t="s">
-        <v>270</v>
-      </c>
-      <c r="T59" t="s">
-        <v>23</v>
-      </c>
-      <c r="U59" t="s">
-        <v>24</v>
-      </c>
-      <c r="V59" t="s">
-        <v>25</v>
-      </c>
-      <c r="W59" t="s">
-        <v>14</v>
-      </c>
-      <c r="X59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>263</v>
-      </c>
-      <c r="C60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="2">
-        <v>45488</v>
-      </c>
-      <c r="E60" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" t="s">
-        <v>47</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3">
-        <v>30</v>
-      </c>
-      <c r="I60" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" t="s">
-        <v>6</v>
-      </c>
-      <c r="K60" t="s">
-        <v>266</v>
-      </c>
-      <c r="L60" t="s">
-        <v>267</v>
-      </c>
-      <c r="M60" t="s">
-        <v>9</v>
-      </c>
-      <c r="N60" t="s">
-        <v>10</v>
-      </c>
-      <c r="O60" t="s">
-        <v>268</v>
-      </c>
-      <c r="P60" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>45488</v>
-      </c>
-      <c r="R60" s="2">
-        <v>45488</v>
-      </c>
-      <c r="S60" t="s">
-        <v>270</v>
-      </c>
-      <c r="T60" t="s">
-        <v>23</v>
-      </c>
-      <c r="U60" t="s">
-        <v>24</v>
-      </c>
-      <c r="V60" t="s">
-        <v>25</v>
-      </c>
-      <c r="W60" t="s">
-        <v>14</v>
-      </c>
-      <c r="X60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>263</v>
-      </c>
-      <c r="C61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="2">
-        <v>45488</v>
-      </c>
-      <c r="E61" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="3">
-        <v>8</v>
-      </c>
-      <c r="H61" s="3">
-        <v>80</v>
-      </c>
-      <c r="I61" t="s">
-        <v>5</v>
-      </c>
-      <c r="J61" t="s">
-        <v>6</v>
-      </c>
-      <c r="K61" t="s">
-        <v>266</v>
-      </c>
-      <c r="L61" t="s">
-        <v>267</v>
-      </c>
-      <c r="M61" t="s">
-        <v>9</v>
-      </c>
-      <c r="N61" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" t="s">
-        <v>268</v>
-      </c>
-      <c r="P61" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>45488</v>
-      </c>
-      <c r="R61" s="2">
-        <v>45488</v>
-      </c>
-      <c r="S61" t="s">
-        <v>270</v>
-      </c>
-      <c r="T61" t="s">
-        <v>23</v>
-      </c>
-      <c r="U61" t="s">
-        <v>24</v>
-      </c>
-      <c r="V61" t="s">
-        <v>25</v>
-      </c>
-      <c r="W61" t="s">
-        <v>14</v>
-      </c>
-      <c r="X61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
-      <c r="A62" t="s">
-        <v>276</v>
-      </c>
-      <c r="B62" t="s">
-        <v>277</v>
-      </c>
-      <c r="C62" t="s">
-        <v>278</v>
-      </c>
-      <c r="D62" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E62" t="s">
-        <v>279</v>
-      </c>
-      <c r="F62" t="s">
-        <v>280</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" t="s">
-        <v>281</v>
-      </c>
-      <c r="K62" t="s">
-        <v>282</v>
-      </c>
-      <c r="L62" t="s">
-        <v>283</v>
-      </c>
-      <c r="M62" t="s">
-        <v>284</v>
-      </c>
-      <c r="N62" t="s">
-        <v>10</v>
-      </c>
-      <c r="O62" t="s">
-        <v>285</v>
-      </c>
-      <c r="P62" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R62" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S62" t="s">
-        <v>38</v>
-      </c>
-      <c r="T62" t="s">
-        <v>282</v>
-      </c>
-      <c r="U62" t="s">
-        <v>287</v>
-      </c>
-      <c r="V62" t="s">
-        <v>288</v>
-      </c>
-      <c r="W62" t="s">
-        <v>14</v>
-      </c>
-      <c r="X62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
-      <c r="A63" t="s">
-        <v>276</v>
-      </c>
-      <c r="B63" t="s">
-        <v>289</v>
-      </c>
-      <c r="C63" t="s">
-        <v>290</v>
-      </c>
-      <c r="D63" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E63" t="s">
-        <v>279</v>
-      </c>
-      <c r="F63" t="s">
-        <v>280</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>5</v>
-      </c>
-      <c r="J63" t="s">
-        <v>281</v>
-      </c>
-      <c r="K63" t="s">
-        <v>282</v>
-      </c>
-      <c r="L63" t="s">
-        <v>291</v>
-      </c>
-      <c r="M63" t="s">
-        <v>284</v>
-      </c>
-      <c r="N63" t="s">
-        <v>10</v>
-      </c>
-      <c r="O63" t="s">
-        <v>292</v>
-      </c>
-      <c r="P63" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R63" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S63" t="s">
-        <v>38</v>
-      </c>
-      <c r="T63" t="s">
-        <v>282</v>
-      </c>
-      <c r="U63" t="s">
-        <v>287</v>
-      </c>
-      <c r="V63" t="s">
-        <v>288</v>
-      </c>
-      <c r="W63" t="s">
-        <v>14</v>
-      </c>
-      <c r="X63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
-      <c r="A64" t="s">
-        <v>276</v>
-      </c>
-      <c r="B64" t="s">
-        <v>293</v>
-      </c>
-      <c r="C64" t="s">
-        <v>294</v>
-      </c>
-      <c r="D64" s="2">
-        <v>45308</v>
-      </c>
-      <c r="E64" t="s">
-        <v>279</v>
-      </c>
-      <c r="F64" t="s">
-        <v>280</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="3">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>5</v>
-      </c>
-      <c r="J64" t="s">
-        <v>281</v>
-      </c>
-      <c r="K64" t="s">
-        <v>282</v>
-      </c>
-      <c r="L64" t="s">
-        <v>295</v>
-      </c>
-      <c r="M64" t="s">
-        <v>284</v>
-      </c>
-      <c r="N64" t="s">
-        <v>10</v>
-      </c>
-      <c r="O64" t="s">
-        <v>296</v>
-      </c>
-      <c r="P64" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>45308</v>
-      </c>
-      <c r="R64" s="2">
-        <v>45309</v>
-      </c>
-      <c r="S64" t="s">
-        <v>38</v>
-      </c>
-      <c r="T64" t="s">
-        <v>282</v>
-      </c>
-      <c r="U64" t="s">
-        <v>287</v>
-      </c>
-      <c r="V64" t="s">
-        <v>288</v>
-      </c>
-      <c r="W64" t="s">
-        <v>14</v>
-      </c>
-      <c r="X64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
-      <c r="A65" t="s">
-        <v>276</v>
-      </c>
-      <c r="B65" t="s">
-        <v>297</v>
-      </c>
-      <c r="C65" t="s">
-        <v>298</v>
-      </c>
-      <c r="D65" s="2">
-        <v>45427</v>
-      </c>
-      <c r="E65" t="s">
-        <v>299</v>
-      </c>
-      <c r="F65" t="s">
-        <v>300</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>5</v>
-      </c>
-      <c r="J65" t="s">
-        <v>281</v>
-      </c>
-      <c r="K65" t="s">
-        <v>301</v>
-      </c>
-      <c r="L65" t="s">
-        <v>302</v>
-      </c>
-      <c r="M65" t="s">
-        <v>9</v>
-      </c>
-      <c r="N65" t="s">
-        <v>10</v>
-      </c>
-      <c r="O65" t="s">
-        <v>303</v>
-      </c>
-      <c r="P65" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>45427</v>
-      </c>
-      <c r="R65" s="2">
-        <v>45427</v>
-      </c>
-      <c r="S65" t="s">
-        <v>22</v>
-      </c>
-      <c r="T65" t="s">
-        <v>301</v>
-      </c>
-      <c r="U65" t="s">
-        <v>298</v>
-      </c>
-      <c r="V65" t="s">
-        <v>302</v>
-      </c>
-      <c r="W65" t="s">
-        <v>14</v>
-      </c>
-      <c r="X65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="A66" t="s">
-        <v>276</v>
-      </c>
-      <c r="B66" t="s">
-        <v>304</v>
-      </c>
-      <c r="C66" t="s">
-        <v>305</v>
-      </c>
-      <c r="D66" s="2">
-        <v>45428</v>
-      </c>
-      <c r="E66" t="s">
-        <v>306</v>
-      </c>
-      <c r="F66" t="s">
-        <v>307</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" t="s">
-        <v>281</v>
-      </c>
-      <c r="K66" t="s">
-        <v>282</v>
-      </c>
-      <c r="L66" t="s">
-        <v>308</v>
-      </c>
-      <c r="M66" t="s">
-        <v>284</v>
-      </c>
-      <c r="N66" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" t="s">
-        <v>309</v>
-      </c>
-      <c r="P66" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>45428</v>
-      </c>
-      <c r="R66" s="2">
-        <v>45429</v>
-      </c>
-      <c r="S66" t="s">
-        <v>38</v>
-      </c>
-      <c r="T66" t="s">
-        <v>282</v>
-      </c>
-      <c r="U66" t="s">
-        <v>287</v>
-      </c>
-      <c r="V66" t="s">
-        <v>288</v>
-      </c>
-      <c r="W66" t="s">
-        <v>14</v>
-      </c>
-      <c r="X66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
-      <c r="A67" t="s">
-        <v>276</v>
-      </c>
-      <c r="B67" t="s">
-        <v>310</v>
-      </c>
-      <c r="C67" t="s">
-        <v>311</v>
-      </c>
-      <c r="D67" s="2">
-        <v>45434</v>
-      </c>
-      <c r="E67" t="s">
-        <v>312</v>
-      </c>
-      <c r="F67" t="s">
-        <v>313</v>
-      </c>
-      <c r="G67" s="3">
-        <v>2</v>
-      </c>
-      <c r="H67" s="3">
-        <v>4</v>
-      </c>
-      <c r="I67" t="s">
-        <v>5</v>
-      </c>
-      <c r="J67" t="s">
-        <v>281</v>
-      </c>
-      <c r="K67" t="s">
-        <v>314</v>
-      </c>
-      <c r="L67" t="s">
-        <v>315</v>
-      </c>
-      <c r="M67" t="s">
-        <v>9</v>
-      </c>
-      <c r="N67" t="s">
-        <v>10</v>
-      </c>
-      <c r="O67" t="s">
-        <v>316</v>
-      </c>
-      <c r="P67" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>45434</v>
-      </c>
-      <c r="R67" s="2">
-        <v>45436</v>
-      </c>
-      <c r="S67" t="s">
-        <v>13</v>
-      </c>
-      <c r="T67" t="s">
-        <v>314</v>
-      </c>
-      <c r="U67" t="s">
-        <v>311</v>
-      </c>
-      <c r="V67" t="s">
-        <v>317</v>
-      </c>
-      <c r="W67" t="s">
-        <v>14</v>
-      </c>
-      <c r="X67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
-      <c r="A68" t="s">
-        <v>276</v>
-      </c>
-      <c r="B68" t="s">
-        <v>318</v>
-      </c>
-      <c r="C68" t="s">
-        <v>298</v>
-      </c>
-      <c r="D68" s="2">
-        <v>45483</v>
-      </c>
-      <c r="E68" t="s">
-        <v>319</v>
-      </c>
-      <c r="F68" t="s">
-        <v>320</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="3">
-        <v>3</v>
-      </c>
-      <c r="I68" t="s">
-        <v>5</v>
-      </c>
-      <c r="J68" t="s">
-        <v>281</v>
-      </c>
-      <c r="K68" t="s">
-        <v>301</v>
-      </c>
-      <c r="L68" t="s">
-        <v>302</v>
-      </c>
-      <c r="M68" t="s">
-        <v>9</v>
-      </c>
-      <c r="N68" t="s">
-        <v>10</v>
-      </c>
-      <c r="O68" t="s">
-        <v>321</v>
-      </c>
-      <c r="P68" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>45483</v>
-      </c>
-      <c r="R68" s="2">
-        <v>45483</v>
-      </c>
-      <c r="S68" t="s">
-        <v>322</v>
-      </c>
-      <c r="T68" t="s">
-        <v>301</v>
-      </c>
-      <c r="U68" t="s">
-        <v>298</v>
-      </c>
-      <c r="V68" t="s">
-        <v>302</v>
-      </c>
-      <c r="W68" t="s">
-        <v>14</v>
-      </c>
-      <c r="X68" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="215">
   <si>
     <t>P891</t>
   </si>
@@ -154,40 +154,94 @@
     <t>Reagent Set 68Ga-labeled peptides</t>
   </si>
   <si>
-    <t>134014296</t>
-  </si>
-  <si>
-    <t>DIRECT RADIOLOGY</t>
-  </si>
-  <si>
-    <t>86698242</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>1036936</t>
-  </si>
-  <si>
-    <t>FAIRFIELD</t>
-  </si>
-  <si>
-    <t>717244529</t>
+    <t>134030916</t>
+  </si>
+  <si>
+    <t>PRINCESS ALEXANDRA HOSPITAL</t>
+  </si>
+  <si>
+    <t>87548783</t>
+  </si>
+  <si>
+    <t>ASSY,DAY SET,CENTARGO,ROW</t>
+  </si>
+  <si>
+    <t>4596272</t>
+  </si>
+  <si>
+    <t>WOOLLOONGABBA</t>
+  </si>
+  <si>
+    <t>717246981</t>
+  </si>
+  <si>
+    <t>EHGHA</t>
+  </si>
+  <si>
+    <t>4595416</t>
+  </si>
+  <si>
+    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>EIGHT MILE PLAINS</t>
+  </si>
+  <si>
+    <t>87548384</t>
+  </si>
+  <si>
+    <t>ASSY,SPIKE,BBRAUN,CENTARGO,ROW</t>
+  </si>
+  <si>
+    <t>134030977</t>
+  </si>
+  <si>
+    <t>MT DRUITT HOSPITAL</t>
+  </si>
+  <si>
+    <t>86835444</t>
+  </si>
+  <si>
+    <t>MRXPERION,KIT,SYR,MR,PFA,JA,FINAL</t>
+  </si>
+  <si>
+    <t>3309340</t>
+  </si>
+  <si>
+    <t>MOUNT DRUITT</t>
+  </si>
+  <si>
+    <t>717252276</t>
   </si>
   <si>
     <t>010050</t>
   </si>
   <si>
-    <t>86698188</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,DUAL,TCON,SPK,MC,WLD</t>
-  </si>
-  <si>
-    <t>134014991</t>
-  </si>
-  <si>
-    <t>CAPITAL RADIOLOGY</t>
+    <t>4596108</t>
+  </si>
+  <si>
+    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
+  </si>
+  <si>
+    <t>PARRAMATTA</t>
+  </si>
+  <si>
+    <t>86594226</t>
+  </si>
+  <si>
+    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+  </si>
+  <si>
+    <t>87621529</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>133983999</t>
+  </si>
+  <si>
+    <t>TEMORA MEDICAL IMAGING</t>
   </si>
   <si>
     <t>87234495</t>
@@ -196,25 +250,211 @@
     <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
   </si>
   <si>
-    <t>3432379</t>
-  </si>
-  <si>
-    <t>717247878</t>
-  </si>
-  <si>
-    <t>3605543</t>
-  </si>
-  <si>
-    <t>CAPITAL RADIOLOGY PTY LTD</t>
-  </si>
-  <si>
-    <t>EAST MELBOURNE</t>
-  </si>
-  <si>
-    <t>134015057</t>
-  </si>
-  <si>
-    <t>VESEBE PTY LTD (NOWRA)</t>
+    <t>4595189</t>
+  </si>
+  <si>
+    <t>TEMORA</t>
+  </si>
+  <si>
+    <t>717247999</t>
+  </si>
+  <si>
+    <t>1943887</t>
+  </si>
+  <si>
+    <t>ALPENGLOW AUSTRALIA PTY LTD</t>
+  </si>
+  <si>
+    <t>SYDNEY</t>
+  </si>
+  <si>
+    <t>134030974</t>
+  </si>
+  <si>
+    <t>TAMWORTH HEALTH SERVICE</t>
+  </si>
+  <si>
+    <t>87078752</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,D,SPK,FLS3,150ML,WLD</t>
+  </si>
+  <si>
+    <t>4595242</t>
+  </si>
+  <si>
+    <t>TAMWORTH</t>
+  </si>
+  <si>
+    <t>717251785</t>
+  </si>
+  <si>
+    <t>4595328</t>
+  </si>
+  <si>
+    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
+  </si>
+  <si>
+    <t>NEWCASTLE</t>
+  </si>
+  <si>
+    <t>87078760</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
+  </si>
+  <si>
+    <t>134030975</t>
+  </si>
+  <si>
+    <t>GOULBURN VALLEY HEALTH</t>
+  </si>
+  <si>
+    <t>4595200</t>
+  </si>
+  <si>
+    <t>SHEPPARTON</t>
+  </si>
+  <si>
+    <t>717251825</t>
+  </si>
+  <si>
+    <t>4595194</t>
+  </si>
+  <si>
+    <t>134030978</t>
+  </si>
+  <si>
+    <t>BARWON MEDICAL IMAGING - GEELONG</t>
+  </si>
+  <si>
+    <t>4596081</t>
+  </si>
+  <si>
+    <t>GEELONG</t>
+  </si>
+  <si>
+    <t>717254531</t>
+  </si>
+  <si>
+    <t>4596084</t>
+  </si>
+  <si>
+    <t>BARWON HEALTH</t>
+  </si>
+  <si>
+    <t>64432956</t>
+  </si>
+  <si>
+    <t>Methanol, Chromasolv for HPLC 1Lt</t>
+  </si>
+  <si>
+    <t>134030979</t>
+  </si>
+  <si>
+    <t>NEPEAN BLUE MOUNTAINS LOCAL</t>
+  </si>
+  <si>
+    <t>918110</t>
+  </si>
+  <si>
+    <t>2 Col Drewe Drive Lithgow</t>
+  </si>
+  <si>
+    <t>717254910</t>
+  </si>
+  <si>
+    <t>4596182</t>
+  </si>
+  <si>
+    <t>80802544</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>02112548</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>134030981</t>
+  </si>
+  <si>
+    <t>DUBBO BASE HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596045</t>
+  </si>
+  <si>
+    <t>DUBBO</t>
+  </si>
+  <si>
+    <t>717250229</t>
+  </si>
+  <si>
+    <t>4596048</t>
+  </si>
+  <si>
+    <t>WESTERN NSW LOCAL HEALTH DISTRICT O</t>
+  </si>
+  <si>
+    <t>134023291</t>
+  </si>
+  <si>
+    <t>SKG RADIOLOGY - BUNBURY</t>
+  </si>
+  <si>
+    <t>86645610</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,LPCT,TC,STLNT,MC,WLD</t>
+  </si>
+  <si>
+    <t>4633130</t>
+  </si>
+  <si>
+    <t>BUNBURY</t>
+  </si>
+  <si>
+    <t>717246153</t>
+  </si>
+  <si>
+    <t>010530</t>
+  </si>
+  <si>
+    <t>4595069</t>
+  </si>
+  <si>
+    <t>SKG RADIOLOGY</t>
+  </si>
+  <si>
+    <t>WEST PERTH</t>
+  </si>
+  <si>
+    <t>134028280</t>
+  </si>
+  <si>
+    <t>SIR CHARLES GAIRDNER HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595761</t>
+  </si>
+  <si>
+    <t>NEDLANDS</t>
+  </si>
+  <si>
+    <t>717249026</t>
+  </si>
+  <si>
+    <t>4595766</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF HEALTH WA</t>
+  </si>
+  <si>
+    <t>RAILWAY ROAD</t>
   </si>
   <si>
     <t>03250768</t>
@@ -223,279 +463,6 @@
     <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
   </si>
   <si>
-    <t>3018457</t>
-  </si>
-  <si>
-    <t>NOWRA</t>
-  </si>
-  <si>
-    <t>717247694</t>
-  </si>
-  <si>
-    <t>020050</t>
-  </si>
-  <si>
-    <t>134023097</t>
-  </si>
-  <si>
-    <t>SPECTRUM MEDICAL IMAGING SERVICES</t>
-  </si>
-  <si>
-    <t>3397516</t>
-  </si>
-  <si>
-    <t>LIVERPOOL</t>
-  </si>
-  <si>
-    <t>717247640</t>
-  </si>
-  <si>
-    <t>134007201</t>
-  </si>
-  <si>
-    <t>I-MED RADIOLOGY - WERRIBEE</t>
-  </si>
-  <si>
-    <t>82212737</t>
-  </si>
-  <si>
-    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
-  </si>
-  <si>
-    <t>4595934</t>
-  </si>
-  <si>
-    <t>WERRIBEE</t>
-  </si>
-  <si>
-    <t>717243139</t>
-  </si>
-  <si>
-    <t>134014970</t>
-  </si>
-  <si>
-    <t>NORTHCOTE RADIOLOGY CLINIC PTY LTD</t>
-  </si>
-  <si>
-    <t>87234487</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,SPK,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>4595184</t>
-  </si>
-  <si>
-    <t>NORTHCOTE</t>
-  </si>
-  <si>
-    <t>717248703</t>
-  </si>
-  <si>
-    <t>134016017</t>
-  </si>
-  <si>
-    <t>CONS ROBINA HOSPITAL OAO-0G0-652</t>
-  </si>
-  <si>
-    <t>80802544</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>971721</t>
-  </si>
-  <si>
-    <t>ROBINA</t>
-  </si>
-  <si>
-    <t>717245247</t>
-  </si>
-  <si>
-    <t>4595661</t>
-  </si>
-  <si>
-    <t>GOLD COAST HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>SOUTHPORT</t>
-  </si>
-  <si>
-    <t>02112555</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU VIAL 10X15ML AU-NZ</t>
-  </si>
-  <si>
-    <t>134020245</t>
-  </si>
-  <si>
-    <t>SYDNEY ADVENTIST HOSPITAL</t>
-  </si>
-  <si>
-    <t>86610280</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,STELLANT MP,MIC,MC,EU</t>
-  </si>
-  <si>
-    <t>4595578</t>
-  </si>
-  <si>
-    <t>WAHROONGA</t>
-  </si>
-  <si>
-    <t>717242783</t>
-  </si>
-  <si>
-    <t>3018003</t>
-  </si>
-  <si>
-    <t>134020246</t>
-  </si>
-  <si>
-    <t>ROYAL ADELAIDE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4676781</t>
-  </si>
-  <si>
-    <t>ADELAIDE</t>
-  </si>
-  <si>
-    <t>717247435</t>
-  </si>
-  <si>
-    <t>4595446</t>
-  </si>
-  <si>
-    <t>CENTRAL ADELAIDE LOCAL HEALTH</t>
-  </si>
-  <si>
-    <t>134020575</t>
-  </si>
-  <si>
-    <t>DUBBO BASE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596045</t>
-  </si>
-  <si>
-    <t>DUBBO</t>
-  </si>
-  <si>
-    <t>717238337</t>
-  </si>
-  <si>
-    <t>4596048</t>
-  </si>
-  <si>
-    <t>WESTERN NSW LOCAL HEALTH DISTRICT O</t>
-  </si>
-  <si>
-    <t>PARRAMATTA</t>
-  </si>
-  <si>
-    <t>02112548</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>134021815</t>
-  </si>
-  <si>
-    <t>ST GEORGE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595138</t>
-  </si>
-  <si>
-    <t>KOGARAH</t>
-  </si>
-  <si>
-    <t>717245235</t>
-  </si>
-  <si>
-    <t>4596274</t>
-  </si>
-  <si>
-    <t>SOUTH EASTERN SYDNEY LOCAL HEALTH D</t>
-  </si>
-  <si>
-    <t>HUNTER REGION MAIL CENTRE</t>
-  </si>
-  <si>
-    <t>134019671</t>
-  </si>
-  <si>
-    <t>OSBORNE PARK HOSPITAL SUPPLY STORE</t>
-  </si>
-  <si>
-    <t>920539</t>
-  </si>
-  <si>
-    <t>STIRLING</t>
-  </si>
-  <si>
-    <t>717241485</t>
-  </si>
-  <si>
-    <t>010530</t>
-  </si>
-  <si>
-    <t>4595766</t>
-  </si>
-  <si>
-    <t>DEPARTMENT OF HEALTH WA</t>
-  </si>
-  <si>
-    <t>RAILWAY ROAD</t>
-  </si>
-  <si>
-    <t>134007968</t>
-  </si>
-  <si>
-    <t>BANKSTOWN LIDCOMBE MEDICAL IMAGING</t>
-  </si>
-  <si>
-    <t>89304148</t>
-  </si>
-  <si>
-    <t>SALIENT,SYS,INJ,DUAL WIRELESS</t>
-  </si>
-  <si>
-    <t>4005159</t>
-  </si>
-  <si>
-    <t>BANKSTOWN</t>
-  </si>
-  <si>
-    <t>717248180</t>
-  </si>
-  <si>
-    <t>EGFVJ</t>
-  </si>
-  <si>
-    <t>87436136</t>
-  </si>
-  <si>
-    <t>Salient Operation Manual English</t>
-  </si>
-  <si>
-    <t>86621495</t>
-  </si>
-  <si>
-    <t>POWER CORD- AUSTRALIA</t>
-  </si>
-  <si>
-    <t>87491315</t>
-  </si>
-  <si>
-    <t>Power Cord, Australia to IEC C5, 2m</t>
-  </si>
-  <si>
     <t>133989039</t>
   </si>
   <si>
@@ -514,9 +481,6 @@
     <t>717202655</t>
   </si>
   <si>
-    <t>EHGHA</t>
-  </si>
-  <si>
     <t>000011</t>
   </si>
   <si>
@@ -604,27 +568,6 @@
     <t>2172497900</t>
   </si>
   <si>
-    <t>133961222</t>
-  </si>
-  <si>
-    <t>TECHNISONIC SYSTEM 2013 LTD</t>
-  </si>
-  <si>
-    <t>64429211</t>
-  </si>
-  <si>
-    <t>8 Channel Wireless oPOD</t>
-  </si>
-  <si>
-    <t>4595848</t>
-  </si>
-  <si>
-    <t>ALBANY</t>
-  </si>
-  <si>
-    <t>717197864</t>
-  </si>
-  <si>
     <t>133970680</t>
   </si>
   <si>
@@ -641,45 +584,6 @@
   </si>
   <si>
     <t>2172557718</t>
-  </si>
-  <si>
-    <t>134015166</t>
-  </si>
-  <si>
-    <t>SUNSHINE COAST HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>87471888</t>
-  </si>
-  <si>
-    <t>Battery 12V9 Ah, Single Cell</t>
-  </si>
-  <si>
-    <t>4595794</t>
-  </si>
-  <si>
-    <t>BIRTINYA</t>
-  </si>
-  <si>
-    <t>717242712</t>
-  </si>
-  <si>
-    <t>SUNSHINE COAST MC</t>
-  </si>
-  <si>
-    <t>134009815</t>
-  </si>
-  <si>
-    <t>64414168</t>
-  </si>
-  <si>
-    <t>Reusable Grip Sensor (Size 1,2 and 3)</t>
-  </si>
-  <si>
-    <t>717176172</t>
-  </si>
-  <si>
-    <t>000010</t>
   </si>
   <si>
     <t>Shipping Point/Receiving Pt</t>
@@ -856,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,7 +770,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" width="18" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="11" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="36" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="34" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="14" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
     <col min="6" max="6" bestFit="1" width="42" customWidth="1"/>
@@ -875,7 +779,7 @@
     <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="6" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="15" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="14" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="31" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15" customWidth="1"/>
     <col min="14" max="14" bestFit="1" width="6" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="21" customWidth="1"/>
@@ -885,83 +789,83 @@
     <col min="19" max="19" bestFit="1" width="8" customWidth="1"/>
     <col min="20" max="20" bestFit="1" width="15" customWidth="1"/>
     <col min="21" max="21" bestFit="1" width="37" customWidth="1"/>
-    <col min="22" max="22" bestFit="1" width="31" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="19" customWidth="1"/>
     <col min="23" max="23" bestFit="1" width="12" customWidth="1"/>
     <col min="24" max="24" bestFit="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>234</v>
+        <v>201</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>244</v>
+        <v>211</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1715,7 +1619,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="E12" t="s">
         <v>49</v>
@@ -1724,10 +1628,10 @@
         <v>50</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -1751,25 +1655,25 @@
         <v>53</v>
       </c>
       <c r="P12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="R12" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="U12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="W12" t="s">
         <v>14</v>
@@ -1789,19 +1693,19 @@
         <v>48</v>
       </c>
       <c r="D13" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -1825,25 +1729,25 @@
         <v>53</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="R13" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="U13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="V13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="W13" t="s">
         <v>14</v>
@@ -1857,25 +1761,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -1884,10 +1788,10 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -1896,28 +1800,28 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P14" t="s">
         <v>37</v>
       </c>
       <c r="Q14" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="R14" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="T14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="U14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="V14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="W14" t="s">
         <v>14</v>
@@ -1931,25 +1835,25 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G15" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -1958,10 +1862,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -1970,28 +1874,28 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P15" t="s">
         <v>37</v>
       </c>
       <c r="Q15" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="R15" s="2">
         <v>45435</v>
       </c>
       <c r="S15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15" t="s">
+        <v>69</v>
+      </c>
+      <c r="V15" t="s">
         <v>70</v>
-      </c>
-      <c r="U15" t="s">
-        <v>67</v>
-      </c>
-      <c r="V15" t="s">
-        <v>71</v>
       </c>
       <c r="W15" t="s">
         <v>14</v>
@@ -2005,25 +1909,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45434</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45433</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
       <c r="G16" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2032,10 +1936,10 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2044,28 +1948,28 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="P16" t="s">
         <v>37</v>
       </c>
       <c r="Q16" s="2">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="R16" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="T16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="U16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="V16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="W16" t="s">
         <v>14</v>
@@ -2079,25 +1983,25 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G17" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H17" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2106,10 +2010,10 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -2118,25 +2022,25 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P17" t="s">
         <v>37</v>
       </c>
       <c r="Q17" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="R17" s="2">
-        <v>45435</v>
+        <v>45439</v>
       </c>
       <c r="S17" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="T17" t="s">
+        <v>82</v>
+      </c>
+      <c r="U17" t="s">
         <v>83</v>
-      </c>
-      <c r="U17" t="s">
-        <v>80</v>
       </c>
       <c r="V17" t="s">
         <v>84</v>
@@ -2153,25 +2057,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
         <v>86</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="2">
+        <v>45435</v>
+      </c>
+      <c r="E18" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="2">
-        <v>45434</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>88</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2180,10 +2084,10 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" t="s">
         <v>90</v>
-      </c>
-      <c r="L18" t="s">
-        <v>91</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -2192,28 +2096,28 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P18" t="s">
         <v>37</v>
       </c>
       <c r="Q18" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="R18" s="2">
-        <v>45435</v>
+        <v>45439</v>
       </c>
       <c r="S18" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="T18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="U18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="W18" t="s">
         <v>14</v>
@@ -2227,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="E19" t="s">
         <v>95</v>
@@ -2242,10 +2146,10 @@
         <v>96</v>
       </c>
       <c r="G19" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2254,10 +2158,10 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -2266,28 +2170,28 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="P19" t="s">
         <v>37</v>
       </c>
       <c r="Q19" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="R19" s="2">
-        <v>45435</v>
+        <v>45439</v>
       </c>
       <c r="S19" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="T19" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="U19" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="V19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="W19" t="s">
         <v>14</v>
@@ -2301,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="G20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2328,10 +2232,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -2340,28 +2244,28 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P20" t="s">
         <v>37</v>
       </c>
       <c r="Q20" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="R20" s="2">
-        <v>45435</v>
+        <v>45439</v>
       </c>
       <c r="S20" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="T20" t="s">
+        <v>102</v>
+      </c>
+      <c r="U20" t="s">
+        <v>98</v>
+      </c>
+      <c r="V20" t="s">
         <v>100</v>
-      </c>
-      <c r="U20" t="s">
-        <v>101</v>
-      </c>
-      <c r="V20" t="s">
-        <v>102</v>
       </c>
       <c r="W20" t="s">
         <v>14</v>
@@ -2375,25 +2279,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G21" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2402,10 +2306,10 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -2414,28 +2318,28 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="P21" t="s">
         <v>37</v>
       </c>
       <c r="Q21" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="R21" s="2">
-        <v>45435</v>
+        <v>45439</v>
       </c>
       <c r="S21" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="T21" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="U21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="V21" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="W21" t="s">
         <v>14</v>
@@ -2449,25 +2353,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="G22" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2476,10 +2380,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L22" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2488,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="P22" t="s">
         <v>37</v>
       </c>
       <c r="Q22" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="R22" s="2">
         <v>45436</v>
       </c>
       <c r="S22" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="U22" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="V22" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="W22" t="s">
         <v>14</v>
@@ -2523,25 +2427,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
@@ -2550,10 +2454,10 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -2562,28 +2466,28 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="P23" t="s">
         <v>37</v>
       </c>
       <c r="Q23" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="R23" s="2">
         <v>45436</v>
       </c>
       <c r="S23" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="U23" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="V23" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="W23" t="s">
         <v>14</v>
@@ -2597,25 +2501,25 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G24" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -2624,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -2636,28 +2540,28 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="P24" t="s">
         <v>37</v>
       </c>
       <c r="Q24" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="R24" s="2">
         <v>45436</v>
       </c>
       <c r="S24" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="U24" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="V24" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="W24" t="s">
         <v>14</v>
@@ -2671,25 +2575,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="G25" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H25" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -2698,10 +2602,10 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -2710,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P25" t="s">
         <v>37</v>
       </c>
       <c r="Q25" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="R25" s="2">
-        <v>45436</v>
+        <v>45439</v>
       </c>
       <c r="S25" t="s">
         <v>13</v>
       </c>
       <c r="T25" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="U25" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="V25" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="W25" t="s">
         <v>14</v>
@@ -2745,25 +2649,25 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D26" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="G26" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H26" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -2772,10 +2676,10 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -2784,28 +2688,28 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="P26" t="s">
         <v>37</v>
       </c>
       <c r="Q26" s="2">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="R26" s="2">
-        <v>45435</v>
+        <v>45439</v>
       </c>
       <c r="S26" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="T26" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="U26" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="V26" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="W26" t="s">
         <v>14</v>
@@ -2819,25 +2723,25 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2">
-        <v>45440</v>
+        <v>45435</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -2846,10 +2750,10 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="L27" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -2858,28 +2762,28 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="P27" t="s">
         <v>37</v>
       </c>
       <c r="Q27" s="2">
-        <v>45440</v>
+        <v>45435</v>
       </c>
       <c r="R27" s="2">
-        <v>45441</v>
+        <v>45439</v>
       </c>
       <c r="S27" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="T27" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="U27" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="V27" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="W27" t="s">
         <v>14</v>
@@ -2893,25 +2797,25 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D28" s="2">
-        <v>45463</v>
+        <v>45435</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -2920,10 +2824,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="L28" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -2932,28 +2836,28 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="2">
-        <v>45463</v>
+        <v>45435</v>
       </c>
       <c r="R28" s="2">
-        <v>45464</v>
+        <v>45439</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="T28" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="U28" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="V28" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="W28" t="s">
         <v>14</v>
@@ -2967,25 +2871,25 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D29" s="2">
-        <v>45463</v>
+        <v>45440</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -2994,10 +2898,10 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -3006,28 +2910,28 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="2">
-        <v>45463</v>
+        <v>45440</v>
       </c>
       <c r="R29" s="2">
-        <v>45464</v>
+        <v>45441</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="T29" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="U29" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="V29" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="W29" t="s">
         <v>14</v>
@@ -3041,25 +2945,25 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D30" s="2">
-        <v>45463</v>
+        <v>45441</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3068,10 +2972,10 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L30" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -3080,28 +2984,28 @@
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="2">
-        <v>45463</v>
+        <v>45441</v>
       </c>
       <c r="R30" s="2">
-        <v>45464</v>
+        <v>45442</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="T30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="U30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="W30" t="s">
         <v>14</v>
@@ -3115,25 +3019,25 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45441</v>
+      </c>
+      <c r="E31" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="2">
-        <v>45463</v>
-      </c>
-      <c r="E31" t="s">
-        <v>159</v>
-      </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3142,10 +3046,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L31" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -3154,28 +3058,28 @@
         <v>10</v>
       </c>
       <c r="O31" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="2">
-        <v>45463</v>
+        <v>45441</v>
       </c>
       <c r="R31" s="2">
-        <v>45464</v>
+        <v>45442</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="T31" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="U31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="W31" t="s">
         <v>14</v>
@@ -3189,25 +3093,25 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="D32" s="2">
-        <v>45488</v>
+        <v>45441</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="G32" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3216,10 +3120,10 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="L32" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -3228,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="2">
-        <v>45488</v>
+        <v>45441</v>
       </c>
       <c r="R32" s="2">
-        <v>45488</v>
+        <v>45442</v>
       </c>
       <c r="S32" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="T32" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="U32" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="V32" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="W32" t="s">
         <v>14</v>
@@ -3263,37 +3167,37 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="D33" s="2">
-        <v>45488</v>
+        <v>45441</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="G33" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H33" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="L33" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -3302,28 +3206,28 @@
         <v>10</v>
       </c>
       <c r="O33" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="2">
-        <v>45488</v>
+        <v>45441</v>
       </c>
       <c r="R33" s="2">
-        <v>45488</v>
+        <v>45442</v>
       </c>
       <c r="S33" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="T33" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="U33" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="V33" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
@@ -3337,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -3346,16 +3250,16 @@
         <v>45488</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G34" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H34" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -3364,10 +3268,10 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L34" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M34" t="s">
         <v>9</v>
@@ -3376,10 +3280,10 @@
         <v>10</v>
       </c>
       <c r="O34" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="Q34" s="2">
         <v>45488</v>
@@ -3388,7 +3292,7 @@
         <v>45488</v>
       </c>
       <c r="S34" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="T34" t="s">
         <v>23</v>
@@ -3411,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -3420,28 +3324,28 @@
         <v>45488</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G35" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="K35" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L35" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -3450,10 +3354,10 @@
         <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="Q35" s="2">
         <v>45488</v>
@@ -3462,7 +3366,7 @@
         <v>45488</v>
       </c>
       <c r="S35" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="T35" t="s">
         <v>23</v>
@@ -3485,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -3494,16 +3398,16 @@
         <v>45488</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="G36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3512,10 +3416,10 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L36" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -3524,10 +3428,10 @@
         <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="Q36" s="2">
         <v>45488</v>
@@ -3536,7 +3440,7 @@
         <v>45488</v>
       </c>
       <c r="S36" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="T36" t="s">
         <v>23</v>
@@ -3559,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -3568,16 +3472,16 @@
         <v>45488</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="G37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3586,10 +3490,10 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L37" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -3598,10 +3502,10 @@
         <v>10</v>
       </c>
       <c r="O37" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="Q37" s="2">
         <v>45488</v>
@@ -3610,7 +3514,7 @@
         <v>45488</v>
       </c>
       <c r="S37" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="T37" t="s">
         <v>23</v>
@@ -3633,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -3642,16 +3546,16 @@
         <v>45488</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G38" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -3660,10 +3564,10 @@
         <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L38" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M38" t="s">
         <v>9</v>
@@ -3672,10 +3576,10 @@
         <v>10</v>
       </c>
       <c r="O38" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="2">
         <v>45488</v>
@@ -3684,7 +3588,7 @@
         <v>45488</v>
       </c>
       <c r="S38" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="T38" t="s">
         <v>23</v>
@@ -3707,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
@@ -3716,16 +3620,16 @@
         <v>45488</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G39" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H39" s="3">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -3734,10 +3638,10 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L39" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M39" t="s">
         <v>9</v>
@@ -3746,10 +3650,10 @@
         <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="2">
         <v>45488</v>
@@ -3758,7 +3662,7 @@
         <v>45488</v>
       </c>
       <c r="S39" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="T39" t="s">
         <v>23</v>
@@ -3778,70 +3682,70 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2">
-        <v>45308</v>
+        <v>45488</v>
       </c>
       <c r="E40" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="G40" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="L40" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="M40" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="N40" t="s">
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="Q40" s="2">
-        <v>45308</v>
+        <v>45488</v>
       </c>
       <c r="R40" s="2">
-        <v>45309</v>
+        <v>45488</v>
       </c>
       <c r="S40" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="T40" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="U40" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="V40" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="W40" t="s">
         <v>14</v>
@@ -3852,70 +3756,70 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2">
-        <v>45308</v>
+        <v>45488</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H41" s="3">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="L41" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="M41" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="N41" t="s">
         <v>10</v>
       </c>
       <c r="O41" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="Q41" s="2">
-        <v>45308</v>
+        <v>45488</v>
       </c>
       <c r="R41" s="2">
-        <v>45309</v>
+        <v>45488</v>
       </c>
       <c r="S41" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="T41" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="U41" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="V41" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="W41" t="s">
         <v>14</v>
@@ -3926,22 +3830,22 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D42" s="2">
         <v>45308</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F42" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -3953,25 +3857,25 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="K42" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L42" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="M42" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N42" t="s">
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="Q42" s="2">
         <v>45308</v>
@@ -3983,13 +3887,13 @@
         <v>38</v>
       </c>
       <c r="T42" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="U42" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="V42" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="W42" t="s">
         <v>14</v>
@@ -4000,22 +3904,22 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D43" s="2">
-        <v>45427</v>
+        <v>45308</v>
       </c>
       <c r="E43" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="F43" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -4027,43 +3931,43 @@
         <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="K43" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="L43" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="M43" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="N43" t="s">
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="P43" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="Q43" s="2">
-        <v>45427</v>
+        <v>45308</v>
       </c>
       <c r="R43" s="2">
-        <v>45427</v>
+        <v>45309</v>
       </c>
       <c r="S43" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="T43" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="U43" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="V43" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="W43" t="s">
         <v>14</v>
@@ -4074,22 +3978,22 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D44" s="2">
-        <v>45428</v>
+        <v>45308</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -4101,43 +4005,43 @@
         <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="K44" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L44" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="M44" t="s">
+        <v>172</v>
+      </c>
+      <c r="N44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" t="s">
         <v>184</v>
       </c>
-      <c r="N44" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" t="s">
-        <v>209</v>
-      </c>
       <c r="P44" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="Q44" s="2">
-        <v>45428</v>
+        <v>45308</v>
       </c>
       <c r="R44" s="2">
-        <v>45429</v>
+        <v>45309</v>
       </c>
       <c r="S44" t="s">
         <v>38</v>
       </c>
       <c r="T44" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="U44" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="V44" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="W44" t="s">
         <v>14</v>
@@ -4148,149 +4052,75 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D45" s="2">
-        <v>45434</v>
+        <v>45428</v>
       </c>
       <c r="E45" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F45" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="G45" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
       </c>
       <c r="J45" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="M45" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="N45" t="s">
         <v>10</v>
       </c>
       <c r="O45" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="P45" t="s">
         <v>37</v>
       </c>
       <c r="Q45" s="2">
-        <v>45434</v>
+        <v>45428</v>
       </c>
       <c r="R45" s="2">
-        <v>45436</v>
+        <v>45429</v>
       </c>
       <c r="S45" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="T45" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="U45" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="V45" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="W45" t="s">
         <v>14</v>
       </c>
       <c r="X45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
-      <c r="A46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="2">
-        <v>45483</v>
-      </c>
-      <c r="E46" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" t="s">
-        <v>220</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3">
-        <v>3</v>
-      </c>
-      <c r="I46" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" t="s">
-        <v>181</v>
-      </c>
-      <c r="K46" t="s">
-        <v>201</v>
-      </c>
-      <c r="L46" t="s">
-        <v>202</v>
-      </c>
-      <c r="M46" t="s">
-        <v>9</v>
-      </c>
-      <c r="N46" t="s">
-        <v>10</v>
-      </c>
-      <c r="O46" t="s">
-        <v>221</v>
-      </c>
-      <c r="P46" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>45483</v>
-      </c>
-      <c r="R46" s="2">
-        <v>45483</v>
-      </c>
-      <c r="S46" t="s">
-        <v>222</v>
-      </c>
-      <c r="T46" t="s">
-        <v>201</v>
-      </c>
-      <c r="U46" t="s">
-        <v>198</v>
-      </c>
-      <c r="V46" t="s">
-        <v>202</v>
-      </c>
-      <c r="W46" t="s">
-        <v>14</v>
-      </c>
-      <c r="X46" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ANZ.XLSX
+++ b/ANZ.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="287">
   <si>
     <t>P891</t>
   </si>
@@ -154,16 +154,187 @@
     <t>Reagent Set 68Ga-labeled peptides</t>
   </si>
   <si>
-    <t>134030916</t>
+    <t>134028879</t>
+  </si>
+  <si>
+    <t>Campbelltown Private Hospital</t>
+  </si>
+  <si>
+    <t>80727543</t>
+  </si>
+  <si>
+    <t>UROGRAFIN 30% SOLU AMPO 10x10ml AU</t>
+  </si>
+  <si>
+    <t>3673730</t>
+  </si>
+  <si>
+    <t>Campbelltown</t>
+  </si>
+  <si>
+    <t>717247335</t>
+  </si>
+  <si>
+    <t>010050</t>
+  </si>
+  <si>
+    <t>4595617</t>
+  </si>
+  <si>
+    <t>HEALTHSCOPE LTD</t>
+  </si>
+  <si>
+    <t>MELBOURNE</t>
+  </si>
+  <si>
+    <t>134023629</t>
+  </si>
+  <si>
+    <t>BATHURST HOSPITAL</t>
+  </si>
+  <si>
+    <t>80802544</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>4596042</t>
+  </si>
+  <si>
+    <t>BATHURST</t>
+  </si>
+  <si>
+    <t>717247888</t>
+  </si>
+  <si>
+    <t>4596048</t>
+  </si>
+  <si>
+    <t>WESTERN NSW LOCAL HEALTH DISTRICT O</t>
+  </si>
+  <si>
+    <t>PARRAMATTA</t>
+  </si>
+  <si>
+    <t>134023630</t>
+  </si>
+  <si>
+    <t>CONCORD HOSPITAL</t>
+  </si>
+  <si>
+    <t>4595884</t>
+  </si>
+  <si>
+    <t>CONCORD WEST</t>
+  </si>
+  <si>
+    <t>717250289</t>
+  </si>
+  <si>
+    <t>4595817</t>
+  </si>
+  <si>
+    <t>SYDNEY LOCAL HEALTH DISTRICT OU</t>
+  </si>
+  <si>
+    <t>134023631</t>
+  </si>
+  <si>
+    <t>LIVERPOOL HOSPITAL</t>
+  </si>
+  <si>
+    <t>60937964</t>
+  </si>
+  <si>
+    <t>LABEL,PRINTER,THERMAL,PSA,INTEGO</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>4596092</t>
+  </si>
+  <si>
+    <t>LIVERPOOL</t>
+  </si>
+  <si>
+    <t>717250363</t>
+  </si>
+  <si>
+    <t>4596097</t>
+  </si>
+  <si>
+    <t>SOUTH WESTERN SYDNEY LOCAL HEALTH D</t>
+  </si>
+  <si>
+    <t>86617501</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,PAS,60",MC,WLD</t>
+  </si>
+  <si>
+    <t>86566621</t>
+  </si>
+  <si>
+    <t>ASSY,TBG,SAS,SPIKE,T-CONN,MC,WLD</t>
+  </si>
+  <si>
+    <t>134025224</t>
+  </si>
+  <si>
+    <t>NORTH SHORE RADIOLOGY &amp; NUCLEAR</t>
+  </si>
+  <si>
+    <t>87548082</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,PATIENT LINE,NP,CENT,CORE</t>
+  </si>
+  <si>
+    <t>4687155</t>
+  </si>
+  <si>
+    <t>ST LEONARDS</t>
+  </si>
+  <si>
+    <t>717254902</t>
+  </si>
+  <si>
+    <t>4686653</t>
+  </si>
+  <si>
+    <t>NORTH SHORE PRIVATE HOSPITAL</t>
+  </si>
+  <si>
+    <t>86698242</t>
+  </si>
+  <si>
+    <t>STLNT,KIT,SYR,CT,SNGL,60",SPK,MC,WLD</t>
+  </si>
+  <si>
+    <t>134027029</t>
+  </si>
+  <si>
+    <t>87548783</t>
+  </si>
+  <si>
+    <t>ASSY,DAY SET,CENTARGO,ROW</t>
+  </si>
+  <si>
+    <t>717247898</t>
+  </si>
+  <si>
+    <t>134029115</t>
   </si>
   <si>
     <t>PRINCESS ALEXANDRA HOSPITAL</t>
   </si>
   <si>
-    <t>87548783</t>
-  </si>
-  <si>
-    <t>ASSY,DAY SET,CENTARGO,ROW</t>
+    <t>82212737</t>
+  </si>
+  <si>
+    <t>BILISCOPIN SOLU BT 1x100 ml AU NZ</t>
   </si>
   <si>
     <t>4596272</t>
@@ -172,64 +343,226 @@
     <t>WOOLLOONGABBA</t>
   </si>
   <si>
-    <t>717246981</t>
+    <t>717250278</t>
+  </si>
+  <si>
+    <t>4595416</t>
+  </si>
+  <si>
+    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
+  </si>
+  <si>
+    <t>EIGHT MILE PLAINS</t>
+  </si>
+  <si>
+    <t>134030954</t>
+  </si>
+  <si>
+    <t>AUBURN HOSPITAL</t>
+  </si>
+  <si>
+    <t>4596110</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
+  </si>
+  <si>
+    <t>717255520</t>
+  </si>
+  <si>
+    <t>4596108</t>
+  </si>
+  <si>
+    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
+  </si>
+  <si>
+    <t>134031973</t>
+  </si>
+  <si>
+    <t>ALTUS MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>1072395</t>
+  </si>
+  <si>
+    <t>GLADESVILLE</t>
+  </si>
+  <si>
+    <t>717247322</t>
   </si>
   <si>
     <t>EHGHA</t>
   </si>
   <si>
-    <t>4595416</t>
-  </si>
-  <si>
-    <t>METRO SOUTH HOSPITAL &amp; HEALTH</t>
-  </si>
-  <si>
-    <t>EIGHT MILE PLAINS</t>
-  </si>
-  <si>
-    <t>87548384</t>
-  </si>
-  <si>
-    <t>ASSY,SPIKE,BBRAUN,CENTARGO,ROW</t>
-  </si>
-  <si>
-    <t>134030977</t>
-  </si>
-  <si>
-    <t>MT DRUITT HOSPITAL</t>
-  </si>
-  <si>
-    <t>86835444</t>
-  </si>
-  <si>
-    <t>MRXPERION,KIT,SYR,MR,PFA,JA,FINAL</t>
-  </si>
-  <si>
-    <t>3309340</t>
-  </si>
-  <si>
-    <t>MOUNT DRUITT</t>
-  </si>
-  <si>
-    <t>717252276</t>
-  </si>
-  <si>
-    <t>010050</t>
-  </si>
-  <si>
-    <t>4596108</t>
-  </si>
-  <si>
-    <t>WESTERN SYDNEY LOCAL HEALTH DISTRIC</t>
-  </si>
-  <si>
-    <t>PARRAMATTA</t>
-  </si>
-  <si>
-    <t>86594226</t>
-  </si>
-  <si>
-    <t>MRXP,KIT,SYR,MRI,65/115ML,MC,WLD</t>
+    <t>1072408</t>
+  </si>
+  <si>
+    <t>ALTUS MEDICAL IMAGING PTY LTD</t>
+  </si>
+  <si>
+    <t>CASTLE HILL</t>
+  </si>
+  <si>
+    <t>134031983</t>
+  </si>
+  <si>
+    <t>LAKE IMAGING - BALLARAT</t>
+  </si>
+  <si>
+    <t>4595977</t>
+  </si>
+  <si>
+    <t>BALLARAT</t>
+  </si>
+  <si>
+    <t>717249392</t>
+  </si>
+  <si>
+    <t>4595969</t>
+  </si>
+  <si>
+    <t>LAKE IMAGING PTY LTD</t>
+  </si>
+  <si>
+    <t>GEELONG</t>
+  </si>
+  <si>
+    <t>134033143</t>
+  </si>
+  <si>
+    <t>CLIFFORD HALLAM HEALTHCARE PTY LTD</t>
+  </si>
+  <si>
+    <t>3309560</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>717248806</t>
+  </si>
+  <si>
+    <t>ROSELANDS</t>
+  </si>
+  <si>
+    <t>134033144</t>
+  </si>
+  <si>
+    <t>4060345</t>
+  </si>
+  <si>
+    <t>KEYSBOROUGH</t>
+  </si>
+  <si>
+    <t>717252055</t>
+  </si>
+  <si>
+    <t>134033145</t>
+  </si>
+  <si>
+    <t>86936380</t>
+  </si>
+  <si>
+    <t>ASSY,TUBE SET,MRXP MP,MIC,MC,WLD</t>
+  </si>
+  <si>
+    <t>4595639</t>
+  </si>
+  <si>
+    <t>St Leonards</t>
+  </si>
+  <si>
+    <t>717255612</t>
+  </si>
+  <si>
+    <t>134025525</t>
+  </si>
+  <si>
+    <t>Clifford Hallam Healthcare</t>
+  </si>
+  <si>
+    <t>Eastern Creek</t>
+  </si>
+  <si>
+    <t>717242108</t>
+  </si>
+  <si>
+    <t>010230</t>
+  </si>
+  <si>
+    <t>134025526</t>
+  </si>
+  <si>
+    <t>PERTH RAD CLINIC- BOORAGOON</t>
+  </si>
+  <si>
+    <t>87238504</t>
+  </si>
+  <si>
+    <t>TUBE,EXT,SINGLE,WLD1</t>
+  </si>
+  <si>
+    <t>2118585</t>
+  </si>
+  <si>
+    <t>BOORAGOON</t>
+  </si>
+  <si>
+    <t>717252666</t>
+  </si>
+  <si>
+    <t>010530</t>
+  </si>
+  <si>
+    <t>4595291</t>
+  </si>
+  <si>
+    <t>PERTHRADCLINIC LTD</t>
+  </si>
+  <si>
+    <t>MIRRABOOKA</t>
+  </si>
+  <si>
+    <t>87234495</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
+  </si>
+  <si>
+    <t>87236072</t>
+  </si>
+  <si>
+    <t>SYRINGE,SALIENT,SPK,WLD1</t>
+  </si>
+  <si>
+    <t>87235971</t>
+  </si>
+  <si>
+    <t>TUBE,EXT,DUAL,WLD1</t>
+  </si>
+  <si>
+    <t>02112548</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
+  </si>
+  <si>
+    <t>86645556</t>
+  </si>
+  <si>
+    <t>MR,KIT,SYR,MRI,115ML,96",MC,WLD</t>
+  </si>
+  <si>
+    <t>03250768</t>
+  </si>
+  <si>
+    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
+  </si>
+  <si>
+    <t>134025527</t>
+  </si>
+  <si>
+    <t>SKG RADIOLOGY - COCKBURN</t>
   </si>
   <si>
     <t>87621529</t>
@@ -238,190 +571,13 @@
     <t>GADOVIST 1.0 SOLU PFS 5X10ML AU-NZ</t>
   </si>
   <si>
-    <t>133983999</t>
-  </si>
-  <si>
-    <t>TEMORA MEDICAL IMAGING</t>
-  </si>
-  <si>
-    <t>87234495</t>
-  </si>
-  <si>
-    <t>SYRINGE,SALIENT,QFT,W/LPCT,WLD1</t>
-  </si>
-  <si>
-    <t>4595189</t>
-  </si>
-  <si>
-    <t>TEMORA</t>
-  </si>
-  <si>
-    <t>717247999</t>
-  </si>
-  <si>
-    <t>1943887</t>
-  </si>
-  <si>
-    <t>ALPENGLOW AUSTRALIA PTY LTD</t>
-  </si>
-  <si>
-    <t>SYDNEY</t>
-  </si>
-  <si>
-    <t>134030974</t>
-  </si>
-  <si>
-    <t>TAMWORTH HEALTH SERVICE</t>
-  </si>
-  <si>
-    <t>87078752</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,D,SPK,FLS3,150ML,WLD</t>
-  </si>
-  <si>
-    <t>4595242</t>
-  </si>
-  <si>
-    <t>TAMWORTH</t>
-  </si>
-  <si>
-    <t>717251785</t>
-  </si>
-  <si>
-    <t>4595328</t>
-  </si>
-  <si>
-    <t>HUNTER NEW ENGLAND LOCAL HEALTH DIS</t>
-  </si>
-  <si>
-    <t>NEWCASTLE</t>
-  </si>
-  <si>
-    <t>87078760</t>
-  </si>
-  <si>
-    <t>STLNT,KIT,SYR,CT,S,SPK,FLS3,150ML,WLD</t>
-  </si>
-  <si>
-    <t>134030975</t>
-  </si>
-  <si>
-    <t>GOULBURN VALLEY HEALTH</t>
-  </si>
-  <si>
-    <t>4595200</t>
-  </si>
-  <si>
-    <t>SHEPPARTON</t>
-  </si>
-  <si>
-    <t>717251825</t>
-  </si>
-  <si>
-    <t>4595194</t>
-  </si>
-  <si>
-    <t>134030978</t>
-  </si>
-  <si>
-    <t>BARWON MEDICAL IMAGING - GEELONG</t>
-  </si>
-  <si>
-    <t>4596081</t>
-  </si>
-  <si>
-    <t>GEELONG</t>
-  </si>
-  <si>
-    <t>717254531</t>
-  </si>
-  <si>
-    <t>4596084</t>
-  </si>
-  <si>
-    <t>BARWON HEALTH</t>
-  </si>
-  <si>
-    <t>64432956</t>
-  </si>
-  <si>
-    <t>Methanol, Chromasolv for HPLC 1Lt</t>
-  </si>
-  <si>
-    <t>134030979</t>
-  </si>
-  <si>
-    <t>NEPEAN BLUE MOUNTAINS LOCAL</t>
-  </si>
-  <si>
-    <t>918110</t>
-  </si>
-  <si>
-    <t>2 Col Drewe Drive Lithgow</t>
-  </si>
-  <si>
-    <t>717254910</t>
-  </si>
-  <si>
-    <t>4596182</t>
-  </si>
-  <si>
-    <t>80802544</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>02112548</t>
-  </si>
-  <si>
-    <t>GADOVIST 1.0 SOLU PFS 5X7.5ML AU-NZ</t>
-  </si>
-  <si>
-    <t>134030981</t>
-  </si>
-  <si>
-    <t>DUBBO BASE HOSPITAL</t>
-  </si>
-  <si>
-    <t>4596045</t>
-  </si>
-  <si>
-    <t>DUBBO</t>
-  </si>
-  <si>
-    <t>717250229</t>
-  </si>
-  <si>
-    <t>4596048</t>
-  </si>
-  <si>
-    <t>WESTERN NSW LOCAL HEALTH DISTRICT O</t>
-  </si>
-  <si>
-    <t>134023291</t>
-  </si>
-  <si>
-    <t>SKG RADIOLOGY - BUNBURY</t>
-  </si>
-  <si>
-    <t>86645610</t>
-  </si>
-  <si>
-    <t>ASSY,TUBE SET,LPCT,TC,STLNT,MC,WLD</t>
-  </si>
-  <si>
-    <t>4633130</t>
-  </si>
-  <si>
-    <t>BUNBURY</t>
-  </si>
-  <si>
-    <t>717246153</t>
-  </si>
-  <si>
-    <t>010530</t>
+    <t>4595129</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>717255802</t>
   </si>
   <si>
     <t>4595069</t>
@@ -433,36 +589,6 @@
     <t>WEST PERTH</t>
   </si>
   <si>
-    <t>134028280</t>
-  </si>
-  <si>
-    <t>SIR CHARLES GAIRDNER HOSPITAL</t>
-  </si>
-  <si>
-    <t>4595761</t>
-  </si>
-  <si>
-    <t>NEDLANDS</t>
-  </si>
-  <si>
-    <t>717249026</t>
-  </si>
-  <si>
-    <t>4595766</t>
-  </si>
-  <si>
-    <t>DEPARTMENT OF HEALTH WA</t>
-  </si>
-  <si>
-    <t>RAILWAY ROAD</t>
-  </si>
-  <si>
-    <t>03250768</t>
-  </si>
-  <si>
-    <t>PRIMOVIST SOLU PFS 1X10ML AU-NZ</t>
-  </si>
-  <si>
     <t>133989039</t>
   </si>
   <si>
@@ -584,6 +710,96 @@
   </si>
   <si>
     <t>2172557718</t>
+  </si>
+  <si>
+    <t>134025117</t>
+  </si>
+  <si>
+    <t>TECHNISONIC SYSTEM 2013 LTD</t>
+  </si>
+  <si>
+    <t>64429211</t>
+  </si>
+  <si>
+    <t>8 Channel Wireless oPOD</t>
+  </si>
+  <si>
+    <t>4595848</t>
+  </si>
+  <si>
+    <t>ALBANY</t>
+  </si>
+  <si>
+    <t>717197864</t>
+  </si>
+  <si>
+    <t>134026117</t>
+  </si>
+  <si>
+    <t>Electronics Medicus</t>
+  </si>
+  <si>
+    <t>87471888</t>
+  </si>
+  <si>
+    <t>Battery 12V9 Ah, Single Cell</t>
+  </si>
+  <si>
+    <t>Mile End</t>
+  </si>
+  <si>
+    <t>2172563610</t>
+  </si>
+  <si>
+    <t>87474356</t>
+  </si>
+  <si>
+    <t>Lithium Coin Cell CR1225</t>
+  </si>
+  <si>
+    <t>87447049</t>
+  </si>
+  <si>
+    <t>9 volt battery</t>
+  </si>
+  <si>
+    <t>87474399</t>
+  </si>
+  <si>
+    <t>5.7 LCD Display</t>
+  </si>
+  <si>
+    <t>134023632</t>
+  </si>
+  <si>
+    <t>JONES RADIOLOGY - ALICE SPRINGS</t>
+  </si>
+  <si>
+    <t>4595367</t>
+  </si>
+  <si>
+    <t>ALICE SPRINGS</t>
+  </si>
+  <si>
+    <t>717254802</t>
+  </si>
+  <si>
+    <t>040230</t>
+  </si>
+  <si>
+    <t>134007935</t>
+  </si>
+  <si>
+    <t>86070081</t>
+  </si>
+  <si>
+    <t>Stop Cock Drive Board</t>
+  </si>
+  <si>
+    <t>717238117</t>
+  </si>
+  <si>
+    <t>000010</t>
   </si>
   <si>
     <t>Shipping Point/Receiving Pt</t>
@@ -760,7 +976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,7 +986,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" width="18" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="11" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="34" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="36" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="14" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
     <col min="6" max="6" bestFit="1" width="42" customWidth="1"/>
@@ -789,83 +1005,83 @@
     <col min="19" max="19" bestFit="1" width="8" customWidth="1"/>
     <col min="20" max="20" bestFit="1" width="15" customWidth="1"/>
     <col min="21" max="21" bestFit="1" width="37" customWidth="1"/>
-    <col min="22" max="22" bestFit="1" width="19" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="31" customWidth="1"/>
     <col min="23" max="23" bestFit="1" width="12" customWidth="1"/>
     <col min="24" max="24" bestFit="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>212</v>
+        <v>283</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1628,10 +1844,10 @@
         <v>50</v>
       </c>
       <c r="G12" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H12" s="3">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -1655,7 +1871,7 @@
         <v>53</v>
       </c>
 